--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="443">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -248,6 +248,45 @@
     <t>'626402.175.511126.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.DB.000356</t>
   </si>
   <si>
+    <t>13-FEB-23</t>
+  </si>
+  <si>
+    <t>'00071T</t>
+  </si>
+  <si>
+    <t>'231751303001502</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Pegawai (Pembayaran Uang Makan PNS SET BRSDM Bulan Januari 2023 Untuk 72 Pegawai)</t>
+  </si>
+  <si>
+    <t>'626402.175.511129.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.AA.000335</t>
+  </si>
+  <si>
+    <t>'00069T</t>
+  </si>
+  <si>
+    <t>'231751303001503</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Pegawai (Pembayaran Uang Makan PNS Puslatluh Bulan Januari 2023 untuk 34 Pegawai)</t>
+  </si>
+  <si>
+    <t>'626402.175.511129.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.DA.000346</t>
+  </si>
+  <si>
+    <t>'00070T</t>
+  </si>
+  <si>
+    <t>'231751303001501</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Pegawai (Pembayaran Uang Makan PNS Pusdik Bulan Januari 2023 Untuk 41 Pegawai)</t>
+  </si>
+  <si>
+    <t>'626402.175.511129.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.DB.000357</t>
+  </si>
+  <si>
     <t>'626402.175.511151.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.AA.000336</t>
   </si>
   <si>
@@ -335,6 +374,27 @@
     <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000405</t>
   </si>
   <si>
+    <t>10-FEB-23</t>
+  </si>
+  <si>
+    <t>'00067T</t>
+  </si>
+  <si>
+    <t>'231751303001408</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Berupa Honor PPNPN Bulan Januari Tahun 2023 untuk 2 Pegawai Sesuai Surat Keputusan Nomor:KEP.1/KPA/BRSDM/I/2023 Tanggal 02 Januari 2023</t>
+  </si>
+  <si>
+    <t>'00068T</t>
+  </si>
+  <si>
+    <t>'231751303001475</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Berupa Honor PPNPN Bulan Januari Tahun 2023 untuk 1 Pegawai Sesuai Surat Keputusan Nomor:KEP.1/KPA/BRSDM/I/2023 Tanggal 02 Januari 2023</t>
+  </si>
+  <si>
     <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000406</t>
   </si>
   <si>
@@ -593,6 +653,30 @@
     <t>'626402.175.521219.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.301.0A.001276</t>
   </si>
   <si>
+    <t>15-FEB-23</t>
+  </si>
+  <si>
+    <t>'00065T</t>
+  </si>
+  <si>
+    <t>'231751303001564</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya hidup peserta lanjutan tubel Prog S2 dan S3 IPB, UNDIP, UNPAD, UB dan UNS Periode Jan-Juni 2023 sesuai dengan SK Ka BRSDM KP No: 520 Tahun 2022 Tgl 11 Agustus 2022 an. Fitriska Hapsyari Sutrisno, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.521219.03212WA.4345EBC.A000000001.00000.1.0151.2.000000.000000.996.301.0B.001319</t>
+  </si>
+  <si>
+    <t>'00066T</t>
+  </si>
+  <si>
+    <t>'231751303001563</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya hidup lanjutan tubel Prog S2 dan S3 IPB, UNDIP, AUP, UB dan UNS Periode Jan-Juni 2023 sesuai dengan SK Ka BRSDM KP No: 757/KPA/BRSDM/VIII/2021 Tgl 13-8-2021 dan 107/KEP-BRSDM/2020 Tgl 18-82020 an. Endang Puji Lestari, dkk</t>
+  </si>
+  <si>
     <t>'626402.175.521241.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.956.101.0C.000208</t>
   </si>
   <si>
@@ -731,9 +815,6 @@
     <t>'626402.175.522191.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.101.0A.000283</t>
   </si>
   <si>
-    <t>10-FEB-23</t>
-  </si>
-  <si>
     <t>'00059T</t>
   </si>
   <si>
@@ -987,6 +1068,18 @@
   </si>
   <si>
     <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.301.0E.000640</t>
+  </si>
+  <si>
+    <t>'00064T</t>
+  </si>
+  <si>
+    <t>'231751303001561</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang dalam rangka Pendampingan Kolaborasi Penyuluh dengan program Desa Perikanan Cerdas (SFV) Sesuai Surat Tugas Nomor:B.249/BRSDM.4/KP.440/I/2023 tanggal 24 Januari 2023</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.301.0G.000654</t>
   </si>
   <si>
     <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.301.0H.000659</t>
@@ -1592,7 +1685,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L267"/>
+  <dimension ref="A1:L275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -3937,19 +4030,19 @@
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I64" t="s">
         <v>19</v>
@@ -3958,10 +4051,10 @@
         <v>1</v>
       </c>
       <c r="K64">
-        <v>7370000</v>
+        <v>28977000</v>
       </c>
       <c r="L64">
-        <v>7370000</v>
+        <v>28977000</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3975,19 +4068,19 @@
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I65" t="s">
         <v>19</v>
@@ -3996,10 +4089,10 @@
         <v>1</v>
       </c>
       <c r="K65">
-        <v>190000</v>
+        <v>22005000</v>
       </c>
       <c r="L65">
-        <v>190000</v>
+        <v>22005000</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4013,19 +4106,19 @@
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I66" t="s">
         <v>19</v>
@@ -4034,10 +4127,10 @@
         <v>1</v>
       </c>
       <c r="K66">
-        <v>7560000</v>
+        <v>24089000</v>
       </c>
       <c r="L66">
-        <v>7560000</v>
+        <v>24089000</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4054,16 +4147,16 @@
         <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I67" t="s">
         <v>19</v>
@@ -4072,10 +4165,10 @@
         <v>1</v>
       </c>
       <c r="K67">
-        <v>3150000</v>
+        <v>7370000</v>
       </c>
       <c r="L67">
-        <v>3150000</v>
+        <v>7370000</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4089,19 +4182,19 @@
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H68" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I68" t="s">
         <v>19</v>
@@ -4110,10 +4203,10 @@
         <v>1</v>
       </c>
       <c r="K68">
-        <v>3150000</v>
+        <v>190000</v>
       </c>
       <c r="L68">
-        <v>3150000</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4127,19 +4220,19 @@
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I69" t="s">
         <v>19</v>
@@ -4148,10 +4241,10 @@
         <v>1</v>
       </c>
       <c r="K69">
-        <v>4800000</v>
+        <v>7560000</v>
       </c>
       <c r="L69">
-        <v>4800000</v>
+        <v>7560000</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4165,19 +4258,19 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H70" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I70" t="s">
         <v>19</v>
@@ -4186,10 +4279,10 @@
         <v>1</v>
       </c>
       <c r="K70">
-        <v>4800000</v>
+        <v>3150000</v>
       </c>
       <c r="L70">
-        <v>4800000</v>
+        <v>3150000</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4203,19 +4296,19 @@
         <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H71" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I71" t="s">
         <v>19</v>
@@ -4224,10 +4317,10 @@
         <v>1</v>
       </c>
       <c r="K71">
-        <v>370000</v>
+        <v>3150000</v>
       </c>
       <c r="L71">
-        <v>370000</v>
+        <v>3150000</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4241,19 +4334,19 @@
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="H72" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I72" t="s">
         <v>19</v>
@@ -4262,10 +4355,10 @@
         <v>1</v>
       </c>
       <c r="K72">
-        <v>411490206</v>
+        <v>4800000</v>
       </c>
       <c r="L72">
-        <v>411490206</v>
+        <v>4800000</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4279,19 +4372,19 @@
         <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="H73" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I73" t="s">
         <v>19</v>
@@ -4300,10 +4393,10 @@
         <v>1</v>
       </c>
       <c r="K73">
-        <v>204565986</v>
+        <v>4800000</v>
       </c>
       <c r="L73">
-        <v>204565986</v>
+        <v>4800000</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4320,16 +4413,16 @@
         <v>42</v>
       </c>
       <c r="E74" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I74" t="s">
         <v>19</v>
@@ -4338,10 +4431,10 @@
         <v>1</v>
       </c>
       <c r="K74">
-        <v>228513450</v>
+        <v>370000</v>
       </c>
       <c r="L74">
-        <v>228513450</v>
+        <v>370000</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4355,19 +4448,19 @@
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I75" t="s">
         <v>19</v>
@@ -4376,10 +4469,10 @@
         <v>1</v>
       </c>
       <c r="K75">
-        <v>22755500</v>
+        <v>411490206</v>
       </c>
       <c r="L75">
-        <v>22755500</v>
+        <v>411490206</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4393,7 +4486,7 @@
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="E76" t="s">
         <v>97</v>
@@ -4405,7 +4498,7 @@
         <v>99</v>
       </c>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I76" t="s">
         <v>19</v>
@@ -4414,10 +4507,10 @@
         <v>1</v>
       </c>
       <c r="K76">
-        <v>15202500</v>
+        <v>204565986</v>
       </c>
       <c r="L76">
-        <v>15202500</v>
+        <v>204565986</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4431,19 +4524,19 @@
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="E77" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F77" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G77" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I77" t="s">
         <v>19</v>
@@ -4452,10 +4545,10 @@
         <v>1</v>
       </c>
       <c r="K77">
-        <v>20000000</v>
+        <v>228513450</v>
       </c>
       <c r="L77">
-        <v>20000000</v>
+        <v>228513450</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4472,16 +4565,16 @@
         <v>24</v>
       </c>
       <c r="E78" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F78" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G78" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I78" t="s">
         <v>19</v>
@@ -4490,10 +4583,10 @@
         <v>1</v>
       </c>
       <c r="K78">
-        <v>1103568</v>
+        <v>22755500</v>
       </c>
       <c r="L78">
-        <v>1103568</v>
+        <v>22755500</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4507,19 +4600,19 @@
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F79" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G79" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I79" t="s">
         <v>19</v>
@@ -4528,10 +4621,10 @@
         <v>1</v>
       </c>
       <c r="K79">
-        <v>178640000</v>
+        <v>15202500</v>
       </c>
       <c r="L79">
-        <v>178640000</v>
+        <v>15202500</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4545,19 +4638,19 @@
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F80" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G80" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I80" t="s">
         <v>19</v>
@@ -4566,10 +4659,10 @@
         <v>1</v>
       </c>
       <c r="K80">
-        <v>28075000</v>
+        <v>20000000</v>
       </c>
       <c r="L80">
-        <v>28075000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4586,16 +4679,16 @@
         <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F81" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G81" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I81" t="s">
         <v>19</v>
@@ -4604,10 +4697,10 @@
         <v>1</v>
       </c>
       <c r="K81">
-        <v>1047340</v>
+        <v>1103568</v>
       </c>
       <c r="L81">
-        <v>1047340</v>
+        <v>1103568</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4624,16 +4717,16 @@
         <v>24</v>
       </c>
       <c r="E82" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="F82" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="G82" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I82" t="s">
         <v>19</v>
@@ -4642,10 +4735,10 @@
         <v>1</v>
       </c>
       <c r="K82">
-        <v>151605</v>
+        <v>178640000</v>
       </c>
       <c r="L82">
-        <v>151605</v>
+        <v>178640000</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4659,19 +4752,19 @@
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="E83" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F83" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G83" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I83" t="s">
         <v>19</v>
@@ -4680,10 +4773,10 @@
         <v>1</v>
       </c>
       <c r="K83">
-        <v>3918000</v>
+        <v>10208000</v>
       </c>
       <c r="L83">
-        <v>3918000</v>
+        <v>10208000</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4697,19 +4790,19 @@
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="E84" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F84" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G84" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="H84" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I84" t="s">
         <v>19</v>
@@ -4718,10 +4811,10 @@
         <v>1</v>
       </c>
       <c r="K84">
-        <v>76500000</v>
+        <v>5104000</v>
       </c>
       <c r="L84">
-        <v>76500000</v>
+        <v>5104000</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4738,16 +4831,16 @@
         <v>24</v>
       </c>
       <c r="E85" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F85" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G85" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H85" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I85" t="s">
         <v>19</v>
@@ -4756,10 +4849,10 @@
         <v>1</v>
       </c>
       <c r="K85">
-        <v>5600000</v>
+        <v>28075000</v>
       </c>
       <c r="L85">
-        <v>5600000</v>
+        <v>28075000</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4773,19 +4866,19 @@
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F86" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G86" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H86" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
         <v>19</v>
@@ -4794,10 +4887,10 @@
         <v>1</v>
       </c>
       <c r="K86">
-        <v>413100</v>
+        <v>1047340</v>
       </c>
       <c r="L86">
-        <v>413100</v>
+        <v>1047340</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4811,19 +4904,19 @@
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F87" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G87" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H87" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I87" t="s">
         <v>19</v>
@@ -4832,10 +4925,10 @@
         <v>1</v>
       </c>
       <c r="K87">
-        <v>30240</v>
+        <v>151605</v>
       </c>
       <c r="L87">
-        <v>30240</v>
+        <v>151605</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4849,19 +4942,19 @@
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E88" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F88" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G88" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="H88" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="I88" t="s">
         <v>19</v>
@@ -4870,10 +4963,10 @@
         <v>1</v>
       </c>
       <c r="K88">
-        <v>6831000</v>
+        <v>3918000</v>
       </c>
       <c r="L88">
-        <v>6831000</v>
+        <v>3918000</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4890,16 +4983,16 @@
         <v>24</v>
       </c>
       <c r="E89" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F89" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G89" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H89" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="I89" t="s">
         <v>19</v>
@@ -4908,10 +5001,10 @@
         <v>1</v>
       </c>
       <c r="K89">
-        <v>1976000</v>
+        <v>76500000</v>
       </c>
       <c r="L89">
-        <v>1976000</v>
+        <v>76500000</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4928,16 +5021,16 @@
         <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F90" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G90" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H90" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
         <v>19</v>
@@ -4946,10 +5039,10 @@
         <v>1</v>
       </c>
       <c r="K90">
-        <v>61200000</v>
+        <v>5600000</v>
       </c>
       <c r="L90">
-        <v>61200000</v>
+        <v>5600000</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4963,19 +5056,19 @@
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F91" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G91" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H91" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="I91" t="s">
         <v>19</v>
@@ -4984,10 +5077,10 @@
         <v>1</v>
       </c>
       <c r="K91">
-        <v>5600000</v>
+        <v>413100</v>
       </c>
       <c r="L91">
-        <v>5600000</v>
+        <v>413100</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5001,19 +5094,19 @@
         <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F92" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G92" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H92" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I92" t="s">
         <v>19</v>
@@ -5022,10 +5115,10 @@
         <v>1</v>
       </c>
       <c r="K92">
-        <v>360720</v>
+        <v>30240</v>
       </c>
       <c r="L92">
-        <v>360720</v>
+        <v>30240</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5039,19 +5132,19 @@
         <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F93" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G93" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H93" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="I93" t="s">
         <v>19</v>
@@ -5060,10 +5153,10 @@
         <v>1</v>
       </c>
       <c r="K93">
-        <v>796567</v>
+        <v>6831000</v>
       </c>
       <c r="L93">
-        <v>796567</v>
+        <v>6831000</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5080,16 +5173,16 @@
         <v>24</v>
       </c>
       <c r="E94" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F94" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G94" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H94" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="I94" t="s">
         <v>19</v>
@@ -5098,10 +5191,10 @@
         <v>1</v>
       </c>
       <c r="K94">
-        <v>1750000</v>
+        <v>1976000</v>
       </c>
       <c r="L94">
-        <v>1750000</v>
+        <v>1976000</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5118,16 +5211,16 @@
         <v>24</v>
       </c>
       <c r="E95" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="G95" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I95" t="s">
         <v>19</v>
@@ -5136,10 +5229,10 @@
         <v>1</v>
       </c>
       <c r="K95">
-        <v>693000</v>
+        <v>61200000</v>
       </c>
       <c r="L95">
-        <v>693000</v>
+        <v>61200000</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5153,19 +5246,19 @@
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="F96" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="G96" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="H96" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="I96" t="s">
         <v>19</v>
@@ -5174,10 +5267,10 @@
         <v>1</v>
       </c>
       <c r="K96">
-        <v>543872</v>
+        <v>5600000</v>
       </c>
       <c r="L96">
-        <v>543872</v>
+        <v>5600000</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5191,19 +5284,19 @@
         <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E97" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="F97" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="G97" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H97" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="I97" t="s">
         <v>19</v>
@@ -5212,10 +5305,10 @@
         <v>1</v>
       </c>
       <c r="K97">
-        <v>2320299</v>
+        <v>360720</v>
       </c>
       <c r="L97">
-        <v>2320299</v>
+        <v>360720</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5229,19 +5322,19 @@
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E98" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="F98" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="G98" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H98" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="I98" t="s">
         <v>19</v>
@@ -5250,10 +5343,10 @@
         <v>1</v>
       </c>
       <c r="K98">
-        <v>308000</v>
+        <v>796567</v>
       </c>
       <c r="L98">
-        <v>308000</v>
+        <v>796567</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5267,19 +5360,19 @@
         <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E99" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="F99" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="G99" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H99" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="I99" t="s">
         <v>19</v>
@@ -5288,10 +5381,10 @@
         <v>1</v>
       </c>
       <c r="K99">
-        <v>216000</v>
+        <v>1750000</v>
       </c>
       <c r="L99">
-        <v>216000</v>
+        <v>1750000</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5305,19 +5398,19 @@
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E100" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="F100" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="G100" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H100" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I100" t="s">
         <v>19</v>
@@ -5326,10 +5419,10 @@
         <v>1</v>
       </c>
       <c r="K100">
-        <v>1000000</v>
+        <v>693000</v>
       </c>
       <c r="L100">
-        <v>1000000</v>
+        <v>693000</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5343,19 +5436,19 @@
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H101" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="I101" t="s">
         <v>19</v>
@@ -5364,10 +5457,10 @@
         <v>1</v>
       </c>
       <c r="K101">
-        <v>1000000</v>
+        <v>543872</v>
       </c>
       <c r="L101">
-        <v>1000000</v>
+        <v>543872</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5381,19 +5474,19 @@
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E102" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F102" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G102" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="H102" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="I102" t="s">
         <v>19</v>
@@ -5402,10 +5495,10 @@
         <v>1</v>
       </c>
       <c r="K102">
-        <v>1206000</v>
+        <v>2320299</v>
       </c>
       <c r="L102">
-        <v>1206000</v>
+        <v>2320299</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5419,19 +5512,19 @@
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E103" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F103" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G103" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="H103" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="I103" t="s">
         <v>19</v>
@@ -5440,10 +5533,10 @@
         <v>1</v>
       </c>
       <c r="K103">
-        <v>1000000</v>
+        <v>308000</v>
       </c>
       <c r="L103">
-        <v>1000000</v>
+        <v>308000</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5457,19 +5550,19 @@
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E104" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F104" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G104" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="H104" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="I104" t="s">
         <v>19</v>
@@ -5478,10 +5571,10 @@
         <v>1</v>
       </c>
       <c r="K104">
-        <v>1000000</v>
+        <v>216000</v>
       </c>
       <c r="L104">
-        <v>1000000</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5495,19 +5588,19 @@
         <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E105" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F105" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G105" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="H105" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="I105" t="s">
         <v>19</v>
@@ -5533,19 +5626,19 @@
         <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E106" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F106" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G106" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="H106" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I106" t="s">
         <v>19</v>
@@ -5571,19 +5664,19 @@
         <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E107" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F107" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G107" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H107" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="I107" t="s">
         <v>19</v>
@@ -5592,10 +5685,10 @@
         <v>1</v>
       </c>
       <c r="K107">
-        <v>1056000</v>
+        <v>1206000</v>
       </c>
       <c r="L107">
-        <v>1056000</v>
+        <v>1206000</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5609,19 +5702,19 @@
         <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F108" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G108" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H108" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="I108" t="s">
         <v>19</v>
@@ -5630,10 +5723,10 @@
         <v>1</v>
       </c>
       <c r="K108">
-        <v>770000</v>
+        <v>1000000</v>
       </c>
       <c r="L108">
-        <v>770000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5647,19 +5740,19 @@
         <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E109" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F109" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G109" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H109" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="I109" t="s">
         <v>19</v>
@@ -5668,10 +5761,10 @@
         <v>1</v>
       </c>
       <c r="K109">
-        <v>4940000</v>
+        <v>1000000</v>
       </c>
       <c r="L109">
-        <v>4940000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5685,19 +5778,19 @@
         <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F110" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G110" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H110" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="I110" t="s">
         <v>19</v>
@@ -5706,10 +5799,10 @@
         <v>1</v>
       </c>
       <c r="K110">
-        <v>1499200</v>
+        <v>1000000</v>
       </c>
       <c r="L110">
-        <v>1499200</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5723,19 +5816,19 @@
         <v>13</v>
       </c>
       <c r="D111" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E111" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F111" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G111" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H111" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="I111" t="s">
         <v>19</v>
@@ -5744,10 +5837,10 @@
         <v>1</v>
       </c>
       <c r="K111">
-        <v>1480000</v>
+        <v>1000000</v>
       </c>
       <c r="L111">
-        <v>1480000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5764,16 +5857,16 @@
         <v>24</v>
       </c>
       <c r="E112" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F112" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G112" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H112" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="I112" t="s">
         <v>19</v>
@@ -5782,10 +5875,10 @@
         <v>1</v>
       </c>
       <c r="K112">
-        <v>999500</v>
+        <v>1056000</v>
       </c>
       <c r="L112">
-        <v>999500</v>
+        <v>1056000</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5802,16 +5895,16 @@
         <v>24</v>
       </c>
       <c r="E113" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F113" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G113" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H113" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="I113" t="s">
         <v>19</v>
@@ -5820,10 +5913,10 @@
         <v>1</v>
       </c>
       <c r="K113">
-        <v>440000</v>
+        <v>770000</v>
       </c>
       <c r="L113">
-        <v>440000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5840,16 +5933,16 @@
         <v>24</v>
       </c>
       <c r="E114" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F114" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G114" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H114" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="I114" t="s">
         <v>19</v>
@@ -5858,10 +5951,10 @@
         <v>1</v>
       </c>
       <c r="K114">
-        <v>3000000</v>
+        <v>4940000</v>
       </c>
       <c r="L114">
-        <v>3000000</v>
+        <v>4940000</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5878,16 +5971,16 @@
         <v>24</v>
       </c>
       <c r="E115" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F115" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G115" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H115" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="I115" t="s">
         <v>19</v>
@@ -5896,10 +5989,10 @@
         <v>1</v>
       </c>
       <c r="K115">
-        <v>1997000</v>
+        <v>1499200</v>
       </c>
       <c r="L115">
-        <v>1997000</v>
+        <v>1499200</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5913,19 +6006,19 @@
         <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E116" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="F116" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G116" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H116" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="I116" t="s">
         <v>19</v>
@@ -5934,10 +6027,10 @@
         <v>1</v>
       </c>
       <c r="K116">
-        <v>1000000</v>
+        <v>1480000</v>
       </c>
       <c r="L116">
-        <v>1000000</v>
+        <v>1480000</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5954,16 +6047,16 @@
         <v>24</v>
       </c>
       <c r="E117" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="F117" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="G117" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="H117" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="I117" t="s">
         <v>19</v>
@@ -5972,10 +6065,10 @@
         <v>1</v>
       </c>
       <c r="K117">
-        <v>5000000</v>
+        <v>999500</v>
       </c>
       <c r="L117">
-        <v>5000000</v>
+        <v>999500</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5989,19 +6082,19 @@
         <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="E118" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F118" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="G118" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="H118" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="I118" t="s">
         <v>19</v>
@@ -6010,10 +6103,10 @@
         <v>1</v>
       </c>
       <c r="K118">
-        <v>38500000</v>
+        <v>440000</v>
       </c>
       <c r="L118">
-        <v>38500000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6027,19 +6120,19 @@
         <v>13</v>
       </c>
       <c r="D119" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="E119" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F119" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="G119" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="H119" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="I119" t="s">
         <v>19</v>
@@ -6048,10 +6141,10 @@
         <v>1</v>
       </c>
       <c r="K119">
-        <v>24500000</v>
+        <v>3000000</v>
       </c>
       <c r="L119">
-        <v>24500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6065,19 +6158,19 @@
         <v>13</v>
       </c>
       <c r="D120" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E120" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="F120" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="G120" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H120" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="I120" t="s">
         <v>19</v>
@@ -6086,10 +6179,10 @@
         <v>1</v>
       </c>
       <c r="K120">
-        <v>1000000</v>
+        <v>1997000</v>
       </c>
       <c r="L120">
-        <v>1000000</v>
+        <v>1997000</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6103,19 +6196,19 @@
         <v>13</v>
       </c>
       <c r="D121" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E121" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F121" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G121" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H121" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="I121" t="s">
         <v>19</v>
@@ -6141,19 +6234,19 @@
         <v>13</v>
       </c>
       <c r="D122" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E122" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F122" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G122" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H122" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="I122" t="s">
         <v>19</v>
@@ -6162,10 +6255,10 @@
         <v>1</v>
       </c>
       <c r="K122">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="L122">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6179,19 +6272,19 @@
         <v>13</v>
       </c>
       <c r="D123" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="E123" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="F123" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="G123" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="H123" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="I123" t="s">
         <v>19</v>
@@ -6200,10 +6293,10 @@
         <v>1</v>
       </c>
       <c r="K123">
-        <v>1000000</v>
+        <v>38500000</v>
       </c>
       <c r="L123">
-        <v>1000000</v>
+        <v>38500000</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6217,19 +6310,19 @@
         <v>13</v>
       </c>
       <c r="D124" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="E124" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="F124" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="G124" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="H124" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="I124" t="s">
         <v>19</v>
@@ -6238,10 +6331,10 @@
         <v>1</v>
       </c>
       <c r="K124">
-        <v>1000000</v>
+        <v>24500000</v>
       </c>
       <c r="L124">
-        <v>1000000</v>
+        <v>24500000</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6255,19 +6348,19 @@
         <v>13</v>
       </c>
       <c r="D125" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E125" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F125" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G125" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="H125" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="I125" t="s">
         <v>19</v>
@@ -6293,19 +6386,19 @@
         <v>13</v>
       </c>
       <c r="D126" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E126" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F126" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G126" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H126" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="I126" t="s">
         <v>19</v>
@@ -6314,10 +6407,10 @@
         <v>1</v>
       </c>
       <c r="K126">
-        <v>1560000</v>
+        <v>1000000</v>
       </c>
       <c r="L126">
-        <v>1560000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6331,19 +6424,19 @@
         <v>13</v>
       </c>
       <c r="D127" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="E127" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F127" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="G127" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="H127" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="I127" t="s">
         <v>19</v>
@@ -6352,10 +6445,10 @@
         <v>1</v>
       </c>
       <c r="K127">
-        <v>41208750</v>
+        <v>1000000</v>
       </c>
       <c r="L127">
-        <v>41208750</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6369,19 +6462,19 @@
         <v>13</v>
       </c>
       <c r="D128" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E128" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="F128" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="G128" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="H128" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="I128" t="s">
         <v>19</v>
@@ -6407,19 +6500,19 @@
         <v>13</v>
       </c>
       <c r="D129" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E129" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="F129" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="G129" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="H129" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="I129" t="s">
         <v>19</v>
@@ -6428,10 +6521,10 @@
         <v>1</v>
       </c>
       <c r="K129">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="L129">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6445,19 +6538,19 @@
         <v>13</v>
       </c>
       <c r="D130" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E130" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="F130" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="G130" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="H130" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="I130" t="s">
         <v>19</v>
@@ -6466,10 +6559,10 @@
         <v>1</v>
       </c>
       <c r="K130">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="L130">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6486,16 +6579,16 @@
         <v>24</v>
       </c>
       <c r="E131" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="F131" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="G131" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="H131" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="I131" t="s">
         <v>19</v>
@@ -6504,10 +6597,10 @@
         <v>1</v>
       </c>
       <c r="K131">
-        <v>2000000</v>
+        <v>1560000</v>
       </c>
       <c r="L131">
-        <v>2000000</v>
+        <v>1560000</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6521,19 +6614,19 @@
         <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="E132" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="F132" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="G132" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="H132" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="I132" t="s">
         <v>19</v>
@@ -6542,10 +6635,10 @@
         <v>1</v>
       </c>
       <c r="K132">
-        <v>1500000</v>
+        <v>41208750</v>
       </c>
       <c r="L132">
-        <v>1500000</v>
+        <v>41208750</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6562,16 +6655,16 @@
         <v>24</v>
       </c>
       <c r="E133" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F133" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G133" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H133" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="I133" t="s">
         <v>19</v>
@@ -6580,10 +6673,10 @@
         <v>1</v>
       </c>
       <c r="K133">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="L133">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6600,16 +6693,16 @@
         <v>24</v>
       </c>
       <c r="E134" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F134" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G134" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H134" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="I134" t="s">
         <v>19</v>
@@ -6618,10 +6711,10 @@
         <v>1</v>
       </c>
       <c r="K134">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="L134">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6638,16 +6731,16 @@
         <v>24</v>
       </c>
       <c r="E135" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F135" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G135" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H135" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="I135" t="s">
         <v>19</v>
@@ -6656,10 +6749,10 @@
         <v>1</v>
       </c>
       <c r="K135">
-        <v>1495000</v>
+        <v>2000000</v>
       </c>
       <c r="L135">
-        <v>1495000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6676,16 +6769,16 @@
         <v>24</v>
       </c>
       <c r="E136" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F136" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G136" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H136" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="I136" t="s">
         <v>19</v>
@@ -6694,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="K136">
-        <v>1450000</v>
+        <v>2000000</v>
       </c>
       <c r="L136">
-        <v>1450000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6714,16 +6807,16 @@
         <v>24</v>
       </c>
       <c r="E137" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F137" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G137" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H137" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="I137" t="s">
         <v>19</v>
@@ -6732,10 +6825,10 @@
         <v>1</v>
       </c>
       <c r="K137">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="L137">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6752,16 +6845,16 @@
         <v>24</v>
       </c>
       <c r="E138" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F138" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G138" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H138" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="I138" t="s">
         <v>19</v>
@@ -6770,10 +6863,10 @@
         <v>1</v>
       </c>
       <c r="K138">
-        <v>748000</v>
+        <v>1500000</v>
       </c>
       <c r="L138">
-        <v>748000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6790,16 +6883,16 @@
         <v>24</v>
       </c>
       <c r="E139" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F139" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G139" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H139" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="I139" t="s">
         <v>19</v>
@@ -6808,10 +6901,10 @@
         <v>1</v>
       </c>
       <c r="K139">
-        <v>1497500</v>
+        <v>1000000</v>
       </c>
       <c r="L139">
-        <v>1497500</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6828,16 +6921,16 @@
         <v>24</v>
       </c>
       <c r="E140" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F140" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G140" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H140" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="I140" t="s">
         <v>19</v>
@@ -6846,10 +6939,10 @@
         <v>1</v>
       </c>
       <c r="K140">
-        <v>1450000</v>
+        <v>1495000</v>
       </c>
       <c r="L140">
-        <v>1450000</v>
+        <v>1495000</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6866,16 +6959,16 @@
         <v>24</v>
       </c>
       <c r="E141" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F141" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G141" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H141" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="I141" t="s">
         <v>19</v>
@@ -6884,10 +6977,10 @@
         <v>1</v>
       </c>
       <c r="K141">
-        <v>1000000</v>
+        <v>1450000</v>
       </c>
       <c r="L141">
-        <v>1000000</v>
+        <v>1450000</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6904,16 +6997,16 @@
         <v>24</v>
       </c>
       <c r="E142" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F142" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G142" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H142" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="I142" t="s">
         <v>19</v>
@@ -6922,10 +7015,10 @@
         <v>1</v>
       </c>
       <c r="K142">
-        <v>373682</v>
+        <v>1000000</v>
       </c>
       <c r="L142">
-        <v>373682</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6939,19 +7032,19 @@
         <v>13</v>
       </c>
       <c r="D143" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E143" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="F143" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G143" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H143" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="I143" t="s">
         <v>19</v>
@@ -6960,10 +7053,10 @@
         <v>1</v>
       </c>
       <c r="K143">
-        <v>269532</v>
+        <v>748000</v>
       </c>
       <c r="L143">
-        <v>269532</v>
+        <v>748000</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6977,19 +7070,19 @@
         <v>13</v>
       </c>
       <c r="D144" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E144" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="F144" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G144" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H144" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="I144" t="s">
         <v>19</v>
@@ -6998,10 +7091,10 @@
         <v>1</v>
       </c>
       <c r="K144">
-        <v>270711</v>
+        <v>1497500</v>
       </c>
       <c r="L144">
-        <v>270711</v>
+        <v>1497500</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7015,19 +7108,19 @@
         <v>13</v>
       </c>
       <c r="D145" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E145" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="F145" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G145" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H145" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="I145" t="s">
         <v>19</v>
@@ -7036,10 +7129,10 @@
         <v>1</v>
       </c>
       <c r="K145">
-        <v>240000</v>
+        <v>1450000</v>
       </c>
       <c r="L145">
-        <v>240000</v>
+        <v>1450000</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7053,19 +7146,19 @@
         <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E146" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="F146" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G146" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H146" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="I146" t="s">
         <v>19</v>
@@ -7091,19 +7184,19 @@
         <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E147" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="F147" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G147" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H147" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="I147" t="s">
         <v>19</v>
@@ -7112,10 +7205,10 @@
         <v>1</v>
       </c>
       <c r="K147">
-        <v>1000000</v>
+        <v>373682</v>
       </c>
       <c r="L147">
-        <v>1000000</v>
+        <v>373682</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7129,19 +7222,19 @@
         <v>13</v>
       </c>
       <c r="D148" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="E148" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="F148" t="s">
-        <v>98</v>
+        <v>214</v>
       </c>
       <c r="G148" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="H148" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="I148" t="s">
         <v>19</v>
@@ -7150,10 +7243,10 @@
         <v>1</v>
       </c>
       <c r="K148">
-        <v>1000000</v>
+        <v>138195036</v>
       </c>
       <c r="L148">
-        <v>1000000</v>
+        <v>138195036</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7167,19 +7260,19 @@
         <v>13</v>
       </c>
       <c r="D149" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="E149" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="F149" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="G149" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="H149" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="I149" t="s">
         <v>19</v>
@@ -7188,10 +7281,10 @@
         <v>1</v>
       </c>
       <c r="K149">
-        <v>1000000</v>
+        <v>232550040</v>
       </c>
       <c r="L149">
-        <v>1000000</v>
+        <v>232550040</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7205,19 +7298,19 @@
         <v>13</v>
       </c>
       <c r="D150" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E150" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F150" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G150" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H150" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="I150" t="s">
         <v>19</v>
@@ -7226,10 +7319,10 @@
         <v>1</v>
       </c>
       <c r="K150">
-        <v>1000000</v>
+        <v>269532</v>
       </c>
       <c r="L150">
-        <v>1000000</v>
+        <v>269532</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7243,19 +7336,19 @@
         <v>13</v>
       </c>
       <c r="D151" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E151" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F151" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G151" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H151" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="I151" t="s">
         <v>19</v>
@@ -7264,10 +7357,10 @@
         <v>1</v>
       </c>
       <c r="K151">
-        <v>1000000</v>
+        <v>270711</v>
       </c>
       <c r="L151">
-        <v>1000000</v>
+        <v>270711</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7281,19 +7374,19 @@
         <v>13</v>
       </c>
       <c r="D152" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E152" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F152" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G152" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="H152" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="I152" t="s">
         <v>19</v>
@@ -7302,10 +7395,10 @@
         <v>1</v>
       </c>
       <c r="K152">
-        <v>5000000</v>
+        <v>240000</v>
       </c>
       <c r="L152">
-        <v>5000000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7319,19 +7412,19 @@
         <v>13</v>
       </c>
       <c r="D153" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E153" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F153" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G153" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H153" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="I153" t="s">
         <v>19</v>
@@ -7340,10 +7433,10 @@
         <v>1</v>
       </c>
       <c r="K153">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="L153">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7357,19 +7450,19 @@
         <v>13</v>
       </c>
       <c r="D154" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E154" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F154" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G154" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H154" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="I154" t="s">
         <v>19</v>
@@ -7378,10 +7471,10 @@
         <v>1</v>
       </c>
       <c r="K154">
-        <v>880000</v>
+        <v>1000000</v>
       </c>
       <c r="L154">
-        <v>880000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7395,19 +7488,19 @@
         <v>13</v>
       </c>
       <c r="D155" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E155" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F155" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G155" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H155" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="I155" t="s">
         <v>19</v>
@@ -7416,10 +7509,10 @@
         <v>1</v>
       </c>
       <c r="K155">
-        <v>1761000</v>
+        <v>1000000</v>
       </c>
       <c r="L155">
-        <v>1761000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7433,19 +7526,19 @@
         <v>13</v>
       </c>
       <c r="D156" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E156" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F156" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G156" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="H156" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="I156" t="s">
         <v>19</v>
@@ -7454,10 +7547,10 @@
         <v>1</v>
       </c>
       <c r="K156">
-        <v>447800</v>
+        <v>1000000</v>
       </c>
       <c r="L156">
-        <v>447800</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7471,19 +7564,19 @@
         <v>13</v>
       </c>
       <c r="D157" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E157" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F157" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G157" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="H157" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I157" t="s">
         <v>19</v>
@@ -7509,19 +7602,19 @@
         <v>13</v>
       </c>
       <c r="D158" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E158" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F158" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G158" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="H158" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="I158" t="s">
         <v>19</v>
@@ -7550,16 +7643,16 @@
         <v>24</v>
       </c>
       <c r="E159" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F159" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G159" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H159" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="I159" t="s">
         <v>19</v>
@@ -7568,10 +7661,10 @@
         <v>1</v>
       </c>
       <c r="K159">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="L159">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7585,19 +7678,19 @@
         <v>13</v>
       </c>
       <c r="D160" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E160" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="F160" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G160" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H160" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="I160" t="s">
         <v>19</v>
@@ -7606,10 +7699,10 @@
         <v>1</v>
       </c>
       <c r="K160">
-        <v>1000000</v>
+        <v>800000</v>
       </c>
       <c r="L160">
-        <v>1000000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7623,19 +7716,19 @@
         <v>13</v>
       </c>
       <c r="D161" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E161" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="F161" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G161" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H161" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="I161" t="s">
         <v>19</v>
@@ -7644,10 +7737,10 @@
         <v>1</v>
       </c>
       <c r="K161">
-        <v>1000000</v>
+        <v>880000</v>
       </c>
       <c r="L161">
-        <v>1000000</v>
+        <v>880000</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7661,19 +7754,19 @@
         <v>13</v>
       </c>
       <c r="D162" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E162" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F162" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G162" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H162" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="I162" t="s">
         <v>19</v>
@@ -7682,10 +7775,10 @@
         <v>1</v>
       </c>
       <c r="K162">
-        <v>1000000</v>
+        <v>1761000</v>
       </c>
       <c r="L162">
-        <v>1000000</v>
+        <v>1761000</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7699,19 +7792,19 @@
         <v>13</v>
       </c>
       <c r="D163" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E163" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F163" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G163" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H163" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="I163" t="s">
         <v>19</v>
@@ -7720,10 +7813,10 @@
         <v>1</v>
       </c>
       <c r="K163">
-        <v>1000000</v>
+        <v>447800</v>
       </c>
       <c r="L163">
-        <v>1000000</v>
+        <v>447800</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7737,19 +7830,19 @@
         <v>13</v>
       </c>
       <c r="D164" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E164" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F164" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G164" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H164" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="I164" t="s">
         <v>19</v>
@@ -7775,19 +7868,19 @@
         <v>13</v>
       </c>
       <c r="D165" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E165" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F165" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G165" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H165" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="I165" t="s">
         <v>19</v>
@@ -7813,19 +7906,19 @@
         <v>13</v>
       </c>
       <c r="D166" t="s">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="E166" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="F166" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="G166" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="H166" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="I166" t="s">
         <v>19</v>
@@ -7834,10 +7927,10 @@
         <v>1</v>
       </c>
       <c r="K166">
-        <v>149880784</v>
+        <v>1000000</v>
       </c>
       <c r="L166">
-        <v>149880784</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7851,19 +7944,19 @@
         <v>13</v>
       </c>
       <c r="D167" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E167" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F167" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G167" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="H167" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="I167" t="s">
         <v>19</v>
@@ -7872,10 +7965,10 @@
         <v>1</v>
       </c>
       <c r="K167">
-        <v>1121690</v>
+        <v>1000000</v>
       </c>
       <c r="L167">
-        <v>1121690</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7889,19 +7982,19 @@
         <v>13</v>
       </c>
       <c r="D168" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E168" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F168" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G168" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="H168" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="I168" t="s">
         <v>19</v>
@@ -7910,10 +8003,10 @@
         <v>1</v>
       </c>
       <c r="K168">
-        <v>4389794</v>
+        <v>1000000</v>
       </c>
       <c r="L168">
-        <v>4389794</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7927,19 +8020,19 @@
         <v>13</v>
       </c>
       <c r="D169" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="E169" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="F169" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="G169" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="H169" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="I169" t="s">
         <v>19</v>
@@ -7948,10 +8041,10 @@
         <v>1</v>
       </c>
       <c r="K169">
-        <v>12252499</v>
+        <v>1000000</v>
       </c>
       <c r="L169">
-        <v>12252499</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7965,19 +8058,19 @@
         <v>13</v>
       </c>
       <c r="D170" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E170" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F170" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G170" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H170" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="I170" t="s">
         <v>19</v>
@@ -7986,10 +8079,10 @@
         <v>1</v>
       </c>
       <c r="K170">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="L170">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8003,19 +8096,19 @@
         <v>13</v>
       </c>
       <c r="D171" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E171" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F171" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G171" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H171" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="I171" t="s">
         <v>19</v>
@@ -8041,19 +8134,19 @@
         <v>13</v>
       </c>
       <c r="D172" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E172" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="F172" t="s">
-        <v>229</v>
+        <v>111</v>
       </c>
       <c r="G172" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
       <c r="H172" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="I172" t="s">
         <v>19</v>
@@ -8062,10 +8155,10 @@
         <v>1</v>
       </c>
       <c r="K172">
-        <v>1800000</v>
+        <v>1000000</v>
       </c>
       <c r="L172">
-        <v>1800000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8079,19 +8172,19 @@
         <v>13</v>
       </c>
       <c r="D173" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="E173" t="s">
-        <v>97</v>
+        <v>244</v>
       </c>
       <c r="F173" t="s">
-        <v>98</v>
+        <v>245</v>
       </c>
       <c r="G173" t="s">
-        <v>99</v>
+        <v>246</v>
       </c>
       <c r="H173" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="I173" t="s">
         <v>19</v>
@@ -8100,10 +8193,10 @@
         <v>1</v>
       </c>
       <c r="K173">
-        <v>3000000</v>
+        <v>149880784</v>
       </c>
       <c r="L173">
-        <v>3000000</v>
+        <v>149880784</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8120,16 +8213,16 @@
         <v>24</v>
       </c>
       <c r="E174" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F174" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G174" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H174" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="I174" t="s">
         <v>19</v>
@@ -8138,10 +8231,10 @@
         <v>1</v>
       </c>
       <c r="K174">
-        <v>3600000</v>
+        <v>1121690</v>
       </c>
       <c r="L174">
-        <v>3600000</v>
+        <v>1121690</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8158,16 +8251,16 @@
         <v>24</v>
       </c>
       <c r="E175" t="s">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="F175" t="s">
-        <v>235</v>
+        <v>106</v>
       </c>
       <c r="G175" t="s">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="H175" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="I175" t="s">
         <v>19</v>
@@ -8176,10 +8269,10 @@
         <v>1</v>
       </c>
       <c r="K175">
-        <v>31240500</v>
+        <v>4389794</v>
       </c>
       <c r="L175">
-        <v>31240500</v>
+        <v>4389794</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8193,19 +8286,19 @@
         <v>13</v>
       </c>
       <c r="D176" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="E176" t="s">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="F176" t="s">
-        <v>93</v>
+        <v>251</v>
       </c>
       <c r="G176" t="s">
-        <v>94</v>
+        <v>252</v>
       </c>
       <c r="H176" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="I176" t="s">
         <v>19</v>
@@ -8214,10 +8307,10 @@
         <v>1</v>
       </c>
       <c r="K176">
-        <v>2000000</v>
+        <v>12252499</v>
       </c>
       <c r="L176">
-        <v>2000000</v>
+        <v>12252499</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8231,19 +8324,19 @@
         <v>13</v>
       </c>
       <c r="D177" t="s">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="E177" t="s">
-        <v>239</v>
+        <v>129</v>
       </c>
       <c r="F177" t="s">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="G177" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="H177" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="I177" t="s">
         <v>19</v>
@@ -8252,10 +8345,10 @@
         <v>1</v>
       </c>
       <c r="K177">
-        <v>21750000</v>
+        <v>3000000</v>
       </c>
       <c r="L177">
-        <v>21750000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8269,19 +8362,19 @@
         <v>13</v>
       </c>
       <c r="D178" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E178" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="F178" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="G178" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="H178" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="I178" t="s">
         <v>19</v>
@@ -8290,10 +8383,10 @@
         <v>1</v>
       </c>
       <c r="K178">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="L178">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8307,19 +8400,19 @@
         <v>13</v>
       </c>
       <c r="D179" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="E179" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="F179" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="G179" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="H179" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="I179" t="s">
         <v>19</v>
@@ -8328,10 +8421,10 @@
         <v>1</v>
       </c>
       <c r="K179">
-        <v>37368335</v>
+        <v>1800000</v>
       </c>
       <c r="L179">
-        <v>37368335</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8345,19 +8438,19 @@
         <v>13</v>
       </c>
       <c r="D180" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="E180" t="s">
-        <v>246</v>
+        <v>110</v>
       </c>
       <c r="F180" t="s">
-        <v>247</v>
+        <v>111</v>
       </c>
       <c r="G180" t="s">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="H180" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="I180" t="s">
         <v>19</v>
@@ -8366,10 +8459,10 @@
         <v>1</v>
       </c>
       <c r="K180">
-        <v>37249665</v>
+        <v>3000000</v>
       </c>
       <c r="L180">
-        <v>37249665</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8383,19 +8476,19 @@
         <v>13</v>
       </c>
       <c r="D181" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="E181" t="s">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="F181" t="s">
-        <v>252</v>
+        <v>106</v>
       </c>
       <c r="G181" t="s">
-        <v>253</v>
+        <v>107</v>
       </c>
       <c r="H181" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="I181" t="s">
         <v>19</v>
@@ -8404,10 +8497,10 @@
         <v>1</v>
       </c>
       <c r="K181">
-        <v>195000000</v>
+        <v>3600000</v>
       </c>
       <c r="L181">
-        <v>195000000</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8421,19 +8514,19 @@
         <v>13</v>
       </c>
       <c r="D182" t="s">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="E182" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F182" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G182" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H182" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I182" t="s">
         <v>19</v>
@@ -8442,10 +8535,10 @@
         <v>1</v>
       </c>
       <c r="K182">
-        <v>9751000</v>
+        <v>31240500</v>
       </c>
       <c r="L182">
-        <v>9751000</v>
+        <v>31240500</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8459,19 +8552,19 @@
         <v>13</v>
       </c>
       <c r="D183" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E183" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F183" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G183" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H183" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I183" t="s">
         <v>19</v>
@@ -8480,10 +8573,10 @@
         <v>1</v>
       </c>
       <c r="K183">
-        <v>3799500</v>
+        <v>2000000</v>
       </c>
       <c r="L183">
-        <v>3799500</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8497,19 +8590,19 @@
         <v>13</v>
       </c>
       <c r="D184" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="E184" t="s">
-        <v>109</v>
+        <v>266</v>
       </c>
       <c r="F184" t="s">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c r="G184" t="s">
-        <v>111</v>
+        <v>268</v>
       </c>
       <c r="H184" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I184" t="s">
         <v>19</v>
@@ -8518,10 +8611,10 @@
         <v>1</v>
       </c>
       <c r="K184">
-        <v>545750</v>
+        <v>21750000</v>
       </c>
       <c r="L184">
-        <v>545750</v>
+        <v>21750000</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8535,19 +8628,19 @@
         <v>13</v>
       </c>
       <c r="D185" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E185" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F185" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G185" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H185" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I185" t="s">
         <v>19</v>
@@ -8556,10 +8649,10 @@
         <v>1</v>
       </c>
       <c r="K185">
-        <v>1810000</v>
+        <v>10000000</v>
       </c>
       <c r="L185">
-        <v>1810000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8573,19 +8666,19 @@
         <v>13</v>
       </c>
       <c r="D186" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E186" t="s">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="F186" t="s">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="G186" t="s">
-        <v>111</v>
+        <v>271</v>
       </c>
       <c r="H186" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="I186" t="s">
         <v>19</v>
@@ -8594,10 +8687,10 @@
         <v>1</v>
       </c>
       <c r="K186">
-        <v>430000</v>
+        <v>37368335</v>
       </c>
       <c r="L186">
-        <v>430000</v>
+        <v>37368335</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8611,19 +8704,19 @@
         <v>13</v>
       </c>
       <c r="D187" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E187" t="s">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="F187" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="G187" t="s">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="H187" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="I187" t="s">
         <v>19</v>
@@ -8632,10 +8725,10 @@
         <v>1</v>
       </c>
       <c r="K187">
-        <v>1680000</v>
+        <v>37249665</v>
       </c>
       <c r="L187">
-        <v>1680000</v>
+        <v>37249665</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8649,19 +8742,19 @@
         <v>13</v>
       </c>
       <c r="D188" t="s">
-        <v>96</v>
+        <v>277</v>
       </c>
       <c r="E188" t="s">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="F188" t="s">
-        <v>110</v>
+        <v>279</v>
       </c>
       <c r="G188" t="s">
-        <v>111</v>
+        <v>280</v>
       </c>
       <c r="H188" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="I188" t="s">
         <v>19</v>
@@ -8670,10 +8763,10 @@
         <v>1</v>
       </c>
       <c r="K188">
-        <v>8202500</v>
+        <v>195000000</v>
       </c>
       <c r="L188">
-        <v>8202500</v>
+        <v>195000000</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8687,19 +8780,19 @@
         <v>13</v>
       </c>
       <c r="D189" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="E189" t="s">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="F189" t="s">
-        <v>110</v>
+        <v>283</v>
       </c>
       <c r="G189" t="s">
-        <v>111</v>
+        <v>284</v>
       </c>
       <c r="H189" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="I189" t="s">
         <v>19</v>
@@ -8708,10 +8801,10 @@
         <v>1</v>
       </c>
       <c r="K189">
-        <v>6277000</v>
+        <v>9751000</v>
       </c>
       <c r="L189">
-        <v>6277000</v>
+        <v>9751000</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8725,19 +8818,19 @@
         <v>13</v>
       </c>
       <c r="D190" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E190" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F190" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G190" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="H190" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="I190" t="s">
         <v>19</v>
@@ -8746,10 +8839,10 @@
         <v>1</v>
       </c>
       <c r="K190">
-        <v>4063000</v>
+        <v>3799500</v>
       </c>
       <c r="L190">
-        <v>4063000</v>
+        <v>3799500</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8763,19 +8856,19 @@
         <v>13</v>
       </c>
       <c r="D191" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E191" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F191" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G191" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H191" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="I191" t="s">
         <v>19</v>
@@ -8784,10 +8877,10 @@
         <v>1</v>
       </c>
       <c r="K191">
-        <v>6880000</v>
+        <v>545750</v>
       </c>
       <c r="L191">
-        <v>6880000</v>
+        <v>545750</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -8801,19 +8894,19 @@
         <v>13</v>
       </c>
       <c r="D192" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E192" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F192" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G192" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H192" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="I192" t="s">
         <v>19</v>
@@ -8822,10 +8915,10 @@
         <v>1</v>
       </c>
       <c r="K192">
-        <v>8860000</v>
+        <v>1810000</v>
       </c>
       <c r="L192">
-        <v>8860000</v>
+        <v>1810000</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -8839,19 +8932,19 @@
         <v>13</v>
       </c>
       <c r="D193" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E193" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F193" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G193" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H193" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="I193" t="s">
         <v>19</v>
@@ -8860,10 +8953,10 @@
         <v>1</v>
       </c>
       <c r="K193">
-        <v>570000</v>
+        <v>430000</v>
       </c>
       <c r="L193">
-        <v>570000</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8877,19 +8970,19 @@
         <v>13</v>
       </c>
       <c r="D194" t="s">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="E194" t="s">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="F194" t="s">
-        <v>272</v>
+        <v>130</v>
       </c>
       <c r="G194" t="s">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="H194" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="I194" t="s">
         <v>19</v>
@@ -8898,10 +8991,10 @@
         <v>1</v>
       </c>
       <c r="K194">
-        <v>21841204</v>
+        <v>1680000</v>
       </c>
       <c r="L194">
-        <v>21841204</v>
+        <v>1680000</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -8915,19 +9008,19 @@
         <v>13</v>
       </c>
       <c r="D195" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E195" t="s">
-        <v>275</v>
+        <v>129</v>
       </c>
       <c r="F195" t="s">
-        <v>276</v>
+        <v>130</v>
       </c>
       <c r="G195" t="s">
-        <v>277</v>
+        <v>131</v>
       </c>
       <c r="H195" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="I195" t="s">
         <v>19</v>
@@ -8936,10 +9029,10 @@
         <v>1</v>
       </c>
       <c r="K195">
-        <v>9753677</v>
+        <v>8202500</v>
       </c>
       <c r="L195">
-        <v>9753677</v>
+        <v>8202500</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8953,19 +9046,19 @@
         <v>13</v>
       </c>
       <c r="D196" t="s">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="E196" t="s">
-        <v>278</v>
+        <v>129</v>
       </c>
       <c r="F196" t="s">
-        <v>279</v>
+        <v>130</v>
       </c>
       <c r="G196" t="s">
-        <v>280</v>
+        <v>131</v>
       </c>
       <c r="H196" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="I196" t="s">
         <v>19</v>
@@ -8974,10 +9067,10 @@
         <v>1</v>
       </c>
       <c r="K196">
-        <v>19900000</v>
+        <v>6277000</v>
       </c>
       <c r="L196">
-        <v>19900000</v>
+        <v>6277000</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -8991,19 +9084,19 @@
         <v>13</v>
       </c>
       <c r="D197" t="s">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="E197" t="s">
-        <v>282</v>
+        <v>129</v>
       </c>
       <c r="F197" t="s">
-        <v>283</v>
+        <v>130</v>
       </c>
       <c r="G197" t="s">
-        <v>284</v>
+        <v>131</v>
       </c>
       <c r="H197" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="I197" t="s">
         <v>19</v>
@@ -9012,10 +9105,10 @@
         <v>1</v>
       </c>
       <c r="K197">
-        <v>1334500</v>
+        <v>4063000</v>
       </c>
       <c r="L197">
-        <v>1334500</v>
+        <v>4063000</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9029,19 +9122,19 @@
         <v>13</v>
       </c>
       <c r="D198" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E198" t="s">
-        <v>285</v>
+        <v>141</v>
       </c>
       <c r="F198" t="s">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="G198" t="s">
-        <v>287</v>
+        <v>143</v>
       </c>
       <c r="H198" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="I198" t="s">
         <v>19</v>
@@ -9050,10 +9143,10 @@
         <v>1</v>
       </c>
       <c r="K198">
-        <v>8468650</v>
+        <v>6880000</v>
       </c>
       <c r="L198">
-        <v>8468650</v>
+        <v>6880000</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9070,16 +9163,16 @@
         <v>24</v>
       </c>
       <c r="E199" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="F199" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="G199" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="H199" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="I199" t="s">
         <v>19</v>
@@ -9088,10 +9181,10 @@
         <v>1</v>
       </c>
       <c r="K199">
-        <v>879000</v>
+        <v>8860000</v>
       </c>
       <c r="L199">
-        <v>879000</v>
+        <v>8860000</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9105,19 +9198,19 @@
         <v>13</v>
       </c>
       <c r="D200" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="E200" t="s">
-        <v>289</v>
+        <v>141</v>
       </c>
       <c r="F200" t="s">
-        <v>290</v>
+        <v>142</v>
       </c>
       <c r="G200" t="s">
-        <v>291</v>
+        <v>143</v>
       </c>
       <c r="H200" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="I200" t="s">
         <v>19</v>
@@ -9126,10 +9219,10 @@
         <v>1</v>
       </c>
       <c r="K200">
-        <v>7370735</v>
+        <v>570000</v>
       </c>
       <c r="L200">
-        <v>7370735</v>
+        <v>570000</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9143,19 +9236,19 @@
         <v>13</v>
       </c>
       <c r="D201" t="s">
-        <v>62</v>
+        <v>297</v>
       </c>
       <c r="E201" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F201" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G201" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H201" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="I201" t="s">
         <v>19</v>
@@ -9164,10 +9257,10 @@
         <v>1</v>
       </c>
       <c r="K201">
-        <v>7140000</v>
+        <v>21841204</v>
       </c>
       <c r="L201">
-        <v>7140000</v>
+        <v>21841204</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9181,19 +9274,19 @@
         <v>13</v>
       </c>
       <c r="D202" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="E202" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F202" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G202" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H202" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="I202" t="s">
         <v>19</v>
@@ -9202,10 +9295,10 @@
         <v>1</v>
       </c>
       <c r="K202">
-        <v>20068988</v>
+        <v>9753677</v>
       </c>
       <c r="L202">
-        <v>20068988</v>
+        <v>9753677</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9219,19 +9312,19 @@
         <v>13</v>
       </c>
       <c r="D203" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="E203" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F203" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G203" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H203" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="I203" t="s">
         <v>19</v>
@@ -9240,10 +9333,10 @@
         <v>1</v>
       </c>
       <c r="K203">
-        <v>45645400</v>
+        <v>19900000</v>
       </c>
       <c r="L203">
-        <v>45645400</v>
+        <v>19900000</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9257,19 +9350,19 @@
         <v>13</v>
       </c>
       <c r="D204" t="s">
-        <v>62</v>
+        <v>297</v>
       </c>
       <c r="E204" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F204" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G204" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H204" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="I204" t="s">
         <v>19</v>
@@ -9278,10 +9371,10 @@
         <v>1</v>
       </c>
       <c r="K204">
-        <v>6775500</v>
+        <v>1334500</v>
       </c>
       <c r="L204">
-        <v>6775500</v>
+        <v>1334500</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9295,20 +9388,20 @@
         <v>13</v>
       </c>
       <c r="D205" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E205" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F205" t="s">
+        <v>313</v>
+      </c>
+      <c r="G205" t="s">
+        <v>314</v>
+      </c>
+      <c r="H205" t="s">
         <v>308</v>
       </c>
-      <c r="G205" t="s">
-        <v>309</v>
-      </c>
-      <c r="H205" t="s">
-        <v>310</v>
-      </c>
       <c r="I205" t="s">
         <v>19</v>
       </c>
@@ -9316,10 +9409,10 @@
         <v>1</v>
       </c>
       <c r="K205">
-        <v>7321500</v>
+        <v>8468650</v>
       </c>
       <c r="L205">
-        <v>7321500</v>
+        <v>8468650</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9333,19 +9426,19 @@
         <v>13</v>
       </c>
       <c r="D206" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E206" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F206" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G206" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H206" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I206" t="s">
         <v>19</v>
@@ -9354,10 +9447,10 @@
         <v>1</v>
       </c>
       <c r="K206">
-        <v>3652800</v>
+        <v>879000</v>
       </c>
       <c r="L206">
-        <v>3652800</v>
+        <v>879000</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9371,19 +9464,19 @@
         <v>13</v>
       </c>
       <c r="D207" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="E207" t="s">
-        <v>109</v>
+        <v>316</v>
       </c>
       <c r="F207" t="s">
-        <v>110</v>
+        <v>317</v>
       </c>
       <c r="G207" t="s">
-        <v>111</v>
+        <v>318</v>
       </c>
       <c r="H207" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="I207" t="s">
         <v>19</v>
@@ -9392,10 +9485,10 @@
         <v>1</v>
       </c>
       <c r="K207">
-        <v>280000</v>
+        <v>7370735</v>
       </c>
       <c r="L207">
-        <v>280000</v>
+        <v>7370735</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9409,19 +9502,19 @@
         <v>13</v>
       </c>
       <c r="D208" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E208" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F208" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G208" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H208" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="I208" t="s">
         <v>19</v>
@@ -9430,10 +9523,10 @@
         <v>1</v>
       </c>
       <c r="K208">
-        <v>50692502</v>
+        <v>7140000</v>
       </c>
       <c r="L208">
-        <v>50692502</v>
+        <v>7140000</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9447,19 +9540,19 @@
         <v>13</v>
       </c>
       <c r="D209" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="E209" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F209" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G209" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="H209" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="I209" t="s">
         <v>19</v>
@@ -9468,10 +9561,10 @@
         <v>1</v>
       </c>
       <c r="K209">
-        <v>9800000</v>
+        <v>20068988</v>
       </c>
       <c r="L209">
-        <v>9800000</v>
+        <v>20068988</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9485,19 +9578,19 @@
         <v>13</v>
       </c>
       <c r="D210" t="s">
-        <v>24</v>
+        <v>297</v>
       </c>
       <c r="E210" t="s">
-        <v>121</v>
+        <v>327</v>
       </c>
       <c r="F210" t="s">
-        <v>122</v>
+        <v>328</v>
       </c>
       <c r="G210" t="s">
-        <v>123</v>
+        <v>329</v>
       </c>
       <c r="H210" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="I210" t="s">
         <v>19</v>
@@ -9506,10 +9599,10 @@
         <v>1</v>
       </c>
       <c r="K210">
-        <v>7096000</v>
+        <v>45645400</v>
       </c>
       <c r="L210">
-        <v>7096000</v>
+        <v>45645400</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9523,19 +9616,19 @@
         <v>13</v>
       </c>
       <c r="D211" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E211" t="s">
-        <v>121</v>
+        <v>331</v>
       </c>
       <c r="F211" t="s">
-        <v>122</v>
+        <v>332</v>
       </c>
       <c r="G211" t="s">
-        <v>123</v>
+        <v>333</v>
       </c>
       <c r="H211" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="I211" t="s">
         <v>19</v>
@@ -9544,10 +9637,10 @@
         <v>1</v>
       </c>
       <c r="K211">
-        <v>15310300</v>
+        <v>6775500</v>
       </c>
       <c r="L211">
-        <v>15310300</v>
+        <v>6775500</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9564,16 +9657,16 @@
         <v>24</v>
       </c>
       <c r="E212" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c r="F212" t="s">
-        <v>122</v>
+        <v>335</v>
       </c>
       <c r="G212" t="s">
-        <v>123</v>
+        <v>336</v>
       </c>
       <c r="H212" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="I212" t="s">
         <v>19</v>
@@ -9582,10 +9675,10 @@
         <v>1</v>
       </c>
       <c r="K212">
-        <v>410000</v>
+        <v>7321500</v>
       </c>
       <c r="L212">
-        <v>410000</v>
+        <v>7321500</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9599,19 +9692,19 @@
         <v>13</v>
       </c>
       <c r="D213" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E213" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F213" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G213" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H213" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="I213" t="s">
         <v>19</v>
@@ -9620,10 +9713,10 @@
         <v>1</v>
       </c>
       <c r="K213">
-        <v>1380000</v>
+        <v>3652800</v>
       </c>
       <c r="L213">
-        <v>1380000</v>
+        <v>3652800</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9637,19 +9730,19 @@
         <v>13</v>
       </c>
       <c r="D214" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E214" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F214" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G214" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H214" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="I214" t="s">
         <v>19</v>
@@ -9658,10 +9751,10 @@
         <v>1</v>
       </c>
       <c r="K214">
-        <v>3300000</v>
+        <v>280000</v>
       </c>
       <c r="L214">
-        <v>3300000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9675,19 +9768,19 @@
         <v>13</v>
       </c>
       <c r="D215" t="s">
-        <v>270</v>
+        <v>24</v>
       </c>
       <c r="E215" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="F215" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="G215" t="s">
-        <v>280</v>
+        <v>342</v>
       </c>
       <c r="H215" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="I215" t="s">
         <v>19</v>
@@ -9696,10 +9789,10 @@
         <v>1</v>
       </c>
       <c r="K215">
-        <v>93138974</v>
+        <v>50692502</v>
       </c>
       <c r="L215">
-        <v>93138974</v>
+        <v>50692502</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9713,19 +9806,19 @@
         <v>13</v>
       </c>
       <c r="D216" t="s">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="E216" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="F216" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="G216" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="H216" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="I216" t="s">
         <v>19</v>
@@ -9734,10 +9827,10 @@
         <v>1</v>
       </c>
       <c r="K216">
-        <v>15082960</v>
+        <v>9800000</v>
       </c>
       <c r="L216">
-        <v>15082960</v>
+        <v>9800000</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9751,19 +9844,19 @@
         <v>13</v>
       </c>
       <c r="D217" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E217" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="F217" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G217" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H217" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="I217" t="s">
         <v>19</v>
@@ -9772,10 +9865,10 @@
         <v>1</v>
       </c>
       <c r="K217">
-        <v>450000</v>
+        <v>7096000</v>
       </c>
       <c r="L217">
-        <v>450000</v>
+        <v>7096000</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -9792,16 +9885,16 @@
         <v>24</v>
       </c>
       <c r="E218" t="s">
-        <v>331</v>
+        <v>141</v>
       </c>
       <c r="F218" t="s">
-        <v>332</v>
+        <v>142</v>
       </c>
       <c r="G218" t="s">
-        <v>333</v>
+        <v>143</v>
       </c>
       <c r="H218" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="I218" t="s">
         <v>19</v>
@@ -9810,10 +9903,10 @@
         <v>1</v>
       </c>
       <c r="K218">
-        <v>8591000</v>
+        <v>15310300</v>
       </c>
       <c r="L218">
-        <v>8591000</v>
+        <v>15310300</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -9827,19 +9920,19 @@
         <v>13</v>
       </c>
       <c r="D219" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E219" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="F219" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="G219" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H219" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="I219" t="s">
         <v>19</v>
@@ -9848,10 +9941,10 @@
         <v>1</v>
       </c>
       <c r="K219">
-        <v>2258000</v>
+        <v>410000</v>
       </c>
       <c r="L219">
-        <v>2258000</v>
+        <v>410000</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -9865,19 +9958,19 @@
         <v>13</v>
       </c>
       <c r="D220" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E220" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="F220" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="G220" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H220" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="I220" t="s">
         <v>19</v>
@@ -9886,10 +9979,10 @@
         <v>1</v>
       </c>
       <c r="K220">
-        <v>15828200</v>
+        <v>1380000</v>
       </c>
       <c r="L220">
-        <v>15828200</v>
+        <v>1380000</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -9903,19 +9996,19 @@
         <v>13</v>
       </c>
       <c r="D221" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="E221" t="s">
-        <v>92</v>
+        <v>351</v>
       </c>
       <c r="F221" t="s">
-        <v>93</v>
+        <v>352</v>
       </c>
       <c r="G221" t="s">
-        <v>94</v>
+        <v>353</v>
       </c>
       <c r="H221" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="I221" t="s">
         <v>19</v>
@@ -9924,10 +10017,10 @@
         <v>1</v>
       </c>
       <c r="K221">
-        <v>2102330</v>
+        <v>16394000</v>
       </c>
       <c r="L221">
-        <v>2102330</v>
+        <v>16394000</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -9941,19 +10034,19 @@
         <v>13</v>
       </c>
       <c r="D222" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E222" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="F222" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="G222" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H222" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="I222" t="s">
         <v>19</v>
@@ -9962,10 +10055,10 @@
         <v>1</v>
       </c>
       <c r="K222">
-        <v>14733600</v>
+        <v>3300000</v>
       </c>
       <c r="L222">
-        <v>14733600</v>
+        <v>3300000</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -9979,19 +10072,19 @@
         <v>13</v>
       </c>
       <c r="D223" t="s">
-        <v>24</v>
+        <v>297</v>
       </c>
       <c r="E223" t="s">
-        <v>121</v>
+        <v>356</v>
       </c>
       <c r="F223" t="s">
-        <v>122</v>
+        <v>357</v>
       </c>
       <c r="G223" t="s">
-        <v>123</v>
+        <v>307</v>
       </c>
       <c r="H223" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="I223" t="s">
         <v>19</v>
@@ -10000,10 +10093,10 @@
         <v>1</v>
       </c>
       <c r="K223">
-        <v>9137000</v>
+        <v>93138974</v>
       </c>
       <c r="L223">
-        <v>9137000</v>
+        <v>93138974</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10017,19 +10110,19 @@
         <v>13</v>
       </c>
       <c r="D224" t="s">
-        <v>24</v>
+        <v>297</v>
       </c>
       <c r="E224" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="F224" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="G224" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="H224" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="I224" t="s">
         <v>19</v>
@@ -10038,10 +10131,10 @@
         <v>1</v>
       </c>
       <c r="K224">
-        <v>16821479</v>
+        <v>15082960</v>
       </c>
       <c r="L224">
-        <v>16821479</v>
+        <v>15082960</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10055,19 +10148,19 @@
         <v>13</v>
       </c>
       <c r="D225" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="E225" t="s">
-        <v>344</v>
+        <v>110</v>
       </c>
       <c r="F225" t="s">
-        <v>345</v>
+        <v>111</v>
       </c>
       <c r="G225" t="s">
-        <v>346</v>
+        <v>112</v>
       </c>
       <c r="H225" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="I225" t="s">
         <v>19</v>
@@ -10076,10 +10169,10 @@
         <v>1</v>
       </c>
       <c r="K225">
-        <v>320961489</v>
+        <v>450000</v>
       </c>
       <c r="L225">
-        <v>320961489</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10093,19 +10186,19 @@
         <v>13</v>
       </c>
       <c r="D226" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E226" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="F226" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="G226" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="H226" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="I226" t="s">
         <v>19</v>
@@ -10114,10 +10207,10 @@
         <v>1</v>
       </c>
       <c r="K226">
-        <v>4590000</v>
+        <v>8591000</v>
       </c>
       <c r="L226">
-        <v>4590000</v>
+        <v>8591000</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10131,19 +10224,19 @@
         <v>13</v>
       </c>
       <c r="D227" t="s">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="E227" t="s">
-        <v>351</v>
+        <v>129</v>
       </c>
       <c r="F227" t="s">
-        <v>352</v>
+        <v>130</v>
       </c>
       <c r="G227" t="s">
-        <v>280</v>
+        <v>131</v>
       </c>
       <c r="H227" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="I227" t="s">
         <v>19</v>
@@ -10152,10 +10245,10 @@
         <v>1</v>
       </c>
       <c r="K227">
-        <v>20738160</v>
+        <v>2258000</v>
       </c>
       <c r="L227">
-        <v>20738160</v>
+        <v>2258000</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10169,19 +10262,19 @@
         <v>13</v>
       </c>
       <c r="D228" t="s">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="E228" t="s">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="F228" t="s">
-        <v>355</v>
+        <v>130</v>
       </c>
       <c r="G228" t="s">
-        <v>356</v>
+        <v>131</v>
       </c>
       <c r="H228" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="I228" t="s">
         <v>19</v>
@@ -10190,10 +10283,10 @@
         <v>1</v>
       </c>
       <c r="K228">
-        <v>720000</v>
+        <v>15828200</v>
       </c>
       <c r="L228">
-        <v>720000</v>
+        <v>15828200</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10207,19 +10300,19 @@
         <v>13</v>
       </c>
       <c r="D229" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E229" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F229" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G229" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H229" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="I229" t="s">
         <v>19</v>
@@ -10228,10 +10321,10 @@
         <v>1</v>
       </c>
       <c r="K229">
-        <v>4515140</v>
+        <v>2102330</v>
       </c>
       <c r="L229">
-        <v>4515140</v>
+        <v>2102330</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10245,19 +10338,19 @@
         <v>13</v>
       </c>
       <c r="D230" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E230" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F230" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G230" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H230" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="I230" t="s">
         <v>19</v>
@@ -10266,10 +10359,10 @@
         <v>1</v>
       </c>
       <c r="K230">
-        <v>2280000</v>
+        <v>14733600</v>
       </c>
       <c r="L230">
-        <v>2280000</v>
+        <v>14733600</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10286,16 +10379,16 @@
         <v>24</v>
       </c>
       <c r="E231" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F231" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G231" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H231" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="I231" t="s">
         <v>19</v>
@@ -10304,10 +10397,10 @@
         <v>1</v>
       </c>
       <c r="K231">
-        <v>2015000</v>
+        <v>9137000</v>
       </c>
       <c r="L231">
-        <v>2015000</v>
+        <v>9137000</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10324,16 +10417,16 @@
         <v>24</v>
       </c>
       <c r="E232" t="s">
-        <v>121</v>
+        <v>371</v>
       </c>
       <c r="F232" t="s">
-        <v>122</v>
+        <v>372</v>
       </c>
       <c r="G232" t="s">
-        <v>123</v>
+        <v>373</v>
       </c>
       <c r="H232" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="I232" t="s">
         <v>19</v>
@@ -10342,10 +10435,10 @@
         <v>1</v>
       </c>
       <c r="K232">
-        <v>3265000</v>
+        <v>16821479</v>
       </c>
       <c r="L232">
-        <v>3265000</v>
+        <v>16821479</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10359,19 +10452,19 @@
         <v>13</v>
       </c>
       <c r="D233" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="E233" t="s">
-        <v>121</v>
+        <v>375</v>
       </c>
       <c r="F233" t="s">
-        <v>122</v>
+        <v>376</v>
       </c>
       <c r="G233" t="s">
-        <v>123</v>
+        <v>377</v>
       </c>
       <c r="H233" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="I233" t="s">
         <v>19</v>
@@ -10380,10 +10473,10 @@
         <v>1</v>
       </c>
       <c r="K233">
-        <v>1440000</v>
+        <v>320961489</v>
       </c>
       <c r="L233">
-        <v>1440000</v>
+        <v>320961489</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10397,19 +10490,19 @@
         <v>13</v>
       </c>
       <c r="D234" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="E234" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="F234" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="G234" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="H234" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="I234" t="s">
         <v>19</v>
@@ -10418,10 +10511,10 @@
         <v>1</v>
       </c>
       <c r="K234">
-        <v>5326766</v>
+        <v>4590000</v>
       </c>
       <c r="L234">
-        <v>5326766</v>
+        <v>4590000</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10435,19 +10528,19 @@
         <v>13</v>
       </c>
       <c r="D235" t="s">
-        <v>96</v>
+        <v>297</v>
       </c>
       <c r="E235" t="s">
-        <v>97</v>
+        <v>382</v>
       </c>
       <c r="F235" t="s">
-        <v>98</v>
+        <v>383</v>
       </c>
       <c r="G235" t="s">
-        <v>99</v>
+        <v>307</v>
       </c>
       <c r="H235" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="I235" t="s">
         <v>19</v>
@@ -10456,10 +10549,10 @@
         <v>1</v>
       </c>
       <c r="K235">
-        <v>2805000</v>
+        <v>20738160</v>
       </c>
       <c r="L235">
-        <v>2805000</v>
+        <v>20738160</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10473,19 +10566,19 @@
         <v>13</v>
       </c>
       <c r="D236" t="s">
-        <v>96</v>
+        <v>297</v>
       </c>
       <c r="E236" t="s">
-        <v>97</v>
+        <v>385</v>
       </c>
       <c r="F236" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="G236" t="s">
-        <v>99</v>
+        <v>387</v>
       </c>
       <c r="H236" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="I236" t="s">
         <v>19</v>
@@ -10494,10 +10587,10 @@
         <v>1</v>
       </c>
       <c r="K236">
-        <v>1650000</v>
+        <v>720000</v>
       </c>
       <c r="L236">
-        <v>1650000</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10511,19 +10604,19 @@
         <v>13</v>
       </c>
       <c r="D237" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E237" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="F237" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="G237" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="H237" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="I237" t="s">
         <v>19</v>
@@ -10532,10 +10625,10 @@
         <v>1</v>
       </c>
       <c r="K237">
-        <v>780000</v>
+        <v>4515140</v>
       </c>
       <c r="L237">
-        <v>780000</v>
+        <v>4515140</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10552,16 +10645,16 @@
         <v>24</v>
       </c>
       <c r="E238" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="F238" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="G238" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="H238" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="I238" t="s">
         <v>19</v>
@@ -10570,10 +10663,10 @@
         <v>1</v>
       </c>
       <c r="K238">
-        <v>900000</v>
+        <v>2280000</v>
       </c>
       <c r="L238">
-        <v>900000</v>
+        <v>2280000</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10590,16 +10683,16 @@
         <v>24</v>
       </c>
       <c r="E239" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="F239" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="G239" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="H239" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="I239" t="s">
         <v>19</v>
@@ -10608,10 +10701,10 @@
         <v>1</v>
       </c>
       <c r="K239">
-        <v>280000</v>
+        <v>2015000</v>
       </c>
       <c r="L239">
-        <v>280000</v>
+        <v>2015000</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10625,19 +10718,19 @@
         <v>13</v>
       </c>
       <c r="D240" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E240" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="F240" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G240" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H240" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="I240" t="s">
         <v>19</v>
@@ -10646,10 +10739,10 @@
         <v>1</v>
       </c>
       <c r="K240">
-        <v>2080000</v>
+        <v>3265000</v>
       </c>
       <c r="L240">
-        <v>2080000</v>
+        <v>3265000</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10663,19 +10756,19 @@
         <v>13</v>
       </c>
       <c r="D241" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E241" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="F241" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G241" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H241" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="I241" t="s">
         <v>19</v>
@@ -10684,10 +10777,10 @@
         <v>1</v>
       </c>
       <c r="K241">
-        <v>2400000</v>
+        <v>1440000</v>
       </c>
       <c r="L241">
-        <v>2400000</v>
+        <v>1440000</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10701,19 +10794,19 @@
         <v>13</v>
       </c>
       <c r="D242" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="E242" t="s">
-        <v>97</v>
+        <v>394</v>
       </c>
       <c r="F242" t="s">
-        <v>98</v>
+        <v>395</v>
       </c>
       <c r="G242" t="s">
-        <v>99</v>
+        <v>396</v>
       </c>
       <c r="H242" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="I242" t="s">
         <v>19</v>
@@ -10722,10 +10815,10 @@
         <v>1</v>
       </c>
       <c r="K242">
-        <v>150000</v>
+        <v>5326766</v>
       </c>
       <c r="L242">
-        <v>150000</v>
+        <v>5326766</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10739,19 +10832,19 @@
         <v>13</v>
       </c>
       <c r="D243" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E243" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F243" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G243" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H243" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="I243" t="s">
         <v>19</v>
@@ -10760,10 +10853,10 @@
         <v>1</v>
       </c>
       <c r="K243">
-        <v>260000</v>
+        <v>2805000</v>
       </c>
       <c r="L243">
-        <v>260000</v>
+        <v>2805000</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -10777,19 +10870,19 @@
         <v>13</v>
       </c>
       <c r="D244" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E244" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F244" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G244" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H244" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="I244" t="s">
         <v>19</v>
@@ -10798,10 +10891,10 @@
         <v>1</v>
       </c>
       <c r="K244">
-        <v>450000</v>
+        <v>1650000</v>
       </c>
       <c r="L244">
-        <v>450000</v>
+        <v>1650000</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -10815,19 +10908,19 @@
         <v>13</v>
       </c>
       <c r="D245" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E245" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F245" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G245" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H245" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="I245" t="s">
         <v>19</v>
@@ -10836,10 +10929,10 @@
         <v>1</v>
       </c>
       <c r="K245">
-        <v>2170000</v>
+        <v>780000</v>
       </c>
       <c r="L245">
-        <v>2170000</v>
+        <v>780000</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -10853,19 +10946,19 @@
         <v>13</v>
       </c>
       <c r="D246" t="s">
-        <v>270</v>
+        <v>24</v>
       </c>
       <c r="E246" t="s">
-        <v>378</v>
+        <v>105</v>
       </c>
       <c r="F246" t="s">
-        <v>379</v>
+        <v>106</v>
       </c>
       <c r="G246" t="s">
-        <v>380</v>
+        <v>107</v>
       </c>
       <c r="H246" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="I246" t="s">
         <v>19</v>
@@ -10874,10 +10967,10 @@
         <v>1</v>
       </c>
       <c r="K246">
-        <v>520000</v>
+        <v>900000</v>
       </c>
       <c r="L246">
-        <v>520000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -10891,19 +10984,19 @@
         <v>13</v>
       </c>
       <c r="D247" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E247" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F247" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G247" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H247" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="I247" t="s">
         <v>19</v>
@@ -10912,10 +11005,10 @@
         <v>1</v>
       </c>
       <c r="K247">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="L247">
-        <v>260000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -10929,19 +11022,19 @@
         <v>13</v>
       </c>
       <c r="D248" t="s">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="E248" t="s">
-        <v>378</v>
+        <v>110</v>
       </c>
       <c r="F248" t="s">
-        <v>379</v>
+        <v>111</v>
       </c>
       <c r="G248" t="s">
-        <v>380</v>
+        <v>112</v>
       </c>
       <c r="H248" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="I248" t="s">
         <v>19</v>
@@ -10950,10 +11043,10 @@
         <v>1</v>
       </c>
       <c r="K248">
-        <v>300000</v>
+        <v>2080000</v>
       </c>
       <c r="L248">
-        <v>300000</v>
+        <v>2080000</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -10967,19 +11060,19 @@
         <v>13</v>
       </c>
       <c r="D249" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E249" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F249" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G249" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H249" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="I249" t="s">
         <v>19</v>
@@ -10988,10 +11081,10 @@
         <v>1</v>
       </c>
       <c r="K249">
-        <v>150000</v>
+        <v>2400000</v>
       </c>
       <c r="L249">
-        <v>150000</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11005,19 +11098,19 @@
         <v>13</v>
       </c>
       <c r="D250" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E250" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F250" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G250" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H250" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="I250" t="s">
         <v>19</v>
@@ -11026,10 +11119,10 @@
         <v>1</v>
       </c>
       <c r="K250">
-        <v>520000</v>
+        <v>150000</v>
       </c>
       <c r="L250">
-        <v>520000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11043,19 +11136,19 @@
         <v>13</v>
       </c>
       <c r="D251" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E251" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F251" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G251" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H251" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="I251" t="s">
         <v>19</v>
@@ -11064,10 +11157,10 @@
         <v>1</v>
       </c>
       <c r="K251">
-        <v>600000</v>
+        <v>260000</v>
       </c>
       <c r="L251">
-        <v>600000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11081,19 +11174,19 @@
         <v>13</v>
       </c>
       <c r="D252" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E252" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F252" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G252" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H252" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="I252" t="s">
         <v>19</v>
@@ -11102,10 +11195,10 @@
         <v>1</v>
       </c>
       <c r="K252">
-        <v>750000</v>
+        <v>450000</v>
       </c>
       <c r="L252">
-        <v>750000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11119,19 +11212,19 @@
         <v>13</v>
       </c>
       <c r="D253" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E253" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F253" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G253" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H253" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="I253" t="s">
         <v>19</v>
@@ -11140,10 +11233,10 @@
         <v>1</v>
       </c>
       <c r="K253">
-        <v>650000</v>
+        <v>2170000</v>
       </c>
       <c r="L253">
-        <v>650000</v>
+        <v>2170000</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11157,19 +11250,19 @@
         <v>13</v>
       </c>
       <c r="D254" t="s">
-        <v>96</v>
+        <v>297</v>
       </c>
       <c r="E254" t="s">
-        <v>97</v>
+        <v>409</v>
       </c>
       <c r="F254" t="s">
-        <v>98</v>
+        <v>410</v>
       </c>
       <c r="G254" t="s">
-        <v>99</v>
+        <v>411</v>
       </c>
       <c r="H254" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="I254" t="s">
         <v>19</v>
@@ -11178,10 +11271,10 @@
         <v>1</v>
       </c>
       <c r="K254">
-        <v>2250000</v>
+        <v>520000</v>
       </c>
       <c r="L254">
-        <v>2250000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11195,19 +11288,19 @@
         <v>13</v>
       </c>
       <c r="D255" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E255" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F255" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G255" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H255" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="I255" t="s">
         <v>19</v>
@@ -11216,10 +11309,10 @@
         <v>1</v>
       </c>
       <c r="K255">
-        <v>8275000</v>
+        <v>260000</v>
       </c>
       <c r="L255">
-        <v>8275000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11233,19 +11326,19 @@
         <v>13</v>
       </c>
       <c r="D256" t="s">
-        <v>96</v>
+        <v>297</v>
       </c>
       <c r="E256" t="s">
-        <v>97</v>
+        <v>409</v>
       </c>
       <c r="F256" t="s">
-        <v>98</v>
+        <v>410</v>
       </c>
       <c r="G256" t="s">
-        <v>99</v>
+        <v>411</v>
       </c>
       <c r="H256" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="I256" t="s">
         <v>19</v>
@@ -11254,10 +11347,10 @@
         <v>1</v>
       </c>
       <c r="K256">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="L256">
-        <v>130000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11271,19 +11364,19 @@
         <v>13</v>
       </c>
       <c r="D257" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E257" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F257" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G257" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H257" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="I257" t="s">
         <v>19</v>
@@ -11309,19 +11402,19 @@
         <v>13</v>
       </c>
       <c r="D258" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E258" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F258" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G258" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H258" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="I258" t="s">
         <v>19</v>
@@ -11330,10 +11423,10 @@
         <v>1</v>
       </c>
       <c r="K258">
-        <v>210000</v>
+        <v>520000</v>
       </c>
       <c r="L258">
-        <v>210000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11347,19 +11440,19 @@
         <v>13</v>
       </c>
       <c r="D259" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E259" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F259" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G259" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H259" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="I259" t="s">
         <v>19</v>
@@ -11368,10 +11461,10 @@
         <v>1</v>
       </c>
       <c r="K259">
-        <v>150000</v>
+        <v>600000</v>
       </c>
       <c r="L259">
-        <v>150000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11385,19 +11478,19 @@
         <v>13</v>
       </c>
       <c r="D260" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E260" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F260" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G260" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="H260" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="I260" t="s">
         <v>19</v>
@@ -11406,10 +11499,10 @@
         <v>1</v>
       </c>
       <c r="K260">
-        <v>28260000</v>
+        <v>750000</v>
       </c>
       <c r="L260">
-        <v>28260000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11423,19 +11516,19 @@
         <v>13</v>
       </c>
       <c r="D261" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E261" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F261" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G261" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="H261" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="I261" t="s">
         <v>19</v>
@@ -11444,10 +11537,10 @@
         <v>1</v>
       </c>
       <c r="K261">
-        <v>7950000</v>
+        <v>650000</v>
       </c>
       <c r="L261">
-        <v>7950000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11461,19 +11554,19 @@
         <v>13</v>
       </c>
       <c r="D262" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E262" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F262" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G262" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="H262" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="I262" t="s">
         <v>19</v>
@@ -11482,10 +11575,10 @@
         <v>1</v>
       </c>
       <c r="K262">
-        <v>420000</v>
+        <v>2250000</v>
       </c>
       <c r="L262">
-        <v>420000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11499,19 +11592,19 @@
         <v>13</v>
       </c>
       <c r="D263" t="s">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="E263" t="s">
-        <v>396</v>
+        <v>110</v>
       </c>
       <c r="F263" t="s">
-        <v>397</v>
+        <v>111</v>
       </c>
       <c r="G263" t="s">
-        <v>398</v>
+        <v>112</v>
       </c>
       <c r="H263" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="I263" t="s">
         <v>19</v>
@@ -11520,10 +11613,10 @@
         <v>1</v>
       </c>
       <c r="K263">
-        <v>300000</v>
+        <v>8275000</v>
       </c>
       <c r="L263">
-        <v>300000</v>
+        <v>8275000</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11537,19 +11630,19 @@
         <v>13</v>
       </c>
       <c r="D264" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E264" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F264" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G264" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="H264" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="I264" t="s">
         <v>19</v>
@@ -11558,10 +11651,10 @@
         <v>1</v>
       </c>
       <c r="K264">
-        <v>300000</v>
+        <v>130000</v>
       </c>
       <c r="L264">
-        <v>300000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11575,19 +11668,19 @@
         <v>13</v>
       </c>
       <c r="D265" t="s">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="E265" t="s">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="F265" t="s">
-        <v>401</v>
+        <v>111</v>
       </c>
       <c r="G265" t="s">
-        <v>402</v>
+        <v>112</v>
       </c>
       <c r="H265" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="I265" t="s">
         <v>19</v>
@@ -11596,10 +11689,10 @@
         <v>1</v>
       </c>
       <c r="K265">
-        <v>1152800</v>
+        <v>150000</v>
       </c>
       <c r="L265">
-        <v>1152800</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11613,19 +11706,19 @@
         <v>13</v>
       </c>
       <c r="D266" t="s">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="E266" t="s">
-        <v>404</v>
+        <v>110</v>
       </c>
       <c r="F266" t="s">
-        <v>405</v>
+        <v>111</v>
       </c>
       <c r="G266" t="s">
-        <v>406</v>
+        <v>112</v>
       </c>
       <c r="H266" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="I266" t="s">
         <v>19</v>
@@ -11634,10 +11727,10 @@
         <v>1</v>
       </c>
       <c r="K266">
-        <v>510700000</v>
+        <v>210000</v>
       </c>
       <c r="L266">
-        <v>510700000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11651,19 +11744,19 @@
         <v>13</v>
       </c>
       <c r="D267" t="s">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="E267" t="s">
-        <v>408</v>
+        <v>110</v>
       </c>
       <c r="F267" t="s">
-        <v>409</v>
+        <v>111</v>
       </c>
       <c r="G267" t="s">
-        <v>410</v>
+        <v>112</v>
       </c>
       <c r="H267" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="I267" t="s">
         <v>19</v>
@@ -11672,9 +11765,313 @@
         <v>1</v>
       </c>
       <c r="K267">
+        <v>150000</v>
+      </c>
+      <c r="L267">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12">
+      <c r="A268">
+        <v>265</v>
+      </c>
+      <c r="B268">
+        <v>626402</v>
+      </c>
+      <c r="C268" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" t="s">
+        <v>24</v>
+      </c>
+      <c r="E268" t="s">
+        <v>105</v>
+      </c>
+      <c r="F268" t="s">
+        <v>106</v>
+      </c>
+      <c r="G268" t="s">
+        <v>107</v>
+      </c>
+      <c r="H268" t="s">
+        <v>424</v>
+      </c>
+      <c r="I268" t="s">
+        <v>19</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+      <c r="K268">
+        <v>28260000</v>
+      </c>
+      <c r="L268">
+        <v>28260000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12">
+      <c r="A269">
+        <v>266</v>
+      </c>
+      <c r="B269">
+        <v>626402</v>
+      </c>
+      <c r="C269" t="s">
+        <v>13</v>
+      </c>
+      <c r="D269" t="s">
+        <v>24</v>
+      </c>
+      <c r="E269" t="s">
+        <v>105</v>
+      </c>
+      <c r="F269" t="s">
+        <v>106</v>
+      </c>
+      <c r="G269" t="s">
+        <v>107</v>
+      </c>
+      <c r="H269" t="s">
+        <v>425</v>
+      </c>
+      <c r="I269" t="s">
+        <v>19</v>
+      </c>
+      <c r="J269">
+        <v>1</v>
+      </c>
+      <c r="K269">
+        <v>7950000</v>
+      </c>
+      <c r="L269">
+        <v>7950000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12">
+      <c r="A270">
+        <v>267</v>
+      </c>
+      <c r="B270">
+        <v>626402</v>
+      </c>
+      <c r="C270" t="s">
+        <v>13</v>
+      </c>
+      <c r="D270" t="s">
+        <v>24</v>
+      </c>
+      <c r="E270" t="s">
+        <v>105</v>
+      </c>
+      <c r="F270" t="s">
+        <v>106</v>
+      </c>
+      <c r="G270" t="s">
+        <v>107</v>
+      </c>
+      <c r="H270" t="s">
+        <v>426</v>
+      </c>
+      <c r="I270" t="s">
+        <v>19</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
+      </c>
+      <c r="K270">
+        <v>420000</v>
+      </c>
+      <c r="L270">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12">
+      <c r="A271">
+        <v>268</v>
+      </c>
+      <c r="B271">
+        <v>626402</v>
+      </c>
+      <c r="C271" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" t="s">
+        <v>297</v>
+      </c>
+      <c r="E271" t="s">
+        <v>427</v>
+      </c>
+      <c r="F271" t="s">
+        <v>428</v>
+      </c>
+      <c r="G271" t="s">
+        <v>429</v>
+      </c>
+      <c r="H271" t="s">
+        <v>430</v>
+      </c>
+      <c r="I271" t="s">
+        <v>19</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+      <c r="K271">
+        <v>300000</v>
+      </c>
+      <c r="L271">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12">
+      <c r="A272">
+        <v>269</v>
+      </c>
+      <c r="B272">
+        <v>626402</v>
+      </c>
+      <c r="C272" t="s">
+        <v>13</v>
+      </c>
+      <c r="D272" t="s">
+        <v>24</v>
+      </c>
+      <c r="E272" t="s">
+        <v>105</v>
+      </c>
+      <c r="F272" t="s">
+        <v>106</v>
+      </c>
+      <c r="G272" t="s">
+        <v>107</v>
+      </c>
+      <c r="H272" t="s">
+        <v>430</v>
+      </c>
+      <c r="I272" t="s">
+        <v>19</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
+        <v>300000</v>
+      </c>
+      <c r="L272">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12">
+      <c r="A273">
+        <v>270</v>
+      </c>
+      <c r="B273">
+        <v>626402</v>
+      </c>
+      <c r="C273" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" t="s">
+        <v>297</v>
+      </c>
+      <c r="E273" t="s">
+        <v>431</v>
+      </c>
+      <c r="F273" t="s">
+        <v>432</v>
+      </c>
+      <c r="G273" t="s">
+        <v>433</v>
+      </c>
+      <c r="H273" t="s">
+        <v>434</v>
+      </c>
+      <c r="I273" t="s">
+        <v>19</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273">
+        <v>1152800</v>
+      </c>
+      <c r="L273">
+        <v>1152800</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12">
+      <c r="A274">
+        <v>271</v>
+      </c>
+      <c r="B274">
+        <v>626402</v>
+      </c>
+      <c r="C274" t="s">
+        <v>13</v>
+      </c>
+      <c r="D274" t="s">
+        <v>119</v>
+      </c>
+      <c r="E274" t="s">
+        <v>435</v>
+      </c>
+      <c r="F274" t="s">
+        <v>436</v>
+      </c>
+      <c r="G274" t="s">
+        <v>437</v>
+      </c>
+      <c r="H274" t="s">
+        <v>438</v>
+      </c>
+      <c r="I274" t="s">
+        <v>19</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="K274">
+        <v>510700000</v>
+      </c>
+      <c r="L274">
+        <v>510700000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12">
+      <c r="A275">
+        <v>272</v>
+      </c>
+      <c r="B275">
+        <v>626402</v>
+      </c>
+      <c r="C275" t="s">
+        <v>13</v>
+      </c>
+      <c r="D275" t="s">
+        <v>119</v>
+      </c>
+      <c r="E275" t="s">
+        <v>439</v>
+      </c>
+      <c r="F275" t="s">
+        <v>440</v>
+      </c>
+      <c r="G275" t="s">
+        <v>441</v>
+      </c>
+      <c r="H275" t="s">
+        <v>442</v>
+      </c>
+      <c r="I275" t="s">
+        <v>19</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+      <c r="K275">
         <v>115820000</v>
       </c>
-      <c r="L267">
+      <c r="L275">
         <v>115820000</v>
       </c>
     </row>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="454">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -998,6 +998,18 @@
     <t>Penggantian Uang Persediaan KKP untuk keperluan Belanja Barang (BPP 001 Set. BRSDM).</t>
   </si>
   <si>
+    <t>16-FEB-23</t>
+  </si>
+  <si>
+    <t>'00077T</t>
+  </si>
+  <si>
+    <t>'231751303001729</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.88/BRSDM/KP.440/I/2023 Tgl.17 Januari 2023,Surat Tugas Nomor:B.451/BRSDM.1/KP.440/I/2023 Tgl.18 Januari 2023</t>
+  </si>
+  <si>
     <t>'00025T</t>
   </si>
   <si>
@@ -1289,6 +1301,18 @@
     <t>'626402.175.524114.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0D.000907</t>
   </si>
   <si>
+    <t>'00076T</t>
+  </si>
+  <si>
+    <t>'231751301003224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang Sesuai SPK No:241/PPK/BRSDM.1/I/2023 Tgl.18-1-2023,BAST No:BAST.281/PPK/BRSDM.1/I/2023 Tgl.20-1-2023,BAP NO:282/PPK/BRSDM.1/I/2023 Tgl.20-1-2023 </t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0D.001341</t>
+  </si>
+  <si>
     <t>'626402.175.524114.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0D.001342</t>
   </si>
   <si>
@@ -1344,6 +1368,15 @@
   </si>
   <si>
     <t>'626402.175.532111.03212WA.2378EBB.A000000001.00000.1.0151.2.000000.000000.951.102.0A.000785</t>
+  </si>
+  <si>
+    <t>'00075T</t>
+  </si>
+  <si>
+    <t>'231751303001715</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Modal Sesuai SPK No:342/PPK/BRSDM.1/I/2023 Tgl.26-1-2023,BAST No:BAST.383/PPK/BRSDM.1/I/2023 Tgl.30-1-2023,BAP No:384/PPK/BRSDM.1/I/2023 Tgl.30-1-2023 Pengadaan TV WALL</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1718,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L275"/>
+  <dimension ref="A1:L278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -9578,19 +9611,19 @@
         <v>13</v>
       </c>
       <c r="D210" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="E210" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F210" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G210" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H210" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="I210" t="s">
         <v>19</v>
@@ -9599,10 +9632,10 @@
         <v>1</v>
       </c>
       <c r="K210">
-        <v>45645400</v>
+        <v>1115000</v>
       </c>
       <c r="L210">
-        <v>45645400</v>
+        <v>1115000</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9616,7 +9649,7 @@
         <v>13</v>
       </c>
       <c r="D211" t="s">
-        <v>62</v>
+        <v>297</v>
       </c>
       <c r="E211" t="s">
         <v>331</v>
@@ -9628,7 +9661,7 @@
         <v>333</v>
       </c>
       <c r="H211" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I211" t="s">
         <v>19</v>
@@ -9637,10 +9670,10 @@
         <v>1</v>
       </c>
       <c r="K211">
-        <v>6775500</v>
+        <v>45645400</v>
       </c>
       <c r="L211">
-        <v>6775500</v>
+        <v>45645400</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9654,20 +9687,20 @@
         <v>13</v>
       </c>
       <c r="D212" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E212" t="s">
+        <v>335</v>
+      </c>
+      <c r="F212" t="s">
+        <v>336</v>
+      </c>
+      <c r="G212" t="s">
+        <v>337</v>
+      </c>
+      <c r="H212" t="s">
         <v>334</v>
       </c>
-      <c r="F212" t="s">
-        <v>335</v>
-      </c>
-      <c r="G212" t="s">
-        <v>336</v>
-      </c>
-      <c r="H212" t="s">
-        <v>337</v>
-      </c>
       <c r="I212" t="s">
         <v>19</v>
       </c>
@@ -9675,10 +9708,10 @@
         <v>1</v>
       </c>
       <c r="K212">
-        <v>7321500</v>
+        <v>6775500</v>
       </c>
       <c r="L212">
-        <v>7321500</v>
+        <v>6775500</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9692,19 +9725,19 @@
         <v>13</v>
       </c>
       <c r="D213" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="E213" t="s">
-        <v>129</v>
+        <v>338</v>
       </c>
       <c r="F213" t="s">
-        <v>130</v>
+        <v>339</v>
       </c>
       <c r="G213" t="s">
-        <v>131</v>
+        <v>340</v>
       </c>
       <c r="H213" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="I213" t="s">
         <v>19</v>
@@ -9713,10 +9746,10 @@
         <v>1</v>
       </c>
       <c r="K213">
-        <v>3652800</v>
+        <v>7321500</v>
       </c>
       <c r="L213">
-        <v>3652800</v>
+        <v>7321500</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9742,7 +9775,7 @@
         <v>131</v>
       </c>
       <c r="H214" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I214" t="s">
         <v>19</v>
@@ -9751,10 +9784,10 @@
         <v>1</v>
       </c>
       <c r="K214">
-        <v>280000</v>
+        <v>3652800</v>
       </c>
       <c r="L214">
-        <v>280000</v>
+        <v>3652800</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9768,16 +9801,16 @@
         <v>13</v>
       </c>
       <c r="D215" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E215" t="s">
-        <v>340</v>
+        <v>129</v>
       </c>
       <c r="F215" t="s">
-        <v>341</v>
+        <v>130</v>
       </c>
       <c r="G215" t="s">
-        <v>342</v>
+        <v>131</v>
       </c>
       <c r="H215" t="s">
         <v>343</v>
@@ -9789,10 +9822,10 @@
         <v>1</v>
       </c>
       <c r="K215">
-        <v>50692502</v>
+        <v>280000</v>
       </c>
       <c r="L215">
-        <v>50692502</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9806,7 +9839,7 @@
         <v>13</v>
       </c>
       <c r="D216" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E216" t="s">
         <v>344</v>
@@ -9818,7 +9851,7 @@
         <v>346</v>
       </c>
       <c r="H216" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I216" t="s">
         <v>19</v>
@@ -9827,10 +9860,10 @@
         <v>1</v>
       </c>
       <c r="K216">
-        <v>9800000</v>
+        <v>50692502</v>
       </c>
       <c r="L216">
-        <v>9800000</v>
+        <v>50692502</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9844,16 +9877,16 @@
         <v>13</v>
       </c>
       <c r="D217" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E217" t="s">
-        <v>141</v>
+        <v>348</v>
       </c>
       <c r="F217" t="s">
-        <v>142</v>
+        <v>349</v>
       </c>
       <c r="G217" t="s">
-        <v>143</v>
+        <v>350</v>
       </c>
       <c r="H217" t="s">
         <v>347</v>
@@ -9865,10 +9898,10 @@
         <v>1</v>
       </c>
       <c r="K217">
-        <v>7096000</v>
+        <v>9800000</v>
       </c>
       <c r="L217">
-        <v>7096000</v>
+        <v>9800000</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -9894,7 +9927,7 @@
         <v>143</v>
       </c>
       <c r="H218" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I218" t="s">
         <v>19</v>
@@ -9903,10 +9936,10 @@
         <v>1</v>
       </c>
       <c r="K218">
-        <v>15310300</v>
+        <v>7096000</v>
       </c>
       <c r="L218">
-        <v>15310300</v>
+        <v>7096000</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -9932,7 +9965,7 @@
         <v>143</v>
       </c>
       <c r="H219" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I219" t="s">
         <v>19</v>
@@ -9941,10 +9974,10 @@
         <v>1</v>
       </c>
       <c r="K219">
-        <v>410000</v>
+        <v>15310300</v>
       </c>
       <c r="L219">
-        <v>410000</v>
+        <v>15310300</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -9970,7 +10003,7 @@
         <v>143</v>
       </c>
       <c r="H220" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="I220" t="s">
         <v>19</v>
@@ -9979,10 +10012,10 @@
         <v>1</v>
       </c>
       <c r="K220">
-        <v>1380000</v>
+        <v>410000</v>
       </c>
       <c r="L220">
-        <v>1380000</v>
+        <v>410000</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -9996,16 +10029,16 @@
         <v>13</v>
       </c>
       <c r="D221" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="E221" t="s">
-        <v>351</v>
+        <v>141</v>
       </c>
       <c r="F221" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="G221" t="s">
-        <v>353</v>
+        <v>143</v>
       </c>
       <c r="H221" t="s">
         <v>354</v>
@@ -10017,10 +10050,10 @@
         <v>1</v>
       </c>
       <c r="K221">
-        <v>16394000</v>
+        <v>1380000</v>
       </c>
       <c r="L221">
-        <v>16394000</v>
+        <v>1380000</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10034,19 +10067,19 @@
         <v>13</v>
       </c>
       <c r="D222" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="E222" t="s">
-        <v>141</v>
+        <v>355</v>
       </c>
       <c r="F222" t="s">
-        <v>142</v>
+        <v>356</v>
       </c>
       <c r="G222" t="s">
-        <v>143</v>
+        <v>357</v>
       </c>
       <c r="H222" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="I222" t="s">
         <v>19</v>
@@ -10055,10 +10088,10 @@
         <v>1</v>
       </c>
       <c r="K222">
-        <v>3300000</v>
+        <v>16394000</v>
       </c>
       <c r="L222">
-        <v>3300000</v>
+        <v>16394000</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10072,19 +10105,19 @@
         <v>13</v>
       </c>
       <c r="D223" t="s">
-        <v>297</v>
+        <v>24</v>
       </c>
       <c r="E223" t="s">
-        <v>356</v>
+        <v>141</v>
       </c>
       <c r="F223" t="s">
-        <v>357</v>
+        <v>142</v>
       </c>
       <c r="G223" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="H223" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I223" t="s">
         <v>19</v>
@@ -10093,10 +10126,10 @@
         <v>1</v>
       </c>
       <c r="K223">
-        <v>93138974</v>
+        <v>3300000</v>
       </c>
       <c r="L223">
-        <v>93138974</v>
+        <v>3300000</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10113,16 +10146,16 @@
         <v>297</v>
       </c>
       <c r="E224" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F224" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G224" t="s">
         <v>307</v>
       </c>
       <c r="H224" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I224" t="s">
         <v>19</v>
@@ -10131,10 +10164,10 @@
         <v>1</v>
       </c>
       <c r="K224">
-        <v>15082960</v>
+        <v>93138974</v>
       </c>
       <c r="L224">
-        <v>15082960</v>
+        <v>93138974</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10148,19 +10181,19 @@
         <v>13</v>
       </c>
       <c r="D225" t="s">
-        <v>109</v>
+        <v>297</v>
       </c>
       <c r="E225" t="s">
-        <v>110</v>
+        <v>363</v>
       </c>
       <c r="F225" t="s">
-        <v>111</v>
+        <v>364</v>
       </c>
       <c r="G225" t="s">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c r="H225" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="I225" t="s">
         <v>19</v>
@@ -10169,10 +10202,10 @@
         <v>1</v>
       </c>
       <c r="K225">
-        <v>450000</v>
+        <v>15082960</v>
       </c>
       <c r="L225">
-        <v>450000</v>
+        <v>15082960</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10186,16 +10219,16 @@
         <v>13</v>
       </c>
       <c r="D226" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E226" t="s">
-        <v>362</v>
+        <v>110</v>
       </c>
       <c r="F226" t="s">
-        <v>363</v>
+        <v>111</v>
       </c>
       <c r="G226" t="s">
-        <v>364</v>
+        <v>112</v>
       </c>
       <c r="H226" t="s">
         <v>365</v>
@@ -10207,10 +10240,10 @@
         <v>1</v>
       </c>
       <c r="K226">
-        <v>8591000</v>
+        <v>450000</v>
       </c>
       <c r="L226">
-        <v>8591000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10224,19 +10257,19 @@
         <v>13</v>
       </c>
       <c r="D227" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="E227" t="s">
-        <v>129</v>
+        <v>366</v>
       </c>
       <c r="F227" t="s">
-        <v>130</v>
+        <v>367</v>
       </c>
       <c r="G227" t="s">
-        <v>131</v>
+        <v>368</v>
       </c>
       <c r="H227" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="I227" t="s">
         <v>19</v>
@@ -10245,10 +10278,10 @@
         <v>1</v>
       </c>
       <c r="K227">
-        <v>2258000</v>
+        <v>8591000</v>
       </c>
       <c r="L227">
-        <v>2258000</v>
+        <v>8591000</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10274,7 +10307,7 @@
         <v>131</v>
       </c>
       <c r="H228" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I228" t="s">
         <v>19</v>
@@ -10283,10 +10316,10 @@
         <v>1</v>
       </c>
       <c r="K228">
-        <v>15828200</v>
+        <v>2258000</v>
       </c>
       <c r="L228">
-        <v>15828200</v>
+        <v>2258000</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10300,19 +10333,19 @@
         <v>13</v>
       </c>
       <c r="D229" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E229" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="F229" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="G229" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="H229" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I229" t="s">
         <v>19</v>
@@ -10321,10 +10354,10 @@
         <v>1</v>
       </c>
       <c r="K229">
-        <v>2102330</v>
+        <v>15828200</v>
       </c>
       <c r="L229">
-        <v>2102330</v>
+        <v>15828200</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10338,19 +10371,19 @@
         <v>13</v>
       </c>
       <c r="D230" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="E230" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F230" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="G230" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="H230" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="I230" t="s">
         <v>19</v>
@@ -10359,10 +10392,10 @@
         <v>1</v>
       </c>
       <c r="K230">
-        <v>14733600</v>
+        <v>2102330</v>
       </c>
       <c r="L230">
-        <v>14733600</v>
+        <v>2102330</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10376,19 +10409,19 @@
         <v>13</v>
       </c>
       <c r="D231" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E231" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F231" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G231" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H231" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I231" t="s">
         <v>19</v>
@@ -10397,10 +10430,10 @@
         <v>1</v>
       </c>
       <c r="K231">
-        <v>9137000</v>
+        <v>14733600</v>
       </c>
       <c r="L231">
-        <v>9137000</v>
+        <v>14733600</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10417,13 +10450,13 @@
         <v>24</v>
       </c>
       <c r="E232" t="s">
-        <v>371</v>
+        <v>141</v>
       </c>
       <c r="F232" t="s">
-        <v>372</v>
+        <v>142</v>
       </c>
       <c r="G232" t="s">
-        <v>373</v>
+        <v>143</v>
       </c>
       <c r="H232" t="s">
         <v>374</v>
@@ -10435,10 +10468,10 @@
         <v>1</v>
       </c>
       <c r="K232">
-        <v>16821479</v>
+        <v>9137000</v>
       </c>
       <c r="L232">
-        <v>16821479</v>
+        <v>9137000</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10452,7 +10485,7 @@
         <v>13</v>
       </c>
       <c r="D233" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="E233" t="s">
         <v>375</v>
@@ -10473,10 +10506,10 @@
         <v>1</v>
       </c>
       <c r="K233">
-        <v>320961489</v>
+        <v>16821479</v>
       </c>
       <c r="L233">
-        <v>320961489</v>
+        <v>16821479</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10490,7 +10523,7 @@
         <v>13</v>
       </c>
       <c r="D234" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="E234" t="s">
         <v>379</v>
@@ -10502,7 +10535,7 @@
         <v>381</v>
       </c>
       <c r="H234" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="I234" t="s">
         <v>19</v>
@@ -10511,10 +10544,10 @@
         <v>1</v>
       </c>
       <c r="K234">
-        <v>4590000</v>
+        <v>320961489</v>
       </c>
       <c r="L234">
-        <v>4590000</v>
+        <v>320961489</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10528,20 +10561,20 @@
         <v>13</v>
       </c>
       <c r="D235" t="s">
-        <v>297</v>
+        <v>62</v>
       </c>
       <c r="E235" t="s">
+        <v>383</v>
+      </c>
+      <c r="F235" t="s">
+        <v>384</v>
+      </c>
+      <c r="G235" t="s">
+        <v>385</v>
+      </c>
+      <c r="H235" t="s">
         <v>382</v>
       </c>
-      <c r="F235" t="s">
-        <v>383</v>
-      </c>
-      <c r="G235" t="s">
-        <v>307</v>
-      </c>
-      <c r="H235" t="s">
-        <v>384</v>
-      </c>
       <c r="I235" t="s">
         <v>19</v>
       </c>
@@ -10549,10 +10582,10 @@
         <v>1</v>
       </c>
       <c r="K235">
-        <v>20738160</v>
+        <v>4590000</v>
       </c>
       <c r="L235">
-        <v>20738160</v>
+        <v>4590000</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10569,13 +10602,13 @@
         <v>297</v>
       </c>
       <c r="E236" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F236" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G236" t="s">
-        <v>387</v>
+        <v>307</v>
       </c>
       <c r="H236" t="s">
         <v>388</v>
@@ -10587,10 +10620,10 @@
         <v>1</v>
       </c>
       <c r="K236">
-        <v>720000</v>
+        <v>20738160</v>
       </c>
       <c r="L236">
-        <v>720000</v>
+        <v>20738160</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10604,19 +10637,19 @@
         <v>13</v>
       </c>
       <c r="D237" t="s">
-        <v>109</v>
+        <v>297</v>
       </c>
       <c r="E237" t="s">
-        <v>129</v>
+        <v>389</v>
       </c>
       <c r="F237" t="s">
-        <v>130</v>
+        <v>390</v>
       </c>
       <c r="G237" t="s">
-        <v>131</v>
+        <v>391</v>
       </c>
       <c r="H237" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I237" t="s">
         <v>19</v>
@@ -10625,10 +10658,10 @@
         <v>1</v>
       </c>
       <c r="K237">
-        <v>4515140</v>
+        <v>720000</v>
       </c>
       <c r="L237">
-        <v>4515140</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10642,19 +10675,19 @@
         <v>13</v>
       </c>
       <c r="D238" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E238" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F238" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G238" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H238" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I238" t="s">
         <v>19</v>
@@ -10663,10 +10696,10 @@
         <v>1</v>
       </c>
       <c r="K238">
-        <v>2280000</v>
+        <v>4515140</v>
       </c>
       <c r="L238">
-        <v>2280000</v>
+        <v>4515140</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10692,7 +10725,7 @@
         <v>143</v>
       </c>
       <c r="H239" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="I239" t="s">
         <v>19</v>
@@ -10701,10 +10734,10 @@
         <v>1</v>
       </c>
       <c r="K239">
-        <v>2015000</v>
+        <v>2280000</v>
       </c>
       <c r="L239">
-        <v>2015000</v>
+        <v>2280000</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10730,7 +10763,7 @@
         <v>143</v>
       </c>
       <c r="H240" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I240" t="s">
         <v>19</v>
@@ -10739,10 +10772,10 @@
         <v>1</v>
       </c>
       <c r="K240">
-        <v>3265000</v>
+        <v>2015000</v>
       </c>
       <c r="L240">
-        <v>3265000</v>
+        <v>2015000</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10768,7 +10801,7 @@
         <v>143</v>
       </c>
       <c r="H241" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I241" t="s">
         <v>19</v>
@@ -10777,10 +10810,10 @@
         <v>1</v>
       </c>
       <c r="K241">
-        <v>1440000</v>
+        <v>3265000</v>
       </c>
       <c r="L241">
-        <v>1440000</v>
+        <v>3265000</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10794,16 +10827,16 @@
         <v>13</v>
       </c>
       <c r="D242" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="E242" t="s">
-        <v>394</v>
+        <v>141</v>
       </c>
       <c r="F242" t="s">
-        <v>395</v>
+        <v>142</v>
       </c>
       <c r="G242" t="s">
-        <v>396</v>
+        <v>143</v>
       </c>
       <c r="H242" t="s">
         <v>397</v>
@@ -10815,10 +10848,10 @@
         <v>1</v>
       </c>
       <c r="K242">
-        <v>5326766</v>
+        <v>1440000</v>
       </c>
       <c r="L242">
-        <v>5326766</v>
+        <v>1440000</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10832,19 +10865,19 @@
         <v>13</v>
       </c>
       <c r="D243" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="E243" t="s">
-        <v>110</v>
+        <v>398</v>
       </c>
       <c r="F243" t="s">
-        <v>111</v>
+        <v>399</v>
       </c>
       <c r="G243" t="s">
-        <v>112</v>
+        <v>400</v>
       </c>
       <c r="H243" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I243" t="s">
         <v>19</v>
@@ -10853,10 +10886,10 @@
         <v>1</v>
       </c>
       <c r="K243">
-        <v>2805000</v>
+        <v>5326766</v>
       </c>
       <c r="L243">
-        <v>2805000</v>
+        <v>5326766</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -10882,7 +10915,7 @@
         <v>112</v>
       </c>
       <c r="H244" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="I244" t="s">
         <v>19</v>
@@ -10891,10 +10924,10 @@
         <v>1</v>
       </c>
       <c r="K244">
-        <v>1650000</v>
+        <v>2805000</v>
       </c>
       <c r="L244">
-        <v>1650000</v>
+        <v>2805000</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -10908,19 +10941,19 @@
         <v>13</v>
       </c>
       <c r="D245" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E245" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F245" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G245" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H245" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="I245" t="s">
         <v>19</v>
@@ -10929,10 +10962,10 @@
         <v>1</v>
       </c>
       <c r="K245">
-        <v>780000</v>
+        <v>1650000</v>
       </c>
       <c r="L245">
-        <v>780000</v>
+        <v>1650000</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -10958,7 +10991,7 @@
         <v>107</v>
       </c>
       <c r="H246" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="I246" t="s">
         <v>19</v>
@@ -10967,10 +11000,10 @@
         <v>1</v>
       </c>
       <c r="K246">
-        <v>900000</v>
+        <v>780000</v>
       </c>
       <c r="L246">
-        <v>900000</v>
+        <v>780000</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -10996,7 +11029,7 @@
         <v>107</v>
       </c>
       <c r="H247" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I247" t="s">
         <v>19</v>
@@ -11005,10 +11038,10 @@
         <v>1</v>
       </c>
       <c r="K247">
-        <v>280000</v>
+        <v>900000</v>
       </c>
       <c r="L247">
-        <v>280000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11022,19 +11055,19 @@
         <v>13</v>
       </c>
       <c r="D248" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="E248" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F248" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G248" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H248" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I248" t="s">
         <v>19</v>
@@ -11043,10 +11076,10 @@
         <v>1</v>
       </c>
       <c r="K248">
-        <v>2080000</v>
+        <v>280000</v>
       </c>
       <c r="L248">
-        <v>2080000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11072,7 +11105,7 @@
         <v>112</v>
       </c>
       <c r="H249" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="I249" t="s">
         <v>19</v>
@@ -11081,10 +11114,10 @@
         <v>1</v>
       </c>
       <c r="K249">
-        <v>2400000</v>
+        <v>2080000</v>
       </c>
       <c r="L249">
-        <v>2400000</v>
+        <v>2080000</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11110,7 +11143,7 @@
         <v>112</v>
       </c>
       <c r="H250" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="I250" t="s">
         <v>19</v>
@@ -11119,10 +11152,10 @@
         <v>1</v>
       </c>
       <c r="K250">
-        <v>150000</v>
+        <v>2400000</v>
       </c>
       <c r="L250">
-        <v>150000</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11148,7 +11181,7 @@
         <v>112</v>
       </c>
       <c r="H251" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="I251" t="s">
         <v>19</v>
@@ -11157,10 +11190,10 @@
         <v>1</v>
       </c>
       <c r="K251">
-        <v>260000</v>
+        <v>150000</v>
       </c>
       <c r="L251">
-        <v>260000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11186,7 +11219,7 @@
         <v>112</v>
       </c>
       <c r="H252" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I252" t="s">
         <v>19</v>
@@ -11195,10 +11228,10 @@
         <v>1</v>
       </c>
       <c r="K252">
-        <v>450000</v>
+        <v>260000</v>
       </c>
       <c r="L252">
-        <v>450000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11224,7 +11257,7 @@
         <v>112</v>
       </c>
       <c r="H253" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="I253" t="s">
         <v>19</v>
@@ -11233,10 +11266,10 @@
         <v>1</v>
       </c>
       <c r="K253">
-        <v>2170000</v>
+        <v>450000</v>
       </c>
       <c r="L253">
-        <v>2170000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11250,16 +11283,16 @@
         <v>13</v>
       </c>
       <c r="D254" t="s">
-        <v>297</v>
+        <v>109</v>
       </c>
       <c r="E254" t="s">
-        <v>409</v>
+        <v>110</v>
       </c>
       <c r="F254" t="s">
-        <v>410</v>
+        <v>111</v>
       </c>
       <c r="G254" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="H254" t="s">
         <v>412</v>
@@ -11271,10 +11304,10 @@
         <v>1</v>
       </c>
       <c r="K254">
-        <v>520000</v>
+        <v>2170000</v>
       </c>
       <c r="L254">
-        <v>520000</v>
+        <v>2170000</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11288,19 +11321,19 @@
         <v>13</v>
       </c>
       <c r="D255" t="s">
-        <v>109</v>
+        <v>297</v>
       </c>
       <c r="E255" t="s">
-        <v>110</v>
+        <v>413</v>
       </c>
       <c r="F255" t="s">
-        <v>111</v>
+        <v>414</v>
       </c>
       <c r="G255" t="s">
-        <v>112</v>
+        <v>415</v>
       </c>
       <c r="H255" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="I255" t="s">
         <v>19</v>
@@ -11309,10 +11342,10 @@
         <v>1</v>
       </c>
       <c r="K255">
-        <v>260000</v>
+        <v>520000</v>
       </c>
       <c r="L255">
-        <v>260000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11326,19 +11359,19 @@
         <v>13</v>
       </c>
       <c r="D256" t="s">
-        <v>297</v>
+        <v>109</v>
       </c>
       <c r="E256" t="s">
-        <v>409</v>
+        <v>110</v>
       </c>
       <c r="F256" t="s">
-        <v>410</v>
+        <v>111</v>
       </c>
       <c r="G256" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="H256" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="I256" t="s">
         <v>19</v>
@@ -11347,10 +11380,10 @@
         <v>1</v>
       </c>
       <c r="K256">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="L256">
-        <v>300000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11364,19 +11397,19 @@
         <v>13</v>
       </c>
       <c r="D257" t="s">
-        <v>109</v>
+        <v>297</v>
       </c>
       <c r="E257" t="s">
-        <v>110</v>
+        <v>413</v>
       </c>
       <c r="F257" t="s">
-        <v>111</v>
+        <v>414</v>
       </c>
       <c r="G257" t="s">
-        <v>112</v>
+        <v>415</v>
       </c>
       <c r="H257" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="I257" t="s">
         <v>19</v>
@@ -11385,10 +11418,10 @@
         <v>1</v>
       </c>
       <c r="K257">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="L257">
-        <v>150000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11414,7 +11447,7 @@
         <v>112</v>
       </c>
       <c r="H258" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="I258" t="s">
         <v>19</v>
@@ -11423,10 +11456,10 @@
         <v>1</v>
       </c>
       <c r="K258">
-        <v>520000</v>
+        <v>150000</v>
       </c>
       <c r="L258">
-        <v>520000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11452,7 +11485,7 @@
         <v>112</v>
       </c>
       <c r="H259" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="I259" t="s">
         <v>19</v>
@@ -11461,10 +11494,10 @@
         <v>1</v>
       </c>
       <c r="K259">
-        <v>600000</v>
+        <v>520000</v>
       </c>
       <c r="L259">
-        <v>600000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11490,7 +11523,7 @@
         <v>112</v>
       </c>
       <c r="H260" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="I260" t="s">
         <v>19</v>
@@ -11499,10 +11532,10 @@
         <v>1</v>
       </c>
       <c r="K260">
-        <v>750000</v>
+        <v>600000</v>
       </c>
       <c r="L260">
-        <v>750000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11528,7 +11561,7 @@
         <v>112</v>
       </c>
       <c r="H261" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="I261" t="s">
         <v>19</v>
@@ -11537,10 +11570,10 @@
         <v>1</v>
       </c>
       <c r="K261">
-        <v>650000</v>
+        <v>750000</v>
       </c>
       <c r="L261">
-        <v>650000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11566,7 +11599,7 @@
         <v>112</v>
       </c>
       <c r="H262" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="I262" t="s">
         <v>19</v>
@@ -11575,10 +11608,10 @@
         <v>1</v>
       </c>
       <c r="K262">
-        <v>2250000</v>
+        <v>650000</v>
       </c>
       <c r="L262">
-        <v>2250000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11604,7 +11637,7 @@
         <v>112</v>
       </c>
       <c r="H263" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="I263" t="s">
         <v>19</v>
@@ -11613,10 +11646,10 @@
         <v>1</v>
       </c>
       <c r="K263">
-        <v>8275000</v>
+        <v>2250000</v>
       </c>
       <c r="L263">
-        <v>8275000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11642,7 +11675,7 @@
         <v>112</v>
       </c>
       <c r="H264" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="I264" t="s">
         <v>19</v>
@@ -11651,10 +11684,10 @@
         <v>1</v>
       </c>
       <c r="K264">
-        <v>130000</v>
+        <v>8275000</v>
       </c>
       <c r="L264">
-        <v>130000</v>
+        <v>8275000</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11680,7 +11713,7 @@
         <v>112</v>
       </c>
       <c r="H265" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="I265" t="s">
         <v>19</v>
@@ -11689,10 +11722,10 @@
         <v>1</v>
       </c>
       <c r="K265">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="L265">
-        <v>150000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11718,7 +11751,7 @@
         <v>112</v>
       </c>
       <c r="H266" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I266" t="s">
         <v>19</v>
@@ -11727,10 +11760,10 @@
         <v>1</v>
       </c>
       <c r="K266">
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="L266">
-        <v>210000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11756,7 +11789,7 @@
         <v>112</v>
       </c>
       <c r="H267" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="I267" t="s">
         <v>19</v>
@@ -11765,10 +11798,10 @@
         <v>1</v>
       </c>
       <c r="K267">
-        <v>150000</v>
+        <v>210000</v>
       </c>
       <c r="L267">
-        <v>150000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11782,19 +11815,19 @@
         <v>13</v>
       </c>
       <c r="D268" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E268" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F268" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G268" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H268" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="I268" t="s">
         <v>19</v>
@@ -11803,10 +11836,10 @@
         <v>1</v>
       </c>
       <c r="K268">
-        <v>28260000</v>
+        <v>150000</v>
       </c>
       <c r="L268">
-        <v>28260000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11820,19 +11853,19 @@
         <v>13</v>
       </c>
       <c r="D269" t="s">
-        <v>24</v>
+        <v>327</v>
       </c>
       <c r="E269" t="s">
-        <v>105</v>
+        <v>428</v>
       </c>
       <c r="F269" t="s">
-        <v>106</v>
+        <v>429</v>
       </c>
       <c r="G269" t="s">
-        <v>107</v>
+        <v>430</v>
       </c>
       <c r="H269" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="I269" t="s">
         <v>19</v>
@@ -11841,10 +11874,10 @@
         <v>1</v>
       </c>
       <c r="K269">
-        <v>7950000</v>
+        <v>154700000</v>
       </c>
       <c r="L269">
-        <v>7950000</v>
+        <v>154700000</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11870,7 +11903,7 @@
         <v>107</v>
       </c>
       <c r="H270" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I270" t="s">
         <v>19</v>
@@ -11879,10 +11912,10 @@
         <v>1</v>
       </c>
       <c r="K270">
-        <v>420000</v>
+        <v>28260000</v>
       </c>
       <c r="L270">
-        <v>420000</v>
+        <v>28260000</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -11896,19 +11929,19 @@
         <v>13</v>
       </c>
       <c r="D271" t="s">
-        <v>297</v>
+        <v>24</v>
       </c>
       <c r="E271" t="s">
-        <v>427</v>
+        <v>105</v>
       </c>
       <c r="F271" t="s">
-        <v>428</v>
+        <v>106</v>
       </c>
       <c r="G271" t="s">
-        <v>429</v>
+        <v>107</v>
       </c>
       <c r="H271" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I271" t="s">
         <v>19</v>
@@ -11917,10 +11950,10 @@
         <v>1</v>
       </c>
       <c r="K271">
-        <v>300000</v>
+        <v>7950000</v>
       </c>
       <c r="L271">
-        <v>300000</v>
+        <v>7950000</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -11946,7 +11979,7 @@
         <v>107</v>
       </c>
       <c r="H272" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="I272" t="s">
         <v>19</v>
@@ -11955,10 +11988,10 @@
         <v>1</v>
       </c>
       <c r="K272">
-        <v>300000</v>
+        <v>420000</v>
       </c>
       <c r="L272">
-        <v>300000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -11975,16 +12008,16 @@
         <v>297</v>
       </c>
       <c r="E273" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F273" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G273" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H273" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="I273" t="s">
         <v>19</v>
@@ -11993,10 +12026,10 @@
         <v>1</v>
       </c>
       <c r="K273">
-        <v>1152800</v>
+        <v>300000</v>
       </c>
       <c r="L273">
-        <v>1152800</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12010,16 +12043,16 @@
         <v>13</v>
       </c>
       <c r="D274" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="E274" t="s">
-        <v>435</v>
+        <v>105</v>
       </c>
       <c r="F274" t="s">
-        <v>436</v>
+        <v>106</v>
       </c>
       <c r="G274" t="s">
-        <v>437</v>
+        <v>107</v>
       </c>
       <c r="H274" t="s">
         <v>438</v>
@@ -12031,10 +12064,10 @@
         <v>1</v>
       </c>
       <c r="K274">
-        <v>510700000</v>
+        <v>300000</v>
       </c>
       <c r="L274">
-        <v>510700000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12048,7 +12081,7 @@
         <v>13</v>
       </c>
       <c r="D275" t="s">
-        <v>119</v>
+        <v>297</v>
       </c>
       <c r="E275" t="s">
         <v>439</v>
@@ -12069,10 +12102,124 @@
         <v>1</v>
       </c>
       <c r="K275">
+        <v>1152800</v>
+      </c>
+      <c r="L275">
+        <v>1152800</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12">
+      <c r="A276">
+        <v>273</v>
+      </c>
+      <c r="B276">
+        <v>626402</v>
+      </c>
+      <c r="C276" t="s">
+        <v>13</v>
+      </c>
+      <c r="D276" t="s">
+        <v>119</v>
+      </c>
+      <c r="E276" t="s">
+        <v>443</v>
+      </c>
+      <c r="F276" t="s">
+        <v>444</v>
+      </c>
+      <c r="G276" t="s">
+        <v>445</v>
+      </c>
+      <c r="H276" t="s">
+        <v>446</v>
+      </c>
+      <c r="I276" t="s">
+        <v>19</v>
+      </c>
+      <c r="J276">
+        <v>1</v>
+      </c>
+      <c r="K276">
+        <v>510700000</v>
+      </c>
+      <c r="L276">
+        <v>510700000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12">
+      <c r="A277">
+        <v>274</v>
+      </c>
+      <c r="B277">
+        <v>626402</v>
+      </c>
+      <c r="C277" t="s">
+        <v>13</v>
+      </c>
+      <c r="D277" t="s">
+        <v>119</v>
+      </c>
+      <c r="E277" t="s">
+        <v>447</v>
+      </c>
+      <c r="F277" t="s">
+        <v>448</v>
+      </c>
+      <c r="G277" t="s">
+        <v>449</v>
+      </c>
+      <c r="H277" t="s">
+        <v>450</v>
+      </c>
+      <c r="I277" t="s">
+        <v>19</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
         <v>115820000</v>
       </c>
-      <c r="L275">
+      <c r="L277">
         <v>115820000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12">
+      <c r="A278">
+        <v>275</v>
+      </c>
+      <c r="B278">
+        <v>626402</v>
+      </c>
+      <c r="C278" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278" t="s">
+        <v>327</v>
+      </c>
+      <c r="E278" t="s">
+        <v>451</v>
+      </c>
+      <c r="F278" t="s">
+        <v>452</v>
+      </c>
+      <c r="G278" t="s">
+        <v>453</v>
+      </c>
+      <c r="H278" t="s">
+        <v>450</v>
+      </c>
+      <c r="I278" t="s">
+        <v>19</v>
+      </c>
+      <c r="J278">
+        <v>1</v>
+      </c>
+      <c r="K278">
+        <v>148500000</v>
+      </c>
+      <c r="L278">
+        <v>148500000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1053">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -2559,6 +2559,24 @@
   </si>
   <si>
     <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.237,B 204/BRSDM/KP.440/II/2023 Tanggal 7 Februari 2023.</t>
+  </si>
+  <si>
+    <t>'00158T</t>
+  </si>
+  <si>
+    <t>'231751303003993</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang sesuai dengan surat tugas.ST.No.B.323/BRSDM.5/KP.440/II/2023.Tgl.28 Februari 2023</t>
+  </si>
+  <si>
+    <t>'00162T</t>
+  </si>
+  <si>
+    <t>'231751303003994</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang sesuai dengan surat tugas.ST.No.B.343/BRSDM/KP.440/II/2023.Tgl.23 Februari 2023 dan ST.No.B.300/BRSDM.5/KP.440/II/2023.Tgl.23 Februari 2023</t>
   </si>
   <si>
     <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.301.0A.000615</t>
@@ -3497,7 +3515,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L895"/>
+  <dimension ref="A1:L897"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -30238,19 +30256,19 @@
         <v>13</v>
       </c>
       <c r="D706" t="s">
-        <v>24</v>
+        <v>525</v>
       </c>
       <c r="E706" t="s">
-        <v>221</v>
+        <v>848</v>
       </c>
       <c r="F706" t="s">
-        <v>222</v>
+        <v>849</v>
       </c>
       <c r="G706" t="s">
-        <v>223</v>
+        <v>850</v>
       </c>
       <c r="H706" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="I706" t="s">
         <v>19</v>
@@ -30259,10 +30277,10 @@
         <v>1</v>
       </c>
       <c r="K706">
-        <v>7096000</v>
+        <v>97733500</v>
       </c>
       <c r="L706">
-        <v>7096000</v>
+        <v>97733500</v>
       </c>
     </row>
     <row r="707" spans="1:12">
@@ -30276,19 +30294,19 @@
         <v>13</v>
       </c>
       <c r="D707" t="s">
-        <v>294</v>
+        <v>525</v>
       </c>
       <c r="E707" t="s">
-        <v>313</v>
+        <v>851</v>
       </c>
       <c r="F707" t="s">
-        <v>314</v>
+        <v>852</v>
       </c>
       <c r="G707" t="s">
-        <v>315</v>
+        <v>853</v>
       </c>
       <c r="H707" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="I707" t="s">
         <v>19</v>
@@ -30297,10 +30315,10 @@
         <v>1</v>
       </c>
       <c r="K707">
-        <v>9493085</v>
+        <v>20143400</v>
       </c>
       <c r="L707">
-        <v>9493085</v>
+        <v>20143400</v>
       </c>
     </row>
     <row r="708" spans="1:12">
@@ -30314,19 +30332,19 @@
         <v>13</v>
       </c>
       <c r="D708" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="E708" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F708" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G708" t="s">
         <v>223</v>
       </c>
       <c r="H708" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="I708" t="s">
         <v>19</v>
@@ -30335,10 +30353,10 @@
         <v>1</v>
       </c>
       <c r="K708">
-        <v>3360000</v>
+        <v>7096000</v>
       </c>
       <c r="L708">
-        <v>3360000</v>
+        <v>7096000</v>
       </c>
     </row>
     <row r="709" spans="1:12">
@@ -30352,19 +30370,19 @@
         <v>13</v>
       </c>
       <c r="D709" t="s">
-        <v>24</v>
+        <v>294</v>
       </c>
       <c r="E709" t="s">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="F709" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="G709" t="s">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="H709" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="I709" t="s">
         <v>19</v>
@@ -30373,10 +30391,10 @@
         <v>1</v>
       </c>
       <c r="K709">
-        <v>15310300</v>
+        <v>9493085</v>
       </c>
       <c r="L709">
-        <v>15310300</v>
+        <v>9493085</v>
       </c>
     </row>
     <row r="710" spans="1:12">
@@ -30390,19 +30408,19 @@
         <v>13</v>
       </c>
       <c r="D710" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="E710" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F710" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G710" t="s">
         <v>223</v>
       </c>
       <c r="H710" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="I710" t="s">
         <v>19</v>
@@ -30411,10 +30429,10 @@
         <v>1</v>
       </c>
       <c r="K710">
-        <v>11712266</v>
+        <v>3360000</v>
       </c>
       <c r="L710">
-        <v>11712266</v>
+        <v>3360000</v>
       </c>
     </row>
     <row r="711" spans="1:12">
@@ -30428,19 +30446,19 @@
         <v>13</v>
       </c>
       <c r="D711" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="E711" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F711" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G711" t="s">
         <v>223</v>
       </c>
       <c r="H711" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="I711" t="s">
         <v>19</v>
@@ -30449,10 +30467,10 @@
         <v>1</v>
       </c>
       <c r="K711">
-        <v>2862000</v>
+        <v>15310300</v>
       </c>
       <c r="L711">
-        <v>2862000</v>
+        <v>15310300</v>
       </c>
     </row>
     <row r="712" spans="1:12">
@@ -30466,19 +30484,19 @@
         <v>13</v>
       </c>
       <c r="D712" t="s">
-        <v>294</v>
+        <v>96</v>
       </c>
       <c r="E712" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="F712" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="G712" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="H712" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="I712" t="s">
         <v>19</v>
@@ -30487,10 +30505,10 @@
         <v>1</v>
       </c>
       <c r="K712">
-        <v>17274490</v>
+        <v>11712266</v>
       </c>
       <c r="L712">
-        <v>17274490</v>
+        <v>11712266</v>
       </c>
     </row>
     <row r="713" spans="1:12">
@@ -30504,19 +30522,19 @@
         <v>13</v>
       </c>
       <c r="D713" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="E713" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F713" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G713" t="s">
         <v>223</v>
       </c>
       <c r="H713" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="I713" t="s">
         <v>19</v>
@@ -30525,10 +30543,10 @@
         <v>1</v>
       </c>
       <c r="K713">
-        <v>410000</v>
+        <v>2862000</v>
       </c>
       <c r="L713">
-        <v>410000</v>
+        <v>2862000</v>
       </c>
     </row>
     <row r="714" spans="1:12">
@@ -30554,7 +30572,7 @@
         <v>315</v>
       </c>
       <c r="H714" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="I714" t="s">
         <v>19</v>
@@ -30563,10 +30581,10 @@
         <v>1</v>
       </c>
       <c r="K714">
-        <v>5889170</v>
+        <v>17274490</v>
       </c>
       <c r="L714">
-        <v>5889170</v>
+        <v>17274490</v>
       </c>
     </row>
     <row r="715" spans="1:12">
@@ -30592,7 +30610,7 @@
         <v>223</v>
       </c>
       <c r="H715" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="I715" t="s">
         <v>19</v>
@@ -30601,10 +30619,10 @@
         <v>1</v>
       </c>
       <c r="K715">
-        <v>1380000</v>
+        <v>410000</v>
       </c>
       <c r="L715">
-        <v>1380000</v>
+        <v>410000</v>
       </c>
     </row>
     <row r="716" spans="1:12">
@@ -30630,7 +30648,7 @@
         <v>315</v>
       </c>
       <c r="H716" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="I716" t="s">
         <v>19</v>
@@ -30639,10 +30657,10 @@
         <v>1</v>
       </c>
       <c r="K716">
-        <v>3991500</v>
+        <v>5889170</v>
       </c>
       <c r="L716">
-        <v>3991500</v>
+        <v>5889170</v>
       </c>
     </row>
     <row r="717" spans="1:12">
@@ -30656,19 +30674,19 @@
         <v>13</v>
       </c>
       <c r="D717" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="E717" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F717" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G717" t="s">
         <v>223</v>
       </c>
       <c r="H717" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="I717" t="s">
         <v>19</v>
@@ -30677,10 +30695,10 @@
         <v>1</v>
       </c>
       <c r="K717">
-        <v>300000</v>
+        <v>1380000</v>
       </c>
       <c r="L717">
-        <v>300000</v>
+        <v>1380000</v>
       </c>
     </row>
     <row r="718" spans="1:12">
@@ -30694,19 +30712,19 @@
         <v>13</v>
       </c>
       <c r="D718" t="s">
-        <v>496</v>
+        <v>294</v>
       </c>
       <c r="E718" t="s">
-        <v>853</v>
+        <v>313</v>
       </c>
       <c r="F718" t="s">
-        <v>854</v>
+        <v>314</v>
       </c>
       <c r="G718" t="s">
-        <v>855</v>
+        <v>315</v>
       </c>
       <c r="H718" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="I718" t="s">
         <v>19</v>
@@ -30715,10 +30733,10 @@
         <v>1</v>
       </c>
       <c r="K718">
-        <v>16394000</v>
+        <v>3991500</v>
       </c>
       <c r="L718">
-        <v>16394000</v>
+        <v>3991500</v>
       </c>
     </row>
     <row r="719" spans="1:12">
@@ -30732,19 +30750,19 @@
         <v>13</v>
       </c>
       <c r="D719" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="E719" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F719" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G719" t="s">
         <v>223</v>
       </c>
       <c r="H719" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="I719" t="s">
         <v>19</v>
@@ -30753,10 +30771,10 @@
         <v>1</v>
       </c>
       <c r="K719">
-        <v>3300000</v>
+        <v>300000</v>
       </c>
       <c r="L719">
-        <v>3300000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="720" spans="1:12">
@@ -30770,19 +30788,19 @@
         <v>13</v>
       </c>
       <c r="D720" t="s">
-        <v>294</v>
+        <v>496</v>
       </c>
       <c r="E720" t="s">
-        <v>340</v>
+        <v>859</v>
       </c>
       <c r="F720" t="s">
-        <v>341</v>
+        <v>860</v>
       </c>
       <c r="G720" t="s">
-        <v>342</v>
+        <v>861</v>
       </c>
       <c r="H720" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="I720" t="s">
         <v>19</v>
@@ -30791,10 +30809,10 @@
         <v>1</v>
       </c>
       <c r="K720">
-        <v>21723940</v>
+        <v>16394000</v>
       </c>
       <c r="L720">
-        <v>21723940</v>
+        <v>16394000</v>
       </c>
     </row>
     <row r="721" spans="1:12">
@@ -30808,19 +30826,19 @@
         <v>13</v>
       </c>
       <c r="D721" t="s">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="E721" t="s">
-        <v>340</v>
+        <v>221</v>
       </c>
       <c r="F721" t="s">
-        <v>341</v>
+        <v>222</v>
       </c>
       <c r="G721" t="s">
-        <v>342</v>
+        <v>223</v>
       </c>
       <c r="H721" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="I721" t="s">
         <v>19</v>
@@ -30829,10 +30847,10 @@
         <v>1</v>
       </c>
       <c r="K721">
-        <v>23391438</v>
+        <v>3300000</v>
       </c>
       <c r="L721">
-        <v>23391438</v>
+        <v>3300000</v>
       </c>
     </row>
     <row r="722" spans="1:12">
@@ -30846,19 +30864,19 @@
         <v>13</v>
       </c>
       <c r="D722" t="s">
-        <v>164</v>
+        <v>294</v>
       </c>
       <c r="E722" t="s">
-        <v>165</v>
+        <v>340</v>
       </c>
       <c r="F722" t="s">
-        <v>166</v>
+        <v>341</v>
       </c>
       <c r="G722" t="s">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="H722" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="I722" t="s">
         <v>19</v>
@@ -30867,10 +30885,10 @@
         <v>1</v>
       </c>
       <c r="K722">
-        <v>450000</v>
+        <v>21723940</v>
       </c>
       <c r="L722">
-        <v>450000</v>
+        <v>21723940</v>
       </c>
     </row>
     <row r="723" spans="1:12">
@@ -30884,19 +30902,19 @@
         <v>13</v>
       </c>
       <c r="D723" t="s">
-        <v>168</v>
+        <v>294</v>
       </c>
       <c r="E723" t="s">
-        <v>169</v>
+        <v>340</v>
       </c>
       <c r="F723" t="s">
-        <v>170</v>
+        <v>341</v>
       </c>
       <c r="G723" t="s">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="H723" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="I723" t="s">
         <v>19</v>
@@ -30905,10 +30923,10 @@
         <v>1</v>
       </c>
       <c r="K723">
-        <v>15005360</v>
+        <v>23391438</v>
       </c>
       <c r="L723">
-        <v>15005360</v>
+        <v>23391438</v>
       </c>
     </row>
     <row r="724" spans="1:12">
@@ -30922,19 +30940,19 @@
         <v>13</v>
       </c>
       <c r="D724" t="s">
-        <v>774</v>
+        <v>164</v>
       </c>
       <c r="E724" t="s">
-        <v>860</v>
+        <v>165</v>
       </c>
       <c r="F724" t="s">
-        <v>861</v>
+        <v>166</v>
       </c>
       <c r="G724" t="s">
-        <v>792</v>
+        <v>167</v>
       </c>
       <c r="H724" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="I724" t="s">
         <v>19</v>
@@ -30943,10 +30961,10 @@
         <v>1</v>
       </c>
       <c r="K724">
-        <v>93138974</v>
+        <v>450000</v>
       </c>
       <c r="L724">
-        <v>93138974</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="725" spans="1:12">
@@ -30960,20 +30978,20 @@
         <v>13</v>
       </c>
       <c r="D725" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="E725" t="s">
-        <v>863</v>
+        <v>169</v>
       </c>
       <c r="F725" t="s">
-        <v>864</v>
+        <v>170</v>
       </c>
       <c r="G725" t="s">
+        <v>167</v>
+      </c>
+      <c r="H725" t="s">
         <v>865</v>
       </c>
-      <c r="H725" t="s">
-        <v>862</v>
-      </c>
       <c r="I725" t="s">
         <v>19</v>
       </c>
@@ -30981,10 +30999,10 @@
         <v>1</v>
       </c>
       <c r="K725">
-        <v>10844114</v>
+        <v>15005360</v>
       </c>
       <c r="L725">
-        <v>10844114</v>
+        <v>15005360</v>
       </c>
     </row>
     <row r="726" spans="1:12">
@@ -30998,19 +31016,19 @@
         <v>13</v>
       </c>
       <c r="D726" t="s">
-        <v>294</v>
+        <v>774</v>
       </c>
       <c r="E726" t="s">
-        <v>393</v>
+        <v>866</v>
       </c>
       <c r="F726" t="s">
-        <v>394</v>
+        <v>867</v>
       </c>
       <c r="G726" t="s">
-        <v>315</v>
+        <v>792</v>
       </c>
       <c r="H726" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="I726" t="s">
         <v>19</v>
@@ -31019,10 +31037,10 @@
         <v>1</v>
       </c>
       <c r="K726">
-        <v>728000</v>
+        <v>93138974</v>
       </c>
       <c r="L726">
-        <v>728000</v>
+        <v>93138974</v>
       </c>
     </row>
     <row r="727" spans="1:12">
@@ -31036,19 +31054,19 @@
         <v>13</v>
       </c>
       <c r="D727" t="s">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="E727" t="s">
-        <v>340</v>
+        <v>869</v>
       </c>
       <c r="F727" t="s">
-        <v>341</v>
+        <v>870</v>
       </c>
       <c r="G727" t="s">
-        <v>342</v>
+        <v>871</v>
       </c>
       <c r="H727" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="I727" t="s">
         <v>19</v>
@@ -31057,10 +31075,10 @@
         <v>1</v>
       </c>
       <c r="K727">
-        <v>42749500</v>
+        <v>10844114</v>
       </c>
       <c r="L727">
-        <v>42749500</v>
+        <v>10844114</v>
       </c>
     </row>
     <row r="728" spans="1:12">
@@ -31074,19 +31092,19 @@
         <v>13</v>
       </c>
       <c r="D728" t="s">
-        <v>164</v>
+        <v>294</v>
       </c>
       <c r="E728" t="s">
-        <v>165</v>
+        <v>393</v>
       </c>
       <c r="F728" t="s">
-        <v>166</v>
+        <v>394</v>
       </c>
       <c r="G728" t="s">
-        <v>167</v>
+        <v>315</v>
       </c>
       <c r="H728" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="I728" t="s">
         <v>19</v>
@@ -31095,10 +31113,10 @@
         <v>1</v>
       </c>
       <c r="K728">
-        <v>1237500</v>
+        <v>728000</v>
       </c>
       <c r="L728">
-        <v>1237500</v>
+        <v>728000</v>
       </c>
     </row>
     <row r="729" spans="1:12">
@@ -31112,19 +31130,19 @@
         <v>13</v>
       </c>
       <c r="D729" t="s">
-        <v>774</v>
+        <v>294</v>
       </c>
       <c r="E729" t="s">
-        <v>868</v>
+        <v>340</v>
       </c>
       <c r="F729" t="s">
-        <v>869</v>
+        <v>341</v>
       </c>
       <c r="G729" t="s">
-        <v>792</v>
+        <v>342</v>
       </c>
       <c r="H729" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="I729" t="s">
         <v>19</v>
@@ -31133,10 +31151,10 @@
         <v>1</v>
       </c>
       <c r="K729">
-        <v>15082960</v>
+        <v>42749500</v>
       </c>
       <c r="L729">
-        <v>15082960</v>
+        <v>42749500</v>
       </c>
     </row>
     <row r="730" spans="1:12">
@@ -31150,19 +31168,19 @@
         <v>13</v>
       </c>
       <c r="D730" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E730" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F730" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G730" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="H730" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="I730" t="s">
         <v>19</v>
@@ -31171,10 +31189,10 @@
         <v>1</v>
       </c>
       <c r="K730">
-        <v>450000</v>
+        <v>1237500</v>
       </c>
       <c r="L730">
-        <v>450000</v>
+        <v>1237500</v>
       </c>
     </row>
     <row r="731" spans="1:12">
@@ -31188,19 +31206,19 @@
         <v>13</v>
       </c>
       <c r="D731" t="s">
-        <v>243</v>
+        <v>774</v>
       </c>
       <c r="E731" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="F731" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="G731" t="s">
-        <v>873</v>
+        <v>792</v>
       </c>
       <c r="H731" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="I731" t="s">
         <v>19</v>
@@ -31209,10 +31227,10 @@
         <v>1</v>
       </c>
       <c r="K731">
-        <v>7125020</v>
+        <v>15082960</v>
       </c>
       <c r="L731">
-        <v>7125020</v>
+        <v>15082960</v>
       </c>
     </row>
     <row r="732" spans="1:12">
@@ -31226,19 +31244,19 @@
         <v>13</v>
       </c>
       <c r="D732" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="E732" t="s">
-        <v>345</v>
+        <v>149</v>
       </c>
       <c r="F732" t="s">
-        <v>346</v>
+        <v>150</v>
       </c>
       <c r="G732" t="s">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="H732" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="I732" t="s">
         <v>19</v>
@@ -31247,10 +31265,10 @@
         <v>1</v>
       </c>
       <c r="K732">
-        <v>3977547</v>
+        <v>450000</v>
       </c>
       <c r="L732">
-        <v>3977547</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="733" spans="1:12">
@@ -31264,19 +31282,19 @@
         <v>13</v>
       </c>
       <c r="D733" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="E733" t="s">
-        <v>340</v>
+        <v>877</v>
       </c>
       <c r="F733" t="s">
-        <v>341</v>
+        <v>878</v>
       </c>
       <c r="G733" t="s">
-        <v>342</v>
+        <v>879</v>
       </c>
       <c r="H733" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="I733" t="s">
         <v>19</v>
@@ -31285,10 +31303,10 @@
         <v>1</v>
       </c>
       <c r="K733">
-        <v>2978000</v>
+        <v>7125020</v>
       </c>
       <c r="L733">
-        <v>2978000</v>
+        <v>7125020</v>
       </c>
     </row>
     <row r="734" spans="1:12">
@@ -31314,7 +31332,7 @@
         <v>342</v>
       </c>
       <c r="H734" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="I734" t="s">
         <v>19</v>
@@ -31323,10 +31341,10 @@
         <v>1</v>
       </c>
       <c r="K734">
-        <v>9487350</v>
+        <v>3977547</v>
       </c>
       <c r="L734">
-        <v>9487350</v>
+        <v>3977547</v>
       </c>
     </row>
     <row r="735" spans="1:12">
@@ -31340,20 +31358,20 @@
         <v>13</v>
       </c>
       <c r="D735" t="s">
-        <v>24</v>
+        <v>294</v>
       </c>
       <c r="E735" t="s">
-        <v>875</v>
+        <v>340</v>
       </c>
       <c r="F735" t="s">
+        <v>341</v>
+      </c>
+      <c r="G735" t="s">
+        <v>342</v>
+      </c>
+      <c r="H735" t="s">
         <v>876</v>
       </c>
-      <c r="G735" t="s">
-        <v>877</v>
-      </c>
-      <c r="H735" t="s">
-        <v>878</v>
-      </c>
       <c r="I735" t="s">
         <v>19</v>
       </c>
@@ -31361,10 +31379,10 @@
         <v>1</v>
       </c>
       <c r="K735">
-        <v>8591000</v>
+        <v>2978000</v>
       </c>
       <c r="L735">
-        <v>8591000</v>
+        <v>2978000</v>
       </c>
     </row>
     <row r="736" spans="1:12">
@@ -31378,20 +31396,20 @@
         <v>13</v>
       </c>
       <c r="D736" t="s">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="E736" t="s">
-        <v>879</v>
+        <v>345</v>
       </c>
       <c r="F736" t="s">
+        <v>346</v>
+      </c>
+      <c r="G736" t="s">
+        <v>342</v>
+      </c>
+      <c r="H736" t="s">
         <v>880</v>
       </c>
-      <c r="G736" t="s">
-        <v>881</v>
-      </c>
-      <c r="H736" t="s">
-        <v>882</v>
-      </c>
       <c r="I736" t="s">
         <v>19</v>
       </c>
@@ -31399,10 +31417,10 @@
         <v>1</v>
       </c>
       <c r="K736">
-        <v>8099820</v>
+        <v>9487350</v>
       </c>
       <c r="L736">
-        <v>8099820</v>
+        <v>9487350</v>
       </c>
     </row>
     <row r="737" spans="1:12">
@@ -31416,19 +31434,19 @@
         <v>13</v>
       </c>
       <c r="D737" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="E737" t="s">
-        <v>201</v>
+        <v>881</v>
       </c>
       <c r="F737" t="s">
-        <v>202</v>
+        <v>882</v>
       </c>
       <c r="G737" t="s">
-        <v>203</v>
+        <v>883</v>
       </c>
       <c r="H737" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="I737" t="s">
         <v>19</v>
@@ -31437,10 +31455,10 @@
         <v>1</v>
       </c>
       <c r="K737">
-        <v>2258000</v>
+        <v>8591000</v>
       </c>
       <c r="L737">
-        <v>2258000</v>
+        <v>8591000</v>
       </c>
     </row>
     <row r="738" spans="1:12">
@@ -31454,19 +31472,19 @@
         <v>13</v>
       </c>
       <c r="D738" t="s">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="E738" t="s">
-        <v>295</v>
+        <v>885</v>
       </c>
       <c r="F738" t="s">
-        <v>296</v>
+        <v>886</v>
       </c>
       <c r="G738" t="s">
-        <v>297</v>
+        <v>887</v>
       </c>
       <c r="H738" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="I738" t="s">
         <v>19</v>
@@ -31475,10 +31493,10 @@
         <v>1</v>
       </c>
       <c r="K738">
-        <v>2161000</v>
+        <v>8099820</v>
       </c>
       <c r="L738">
-        <v>2161000</v>
+        <v>8099820</v>
       </c>
     </row>
     <row r="739" spans="1:12">
@@ -31492,19 +31510,19 @@
         <v>13</v>
       </c>
       <c r="D739" t="s">
-        <v>294</v>
+        <v>148</v>
       </c>
       <c r="E739" t="s">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="F739" t="s">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="G739" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="H739" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="I739" t="s">
         <v>19</v>
@@ -31513,10 +31531,10 @@
         <v>1</v>
       </c>
       <c r="K739">
-        <v>4620000</v>
+        <v>2258000</v>
       </c>
       <c r="L739">
-        <v>4620000</v>
+        <v>2258000</v>
       </c>
     </row>
     <row r="740" spans="1:12">
@@ -31530,19 +31548,19 @@
         <v>13</v>
       </c>
       <c r="D740" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="E740" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="F740" t="s">
-        <v>202</v>
+        <v>296</v>
       </c>
       <c r="G740" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="H740" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="I740" t="s">
         <v>19</v>
@@ -31551,10 +31569,10 @@
         <v>1</v>
       </c>
       <c r="K740">
-        <v>15828200</v>
+        <v>2161000</v>
       </c>
       <c r="L740">
-        <v>15828200</v>
+        <v>2161000</v>
       </c>
     </row>
     <row r="741" spans="1:12">
@@ -31580,7 +31598,7 @@
         <v>297</v>
       </c>
       <c r="H741" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I741" t="s">
         <v>19</v>
@@ -31589,10 +31607,10 @@
         <v>1</v>
       </c>
       <c r="K741">
-        <v>7508400</v>
+        <v>4620000</v>
       </c>
       <c r="L741">
-        <v>7508400</v>
+        <v>4620000</v>
       </c>
     </row>
     <row r="742" spans="1:12">
@@ -31606,19 +31624,19 @@
         <v>13</v>
       </c>
       <c r="D742" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E742" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F742" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G742" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H742" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="I742" t="s">
         <v>19</v>
@@ -31627,10 +31645,10 @@
         <v>1</v>
       </c>
       <c r="K742">
-        <v>1100000</v>
+        <v>15828200</v>
       </c>
       <c r="L742">
-        <v>1100000</v>
+        <v>15828200</v>
       </c>
     </row>
     <row r="743" spans="1:12">
@@ -31644,19 +31662,19 @@
         <v>13</v>
       </c>
       <c r="D743" t="s">
-        <v>96</v>
+        <v>294</v>
       </c>
       <c r="E743" t="s">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="F743" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="G743" t="s">
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="H743" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="I743" t="s">
         <v>19</v>
@@ -31665,10 +31683,10 @@
         <v>1</v>
       </c>
       <c r="K743">
-        <v>2370000</v>
+        <v>7508400</v>
       </c>
       <c r="L743">
-        <v>2370000</v>
+        <v>7508400</v>
       </c>
     </row>
     <row r="744" spans="1:12">
@@ -31682,19 +31700,19 @@
         <v>13</v>
       </c>
       <c r="D744" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="E744" t="s">
-        <v>887</v>
+        <v>207</v>
       </c>
       <c r="F744" t="s">
-        <v>888</v>
+        <v>208</v>
       </c>
       <c r="G744" t="s">
-        <v>889</v>
+        <v>209</v>
       </c>
       <c r="H744" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="I744" t="s">
         <v>19</v>
@@ -31703,10 +31721,10 @@
         <v>1</v>
       </c>
       <c r="K744">
-        <v>3133000</v>
+        <v>1100000</v>
       </c>
       <c r="L744">
-        <v>3133000</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="745" spans="1:12">
@@ -31720,19 +31738,19 @@
         <v>13</v>
       </c>
       <c r="D745" t="s">
-        <v>294</v>
+        <v>96</v>
       </c>
       <c r="E745" t="s">
-        <v>340</v>
+        <v>225</v>
       </c>
       <c r="F745" t="s">
-        <v>341</v>
+        <v>226</v>
       </c>
       <c r="G745" t="s">
-        <v>342</v>
+        <v>223</v>
       </c>
       <c r="H745" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I745" t="s">
         <v>19</v>
@@ -31741,10 +31759,10 @@
         <v>1</v>
       </c>
       <c r="K745">
-        <v>14107600</v>
+        <v>2370000</v>
       </c>
       <c r="L745">
-        <v>14107600</v>
+        <v>2370000</v>
       </c>
     </row>
     <row r="746" spans="1:12">
@@ -31758,19 +31776,19 @@
         <v>13</v>
       </c>
       <c r="D746" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="E746" t="s">
-        <v>144</v>
+        <v>893</v>
       </c>
       <c r="F746" t="s">
-        <v>145</v>
+        <v>894</v>
       </c>
       <c r="G746" t="s">
-        <v>146</v>
+        <v>895</v>
       </c>
       <c r="H746" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="I746" t="s">
         <v>19</v>
@@ -31779,10 +31797,10 @@
         <v>1</v>
       </c>
       <c r="K746">
-        <v>2102330</v>
+        <v>3133000</v>
       </c>
       <c r="L746">
-        <v>2102330</v>
+        <v>3133000</v>
       </c>
     </row>
     <row r="747" spans="1:12">
@@ -31808,7 +31826,7 @@
         <v>342</v>
       </c>
       <c r="H747" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="I747" t="s">
         <v>19</v>
@@ -31817,10 +31835,10 @@
         <v>1</v>
       </c>
       <c r="K747">
-        <v>5365500</v>
+        <v>14107600</v>
       </c>
       <c r="L747">
-        <v>5365500</v>
+        <v>14107600</v>
       </c>
     </row>
     <row r="748" spans="1:12">
@@ -31834,19 +31852,19 @@
         <v>13</v>
       </c>
       <c r="D748" t="s">
-        <v>335</v>
+        <v>24</v>
       </c>
       <c r="E748" t="s">
-        <v>336</v>
+        <v>144</v>
       </c>
       <c r="F748" t="s">
-        <v>337</v>
+        <v>145</v>
       </c>
       <c r="G748" t="s">
-        <v>315</v>
+        <v>146</v>
       </c>
       <c r="H748" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="I748" t="s">
         <v>19</v>
@@ -31855,10 +31873,10 @@
         <v>1</v>
       </c>
       <c r="K748">
-        <v>2799690</v>
+        <v>2102330</v>
       </c>
       <c r="L748">
-        <v>2799690</v>
+        <v>2102330</v>
       </c>
     </row>
     <row r="749" spans="1:12">
@@ -31872,19 +31890,19 @@
         <v>13</v>
       </c>
       <c r="D749" t="s">
-        <v>156</v>
+        <v>294</v>
       </c>
       <c r="E749" t="s">
-        <v>157</v>
+        <v>340</v>
       </c>
       <c r="F749" t="s">
-        <v>158</v>
+        <v>341</v>
       </c>
       <c r="G749" t="s">
-        <v>159</v>
+        <v>342</v>
       </c>
       <c r="H749" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="I749" t="s">
         <v>19</v>
@@ -31893,10 +31911,10 @@
         <v>1</v>
       </c>
       <c r="K749">
-        <v>1687000</v>
+        <v>5365500</v>
       </c>
       <c r="L749">
-        <v>1687000</v>
+        <v>5365500</v>
       </c>
     </row>
     <row r="750" spans="1:12">
@@ -31910,19 +31928,19 @@
         <v>13</v>
       </c>
       <c r="D750" t="s">
-        <v>168</v>
+        <v>335</v>
       </c>
       <c r="E750" t="s">
-        <v>169</v>
+        <v>336</v>
       </c>
       <c r="F750" t="s">
-        <v>170</v>
+        <v>337</v>
       </c>
       <c r="G750" t="s">
-        <v>167</v>
+        <v>315</v>
       </c>
       <c r="H750" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="I750" t="s">
         <v>19</v>
@@ -31931,10 +31949,10 @@
         <v>1</v>
       </c>
       <c r="K750">
-        <v>7951820</v>
+        <v>2799690</v>
       </c>
       <c r="L750">
-        <v>7951820</v>
+        <v>2799690</v>
       </c>
     </row>
     <row r="751" spans="1:12">
@@ -31948,19 +31966,19 @@
         <v>13</v>
       </c>
       <c r="D751" t="s">
-        <v>294</v>
+        <v>156</v>
       </c>
       <c r="E751" t="s">
-        <v>393</v>
+        <v>157</v>
       </c>
       <c r="F751" t="s">
-        <v>394</v>
+        <v>158</v>
       </c>
       <c r="G751" t="s">
-        <v>315</v>
+        <v>159</v>
       </c>
       <c r="H751" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="I751" t="s">
         <v>19</v>
@@ -31969,10 +31987,10 @@
         <v>1</v>
       </c>
       <c r="K751">
-        <v>6539500</v>
+        <v>1687000</v>
       </c>
       <c r="L751">
-        <v>6539500</v>
+        <v>1687000</v>
       </c>
     </row>
     <row r="752" spans="1:12">
@@ -31986,19 +32004,19 @@
         <v>13</v>
       </c>
       <c r="D752" t="s">
-        <v>294</v>
+        <v>168</v>
       </c>
       <c r="E752" t="s">
-        <v>340</v>
+        <v>169</v>
       </c>
       <c r="F752" t="s">
-        <v>341</v>
+        <v>170</v>
       </c>
       <c r="G752" t="s">
-        <v>342</v>
+        <v>167</v>
       </c>
       <c r="H752" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="I752" t="s">
         <v>19</v>
@@ -32007,10 +32025,10 @@
         <v>1</v>
       </c>
       <c r="K752">
-        <v>11926500</v>
+        <v>7951820</v>
       </c>
       <c r="L752">
-        <v>11926500</v>
+        <v>7951820</v>
       </c>
     </row>
     <row r="753" spans="1:12">
@@ -32024,19 +32042,19 @@
         <v>13</v>
       </c>
       <c r="D753" t="s">
-        <v>156</v>
+        <v>294</v>
       </c>
       <c r="E753" t="s">
-        <v>157</v>
+        <v>393</v>
       </c>
       <c r="F753" t="s">
-        <v>158</v>
+        <v>394</v>
       </c>
       <c r="G753" t="s">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="H753" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="I753" t="s">
         <v>19</v>
@@ -32045,10 +32063,10 @@
         <v>1</v>
       </c>
       <c r="K753">
-        <v>9970400</v>
+        <v>6539500</v>
       </c>
       <c r="L753">
-        <v>9970400</v>
+        <v>6539500</v>
       </c>
     </row>
     <row r="754" spans="1:12">
@@ -32062,19 +32080,19 @@
         <v>13</v>
       </c>
       <c r="D754" t="s">
-        <v>160</v>
+        <v>294</v>
       </c>
       <c r="E754" t="s">
-        <v>161</v>
+        <v>340</v>
       </c>
       <c r="F754" t="s">
-        <v>162</v>
+        <v>341</v>
       </c>
       <c r="G754" t="s">
-        <v>163</v>
+        <v>342</v>
       </c>
       <c r="H754" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="I754" t="s">
         <v>19</v>
@@ -32083,10 +32101,10 @@
         <v>1</v>
       </c>
       <c r="K754">
-        <v>705500</v>
+        <v>11926500</v>
       </c>
       <c r="L754">
-        <v>705500</v>
+        <v>11926500</v>
       </c>
     </row>
     <row r="755" spans="1:12">
@@ -32100,19 +32118,19 @@
         <v>13</v>
       </c>
       <c r="D755" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E755" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F755" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G755" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H755" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="I755" t="s">
         <v>19</v>
@@ -32121,10 +32139,10 @@
         <v>1</v>
       </c>
       <c r="K755">
-        <v>504000</v>
+        <v>9970400</v>
       </c>
       <c r="L755">
-        <v>504000</v>
+        <v>9970400</v>
       </c>
     </row>
     <row r="756" spans="1:12">
@@ -32138,19 +32156,19 @@
         <v>13</v>
       </c>
       <c r="D756" t="s">
-        <v>294</v>
+        <v>160</v>
       </c>
       <c r="E756" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="F756" t="s">
-        <v>296</v>
+        <v>162</v>
       </c>
       <c r="G756" t="s">
-        <v>297</v>
+        <v>163</v>
       </c>
       <c r="H756" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="I756" t="s">
         <v>19</v>
@@ -32159,10 +32177,10 @@
         <v>1</v>
       </c>
       <c r="K756">
-        <v>16465100</v>
+        <v>705500</v>
       </c>
       <c r="L756">
-        <v>16465100</v>
+        <v>705500</v>
       </c>
     </row>
     <row r="757" spans="1:12">
@@ -32176,19 +32194,19 @@
         <v>13</v>
       </c>
       <c r="D757" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E757" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="F757" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="G757" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="H757" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="I757" t="s">
         <v>19</v>
@@ -32197,10 +32215,10 @@
         <v>1</v>
       </c>
       <c r="K757">
-        <v>14733600</v>
+        <v>504000</v>
       </c>
       <c r="L757">
-        <v>14733600</v>
+        <v>504000</v>
       </c>
     </row>
     <row r="758" spans="1:12">
@@ -32226,7 +32244,7 @@
         <v>297</v>
       </c>
       <c r="H758" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="I758" t="s">
         <v>19</v>
@@ -32235,10 +32253,10 @@
         <v>1</v>
       </c>
       <c r="K758">
-        <v>3880000</v>
+        <v>16465100</v>
       </c>
       <c r="L758">
-        <v>3880000</v>
+        <v>16465100</v>
       </c>
     </row>
     <row r="759" spans="1:12">
@@ -32252,19 +32270,19 @@
         <v>13</v>
       </c>
       <c r="D759" t="s">
-        <v>294</v>
+        <v>148</v>
       </c>
       <c r="E759" t="s">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="F759" t="s">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="G759" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="H759" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="I759" t="s">
         <v>19</v>
@@ -32273,10 +32291,10 @@
         <v>1</v>
       </c>
       <c r="K759">
-        <v>560000</v>
+        <v>14733600</v>
       </c>
       <c r="L759">
-        <v>560000</v>
+        <v>14733600</v>
       </c>
     </row>
     <row r="760" spans="1:12">
@@ -32290,19 +32308,19 @@
         <v>13</v>
       </c>
       <c r="D760" t="s">
-        <v>168</v>
+        <v>294</v>
       </c>
       <c r="E760" t="s">
-        <v>899</v>
+        <v>295</v>
       </c>
       <c r="F760" t="s">
-        <v>900</v>
+        <v>296</v>
       </c>
       <c r="G760" t="s">
-        <v>901</v>
+        <v>297</v>
       </c>
       <c r="H760" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="I760" t="s">
         <v>19</v>
@@ -32311,10 +32329,10 @@
         <v>1</v>
       </c>
       <c r="K760">
-        <v>12382561</v>
+        <v>3880000</v>
       </c>
       <c r="L760">
-        <v>12382561</v>
+        <v>3880000</v>
       </c>
     </row>
     <row r="761" spans="1:12">
@@ -32328,20 +32346,20 @@
         <v>13</v>
       </c>
       <c r="D761" t="s">
-        <v>902</v>
+        <v>294</v>
       </c>
       <c r="E761" t="s">
-        <v>903</v>
+        <v>295</v>
       </c>
       <c r="F761" t="s">
+        <v>296</v>
+      </c>
+      <c r="G761" t="s">
+        <v>297</v>
+      </c>
+      <c r="H761" t="s">
         <v>904</v>
       </c>
-      <c r="G761" t="s">
-        <v>905</v>
-      </c>
-      <c r="H761" t="s">
-        <v>898</v>
-      </c>
       <c r="I761" t="s">
         <v>19</v>
       </c>
@@ -32349,10 +32367,10 @@
         <v>1</v>
       </c>
       <c r="K761">
-        <v>8647500</v>
+        <v>560000</v>
       </c>
       <c r="L761">
-        <v>8647500</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="762" spans="1:12">
@@ -32366,19 +32384,19 @@
         <v>13</v>
       </c>
       <c r="D762" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="E762" t="s">
-        <v>225</v>
+        <v>905</v>
       </c>
       <c r="F762" t="s">
-        <v>226</v>
+        <v>906</v>
       </c>
       <c r="G762" t="s">
-        <v>223</v>
+        <v>907</v>
       </c>
       <c r="H762" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I762" t="s">
         <v>19</v>
@@ -32387,10 +32405,10 @@
         <v>1</v>
       </c>
       <c r="K762">
-        <v>5150000</v>
+        <v>12382561</v>
       </c>
       <c r="L762">
-        <v>5150000</v>
+        <v>12382561</v>
       </c>
     </row>
     <row r="763" spans="1:12">
@@ -32404,19 +32422,19 @@
         <v>13</v>
       </c>
       <c r="D763" t="s">
-        <v>28</v>
+        <v>908</v>
       </c>
       <c r="E763" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F763" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="G763" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="H763" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I763" t="s">
         <v>19</v>
@@ -32425,10 +32443,10 @@
         <v>1</v>
       </c>
       <c r="K763">
-        <v>11483500</v>
+        <v>8647500</v>
       </c>
       <c r="L763">
-        <v>11483500</v>
+        <v>8647500</v>
       </c>
     </row>
     <row r="764" spans="1:12">
@@ -32442,19 +32460,19 @@
         <v>13</v>
       </c>
       <c r="D764" t="s">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="E764" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F764" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G764" t="s">
         <v>223</v>
       </c>
       <c r="H764" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="I764" t="s">
         <v>19</v>
@@ -32463,10 +32481,10 @@
         <v>1</v>
       </c>
       <c r="K764">
-        <v>1250000</v>
+        <v>5150000</v>
       </c>
       <c r="L764">
-        <v>1250000</v>
+        <v>5150000</v>
       </c>
     </row>
     <row r="765" spans="1:12">
@@ -32480,19 +32498,19 @@
         <v>13</v>
       </c>
       <c r="D765" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E765" t="s">
-        <v>221</v>
+        <v>913</v>
       </c>
       <c r="F765" t="s">
-        <v>222</v>
+        <v>914</v>
       </c>
       <c r="G765" t="s">
-        <v>223</v>
+        <v>915</v>
       </c>
       <c r="H765" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="I765" t="s">
         <v>19</v>
@@ -32501,10 +32519,10 @@
         <v>1</v>
       </c>
       <c r="K765">
-        <v>9137000</v>
+        <v>11483500</v>
       </c>
       <c r="L765">
-        <v>9137000</v>
+        <v>11483500</v>
       </c>
     </row>
     <row r="766" spans="1:12">
@@ -32518,19 +32536,19 @@
         <v>13</v>
       </c>
       <c r="D766" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="E766" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F766" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G766" t="s">
         <v>223</v>
       </c>
       <c r="H766" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="I766" t="s">
         <v>19</v>
@@ -32539,10 +32557,10 @@
         <v>1</v>
       </c>
       <c r="K766">
-        <v>895000</v>
+        <v>1250000</v>
       </c>
       <c r="L766">
-        <v>895000</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="767" spans="1:12">
@@ -32559,16 +32577,16 @@
         <v>24</v>
       </c>
       <c r="E767" t="s">
-        <v>911</v>
+        <v>221</v>
       </c>
       <c r="F767" t="s">
-        <v>912</v>
+        <v>222</v>
       </c>
       <c r="G767" t="s">
-        <v>913</v>
+        <v>223</v>
       </c>
       <c r="H767" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="I767" t="s">
         <v>19</v>
@@ -32577,10 +32595,10 @@
         <v>1</v>
       </c>
       <c r="K767">
-        <v>16821479</v>
+        <v>9137000</v>
       </c>
       <c r="L767">
-        <v>16821479</v>
+        <v>9137000</v>
       </c>
     </row>
     <row r="768" spans="1:12">
@@ -32594,20 +32612,20 @@
         <v>13</v>
       </c>
       <c r="D768" t="s">
-        <v>388</v>
+        <v>96</v>
       </c>
       <c r="E768" t="s">
-        <v>915</v>
+        <v>225</v>
       </c>
       <c r="F768" t="s">
+        <v>226</v>
+      </c>
+      <c r="G768" t="s">
+        <v>223</v>
+      </c>
+      <c r="H768" t="s">
         <v>916</v>
       </c>
-      <c r="G768" t="s">
-        <v>917</v>
-      </c>
-      <c r="H768" t="s">
-        <v>918</v>
-      </c>
       <c r="I768" t="s">
         <v>19</v>
       </c>
@@ -32615,10 +32633,10 @@
         <v>1</v>
       </c>
       <c r="K768">
-        <v>320961489</v>
+        <v>895000</v>
       </c>
       <c r="L768">
-        <v>320961489</v>
+        <v>895000</v>
       </c>
     </row>
     <row r="769" spans="1:12">
@@ -32632,20 +32650,20 @@
         <v>13</v>
       </c>
       <c r="D769" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E769" t="s">
+        <v>917</v>
+      </c>
+      <c r="F769" t="s">
+        <v>918</v>
+      </c>
+      <c r="G769" t="s">
         <v>919</v>
       </c>
-      <c r="F769" t="s">
+      <c r="H769" t="s">
         <v>920</v>
       </c>
-      <c r="G769" t="s">
-        <v>921</v>
-      </c>
-      <c r="H769" t="s">
-        <v>918</v>
-      </c>
       <c r="I769" t="s">
         <v>19</v>
       </c>
@@ -32653,10 +32671,10 @@
         <v>1</v>
       </c>
       <c r="K769">
-        <v>4590000</v>
+        <v>16821479</v>
       </c>
       <c r="L769">
-        <v>4590000</v>
+        <v>16821479</v>
       </c>
     </row>
     <row r="770" spans="1:12">
@@ -32670,16 +32688,16 @@
         <v>13</v>
       </c>
       <c r="D770" t="s">
-        <v>774</v>
+        <v>388</v>
       </c>
       <c r="E770" t="s">
+        <v>921</v>
+      </c>
+      <c r="F770" t="s">
         <v>922</v>
       </c>
-      <c r="F770" t="s">
+      <c r="G770" t="s">
         <v>923</v>
-      </c>
-      <c r="G770" t="s">
-        <v>792</v>
       </c>
       <c r="H770" t="s">
         <v>924</v>
@@ -32691,10 +32709,10 @@
         <v>1</v>
       </c>
       <c r="K770">
-        <v>20738160</v>
+        <v>320961489</v>
       </c>
       <c r="L770">
-        <v>20738160</v>
+        <v>320961489</v>
       </c>
     </row>
     <row r="771" spans="1:12">
@@ -32708,19 +32726,19 @@
         <v>13</v>
       </c>
       <c r="D771" t="s">
-        <v>243</v>
+        <v>72</v>
       </c>
       <c r="E771" t="s">
-        <v>345</v>
+        <v>925</v>
       </c>
       <c r="F771" t="s">
-        <v>346</v>
+        <v>926</v>
       </c>
       <c r="G771" t="s">
-        <v>342</v>
+        <v>927</v>
       </c>
       <c r="H771" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I771" t="s">
         <v>19</v>
@@ -32729,10 +32747,10 @@
         <v>1</v>
       </c>
       <c r="K771">
-        <v>782000</v>
+        <v>4590000</v>
       </c>
       <c r="L771">
-        <v>782000</v>
+        <v>4590000</v>
       </c>
     </row>
     <row r="772" spans="1:12">
@@ -32749,16 +32767,16 @@
         <v>774</v>
       </c>
       <c r="E772" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="F772" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="G772" t="s">
-        <v>928</v>
+        <v>792</v>
       </c>
       <c r="H772" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I772" t="s">
         <v>19</v>
@@ -32767,10 +32785,10 @@
         <v>1</v>
       </c>
       <c r="K772">
-        <v>720000</v>
+        <v>20738160</v>
       </c>
       <c r="L772">
-        <v>720000</v>
+        <v>20738160</v>
       </c>
     </row>
     <row r="773" spans="1:12">
@@ -32784,19 +32802,19 @@
         <v>13</v>
       </c>
       <c r="D773" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="E773" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F773" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G773" t="s">
         <v>342</v>
       </c>
       <c r="H773" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I773" t="s">
         <v>19</v>
@@ -32805,10 +32823,10 @@
         <v>1</v>
       </c>
       <c r="K773">
-        <v>2800000</v>
+        <v>782000</v>
       </c>
       <c r="L773">
-        <v>2800000</v>
+        <v>782000</v>
       </c>
     </row>
     <row r="774" spans="1:12">
@@ -32822,19 +32840,19 @@
         <v>13</v>
       </c>
       <c r="D774" t="s">
-        <v>243</v>
+        <v>774</v>
       </c>
       <c r="E774" t="s">
-        <v>345</v>
+        <v>932</v>
       </c>
       <c r="F774" t="s">
-        <v>346</v>
+        <v>933</v>
       </c>
       <c r="G774" t="s">
-        <v>342</v>
+        <v>934</v>
       </c>
       <c r="H774" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="I774" t="s">
         <v>19</v>
@@ -32843,10 +32861,10 @@
         <v>1</v>
       </c>
       <c r="K774">
-        <v>46538931</v>
+        <v>720000</v>
       </c>
       <c r="L774">
-        <v>46538931</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="775" spans="1:12">
@@ -32860,19 +32878,19 @@
         <v>13</v>
       </c>
       <c r="D775" t="s">
-        <v>168</v>
+        <v>294</v>
       </c>
       <c r="E775" t="s">
-        <v>169</v>
+        <v>340</v>
       </c>
       <c r="F775" t="s">
-        <v>170</v>
+        <v>341</v>
       </c>
       <c r="G775" t="s">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="H775" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="I775" t="s">
         <v>19</v>
@@ -32881,10 +32899,10 @@
         <v>1</v>
       </c>
       <c r="K775">
-        <v>15688720</v>
+        <v>2800000</v>
       </c>
       <c r="L775">
-        <v>15688720</v>
+        <v>2800000</v>
       </c>
     </row>
     <row r="776" spans="1:12">
@@ -32898,19 +32916,19 @@
         <v>13</v>
       </c>
       <c r="D776" t="s">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="E776" t="s">
-        <v>161</v>
+        <v>345</v>
       </c>
       <c r="F776" t="s">
-        <v>162</v>
+        <v>346</v>
       </c>
       <c r="G776" t="s">
-        <v>163</v>
+        <v>342</v>
       </c>
       <c r="H776" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="I776" t="s">
         <v>19</v>
@@ -32919,10 +32937,10 @@
         <v>1</v>
       </c>
       <c r="K776">
-        <v>1537000</v>
+        <v>46538931</v>
       </c>
       <c r="L776">
-        <v>1537000</v>
+        <v>46538931</v>
       </c>
     </row>
     <row r="777" spans="1:12">
@@ -32936,19 +32954,19 @@
         <v>13</v>
       </c>
       <c r="D777" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="E777" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="F777" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="G777" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="H777" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="I777" t="s">
         <v>19</v>
@@ -32957,10 +32975,10 @@
         <v>1</v>
       </c>
       <c r="K777">
-        <v>4515140</v>
+        <v>15688720</v>
       </c>
       <c r="L777">
-        <v>4515140</v>
+        <v>15688720</v>
       </c>
     </row>
     <row r="778" spans="1:12">
@@ -32974,19 +32992,19 @@
         <v>13</v>
       </c>
       <c r="D778" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="E778" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="F778" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="G778" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="H778" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="I778" t="s">
         <v>19</v>
@@ -32995,10 +33013,10 @@
         <v>1</v>
       </c>
       <c r="K778">
-        <v>840000</v>
+        <v>1537000</v>
       </c>
       <c r="L778">
-        <v>840000</v>
+        <v>1537000</v>
       </c>
     </row>
     <row r="779" spans="1:12">
@@ -33012,19 +33030,19 @@
         <v>13</v>
       </c>
       <c r="D779" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="E779" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="F779" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="G779" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="H779" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="I779" t="s">
         <v>19</v>
@@ -33033,10 +33051,10 @@
         <v>1</v>
       </c>
       <c r="K779">
-        <v>2280000</v>
+        <v>4515140</v>
       </c>
       <c r="L779">
-        <v>2280000</v>
+        <v>4515140</v>
       </c>
     </row>
     <row r="780" spans="1:12">
@@ -33050,19 +33068,19 @@
         <v>13</v>
       </c>
       <c r="D780" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="E780" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="F780" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="G780" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="H780" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="I780" t="s">
         <v>19</v>
@@ -33071,10 +33089,10 @@
         <v>1</v>
       </c>
       <c r="K780">
-        <v>1680000</v>
+        <v>840000</v>
       </c>
       <c r="L780">
-        <v>1680000</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="781" spans="1:12">
@@ -33088,19 +33106,19 @@
         <v>13</v>
       </c>
       <c r="D781" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="E781" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F781" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G781" t="s">
         <v>223</v>
       </c>
       <c r="H781" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="I781" t="s">
         <v>19</v>
@@ -33109,10 +33127,10 @@
         <v>1</v>
       </c>
       <c r="K781">
-        <v>1120000</v>
+        <v>2280000</v>
       </c>
       <c r="L781">
-        <v>1120000</v>
+        <v>2280000</v>
       </c>
     </row>
     <row r="782" spans="1:12">
@@ -33126,19 +33144,19 @@
         <v>13</v>
       </c>
       <c r="D782" t="s">
-        <v>294</v>
+        <v>96</v>
       </c>
       <c r="E782" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="F782" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="G782" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="H782" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="I782" t="s">
         <v>19</v>
@@ -33147,10 +33165,10 @@
         <v>1</v>
       </c>
       <c r="K782">
-        <v>5500000</v>
+        <v>1680000</v>
       </c>
       <c r="L782">
-        <v>5500000</v>
+        <v>1680000</v>
       </c>
     </row>
     <row r="783" spans="1:12">
@@ -33164,19 +33182,19 @@
         <v>13</v>
       </c>
       <c r="D783" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="E783" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F783" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G783" t="s">
         <v>223</v>
       </c>
       <c r="H783" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="I783" t="s">
         <v>19</v>
@@ -33185,10 +33203,10 @@
         <v>1</v>
       </c>
       <c r="K783">
-        <v>2015000</v>
+        <v>1120000</v>
       </c>
       <c r="L783">
-        <v>2015000</v>
+        <v>1120000</v>
       </c>
     </row>
     <row r="784" spans="1:12">
@@ -33202,19 +33220,19 @@
         <v>13</v>
       </c>
       <c r="D784" t="s">
-        <v>24</v>
+        <v>294</v>
       </c>
       <c r="E784" t="s">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="F784" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="G784" t="s">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="H784" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="I784" t="s">
         <v>19</v>
@@ -33223,10 +33241,10 @@
         <v>1</v>
       </c>
       <c r="K784">
-        <v>3265000</v>
+        <v>5500000</v>
       </c>
       <c r="L784">
-        <v>3265000</v>
+        <v>5500000</v>
       </c>
     </row>
     <row r="785" spans="1:12">
@@ -33240,19 +33258,19 @@
         <v>13</v>
       </c>
       <c r="D785" t="s">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="E785" t="s">
-        <v>313</v>
+        <v>221</v>
       </c>
       <c r="F785" t="s">
-        <v>314</v>
+        <v>222</v>
       </c>
       <c r="G785" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="H785" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="I785" t="s">
         <v>19</v>
@@ -33261,10 +33279,10 @@
         <v>1</v>
       </c>
       <c r="K785">
-        <v>1680000</v>
+        <v>2015000</v>
       </c>
       <c r="L785">
-        <v>1680000</v>
+        <v>2015000</v>
       </c>
     </row>
     <row r="786" spans="1:12">
@@ -33290,7 +33308,7 @@
         <v>223</v>
       </c>
       <c r="H786" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="I786" t="s">
         <v>19</v>
@@ -33299,10 +33317,10 @@
         <v>1</v>
       </c>
       <c r="K786">
-        <v>1440000</v>
+        <v>3265000</v>
       </c>
       <c r="L786">
-        <v>1440000</v>
+        <v>3265000</v>
       </c>
     </row>
     <row r="787" spans="1:12">
@@ -33316,19 +33334,19 @@
         <v>13</v>
       </c>
       <c r="D787" t="s">
-        <v>96</v>
+        <v>294</v>
       </c>
       <c r="E787" t="s">
-        <v>225</v>
+        <v>313</v>
       </c>
       <c r="F787" t="s">
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="G787" t="s">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="H787" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="I787" t="s">
         <v>19</v>
@@ -33337,10 +33355,10 @@
         <v>1</v>
       </c>
       <c r="K787">
-        <v>930000</v>
+        <v>1680000</v>
       </c>
       <c r="L787">
-        <v>930000</v>
+        <v>1680000</v>
       </c>
     </row>
     <row r="788" spans="1:12">
@@ -33354,19 +33372,19 @@
         <v>13</v>
       </c>
       <c r="D788" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="E788" t="s">
-        <v>938</v>
+        <v>221</v>
       </c>
       <c r="F788" t="s">
-        <v>939</v>
+        <v>222</v>
       </c>
       <c r="G788" t="s">
-        <v>940</v>
+        <v>223</v>
       </c>
       <c r="H788" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="I788" t="s">
         <v>19</v>
@@ -33375,10 +33393,10 @@
         <v>1</v>
       </c>
       <c r="K788">
-        <v>10836000</v>
+        <v>1440000</v>
       </c>
       <c r="L788">
-        <v>10836000</v>
+        <v>1440000</v>
       </c>
     </row>
     <row r="789" spans="1:12">
@@ -33392,20 +33410,20 @@
         <v>13</v>
       </c>
       <c r="D789" t="s">
-        <v>388</v>
+        <v>96</v>
       </c>
       <c r="E789" t="s">
-        <v>941</v>
+        <v>225</v>
       </c>
       <c r="F789" t="s">
-        <v>942</v>
+        <v>226</v>
       </c>
       <c r="G789" t="s">
+        <v>223</v>
+      </c>
+      <c r="H789" t="s">
         <v>943</v>
       </c>
-      <c r="H789" t="s">
-        <v>944</v>
-      </c>
       <c r="I789" t="s">
         <v>19</v>
       </c>
@@ -33413,10 +33431,10 @@
         <v>1</v>
       </c>
       <c r="K789">
-        <v>5326766</v>
+        <v>930000</v>
       </c>
       <c r="L789">
-        <v>5326766</v>
+        <v>930000</v>
       </c>
     </row>
     <row r="790" spans="1:12">
@@ -33430,19 +33448,19 @@
         <v>13</v>
       </c>
       <c r="D790" t="s">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="E790" t="s">
-        <v>393</v>
+        <v>944</v>
       </c>
       <c r="F790" t="s">
-        <v>394</v>
+        <v>945</v>
       </c>
       <c r="G790" t="s">
-        <v>315</v>
+        <v>946</v>
       </c>
       <c r="H790" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I790" t="s">
         <v>19</v>
@@ -33451,10 +33469,10 @@
         <v>1</v>
       </c>
       <c r="K790">
-        <v>39506220</v>
+        <v>10836000</v>
       </c>
       <c r="L790">
-        <v>39506220</v>
+        <v>10836000</v>
       </c>
     </row>
     <row r="791" spans="1:12">
@@ -33468,19 +33486,19 @@
         <v>13</v>
       </c>
       <c r="D791" t="s">
-        <v>335</v>
+        <v>388</v>
       </c>
       <c r="E791" t="s">
-        <v>336</v>
+        <v>947</v>
       </c>
       <c r="F791" t="s">
-        <v>337</v>
+        <v>948</v>
       </c>
       <c r="G791" t="s">
-        <v>315</v>
+        <v>949</v>
       </c>
       <c r="H791" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="I791" t="s">
         <v>19</v>
@@ -33489,10 +33507,10 @@
         <v>1</v>
       </c>
       <c r="K791">
-        <v>1552000</v>
+        <v>5326766</v>
       </c>
       <c r="L791">
-        <v>1552000</v>
+        <v>5326766</v>
       </c>
     </row>
     <row r="792" spans="1:12">
@@ -33506,19 +33524,19 @@
         <v>13</v>
       </c>
       <c r="D792" t="s">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c r="E792" t="s">
-        <v>945</v>
+        <v>393</v>
       </c>
       <c r="F792" t="s">
-        <v>946</v>
+        <v>394</v>
       </c>
       <c r="G792" t="s">
-        <v>947</v>
+        <v>315</v>
       </c>
       <c r="H792" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="I792" t="s">
         <v>19</v>
@@ -33527,10 +33545,10 @@
         <v>1</v>
       </c>
       <c r="K792">
-        <v>5430000</v>
+        <v>39506220</v>
       </c>
       <c r="L792">
-        <v>5430000</v>
+        <v>39506220</v>
       </c>
     </row>
     <row r="793" spans="1:12">
@@ -33544,19 +33562,19 @@
         <v>13</v>
       </c>
       <c r="D793" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="E793" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="F793" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="G793" t="s">
         <v>315</v>
       </c>
       <c r="H793" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="I793" t="s">
         <v>19</v>
@@ -33565,10 +33583,10 @@
         <v>1</v>
       </c>
       <c r="K793">
-        <v>300000</v>
+        <v>1552000</v>
       </c>
       <c r="L793">
-        <v>300000</v>
+        <v>1552000</v>
       </c>
     </row>
     <row r="794" spans="1:12">
@@ -33582,19 +33600,19 @@
         <v>13</v>
       </c>
       <c r="D794" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="E794" t="s">
-        <v>157</v>
+        <v>951</v>
       </c>
       <c r="F794" t="s">
-        <v>158</v>
+        <v>952</v>
       </c>
       <c r="G794" t="s">
-        <v>159</v>
+        <v>953</v>
       </c>
       <c r="H794" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="I794" t="s">
         <v>19</v>
@@ -33603,10 +33621,10 @@
         <v>1</v>
       </c>
       <c r="K794">
-        <v>150000</v>
+        <v>5430000</v>
       </c>
       <c r="L794">
-        <v>150000</v>
+        <v>5430000</v>
       </c>
     </row>
     <row r="795" spans="1:12">
@@ -33623,16 +33641,16 @@
         <v>294</v>
       </c>
       <c r="E795" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="F795" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="G795" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="H795" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="I795" t="s">
         <v>19</v>
@@ -33641,10 +33659,10 @@
         <v>1</v>
       </c>
       <c r="K795">
-        <v>2170000</v>
+        <v>300000</v>
       </c>
       <c r="L795">
-        <v>2170000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="796" spans="1:12">
@@ -33658,19 +33676,19 @@
         <v>13</v>
       </c>
       <c r="D796" t="s">
-        <v>294</v>
+        <v>156</v>
       </c>
       <c r="E796" t="s">
-        <v>340</v>
+        <v>157</v>
       </c>
       <c r="F796" t="s">
-        <v>341</v>
+        <v>158</v>
       </c>
       <c r="G796" t="s">
-        <v>342</v>
+        <v>159</v>
       </c>
       <c r="H796" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="I796" t="s">
         <v>19</v>
@@ -33696,19 +33714,19 @@
         <v>13</v>
       </c>
       <c r="D797" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="E797" t="s">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="F797" t="s">
-        <v>150</v>
+        <v>341</v>
       </c>
       <c r="G797" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="H797" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="I797" t="s">
         <v>19</v>
@@ -33717,10 +33735,10 @@
         <v>1</v>
       </c>
       <c r="K797">
-        <v>2805000</v>
+        <v>2170000</v>
       </c>
       <c r="L797">
-        <v>2805000</v>
+        <v>2170000</v>
       </c>
     </row>
     <row r="798" spans="1:12">
@@ -33734,19 +33752,19 @@
         <v>13</v>
       </c>
       <c r="D798" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="E798" t="s">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="F798" t="s">
-        <v>150</v>
+        <v>341</v>
       </c>
       <c r="G798" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="H798" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="I798" t="s">
         <v>19</v>
@@ -33755,10 +33773,10 @@
         <v>1</v>
       </c>
       <c r="K798">
-        <v>1650000</v>
+        <v>150000</v>
       </c>
       <c r="L798">
-        <v>1650000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="799" spans="1:12">
@@ -33772,19 +33790,19 @@
         <v>13</v>
       </c>
       <c r="D799" t="s">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="E799" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="F799" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="G799" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="H799" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="I799" t="s">
         <v>19</v>
@@ -33793,10 +33811,10 @@
         <v>1</v>
       </c>
       <c r="K799">
-        <v>300000</v>
+        <v>2805000</v>
       </c>
       <c r="L799">
-        <v>300000</v>
+        <v>2805000</v>
       </c>
     </row>
     <row r="800" spans="1:12">
@@ -33810,19 +33828,19 @@
         <v>13</v>
       </c>
       <c r="D800" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="E800" t="s">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="F800" t="s">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="G800" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="H800" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="I800" t="s">
         <v>19</v>
@@ -33831,10 +33849,10 @@
         <v>1</v>
       </c>
       <c r="K800">
-        <v>600000</v>
+        <v>1650000</v>
       </c>
       <c r="L800">
-        <v>600000</v>
+        <v>1650000</v>
       </c>
     </row>
     <row r="801" spans="1:12">
@@ -33848,19 +33866,19 @@
         <v>13</v>
       </c>
       <c r="D801" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="E801" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="F801" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="G801" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="H801" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="I801" t="s">
         <v>19</v>
@@ -33869,10 +33887,10 @@
         <v>1</v>
       </c>
       <c r="K801">
-        <v>780000</v>
+        <v>300000</v>
       </c>
       <c r="L801">
-        <v>780000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="802" spans="1:12">
@@ -33886,19 +33904,19 @@
         <v>13</v>
       </c>
       <c r="D802" t="s">
-        <v>294</v>
+        <v>96</v>
       </c>
       <c r="E802" t="s">
-        <v>393</v>
+        <v>225</v>
       </c>
       <c r="F802" t="s">
-        <v>394</v>
+        <v>226</v>
       </c>
       <c r="G802" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="H802" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="I802" t="s">
         <v>19</v>
@@ -33907,10 +33925,10 @@
         <v>1</v>
       </c>
       <c r="K802">
-        <v>520000</v>
+        <v>600000</v>
       </c>
       <c r="L802">
-        <v>520000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="803" spans="1:12">
@@ -33924,19 +33942,19 @@
         <v>13</v>
       </c>
       <c r="D803" t="s">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="E803" t="s">
-        <v>340</v>
+        <v>144</v>
       </c>
       <c r="F803" t="s">
-        <v>341</v>
+        <v>145</v>
       </c>
       <c r="G803" t="s">
-        <v>342</v>
+        <v>146</v>
       </c>
       <c r="H803" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="I803" t="s">
         <v>19</v>
@@ -33945,10 +33963,10 @@
         <v>1</v>
       </c>
       <c r="K803">
-        <v>5200000</v>
+        <v>780000</v>
       </c>
       <c r="L803">
-        <v>5200000</v>
+        <v>780000</v>
       </c>
     </row>
     <row r="804" spans="1:12">
@@ -33962,19 +33980,19 @@
         <v>13</v>
       </c>
       <c r="D804" t="s">
-        <v>24</v>
+        <v>294</v>
       </c>
       <c r="E804" t="s">
-        <v>144</v>
+        <v>393</v>
       </c>
       <c r="F804" t="s">
-        <v>145</v>
+        <v>394</v>
       </c>
       <c r="G804" t="s">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="H804" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="I804" t="s">
         <v>19</v>
@@ -33983,10 +34001,10 @@
         <v>1</v>
       </c>
       <c r="K804">
-        <v>900000</v>
+        <v>520000</v>
       </c>
       <c r="L804">
-        <v>900000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="805" spans="1:12">
@@ -34003,16 +34021,16 @@
         <v>294</v>
       </c>
       <c r="E805" t="s">
-        <v>393</v>
+        <v>340</v>
       </c>
       <c r="F805" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="G805" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="H805" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="I805" t="s">
         <v>19</v>
@@ -34021,10 +34039,10 @@
         <v>1</v>
       </c>
       <c r="K805">
-        <v>450000</v>
+        <v>5200000</v>
       </c>
       <c r="L805">
-        <v>450000</v>
+        <v>5200000</v>
       </c>
     </row>
     <row r="806" spans="1:12">
@@ -34038,19 +34056,19 @@
         <v>13</v>
       </c>
       <c r="D806" t="s">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="E806" t="s">
-        <v>340</v>
+        <v>144</v>
       </c>
       <c r="F806" t="s">
-        <v>341</v>
+        <v>145</v>
       </c>
       <c r="G806" t="s">
-        <v>342</v>
+        <v>146</v>
       </c>
       <c r="H806" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="I806" t="s">
         <v>19</v>
@@ -34059,10 +34077,10 @@
         <v>1</v>
       </c>
       <c r="K806">
-        <v>5700000</v>
+        <v>900000</v>
       </c>
       <c r="L806">
-        <v>5700000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="807" spans="1:12">
@@ -34076,19 +34094,19 @@
         <v>13</v>
       </c>
       <c r="D807" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="E807" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="F807" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="G807" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="H807" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="I807" t="s">
         <v>19</v>
@@ -34097,10 +34115,10 @@
         <v>1</v>
       </c>
       <c r="K807">
-        <v>3735000</v>
+        <v>450000</v>
       </c>
       <c r="L807">
-        <v>3735000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="808" spans="1:12">
@@ -34114,19 +34132,19 @@
         <v>13</v>
       </c>
       <c r="D808" t="s">
-        <v>164</v>
+        <v>294</v>
       </c>
       <c r="E808" t="s">
-        <v>165</v>
+        <v>340</v>
       </c>
       <c r="F808" t="s">
-        <v>166</v>
+        <v>341</v>
       </c>
       <c r="G808" t="s">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="H808" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="I808" t="s">
         <v>19</v>
@@ -34135,10 +34153,10 @@
         <v>1</v>
       </c>
       <c r="K808">
-        <v>130000</v>
+        <v>5700000</v>
       </c>
       <c r="L808">
-        <v>130000</v>
+        <v>5700000</v>
       </c>
     </row>
     <row r="809" spans="1:12">
@@ -34152,19 +34170,19 @@
         <v>13</v>
       </c>
       <c r="D809" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="E809" t="s">
-        <v>144</v>
+        <v>345</v>
       </c>
       <c r="F809" t="s">
-        <v>145</v>
+        <v>346</v>
       </c>
       <c r="G809" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="H809" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="I809" t="s">
         <v>19</v>
@@ -34173,10 +34191,10 @@
         <v>1</v>
       </c>
       <c r="K809">
-        <v>280000</v>
+        <v>3735000</v>
       </c>
       <c r="L809">
-        <v>280000</v>
+        <v>3735000</v>
       </c>
     </row>
     <row r="810" spans="1:12">
@@ -34190,19 +34208,19 @@
         <v>13</v>
       </c>
       <c r="D810" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E810" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F810" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G810" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H810" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="I810" t="s">
         <v>19</v>
@@ -34211,10 +34229,10 @@
         <v>1</v>
       </c>
       <c r="K810">
-        <v>300000</v>
+        <v>130000</v>
       </c>
       <c r="L810">
-        <v>300000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="811" spans="1:12">
@@ -34228,19 +34246,19 @@
         <v>13</v>
       </c>
       <c r="D811" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="E811" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F811" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="G811" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="H811" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="I811" t="s">
         <v>19</v>
@@ -34249,10 +34267,10 @@
         <v>1</v>
       </c>
       <c r="K811">
-        <v>600000</v>
+        <v>280000</v>
       </c>
       <c r="L811">
-        <v>600000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="812" spans="1:12">
@@ -34266,19 +34284,19 @@
         <v>13</v>
       </c>
       <c r="D812" t="s">
-        <v>294</v>
+        <v>160</v>
       </c>
       <c r="E812" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="F812" t="s">
-        <v>296</v>
+        <v>162</v>
       </c>
       <c r="G812" t="s">
-        <v>297</v>
+        <v>163</v>
       </c>
       <c r="H812" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="I812" t="s">
         <v>19</v>
@@ -34287,10 +34305,10 @@
         <v>1</v>
       </c>
       <c r="K812">
-        <v>1120000</v>
+        <v>300000</v>
       </c>
       <c r="L812">
-        <v>1120000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="813" spans="1:12">
@@ -34307,16 +34325,16 @@
         <v>168</v>
       </c>
       <c r="E813" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="F813" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="G813" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="H813" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="I813" t="s">
         <v>19</v>
@@ -34325,10 +34343,10 @@
         <v>1</v>
       </c>
       <c r="K813">
-        <v>6140000</v>
+        <v>600000</v>
       </c>
       <c r="L813">
-        <v>6140000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="814" spans="1:12">
@@ -34342,19 +34360,19 @@
         <v>13</v>
       </c>
       <c r="D814" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="E814" t="s">
-        <v>149</v>
+        <v>295</v>
       </c>
       <c r="F814" t="s">
-        <v>150</v>
+        <v>296</v>
       </c>
       <c r="G814" t="s">
-        <v>151</v>
+        <v>297</v>
       </c>
       <c r="H814" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="I814" t="s">
         <v>19</v>
@@ -34363,10 +34381,10 @@
         <v>1</v>
       </c>
       <c r="K814">
-        <v>2080000</v>
+        <v>1120000</v>
       </c>
       <c r="L814">
-        <v>2080000</v>
+        <v>1120000</v>
       </c>
     </row>
     <row r="815" spans="1:12">
@@ -34380,19 +34398,19 @@
         <v>13</v>
       </c>
       <c r="D815" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E815" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="F815" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G815" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="H815" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="I815" t="s">
         <v>19</v>
@@ -34401,10 +34419,10 @@
         <v>1</v>
       </c>
       <c r="K815">
-        <v>260000</v>
+        <v>6140000</v>
       </c>
       <c r="L815">
-        <v>260000</v>
+        <v>6140000</v>
       </c>
     </row>
     <row r="816" spans="1:12">
@@ -34418,19 +34436,19 @@
         <v>13</v>
       </c>
       <c r="D816" t="s">
-        <v>335</v>
+        <v>148</v>
       </c>
       <c r="E816" t="s">
-        <v>336</v>
+        <v>149</v>
       </c>
       <c r="F816" t="s">
-        <v>337</v>
+        <v>150</v>
       </c>
       <c r="G816" t="s">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="H816" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="I816" t="s">
         <v>19</v>
@@ -34439,10 +34457,10 @@
         <v>1</v>
       </c>
       <c r="K816">
-        <v>2700000</v>
+        <v>2080000</v>
       </c>
       <c r="L816">
-        <v>2700000</v>
+        <v>2080000</v>
       </c>
     </row>
     <row r="817" spans="1:12">
@@ -34456,19 +34474,19 @@
         <v>13</v>
       </c>
       <c r="D817" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E817" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F817" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G817" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H817" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="I817" t="s">
         <v>19</v>
@@ -34477,10 +34495,10 @@
         <v>1</v>
       </c>
       <c r="K817">
-        <v>2400000</v>
+        <v>260000</v>
       </c>
       <c r="L817">
-        <v>2400000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="818" spans="1:12">
@@ -34494,19 +34512,19 @@
         <v>13</v>
       </c>
       <c r="D818" t="s">
-        <v>152</v>
+        <v>335</v>
       </c>
       <c r="E818" t="s">
-        <v>153</v>
+        <v>336</v>
       </c>
       <c r="F818" t="s">
-        <v>154</v>
+        <v>337</v>
       </c>
       <c r="G818" t="s">
-        <v>155</v>
+        <v>315</v>
       </c>
       <c r="H818" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="I818" t="s">
         <v>19</v>
@@ -34515,10 +34533,10 @@
         <v>1</v>
       </c>
       <c r="K818">
-        <v>300000</v>
+        <v>2700000</v>
       </c>
       <c r="L818">
-        <v>300000</v>
+        <v>2700000</v>
       </c>
     </row>
     <row r="819" spans="1:12">
@@ -34532,19 +34550,19 @@
         <v>13</v>
       </c>
       <c r="D819" t="s">
-        <v>335</v>
+        <v>148</v>
       </c>
       <c r="E819" t="s">
-        <v>336</v>
+        <v>149</v>
       </c>
       <c r="F819" t="s">
-        <v>337</v>
+        <v>150</v>
       </c>
       <c r="G819" t="s">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="H819" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="I819" t="s">
         <v>19</v>
@@ -34553,10 +34571,10 @@
         <v>1</v>
       </c>
       <c r="K819">
-        <v>2100000</v>
+        <v>2400000</v>
       </c>
       <c r="L819">
-        <v>2100000</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="820" spans="1:12">
@@ -34570,19 +34588,19 @@
         <v>13</v>
       </c>
       <c r="D820" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E820" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F820" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G820" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H820" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="I820" t="s">
         <v>19</v>
@@ -34591,10 +34609,10 @@
         <v>1</v>
       </c>
       <c r="K820">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="L820">
-        <v>150000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="821" spans="1:12">
@@ -34608,19 +34626,19 @@
         <v>13</v>
       </c>
       <c r="D821" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="E821" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="F821" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G821" t="s">
         <v>315</v>
       </c>
       <c r="H821" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="I821" t="s">
         <v>19</v>
@@ -34629,10 +34647,10 @@
         <v>1</v>
       </c>
       <c r="K821">
-        <v>1650000</v>
+        <v>2100000</v>
       </c>
       <c r="L821">
-        <v>1650000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="822" spans="1:12">
@@ -34658,7 +34676,7 @@
         <v>151</v>
       </c>
       <c r="H822" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="I822" t="s">
         <v>19</v>
@@ -34667,10 +34685,10 @@
         <v>1</v>
       </c>
       <c r="K822">
-        <v>260000</v>
+        <v>150000</v>
       </c>
       <c r="L822">
-        <v>260000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="823" spans="1:12">
@@ -34696,7 +34714,7 @@
         <v>315</v>
       </c>
       <c r="H823" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="I823" t="s">
         <v>19</v>
@@ -34705,10 +34723,10 @@
         <v>1</v>
       </c>
       <c r="K823">
-        <v>2750000</v>
+        <v>1650000</v>
       </c>
       <c r="L823">
-        <v>2750000</v>
+        <v>1650000</v>
       </c>
     </row>
     <row r="824" spans="1:12">
@@ -34722,19 +34740,19 @@
         <v>13</v>
       </c>
       <c r="D824" t="s">
-        <v>294</v>
+        <v>148</v>
       </c>
       <c r="E824" t="s">
-        <v>340</v>
+        <v>149</v>
       </c>
       <c r="F824" t="s">
-        <v>341</v>
+        <v>150</v>
       </c>
       <c r="G824" t="s">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="H824" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="I824" t="s">
         <v>19</v>
@@ -34743,10 +34761,10 @@
         <v>1</v>
       </c>
       <c r="K824">
-        <v>1260000</v>
+        <v>260000</v>
       </c>
       <c r="L824">
-        <v>1260000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="825" spans="1:12">
@@ -34763,16 +34781,16 @@
         <v>294</v>
       </c>
       <c r="E825" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="F825" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="G825" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="H825" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="I825" t="s">
         <v>19</v>
@@ -34781,10 +34799,10 @@
         <v>1</v>
       </c>
       <c r="K825">
-        <v>900000</v>
+        <v>2750000</v>
       </c>
       <c r="L825">
-        <v>900000</v>
+        <v>2750000</v>
       </c>
     </row>
     <row r="826" spans="1:12">
@@ -34798,19 +34816,19 @@
         <v>13</v>
       </c>
       <c r="D826" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="E826" t="s">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="F826" t="s">
-        <v>150</v>
+        <v>341</v>
       </c>
       <c r="G826" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="H826" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="I826" t="s">
         <v>19</v>
@@ -34819,10 +34837,10 @@
         <v>1</v>
       </c>
       <c r="K826">
-        <v>450000</v>
+        <v>1260000</v>
       </c>
       <c r="L826">
-        <v>450000</v>
+        <v>1260000</v>
       </c>
     </row>
     <row r="827" spans="1:12">
@@ -34836,19 +34854,19 @@
         <v>13</v>
       </c>
       <c r="D827" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="E827" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F827" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G827" t="s">
         <v>342</v>
       </c>
       <c r="H827" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="I827" t="s">
         <v>19</v>
@@ -34857,10 +34875,10 @@
         <v>1</v>
       </c>
       <c r="K827">
-        <v>750000</v>
+        <v>900000</v>
       </c>
       <c r="L827">
-        <v>750000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="828" spans="1:12">
@@ -34874,19 +34892,19 @@
         <v>13</v>
       </c>
       <c r="D828" t="s">
-        <v>294</v>
+        <v>148</v>
       </c>
       <c r="E828" t="s">
-        <v>393</v>
+        <v>149</v>
       </c>
       <c r="F828" t="s">
-        <v>394</v>
+        <v>150</v>
       </c>
       <c r="G828" t="s">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="H828" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="I828" t="s">
         <v>19</v>
@@ -34895,10 +34913,10 @@
         <v>1</v>
       </c>
       <c r="K828">
-        <v>4350000</v>
+        <v>450000</v>
       </c>
       <c r="L828">
-        <v>4350000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="829" spans="1:12">
@@ -34912,19 +34930,19 @@
         <v>13</v>
       </c>
       <c r="D829" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="E829" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F829" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G829" t="s">
         <v>342</v>
       </c>
       <c r="H829" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="I829" t="s">
         <v>19</v>
@@ -34933,10 +34951,10 @@
         <v>1</v>
       </c>
       <c r="K829">
-        <v>150000</v>
+        <v>750000</v>
       </c>
       <c r="L829">
-        <v>150000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="830" spans="1:12">
@@ -34950,19 +34968,19 @@
         <v>13</v>
       </c>
       <c r="D830" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="E830" t="s">
-        <v>149</v>
+        <v>393</v>
       </c>
       <c r="F830" t="s">
-        <v>150</v>
+        <v>394</v>
       </c>
       <c r="G830" t="s">
-        <v>151</v>
+        <v>315</v>
       </c>
       <c r="H830" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="I830" t="s">
         <v>19</v>
@@ -34971,10 +34989,10 @@
         <v>1</v>
       </c>
       <c r="K830">
-        <v>2170000</v>
+        <v>4350000</v>
       </c>
       <c r="L830">
-        <v>2170000</v>
+        <v>4350000</v>
       </c>
     </row>
     <row r="831" spans="1:12">
@@ -34988,19 +35006,19 @@
         <v>13</v>
       </c>
       <c r="D831" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="E831" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F831" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G831" t="s">
         <v>342</v>
       </c>
       <c r="H831" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="I831" t="s">
         <v>19</v>
@@ -35009,10 +35027,10 @@
         <v>1</v>
       </c>
       <c r="K831">
-        <v>650000</v>
+        <v>150000</v>
       </c>
       <c r="L831">
-        <v>650000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="832" spans="1:12">
@@ -35026,19 +35044,19 @@
         <v>13</v>
       </c>
       <c r="D832" t="s">
-        <v>294</v>
+        <v>148</v>
       </c>
       <c r="E832" t="s">
-        <v>393</v>
+        <v>149</v>
       </c>
       <c r="F832" t="s">
-        <v>394</v>
+        <v>150</v>
       </c>
       <c r="G832" t="s">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="H832" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="I832" t="s">
         <v>19</v>
@@ -35047,10 +35065,10 @@
         <v>1</v>
       </c>
       <c r="K832">
-        <v>4090000</v>
+        <v>2170000</v>
       </c>
       <c r="L832">
-        <v>4090000</v>
+        <v>2170000</v>
       </c>
     </row>
     <row r="833" spans="1:12">
@@ -35064,19 +35082,19 @@
         <v>13</v>
       </c>
       <c r="D833" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="E833" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F833" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G833" t="s">
         <v>342</v>
       </c>
       <c r="H833" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="I833" t="s">
         <v>19</v>
@@ -35085,10 +35103,10 @@
         <v>1</v>
       </c>
       <c r="K833">
-        <v>130000</v>
+        <v>650000</v>
       </c>
       <c r="L833">
-        <v>130000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="834" spans="1:12">
@@ -35105,16 +35123,16 @@
         <v>294</v>
       </c>
       <c r="E834" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="F834" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="G834" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="H834" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="I834" t="s">
         <v>19</v>
@@ -35123,10 +35141,10 @@
         <v>1</v>
       </c>
       <c r="K834">
-        <v>150000</v>
+        <v>4090000</v>
       </c>
       <c r="L834">
-        <v>150000</v>
+        <v>4090000</v>
       </c>
     </row>
     <row r="835" spans="1:12">
@@ -35140,19 +35158,19 @@
         <v>13</v>
       </c>
       <c r="D835" t="s">
-        <v>774</v>
+        <v>294</v>
       </c>
       <c r="E835" t="s">
-        <v>973</v>
+        <v>340</v>
       </c>
       <c r="F835" t="s">
-        <v>974</v>
+        <v>341</v>
       </c>
       <c r="G835" t="s">
-        <v>975</v>
+        <v>342</v>
       </c>
       <c r="H835" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I835" t="s">
         <v>19</v>
@@ -35161,10 +35179,10 @@
         <v>1</v>
       </c>
       <c r="K835">
-        <v>520000</v>
+        <v>130000</v>
       </c>
       <c r="L835">
-        <v>520000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="836" spans="1:12">
@@ -35178,19 +35196,19 @@
         <v>13</v>
       </c>
       <c r="D836" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="E836" t="s">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="F836" t="s">
-        <v>150</v>
+        <v>341</v>
       </c>
       <c r="G836" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="H836" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="I836" t="s">
         <v>19</v>
@@ -35199,10 +35217,10 @@
         <v>1</v>
       </c>
       <c r="K836">
-        <v>260000</v>
+        <v>150000</v>
       </c>
       <c r="L836">
-        <v>260000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="837" spans="1:12">
@@ -35216,19 +35234,19 @@
         <v>13</v>
       </c>
       <c r="D837" t="s">
-        <v>243</v>
+        <v>774</v>
       </c>
       <c r="E837" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F837" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="G837" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="H837" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="I837" t="s">
         <v>19</v>
@@ -35237,10 +35255,10 @@
         <v>1</v>
       </c>
       <c r="K837">
-        <v>1170000</v>
+        <v>520000</v>
       </c>
       <c r="L837">
-        <v>1170000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="838" spans="1:12">
@@ -35254,20 +35272,20 @@
         <v>13</v>
       </c>
       <c r="D838" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="E838" t="s">
-        <v>980</v>
+        <v>149</v>
       </c>
       <c r="F838" t="s">
-        <v>981</v>
+        <v>150</v>
       </c>
       <c r="G838" t="s">
+        <v>151</v>
+      </c>
+      <c r="H838" t="s">
         <v>982</v>
       </c>
-      <c r="H838" t="s">
-        <v>976</v>
-      </c>
       <c r="I838" t="s">
         <v>19</v>
       </c>
@@ -35275,10 +35293,10 @@
         <v>1</v>
       </c>
       <c r="K838">
-        <v>2415000</v>
+        <v>260000</v>
       </c>
       <c r="L838">
-        <v>2415000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="839" spans="1:12">
@@ -35292,19 +35310,19 @@
         <v>13</v>
       </c>
       <c r="D839" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="E839" t="s">
-        <v>393</v>
+        <v>983</v>
       </c>
       <c r="F839" t="s">
-        <v>394</v>
+        <v>984</v>
       </c>
       <c r="G839" t="s">
-        <v>315</v>
+        <v>985</v>
       </c>
       <c r="H839" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="I839" t="s">
         <v>19</v>
@@ -35313,10 +35331,10 @@
         <v>1</v>
       </c>
       <c r="K839">
-        <v>465000</v>
+        <v>1170000</v>
       </c>
       <c r="L839">
-        <v>465000</v>
+        <v>1170000</v>
       </c>
     </row>
     <row r="840" spans="1:12">
@@ -35330,19 +35348,19 @@
         <v>13</v>
       </c>
       <c r="D840" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="E840" t="s">
-        <v>340</v>
+        <v>986</v>
       </c>
       <c r="F840" t="s">
-        <v>341</v>
+        <v>987</v>
       </c>
       <c r="G840" t="s">
-        <v>342</v>
+        <v>988</v>
       </c>
       <c r="H840" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="I840" t="s">
         <v>19</v>
@@ -35351,10 +35369,10 @@
         <v>1</v>
       </c>
       <c r="K840">
-        <v>1010000</v>
+        <v>2415000</v>
       </c>
       <c r="L840">
-        <v>1010000</v>
+        <v>2415000</v>
       </c>
     </row>
     <row r="841" spans="1:12">
@@ -35368,19 +35386,19 @@
         <v>13</v>
       </c>
       <c r="D841" t="s">
-        <v>160</v>
+        <v>294</v>
       </c>
       <c r="E841" t="s">
-        <v>161</v>
+        <v>393</v>
       </c>
       <c r="F841" t="s">
-        <v>162</v>
+        <v>394</v>
       </c>
       <c r="G841" t="s">
-        <v>163</v>
+        <v>315</v>
       </c>
       <c r="H841" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="I841" t="s">
         <v>19</v>
@@ -35389,10 +35407,10 @@
         <v>1</v>
       </c>
       <c r="K841">
-        <v>1860000</v>
+        <v>465000</v>
       </c>
       <c r="L841">
-        <v>1860000</v>
+        <v>465000</v>
       </c>
     </row>
     <row r="842" spans="1:12">
@@ -35406,19 +35424,19 @@
         <v>13</v>
       </c>
       <c r="D842" t="s">
-        <v>168</v>
+        <v>294</v>
       </c>
       <c r="E842" t="s">
-        <v>169</v>
+        <v>340</v>
       </c>
       <c r="F842" t="s">
-        <v>170</v>
+        <v>341</v>
       </c>
       <c r="G842" t="s">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="H842" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="I842" t="s">
         <v>19</v>
@@ -35427,10 +35445,10 @@
         <v>1</v>
       </c>
       <c r="K842">
-        <v>1050000</v>
+        <v>1010000</v>
       </c>
       <c r="L842">
-        <v>1050000</v>
+        <v>1010000</v>
       </c>
     </row>
     <row r="843" spans="1:12">
@@ -35444,19 +35462,19 @@
         <v>13</v>
       </c>
       <c r="D843" t="s">
-        <v>774</v>
+        <v>160</v>
       </c>
       <c r="E843" t="s">
-        <v>973</v>
+        <v>161</v>
       </c>
       <c r="F843" t="s">
-        <v>974</v>
+        <v>162</v>
       </c>
       <c r="G843" t="s">
-        <v>975</v>
+        <v>163</v>
       </c>
       <c r="H843" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I843" t="s">
         <v>19</v>
@@ -35465,10 +35483,10 @@
         <v>1</v>
       </c>
       <c r="K843">
-        <v>300000</v>
+        <v>1860000</v>
       </c>
       <c r="L843">
-        <v>300000</v>
+        <v>1860000</v>
       </c>
     </row>
     <row r="844" spans="1:12">
@@ -35482,19 +35500,19 @@
         <v>13</v>
       </c>
       <c r="D844" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="E844" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="F844" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G844" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="H844" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I844" t="s">
         <v>19</v>
@@ -35503,10 +35521,10 @@
         <v>1</v>
       </c>
       <c r="K844">
-        <v>150000</v>
+        <v>1050000</v>
       </c>
       <c r="L844">
-        <v>150000</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="845" spans="1:12">
@@ -35520,19 +35538,19 @@
         <v>13</v>
       </c>
       <c r="D845" t="s">
-        <v>243</v>
+        <v>774</v>
       </c>
       <c r="E845" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F845" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="G845" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="H845" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="I845" t="s">
         <v>19</v>
@@ -35541,10 +35559,10 @@
         <v>1</v>
       </c>
       <c r="K845">
-        <v>1350000</v>
+        <v>300000</v>
       </c>
       <c r="L845">
-        <v>1350000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="846" spans="1:12">
@@ -35558,19 +35576,19 @@
         <v>13</v>
       </c>
       <c r="D846" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="E846" t="s">
-        <v>980</v>
+        <v>149</v>
       </c>
       <c r="F846" t="s">
-        <v>981</v>
+        <v>150</v>
       </c>
       <c r="G846" t="s">
-        <v>982</v>
+        <v>151</v>
       </c>
       <c r="H846" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="I846" t="s">
         <v>19</v>
@@ -35579,10 +35597,10 @@
         <v>1</v>
       </c>
       <c r="K846">
-        <v>2100000</v>
+        <v>150000</v>
       </c>
       <c r="L846">
-        <v>2100000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="847" spans="1:12">
@@ -35596,19 +35614,19 @@
         <v>13</v>
       </c>
       <c r="D847" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="E847" t="s">
-        <v>393</v>
+        <v>983</v>
       </c>
       <c r="F847" t="s">
-        <v>394</v>
+        <v>984</v>
       </c>
       <c r="G847" t="s">
-        <v>315</v>
+        <v>985</v>
       </c>
       <c r="H847" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="I847" t="s">
         <v>19</v>
@@ -35617,10 +35635,10 @@
         <v>1</v>
       </c>
       <c r="K847">
-        <v>150000</v>
+        <v>1350000</v>
       </c>
       <c r="L847">
-        <v>150000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="848" spans="1:12">
@@ -35634,19 +35652,19 @@
         <v>13</v>
       </c>
       <c r="D848" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="E848" t="s">
-        <v>340</v>
+        <v>986</v>
       </c>
       <c r="F848" t="s">
-        <v>341</v>
+        <v>987</v>
       </c>
       <c r="G848" t="s">
-        <v>342</v>
+        <v>988</v>
       </c>
       <c r="H848" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="I848" t="s">
         <v>19</v>
@@ -35655,10 +35673,10 @@
         <v>1</v>
       </c>
       <c r="K848">
-        <v>600000</v>
+        <v>2100000</v>
       </c>
       <c r="L848">
-        <v>600000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="849" spans="1:12">
@@ -35672,19 +35690,19 @@
         <v>13</v>
       </c>
       <c r="D849" t="s">
-        <v>160</v>
+        <v>294</v>
       </c>
       <c r="E849" t="s">
-        <v>161</v>
+        <v>393</v>
       </c>
       <c r="F849" t="s">
-        <v>162</v>
+        <v>394</v>
       </c>
       <c r="G849" t="s">
-        <v>163</v>
+        <v>315</v>
       </c>
       <c r="H849" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="I849" t="s">
         <v>19</v>
@@ -35693,10 +35711,10 @@
         <v>1</v>
       </c>
       <c r="K849">
-        <v>900000</v>
+        <v>150000</v>
       </c>
       <c r="L849">
-        <v>900000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="850" spans="1:12">
@@ -35710,19 +35728,19 @@
         <v>13</v>
       </c>
       <c r="D850" t="s">
-        <v>168</v>
+        <v>294</v>
       </c>
       <c r="E850" t="s">
-        <v>169</v>
+        <v>340</v>
       </c>
       <c r="F850" t="s">
-        <v>170</v>
+        <v>341</v>
       </c>
       <c r="G850" t="s">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="H850" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="I850" t="s">
         <v>19</v>
@@ -35731,10 +35749,10 @@
         <v>1</v>
       </c>
       <c r="K850">
-        <v>750000</v>
+        <v>600000</v>
       </c>
       <c r="L850">
-        <v>750000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="851" spans="1:12">
@@ -35748,19 +35766,19 @@
         <v>13</v>
       </c>
       <c r="D851" t="s">
-        <v>294</v>
+        <v>160</v>
       </c>
       <c r="E851" t="s">
-        <v>340</v>
+        <v>161</v>
       </c>
       <c r="F851" t="s">
-        <v>341</v>
+        <v>162</v>
       </c>
       <c r="G851" t="s">
-        <v>342</v>
+        <v>163</v>
       </c>
       <c r="H851" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="I851" t="s">
         <v>19</v>
@@ -35769,10 +35787,10 @@
         <v>1</v>
       </c>
       <c r="K851">
-        <v>1375000</v>
+        <v>900000</v>
       </c>
       <c r="L851">
-        <v>1375000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="852" spans="1:12">
@@ -35786,19 +35804,19 @@
         <v>13</v>
       </c>
       <c r="D852" t="s">
-        <v>294</v>
+        <v>168</v>
       </c>
       <c r="E852" t="s">
-        <v>340</v>
+        <v>169</v>
       </c>
       <c r="F852" t="s">
-        <v>341</v>
+        <v>170</v>
       </c>
       <c r="G852" t="s">
-        <v>342</v>
+        <v>167</v>
       </c>
       <c r="H852" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="I852" t="s">
         <v>19</v>
@@ -35807,10 +35825,10 @@
         <v>1</v>
       </c>
       <c r="K852">
-        <v>1350000</v>
+        <v>750000</v>
       </c>
       <c r="L852">
-        <v>1350000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="853" spans="1:12">
@@ -35824,19 +35842,19 @@
         <v>13</v>
       </c>
       <c r="D853" t="s">
-        <v>160</v>
+        <v>294</v>
       </c>
       <c r="E853" t="s">
-        <v>986</v>
+        <v>340</v>
       </c>
       <c r="F853" t="s">
-        <v>987</v>
+        <v>341</v>
       </c>
       <c r="G853" t="s">
-        <v>988</v>
+        <v>342</v>
       </c>
       <c r="H853" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="I853" t="s">
         <v>19</v>
@@ -35845,10 +35863,10 @@
         <v>1</v>
       </c>
       <c r="K853">
-        <v>58500000</v>
+        <v>1375000</v>
       </c>
       <c r="L853">
-        <v>58500000</v>
+        <v>1375000</v>
       </c>
     </row>
     <row r="854" spans="1:12">
@@ -35874,7 +35892,7 @@
         <v>342</v>
       </c>
       <c r="H854" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="I854" t="s">
         <v>19</v>
@@ -35883,10 +35901,10 @@
         <v>1</v>
       </c>
       <c r="K854">
-        <v>18000000</v>
+        <v>1350000</v>
       </c>
       <c r="L854">
-        <v>18000000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="855" spans="1:12">
@@ -35900,19 +35918,19 @@
         <v>13</v>
       </c>
       <c r="D855" t="s">
-        <v>294</v>
+        <v>160</v>
       </c>
       <c r="E855" t="s">
-        <v>340</v>
+        <v>992</v>
       </c>
       <c r="F855" t="s">
-        <v>341</v>
+        <v>993</v>
       </c>
       <c r="G855" t="s">
-        <v>342</v>
+        <v>994</v>
       </c>
       <c r="H855" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="I855" t="s">
         <v>19</v>
@@ -35921,10 +35939,10 @@
         <v>1</v>
       </c>
       <c r="K855">
-        <v>7500000</v>
+        <v>58500000</v>
       </c>
       <c r="L855">
-        <v>7500000</v>
+        <v>58500000</v>
       </c>
     </row>
     <row r="856" spans="1:12">
@@ -35938,19 +35956,19 @@
         <v>13</v>
       </c>
       <c r="D856" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="E856" t="s">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="F856" t="s">
-        <v>150</v>
+        <v>341</v>
       </c>
       <c r="G856" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="H856" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="I856" t="s">
         <v>19</v>
@@ -35959,10 +35977,10 @@
         <v>1</v>
       </c>
       <c r="K856">
-        <v>520000</v>
+        <v>18000000</v>
       </c>
       <c r="L856">
-        <v>520000</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="857" spans="1:12">
@@ -35979,16 +35997,16 @@
         <v>294</v>
       </c>
       <c r="E857" t="s">
-        <v>393</v>
+        <v>340</v>
       </c>
       <c r="F857" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="G857" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="H857" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="I857" t="s">
         <v>19</v>
@@ -35997,10 +36015,10 @@
         <v>1</v>
       </c>
       <c r="K857">
-        <v>1230000</v>
+        <v>7500000</v>
       </c>
       <c r="L857">
-        <v>1230000</v>
+        <v>7500000</v>
       </c>
     </row>
     <row r="858" spans="1:12">
@@ -36026,7 +36044,7 @@
         <v>151</v>
       </c>
       <c r="H858" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="I858" t="s">
         <v>19</v>
@@ -36035,10 +36053,10 @@
         <v>1</v>
       </c>
       <c r="K858">
-        <v>600000</v>
+        <v>520000</v>
       </c>
       <c r="L858">
-        <v>600000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="859" spans="1:12">
@@ -36064,7 +36082,7 @@
         <v>315</v>
       </c>
       <c r="H859" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="I859" t="s">
         <v>19</v>
@@ -36073,10 +36091,10 @@
         <v>1</v>
       </c>
       <c r="K859">
-        <v>1050000</v>
+        <v>1230000</v>
       </c>
       <c r="L859">
-        <v>1050000</v>
+        <v>1230000</v>
       </c>
     </row>
     <row r="860" spans="1:12">
@@ -36090,19 +36108,19 @@
         <v>13</v>
       </c>
       <c r="D860" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E860" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F860" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G860" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H860" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="I860" t="s">
         <v>19</v>
@@ -36111,10 +36129,10 @@
         <v>1</v>
       </c>
       <c r="K860">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="L860">
-        <v>300000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="861" spans="1:12">
@@ -36128,19 +36146,19 @@
         <v>13</v>
       </c>
       <c r="D861" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="E861" t="s">
-        <v>149</v>
+        <v>393</v>
       </c>
       <c r="F861" t="s">
-        <v>150</v>
+        <v>394</v>
       </c>
       <c r="G861" t="s">
-        <v>151</v>
+        <v>315</v>
       </c>
       <c r="H861" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="I861" t="s">
         <v>19</v>
@@ -36149,10 +36167,10 @@
         <v>1</v>
       </c>
       <c r="K861">
-        <v>750000</v>
+        <v>1050000</v>
       </c>
       <c r="L861">
-        <v>750000</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="862" spans="1:12">
@@ -36166,19 +36184,19 @@
         <v>13</v>
       </c>
       <c r="D862" t="s">
-        <v>294</v>
+        <v>160</v>
       </c>
       <c r="E862" t="s">
-        <v>340</v>
+        <v>161</v>
       </c>
       <c r="F862" t="s">
-        <v>341</v>
+        <v>162</v>
       </c>
       <c r="G862" t="s">
-        <v>342</v>
+        <v>163</v>
       </c>
       <c r="H862" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="I862" t="s">
         <v>19</v>
@@ -36216,7 +36234,7 @@
         <v>151</v>
       </c>
       <c r="H863" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="I863" t="s">
         <v>19</v>
@@ -36225,10 +36243,10 @@
         <v>1</v>
       </c>
       <c r="K863">
-        <v>650000</v>
+        <v>750000</v>
       </c>
       <c r="L863">
-        <v>650000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="864" spans="1:12">
@@ -36254,7 +36272,7 @@
         <v>342</v>
       </c>
       <c r="H864" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="I864" t="s">
         <v>19</v>
@@ -36263,10 +36281,10 @@
         <v>1</v>
       </c>
       <c r="K864">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="L864">
-        <v>260000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="865" spans="1:12">
@@ -36292,7 +36310,7 @@
         <v>151</v>
       </c>
       <c r="H865" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="I865" t="s">
         <v>19</v>
@@ -36301,10 +36319,10 @@
         <v>1</v>
       </c>
       <c r="K865">
-        <v>2250000</v>
+        <v>650000</v>
       </c>
       <c r="L865">
-        <v>2250000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="866" spans="1:12">
@@ -36318,19 +36336,19 @@
         <v>13</v>
       </c>
       <c r="D866" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="E866" t="s">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="F866" t="s">
-        <v>150</v>
+        <v>341</v>
       </c>
       <c r="G866" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="H866" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="I866" t="s">
         <v>19</v>
@@ -36339,10 +36357,10 @@
         <v>1</v>
       </c>
       <c r="K866">
-        <v>8275000</v>
+        <v>260000</v>
       </c>
       <c r="L866">
-        <v>8275000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="867" spans="1:12">
@@ -36356,19 +36374,19 @@
         <v>13</v>
       </c>
       <c r="D867" t="s">
-        <v>335</v>
+        <v>148</v>
       </c>
       <c r="E867" t="s">
-        <v>406</v>
+        <v>149</v>
       </c>
       <c r="F867" t="s">
-        <v>407</v>
+        <v>150</v>
       </c>
       <c r="G867" t="s">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="H867" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="I867" t="s">
         <v>19</v>
@@ -36377,10 +36395,10 @@
         <v>1</v>
       </c>
       <c r="K867">
-        <v>1040000</v>
+        <v>2250000</v>
       </c>
       <c r="L867">
-        <v>1040000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="868" spans="1:12">
@@ -36394,19 +36412,19 @@
         <v>13</v>
       </c>
       <c r="D868" t="s">
-        <v>335</v>
+        <v>148</v>
       </c>
       <c r="E868" t="s">
-        <v>406</v>
+        <v>149</v>
       </c>
       <c r="F868" t="s">
-        <v>407</v>
+        <v>150</v>
       </c>
       <c r="G868" t="s">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="H868" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="I868" t="s">
         <v>19</v>
@@ -36415,10 +36433,10 @@
         <v>1</v>
       </c>
       <c r="K868">
-        <v>900000</v>
+        <v>8275000</v>
       </c>
       <c r="L868">
-        <v>900000</v>
+        <v>8275000</v>
       </c>
     </row>
     <row r="869" spans="1:12">
@@ -36432,19 +36450,19 @@
         <v>13</v>
       </c>
       <c r="D869" t="s">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="E869" t="s">
-        <v>149</v>
+        <v>406</v>
       </c>
       <c r="F869" t="s">
-        <v>150</v>
+        <v>407</v>
       </c>
       <c r="G869" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="H869" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="I869" t="s">
         <v>19</v>
@@ -36453,10 +36471,10 @@
         <v>1</v>
       </c>
       <c r="K869">
-        <v>130000</v>
+        <v>1040000</v>
       </c>
       <c r="L869">
-        <v>130000</v>
+        <v>1040000</v>
       </c>
     </row>
     <row r="870" spans="1:12">
@@ -36470,19 +36488,19 @@
         <v>13</v>
       </c>
       <c r="D870" t="s">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="E870" t="s">
-        <v>149</v>
+        <v>406</v>
       </c>
       <c r="F870" t="s">
-        <v>150</v>
+        <v>407</v>
       </c>
       <c r="G870" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="H870" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="I870" t="s">
         <v>19</v>
@@ -36491,10 +36509,10 @@
         <v>1</v>
       </c>
       <c r="K870">
-        <v>150000</v>
+        <v>900000</v>
       </c>
       <c r="L870">
-        <v>150000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="871" spans="1:12">
@@ -36520,7 +36538,7 @@
         <v>151</v>
       </c>
       <c r="H871" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="I871" t="s">
         <v>19</v>
@@ -36529,10 +36547,10 @@
         <v>1</v>
       </c>
       <c r="K871">
-        <v>210000</v>
+        <v>130000</v>
       </c>
       <c r="L871">
-        <v>210000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="872" spans="1:12">
@@ -36558,7 +36576,7 @@
         <v>151</v>
       </c>
       <c r="H872" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="I872" t="s">
         <v>19</v>
@@ -36584,19 +36602,19 @@
         <v>13</v>
       </c>
       <c r="D873" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="E873" t="s">
-        <v>1005</v>
+        <v>149</v>
       </c>
       <c r="F873" t="s">
-        <v>1006</v>
+        <v>150</v>
       </c>
       <c r="G873" t="s">
-        <v>1007</v>
+        <v>151</v>
       </c>
       <c r="H873" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="I873" t="s">
         <v>19</v>
@@ -36605,10 +36623,10 @@
         <v>1</v>
       </c>
       <c r="K873">
-        <v>154700000</v>
+        <v>210000</v>
       </c>
       <c r="L873">
-        <v>154700000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="874" spans="1:12">
@@ -36622,19 +36640,19 @@
         <v>13</v>
       </c>
       <c r="D874" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="E874" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F874" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G874" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H874" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="I874" t="s">
         <v>19</v>
@@ -36643,10 +36661,10 @@
         <v>1</v>
       </c>
       <c r="K874">
-        <v>28260000</v>
+        <v>150000</v>
       </c>
       <c r="L874">
-        <v>28260000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="875" spans="1:12">
@@ -36660,19 +36678,19 @@
         <v>13</v>
       </c>
       <c r="D875" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="E875" t="s">
-        <v>144</v>
+        <v>1011</v>
       </c>
       <c r="F875" t="s">
-        <v>145</v>
+        <v>1012</v>
       </c>
       <c r="G875" t="s">
-        <v>146</v>
+        <v>1013</v>
       </c>
       <c r="H875" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="I875" t="s">
         <v>19</v>
@@ -36681,10 +36699,10 @@
         <v>1</v>
       </c>
       <c r="K875">
-        <v>7950000</v>
+        <v>154700000</v>
       </c>
       <c r="L875">
-        <v>7950000</v>
+        <v>154700000</v>
       </c>
     </row>
     <row r="876" spans="1:12">
@@ -36698,19 +36716,19 @@
         <v>13</v>
       </c>
       <c r="D876" t="s">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="E876" t="s">
-        <v>393</v>
+        <v>144</v>
       </c>
       <c r="F876" t="s">
-        <v>394</v>
+        <v>145</v>
       </c>
       <c r="G876" t="s">
-        <v>315</v>
+        <v>146</v>
       </c>
       <c r="H876" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="I876" t="s">
         <v>19</v>
@@ -36719,10 +36737,10 @@
         <v>1</v>
       </c>
       <c r="K876">
-        <v>600000</v>
+        <v>28260000</v>
       </c>
       <c r="L876">
-        <v>600000</v>
+        <v>28260000</v>
       </c>
     </row>
     <row r="877" spans="1:12">
@@ -36736,19 +36754,19 @@
         <v>13</v>
       </c>
       <c r="D877" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="E877" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F877" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G877" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H877" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="I877" t="s">
         <v>19</v>
@@ -36757,10 +36775,10 @@
         <v>1</v>
       </c>
       <c r="K877">
-        <v>130000</v>
+        <v>7950000</v>
       </c>
       <c r="L877">
-        <v>130000</v>
+        <v>7950000</v>
       </c>
     </row>
     <row r="878" spans="1:12">
@@ -36774,19 +36792,19 @@
         <v>13</v>
       </c>
       <c r="D878" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="E878" t="s">
-        <v>153</v>
+        <v>393</v>
       </c>
       <c r="F878" t="s">
-        <v>154</v>
+        <v>394</v>
       </c>
       <c r="G878" t="s">
-        <v>155</v>
+        <v>315</v>
       </c>
       <c r="H878" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="I878" t="s">
         <v>19</v>
@@ -36795,10 +36813,10 @@
         <v>1</v>
       </c>
       <c r="K878">
-        <v>150000</v>
+        <v>600000</v>
       </c>
       <c r="L878">
-        <v>150000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="879" spans="1:12">
@@ -36812,19 +36830,19 @@
         <v>13</v>
       </c>
       <c r="D879" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="E879" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F879" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G879" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H879" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="I879" t="s">
         <v>19</v>
@@ -36833,10 +36851,10 @@
         <v>1</v>
       </c>
       <c r="K879">
-        <v>420000</v>
+        <v>130000</v>
       </c>
       <c r="L879">
-        <v>420000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="880" spans="1:12">
@@ -36850,19 +36868,19 @@
         <v>13</v>
       </c>
       <c r="D880" t="s">
-        <v>335</v>
+        <v>152</v>
       </c>
       <c r="E880" t="s">
-        <v>336</v>
+        <v>153</v>
       </c>
       <c r="F880" t="s">
-        <v>337</v>
+        <v>154</v>
       </c>
       <c r="G880" t="s">
-        <v>315</v>
+        <v>155</v>
       </c>
       <c r="H880" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="I880" t="s">
         <v>19</v>
@@ -36871,10 +36889,10 @@
         <v>1</v>
       </c>
       <c r="K880">
-        <v>1260000</v>
+        <v>150000</v>
       </c>
       <c r="L880">
-        <v>1260000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="881" spans="1:12">
@@ -36888,19 +36906,19 @@
         <v>13</v>
       </c>
       <c r="D881" t="s">
-        <v>774</v>
+        <v>24</v>
       </c>
       <c r="E881" t="s">
-        <v>1015</v>
+        <v>144</v>
       </c>
       <c r="F881" t="s">
-        <v>1016</v>
+        <v>145</v>
       </c>
       <c r="G881" t="s">
-        <v>1017</v>
+        <v>146</v>
       </c>
       <c r="H881" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="I881" t="s">
         <v>19</v>
@@ -36909,10 +36927,10 @@
         <v>1</v>
       </c>
       <c r="K881">
-        <v>300000</v>
+        <v>420000</v>
       </c>
       <c r="L881">
-        <v>300000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="882" spans="1:12">
@@ -36926,19 +36944,19 @@
         <v>13</v>
       </c>
       <c r="D882" t="s">
-        <v>24</v>
+        <v>335</v>
       </c>
       <c r="E882" t="s">
-        <v>144</v>
+        <v>336</v>
       </c>
       <c r="F882" t="s">
-        <v>145</v>
+        <v>337</v>
       </c>
       <c r="G882" t="s">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="H882" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="I882" t="s">
         <v>19</v>
@@ -36947,10 +36965,10 @@
         <v>1</v>
       </c>
       <c r="K882">
-        <v>300000</v>
+        <v>1260000</v>
       </c>
       <c r="L882">
-        <v>300000</v>
+        <v>1260000</v>
       </c>
     </row>
     <row r="883" spans="1:12">
@@ -36964,19 +36982,19 @@
         <v>13</v>
       </c>
       <c r="D883" t="s">
-        <v>335</v>
+        <v>774</v>
       </c>
       <c r="E883" t="s">
-        <v>336</v>
+        <v>1021</v>
       </c>
       <c r="F883" t="s">
-        <v>337</v>
+        <v>1022</v>
       </c>
       <c r="G883" t="s">
-        <v>315</v>
+        <v>1023</v>
       </c>
       <c r="H883" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="I883" t="s">
         <v>19</v>
@@ -36985,10 +37003,10 @@
         <v>1</v>
       </c>
       <c r="K883">
-        <v>900000</v>
+        <v>300000</v>
       </c>
       <c r="L883">
-        <v>900000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="884" spans="1:12">
@@ -37002,19 +37020,19 @@
         <v>13</v>
       </c>
       <c r="D884" t="s">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="E884" t="s">
-        <v>295</v>
+        <v>144</v>
       </c>
       <c r="F884" t="s">
-        <v>296</v>
+        <v>145</v>
       </c>
       <c r="G884" t="s">
-        <v>297</v>
+        <v>146</v>
       </c>
       <c r="H884" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="I884" t="s">
         <v>19</v>
@@ -37023,10 +37041,10 @@
         <v>1</v>
       </c>
       <c r="K884">
-        <v>13535700</v>
+        <v>300000</v>
       </c>
       <c r="L884">
-        <v>13535700</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="885" spans="1:12">
@@ -37040,19 +37058,19 @@
         <v>13</v>
       </c>
       <c r="D885" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="E885" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="F885" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="G885" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="H885" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="I885" t="s">
         <v>19</v>
@@ -37061,10 +37079,10 @@
         <v>1</v>
       </c>
       <c r="K885">
-        <v>37650000</v>
+        <v>900000</v>
       </c>
       <c r="L885">
-        <v>37650000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="886" spans="1:12">
@@ -37078,19 +37096,19 @@
         <v>13</v>
       </c>
       <c r="D886" t="s">
-        <v>902</v>
+        <v>294</v>
       </c>
       <c r="E886" t="s">
-        <v>1021</v>
+        <v>295</v>
       </c>
       <c r="F886" t="s">
-        <v>1022</v>
+        <v>296</v>
       </c>
       <c r="G886" t="s">
-        <v>1023</v>
+        <v>297</v>
       </c>
       <c r="H886" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="I886" t="s">
         <v>19</v>
@@ -37099,10 +37117,10 @@
         <v>1</v>
       </c>
       <c r="K886">
-        <v>216703000</v>
+        <v>13535700</v>
       </c>
       <c r="L886">
-        <v>216703000</v>
+        <v>13535700</v>
       </c>
     </row>
     <row r="887" spans="1:12">
@@ -37116,19 +37134,19 @@
         <v>13</v>
       </c>
       <c r="D887" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="E887" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="F887" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="G887" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="H887" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="I887" t="s">
         <v>19</v>
@@ -37137,10 +37155,10 @@
         <v>1</v>
       </c>
       <c r="K887">
-        <v>2338100</v>
+        <v>37650000</v>
       </c>
       <c r="L887">
-        <v>2338100</v>
+        <v>37650000</v>
       </c>
     </row>
     <row r="888" spans="1:12">
@@ -37154,19 +37172,19 @@
         <v>13</v>
       </c>
       <c r="D888" t="s">
-        <v>774</v>
+        <v>908</v>
       </c>
       <c r="E888" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F888" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="G888" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H888" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="I888" t="s">
         <v>19</v>
@@ -37175,10 +37193,10 @@
         <v>1</v>
       </c>
       <c r="K888">
-        <v>1152800</v>
+        <v>216703000</v>
       </c>
       <c r="L888">
-        <v>1152800</v>
+        <v>216703000</v>
       </c>
     </row>
     <row r="889" spans="1:12">
@@ -37204,7 +37222,7 @@
         <v>342</v>
       </c>
       <c r="H889" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="I889" t="s">
         <v>19</v>
@@ -37213,10 +37231,10 @@
         <v>1</v>
       </c>
       <c r="K889">
-        <v>1274000</v>
+        <v>2338100</v>
       </c>
       <c r="L889">
-        <v>1274000</v>
+        <v>2338100</v>
       </c>
     </row>
     <row r="890" spans="1:12">
@@ -37230,19 +37248,19 @@
         <v>13</v>
       </c>
       <c r="D890" t="s">
-        <v>160</v>
+        <v>774</v>
       </c>
       <c r="E890" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="F890" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="G890" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="H890" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="I890" t="s">
         <v>19</v>
@@ -37251,10 +37269,10 @@
         <v>1</v>
       </c>
       <c r="K890">
-        <v>125600000</v>
+        <v>1152800</v>
       </c>
       <c r="L890">
-        <v>125600000</v>
+        <v>1152800</v>
       </c>
     </row>
     <row r="891" spans="1:12">
@@ -37268,19 +37286,19 @@
         <v>13</v>
       </c>
       <c r="D891" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="E891" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="F891" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="G891" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="H891" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="I891" t="s">
         <v>19</v>
@@ -37289,10 +37307,10 @@
         <v>1</v>
       </c>
       <c r="K891">
-        <v>32100000</v>
+        <v>1274000</v>
       </c>
       <c r="L891">
-        <v>32100000</v>
+        <v>1274000</v>
       </c>
     </row>
     <row r="892" spans="1:12">
@@ -37306,19 +37324,19 @@
         <v>13</v>
       </c>
       <c r="D892" t="s">
-        <v>294</v>
+        <v>160</v>
       </c>
       <c r="E892" t="s">
-        <v>393</v>
+        <v>1036</v>
       </c>
       <c r="F892" t="s">
-        <v>394</v>
+        <v>1037</v>
       </c>
       <c r="G892" t="s">
-        <v>315</v>
+        <v>1038</v>
       </c>
       <c r="H892" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="I892" t="s">
         <v>19</v>
@@ -37327,10 +37345,10 @@
         <v>1</v>
       </c>
       <c r="K892">
-        <v>3169700</v>
+        <v>125600000</v>
       </c>
       <c r="L892">
-        <v>3169700</v>
+        <v>125600000</v>
       </c>
     </row>
     <row r="893" spans="1:12">
@@ -37344,19 +37362,19 @@
         <v>13</v>
       </c>
       <c r="D893" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="E893" t="s">
-        <v>1036</v>
+        <v>393</v>
       </c>
       <c r="F893" t="s">
-        <v>1037</v>
+        <v>394</v>
       </c>
       <c r="G893" t="s">
-        <v>1038</v>
+        <v>315</v>
       </c>
       <c r="H893" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="I893" t="s">
         <v>19</v>
@@ -37365,10 +37383,10 @@
         <v>1</v>
       </c>
       <c r="K893">
-        <v>510700000</v>
+        <v>32100000</v>
       </c>
       <c r="L893">
-        <v>510700000</v>
+        <v>32100000</v>
       </c>
     </row>
     <row r="894" spans="1:12">
@@ -37382,20 +37400,20 @@
         <v>13</v>
       </c>
       <c r="D894" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="E894" t="s">
-        <v>1040</v>
+        <v>393</v>
       </c>
       <c r="F894" t="s">
+        <v>394</v>
+      </c>
+      <c r="G894" t="s">
+        <v>315</v>
+      </c>
+      <c r="H894" t="s">
         <v>1041</v>
       </c>
-      <c r="G894" t="s">
-        <v>1042</v>
-      </c>
-      <c r="H894" t="s">
-        <v>1043</v>
-      </c>
       <c r="I894" t="s">
         <v>19</v>
       </c>
@@ -37403,10 +37421,10 @@
         <v>1</v>
       </c>
       <c r="K894">
-        <v>115820000</v>
+        <v>3169700</v>
       </c>
       <c r="L894">
-        <v>115820000</v>
+        <v>3169700</v>
       </c>
     </row>
     <row r="895" spans="1:12">
@@ -37420,30 +37438,106 @@
         <v>13</v>
       </c>
       <c r="D895" t="s">
+        <v>179</v>
+      </c>
+      <c r="E895" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F895" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G895" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H895" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I895" t="s">
+        <v>19</v>
+      </c>
+      <c r="J895">
+        <v>1</v>
+      </c>
+      <c r="K895">
+        <v>510700000</v>
+      </c>
+      <c r="L895">
+        <v>510700000</v>
+      </c>
+    </row>
+    <row r="896" spans="1:12">
+      <c r="A896">
+        <v>893</v>
+      </c>
+      <c r="B896">
+        <v>626402</v>
+      </c>
+      <c r="C896" t="s">
+        <v>13</v>
+      </c>
+      <c r="D896" t="s">
+        <v>179</v>
+      </c>
+      <c r="E896" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F896" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G896" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H896" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I896" t="s">
+        <v>19</v>
+      </c>
+      <c r="J896">
+        <v>1</v>
+      </c>
+      <c r="K896">
+        <v>115820000</v>
+      </c>
+      <c r="L896">
+        <v>115820000</v>
+      </c>
+    </row>
+    <row r="897" spans="1:12">
+      <c r="A897">
+        <v>894</v>
+      </c>
+      <c r="B897">
+        <v>626402</v>
+      </c>
+      <c r="C897" t="s">
+        <v>13</v>
+      </c>
+      <c r="D897" t="s">
         <v>96</v>
       </c>
-      <c r="E895" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F895" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G895" t="s">
-        <v>1046</v>
-      </c>
-      <c r="H895" t="s">
-        <v>1043</v>
-      </c>
-      <c r="I895" t="s">
-        <v>19</v>
-      </c>
-      <c r="J895">
-        <v>1</v>
-      </c>
-      <c r="K895">
+      <c r="E897" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F897" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G897" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H897" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I897" t="s">
+        <v>19</v>
+      </c>
+      <c r="J897">
+        <v>1</v>
+      </c>
+      <c r="K897">
         <v>148500000</v>
       </c>
-      <c r="L895">
+      <c r="L897">
         <v>148500000</v>
       </c>
     </row>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2245">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -6512,6 +6512,30 @@
     <t>'626402.175.522151.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.301.0F.000985</t>
   </si>
   <si>
+    <t>2023-06-06</t>
+  </si>
+  <si>
+    <t>'00476T</t>
+  </si>
+  <si>
+    <t>'231751303012549</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang. Uang lembur PPNPN bulan Januari 2023 untuk 3 pegawai berdasarkan SPKL No B.288/BRSDM.4/KP.440/I/2023 tgl 31/1/2023 dan B.114/BRSDM.4/KP.440/I/2023 tgl 05/1/2023</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GA.001382</t>
+  </si>
+  <si>
+    <t>'00477T</t>
+  </si>
+  <si>
+    <t>'231751303012578</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang. Uang lembur PPNPN bulan Februari 2023 untuk 3 pegawai berdasarkan SPKL No B.497/BRSDM.4/KP.440/II/2023 tgl 21/2/2023</t>
+  </si>
+  <si>
     <t>'00479T</t>
   </si>
   <si>
@@ -6593,6 +6617,24 @@
     <t>'626402.175.524119.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0B.000129</t>
   </si>
   <si>
+    <t>'00485T</t>
+  </si>
+  <si>
+    <t>'231751303012579</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang. Uang lembur PPNPN bulan Maret 2023 untuk 1 pegawai berdasarkan SPKL No B.667/BRSDM.4/KP.440/III/2023 tgl 16/3/2023</t>
+  </si>
+  <si>
+    <t>'00486T</t>
+  </si>
+  <si>
+    <t>'231751303012576</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perjadin Menghadiri Rakornis Pusat Pendidikan sesuai ST No:B.976/BRSDM.4/KP.440/V/2023 Tgl 08-05-2023 an. Wishnu C. Pratama, dkk</t>
+  </si>
+  <si>
     <t>2023-06-05</t>
   </si>
   <si>
@@ -6660,6 +6702,54 @@
   </si>
   <si>
     <t>Pembayaran belanja pegawai Pusdik uang lembur dan uang makan lembur bulan Maret 2023 untuk 8 pegawai sesuai SPKL no :B.668, 685/BRSDM.4/KP.440/III/2023 tanggal 16 dan 20 Maret 2023</t>
+  </si>
+  <si>
+    <t>'00499T</t>
+  </si>
+  <si>
+    <t>'231751303012546</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya penelitian peserta lanjutan tubel Prog S2 IPB sesuai dengan SK KPA Ses BRSDM KP Nomor 757/KPA/BRSDM/VIII/2021 Tgl 13-8-2021 an. Nurul Tri Jayanti</t>
+  </si>
+  <si>
+    <t>'00500T</t>
+  </si>
+  <si>
+    <t>'231751303012545</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya jurnal peserta lanjutan tubel Prog S3 UB, sesuai SK Ka BRSDM KP Nomor: 107/KEPBRSDM/2020 Tanggal 18 Agustus 2020 an. Afandi Saputra</t>
+  </si>
+  <si>
+    <t>'00501T</t>
+  </si>
+  <si>
+    <t>'231751303012577</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Keputusan Nomor:KEP.88/PPK/BRSDM.1/I/2023 Tgl.5 Januari 2023 (Honorarium Tim Pengelola Informasi dan Dokumentasi BRSDM Bulan Januari s/d April 2023)</t>
+  </si>
+  <si>
+    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.101.0A.000264</t>
+  </si>
+  <si>
+    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.101.0A.000265</t>
+  </si>
+  <si>
+    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.101.0A.000266</t>
+  </si>
+  <si>
+    <t>'00503T</t>
+  </si>
+  <si>
+    <t>'231751701003236</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.106.0B.000305</t>
+  </si>
+  <si>
+    <t>'626402.175.522151.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.960.101.0B.000761</t>
   </si>
 </sst>
 </file>
@@ -7001,7 +7091,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L2093"/>
+  <dimension ref="A1:L2106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -83294,19 +83384,19 @@
         <v>13</v>
       </c>
       <c r="D2010" t="s">
-        <v>2156</v>
+        <v>2165</v>
       </c>
       <c r="E2010" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="F2010" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="G2010" t="s">
-        <v>1210</v>
+        <v>2168</v>
       </c>
       <c r="H2010" t="s">
-        <v>170</v>
+        <v>2169</v>
       </c>
       <c r="I2010" t="s">
         <v>19</v>
@@ -83315,10 +83405,10 @@
         <v>1</v>
       </c>
       <c r="K2010">
-        <v>27993000</v>
+        <v>237000</v>
       </c>
       <c r="L2010">
-        <v>27993000</v>
+        <v>237000</v>
       </c>
     </row>
     <row r="2011" spans="1:12">
@@ -83332,19 +83422,19 @@
         <v>13</v>
       </c>
       <c r="D2011" t="s">
-        <v>2156</v>
+        <v>2165</v>
       </c>
       <c r="E2011" t="s">
-        <v>2165</v>
+        <v>2170</v>
       </c>
       <c r="F2011" t="s">
-        <v>2166</v>
+        <v>2171</v>
       </c>
       <c r="G2011" t="s">
-        <v>1210</v>
+        <v>2172</v>
       </c>
       <c r="H2011" t="s">
-        <v>374</v>
+        <v>2169</v>
       </c>
       <c r="I2011" t="s">
         <v>19</v>
@@ -83353,10 +83443,10 @@
         <v>1</v>
       </c>
       <c r="K2011">
-        <v>20000000</v>
+        <v>207000</v>
       </c>
       <c r="L2011">
-        <v>20000000</v>
+        <v>207000</v>
       </c>
     </row>
     <row r="2012" spans="1:12">
@@ -83373,16 +83463,16 @@
         <v>2156</v>
       </c>
       <c r="E2012" t="s">
-        <v>2165</v>
+        <v>2173</v>
       </c>
       <c r="F2012" t="s">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="G2012" t="s">
         <v>1210</v>
       </c>
       <c r="H2012" t="s">
-        <v>796</v>
+        <v>170</v>
       </c>
       <c r="I2012" t="s">
         <v>19</v>
@@ -83391,10 +83481,10 @@
         <v>1</v>
       </c>
       <c r="K2012">
-        <v>2798000</v>
+        <v>27993000</v>
       </c>
       <c r="L2012">
-        <v>2798000</v>
+        <v>27993000</v>
       </c>
     </row>
     <row r="2013" spans="1:12">
@@ -83411,16 +83501,16 @@
         <v>2156</v>
       </c>
       <c r="E2013" t="s">
-        <v>2165</v>
+        <v>2173</v>
       </c>
       <c r="F2013" t="s">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="G2013" t="s">
         <v>1210</v>
       </c>
       <c r="H2013" t="s">
-        <v>173</v>
+        <v>374</v>
       </c>
       <c r="I2013" t="s">
         <v>19</v>
@@ -83429,10 +83519,10 @@
         <v>1</v>
       </c>
       <c r="K2013">
-        <v>121284</v>
+        <v>20000000</v>
       </c>
       <c r="L2013">
-        <v>121284</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="2014" spans="1:12">
@@ -83449,16 +83539,16 @@
         <v>2156</v>
       </c>
       <c r="E2014" t="s">
-        <v>2165</v>
+        <v>2173</v>
       </c>
       <c r="F2014" t="s">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="G2014" t="s">
         <v>1210</v>
       </c>
       <c r="H2014" t="s">
-        <v>755</v>
+        <v>796</v>
       </c>
       <c r="I2014" t="s">
         <v>19</v>
@@ -83467,10 +83557,10 @@
         <v>1</v>
       </c>
       <c r="K2014">
-        <v>2327770</v>
+        <v>2798000</v>
       </c>
       <c r="L2014">
-        <v>2327770</v>
+        <v>2798000</v>
       </c>
     </row>
     <row r="2015" spans="1:12">
@@ -83487,16 +83577,16 @@
         <v>2156</v>
       </c>
       <c r="E2015" t="s">
-        <v>2165</v>
+        <v>2173</v>
       </c>
       <c r="F2015" t="s">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="G2015" t="s">
         <v>1210</v>
       </c>
       <c r="H2015" t="s">
-        <v>895</v>
+        <v>173</v>
       </c>
       <c r="I2015" t="s">
         <v>19</v>
@@ -83505,10 +83595,10 @@
         <v>1</v>
       </c>
       <c r="K2015">
-        <v>3005000</v>
+        <v>121284</v>
       </c>
       <c r="L2015">
-        <v>3005000</v>
+        <v>121284</v>
       </c>
     </row>
     <row r="2016" spans="1:12">
@@ -83525,16 +83615,16 @@
         <v>2156</v>
       </c>
       <c r="E2016" t="s">
-        <v>2165</v>
+        <v>2173</v>
       </c>
       <c r="F2016" t="s">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="G2016" t="s">
         <v>1210</v>
       </c>
       <c r="H2016" t="s">
-        <v>897</v>
+        <v>755</v>
       </c>
       <c r="I2016" t="s">
         <v>19</v>
@@ -83543,10 +83633,10 @@
         <v>1</v>
       </c>
       <c r="K2016">
-        <v>3012000</v>
+        <v>2327770</v>
       </c>
       <c r="L2016">
-        <v>3012000</v>
+        <v>2327770</v>
       </c>
     </row>
     <row r="2017" spans="1:12">
@@ -83563,16 +83653,16 @@
         <v>2156</v>
       </c>
       <c r="E2017" t="s">
-        <v>2165</v>
+        <v>2173</v>
       </c>
       <c r="F2017" t="s">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="G2017" t="s">
         <v>1210</v>
       </c>
       <c r="H2017" t="s">
-        <v>814</v>
+        <v>895</v>
       </c>
       <c r="I2017" t="s">
         <v>19</v>
@@ -83581,10 +83671,10 @@
         <v>1</v>
       </c>
       <c r="K2017">
-        <v>3000000</v>
+        <v>3005000</v>
       </c>
       <c r="L2017">
-        <v>3000000</v>
+        <v>3005000</v>
       </c>
     </row>
     <row r="2018" spans="1:12">
@@ -83601,16 +83691,16 @@
         <v>2156</v>
       </c>
       <c r="E2018" t="s">
-        <v>2165</v>
+        <v>2173</v>
       </c>
       <c r="F2018" t="s">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="G2018" t="s">
         <v>1210</v>
       </c>
       <c r="H2018" t="s">
-        <v>815</v>
+        <v>897</v>
       </c>
       <c r="I2018" t="s">
         <v>19</v>
@@ -83619,10 +83709,10 @@
         <v>1</v>
       </c>
       <c r="K2018">
-        <v>9000000</v>
+        <v>3012000</v>
       </c>
       <c r="L2018">
-        <v>9000000</v>
+        <v>3012000</v>
       </c>
     </row>
     <row r="2019" spans="1:12">
@@ -83639,16 +83729,16 @@
         <v>2156</v>
       </c>
       <c r="E2019" t="s">
-        <v>2165</v>
+        <v>2173</v>
       </c>
       <c r="F2019" t="s">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="G2019" t="s">
         <v>1210</v>
       </c>
       <c r="H2019" t="s">
-        <v>582</v>
+        <v>814</v>
       </c>
       <c r="I2019" t="s">
         <v>19</v>
@@ -83657,10 +83747,10 @@
         <v>1</v>
       </c>
       <c r="K2019">
-        <v>1639760</v>
+        <v>3000000</v>
       </c>
       <c r="L2019">
-        <v>1639760</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="2020" spans="1:12">
@@ -83677,16 +83767,16 @@
         <v>2156</v>
       </c>
       <c r="E2020" t="s">
-        <v>2165</v>
+        <v>2173</v>
       </c>
       <c r="F2020" t="s">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="G2020" t="s">
         <v>1210</v>
       </c>
       <c r="H2020" t="s">
-        <v>2155</v>
+        <v>815</v>
       </c>
       <c r="I2020" t="s">
         <v>19</v>
@@ -83695,10 +83785,10 @@
         <v>1</v>
       </c>
       <c r="K2020">
-        <v>150000</v>
+        <v>9000000</v>
       </c>
       <c r="L2020">
-        <v>150000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="2021" spans="1:12">
@@ -83715,16 +83805,16 @@
         <v>2156</v>
       </c>
       <c r="E2021" t="s">
-        <v>2165</v>
+        <v>2173</v>
       </c>
       <c r="F2021" t="s">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="G2021" t="s">
         <v>1210</v>
       </c>
       <c r="H2021" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="I2021" t="s">
         <v>19</v>
@@ -83733,10 +83823,10 @@
         <v>1</v>
       </c>
       <c r="K2021">
-        <v>520000</v>
+        <v>1639760</v>
       </c>
       <c r="L2021">
-        <v>520000</v>
+        <v>1639760</v>
       </c>
     </row>
     <row r="2022" spans="1:12">
@@ -83753,16 +83843,16 @@
         <v>2156</v>
       </c>
       <c r="E2022" t="s">
-        <v>2165</v>
+        <v>2173</v>
       </c>
       <c r="F2022" t="s">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="G2022" t="s">
         <v>1210</v>
       </c>
       <c r="H2022" t="s">
-        <v>775</v>
+        <v>2155</v>
       </c>
       <c r="I2022" t="s">
         <v>19</v>
@@ -83771,10 +83861,10 @@
         <v>1</v>
       </c>
       <c r="K2022">
-        <v>600000</v>
+        <v>150000</v>
       </c>
       <c r="L2022">
-        <v>600000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="2023" spans="1:12">
@@ -83791,16 +83881,16 @@
         <v>2156</v>
       </c>
       <c r="E2023" t="s">
-        <v>2165</v>
+        <v>2173</v>
       </c>
       <c r="F2023" t="s">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="G2023" t="s">
         <v>1210</v>
       </c>
       <c r="H2023" t="s">
-        <v>2167</v>
+        <v>774</v>
       </c>
       <c r="I2023" t="s">
         <v>19</v>
@@ -83809,10 +83899,10 @@
         <v>1</v>
       </c>
       <c r="K2023">
-        <v>25550000</v>
+        <v>520000</v>
       </c>
       <c r="L2023">
-        <v>25550000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="2024" spans="1:12">
@@ -83826,19 +83916,19 @@
         <v>13</v>
       </c>
       <c r="D2024" t="s">
-        <v>2168</v>
+        <v>2156</v>
       </c>
       <c r="E2024" t="s">
-        <v>2169</v>
+        <v>2173</v>
       </c>
       <c r="F2024" t="s">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="G2024" t="s">
-        <v>2171</v>
+        <v>1210</v>
       </c>
       <c r="H2024" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="I2024" t="s">
         <v>19</v>
@@ -83847,10 +83937,10 @@
         <v>1</v>
       </c>
       <c r="K2024">
-        <v>3333610</v>
+        <v>600000</v>
       </c>
       <c r="L2024">
-        <v>3333610</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="2025" spans="1:12">
@@ -83864,19 +83954,19 @@
         <v>13</v>
       </c>
       <c r="D2025" t="s">
-        <v>2168</v>
+        <v>2156</v>
       </c>
       <c r="E2025" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="F2025" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="G2025" t="s">
-        <v>2174</v>
+        <v>1210</v>
       </c>
       <c r="H2025" t="s">
-        <v>261</v>
+        <v>2175</v>
       </c>
       <c r="I2025" t="s">
         <v>19</v>
@@ -83885,10 +83975,10 @@
         <v>1</v>
       </c>
       <c r="K2025">
-        <v>5639500</v>
+        <v>25550000</v>
       </c>
       <c r="L2025">
-        <v>5639500</v>
+        <v>25550000</v>
       </c>
     </row>
     <row r="2026" spans="1:12">
@@ -83902,19 +83992,19 @@
         <v>13</v>
       </c>
       <c r="D2026" t="s">
-        <v>2156</v>
+        <v>2176</v>
       </c>
       <c r="E2026" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="F2026" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="G2026" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="H2026" t="s">
-        <v>261</v>
+        <v>763</v>
       </c>
       <c r="I2026" t="s">
         <v>19</v>
@@ -83923,10 +84013,10 @@
         <v>1</v>
       </c>
       <c r="K2026">
-        <v>4241379</v>
+        <v>3333610</v>
       </c>
       <c r="L2026">
-        <v>4241379</v>
+        <v>3333610</v>
       </c>
     </row>
     <row r="2027" spans="1:12">
@@ -83940,19 +84030,19 @@
         <v>13</v>
       </c>
       <c r="D2027" t="s">
-        <v>2138</v>
+        <v>2176</v>
       </c>
       <c r="E2027" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="F2027" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="G2027" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="H2027" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="I2027" t="s">
         <v>19</v>
@@ -83961,10 +84051,10 @@
         <v>1</v>
       </c>
       <c r="K2027">
-        <v>6271000</v>
+        <v>5639500</v>
       </c>
       <c r="L2027">
-        <v>6271000</v>
+        <v>5639500</v>
       </c>
     </row>
     <row r="2028" spans="1:12">
@@ -83978,19 +84068,19 @@
         <v>13</v>
       </c>
       <c r="D2028" t="s">
-        <v>2168</v>
+        <v>2156</v>
       </c>
       <c r="E2028" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="F2028" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="G2028" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="H2028" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="I2028" t="s">
         <v>19</v>
@@ -83999,10 +84089,10 @@
         <v>1</v>
       </c>
       <c r="K2028">
-        <v>1142000</v>
+        <v>4241379</v>
       </c>
       <c r="L2028">
-        <v>1142000</v>
+        <v>4241379</v>
       </c>
     </row>
     <row r="2029" spans="1:12">
@@ -84016,19 +84106,19 @@
         <v>13</v>
       </c>
       <c r="D2029" t="s">
-        <v>2168</v>
+        <v>2138</v>
       </c>
       <c r="E2029" t="s">
-        <v>2181</v>
+        <v>2186</v>
       </c>
       <c r="F2029" t="s">
-        <v>2182</v>
+        <v>2187</v>
       </c>
       <c r="G2029" t="s">
-        <v>2183</v>
+        <v>2188</v>
       </c>
       <c r="H2029" t="s">
-        <v>1408</v>
+        <v>342</v>
       </c>
       <c r="I2029" t="s">
         <v>19</v>
@@ -84037,10 +84127,10 @@
         <v>1</v>
       </c>
       <c r="K2029">
-        <v>1930820</v>
+        <v>6271000</v>
       </c>
       <c r="L2029">
-        <v>1930820</v>
+        <v>6271000</v>
       </c>
     </row>
     <row r="2030" spans="1:12">
@@ -84054,19 +84144,19 @@
         <v>13</v>
       </c>
       <c r="D2030" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2030" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2030" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2030" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2030" t="s">
-        <v>1509</v>
+        <v>312</v>
       </c>
       <c r="I2030" t="s">
         <v>19</v>
@@ -84075,10 +84165,10 @@
         <v>1</v>
       </c>
       <c r="K2030">
-        <v>3352000</v>
+        <v>1142000</v>
       </c>
       <c r="L2030">
-        <v>3352000</v>
+        <v>1142000</v>
       </c>
     </row>
     <row r="2031" spans="1:12">
@@ -84092,19 +84182,19 @@
         <v>13</v>
       </c>
       <c r="D2031" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2031" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2031" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2031" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2031" t="s">
-        <v>597</v>
+        <v>1408</v>
       </c>
       <c r="I2031" t="s">
         <v>19</v>
@@ -84113,10 +84203,10 @@
         <v>1</v>
       </c>
       <c r="K2031">
-        <v>1253000</v>
+        <v>1930820</v>
       </c>
       <c r="L2031">
-        <v>1253000</v>
+        <v>1930820</v>
       </c>
     </row>
     <row r="2032" spans="1:12">
@@ -84130,19 +84220,19 @@
         <v>13</v>
       </c>
       <c r="D2032" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2032" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2032" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2032" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2032" t="s">
-        <v>2184</v>
+        <v>1509</v>
       </c>
       <c r="I2032" t="s">
         <v>19</v>
@@ -84151,10 +84241,10 @@
         <v>1</v>
       </c>
       <c r="K2032">
-        <v>3000000</v>
+        <v>3352000</v>
       </c>
       <c r="L2032">
-        <v>3000000</v>
+        <v>3352000</v>
       </c>
     </row>
     <row r="2033" spans="1:12">
@@ -84168,19 +84258,19 @@
         <v>13</v>
       </c>
       <c r="D2033" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2033" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2033" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2033" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2033" t="s">
-        <v>1510</v>
+        <v>597</v>
       </c>
       <c r="I2033" t="s">
         <v>19</v>
@@ -84189,10 +84279,10 @@
         <v>1</v>
       </c>
       <c r="K2033">
-        <v>3368400</v>
+        <v>1253000</v>
       </c>
       <c r="L2033">
-        <v>3368400</v>
+        <v>1253000</v>
       </c>
     </row>
     <row r="2034" spans="1:12">
@@ -84206,19 +84296,19 @@
         <v>13</v>
       </c>
       <c r="D2034" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2034" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2034" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2034" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2034" t="s">
-        <v>321</v>
+        <v>2192</v>
       </c>
       <c r="I2034" t="s">
         <v>19</v>
@@ -84227,10 +84317,10 @@
         <v>1</v>
       </c>
       <c r="K2034">
-        <v>1125000</v>
+        <v>3000000</v>
       </c>
       <c r="L2034">
-        <v>1125000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="2035" spans="1:12">
@@ -84244,19 +84334,19 @@
         <v>13</v>
       </c>
       <c r="D2035" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2035" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2035" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2035" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2035" t="s">
-        <v>328</v>
+        <v>1510</v>
       </c>
       <c r="I2035" t="s">
         <v>19</v>
@@ -84265,10 +84355,10 @@
         <v>1</v>
       </c>
       <c r="K2035">
-        <v>1000000</v>
+        <v>3368400</v>
       </c>
       <c r="L2035">
-        <v>1000000</v>
+        <v>3368400</v>
       </c>
     </row>
     <row r="2036" spans="1:12">
@@ -84282,19 +84372,19 @@
         <v>13</v>
       </c>
       <c r="D2036" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2036" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2036" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2036" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2036" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="I2036" t="s">
         <v>19</v>
@@ -84303,10 +84393,10 @@
         <v>1</v>
       </c>
       <c r="K2036">
-        <v>1000000</v>
+        <v>1125000</v>
       </c>
       <c r="L2036">
-        <v>1000000</v>
+        <v>1125000</v>
       </c>
     </row>
     <row r="2037" spans="1:12">
@@ -84320,19 +84410,19 @@
         <v>13</v>
       </c>
       <c r="D2037" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2037" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2037" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2037" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2037" t="s">
-        <v>1921</v>
+        <v>328</v>
       </c>
       <c r="I2037" t="s">
         <v>19</v>
@@ -84341,10 +84431,10 @@
         <v>1</v>
       </c>
       <c r="K2037">
-        <v>2190000</v>
+        <v>1000000</v>
       </c>
       <c r="L2037">
-        <v>2190000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="2038" spans="1:12">
@@ -84358,19 +84448,19 @@
         <v>13</v>
       </c>
       <c r="D2038" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2038" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2038" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2038" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2038" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I2038" t="s">
         <v>19</v>
@@ -84396,19 +84486,19 @@
         <v>13</v>
       </c>
       <c r="D2039" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2039" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2039" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2039" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2039" t="s">
-        <v>331</v>
+        <v>1921</v>
       </c>
       <c r="I2039" t="s">
         <v>19</v>
@@ -84417,10 +84507,10 @@
         <v>1</v>
       </c>
       <c r="K2039">
-        <v>1000000</v>
+        <v>2190000</v>
       </c>
       <c r="L2039">
-        <v>1000000</v>
+        <v>2190000</v>
       </c>
     </row>
     <row r="2040" spans="1:12">
@@ -84434,19 +84524,19 @@
         <v>13</v>
       </c>
       <c r="D2040" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2040" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2040" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2040" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2040" t="s">
-        <v>2185</v>
+        <v>330</v>
       </c>
       <c r="I2040" t="s">
         <v>19</v>
@@ -84455,10 +84545,10 @@
         <v>1</v>
       </c>
       <c r="K2040">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="L2040">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="2041" spans="1:12">
@@ -84472,19 +84562,19 @@
         <v>13</v>
       </c>
       <c r="D2041" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2041" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2041" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2041" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2041" t="s">
-        <v>1002</v>
+        <v>331</v>
       </c>
       <c r="I2041" t="s">
         <v>19</v>
@@ -84493,10 +84583,10 @@
         <v>1</v>
       </c>
       <c r="K2041">
-        <v>20000000</v>
+        <v>1000000</v>
       </c>
       <c r="L2041">
-        <v>20000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="2042" spans="1:12">
@@ -84510,19 +84600,19 @@
         <v>13</v>
       </c>
       <c r="D2042" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2042" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2042" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2042" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2042" t="s">
-        <v>332</v>
+        <v>2193</v>
       </c>
       <c r="I2042" t="s">
         <v>19</v>
@@ -84531,10 +84621,10 @@
         <v>1</v>
       </c>
       <c r="K2042">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="L2042">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="2043" spans="1:12">
@@ -84548,19 +84638,19 @@
         <v>13</v>
       </c>
       <c r="D2043" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2043" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2043" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2043" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2043" t="s">
-        <v>334</v>
+        <v>1002</v>
       </c>
       <c r="I2043" t="s">
         <v>19</v>
@@ -84569,10 +84659,10 @@
         <v>1</v>
       </c>
       <c r="K2043">
-        <v>1745438</v>
+        <v>20000000</v>
       </c>
       <c r="L2043">
-        <v>1745438</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="2044" spans="1:12">
@@ -84586,19 +84676,19 @@
         <v>13</v>
       </c>
       <c r="D2044" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2044" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2044" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2044" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2044" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I2044" t="s">
         <v>19</v>
@@ -84607,10 +84697,10 @@
         <v>1</v>
       </c>
       <c r="K2044">
-        <v>3649462</v>
+        <v>3000000</v>
       </c>
       <c r="L2044">
-        <v>3649462</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="2045" spans="1:12">
@@ -84624,19 +84714,19 @@
         <v>13</v>
       </c>
       <c r="D2045" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2045" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2045" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2045" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2045" t="s">
-        <v>2186</v>
+        <v>334</v>
       </c>
       <c r="I2045" t="s">
         <v>19</v>
@@ -84645,10 +84735,10 @@
         <v>1</v>
       </c>
       <c r="K2045">
-        <v>300000</v>
+        <v>1745438</v>
       </c>
       <c r="L2045">
-        <v>300000</v>
+        <v>1745438</v>
       </c>
     </row>
     <row r="2046" spans="1:12">
@@ -84662,19 +84752,19 @@
         <v>13</v>
       </c>
       <c r="D2046" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2046" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2046" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2046" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2046" t="s">
-        <v>601</v>
+        <v>335</v>
       </c>
       <c r="I2046" t="s">
         <v>19</v>
@@ -84683,10 +84773,10 @@
         <v>1</v>
       </c>
       <c r="K2046">
-        <v>2830000</v>
+        <v>3649462</v>
       </c>
       <c r="L2046">
-        <v>2830000</v>
+        <v>3649462</v>
       </c>
     </row>
     <row r="2047" spans="1:12">
@@ -84700,19 +84790,19 @@
         <v>13</v>
       </c>
       <c r="D2047" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2047" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2047" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2047" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2047" t="s">
-        <v>2187</v>
+        <v>2194</v>
       </c>
       <c r="I2047" t="s">
         <v>19</v>
@@ -84721,10 +84811,10 @@
         <v>1</v>
       </c>
       <c r="K2047">
-        <v>2341299</v>
+        <v>300000</v>
       </c>
       <c r="L2047">
-        <v>2341299</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="2048" spans="1:12">
@@ -84738,19 +84828,19 @@
         <v>13</v>
       </c>
       <c r="D2048" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2048" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2048" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2048" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2048" t="s">
-        <v>341</v>
+        <v>601</v>
       </c>
       <c r="I2048" t="s">
         <v>19</v>
@@ -84759,10 +84849,10 @@
         <v>1</v>
       </c>
       <c r="K2048">
-        <v>10773800</v>
+        <v>2830000</v>
       </c>
       <c r="L2048">
-        <v>10773800</v>
+        <v>2830000</v>
       </c>
     </row>
     <row r="2049" spans="1:12">
@@ -84776,19 +84866,19 @@
         <v>13</v>
       </c>
       <c r="D2049" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2049" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2049" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2049" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2049" t="s">
-        <v>136</v>
+        <v>2195</v>
       </c>
       <c r="I2049" t="s">
         <v>19</v>
@@ -84797,10 +84887,10 @@
         <v>1</v>
       </c>
       <c r="K2049">
-        <v>1350000</v>
+        <v>2341299</v>
       </c>
       <c r="L2049">
-        <v>1350000</v>
+        <v>2341299</v>
       </c>
     </row>
     <row r="2050" spans="1:12">
@@ -84814,19 +84904,19 @@
         <v>13</v>
       </c>
       <c r="D2050" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2050" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2050" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2050" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2050" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I2050" t="s">
         <v>19</v>
@@ -84835,10 +84925,10 @@
         <v>1</v>
       </c>
       <c r="K2050">
-        <v>150000</v>
+        <v>10773800</v>
       </c>
       <c r="L2050">
-        <v>150000</v>
+        <v>10773800</v>
       </c>
     </row>
     <row r="2051" spans="1:12">
@@ -84852,19 +84942,19 @@
         <v>13</v>
       </c>
       <c r="D2051" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2051" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2051" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2051" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2051" t="s">
-        <v>603</v>
+        <v>136</v>
       </c>
       <c r="I2051" t="s">
         <v>19</v>
@@ -84873,10 +84963,10 @@
         <v>1</v>
       </c>
       <c r="K2051">
-        <v>3897000</v>
+        <v>1350000</v>
       </c>
       <c r="L2051">
-        <v>3897000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="2052" spans="1:12">
@@ -84890,19 +84980,19 @@
         <v>13</v>
       </c>
       <c r="D2052" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2052" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2052" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2052" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2052" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I2052" t="s">
         <v>19</v>
@@ -84911,10 +85001,10 @@
         <v>1</v>
       </c>
       <c r="K2052">
-        <v>11450900</v>
+        <v>150000</v>
       </c>
       <c r="L2052">
-        <v>11450900</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="2053" spans="1:12">
@@ -84928,19 +85018,19 @@
         <v>13</v>
       </c>
       <c r="D2053" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2053" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2053" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2053" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2053" t="s">
-        <v>2188</v>
+        <v>603</v>
       </c>
       <c r="I2053" t="s">
         <v>19</v>
@@ -84949,10 +85039,10 @@
         <v>1</v>
       </c>
       <c r="K2053">
-        <v>3640000</v>
+        <v>3897000</v>
       </c>
       <c r="L2053">
-        <v>3640000</v>
+        <v>3897000</v>
       </c>
     </row>
     <row r="2054" spans="1:12">
@@ -84966,19 +85056,19 @@
         <v>13</v>
       </c>
       <c r="D2054" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2054" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2054" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2054" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2054" t="s">
-        <v>1237</v>
+        <v>345</v>
       </c>
       <c r="I2054" t="s">
         <v>19</v>
@@ -84987,10 +85077,10 @@
         <v>1</v>
       </c>
       <c r="K2054">
-        <v>6021260</v>
+        <v>11450900</v>
       </c>
       <c r="L2054">
-        <v>6021260</v>
+        <v>11450900</v>
       </c>
     </row>
     <row r="2055" spans="1:12">
@@ -85004,19 +85094,19 @@
         <v>13</v>
       </c>
       <c r="D2055" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2055" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2055" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2055" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2055" t="s">
-        <v>2189</v>
+        <v>2196</v>
       </c>
       <c r="I2055" t="s">
         <v>19</v>
@@ -85025,10 +85115,10 @@
         <v>1</v>
       </c>
       <c r="K2055">
-        <v>300000</v>
+        <v>3640000</v>
       </c>
       <c r="L2055">
-        <v>300000</v>
+        <v>3640000</v>
       </c>
     </row>
     <row r="2056" spans="1:12">
@@ -85042,19 +85132,19 @@
         <v>13</v>
       </c>
       <c r="D2056" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2056" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2056" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2056" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2056" t="s">
-        <v>1423</v>
+        <v>1237</v>
       </c>
       <c r="I2056" t="s">
         <v>19</v>
@@ -85063,10 +85153,10 @@
         <v>1</v>
       </c>
       <c r="K2056">
-        <v>450000</v>
+        <v>6021260</v>
       </c>
       <c r="L2056">
-        <v>450000</v>
+        <v>6021260</v>
       </c>
     </row>
     <row r="2057" spans="1:12">
@@ -85080,19 +85170,19 @@
         <v>13</v>
       </c>
       <c r="D2057" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2057" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2057" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2057" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2057" t="s">
-        <v>606</v>
+        <v>2197</v>
       </c>
       <c r="I2057" t="s">
         <v>19</v>
@@ -85101,10 +85191,10 @@
         <v>1</v>
       </c>
       <c r="K2057">
-        <v>750000</v>
+        <v>300000</v>
       </c>
       <c r="L2057">
-        <v>750000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="2058" spans="1:12">
@@ -85118,19 +85208,19 @@
         <v>13</v>
       </c>
       <c r="D2058" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2058" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2058" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2058" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2058" t="s">
-        <v>2190</v>
+        <v>1423</v>
       </c>
       <c r="I2058" t="s">
         <v>19</v>
@@ -85139,10 +85229,10 @@
         <v>1</v>
       </c>
       <c r="K2058">
-        <v>1350000</v>
+        <v>450000</v>
       </c>
       <c r="L2058">
-        <v>1350000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="2059" spans="1:12">
@@ -85156,19 +85246,19 @@
         <v>13</v>
       </c>
       <c r="D2059" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="E2059" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="F2059" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="G2059" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="H2059" t="s">
-        <v>2191</v>
+        <v>606</v>
       </c>
       <c r="I2059" t="s">
         <v>19</v>
@@ -85177,10 +85267,10 @@
         <v>1</v>
       </c>
       <c r="K2059">
-        <v>2500000</v>
+        <v>750000</v>
       </c>
       <c r="L2059">
-        <v>2500000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="2060" spans="1:12">
@@ -85194,19 +85284,19 @@
         <v>13</v>
       </c>
       <c r="D2060" t="s">
-        <v>2192</v>
+        <v>2176</v>
       </c>
       <c r="E2060" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
       <c r="F2060" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
       <c r="G2060" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="H2060" t="s">
-        <v>43</v>
+        <v>2198</v>
       </c>
       <c r="I2060" t="s">
         <v>19</v>
@@ -85215,10 +85305,10 @@
         <v>1</v>
       </c>
       <c r="K2060">
-        <v>162394500</v>
+        <v>1350000</v>
       </c>
       <c r="L2060">
-        <v>162394500</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="2061" spans="1:12">
@@ -85232,19 +85322,19 @@
         <v>13</v>
       </c>
       <c r="D2061" t="s">
-        <v>2192</v>
+        <v>2176</v>
       </c>
       <c r="E2061" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
       <c r="F2061" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
       <c r="G2061" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="H2061" t="s">
-        <v>44</v>
+        <v>2199</v>
       </c>
       <c r="I2061" t="s">
         <v>19</v>
@@ -85253,10 +85343,10 @@
         <v>1</v>
       </c>
       <c r="K2061">
-        <v>2536</v>
+        <v>2500000</v>
       </c>
       <c r="L2061">
-        <v>2536</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="2062" spans="1:12">
@@ -85270,19 +85360,19 @@
         <v>13</v>
       </c>
       <c r="D2062" t="s">
-        <v>2192</v>
+        <v>2165</v>
       </c>
       <c r="E2062" t="s">
-        <v>2193</v>
+        <v>2200</v>
       </c>
       <c r="F2062" t="s">
-        <v>2194</v>
+        <v>2201</v>
       </c>
       <c r="G2062" t="s">
-        <v>2195</v>
+        <v>2202</v>
       </c>
       <c r="H2062" t="s">
-        <v>45</v>
+        <v>2169</v>
       </c>
       <c r="I2062" t="s">
         <v>19</v>
@@ -85291,10 +85381,10 @@
         <v>1</v>
       </c>
       <c r="K2062">
-        <v>10583560</v>
+        <v>82000</v>
       </c>
       <c r="L2062">
-        <v>10583560</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="2063" spans="1:12">
@@ -85308,19 +85398,19 @@
         <v>13</v>
       </c>
       <c r="D2063" t="s">
-        <v>2192</v>
+        <v>2165</v>
       </c>
       <c r="E2063" t="s">
-        <v>2193</v>
+        <v>2203</v>
       </c>
       <c r="F2063" t="s">
-        <v>2194</v>
+        <v>2204</v>
       </c>
       <c r="G2063" t="s">
-        <v>2195</v>
+        <v>2205</v>
       </c>
       <c r="H2063" t="s">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="I2063" t="s">
         <v>19</v>
@@ -85329,10 +85419,10 @@
         <v>1</v>
       </c>
       <c r="K2063">
-        <v>3266244</v>
+        <v>22690740</v>
       </c>
       <c r="L2063">
-        <v>3266244</v>
+        <v>22690740</v>
       </c>
     </row>
     <row r="2064" spans="1:12">
@@ -85346,19 +85436,19 @@
         <v>13</v>
       </c>
       <c r="D2064" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2064" t="s">
-        <v>2193</v>
+        <v>2207</v>
       </c>
       <c r="F2064" t="s">
-        <v>2194</v>
+        <v>2208</v>
       </c>
       <c r="G2064" t="s">
-        <v>2195</v>
+        <v>2209</v>
       </c>
       <c r="H2064" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I2064" t="s">
         <v>19</v>
@@ -85367,10 +85457,10 @@
         <v>1</v>
       </c>
       <c r="K2064">
-        <v>5770000</v>
+        <v>162394500</v>
       </c>
       <c r="L2064">
-        <v>5770000</v>
+        <v>162394500</v>
       </c>
     </row>
     <row r="2065" spans="1:12">
@@ -85384,19 +85474,19 @@
         <v>13</v>
       </c>
       <c r="D2065" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2065" t="s">
-        <v>2193</v>
+        <v>2207</v>
       </c>
       <c r="F2065" t="s">
-        <v>2194</v>
+        <v>2208</v>
       </c>
       <c r="G2065" t="s">
-        <v>2195</v>
+        <v>2209</v>
       </c>
       <c r="H2065" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I2065" t="s">
         <v>19</v>
@@ -85405,10 +85495,10 @@
         <v>1</v>
       </c>
       <c r="K2065">
-        <v>10720000</v>
+        <v>2536</v>
       </c>
       <c r="L2065">
-        <v>10720000</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="2066" spans="1:12">
@@ -85422,19 +85512,19 @@
         <v>13</v>
       </c>
       <c r="D2066" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2066" t="s">
-        <v>2193</v>
+        <v>2207</v>
       </c>
       <c r="F2066" t="s">
-        <v>2194</v>
+        <v>2208</v>
       </c>
       <c r="G2066" t="s">
-        <v>2195</v>
+        <v>2209</v>
       </c>
       <c r="H2066" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I2066" t="s">
         <v>19</v>
@@ -85443,10 +85533,10 @@
         <v>1</v>
       </c>
       <c r="K2066">
-        <v>2843062</v>
+        <v>10583560</v>
       </c>
       <c r="L2066">
-        <v>2843062</v>
+        <v>10583560</v>
       </c>
     </row>
     <row r="2067" spans="1:12">
@@ -85460,19 +85550,19 @@
         <v>13</v>
       </c>
       <c r="D2067" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2067" t="s">
-        <v>2193</v>
+        <v>2207</v>
       </c>
       <c r="F2067" t="s">
-        <v>2194</v>
+        <v>2208</v>
       </c>
       <c r="G2067" t="s">
-        <v>2195</v>
+        <v>2209</v>
       </c>
       <c r="H2067" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I2067" t="s">
         <v>19</v>
@@ -85481,10 +85571,10 @@
         <v>1</v>
       </c>
       <c r="K2067">
-        <v>8545560</v>
+        <v>3266244</v>
       </c>
       <c r="L2067">
-        <v>8545560</v>
+        <v>3266244</v>
       </c>
     </row>
     <row r="2068" spans="1:12">
@@ -85498,19 +85588,19 @@
         <v>13</v>
       </c>
       <c r="D2068" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2068" t="s">
-        <v>2193</v>
+        <v>2207</v>
       </c>
       <c r="F2068" t="s">
-        <v>2194</v>
+        <v>2208</v>
       </c>
       <c r="G2068" t="s">
-        <v>2195</v>
+        <v>2209</v>
       </c>
       <c r="H2068" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I2068" t="s">
         <v>19</v>
@@ -85519,10 +85609,10 @@
         <v>1</v>
       </c>
       <c r="K2068">
-        <v>4985000</v>
+        <v>5770000</v>
       </c>
       <c r="L2068">
-        <v>4985000</v>
+        <v>5770000</v>
       </c>
     </row>
     <row r="2069" spans="1:12">
@@ -85536,19 +85626,19 @@
         <v>13</v>
       </c>
       <c r="D2069" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2069" t="s">
-        <v>2196</v>
+        <v>2207</v>
       </c>
       <c r="F2069" t="s">
-        <v>2197</v>
+        <v>2208</v>
       </c>
       <c r="G2069" t="s">
-        <v>2198</v>
+        <v>2209</v>
       </c>
       <c r="H2069" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I2069" t="s">
         <v>19</v>
@@ -85557,10 +85647,10 @@
         <v>1</v>
       </c>
       <c r="K2069">
-        <v>153281600</v>
+        <v>10720000</v>
       </c>
       <c r="L2069">
-        <v>153281600</v>
+        <v>10720000</v>
       </c>
     </row>
     <row r="2070" spans="1:12">
@@ -85574,19 +85664,19 @@
         <v>13</v>
       </c>
       <c r="D2070" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2070" t="s">
-        <v>2196</v>
+        <v>2207</v>
       </c>
       <c r="F2070" t="s">
-        <v>2197</v>
+        <v>2208</v>
       </c>
       <c r="G2070" t="s">
-        <v>2198</v>
+        <v>2209</v>
       </c>
       <c r="H2070" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I2070" t="s">
         <v>19</v>
@@ -85595,10 +85685,10 @@
         <v>1</v>
       </c>
       <c r="K2070">
-        <v>2534</v>
+        <v>2843062</v>
       </c>
       <c r="L2070">
-        <v>2534</v>
+        <v>2843062</v>
       </c>
     </row>
     <row r="2071" spans="1:12">
@@ -85612,19 +85702,19 @@
         <v>13</v>
       </c>
       <c r="D2071" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2071" t="s">
-        <v>2196</v>
+        <v>2207</v>
       </c>
       <c r="F2071" t="s">
-        <v>2197</v>
+        <v>2208</v>
       </c>
       <c r="G2071" t="s">
-        <v>2198</v>
+        <v>2209</v>
       </c>
       <c r="H2071" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I2071" t="s">
         <v>19</v>
@@ -85633,10 +85723,10 @@
         <v>1</v>
       </c>
       <c r="K2071">
-        <v>11090340</v>
+        <v>8545560</v>
       </c>
       <c r="L2071">
-        <v>11090340</v>
+        <v>8545560</v>
       </c>
     </row>
     <row r="2072" spans="1:12">
@@ -85650,19 +85740,19 @@
         <v>13</v>
       </c>
       <c r="D2072" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2072" t="s">
-        <v>2196</v>
+        <v>2207</v>
       </c>
       <c r="F2072" t="s">
-        <v>2197</v>
+        <v>2208</v>
       </c>
       <c r="G2072" t="s">
-        <v>2198</v>
+        <v>2209</v>
       </c>
       <c r="H2072" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I2072" t="s">
         <v>19</v>
@@ -85671,10 +85761,10 @@
         <v>1</v>
       </c>
       <c r="K2072">
-        <v>3280146</v>
+        <v>4985000</v>
       </c>
       <c r="L2072">
-        <v>3280146</v>
+        <v>4985000</v>
       </c>
     </row>
     <row r="2073" spans="1:12">
@@ -85688,19 +85778,19 @@
         <v>13</v>
       </c>
       <c r="D2073" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2073" t="s">
-        <v>2196</v>
+        <v>2210</v>
       </c>
       <c r="F2073" t="s">
-        <v>2197</v>
+        <v>2211</v>
       </c>
       <c r="G2073" t="s">
-        <v>2198</v>
+        <v>2212</v>
       </c>
       <c r="H2073" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I2073" t="s">
         <v>19</v>
@@ -85709,10 +85799,10 @@
         <v>1</v>
       </c>
       <c r="K2073">
-        <v>3250000</v>
+        <v>153281600</v>
       </c>
       <c r="L2073">
-        <v>3250000</v>
+        <v>153281600</v>
       </c>
     </row>
     <row r="2074" spans="1:12">
@@ -85726,19 +85816,19 @@
         <v>13</v>
       </c>
       <c r="D2074" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2074" t="s">
-        <v>2196</v>
+        <v>2210</v>
       </c>
       <c r="F2074" t="s">
-        <v>2197</v>
+        <v>2211</v>
       </c>
       <c r="G2074" t="s">
-        <v>2198</v>
+        <v>2212</v>
       </c>
       <c r="H2074" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I2074" t="s">
         <v>19</v>
@@ -85747,10 +85837,10 @@
         <v>1</v>
       </c>
       <c r="K2074">
-        <v>15850000</v>
+        <v>2534</v>
       </c>
       <c r="L2074">
-        <v>15850000</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="2075" spans="1:12">
@@ -85764,19 +85854,19 @@
         <v>13</v>
       </c>
       <c r="D2075" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2075" t="s">
-        <v>2196</v>
+        <v>2210</v>
       </c>
       <c r="F2075" t="s">
-        <v>2197</v>
+        <v>2211</v>
       </c>
       <c r="G2075" t="s">
-        <v>2198</v>
+        <v>2212</v>
       </c>
       <c r="H2075" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I2075" t="s">
         <v>19</v>
@@ -85785,10 +85875,10 @@
         <v>1</v>
       </c>
       <c r="K2075">
-        <v>3142700</v>
+        <v>11090340</v>
       </c>
       <c r="L2075">
-        <v>3142700</v>
+        <v>11090340</v>
       </c>
     </row>
     <row r="2076" spans="1:12">
@@ -85802,19 +85892,19 @@
         <v>13</v>
       </c>
       <c r="D2076" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2076" t="s">
-        <v>2196</v>
+        <v>2210</v>
       </c>
       <c r="F2076" t="s">
-        <v>2197</v>
+        <v>2211</v>
       </c>
       <c r="G2076" t="s">
-        <v>2198</v>
+        <v>2212</v>
       </c>
       <c r="H2076" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I2076" t="s">
         <v>19</v>
@@ -85823,10 +85913,10 @@
         <v>1</v>
       </c>
       <c r="K2076">
-        <v>7893780</v>
+        <v>3280146</v>
       </c>
       <c r="L2076">
-        <v>7893780</v>
+        <v>3280146</v>
       </c>
     </row>
     <row r="2077" spans="1:12">
@@ -85840,19 +85930,19 @@
         <v>13</v>
       </c>
       <c r="D2077" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2077" t="s">
-        <v>2196</v>
+        <v>2210</v>
       </c>
       <c r="F2077" t="s">
-        <v>2197</v>
+        <v>2211</v>
       </c>
       <c r="G2077" t="s">
-        <v>2198</v>
+        <v>2212</v>
       </c>
       <c r="H2077" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I2077" t="s">
         <v>19</v>
@@ -85861,10 +85951,10 @@
         <v>1</v>
       </c>
       <c r="K2077">
-        <v>3150000</v>
+        <v>3250000</v>
       </c>
       <c r="L2077">
-        <v>3150000</v>
+        <v>3250000</v>
       </c>
     </row>
     <row r="2078" spans="1:12">
@@ -85878,19 +85968,19 @@
         <v>13</v>
       </c>
       <c r="D2078" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2078" t="s">
-        <v>2199</v>
+        <v>2210</v>
       </c>
       <c r="F2078" t="s">
-        <v>2200</v>
+        <v>2211</v>
       </c>
       <c r="G2078" t="s">
-        <v>2201</v>
+        <v>2212</v>
       </c>
       <c r="H2078" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I2078" t="s">
         <v>19</v>
@@ -85899,10 +85989,10 @@
         <v>1</v>
       </c>
       <c r="K2078">
-        <v>271970200</v>
+        <v>15850000</v>
       </c>
       <c r="L2078">
-        <v>271970200</v>
+        <v>15850000</v>
       </c>
     </row>
     <row r="2079" spans="1:12">
@@ -85916,19 +86006,19 @@
         <v>13</v>
       </c>
       <c r="D2079" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2079" t="s">
-        <v>2199</v>
+        <v>2210</v>
       </c>
       <c r="F2079" t="s">
-        <v>2200</v>
+        <v>2211</v>
       </c>
       <c r="G2079" t="s">
-        <v>2201</v>
+        <v>2212</v>
       </c>
       <c r="H2079" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I2079" t="s">
         <v>19</v>
@@ -85937,10 +86027,10 @@
         <v>1</v>
       </c>
       <c r="K2079">
-        <v>5000</v>
+        <v>3142700</v>
       </c>
       <c r="L2079">
-        <v>5000</v>
+        <v>3142700</v>
       </c>
     </row>
     <row r="2080" spans="1:12">
@@ -85954,19 +86044,19 @@
         <v>13</v>
       </c>
       <c r="D2080" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2080" t="s">
-        <v>2199</v>
+        <v>2210</v>
       </c>
       <c r="F2080" t="s">
-        <v>2200</v>
+        <v>2211</v>
       </c>
       <c r="G2080" t="s">
-        <v>2201</v>
+        <v>2212</v>
       </c>
       <c r="H2080" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I2080" t="s">
         <v>19</v>
@@ -85975,10 +86065,10 @@
         <v>1</v>
       </c>
       <c r="K2080">
-        <v>16312930</v>
+        <v>7893780</v>
       </c>
       <c r="L2080">
-        <v>16312930</v>
+        <v>7893780</v>
       </c>
     </row>
     <row r="2081" spans="1:12">
@@ -85992,19 +86082,19 @@
         <v>13</v>
       </c>
       <c r="D2081" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2081" t="s">
-        <v>2199</v>
+        <v>2210</v>
       </c>
       <c r="F2081" t="s">
-        <v>2200</v>
+        <v>2211</v>
       </c>
       <c r="G2081" t="s">
-        <v>2201</v>
+        <v>2212</v>
       </c>
       <c r="H2081" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I2081" t="s">
         <v>19</v>
@@ -86013,10 +86103,10 @@
         <v>1</v>
       </c>
       <c r="K2081">
-        <v>5728350</v>
+        <v>3150000</v>
       </c>
       <c r="L2081">
-        <v>5728350</v>
+        <v>3150000</v>
       </c>
     </row>
     <row r="2082" spans="1:12">
@@ -86030,19 +86120,19 @@
         <v>13</v>
       </c>
       <c r="D2082" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2082" t="s">
-        <v>2199</v>
+        <v>2213</v>
       </c>
       <c r="F2082" t="s">
-        <v>2200</v>
+        <v>2214</v>
       </c>
       <c r="G2082" t="s">
-        <v>2201</v>
+        <v>2215</v>
       </c>
       <c r="H2082" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I2082" t="s">
         <v>19</v>
@@ -86051,10 +86141,10 @@
         <v>1</v>
       </c>
       <c r="K2082">
-        <v>7525000</v>
+        <v>271970200</v>
       </c>
       <c r="L2082">
-        <v>7525000</v>
+        <v>271970200</v>
       </c>
     </row>
     <row r="2083" spans="1:12">
@@ -86068,19 +86158,19 @@
         <v>13</v>
       </c>
       <c r="D2083" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2083" t="s">
-        <v>2199</v>
+        <v>2213</v>
       </c>
       <c r="F2083" t="s">
-        <v>2200</v>
+        <v>2214</v>
       </c>
       <c r="G2083" t="s">
-        <v>2201</v>
+        <v>2215</v>
       </c>
       <c r="H2083" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I2083" t="s">
         <v>19</v>
@@ -86089,10 +86179,10 @@
         <v>1</v>
       </c>
       <c r="K2083">
-        <v>24915000</v>
+        <v>5000</v>
       </c>
       <c r="L2083">
-        <v>24915000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="2084" spans="1:12">
@@ -86106,19 +86196,19 @@
         <v>13</v>
       </c>
       <c r="D2084" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2084" t="s">
-        <v>2199</v>
+        <v>2213</v>
       </c>
       <c r="F2084" t="s">
-        <v>2200</v>
+        <v>2214</v>
       </c>
       <c r="G2084" t="s">
-        <v>2201</v>
+        <v>2215</v>
       </c>
       <c r="H2084" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I2084" t="s">
         <v>19</v>
@@ -86127,10 +86217,10 @@
         <v>1</v>
       </c>
       <c r="K2084">
-        <v>4173278</v>
+        <v>16312930</v>
       </c>
       <c r="L2084">
-        <v>4173278</v>
+        <v>16312930</v>
       </c>
     </row>
     <row r="2085" spans="1:12">
@@ -86144,19 +86234,19 @@
         <v>13</v>
       </c>
       <c r="D2085" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2085" t="s">
-        <v>2199</v>
+        <v>2213</v>
       </c>
       <c r="F2085" t="s">
-        <v>2200</v>
+        <v>2214</v>
       </c>
       <c r="G2085" t="s">
-        <v>2201</v>
+        <v>2215</v>
       </c>
       <c r="H2085" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I2085" t="s">
         <v>19</v>
@@ -86165,10 +86255,10 @@
         <v>1</v>
       </c>
       <c r="K2085">
-        <v>14556420</v>
+        <v>5728350</v>
       </c>
       <c r="L2085">
-        <v>14556420</v>
+        <v>5728350</v>
       </c>
     </row>
     <row r="2086" spans="1:12">
@@ -86182,19 +86272,19 @@
         <v>13</v>
       </c>
       <c r="D2086" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2086" t="s">
-        <v>2199</v>
+        <v>2213</v>
       </c>
       <c r="F2086" t="s">
-        <v>2200</v>
+        <v>2214</v>
       </c>
       <c r="G2086" t="s">
-        <v>2201</v>
+        <v>2215</v>
       </c>
       <c r="H2086" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I2086" t="s">
         <v>19</v>
@@ -86203,10 +86293,10 @@
         <v>1</v>
       </c>
       <c r="K2086">
-        <v>7375000</v>
+        <v>7525000</v>
       </c>
       <c r="L2086">
-        <v>7375000</v>
+        <v>7525000</v>
       </c>
     </row>
     <row r="2087" spans="1:12">
@@ -86220,19 +86310,19 @@
         <v>13</v>
       </c>
       <c r="D2087" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2087" t="s">
-        <v>2202</v>
+        <v>2213</v>
       </c>
       <c r="F2087" t="s">
-        <v>2203</v>
+        <v>2214</v>
       </c>
       <c r="G2087" t="s">
-        <v>2204</v>
+        <v>2215</v>
       </c>
       <c r="H2087" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I2087" t="s">
         <v>19</v>
@@ -86241,10 +86331,10 @@
         <v>1</v>
       </c>
       <c r="K2087">
-        <v>1841440</v>
+        <v>24915000</v>
       </c>
       <c r="L2087">
-        <v>1841440</v>
+        <v>24915000</v>
       </c>
     </row>
     <row r="2088" spans="1:12">
@@ -86258,19 +86348,19 @@
         <v>13</v>
       </c>
       <c r="D2088" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2088" t="s">
-        <v>2202</v>
+        <v>2213</v>
       </c>
       <c r="F2088" t="s">
-        <v>2203</v>
+        <v>2214</v>
       </c>
       <c r="G2088" t="s">
-        <v>2204</v>
+        <v>2215</v>
       </c>
       <c r="H2088" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I2088" t="s">
         <v>19</v>
@@ -86279,10 +86369,10 @@
         <v>1</v>
       </c>
       <c r="K2088">
-        <v>40</v>
+        <v>4173278</v>
       </c>
       <c r="L2088">
-        <v>40</v>
+        <v>4173278</v>
       </c>
     </row>
     <row r="2089" spans="1:12">
@@ -86296,16 +86386,16 @@
         <v>13</v>
       </c>
       <c r="D2089" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2089" t="s">
-        <v>2202</v>
+        <v>2213</v>
       </c>
       <c r="F2089" t="s">
-        <v>2203</v>
+        <v>2214</v>
       </c>
       <c r="G2089" t="s">
-        <v>2204</v>
+        <v>2215</v>
       </c>
       <c r="H2089" t="s">
         <v>26</v>
@@ -86317,10 +86407,10 @@
         <v>1</v>
       </c>
       <c r="K2089">
-        <v>72420</v>
+        <v>14556420</v>
       </c>
       <c r="L2089">
-        <v>72420</v>
+        <v>14556420</v>
       </c>
     </row>
     <row r="2090" spans="1:12">
@@ -86334,16 +86424,16 @@
         <v>13</v>
       </c>
       <c r="D2090" t="s">
-        <v>2192</v>
+        <v>2206</v>
       </c>
       <c r="E2090" t="s">
-        <v>2202</v>
+        <v>2213</v>
       </c>
       <c r="F2090" t="s">
-        <v>2203</v>
+        <v>2214</v>
       </c>
       <c r="G2090" t="s">
-        <v>2204</v>
+        <v>2215</v>
       </c>
       <c r="H2090" t="s">
         <v>27</v>
@@ -86355,10 +86445,10 @@
         <v>1</v>
       </c>
       <c r="K2090">
-        <v>180000</v>
+        <v>7375000</v>
       </c>
       <c r="L2090">
-        <v>180000</v>
+        <v>7375000</v>
       </c>
     </row>
     <row r="2091" spans="1:12">
@@ -86372,19 +86462,19 @@
         <v>13</v>
       </c>
       <c r="D2091" t="s">
-        <v>2168</v>
+        <v>2206</v>
       </c>
       <c r="E2091" t="s">
-        <v>2205</v>
+        <v>2216</v>
       </c>
       <c r="F2091" t="s">
-        <v>2206</v>
+        <v>2217</v>
       </c>
       <c r="G2091" t="s">
-        <v>2207</v>
+        <v>2218</v>
       </c>
       <c r="H2091" t="s">
-        <v>2208</v>
+        <v>18</v>
       </c>
       <c r="I2091" t="s">
         <v>19</v>
@@ -86393,10 +86483,10 @@
         <v>1</v>
       </c>
       <c r="K2091">
-        <v>1444000</v>
+        <v>1841440</v>
       </c>
       <c r="L2091">
-        <v>1444000</v>
+        <v>1841440</v>
       </c>
     </row>
     <row r="2092" spans="1:12">
@@ -86410,19 +86500,19 @@
         <v>13</v>
       </c>
       <c r="D2092" t="s">
-        <v>2168</v>
+        <v>2206</v>
       </c>
       <c r="E2092" t="s">
-        <v>2209</v>
+        <v>2216</v>
       </c>
       <c r="F2092" t="s">
-        <v>2210</v>
+        <v>2217</v>
       </c>
       <c r="G2092" t="s">
-        <v>2211</v>
+        <v>2218</v>
       </c>
       <c r="H2092" t="s">
-        <v>2208</v>
+        <v>20</v>
       </c>
       <c r="I2092" t="s">
         <v>19</v>
@@ -86431,10 +86521,10 @@
         <v>1</v>
       </c>
       <c r="K2092">
-        <v>542000</v>
+        <v>40</v>
       </c>
       <c r="L2092">
-        <v>542000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2093" spans="1:12">
@@ -86448,19 +86538,19 @@
         <v>13</v>
       </c>
       <c r="D2093" t="s">
-        <v>2168</v>
+        <v>2206</v>
       </c>
       <c r="E2093" t="s">
-        <v>2212</v>
+        <v>2216</v>
       </c>
       <c r="F2093" t="s">
-        <v>2213</v>
+        <v>2217</v>
       </c>
       <c r="G2093" t="s">
-        <v>2214</v>
+        <v>2218</v>
       </c>
       <c r="H2093" t="s">
-        <v>2208</v>
+        <v>26</v>
       </c>
       <c r="I2093" t="s">
         <v>19</v>
@@ -86469,10 +86559,504 @@
         <v>1</v>
       </c>
       <c r="K2093">
+        <v>72420</v>
+      </c>
+      <c r="L2093">
+        <v>72420</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:12">
+      <c r="A2094">
+        <v>2091</v>
+      </c>
+      <c r="B2094">
+        <v>626402</v>
+      </c>
+      <c r="C2094" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2094" t="s">
+        <v>2206</v>
+      </c>
+      <c r="E2094" t="s">
+        <v>2216</v>
+      </c>
+      <c r="F2094" t="s">
+        <v>2217</v>
+      </c>
+      <c r="G2094" t="s">
+        <v>2218</v>
+      </c>
+      <c r="H2094" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2094" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2094">
+        <v>1</v>
+      </c>
+      <c r="K2094">
+        <v>180000</v>
+      </c>
+      <c r="L2094">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:12">
+      <c r="A2095">
+        <v>2092</v>
+      </c>
+      <c r="B2095">
+        <v>626402</v>
+      </c>
+      <c r="C2095" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2095" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E2095" t="s">
+        <v>2219</v>
+      </c>
+      <c r="F2095" t="s">
+        <v>2220</v>
+      </c>
+      <c r="G2095" t="s">
+        <v>2221</v>
+      </c>
+      <c r="H2095" t="s">
+        <v>2222</v>
+      </c>
+      <c r="I2095" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2095">
+        <v>1</v>
+      </c>
+      <c r="K2095">
+        <v>1444000</v>
+      </c>
+      <c r="L2095">
+        <v>1444000</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:12">
+      <c r="A2096">
+        <v>2093</v>
+      </c>
+      <c r="B2096">
+        <v>626402</v>
+      </c>
+      <c r="C2096" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2096" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E2096" t="s">
+        <v>2223</v>
+      </c>
+      <c r="F2096" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G2096" t="s">
+        <v>2225</v>
+      </c>
+      <c r="H2096" t="s">
+        <v>2222</v>
+      </c>
+      <c r="I2096" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2096">
+        <v>1</v>
+      </c>
+      <c r="K2096">
+        <v>542000</v>
+      </c>
+      <c r="L2096">
+        <v>542000</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:12">
+      <c r="A2097">
+        <v>2094</v>
+      </c>
+      <c r="B2097">
+        <v>626402</v>
+      </c>
+      <c r="C2097" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2097" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E2097" t="s">
+        <v>2226</v>
+      </c>
+      <c r="F2097" t="s">
+        <v>2227</v>
+      </c>
+      <c r="G2097" t="s">
+        <v>2228</v>
+      </c>
+      <c r="H2097" t="s">
+        <v>2222</v>
+      </c>
+      <c r="I2097" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2097">
+        <v>1</v>
+      </c>
+      <c r="K2097">
         <v>1528000</v>
       </c>
-      <c r="L2093">
+      <c r="L2097">
         <v>1528000</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:12">
+      <c r="A2098">
+        <v>2095</v>
+      </c>
+      <c r="B2098">
+        <v>626402</v>
+      </c>
+      <c r="C2098" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2098" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E2098" t="s">
+        <v>2229</v>
+      </c>
+      <c r="F2098" t="s">
+        <v>2230</v>
+      </c>
+      <c r="G2098" t="s">
+        <v>2231</v>
+      </c>
+      <c r="H2098" t="s">
+        <v>420</v>
+      </c>
+      <c r="I2098" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2098">
+        <v>1</v>
+      </c>
+      <c r="K2098">
+        <v>15000000</v>
+      </c>
+      <c r="L2098">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:12">
+      <c r="A2099">
+        <v>2096</v>
+      </c>
+      <c r="B2099">
+        <v>626402</v>
+      </c>
+      <c r="C2099" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2099" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E2099" t="s">
+        <v>2232</v>
+      </c>
+      <c r="F2099" t="s">
+        <v>2233</v>
+      </c>
+      <c r="G2099" t="s">
+        <v>2234</v>
+      </c>
+      <c r="H2099" t="s">
+        <v>420</v>
+      </c>
+      <c r="I2099" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2099">
+        <v>1</v>
+      </c>
+      <c r="K2099">
+        <v>6000000</v>
+      </c>
+      <c r="L2099">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:12">
+      <c r="A2100">
+        <v>2097</v>
+      </c>
+      <c r="B2100">
+        <v>626402</v>
+      </c>
+      <c r="C2100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2100" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E2100" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F2100" t="s">
+        <v>2236</v>
+      </c>
+      <c r="G2100" t="s">
+        <v>2237</v>
+      </c>
+      <c r="H2100" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I2100" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2100">
+        <v>1</v>
+      </c>
+      <c r="K2100">
+        <v>1600000</v>
+      </c>
+      <c r="L2100">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:12">
+      <c r="A2101">
+        <v>2098</v>
+      </c>
+      <c r="B2101">
+        <v>626402</v>
+      </c>
+      <c r="C2101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2101" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E2101" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F2101" t="s">
+        <v>2236</v>
+      </c>
+      <c r="G2101" t="s">
+        <v>2237</v>
+      </c>
+      <c r="H2101" t="s">
+        <v>2239</v>
+      </c>
+      <c r="I2101" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2101">
+        <v>1</v>
+      </c>
+      <c r="K2101">
+        <v>1200000</v>
+      </c>
+      <c r="L2101">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:12">
+      <c r="A2102">
+        <v>2099</v>
+      </c>
+      <c r="B2102">
+        <v>626402</v>
+      </c>
+      <c r="C2102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2102" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E2102" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F2102" t="s">
+        <v>2236</v>
+      </c>
+      <c r="G2102" t="s">
+        <v>2237</v>
+      </c>
+      <c r="H2102" t="s">
+        <v>2240</v>
+      </c>
+      <c r="I2102" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2102">
+        <v>1</v>
+      </c>
+      <c r="K2102">
+        <v>8400000</v>
+      </c>
+      <c r="L2102">
+        <v>8400000</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:12">
+      <c r="A2103">
+        <v>2100</v>
+      </c>
+      <c r="B2103">
+        <v>626402</v>
+      </c>
+      <c r="C2103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2103" t="s">
+        <v>2206</v>
+      </c>
+      <c r="E2103" t="s">
+        <v>2241</v>
+      </c>
+      <c r="F2103" t="s">
+        <v>2242</v>
+      </c>
+      <c r="G2103" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2103" t="s">
+        <v>581</v>
+      </c>
+      <c r="I2103" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2103">
+        <v>1</v>
+      </c>
+      <c r="K2103">
+        <v>27850000</v>
+      </c>
+      <c r="L2103">
+        <v>27850000</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:12">
+      <c r="A2104">
+        <v>2101</v>
+      </c>
+      <c r="B2104">
+        <v>626402</v>
+      </c>
+      <c r="C2104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2104" t="s">
+        <v>2206</v>
+      </c>
+      <c r="E2104" t="s">
+        <v>2241</v>
+      </c>
+      <c r="F2104" t="s">
+        <v>2242</v>
+      </c>
+      <c r="G2104" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2104" t="s">
+        <v>2243</v>
+      </c>
+      <c r="I2104" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2104">
+        <v>1</v>
+      </c>
+      <c r="K2104">
+        <v>2880000</v>
+      </c>
+      <c r="L2104">
+        <v>2880000</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:12">
+      <c r="A2105">
+        <v>2102</v>
+      </c>
+      <c r="B2105">
+        <v>626402</v>
+      </c>
+      <c r="C2105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2105" t="s">
+        <v>2206</v>
+      </c>
+      <c r="E2105" t="s">
+        <v>2241</v>
+      </c>
+      <c r="F2105" t="s">
+        <v>2242</v>
+      </c>
+      <c r="G2105" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2105" t="s">
+        <v>2244</v>
+      </c>
+      <c r="I2105" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2105">
+        <v>1</v>
+      </c>
+      <c r="K2105">
+        <v>1800000</v>
+      </c>
+      <c r="L2105">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:12">
+      <c r="A2106">
+        <v>2103</v>
+      </c>
+      <c r="B2106">
+        <v>626402</v>
+      </c>
+      <c r="C2106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2106" t="s">
+        <v>2206</v>
+      </c>
+      <c r="E2106" t="s">
+        <v>2241</v>
+      </c>
+      <c r="F2106" t="s">
+        <v>2242</v>
+      </c>
+      <c r="G2106" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2106" t="s">
+        <v>757</v>
+      </c>
+      <c r="I2106" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2106">
+        <v>1</v>
+      </c>
+      <c r="K2106">
+        <v>400000</v>
+      </c>
+      <c r="L2106">
+        <v>400000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2284">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -6485,6 +6485,18 @@
     <t>'626402.175.524113.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.956.101.0G.000244</t>
   </si>
   <si>
+    <t>2023-06-07</t>
+  </si>
+  <si>
+    <t>'00474T</t>
+  </si>
+  <si>
+    <t>'231751303012724</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perjadin Menghadiri Rapat Koordinasi Teknis Pusat Pendidikan KP sesuai ST No:B.972/BRSDM.4/KP.440/V/2023 Tgl 08 Mei 2023 an. Luh Dewi Komarini, dkk</t>
+  </si>
+  <si>
     <t>2023-05-29</t>
   </si>
   <si>
@@ -6635,6 +6647,15 @@
     <t>Pembayaran Belanja Barang. Perjadin Menghadiri Rakornis Pusat Pendidikan sesuai ST No:B.976/BRSDM.4/KP.440/V/2023 Tgl 08-05-2023 an. Wishnu C. Pratama, dkk</t>
   </si>
   <si>
+    <t>'00487T</t>
+  </si>
+  <si>
+    <t>'231751303012725</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perjadin Peninjauan Kesiapan Transformasi Pendidikan dan status kelembagaan Poltek KP Bitung sesuai ST No:B.987/BRSDM.4/KP.440/V/2023 Tgl 09-05-2023 an. Dwi Hertanto, dkk</t>
+  </si>
+  <si>
     <t>2023-06-05</t>
   </si>
   <si>
@@ -6704,6 +6725,30 @@
     <t>Pembayaran belanja pegawai Pusdik uang lembur dan uang makan lembur bulan Maret 2023 untuk 8 pegawai sesuai SPKL no :B.668, 685/BRSDM.4/KP.440/III/2023 tanggal 16 dan 20 Maret 2023</t>
   </si>
   <si>
+    <t>'00496T</t>
+  </si>
+  <si>
+    <t>'231751303012722</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perjadin Rapat Koordinasi Teknis Pendidikan KP,Sesuai ST No:B.978/BRSDM.4/KP.440/V/2023 tgl 8 Mei 2023 an. Norma MP Manoppo, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524119.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.301.0F.000989</t>
+  </si>
+  <si>
+    <t>'00497T</t>
+  </si>
+  <si>
+    <t>'231751303012723</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perjadin Rapat Koordinasi Teknis Pendidikan KP,Sesuai ST No:B.971/BRSDM.4/KP.440/V/2023 tgl 8 Mei 2023, B.759/BRSDM/KP.440/V/2023 tgl 9 Mei 2023 dst an. Norma MP Manoppo, S.Pi., M.Si, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.301.0F.000986</t>
+  </si>
+  <si>
     <t>'00499T</t>
   </si>
   <si>
@@ -6750,6 +6795,78 @@
   </si>
   <si>
     <t>'626402.175.522151.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.960.101.0B.000761</t>
+  </si>
+  <si>
+    <t>'00504T</t>
+  </si>
+  <si>
+    <t>'231751303012774</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang. Uang lembur PPNPN bulan April 2023 untuk 1 pegawai berdasarkan SPKL No 779/BRSDM.4/KP.440/IV/2023 tgl 3 April 2023,No 844/BRSDM.4/KP.440/IV/2023 tgl 11 April 2023 dan No 856/BRSDM.4/KP.440/IV/2023 tgl 12 April 2023</t>
+  </si>
+  <si>
+    <t>'00505T</t>
+  </si>
+  <si>
+    <t>'231751701003248</t>
+  </si>
+  <si>
+    <t>'626402.175.521219.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0A.001438</t>
+  </si>
+  <si>
+    <t>'626402.175.521219.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.301.0C.000966</t>
+  </si>
+  <si>
+    <t>'626402.175.522151.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.301.0F.000647</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.301.0C.001121</t>
+  </si>
+  <si>
+    <t>'00506T</t>
+  </si>
+  <si>
+    <t>'231751303012801</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran gaji susulan pegawai Sekretariat BRSDM bulan JUni 2023 untuk 1 pegawai/4 jiwa)</t>
+  </si>
+  <si>
+    <t>'00507T</t>
+  </si>
+  <si>
+    <t>'231751303012788</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran gaji susulan pegawai Puslatluh bulan JUni 2023 untuk 2 pegawai/8 jiwa)</t>
+  </si>
+  <si>
+    <t>'00508T</t>
+  </si>
+  <si>
+    <t>'231751303012790</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Berupa Honor PPNPN Bulan Mei Tahun 2023 untuk 1 Pegawai.</t>
+  </si>
+  <si>
+    <t>'00510T</t>
+  </si>
+  <si>
+    <t>'231751303012789</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(Pembayaran kekurangan gaji pegawai Pusdik bulan Mei untuk 2 pegawai)</t>
+  </si>
+  <si>
+    <t>'00519T</t>
+  </si>
+  <si>
+    <t>'231751303012730</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SK No:KEP.19/MEN-KP/KU.611/2022 Tgl.4-3-2022,SK No:1,9 Tahun 2023 Tgl.2,5-1-2023,SK No:6,8,10,11,12/KPA/BRSDM/I/2023 Tgl.3,4-1-2023,SK No:KEP.316,372/KPA/BRSDM/IV/2023 Tgl.3,26-4-2023 Honor PA Bulan Mei 2023</t>
   </si>
 </sst>
 </file>
@@ -7091,7 +7208,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L2106"/>
+  <dimension ref="A1:L2228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -82861,10 +82978,10 @@
         <v>2158</v>
       </c>
       <c r="G1996" t="s">
-        <v>200</v>
+        <v>2159</v>
       </c>
       <c r="H1996" t="s">
-        <v>204</v>
+        <v>715</v>
       </c>
       <c r="I1996" t="s">
         <v>19</v>
@@ -82873,10 +82990,10 @@
         <v>1</v>
       </c>
       <c r="K1996">
-        <v>1750000</v>
+        <v>25837700</v>
       </c>
       <c r="L1996">
-        <v>1750000</v>
+        <v>25837700</v>
       </c>
     </row>
     <row r="1997" spans="1:12">
@@ -82890,19 +83007,19 @@
         <v>13</v>
       </c>
       <c r="D1997" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E1997" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="F1997" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="G1997" t="s">
         <v>200</v>
       </c>
       <c r="H1997" t="s">
-        <v>2159</v>
+        <v>204</v>
       </c>
       <c r="I1997" t="s">
         <v>19</v>
@@ -82911,10 +83028,10 @@
         <v>1</v>
       </c>
       <c r="K1997">
-        <v>18540000</v>
+        <v>1750000</v>
       </c>
       <c r="L1997">
-        <v>18540000</v>
+        <v>1750000</v>
       </c>
     </row>
     <row r="1998" spans="1:12">
@@ -82928,19 +83045,19 @@
         <v>13</v>
       </c>
       <c r="D1998" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E1998" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="F1998" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="G1998" t="s">
         <v>200</v>
       </c>
       <c r="H1998" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="I1998" t="s">
         <v>19</v>
@@ -82949,10 +83066,10 @@
         <v>1</v>
       </c>
       <c r="K1998">
-        <v>2899200</v>
+        <v>18540000</v>
       </c>
       <c r="L1998">
-        <v>2899200</v>
+        <v>18540000</v>
       </c>
     </row>
     <row r="1999" spans="1:12">
@@ -82966,19 +83083,19 @@
         <v>13</v>
       </c>
       <c r="D1999" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E1999" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="F1999" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="G1999" t="s">
         <v>200</v>
       </c>
       <c r="H1999" t="s">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="I1999" t="s">
         <v>19</v>
@@ -82987,10 +83104,10 @@
         <v>1</v>
       </c>
       <c r="K1999">
-        <v>2965000</v>
+        <v>2899200</v>
       </c>
       <c r="L1999">
-        <v>2965000</v>
+        <v>2899200</v>
       </c>
     </row>
     <row r="2000" spans="1:12">
@@ -83004,19 +83121,19 @@
         <v>13</v>
       </c>
       <c r="D2000" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2000" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="F2000" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="G2000" t="s">
         <v>200</v>
       </c>
       <c r="H2000" t="s">
-        <v>2162</v>
+        <v>2165</v>
       </c>
       <c r="I2000" t="s">
         <v>19</v>
@@ -83025,10 +83142,10 @@
         <v>1</v>
       </c>
       <c r="K2000">
-        <v>1950000</v>
+        <v>2965000</v>
       </c>
       <c r="L2000">
-        <v>1950000</v>
+        <v>2965000</v>
       </c>
     </row>
     <row r="2001" spans="1:12">
@@ -83042,19 +83159,19 @@
         <v>13</v>
       </c>
       <c r="D2001" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2001" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="F2001" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="G2001" t="s">
         <v>200</v>
       </c>
       <c r="H2001" t="s">
-        <v>2163</v>
+        <v>2166</v>
       </c>
       <c r="I2001" t="s">
         <v>19</v>
@@ -83063,10 +83180,10 @@
         <v>1</v>
       </c>
       <c r="K2001">
-        <v>33600000</v>
+        <v>1950000</v>
       </c>
       <c r="L2001">
-        <v>33600000</v>
+        <v>1950000</v>
       </c>
     </row>
     <row r="2002" spans="1:12">
@@ -83080,19 +83197,19 @@
         <v>13</v>
       </c>
       <c r="D2002" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2002" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="F2002" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="G2002" t="s">
         <v>200</v>
       </c>
       <c r="H2002" t="s">
-        <v>216</v>
+        <v>2167</v>
       </c>
       <c r="I2002" t="s">
         <v>19</v>
@@ -83101,10 +83218,10 @@
         <v>1</v>
       </c>
       <c r="K2002">
-        <v>770000</v>
+        <v>33600000</v>
       </c>
       <c r="L2002">
-        <v>770000</v>
+        <v>33600000</v>
       </c>
     </row>
     <row r="2003" spans="1:12">
@@ -83118,19 +83235,19 @@
         <v>13</v>
       </c>
       <c r="D2003" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2003" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="F2003" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="G2003" t="s">
         <v>200</v>
       </c>
       <c r="H2003" t="s">
-        <v>710</v>
+        <v>216</v>
       </c>
       <c r="I2003" t="s">
         <v>19</v>
@@ -83139,10 +83256,10 @@
         <v>1</v>
       </c>
       <c r="K2003">
-        <v>819000</v>
+        <v>770000</v>
       </c>
       <c r="L2003">
-        <v>819000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="2004" spans="1:12">
@@ -83156,19 +83273,19 @@
         <v>13</v>
       </c>
       <c r="D2004" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2004" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="F2004" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="G2004" t="s">
         <v>200</v>
       </c>
       <c r="H2004" t="s">
-        <v>222</v>
+        <v>710</v>
       </c>
       <c r="I2004" t="s">
         <v>19</v>
@@ -83177,10 +83294,10 @@
         <v>1</v>
       </c>
       <c r="K2004">
-        <v>440000</v>
+        <v>819000</v>
       </c>
       <c r="L2004">
-        <v>440000</v>
+        <v>819000</v>
       </c>
     </row>
     <row r="2005" spans="1:12">
@@ -83194,19 +83311,19 @@
         <v>13</v>
       </c>
       <c r="D2005" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2005" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="F2005" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="G2005" t="s">
         <v>200</v>
       </c>
       <c r="H2005" t="s">
-        <v>2164</v>
+        <v>222</v>
       </c>
       <c r="I2005" t="s">
         <v>19</v>
@@ -83215,10 +83332,10 @@
         <v>1</v>
       </c>
       <c r="K2005">
-        <v>6000000</v>
+        <v>440000</v>
       </c>
       <c r="L2005">
-        <v>6000000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="2006" spans="1:12">
@@ -83232,19 +83349,19 @@
         <v>13</v>
       </c>
       <c r="D2006" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2006" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="F2006" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="G2006" t="s">
         <v>200</v>
       </c>
       <c r="H2006" t="s">
-        <v>716</v>
+        <v>2168</v>
       </c>
       <c r="I2006" t="s">
         <v>19</v>
@@ -83253,10 +83370,10 @@
         <v>1</v>
       </c>
       <c r="K2006">
-        <v>8063193</v>
+        <v>6000000</v>
       </c>
       <c r="L2006">
-        <v>8063193</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="2007" spans="1:12">
@@ -83270,19 +83387,19 @@
         <v>13</v>
       </c>
       <c r="D2007" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2007" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="F2007" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="G2007" t="s">
         <v>200</v>
       </c>
       <c r="H2007" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I2007" t="s">
         <v>19</v>
@@ -83291,10 +83408,10 @@
         <v>1</v>
       </c>
       <c r="K2007">
-        <v>16116790</v>
+        <v>8063193</v>
       </c>
       <c r="L2007">
-        <v>16116790</v>
+        <v>8063193</v>
       </c>
     </row>
     <row r="2008" spans="1:12">
@@ -83308,19 +83425,19 @@
         <v>13</v>
       </c>
       <c r="D2008" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2008" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="F2008" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="G2008" t="s">
         <v>200</v>
       </c>
       <c r="H2008" t="s">
-        <v>238</v>
+        <v>717</v>
       </c>
       <c r="I2008" t="s">
         <v>19</v>
@@ -83329,10 +83446,10 @@
         <v>1</v>
       </c>
       <c r="K2008">
-        <v>3555000</v>
+        <v>16116790</v>
       </c>
       <c r="L2008">
-        <v>3555000</v>
+        <v>16116790</v>
       </c>
     </row>
     <row r="2009" spans="1:12">
@@ -83346,19 +83463,19 @@
         <v>13</v>
       </c>
       <c r="D2009" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2009" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="F2009" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="G2009" t="s">
         <v>200</v>
       </c>
       <c r="H2009" t="s">
-        <v>719</v>
+        <v>238</v>
       </c>
       <c r="I2009" t="s">
         <v>19</v>
@@ -83367,10 +83484,10 @@
         <v>1</v>
       </c>
       <c r="K2009">
-        <v>2400000</v>
+        <v>3555000</v>
       </c>
       <c r="L2009">
-        <v>2400000</v>
+        <v>3555000</v>
       </c>
     </row>
     <row r="2010" spans="1:12">
@@ -83384,19 +83501,19 @@
         <v>13</v>
       </c>
       <c r="D2010" t="s">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="E2010" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="F2010" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
       <c r="G2010" t="s">
-        <v>2168</v>
+        <v>200</v>
       </c>
       <c r="H2010" t="s">
-        <v>2169</v>
+        <v>719</v>
       </c>
       <c r="I2010" t="s">
         <v>19</v>
@@ -83405,10 +83522,10 @@
         <v>1</v>
       </c>
       <c r="K2010">
-        <v>237000</v>
+        <v>2400000</v>
       </c>
       <c r="L2010">
-        <v>237000</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="2011" spans="1:12">
@@ -83422,7 +83539,7 @@
         <v>13</v>
       </c>
       <c r="D2011" t="s">
-        <v>2165</v>
+        <v>2169</v>
       </c>
       <c r="E2011" t="s">
         <v>2170</v>
@@ -83434,7 +83551,7 @@
         <v>2172</v>
       </c>
       <c r="H2011" t="s">
-        <v>2169</v>
+        <v>2173</v>
       </c>
       <c r="I2011" t="s">
         <v>19</v>
@@ -83443,10 +83560,10 @@
         <v>1</v>
       </c>
       <c r="K2011">
-        <v>207000</v>
+        <v>237000</v>
       </c>
       <c r="L2011">
-        <v>207000</v>
+        <v>237000</v>
       </c>
     </row>
     <row r="2012" spans="1:12">
@@ -83460,20 +83577,20 @@
         <v>13</v>
       </c>
       <c r="D2012" t="s">
-        <v>2156</v>
+        <v>2169</v>
       </c>
       <c r="E2012" t="s">
+        <v>2174</v>
+      </c>
+      <c r="F2012" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G2012" t="s">
+        <v>2176</v>
+      </c>
+      <c r="H2012" t="s">
         <v>2173</v>
       </c>
-      <c r="F2012" t="s">
-        <v>2174</v>
-      </c>
-      <c r="G2012" t="s">
-        <v>1210</v>
-      </c>
-      <c r="H2012" t="s">
-        <v>170</v>
-      </c>
       <c r="I2012" t="s">
         <v>19</v>
       </c>
@@ -83481,10 +83598,10 @@
         <v>1</v>
       </c>
       <c r="K2012">
-        <v>27993000</v>
+        <v>207000</v>
       </c>
       <c r="L2012">
-        <v>27993000</v>
+        <v>207000</v>
       </c>
     </row>
     <row r="2013" spans="1:12">
@@ -83498,19 +83615,19 @@
         <v>13</v>
       </c>
       <c r="D2013" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2013" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="F2013" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="G2013" t="s">
         <v>1210</v>
       </c>
       <c r="H2013" t="s">
-        <v>374</v>
+        <v>170</v>
       </c>
       <c r="I2013" t="s">
         <v>19</v>
@@ -83519,10 +83636,10 @@
         <v>1</v>
       </c>
       <c r="K2013">
-        <v>20000000</v>
+        <v>27993000</v>
       </c>
       <c r="L2013">
-        <v>20000000</v>
+        <v>27993000</v>
       </c>
     </row>
     <row r="2014" spans="1:12">
@@ -83536,19 +83653,19 @@
         <v>13</v>
       </c>
       <c r="D2014" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2014" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="F2014" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="G2014" t="s">
         <v>1210</v>
       </c>
       <c r="H2014" t="s">
-        <v>796</v>
+        <v>374</v>
       </c>
       <c r="I2014" t="s">
         <v>19</v>
@@ -83557,10 +83674,10 @@
         <v>1</v>
       </c>
       <c r="K2014">
-        <v>2798000</v>
+        <v>20000000</v>
       </c>
       <c r="L2014">
-        <v>2798000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="2015" spans="1:12">
@@ -83574,19 +83691,19 @@
         <v>13</v>
       </c>
       <c r="D2015" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2015" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="F2015" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="G2015" t="s">
         <v>1210</v>
       </c>
       <c r="H2015" t="s">
-        <v>173</v>
+        <v>796</v>
       </c>
       <c r="I2015" t="s">
         <v>19</v>
@@ -83595,10 +83712,10 @@
         <v>1</v>
       </c>
       <c r="K2015">
-        <v>121284</v>
+        <v>2798000</v>
       </c>
       <c r="L2015">
-        <v>121284</v>
+        <v>2798000</v>
       </c>
     </row>
     <row r="2016" spans="1:12">
@@ -83612,19 +83729,19 @@
         <v>13</v>
       </c>
       <c r="D2016" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2016" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="F2016" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="G2016" t="s">
         <v>1210</v>
       </c>
       <c r="H2016" t="s">
-        <v>755</v>
+        <v>173</v>
       </c>
       <c r="I2016" t="s">
         <v>19</v>
@@ -83633,10 +83750,10 @@
         <v>1</v>
       </c>
       <c r="K2016">
-        <v>2327770</v>
+        <v>121284</v>
       </c>
       <c r="L2016">
-        <v>2327770</v>
+        <v>121284</v>
       </c>
     </row>
     <row r="2017" spans="1:12">
@@ -83650,19 +83767,19 @@
         <v>13</v>
       </c>
       <c r="D2017" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2017" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="F2017" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="G2017" t="s">
         <v>1210</v>
       </c>
       <c r="H2017" t="s">
-        <v>895</v>
+        <v>755</v>
       </c>
       <c r="I2017" t="s">
         <v>19</v>
@@ -83671,10 +83788,10 @@
         <v>1</v>
       </c>
       <c r="K2017">
-        <v>3005000</v>
+        <v>2327770</v>
       </c>
       <c r="L2017">
-        <v>3005000</v>
+        <v>2327770</v>
       </c>
     </row>
     <row r="2018" spans="1:12">
@@ -83688,19 +83805,19 @@
         <v>13</v>
       </c>
       <c r="D2018" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2018" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="F2018" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="G2018" t="s">
         <v>1210</v>
       </c>
       <c r="H2018" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I2018" t="s">
         <v>19</v>
@@ -83709,10 +83826,10 @@
         <v>1</v>
       </c>
       <c r="K2018">
-        <v>3012000</v>
+        <v>3005000</v>
       </c>
       <c r="L2018">
-        <v>3012000</v>
+        <v>3005000</v>
       </c>
     </row>
     <row r="2019" spans="1:12">
@@ -83726,19 +83843,19 @@
         <v>13</v>
       </c>
       <c r="D2019" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2019" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="F2019" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="G2019" t="s">
         <v>1210</v>
       </c>
       <c r="H2019" t="s">
-        <v>814</v>
+        <v>897</v>
       </c>
       <c r="I2019" t="s">
         <v>19</v>
@@ -83747,10 +83864,10 @@
         <v>1</v>
       </c>
       <c r="K2019">
-        <v>3000000</v>
+        <v>3012000</v>
       </c>
       <c r="L2019">
-        <v>3000000</v>
+        <v>3012000</v>
       </c>
     </row>
     <row r="2020" spans="1:12">
@@ -83764,19 +83881,19 @@
         <v>13</v>
       </c>
       <c r="D2020" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2020" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="F2020" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="G2020" t="s">
         <v>1210</v>
       </c>
       <c r="H2020" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I2020" t="s">
         <v>19</v>
@@ -83785,10 +83902,10 @@
         <v>1</v>
       </c>
       <c r="K2020">
-        <v>9000000</v>
+        <v>3000000</v>
       </c>
       <c r="L2020">
-        <v>9000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="2021" spans="1:12">
@@ -83802,19 +83919,19 @@
         <v>13</v>
       </c>
       <c r="D2021" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2021" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="F2021" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="G2021" t="s">
         <v>1210</v>
       </c>
       <c r="H2021" t="s">
-        <v>582</v>
+        <v>815</v>
       </c>
       <c r="I2021" t="s">
         <v>19</v>
@@ -83823,10 +83940,10 @@
         <v>1</v>
       </c>
       <c r="K2021">
-        <v>1639760</v>
+        <v>9000000</v>
       </c>
       <c r="L2021">
-        <v>1639760</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="2022" spans="1:12">
@@ -83840,19 +83957,19 @@
         <v>13</v>
       </c>
       <c r="D2022" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2022" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="F2022" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="G2022" t="s">
         <v>1210</v>
       </c>
       <c r="H2022" t="s">
-        <v>2155</v>
+        <v>582</v>
       </c>
       <c r="I2022" t="s">
         <v>19</v>
@@ -83861,10 +83978,10 @@
         <v>1</v>
       </c>
       <c r="K2022">
-        <v>150000</v>
+        <v>1639760</v>
       </c>
       <c r="L2022">
-        <v>150000</v>
+        <v>1639760</v>
       </c>
     </row>
     <row r="2023" spans="1:12">
@@ -83878,19 +83995,19 @@
         <v>13</v>
       </c>
       <c r="D2023" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2023" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="F2023" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="G2023" t="s">
         <v>1210</v>
       </c>
       <c r="H2023" t="s">
-        <v>774</v>
+        <v>2155</v>
       </c>
       <c r="I2023" t="s">
         <v>19</v>
@@ -83899,10 +84016,10 @@
         <v>1</v>
       </c>
       <c r="K2023">
-        <v>520000</v>
+        <v>150000</v>
       </c>
       <c r="L2023">
-        <v>520000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="2024" spans="1:12">
@@ -83916,19 +84033,19 @@
         <v>13</v>
       </c>
       <c r="D2024" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2024" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="F2024" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="G2024" t="s">
         <v>1210</v>
       </c>
       <c r="H2024" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I2024" t="s">
         <v>19</v>
@@ -83937,10 +84054,10 @@
         <v>1</v>
       </c>
       <c r="K2024">
-        <v>600000</v>
+        <v>520000</v>
       </c>
       <c r="L2024">
-        <v>600000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="2025" spans="1:12">
@@ -83954,19 +84071,19 @@
         <v>13</v>
       </c>
       <c r="D2025" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E2025" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="F2025" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="G2025" t="s">
         <v>1210</v>
       </c>
       <c r="H2025" t="s">
-        <v>2175</v>
+        <v>775</v>
       </c>
       <c r="I2025" t="s">
         <v>19</v>
@@ -83975,10 +84092,10 @@
         <v>1</v>
       </c>
       <c r="K2025">
-        <v>25550000</v>
+        <v>600000</v>
       </c>
       <c r="L2025">
-        <v>25550000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="2026" spans="1:12">
@@ -83992,7 +84109,7 @@
         <v>13</v>
       </c>
       <c r="D2026" t="s">
-        <v>2176</v>
+        <v>2160</v>
       </c>
       <c r="E2026" t="s">
         <v>2177</v>
@@ -84001,11 +84118,11 @@
         <v>2178</v>
       </c>
       <c r="G2026" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H2026" t="s">
         <v>2179</v>
       </c>
-      <c r="H2026" t="s">
-        <v>763</v>
-      </c>
       <c r="I2026" t="s">
         <v>19</v>
       </c>
@@ -84013,10 +84130,10 @@
         <v>1</v>
       </c>
       <c r="K2026">
-        <v>3333610</v>
+        <v>25550000</v>
       </c>
       <c r="L2026">
-        <v>3333610</v>
+        <v>25550000</v>
       </c>
     </row>
     <row r="2027" spans="1:12">
@@ -84030,19 +84147,19 @@
         <v>13</v>
       </c>
       <c r="D2027" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2027" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="F2027" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="G2027" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="H2027" t="s">
-        <v>261</v>
+        <v>763</v>
       </c>
       <c r="I2027" t="s">
         <v>19</v>
@@ -84051,10 +84168,10 @@
         <v>1</v>
       </c>
       <c r="K2027">
-        <v>5639500</v>
+        <v>3333610</v>
       </c>
       <c r="L2027">
-        <v>5639500</v>
+        <v>3333610</v>
       </c>
     </row>
     <row r="2028" spans="1:12">
@@ -84068,16 +84185,16 @@
         <v>13</v>
       </c>
       <c r="D2028" t="s">
-        <v>2156</v>
+        <v>2180</v>
       </c>
       <c r="E2028" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="F2028" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="G2028" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="H2028" t="s">
         <v>261</v>
@@ -84089,10 +84206,10 @@
         <v>1</v>
       </c>
       <c r="K2028">
-        <v>4241379</v>
+        <v>5639500</v>
       </c>
       <c r="L2028">
-        <v>4241379</v>
+        <v>5639500</v>
       </c>
     </row>
     <row r="2029" spans="1:12">
@@ -84106,19 +84223,19 @@
         <v>13</v>
       </c>
       <c r="D2029" t="s">
-        <v>2138</v>
+        <v>2160</v>
       </c>
       <c r="E2029" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="F2029" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="G2029" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="H2029" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="I2029" t="s">
         <v>19</v>
@@ -84127,10 +84244,10 @@
         <v>1</v>
       </c>
       <c r="K2029">
-        <v>6271000</v>
+        <v>4241379</v>
       </c>
       <c r="L2029">
-        <v>6271000</v>
+        <v>4241379</v>
       </c>
     </row>
     <row r="2030" spans="1:12">
@@ -84144,19 +84261,19 @@
         <v>13</v>
       </c>
       <c r="D2030" t="s">
-        <v>2176</v>
+        <v>2138</v>
       </c>
       <c r="E2030" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="F2030" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="G2030" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="H2030" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="I2030" t="s">
         <v>19</v>
@@ -84165,10 +84282,10 @@
         <v>1</v>
       </c>
       <c r="K2030">
-        <v>1142000</v>
+        <v>6271000</v>
       </c>
       <c r="L2030">
-        <v>1142000</v>
+        <v>6271000</v>
       </c>
     </row>
     <row r="2031" spans="1:12">
@@ -84182,19 +84299,19 @@
         <v>13</v>
       </c>
       <c r="D2031" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2031" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2031" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2031" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2031" t="s">
-        <v>1408</v>
+        <v>312</v>
       </c>
       <c r="I2031" t="s">
         <v>19</v>
@@ -84203,10 +84320,10 @@
         <v>1</v>
       </c>
       <c r="K2031">
-        <v>1930820</v>
+        <v>1142000</v>
       </c>
       <c r="L2031">
-        <v>1930820</v>
+        <v>1142000</v>
       </c>
     </row>
     <row r="2032" spans="1:12">
@@ -84220,19 +84337,19 @@
         <v>13</v>
       </c>
       <c r="D2032" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2032" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2032" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2032" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2032" t="s">
-        <v>1509</v>
+        <v>1408</v>
       </c>
       <c r="I2032" t="s">
         <v>19</v>
@@ -84241,10 +84358,10 @@
         <v>1</v>
       </c>
       <c r="K2032">
-        <v>3352000</v>
+        <v>1930820</v>
       </c>
       <c r="L2032">
-        <v>3352000</v>
+        <v>1930820</v>
       </c>
     </row>
     <row r="2033" spans="1:12">
@@ -84258,19 +84375,19 @@
         <v>13</v>
       </c>
       <c r="D2033" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2033" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2033" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2033" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2033" t="s">
-        <v>597</v>
+        <v>1509</v>
       </c>
       <c r="I2033" t="s">
         <v>19</v>
@@ -84279,10 +84396,10 @@
         <v>1</v>
       </c>
       <c r="K2033">
-        <v>1253000</v>
+        <v>3352000</v>
       </c>
       <c r="L2033">
-        <v>1253000</v>
+        <v>3352000</v>
       </c>
     </row>
     <row r="2034" spans="1:12">
@@ -84296,19 +84413,19 @@
         <v>13</v>
       </c>
       <c r="D2034" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2034" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2034" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2034" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2034" t="s">
-        <v>2192</v>
+        <v>597</v>
       </c>
       <c r="I2034" t="s">
         <v>19</v>
@@ -84317,10 +84434,10 @@
         <v>1</v>
       </c>
       <c r="K2034">
-        <v>3000000</v>
+        <v>1253000</v>
       </c>
       <c r="L2034">
-        <v>3000000</v>
+        <v>1253000</v>
       </c>
     </row>
     <row r="2035" spans="1:12">
@@ -84334,19 +84451,19 @@
         <v>13</v>
       </c>
       <c r="D2035" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2035" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2035" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2035" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2035" t="s">
-        <v>1510</v>
+        <v>2196</v>
       </c>
       <c r="I2035" t="s">
         <v>19</v>
@@ -84355,10 +84472,10 @@
         <v>1</v>
       </c>
       <c r="K2035">
-        <v>3368400</v>
+        <v>3000000</v>
       </c>
       <c r="L2035">
-        <v>3368400</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="2036" spans="1:12">
@@ -84372,19 +84489,19 @@
         <v>13</v>
       </c>
       <c r="D2036" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2036" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2036" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2036" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2036" t="s">
-        <v>321</v>
+        <v>1510</v>
       </c>
       <c r="I2036" t="s">
         <v>19</v>
@@ -84393,10 +84510,10 @@
         <v>1</v>
       </c>
       <c r="K2036">
-        <v>1125000</v>
+        <v>3368400</v>
       </c>
       <c r="L2036">
-        <v>1125000</v>
+        <v>3368400</v>
       </c>
     </row>
     <row r="2037" spans="1:12">
@@ -84410,19 +84527,19 @@
         <v>13</v>
       </c>
       <c r="D2037" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2037" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2037" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2037" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2037" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="I2037" t="s">
         <v>19</v>
@@ -84431,10 +84548,10 @@
         <v>1</v>
       </c>
       <c r="K2037">
-        <v>1000000</v>
+        <v>1125000</v>
       </c>
       <c r="L2037">
-        <v>1000000</v>
+        <v>1125000</v>
       </c>
     </row>
     <row r="2038" spans="1:12">
@@ -84448,19 +84565,19 @@
         <v>13</v>
       </c>
       <c r="D2038" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2038" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2038" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2038" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2038" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I2038" t="s">
         <v>19</v>
@@ -84486,19 +84603,19 @@
         <v>13</v>
       </c>
       <c r="D2039" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2039" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2039" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2039" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2039" t="s">
-        <v>1921</v>
+        <v>329</v>
       </c>
       <c r="I2039" t="s">
         <v>19</v>
@@ -84507,10 +84624,10 @@
         <v>1</v>
       </c>
       <c r="K2039">
-        <v>2190000</v>
+        <v>1000000</v>
       </c>
       <c r="L2039">
-        <v>2190000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="2040" spans="1:12">
@@ -84524,19 +84641,19 @@
         <v>13</v>
       </c>
       <c r="D2040" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2040" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2040" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2040" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2040" t="s">
-        <v>330</v>
+        <v>1921</v>
       </c>
       <c r="I2040" t="s">
         <v>19</v>
@@ -84545,10 +84662,10 @@
         <v>1</v>
       </c>
       <c r="K2040">
-        <v>1000000</v>
+        <v>2190000</v>
       </c>
       <c r="L2040">
-        <v>1000000</v>
+        <v>2190000</v>
       </c>
     </row>
     <row r="2041" spans="1:12">
@@ -84562,19 +84679,19 @@
         <v>13</v>
       </c>
       <c r="D2041" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2041" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2041" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2041" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2041" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I2041" t="s">
         <v>19</v>
@@ -84600,19 +84717,19 @@
         <v>13</v>
       </c>
       <c r="D2042" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2042" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2042" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2042" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2042" t="s">
-        <v>2193</v>
+        <v>331</v>
       </c>
       <c r="I2042" t="s">
         <v>19</v>
@@ -84621,10 +84738,10 @@
         <v>1</v>
       </c>
       <c r="K2042">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="L2042">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="2043" spans="1:12">
@@ -84638,19 +84755,19 @@
         <v>13</v>
       </c>
       <c r="D2043" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2043" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2043" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2043" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2043" t="s">
-        <v>1002</v>
+        <v>2197</v>
       </c>
       <c r="I2043" t="s">
         <v>19</v>
@@ -84659,10 +84776,10 @@
         <v>1</v>
       </c>
       <c r="K2043">
-        <v>20000000</v>
+        <v>2000000</v>
       </c>
       <c r="L2043">
-        <v>20000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="2044" spans="1:12">
@@ -84676,19 +84793,19 @@
         <v>13</v>
       </c>
       <c r="D2044" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2044" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2044" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2044" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2044" t="s">
-        <v>332</v>
+        <v>1002</v>
       </c>
       <c r="I2044" t="s">
         <v>19</v>
@@ -84697,10 +84814,10 @@
         <v>1</v>
       </c>
       <c r="K2044">
-        <v>3000000</v>
+        <v>20000000</v>
       </c>
       <c r="L2044">
-        <v>3000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="2045" spans="1:12">
@@ -84714,19 +84831,19 @@
         <v>13</v>
       </c>
       <c r="D2045" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2045" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2045" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2045" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2045" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I2045" t="s">
         <v>19</v>
@@ -84735,10 +84852,10 @@
         <v>1</v>
       </c>
       <c r="K2045">
-        <v>1745438</v>
+        <v>3000000</v>
       </c>
       <c r="L2045">
-        <v>1745438</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="2046" spans="1:12">
@@ -84752,19 +84869,19 @@
         <v>13</v>
       </c>
       <c r="D2046" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2046" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2046" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2046" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2046" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I2046" t="s">
         <v>19</v>
@@ -84773,10 +84890,10 @@
         <v>1</v>
       </c>
       <c r="K2046">
-        <v>3649462</v>
+        <v>1745438</v>
       </c>
       <c r="L2046">
-        <v>3649462</v>
+        <v>1745438</v>
       </c>
     </row>
     <row r="2047" spans="1:12">
@@ -84790,19 +84907,19 @@
         <v>13</v>
       </c>
       <c r="D2047" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2047" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2047" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2047" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2047" t="s">
-        <v>2194</v>
+        <v>335</v>
       </c>
       <c r="I2047" t="s">
         <v>19</v>
@@ -84811,10 +84928,10 @@
         <v>1</v>
       </c>
       <c r="K2047">
-        <v>300000</v>
+        <v>3649462</v>
       </c>
       <c r="L2047">
-        <v>300000</v>
+        <v>3649462</v>
       </c>
     </row>
     <row r="2048" spans="1:12">
@@ -84828,19 +84945,19 @@
         <v>13</v>
       </c>
       <c r="D2048" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2048" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2048" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2048" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2048" t="s">
-        <v>601</v>
+        <v>2198</v>
       </c>
       <c r="I2048" t="s">
         <v>19</v>
@@ -84849,10 +84966,10 @@
         <v>1</v>
       </c>
       <c r="K2048">
-        <v>2830000</v>
+        <v>300000</v>
       </c>
       <c r="L2048">
-        <v>2830000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="2049" spans="1:12">
@@ -84866,19 +84983,19 @@
         <v>13</v>
       </c>
       <c r="D2049" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2049" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2049" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2049" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2049" t="s">
-        <v>2195</v>
+        <v>601</v>
       </c>
       <c r="I2049" t="s">
         <v>19</v>
@@ -84887,10 +85004,10 @@
         <v>1</v>
       </c>
       <c r="K2049">
-        <v>2341299</v>
+        <v>2830000</v>
       </c>
       <c r="L2049">
-        <v>2341299</v>
+        <v>2830000</v>
       </c>
     </row>
     <row r="2050" spans="1:12">
@@ -84904,19 +85021,19 @@
         <v>13</v>
       </c>
       <c r="D2050" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2050" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2050" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2050" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2050" t="s">
-        <v>341</v>
+        <v>2199</v>
       </c>
       <c r="I2050" t="s">
         <v>19</v>
@@ -84925,10 +85042,10 @@
         <v>1</v>
       </c>
       <c r="K2050">
-        <v>10773800</v>
+        <v>2341299</v>
       </c>
       <c r="L2050">
-        <v>10773800</v>
+        <v>2341299</v>
       </c>
     </row>
     <row r="2051" spans="1:12">
@@ -84942,19 +85059,19 @@
         <v>13</v>
       </c>
       <c r="D2051" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2051" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2051" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2051" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2051" t="s">
-        <v>136</v>
+        <v>341</v>
       </c>
       <c r="I2051" t="s">
         <v>19</v>
@@ -84963,10 +85080,10 @@
         <v>1</v>
       </c>
       <c r="K2051">
-        <v>1350000</v>
+        <v>10773800</v>
       </c>
       <c r="L2051">
-        <v>1350000</v>
+        <v>10773800</v>
       </c>
     </row>
     <row r="2052" spans="1:12">
@@ -84980,19 +85097,19 @@
         <v>13</v>
       </c>
       <c r="D2052" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2052" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2052" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2052" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2052" t="s">
-        <v>343</v>
+        <v>136</v>
       </c>
       <c r="I2052" t="s">
         <v>19</v>
@@ -85001,10 +85118,10 @@
         <v>1</v>
       </c>
       <c r="K2052">
-        <v>150000</v>
+        <v>1350000</v>
       </c>
       <c r="L2052">
-        <v>150000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="2053" spans="1:12">
@@ -85018,19 +85135,19 @@
         <v>13</v>
       </c>
       <c r="D2053" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2053" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2053" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2053" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2053" t="s">
-        <v>603</v>
+        <v>343</v>
       </c>
       <c r="I2053" t="s">
         <v>19</v>
@@ -85039,10 +85156,10 @@
         <v>1</v>
       </c>
       <c r="K2053">
-        <v>3897000</v>
+        <v>150000</v>
       </c>
       <c r="L2053">
-        <v>3897000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="2054" spans="1:12">
@@ -85056,19 +85173,19 @@
         <v>13</v>
       </c>
       <c r="D2054" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2054" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2054" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2054" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2054" t="s">
-        <v>345</v>
+        <v>603</v>
       </c>
       <c r="I2054" t="s">
         <v>19</v>
@@ -85077,10 +85194,10 @@
         <v>1</v>
       </c>
       <c r="K2054">
-        <v>11450900</v>
+        <v>3897000</v>
       </c>
       <c r="L2054">
-        <v>11450900</v>
+        <v>3897000</v>
       </c>
     </row>
     <row r="2055" spans="1:12">
@@ -85094,19 +85211,19 @@
         <v>13</v>
       </c>
       <c r="D2055" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2055" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2055" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2055" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2055" t="s">
-        <v>2196</v>
+        <v>345</v>
       </c>
       <c r="I2055" t="s">
         <v>19</v>
@@ -85115,10 +85232,10 @@
         <v>1</v>
       </c>
       <c r="K2055">
-        <v>3640000</v>
+        <v>11450900</v>
       </c>
       <c r="L2055">
-        <v>3640000</v>
+        <v>11450900</v>
       </c>
     </row>
     <row r="2056" spans="1:12">
@@ -85132,19 +85249,19 @@
         <v>13</v>
       </c>
       <c r="D2056" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2056" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2056" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2056" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2056" t="s">
-        <v>1237</v>
+        <v>2200</v>
       </c>
       <c r="I2056" t="s">
         <v>19</v>
@@ -85153,10 +85270,10 @@
         <v>1</v>
       </c>
       <c r="K2056">
-        <v>6021260</v>
+        <v>3640000</v>
       </c>
       <c r="L2056">
-        <v>6021260</v>
+        <v>3640000</v>
       </c>
     </row>
     <row r="2057" spans="1:12">
@@ -85170,19 +85287,19 @@
         <v>13</v>
       </c>
       <c r="D2057" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2057" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2057" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2057" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2057" t="s">
-        <v>2197</v>
+        <v>1237</v>
       </c>
       <c r="I2057" t="s">
         <v>19</v>
@@ -85191,10 +85308,10 @@
         <v>1</v>
       </c>
       <c r="K2057">
-        <v>300000</v>
+        <v>6021260</v>
       </c>
       <c r="L2057">
-        <v>300000</v>
+        <v>6021260</v>
       </c>
     </row>
     <row r="2058" spans="1:12">
@@ -85208,19 +85325,19 @@
         <v>13</v>
       </c>
       <c r="D2058" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2058" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2058" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2058" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2058" t="s">
-        <v>1423</v>
+        <v>2201</v>
       </c>
       <c r="I2058" t="s">
         <v>19</v>
@@ -85229,10 +85346,10 @@
         <v>1</v>
       </c>
       <c r="K2058">
-        <v>450000</v>
+        <v>300000</v>
       </c>
       <c r="L2058">
-        <v>450000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="2059" spans="1:12">
@@ -85246,19 +85363,19 @@
         <v>13</v>
       </c>
       <c r="D2059" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2059" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2059" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2059" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2059" t="s">
-        <v>606</v>
+        <v>1423</v>
       </c>
       <c r="I2059" t="s">
         <v>19</v>
@@ -85267,10 +85384,10 @@
         <v>1</v>
       </c>
       <c r="K2059">
-        <v>750000</v>
+        <v>450000</v>
       </c>
       <c r="L2059">
-        <v>750000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="2060" spans="1:12">
@@ -85284,19 +85401,19 @@
         <v>13</v>
       </c>
       <c r="D2060" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2060" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2060" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2060" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2060" t="s">
-        <v>2198</v>
+        <v>606</v>
       </c>
       <c r="I2060" t="s">
         <v>19</v>
@@ -85305,10 +85422,10 @@
         <v>1</v>
       </c>
       <c r="K2060">
-        <v>1350000</v>
+        <v>750000</v>
       </c>
       <c r="L2060">
-        <v>1350000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="2061" spans="1:12">
@@ -85322,19 +85439,19 @@
         <v>13</v>
       </c>
       <c r="D2061" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2061" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="F2061" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G2061" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="H2061" t="s">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="I2061" t="s">
         <v>19</v>
@@ -85343,10 +85460,10 @@
         <v>1</v>
       </c>
       <c r="K2061">
-        <v>2500000</v>
+        <v>1350000</v>
       </c>
       <c r="L2061">
-        <v>2500000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="2062" spans="1:12">
@@ -85360,19 +85477,19 @@
         <v>13</v>
       </c>
       <c r="D2062" t="s">
-        <v>2165</v>
+        <v>2180</v>
       </c>
       <c r="E2062" t="s">
-        <v>2200</v>
+        <v>2193</v>
       </c>
       <c r="F2062" t="s">
-        <v>2201</v>
+        <v>2194</v>
       </c>
       <c r="G2062" t="s">
-        <v>2202</v>
+        <v>2195</v>
       </c>
       <c r="H2062" t="s">
-        <v>2169</v>
+        <v>2203</v>
       </c>
       <c r="I2062" t="s">
         <v>19</v>
@@ -85381,10 +85498,10 @@
         <v>1</v>
       </c>
       <c r="K2062">
-        <v>82000</v>
+        <v>2500000</v>
       </c>
       <c r="L2062">
-        <v>82000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="2063" spans="1:12">
@@ -85398,19 +85515,19 @@
         <v>13</v>
       </c>
       <c r="D2063" t="s">
-        <v>2165</v>
+        <v>2169</v>
       </c>
       <c r="E2063" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="F2063" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="G2063" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="H2063" t="s">
-        <v>236</v>
+        <v>2173</v>
       </c>
       <c r="I2063" t="s">
         <v>19</v>
@@ -85419,10 +85536,10 @@
         <v>1</v>
       </c>
       <c r="K2063">
-        <v>22690740</v>
+        <v>82000</v>
       </c>
       <c r="L2063">
-        <v>22690740</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="2064" spans="1:12">
@@ -85436,7 +85553,7 @@
         <v>13</v>
       </c>
       <c r="D2064" t="s">
-        <v>2206</v>
+        <v>2169</v>
       </c>
       <c r="E2064" t="s">
         <v>2207</v>
@@ -85448,7 +85565,7 @@
         <v>2209</v>
       </c>
       <c r="H2064" t="s">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="I2064" t="s">
         <v>19</v>
@@ -85457,10 +85574,10 @@
         <v>1</v>
       </c>
       <c r="K2064">
-        <v>162394500</v>
+        <v>22690740</v>
       </c>
       <c r="L2064">
-        <v>162394500</v>
+        <v>22690740</v>
       </c>
     </row>
     <row r="2065" spans="1:12">
@@ -85474,19 +85591,19 @@
         <v>13</v>
       </c>
       <c r="D2065" t="s">
-        <v>2206</v>
+        <v>2156</v>
       </c>
       <c r="E2065" t="s">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="F2065" t="s">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="G2065" t="s">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="H2065" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="I2065" t="s">
         <v>19</v>
@@ -85495,10 +85612,10 @@
         <v>1</v>
       </c>
       <c r="K2065">
-        <v>2536</v>
+        <v>32307827</v>
       </c>
       <c r="L2065">
-        <v>2536</v>
+        <v>32307827</v>
       </c>
     </row>
     <row r="2066" spans="1:12">
@@ -85512,19 +85629,19 @@
         <v>13</v>
       </c>
       <c r="D2066" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2066" t="s">
-        <v>2207</v>
+        <v>2214</v>
       </c>
       <c r="F2066" t="s">
-        <v>2208</v>
+        <v>2215</v>
       </c>
       <c r="G2066" t="s">
-        <v>2209</v>
+        <v>2216</v>
       </c>
       <c r="H2066" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2066" t="s">
         <v>19</v>
@@ -85533,10 +85650,10 @@
         <v>1</v>
       </c>
       <c r="K2066">
-        <v>10583560</v>
+        <v>162394500</v>
       </c>
       <c r="L2066">
-        <v>10583560</v>
+        <v>162394500</v>
       </c>
     </row>
     <row r="2067" spans="1:12">
@@ -85550,19 +85667,19 @@
         <v>13</v>
       </c>
       <c r="D2067" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2067" t="s">
-        <v>2207</v>
+        <v>2214</v>
       </c>
       <c r="F2067" t="s">
-        <v>2208</v>
+        <v>2215</v>
       </c>
       <c r="G2067" t="s">
-        <v>2209</v>
+        <v>2216</v>
       </c>
       <c r="H2067" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2067" t="s">
         <v>19</v>
@@ -85571,10 +85688,10 @@
         <v>1</v>
       </c>
       <c r="K2067">
-        <v>3266244</v>
+        <v>2536</v>
       </c>
       <c r="L2067">
-        <v>3266244</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="2068" spans="1:12">
@@ -85588,19 +85705,19 @@
         <v>13</v>
       </c>
       <c r="D2068" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2068" t="s">
-        <v>2207</v>
+        <v>2214</v>
       </c>
       <c r="F2068" t="s">
-        <v>2208</v>
+        <v>2215</v>
       </c>
       <c r="G2068" t="s">
-        <v>2209</v>
+        <v>2216</v>
       </c>
       <c r="H2068" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I2068" t="s">
         <v>19</v>
@@ -85609,10 +85726,10 @@
         <v>1</v>
       </c>
       <c r="K2068">
-        <v>5770000</v>
+        <v>10583560</v>
       </c>
       <c r="L2068">
-        <v>5770000</v>
+        <v>10583560</v>
       </c>
     </row>
     <row r="2069" spans="1:12">
@@ -85626,19 +85743,19 @@
         <v>13</v>
       </c>
       <c r="D2069" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2069" t="s">
-        <v>2207</v>
+        <v>2214</v>
       </c>
       <c r="F2069" t="s">
-        <v>2208</v>
+        <v>2215</v>
       </c>
       <c r="G2069" t="s">
-        <v>2209</v>
+        <v>2216</v>
       </c>
       <c r="H2069" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I2069" t="s">
         <v>19</v>
@@ -85647,10 +85764,10 @@
         <v>1</v>
       </c>
       <c r="K2069">
-        <v>10720000</v>
+        <v>3266244</v>
       </c>
       <c r="L2069">
-        <v>10720000</v>
+        <v>3266244</v>
       </c>
     </row>
     <row r="2070" spans="1:12">
@@ -85664,19 +85781,19 @@
         <v>13</v>
       </c>
       <c r="D2070" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2070" t="s">
-        <v>2207</v>
+        <v>2214</v>
       </c>
       <c r="F2070" t="s">
-        <v>2208</v>
+        <v>2215</v>
       </c>
       <c r="G2070" t="s">
-        <v>2209</v>
+        <v>2216</v>
       </c>
       <c r="H2070" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I2070" t="s">
         <v>19</v>
@@ -85685,10 +85802,10 @@
         <v>1</v>
       </c>
       <c r="K2070">
-        <v>2843062</v>
+        <v>5770000</v>
       </c>
       <c r="L2070">
-        <v>2843062</v>
+        <v>5770000</v>
       </c>
     </row>
     <row r="2071" spans="1:12">
@@ -85702,19 +85819,19 @@
         <v>13</v>
       </c>
       <c r="D2071" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2071" t="s">
-        <v>2207</v>
+        <v>2214</v>
       </c>
       <c r="F2071" t="s">
-        <v>2208</v>
+        <v>2215</v>
       </c>
       <c r="G2071" t="s">
-        <v>2209</v>
+        <v>2216</v>
       </c>
       <c r="H2071" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I2071" t="s">
         <v>19</v>
@@ -85723,10 +85840,10 @@
         <v>1</v>
       </c>
       <c r="K2071">
-        <v>8545560</v>
+        <v>10720000</v>
       </c>
       <c r="L2071">
-        <v>8545560</v>
+        <v>10720000</v>
       </c>
     </row>
     <row r="2072" spans="1:12">
@@ -85740,19 +85857,19 @@
         <v>13</v>
       </c>
       <c r="D2072" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2072" t="s">
-        <v>2207</v>
+        <v>2214</v>
       </c>
       <c r="F2072" t="s">
-        <v>2208</v>
+        <v>2215</v>
       </c>
       <c r="G2072" t="s">
-        <v>2209</v>
+        <v>2216</v>
       </c>
       <c r="H2072" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I2072" t="s">
         <v>19</v>
@@ -85761,10 +85878,10 @@
         <v>1</v>
       </c>
       <c r="K2072">
-        <v>4985000</v>
+        <v>2843062</v>
       </c>
       <c r="L2072">
-        <v>4985000</v>
+        <v>2843062</v>
       </c>
     </row>
     <row r="2073" spans="1:12">
@@ -85778,19 +85895,19 @@
         <v>13</v>
       </c>
       <c r="D2073" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2073" t="s">
-        <v>2210</v>
+        <v>2214</v>
       </c>
       <c r="F2073" t="s">
-        <v>2211</v>
+        <v>2215</v>
       </c>
       <c r="G2073" t="s">
-        <v>2212</v>
+        <v>2216</v>
       </c>
       <c r="H2073" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I2073" t="s">
         <v>19</v>
@@ -85799,10 +85916,10 @@
         <v>1</v>
       </c>
       <c r="K2073">
-        <v>153281600</v>
+        <v>8545560</v>
       </c>
       <c r="L2073">
-        <v>153281600</v>
+        <v>8545560</v>
       </c>
     </row>
     <row r="2074" spans="1:12">
@@ -85816,19 +85933,19 @@
         <v>13</v>
       </c>
       <c r="D2074" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2074" t="s">
-        <v>2210</v>
+        <v>2214</v>
       </c>
       <c r="F2074" t="s">
-        <v>2211</v>
+        <v>2215</v>
       </c>
       <c r="G2074" t="s">
-        <v>2212</v>
+        <v>2216</v>
       </c>
       <c r="H2074" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I2074" t="s">
         <v>19</v>
@@ -85837,10 +85954,10 @@
         <v>1</v>
       </c>
       <c r="K2074">
-        <v>2534</v>
+        <v>4985000</v>
       </c>
       <c r="L2074">
-        <v>2534</v>
+        <v>4985000</v>
       </c>
     </row>
     <row r="2075" spans="1:12">
@@ -85854,19 +85971,19 @@
         <v>13</v>
       </c>
       <c r="D2075" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2075" t="s">
-        <v>2210</v>
+        <v>2217</v>
       </c>
       <c r="F2075" t="s">
-        <v>2211</v>
+        <v>2218</v>
       </c>
       <c r="G2075" t="s">
-        <v>2212</v>
+        <v>2219</v>
       </c>
       <c r="H2075" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I2075" t="s">
         <v>19</v>
@@ -85875,10 +85992,10 @@
         <v>1</v>
       </c>
       <c r="K2075">
-        <v>11090340</v>
+        <v>153281600</v>
       </c>
       <c r="L2075">
-        <v>11090340</v>
+        <v>153281600</v>
       </c>
     </row>
     <row r="2076" spans="1:12">
@@ -85892,19 +86009,19 @@
         <v>13</v>
       </c>
       <c r="D2076" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2076" t="s">
-        <v>2210</v>
+        <v>2217</v>
       </c>
       <c r="F2076" t="s">
-        <v>2211</v>
+        <v>2218</v>
       </c>
       <c r="G2076" t="s">
-        <v>2212</v>
+        <v>2219</v>
       </c>
       <c r="H2076" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2076" t="s">
         <v>19</v>
@@ -85913,10 +86030,10 @@
         <v>1</v>
       </c>
       <c r="K2076">
-        <v>3280146</v>
+        <v>2534</v>
       </c>
       <c r="L2076">
-        <v>3280146</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="2077" spans="1:12">
@@ -85930,19 +86047,19 @@
         <v>13</v>
       </c>
       <c r="D2077" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2077" t="s">
-        <v>2210</v>
+        <v>2217</v>
       </c>
       <c r="F2077" t="s">
-        <v>2211</v>
+        <v>2218</v>
       </c>
       <c r="G2077" t="s">
-        <v>2212</v>
+        <v>2219</v>
       </c>
       <c r="H2077" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I2077" t="s">
         <v>19</v>
@@ -85951,10 +86068,10 @@
         <v>1</v>
       </c>
       <c r="K2077">
-        <v>3250000</v>
+        <v>11090340</v>
       </c>
       <c r="L2077">
-        <v>3250000</v>
+        <v>11090340</v>
       </c>
     </row>
     <row r="2078" spans="1:12">
@@ -85968,19 +86085,19 @@
         <v>13</v>
       </c>
       <c r="D2078" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2078" t="s">
-        <v>2210</v>
+        <v>2217</v>
       </c>
       <c r="F2078" t="s">
-        <v>2211</v>
+        <v>2218</v>
       </c>
       <c r="G2078" t="s">
-        <v>2212</v>
+        <v>2219</v>
       </c>
       <c r="H2078" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I2078" t="s">
         <v>19</v>
@@ -85989,10 +86106,10 @@
         <v>1</v>
       </c>
       <c r="K2078">
-        <v>15850000</v>
+        <v>3280146</v>
       </c>
       <c r="L2078">
-        <v>15850000</v>
+        <v>3280146</v>
       </c>
     </row>
     <row r="2079" spans="1:12">
@@ -86006,19 +86123,19 @@
         <v>13</v>
       </c>
       <c r="D2079" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2079" t="s">
-        <v>2210</v>
+        <v>2217</v>
       </c>
       <c r="F2079" t="s">
-        <v>2211</v>
+        <v>2218</v>
       </c>
       <c r="G2079" t="s">
-        <v>2212</v>
+        <v>2219</v>
       </c>
       <c r="H2079" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I2079" t="s">
         <v>19</v>
@@ -86027,10 +86144,10 @@
         <v>1</v>
       </c>
       <c r="K2079">
-        <v>3142700</v>
+        <v>3250000</v>
       </c>
       <c r="L2079">
-        <v>3142700</v>
+        <v>3250000</v>
       </c>
     </row>
     <row r="2080" spans="1:12">
@@ -86044,19 +86161,19 @@
         <v>13</v>
       </c>
       <c r="D2080" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2080" t="s">
-        <v>2210</v>
+        <v>2217</v>
       </c>
       <c r="F2080" t="s">
-        <v>2211</v>
+        <v>2218</v>
       </c>
       <c r="G2080" t="s">
-        <v>2212</v>
+        <v>2219</v>
       </c>
       <c r="H2080" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I2080" t="s">
         <v>19</v>
@@ -86065,10 +86182,10 @@
         <v>1</v>
       </c>
       <c r="K2080">
-        <v>7893780</v>
+        <v>15850000</v>
       </c>
       <c r="L2080">
-        <v>7893780</v>
+        <v>15850000</v>
       </c>
     </row>
     <row r="2081" spans="1:12">
@@ -86082,19 +86199,19 @@
         <v>13</v>
       </c>
       <c r="D2081" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2081" t="s">
-        <v>2210</v>
+        <v>2217</v>
       </c>
       <c r="F2081" t="s">
-        <v>2211</v>
+        <v>2218</v>
       </c>
       <c r="G2081" t="s">
-        <v>2212</v>
+        <v>2219</v>
       </c>
       <c r="H2081" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2081" t="s">
         <v>19</v>
@@ -86103,10 +86220,10 @@
         <v>1</v>
       </c>
       <c r="K2081">
-        <v>3150000</v>
+        <v>3142700</v>
       </c>
       <c r="L2081">
-        <v>3150000</v>
+        <v>3142700</v>
       </c>
     </row>
     <row r="2082" spans="1:12">
@@ -86120,19 +86237,19 @@
         <v>13</v>
       </c>
       <c r="D2082" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2082" t="s">
-        <v>2213</v>
+        <v>2217</v>
       </c>
       <c r="F2082" t="s">
-        <v>2214</v>
+        <v>2218</v>
       </c>
       <c r="G2082" t="s">
-        <v>2215</v>
+        <v>2219</v>
       </c>
       <c r="H2082" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I2082" t="s">
         <v>19</v>
@@ -86141,10 +86258,10 @@
         <v>1</v>
       </c>
       <c r="K2082">
-        <v>271970200</v>
+        <v>7893780</v>
       </c>
       <c r="L2082">
-        <v>271970200</v>
+        <v>7893780</v>
       </c>
     </row>
     <row r="2083" spans="1:12">
@@ -86158,19 +86275,19 @@
         <v>13</v>
       </c>
       <c r="D2083" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2083" t="s">
-        <v>2213</v>
+        <v>2217</v>
       </c>
       <c r="F2083" t="s">
-        <v>2214</v>
+        <v>2218</v>
       </c>
       <c r="G2083" t="s">
-        <v>2215</v>
+        <v>2219</v>
       </c>
       <c r="H2083" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I2083" t="s">
         <v>19</v>
@@ -86179,10 +86296,10 @@
         <v>1</v>
       </c>
       <c r="K2083">
-        <v>5000</v>
+        <v>3150000</v>
       </c>
       <c r="L2083">
-        <v>5000</v>
+        <v>3150000</v>
       </c>
     </row>
     <row r="2084" spans="1:12">
@@ -86196,19 +86313,19 @@
         <v>13</v>
       </c>
       <c r="D2084" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2084" t="s">
-        <v>2213</v>
+        <v>2220</v>
       </c>
       <c r="F2084" t="s">
-        <v>2214</v>
+        <v>2221</v>
       </c>
       <c r="G2084" t="s">
-        <v>2215</v>
+        <v>2222</v>
       </c>
       <c r="H2084" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I2084" t="s">
         <v>19</v>
@@ -86217,10 +86334,10 @@
         <v>1</v>
       </c>
       <c r="K2084">
-        <v>16312930</v>
+        <v>271970200</v>
       </c>
       <c r="L2084">
-        <v>16312930</v>
+        <v>271970200</v>
       </c>
     </row>
     <row r="2085" spans="1:12">
@@ -86234,19 +86351,19 @@
         <v>13</v>
       </c>
       <c r="D2085" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2085" t="s">
-        <v>2213</v>
+        <v>2220</v>
       </c>
       <c r="F2085" t="s">
-        <v>2214</v>
+        <v>2221</v>
       </c>
       <c r="G2085" t="s">
-        <v>2215</v>
+        <v>2222</v>
       </c>
       <c r="H2085" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2085" t="s">
         <v>19</v>
@@ -86255,10 +86372,10 @@
         <v>1</v>
       </c>
       <c r="K2085">
-        <v>5728350</v>
+        <v>5000</v>
       </c>
       <c r="L2085">
-        <v>5728350</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="2086" spans="1:12">
@@ -86272,19 +86389,19 @@
         <v>13</v>
       </c>
       <c r="D2086" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2086" t="s">
-        <v>2213</v>
+        <v>2220</v>
       </c>
       <c r="F2086" t="s">
-        <v>2214</v>
+        <v>2221</v>
       </c>
       <c r="G2086" t="s">
-        <v>2215</v>
+        <v>2222</v>
       </c>
       <c r="H2086" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2086" t="s">
         <v>19</v>
@@ -86293,10 +86410,10 @@
         <v>1</v>
       </c>
       <c r="K2086">
-        <v>7525000</v>
+        <v>16312930</v>
       </c>
       <c r="L2086">
-        <v>7525000</v>
+        <v>16312930</v>
       </c>
     </row>
     <row r="2087" spans="1:12">
@@ -86310,19 +86427,19 @@
         <v>13</v>
       </c>
       <c r="D2087" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2087" t="s">
-        <v>2213</v>
+        <v>2220</v>
       </c>
       <c r="F2087" t="s">
-        <v>2214</v>
+        <v>2221</v>
       </c>
       <c r="G2087" t="s">
-        <v>2215</v>
+        <v>2222</v>
       </c>
       <c r="H2087" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2087" t="s">
         <v>19</v>
@@ -86331,10 +86448,10 @@
         <v>1</v>
       </c>
       <c r="K2087">
-        <v>24915000</v>
+        <v>5728350</v>
       </c>
       <c r="L2087">
-        <v>24915000</v>
+        <v>5728350</v>
       </c>
     </row>
     <row r="2088" spans="1:12">
@@ -86348,19 +86465,19 @@
         <v>13</v>
       </c>
       <c r="D2088" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2088" t="s">
-        <v>2213</v>
+        <v>2220</v>
       </c>
       <c r="F2088" t="s">
-        <v>2214</v>
+        <v>2221</v>
       </c>
       <c r="G2088" t="s">
-        <v>2215</v>
+        <v>2222</v>
       </c>
       <c r="H2088" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I2088" t="s">
         <v>19</v>
@@ -86369,10 +86486,10 @@
         <v>1</v>
       </c>
       <c r="K2088">
-        <v>4173278</v>
+        <v>7525000</v>
       </c>
       <c r="L2088">
-        <v>4173278</v>
+        <v>7525000</v>
       </c>
     </row>
     <row r="2089" spans="1:12">
@@ -86386,19 +86503,19 @@
         <v>13</v>
       </c>
       <c r="D2089" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2089" t="s">
-        <v>2213</v>
+        <v>2220</v>
       </c>
       <c r="F2089" t="s">
-        <v>2214</v>
+        <v>2221</v>
       </c>
       <c r="G2089" t="s">
-        <v>2215</v>
+        <v>2222</v>
       </c>
       <c r="H2089" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2089" t="s">
         <v>19</v>
@@ -86407,10 +86524,10 @@
         <v>1</v>
       </c>
       <c r="K2089">
-        <v>14556420</v>
+        <v>24915000</v>
       </c>
       <c r="L2089">
-        <v>14556420</v>
+        <v>24915000</v>
       </c>
     </row>
     <row r="2090" spans="1:12">
@@ -86424,19 +86541,19 @@
         <v>13</v>
       </c>
       <c r="D2090" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2090" t="s">
-        <v>2213</v>
+        <v>2220</v>
       </c>
       <c r="F2090" t="s">
-        <v>2214</v>
+        <v>2221</v>
       </c>
       <c r="G2090" t="s">
-        <v>2215</v>
+        <v>2222</v>
       </c>
       <c r="H2090" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2090" t="s">
         <v>19</v>
@@ -86445,10 +86562,10 @@
         <v>1</v>
       </c>
       <c r="K2090">
-        <v>7375000</v>
+        <v>4173278</v>
       </c>
       <c r="L2090">
-        <v>7375000</v>
+        <v>4173278</v>
       </c>
     </row>
     <row r="2091" spans="1:12">
@@ -86462,19 +86579,19 @@
         <v>13</v>
       </c>
       <c r="D2091" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2091" t="s">
-        <v>2216</v>
+        <v>2220</v>
       </c>
       <c r="F2091" t="s">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="G2091" t="s">
-        <v>2218</v>
+        <v>2222</v>
       </c>
       <c r="H2091" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I2091" t="s">
         <v>19</v>
@@ -86483,10 +86600,10 @@
         <v>1</v>
       </c>
       <c r="K2091">
-        <v>1841440</v>
+        <v>14556420</v>
       </c>
       <c r="L2091">
-        <v>1841440</v>
+        <v>14556420</v>
       </c>
     </row>
     <row r="2092" spans="1:12">
@@ -86500,19 +86617,19 @@
         <v>13</v>
       </c>
       <c r="D2092" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2092" t="s">
-        <v>2216</v>
+        <v>2220</v>
       </c>
       <c r="F2092" t="s">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="G2092" t="s">
-        <v>2218</v>
+        <v>2222</v>
       </c>
       <c r="H2092" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I2092" t="s">
         <v>19</v>
@@ -86521,10 +86638,10 @@
         <v>1</v>
       </c>
       <c r="K2092">
-        <v>40</v>
+        <v>7375000</v>
       </c>
       <c r="L2092">
-        <v>40</v>
+        <v>7375000</v>
       </c>
     </row>
     <row r="2093" spans="1:12">
@@ -86538,19 +86655,19 @@
         <v>13</v>
       </c>
       <c r="D2093" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2093" t="s">
-        <v>2216</v>
+        <v>2223</v>
       </c>
       <c r="F2093" t="s">
-        <v>2217</v>
+        <v>2224</v>
       </c>
       <c r="G2093" t="s">
-        <v>2218</v>
+        <v>2225</v>
       </c>
       <c r="H2093" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I2093" t="s">
         <v>19</v>
@@ -86559,10 +86676,10 @@
         <v>1</v>
       </c>
       <c r="K2093">
-        <v>72420</v>
+        <v>1841440</v>
       </c>
       <c r="L2093">
-        <v>72420</v>
+        <v>1841440</v>
       </c>
     </row>
     <row r="2094" spans="1:12">
@@ -86576,19 +86693,19 @@
         <v>13</v>
       </c>
       <c r="D2094" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="E2094" t="s">
-        <v>2216</v>
+        <v>2223</v>
       </c>
       <c r="F2094" t="s">
-        <v>2217</v>
+        <v>2224</v>
       </c>
       <c r="G2094" t="s">
-        <v>2218</v>
+        <v>2225</v>
       </c>
       <c r="H2094" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I2094" t="s">
         <v>19</v>
@@ -86597,10 +86714,10 @@
         <v>1</v>
       </c>
       <c r="K2094">
-        <v>180000</v>
+        <v>40</v>
       </c>
       <c r="L2094">
-        <v>180000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2095" spans="1:12">
@@ -86614,19 +86731,19 @@
         <v>13</v>
       </c>
       <c r="D2095" t="s">
-        <v>2176</v>
+        <v>2213</v>
       </c>
       <c r="E2095" t="s">
-        <v>2219</v>
+        <v>2223</v>
       </c>
       <c r="F2095" t="s">
-        <v>2220</v>
+        <v>2224</v>
       </c>
       <c r="G2095" t="s">
-        <v>2221</v>
+        <v>2225</v>
       </c>
       <c r="H2095" t="s">
-        <v>2222</v>
+        <v>26</v>
       </c>
       <c r="I2095" t="s">
         <v>19</v>
@@ -86635,10 +86752,10 @@
         <v>1</v>
       </c>
       <c r="K2095">
-        <v>1444000</v>
+        <v>72420</v>
       </c>
       <c r="L2095">
-        <v>1444000</v>
+        <v>72420</v>
       </c>
     </row>
     <row r="2096" spans="1:12">
@@ -86652,7 +86769,7 @@
         <v>13</v>
       </c>
       <c r="D2096" t="s">
-        <v>2176</v>
+        <v>2213</v>
       </c>
       <c r="E2096" t="s">
         <v>2223</v>
@@ -86664,7 +86781,7 @@
         <v>2225</v>
       </c>
       <c r="H2096" t="s">
-        <v>2222</v>
+        <v>27</v>
       </c>
       <c r="I2096" t="s">
         <v>19</v>
@@ -86673,10 +86790,10 @@
         <v>1</v>
       </c>
       <c r="K2096">
-        <v>542000</v>
+        <v>180000</v>
       </c>
       <c r="L2096">
-        <v>542000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="2097" spans="1:12">
@@ -86690,7 +86807,7 @@
         <v>13</v>
       </c>
       <c r="D2097" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E2097" t="s">
         <v>2226</v>
@@ -86702,7 +86819,7 @@
         <v>2228</v>
       </c>
       <c r="H2097" t="s">
-        <v>2222</v>
+        <v>2229</v>
       </c>
       <c r="I2097" t="s">
         <v>19</v>
@@ -86711,10 +86828,10 @@
         <v>1</v>
       </c>
       <c r="K2097">
-        <v>1528000</v>
+        <v>1444000</v>
       </c>
       <c r="L2097">
-        <v>1528000</v>
+        <v>1444000</v>
       </c>
     </row>
     <row r="2098" spans="1:12">
@@ -86728,20 +86845,20 @@
         <v>13</v>
       </c>
       <c r="D2098" t="s">
-        <v>2165</v>
+        <v>2180</v>
       </c>
       <c r="E2098" t="s">
+        <v>2230</v>
+      </c>
+      <c r="F2098" t="s">
+        <v>2231</v>
+      </c>
+      <c r="G2098" t="s">
+        <v>2232</v>
+      </c>
+      <c r="H2098" t="s">
         <v>2229</v>
       </c>
-      <c r="F2098" t="s">
-        <v>2230</v>
-      </c>
-      <c r="G2098" t="s">
-        <v>2231</v>
-      </c>
-      <c r="H2098" t="s">
-        <v>420</v>
-      </c>
       <c r="I2098" t="s">
         <v>19</v>
       </c>
@@ -86749,10 +86866,10 @@
         <v>1</v>
       </c>
       <c r="K2098">
-        <v>15000000</v>
+        <v>542000</v>
       </c>
       <c r="L2098">
-        <v>15000000</v>
+        <v>542000</v>
       </c>
     </row>
     <row r="2099" spans="1:12">
@@ -86766,19 +86883,19 @@
         <v>13</v>
       </c>
       <c r="D2099" t="s">
-        <v>2165</v>
+        <v>2180</v>
       </c>
       <c r="E2099" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="F2099" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="G2099" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="H2099" t="s">
-        <v>420</v>
+        <v>2229</v>
       </c>
       <c r="I2099" t="s">
         <v>19</v>
@@ -86787,10 +86904,10 @@
         <v>1</v>
       </c>
       <c r="K2099">
-        <v>6000000</v>
+        <v>1528000</v>
       </c>
       <c r="L2099">
-        <v>6000000</v>
+        <v>1528000</v>
       </c>
     </row>
     <row r="2100" spans="1:12">
@@ -86804,19 +86921,19 @@
         <v>13</v>
       </c>
       <c r="D2100" t="s">
-        <v>2165</v>
+        <v>2156</v>
       </c>
       <c r="E2100" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="F2100" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="G2100" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="H2100" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="I2100" t="s">
         <v>19</v>
@@ -86825,10 +86942,10 @@
         <v>1</v>
       </c>
       <c r="K2100">
-        <v>1600000</v>
+        <v>98711000</v>
       </c>
       <c r="L2100">
-        <v>1600000</v>
+        <v>98711000</v>
       </c>
     </row>
     <row r="2101" spans="1:12">
@@ -86842,19 +86959,19 @@
         <v>13</v>
       </c>
       <c r="D2101" t="s">
-        <v>2165</v>
+        <v>2156</v>
       </c>
       <c r="E2101" t="s">
-        <v>2235</v>
+        <v>2240</v>
       </c>
       <c r="F2101" t="s">
-        <v>2236</v>
+        <v>2241</v>
       </c>
       <c r="G2101" t="s">
-        <v>2237</v>
+        <v>2242</v>
       </c>
       <c r="H2101" t="s">
-        <v>2239</v>
+        <v>2243</v>
       </c>
       <c r="I2101" t="s">
         <v>19</v>
@@ -86863,10 +86980,10 @@
         <v>1</v>
       </c>
       <c r="K2101">
-        <v>1200000</v>
+        <v>64517746</v>
       </c>
       <c r="L2101">
-        <v>1200000</v>
+        <v>64517746</v>
       </c>
     </row>
     <row r="2102" spans="1:12">
@@ -86880,19 +86997,19 @@
         <v>13</v>
       </c>
       <c r="D2102" t="s">
-        <v>2165</v>
+        <v>2169</v>
       </c>
       <c r="E2102" t="s">
-        <v>2235</v>
+        <v>2244</v>
       </c>
       <c r="F2102" t="s">
-        <v>2236</v>
+        <v>2245</v>
       </c>
       <c r="G2102" t="s">
-        <v>2237</v>
+        <v>2246</v>
       </c>
       <c r="H2102" t="s">
-        <v>2240</v>
+        <v>420</v>
       </c>
       <c r="I2102" t="s">
         <v>19</v>
@@ -86901,10 +87018,10 @@
         <v>1</v>
       </c>
       <c r="K2102">
-        <v>8400000</v>
+        <v>15000000</v>
       </c>
       <c r="L2102">
-        <v>8400000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="2103" spans="1:12">
@@ -86918,19 +87035,19 @@
         <v>13</v>
       </c>
       <c r="D2103" t="s">
-        <v>2206</v>
+        <v>2169</v>
       </c>
       <c r="E2103" t="s">
-        <v>2241</v>
+        <v>2247</v>
       </c>
       <c r="F2103" t="s">
-        <v>2242</v>
+        <v>2248</v>
       </c>
       <c r="G2103" t="s">
-        <v>1536</v>
+        <v>2249</v>
       </c>
       <c r="H2103" t="s">
-        <v>581</v>
+        <v>420</v>
       </c>
       <c r="I2103" t="s">
         <v>19</v>
@@ -86939,10 +87056,10 @@
         <v>1</v>
       </c>
       <c r="K2103">
-        <v>27850000</v>
+        <v>6000000</v>
       </c>
       <c r="L2103">
-        <v>27850000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="2104" spans="1:12">
@@ -86956,19 +87073,19 @@
         <v>13</v>
       </c>
       <c r="D2104" t="s">
-        <v>2206</v>
+        <v>2169</v>
       </c>
       <c r="E2104" t="s">
-        <v>2241</v>
+        <v>2250</v>
       </c>
       <c r="F2104" t="s">
-        <v>2242</v>
+        <v>2251</v>
       </c>
       <c r="G2104" t="s">
-        <v>1536</v>
+        <v>2252</v>
       </c>
       <c r="H2104" t="s">
-        <v>2243</v>
+        <v>2253</v>
       </c>
       <c r="I2104" t="s">
         <v>19</v>
@@ -86977,10 +87094,10 @@
         <v>1</v>
       </c>
       <c r="K2104">
-        <v>2880000</v>
+        <v>1600000</v>
       </c>
       <c r="L2104">
-        <v>2880000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="2105" spans="1:12">
@@ -86994,19 +87111,19 @@
         <v>13</v>
       </c>
       <c r="D2105" t="s">
-        <v>2206</v>
+        <v>2169</v>
       </c>
       <c r="E2105" t="s">
-        <v>2241</v>
+        <v>2250</v>
       </c>
       <c r="F2105" t="s">
-        <v>2242</v>
+        <v>2251</v>
       </c>
       <c r="G2105" t="s">
-        <v>1536</v>
+        <v>2252</v>
       </c>
       <c r="H2105" t="s">
-        <v>2244</v>
+        <v>2254</v>
       </c>
       <c r="I2105" t="s">
         <v>19</v>
@@ -87015,10 +87132,10 @@
         <v>1</v>
       </c>
       <c r="K2105">
-        <v>1800000</v>
+        <v>1200000</v>
       </c>
       <c r="L2105">
-        <v>1800000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="2106" spans="1:12">
@@ -87032,31 +87149,4667 @@
         <v>13</v>
       </c>
       <c r="D2106" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2106" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F2106" t="s">
+        <v>2251</v>
+      </c>
+      <c r="G2106" t="s">
+        <v>2252</v>
+      </c>
+      <c r="H2106" t="s">
+        <v>2255</v>
+      </c>
+      <c r="I2106" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2106">
+        <v>1</v>
+      </c>
+      <c r="K2106">
+        <v>8400000</v>
+      </c>
+      <c r="L2106">
+        <v>8400000</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:12">
+      <c r="A2107">
+        <v>2104</v>
+      </c>
+      <c r="B2107">
+        <v>626402</v>
+      </c>
+      <c r="C2107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2107" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E2107" t="s">
+        <v>2256</v>
+      </c>
+      <c r="F2107" t="s">
+        <v>2257</v>
+      </c>
+      <c r="G2107" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2107" t="s">
+        <v>581</v>
+      </c>
+      <c r="I2107" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2107">
+        <v>1</v>
+      </c>
+      <c r="K2107">
+        <v>27850000</v>
+      </c>
+      <c r="L2107">
+        <v>27850000</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:12">
+      <c r="A2108">
+        <v>2105</v>
+      </c>
+      <c r="B2108">
+        <v>626402</v>
+      </c>
+      <c r="C2108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2108" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E2108" t="s">
+        <v>2256</v>
+      </c>
+      <c r="F2108" t="s">
+        <v>2257</v>
+      </c>
+      <c r="G2108" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2108" t="s">
+        <v>2258</v>
+      </c>
+      <c r="I2108" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2108">
+        <v>1</v>
+      </c>
+      <c r="K2108">
+        <v>2880000</v>
+      </c>
+      <c r="L2108">
+        <v>2880000</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:12">
+      <c r="A2109">
+        <v>2106</v>
+      </c>
+      <c r="B2109">
+        <v>626402</v>
+      </c>
+      <c r="C2109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2109" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E2109" t="s">
+        <v>2256</v>
+      </c>
+      <c r="F2109" t="s">
+        <v>2257</v>
+      </c>
+      <c r="G2109" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2109" t="s">
+        <v>2259</v>
+      </c>
+      <c r="I2109" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2109">
+        <v>1</v>
+      </c>
+      <c r="K2109">
+        <v>1800000</v>
+      </c>
+      <c r="L2109">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:12">
+      <c r="A2110">
+        <v>2107</v>
+      </c>
+      <c r="B2110">
+        <v>626402</v>
+      </c>
+      <c r="C2110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2110" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E2110" t="s">
+        <v>2256</v>
+      </c>
+      <c r="F2110" t="s">
+        <v>2257</v>
+      </c>
+      <c r="G2110" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2110" t="s">
+        <v>757</v>
+      </c>
+      <c r="I2110" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2110">
+        <v>1</v>
+      </c>
+      <c r="K2110">
+        <v>400000</v>
+      </c>
+      <c r="L2110">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:12">
+      <c r="A2111">
+        <v>2108</v>
+      </c>
+      <c r="B2111">
+        <v>626402</v>
+      </c>
+      <c r="C2111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2111" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2111" t="s">
+        <v>2260</v>
+      </c>
+      <c r="F2111" t="s">
+        <v>2261</v>
+      </c>
+      <c r="G2111" t="s">
+        <v>2262</v>
+      </c>
+      <c r="H2111" t="s">
+        <v>2173</v>
+      </c>
+      <c r="I2111" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2111">
+        <v>1</v>
+      </c>
+      <c r="K2111">
+        <v>168000</v>
+      </c>
+      <c r="L2111">
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:12">
+      <c r="A2112">
+        <v>2109</v>
+      </c>
+      <c r="B2112">
+        <v>626402</v>
+      </c>
+      <c r="C2112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2112" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2112" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2112" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2112" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2112" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2112" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2112">
+        <v>1</v>
+      </c>
+      <c r="K2112">
+        <v>1497950</v>
+      </c>
+      <c r="L2112">
+        <v>1497950</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:12">
+      <c r="A2113">
+        <v>2110</v>
+      </c>
+      <c r="B2113">
+        <v>626402</v>
+      </c>
+      <c r="C2113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2113" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2113" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2113" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2113" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2113" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2113" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2113">
+        <v>1</v>
+      </c>
+      <c r="K2113">
+        <v>1480000</v>
+      </c>
+      <c r="L2113">
+        <v>1480000</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:12">
+      <c r="A2114">
+        <v>2111</v>
+      </c>
+      <c r="B2114">
+        <v>626402</v>
+      </c>
+      <c r="C2114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2114" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2114" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2114" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2114" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2114" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2114" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2114">
+        <v>1</v>
+      </c>
+      <c r="K2114">
+        <v>990000</v>
+      </c>
+      <c r="L2114">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:12">
+      <c r="A2115">
+        <v>2112</v>
+      </c>
+      <c r="B2115">
+        <v>626402</v>
+      </c>
+      <c r="C2115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2115" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2115" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2115" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2115" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2115" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I2115" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2115">
+        <v>1</v>
+      </c>
+      <c r="K2115">
+        <v>1499900</v>
+      </c>
+      <c r="L2115">
+        <v>1499900</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:12">
+      <c r="A2116">
+        <v>2113</v>
+      </c>
+      <c r="B2116">
+        <v>626402</v>
+      </c>
+      <c r="C2116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2116" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2116" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2116" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2116" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2116" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I2116" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2116">
+        <v>1</v>
+      </c>
+      <c r="K2116">
+        <v>1500000</v>
+      </c>
+      <c r="L2116">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:12">
+      <c r="A2117">
+        <v>2114</v>
+      </c>
+      <c r="B2117">
+        <v>626402</v>
+      </c>
+      <c r="C2117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2117" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2117" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2117" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2117" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2117" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I2117" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2117">
+        <v>1</v>
+      </c>
+      <c r="K2117">
+        <v>1000000</v>
+      </c>
+      <c r="L2117">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:12">
+      <c r="A2118">
+        <v>2115</v>
+      </c>
+      <c r="B2118">
+        <v>626402</v>
+      </c>
+      <c r="C2118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2118" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2118" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2118" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2118" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2118" t="s">
+        <v>670</v>
+      </c>
+      <c r="I2118" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2118">
+        <v>1</v>
+      </c>
+      <c r="K2118">
+        <v>1475000</v>
+      </c>
+      <c r="L2118">
+        <v>1475000</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:12">
+      <c r="A2119">
+        <v>2116</v>
+      </c>
+      <c r="B2119">
+        <v>626402</v>
+      </c>
+      <c r="C2119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2119" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2119" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2119" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2119" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2119" t="s">
+        <v>671</v>
+      </c>
+      <c r="I2119" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2119">
+        <v>1</v>
+      </c>
+      <c r="K2119">
+        <v>993000</v>
+      </c>
+      <c r="L2119">
+        <v>993000</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:12">
+      <c r="A2120">
+        <v>2117</v>
+      </c>
+      <c r="B2120">
+        <v>626402</v>
+      </c>
+      <c r="C2120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2120" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2120" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2120" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2120" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2120" t="s">
+        <v>672</v>
+      </c>
+      <c r="I2120" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2120">
+        <v>1</v>
+      </c>
+      <c r="K2120">
+        <v>1498000</v>
+      </c>
+      <c r="L2120">
+        <v>1498000</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:12">
+      <c r="A2121">
+        <v>2118</v>
+      </c>
+      <c r="B2121">
+        <v>626402</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2121" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2121" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2121" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2121" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2121" t="s">
+        <v>673</v>
+      </c>
+      <c r="I2121" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2121">
+        <v>1</v>
+      </c>
+      <c r="K2121">
+        <v>1500000</v>
+      </c>
+      <c r="L2121">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:12">
+      <c r="A2122">
+        <v>2119</v>
+      </c>
+      <c r="B2122">
+        <v>626402</v>
+      </c>
+      <c r="C2122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2122" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2122" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2122" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2122" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2122" t="s">
+        <v>674</v>
+      </c>
+      <c r="I2122" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2122">
+        <v>1</v>
+      </c>
+      <c r="K2122">
+        <v>1000000</v>
+      </c>
+      <c r="L2122">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:12">
+      <c r="A2123">
+        <v>2120</v>
+      </c>
+      <c r="B2123">
+        <v>626402</v>
+      </c>
+      <c r="C2123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2123" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2123" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2123" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2123" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2123" t="s">
+        <v>675</v>
+      </c>
+      <c r="I2123" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2123">
+        <v>1</v>
+      </c>
+      <c r="K2123">
+        <v>999000</v>
+      </c>
+      <c r="L2123">
+        <v>999000</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:12">
+      <c r="A2124">
+        <v>2121</v>
+      </c>
+      <c r="B2124">
+        <v>626402</v>
+      </c>
+      <c r="C2124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2124" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2124" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2124" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2124" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2124" t="s">
+        <v>676</v>
+      </c>
+      <c r="I2124" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2124">
+        <v>1</v>
+      </c>
+      <c r="K2124">
+        <v>1495000</v>
+      </c>
+      <c r="L2124">
+        <v>1495000</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:12">
+      <c r="A2125">
+        <v>2122</v>
+      </c>
+      <c r="B2125">
+        <v>626402</v>
+      </c>
+      <c r="C2125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2125" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2125" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2125" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2125" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2125" t="s">
+        <v>677</v>
+      </c>
+      <c r="I2125" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2125">
+        <v>1</v>
+      </c>
+      <c r="K2125">
+        <v>1490000</v>
+      </c>
+      <c r="L2125">
+        <v>1490000</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:12">
+      <c r="A2126">
+        <v>2123</v>
+      </c>
+      <c r="B2126">
+        <v>626402</v>
+      </c>
+      <c r="C2126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2126" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2126" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2126" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2126" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2126" t="s">
+        <v>678</v>
+      </c>
+      <c r="I2126" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2126">
+        <v>1</v>
+      </c>
+      <c r="K2126">
+        <v>1000000</v>
+      </c>
+      <c r="L2126">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:12">
+      <c r="A2127">
+        <v>2124</v>
+      </c>
+      <c r="B2127">
+        <v>626402</v>
+      </c>
+      <c r="C2127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2127" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2127" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2127" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2127" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2127" t="s">
+        <v>679</v>
+      </c>
+      <c r="I2127" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2127">
+        <v>1</v>
+      </c>
+      <c r="K2127">
+        <v>944400</v>
+      </c>
+      <c r="L2127">
+        <v>944400</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:12">
+      <c r="A2128">
+        <v>2125</v>
+      </c>
+      <c r="B2128">
+        <v>626402</v>
+      </c>
+      <c r="C2128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2128" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2128" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2128" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2128" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2128" t="s">
+        <v>680</v>
+      </c>
+      <c r="I2128" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2128">
+        <v>1</v>
+      </c>
+      <c r="K2128">
+        <v>1500000</v>
+      </c>
+      <c r="L2128">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:12">
+      <c r="A2129">
+        <v>2126</v>
+      </c>
+      <c r="B2129">
+        <v>626402</v>
+      </c>
+      <c r="C2129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2129" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2129" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2129" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2129" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2129" t="s">
+        <v>681</v>
+      </c>
+      <c r="I2129" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2129">
+        <v>1</v>
+      </c>
+      <c r="K2129">
+        <v>1490000</v>
+      </c>
+      <c r="L2129">
+        <v>1490000</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:12">
+      <c r="A2130">
+        <v>2127</v>
+      </c>
+      <c r="B2130">
+        <v>626402</v>
+      </c>
+      <c r="C2130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2130" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2130" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2130" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2130" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2130" t="s">
+        <v>682</v>
+      </c>
+      <c r="I2130" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2130">
+        <v>1</v>
+      </c>
+      <c r="K2130">
+        <v>1000000</v>
+      </c>
+      <c r="L2130">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:12">
+      <c r="A2131">
+        <v>2128</v>
+      </c>
+      <c r="B2131">
+        <v>626402</v>
+      </c>
+      <c r="C2131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2131" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2131" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2131" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2131" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2131" t="s">
+        <v>683</v>
+      </c>
+      <c r="I2131" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2131">
+        <v>1</v>
+      </c>
+      <c r="K2131">
+        <v>999800</v>
+      </c>
+      <c r="L2131">
+        <v>999800</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:12">
+      <c r="A2132">
+        <v>2129</v>
+      </c>
+      <c r="B2132">
+        <v>626402</v>
+      </c>
+      <c r="C2132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2132" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2132" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2132" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2132" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2132" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I2132" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2132">
+        <v>1</v>
+      </c>
+      <c r="K2132">
+        <v>10896500</v>
+      </c>
+      <c r="L2132">
+        <v>10896500</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:12">
+      <c r="A2133">
+        <v>2130</v>
+      </c>
+      <c r="B2133">
+        <v>626402</v>
+      </c>
+      <c r="C2133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2133" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2133" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2133" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2133" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2133" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I2133" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2133">
+        <v>1</v>
+      </c>
+      <c r="K2133">
+        <v>1493000</v>
+      </c>
+      <c r="L2133">
+        <v>1493000</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:12">
+      <c r="A2134">
+        <v>2131</v>
+      </c>
+      <c r="B2134">
+        <v>626402</v>
+      </c>
+      <c r="C2134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2134" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2134" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2134" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2134" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2134" t="s">
+        <v>1897</v>
+      </c>
+      <c r="I2134" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2134">
+        <v>1</v>
+      </c>
+      <c r="K2134">
+        <v>1445000</v>
+      </c>
+      <c r="L2134">
+        <v>1445000</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:12">
+      <c r="A2135">
+        <v>2132</v>
+      </c>
+      <c r="B2135">
+        <v>626402</v>
+      </c>
+      <c r="C2135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2135" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2135" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2135" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2135" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2135" t="s">
+        <v>1898</v>
+      </c>
+      <c r="I2135" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2135">
+        <v>1</v>
+      </c>
+      <c r="K2135">
+        <v>998000</v>
+      </c>
+      <c r="L2135">
+        <v>998000</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:12">
+      <c r="A2136">
+        <v>2133</v>
+      </c>
+      <c r="B2136">
+        <v>626402</v>
+      </c>
+      <c r="C2136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2136" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2136" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2136" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2136" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2136" t="s">
+        <v>688</v>
+      </c>
+      <c r="I2136" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2136">
+        <v>1</v>
+      </c>
+      <c r="K2136">
+        <v>1489750</v>
+      </c>
+      <c r="L2136">
+        <v>1489750</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:12">
+      <c r="A2137">
+        <v>2134</v>
+      </c>
+      <c r="B2137">
+        <v>626402</v>
+      </c>
+      <c r="C2137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2137" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2137" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2137" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2137" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2137" t="s">
+        <v>475</v>
+      </c>
+      <c r="I2137" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2137">
+        <v>1</v>
+      </c>
+      <c r="K2137">
+        <v>1465000</v>
+      </c>
+      <c r="L2137">
+        <v>1465000</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:12">
+      <c r="A2138">
+        <v>2135</v>
+      </c>
+      <c r="B2138">
+        <v>626402</v>
+      </c>
+      <c r="C2138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2138" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2138" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2138" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2138" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2138" t="s">
+        <v>476</v>
+      </c>
+      <c r="I2138" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2138">
+        <v>1</v>
+      </c>
+      <c r="K2138">
+        <v>959000</v>
+      </c>
+      <c r="L2138">
+        <v>959000</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:12">
+      <c r="A2139">
+        <v>2136</v>
+      </c>
+      <c r="B2139">
+        <v>626402</v>
+      </c>
+      <c r="C2139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2139" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2139" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2139" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2139" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2139" t="s">
+        <v>689</v>
+      </c>
+      <c r="I2139" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2139">
+        <v>1</v>
+      </c>
+      <c r="K2139">
+        <v>1475250</v>
+      </c>
+      <c r="L2139">
+        <v>1475250</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:12">
+      <c r="A2140">
+        <v>2137</v>
+      </c>
+      <c r="B2140">
+        <v>626402</v>
+      </c>
+      <c r="C2140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2140" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2140" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2140" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2140" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2140" t="s">
+        <v>690</v>
+      </c>
+      <c r="I2140" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2140">
+        <v>1</v>
+      </c>
+      <c r="K2140">
+        <v>1455000</v>
+      </c>
+      <c r="L2140">
+        <v>1455000</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:12">
+      <c r="A2141">
+        <v>2138</v>
+      </c>
+      <c r="B2141">
+        <v>626402</v>
+      </c>
+      <c r="C2141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2141" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2141" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2141" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2141" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2141" t="s">
+        <v>691</v>
+      </c>
+      <c r="I2141" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2141">
+        <v>1</v>
+      </c>
+      <c r="K2141">
+        <v>972000</v>
+      </c>
+      <c r="L2141">
+        <v>972000</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:12">
+      <c r="A2142">
+        <v>2139</v>
+      </c>
+      <c r="B2142">
+        <v>626402</v>
+      </c>
+      <c r="C2142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2142" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2142" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2142" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2142" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2142" t="s">
+        <v>692</v>
+      </c>
+      <c r="I2142" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2142">
+        <v>1</v>
+      </c>
+      <c r="K2142">
+        <v>1499000</v>
+      </c>
+      <c r="L2142">
+        <v>1499000</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:12">
+      <c r="A2143">
+        <v>2140</v>
+      </c>
+      <c r="B2143">
+        <v>626402</v>
+      </c>
+      <c r="C2143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2143" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2143" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2143" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2143" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2143" t="s">
+        <v>693</v>
+      </c>
+      <c r="I2143" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2143">
+        <v>1</v>
+      </c>
+      <c r="K2143">
+        <v>1410000</v>
+      </c>
+      <c r="L2143">
+        <v>1410000</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:12">
+      <c r="A2144">
+        <v>2141</v>
+      </c>
+      <c r="B2144">
+        <v>626402</v>
+      </c>
+      <c r="C2144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2144" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2144" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2144" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2144" t="s">
+        <v>694</v>
+      </c>
+      <c r="I2144" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2144">
+        <v>1</v>
+      </c>
+      <c r="K2144">
+        <v>970000</v>
+      </c>
+      <c r="L2144">
+        <v>970000</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:12">
+      <c r="A2145">
+        <v>2142</v>
+      </c>
+      <c r="B2145">
+        <v>626402</v>
+      </c>
+      <c r="C2145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2145" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2145" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2145" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2145" t="s">
+        <v>695</v>
+      </c>
+      <c r="I2145" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2145">
+        <v>1</v>
+      </c>
+      <c r="K2145">
+        <v>1495000</v>
+      </c>
+      <c r="L2145">
+        <v>1495000</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:12">
+      <c r="A2146">
+        <v>2143</v>
+      </c>
+      <c r="B2146">
+        <v>626402</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2146" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2146" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2146" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2146" t="s">
+        <v>696</v>
+      </c>
+      <c r="I2146" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2146">
+        <v>1</v>
+      </c>
+      <c r="K2146">
+        <v>1400000</v>
+      </c>
+      <c r="L2146">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:12">
+      <c r="A2147">
+        <v>2144</v>
+      </c>
+      <c r="B2147">
+        <v>626402</v>
+      </c>
+      <c r="C2147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2147" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2147" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2147" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2147" t="s">
+        <v>697</v>
+      </c>
+      <c r="I2147" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2147">
+        <v>1</v>
+      </c>
+      <c r="K2147">
+        <v>965000</v>
+      </c>
+      <c r="L2147">
+        <v>965000</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:12">
+      <c r="A2148">
+        <v>2145</v>
+      </c>
+      <c r="B2148">
+        <v>626402</v>
+      </c>
+      <c r="C2148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2148" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2148" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2148" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2148" t="s">
+        <v>698</v>
+      </c>
+      <c r="I2148" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2148">
+        <v>1</v>
+      </c>
+      <c r="K2148">
+        <v>1497600</v>
+      </c>
+      <c r="L2148">
+        <v>1497600</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:12">
+      <c r="A2149">
+        <v>2146</v>
+      </c>
+      <c r="B2149">
+        <v>626402</v>
+      </c>
+      <c r="C2149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2149" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2149" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2149" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>699</v>
+      </c>
+      <c r="I2149" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2149">
+        <v>1</v>
+      </c>
+      <c r="K2149">
+        <v>1370000</v>
+      </c>
+      <c r="L2149">
+        <v>1370000</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:12">
+      <c r="A2150">
+        <v>2147</v>
+      </c>
+      <c r="B2150">
+        <v>626402</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2150" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2150" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2150" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>700</v>
+      </c>
+      <c r="I2150" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2150">
+        <v>1</v>
+      </c>
+      <c r="K2150">
+        <v>987000</v>
+      </c>
+      <c r="L2150">
+        <v>987000</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:12">
+      <c r="A2151">
+        <v>2148</v>
+      </c>
+      <c r="B2151">
+        <v>626402</v>
+      </c>
+      <c r="C2151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2151" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2151" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2151" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2151" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I2151" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2151">
+        <v>1</v>
+      </c>
+      <c r="K2151">
+        <v>1495500</v>
+      </c>
+      <c r="L2151">
+        <v>1495500</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:12">
+      <c r="A2152">
+        <v>2149</v>
+      </c>
+      <c r="B2152">
+        <v>626402</v>
+      </c>
+      <c r="C2152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2152" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2152" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2152" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2152" t="s">
+        <v>701</v>
+      </c>
+      <c r="I2152" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2152">
+        <v>1</v>
+      </c>
+      <c r="K2152">
+        <v>1500000</v>
+      </c>
+      <c r="L2152">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:12">
+      <c r="A2153">
+        <v>2150</v>
+      </c>
+      <c r="B2153">
+        <v>626402</v>
+      </c>
+      <c r="C2153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2153" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2153" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2153" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2153" t="s">
+        <v>702</v>
+      </c>
+      <c r="I2153" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2153">
+        <v>1</v>
+      </c>
+      <c r="K2153">
+        <v>970000</v>
+      </c>
+      <c r="L2153">
+        <v>970000</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:12">
+      <c r="A2154">
+        <v>2151</v>
+      </c>
+      <c r="B2154">
+        <v>626402</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2154" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2154" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2154" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2154" t="s">
+        <v>703</v>
+      </c>
+      <c r="I2154" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2154">
+        <v>1</v>
+      </c>
+      <c r="K2154">
+        <v>1499500</v>
+      </c>
+      <c r="L2154">
+        <v>1499500</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:12">
+      <c r="A2155">
+        <v>2152</v>
+      </c>
+      <c r="B2155">
+        <v>626402</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2155" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2155" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2155" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2155" t="s">
+        <v>704</v>
+      </c>
+      <c r="I2155" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2155">
+        <v>1</v>
+      </c>
+      <c r="K2155">
+        <v>1450000</v>
+      </c>
+      <c r="L2155">
+        <v>1450000</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:12">
+      <c r="A2156">
+        <v>2153</v>
+      </c>
+      <c r="B2156">
+        <v>626402</v>
+      </c>
+      <c r="C2156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2156" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2156" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2156" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2156" t="s">
+        <v>705</v>
+      </c>
+      <c r="I2156" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2156">
+        <v>1</v>
+      </c>
+      <c r="K2156">
+        <v>960000</v>
+      </c>
+      <c r="L2156">
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:12">
+      <c r="A2157">
+        <v>2154</v>
+      </c>
+      <c r="B2157">
+        <v>626402</v>
+      </c>
+      <c r="C2157" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2157" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2157" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2157" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2157" t="s">
+        <v>706</v>
+      </c>
+      <c r="I2157" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2157">
+        <v>1</v>
+      </c>
+      <c r="K2157">
+        <v>1000000</v>
+      </c>
+      <c r="L2157">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:12">
+      <c r="A2158">
+        <v>2155</v>
+      </c>
+      <c r="B2158">
+        <v>626402</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2158" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2158" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2158" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2158" t="s">
+        <v>707</v>
+      </c>
+      <c r="I2158" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2158">
+        <v>1</v>
+      </c>
+      <c r="K2158">
+        <v>1490000</v>
+      </c>
+      <c r="L2158">
+        <v>1490000</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:12">
+      <c r="A2159">
+        <v>2156</v>
+      </c>
+      <c r="B2159">
+        <v>626402</v>
+      </c>
+      <c r="C2159" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2159" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2159" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2159" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2159" t="s">
+        <v>708</v>
+      </c>
+      <c r="I2159" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2159">
+        <v>1</v>
+      </c>
+      <c r="K2159">
+        <v>1450000</v>
+      </c>
+      <c r="L2159">
+        <v>1450000</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:12">
+      <c r="A2160">
+        <v>2157</v>
+      </c>
+      <c r="B2160">
+        <v>626402</v>
+      </c>
+      <c r="C2160" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2160" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2160" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2160" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2160" t="s">
+        <v>709</v>
+      </c>
+      <c r="I2160" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2160">
+        <v>1</v>
+      </c>
+      <c r="K2160">
+        <v>1000000</v>
+      </c>
+      <c r="L2160">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:12">
+      <c r="A2161">
+        <v>2158</v>
+      </c>
+      <c r="B2161">
+        <v>626402</v>
+      </c>
+      <c r="C2161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2161" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2161" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2161" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2161" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2161" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2161">
+        <v>1</v>
+      </c>
+      <c r="K2161">
+        <v>855000</v>
+      </c>
+      <c r="L2161">
+        <v>855000</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:12">
+      <c r="A2162">
+        <v>2159</v>
+      </c>
+      <c r="B2162">
+        <v>626402</v>
+      </c>
+      <c r="C2162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2162" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2162" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2162" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2162" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2162" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2162">
+        <v>1</v>
+      </c>
+      <c r="K2162">
+        <v>1495000</v>
+      </c>
+      <c r="L2162">
+        <v>1495000</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:12">
+      <c r="A2163">
+        <v>2160</v>
+      </c>
+      <c r="B2163">
+        <v>626402</v>
+      </c>
+      <c r="C2163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2163" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2163" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2163" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2163" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2163" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2163">
+        <v>1</v>
+      </c>
+      <c r="K2163">
+        <v>1450000</v>
+      </c>
+      <c r="L2163">
+        <v>1450000</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:12">
+      <c r="A2164">
+        <v>2161</v>
+      </c>
+      <c r="B2164">
+        <v>626402</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2164" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2164" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2164" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2164" t="s">
+        <v>1590</v>
+      </c>
+      <c r="I2164" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2164">
+        <v>1</v>
+      </c>
+      <c r="K2164">
+        <v>1496900</v>
+      </c>
+      <c r="L2164">
+        <v>1496900</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:12">
+      <c r="A2165">
+        <v>2162</v>
+      </c>
+      <c r="B2165">
+        <v>626402</v>
+      </c>
+      <c r="C2165" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2165" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2165" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2165" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2165" t="s">
+        <v>1591</v>
+      </c>
+      <c r="I2165" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2165">
+        <v>1</v>
+      </c>
+      <c r="K2165">
+        <v>1455000</v>
+      </c>
+      <c r="L2165">
+        <v>1455000</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:12">
+      <c r="A2166">
+        <v>2163</v>
+      </c>
+      <c r="B2166">
+        <v>626402</v>
+      </c>
+      <c r="C2166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2166" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2166" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2166" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2166" t="s">
+        <v>1592</v>
+      </c>
+      <c r="I2166" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2166">
+        <v>1</v>
+      </c>
+      <c r="K2166">
+        <v>981000</v>
+      </c>
+      <c r="L2166">
+        <v>981000</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:12">
+      <c r="A2167">
+        <v>2164</v>
+      </c>
+      <c r="B2167">
+        <v>626402</v>
+      </c>
+      <c r="C2167" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2167" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2167" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2167" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2167" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I2167" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2167">
+        <v>1</v>
+      </c>
+      <c r="K2167">
+        <v>1494450</v>
+      </c>
+      <c r="L2167">
+        <v>1494450</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:12">
+      <c r="A2168">
+        <v>2165</v>
+      </c>
+      <c r="B2168">
+        <v>626402</v>
+      </c>
+      <c r="C2168" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2168" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2168" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2168" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2168" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I2168" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2168">
+        <v>1</v>
+      </c>
+      <c r="K2168">
+        <v>1340000</v>
+      </c>
+      <c r="L2168">
+        <v>1340000</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:12">
+      <c r="A2169">
+        <v>2166</v>
+      </c>
+      <c r="B2169">
+        <v>626402</v>
+      </c>
+      <c r="C2169" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2169" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2169" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2169" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2169" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I2169" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2169">
+        <v>1</v>
+      </c>
+      <c r="K2169">
+        <v>981000</v>
+      </c>
+      <c r="L2169">
+        <v>981000</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:12">
+      <c r="A2170">
+        <v>2167</v>
+      </c>
+      <c r="B2170">
+        <v>626402</v>
+      </c>
+      <c r="C2170" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2170" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2170" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2170" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2170" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I2170" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2170">
+        <v>1</v>
+      </c>
+      <c r="K2170">
+        <v>1485500</v>
+      </c>
+      <c r="L2170">
+        <v>1485500</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:12">
+      <c r="A2171">
+        <v>2168</v>
+      </c>
+      <c r="B2171">
+        <v>626402</v>
+      </c>
+      <c r="C2171" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2171" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2171" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2171" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2171" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I2171" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2171">
+        <v>1</v>
+      </c>
+      <c r="K2171">
+        <v>1435000</v>
+      </c>
+      <c r="L2171">
+        <v>1435000</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:12">
+      <c r="A2172">
+        <v>2169</v>
+      </c>
+      <c r="B2172">
+        <v>626402</v>
+      </c>
+      <c r="C2172" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2172" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2172" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2172" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2172" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I2172" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2172">
+        <v>1</v>
+      </c>
+      <c r="K2172">
+        <v>993000</v>
+      </c>
+      <c r="L2172">
+        <v>993000</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:12">
+      <c r="A2173">
+        <v>2170</v>
+      </c>
+      <c r="B2173">
+        <v>626402</v>
+      </c>
+      <c r="C2173" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2173" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2173" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2173" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2173" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I2173" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2173">
+        <v>1</v>
+      </c>
+      <c r="K2173">
+        <v>1493050</v>
+      </c>
+      <c r="L2173">
+        <v>1493050</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:12">
+      <c r="A2174">
+        <v>2171</v>
+      </c>
+      <c r="B2174">
+        <v>626402</v>
+      </c>
+      <c r="C2174" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2174" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2174" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2174" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2174" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I2174" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2174">
+        <v>1</v>
+      </c>
+      <c r="K2174">
+        <v>1495000</v>
+      </c>
+      <c r="L2174">
+        <v>1495000</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:12">
+      <c r="A2175">
+        <v>2172</v>
+      </c>
+      <c r="B2175">
+        <v>626402</v>
+      </c>
+      <c r="C2175" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2175" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2175" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2175" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2175" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I2175" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2175">
+        <v>1</v>
+      </c>
+      <c r="K2175">
+        <v>970000</v>
+      </c>
+      <c r="L2175">
+        <v>970000</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:12">
+      <c r="A2176">
+        <v>2173</v>
+      </c>
+      <c r="B2176">
+        <v>626402</v>
+      </c>
+      <c r="C2176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2176" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2176" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2176" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2176" t="s">
+        <v>2265</v>
+      </c>
+      <c r="I2176" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2176">
+        <v>1</v>
+      </c>
+      <c r="K2176">
+        <v>4147500</v>
+      </c>
+      <c r="L2176">
+        <v>4147500</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:12">
+      <c r="A2177">
+        <v>2174</v>
+      </c>
+      <c r="B2177">
+        <v>626402</v>
+      </c>
+      <c r="C2177" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2177" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2177" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2177" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2177" t="s">
+        <v>479</v>
+      </c>
+      <c r="I2177" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2177">
+        <v>1</v>
+      </c>
+      <c r="K2177">
+        <v>571802</v>
+      </c>
+      <c r="L2177">
+        <v>571802</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:12">
+      <c r="A2178">
+        <v>2175</v>
+      </c>
+      <c r="B2178">
+        <v>626402</v>
+      </c>
+      <c r="C2178" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2178" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2178" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2178" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2178" t="s">
+        <v>2266</v>
+      </c>
+      <c r="I2178" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2178">
+        <v>1</v>
+      </c>
+      <c r="K2178">
+        <v>181084</v>
+      </c>
+      <c r="L2178">
+        <v>181084</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:12">
+      <c r="A2179">
+        <v>2176</v>
+      </c>
+      <c r="B2179">
+        <v>626402</v>
+      </c>
+      <c r="C2179" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2179" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2179" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2179" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2179" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2179" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2179">
+        <v>1</v>
+      </c>
+      <c r="K2179">
+        <v>47730</v>
+      </c>
+      <c r="L2179">
+        <v>47730</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:12">
+      <c r="A2180">
+        <v>2177</v>
+      </c>
+      <c r="B2180">
+        <v>626402</v>
+      </c>
+      <c r="C2180" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2180" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2180" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2180" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2180" t="s">
+        <v>2267</v>
+      </c>
+      <c r="I2180" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2180">
+        <v>1</v>
+      </c>
+      <c r="K2180">
+        <v>6300000</v>
+      </c>
+      <c r="L2180">
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:12">
+      <c r="A2181">
+        <v>2178</v>
+      </c>
+      <c r="B2181">
+        <v>626402</v>
+      </c>
+      <c r="C2181" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2181" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2181" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2181" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2181" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2181" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2181">
+        <v>1</v>
+      </c>
+      <c r="K2181">
+        <v>9354560</v>
+      </c>
+      <c r="L2181">
+        <v>9354560</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:12">
+      <c r="A2182">
+        <v>2179</v>
+      </c>
+      <c r="B2182">
+        <v>626402</v>
+      </c>
+      <c r="C2182" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2182" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2182" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2182" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2182" t="s">
+        <v>716</v>
+      </c>
+      <c r="I2182" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2182">
+        <v>1</v>
+      </c>
+      <c r="K2182">
+        <v>1537500</v>
+      </c>
+      <c r="L2182">
+        <v>1537500</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:12">
+      <c r="A2183">
+        <v>2180</v>
+      </c>
+      <c r="B2183">
+        <v>626402</v>
+      </c>
+      <c r="C2183" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2183" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2183" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2183" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2183" t="s">
+        <v>232</v>
+      </c>
+      <c r="I2183" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2183">
+        <v>1</v>
+      </c>
+      <c r="K2183">
+        <v>900000</v>
+      </c>
+      <c r="L2183">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:12">
+      <c r="A2184">
+        <v>2181</v>
+      </c>
+      <c r="B2184">
+        <v>626402</v>
+      </c>
+      <c r="C2184" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2184" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2184" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2184" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2184" t="s">
+        <v>233</v>
+      </c>
+      <c r="I2184" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2184">
+        <v>1</v>
+      </c>
+      <c r="K2184">
+        <v>43540576</v>
+      </c>
+      <c r="L2184">
+        <v>43540576</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:12">
+      <c r="A2185">
+        <v>2182</v>
+      </c>
+      <c r="B2185">
+        <v>626402</v>
+      </c>
+      <c r="C2185" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2185" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2185" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2185" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2185" t="s">
+        <v>234</v>
+      </c>
+      <c r="I2185" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2185">
+        <v>1</v>
+      </c>
+      <c r="K2185">
+        <v>2345500</v>
+      </c>
+      <c r="L2185">
+        <v>2345500</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:12">
+      <c r="A2186">
+        <v>2183</v>
+      </c>
+      <c r="B2186">
+        <v>626402</v>
+      </c>
+      <c r="C2186" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2186" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2186" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2186" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2186" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I2186" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2186">
+        <v>1</v>
+      </c>
+      <c r="K2186">
+        <v>365500</v>
+      </c>
+      <c r="L2186">
+        <v>365500</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:12">
+      <c r="A2187">
+        <v>2184</v>
+      </c>
+      <c r="B2187">
+        <v>626402</v>
+      </c>
+      <c r="C2187" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2187" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2187" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2187" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2187" t="s">
+        <v>235</v>
+      </c>
+      <c r="I2187" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2187">
+        <v>1</v>
+      </c>
+      <c r="K2187">
+        <v>1220000</v>
+      </c>
+      <c r="L2187">
+        <v>1220000</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:12">
+      <c r="A2188">
+        <v>2185</v>
+      </c>
+      <c r="B2188">
+        <v>626402</v>
+      </c>
+      <c r="C2188" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2188" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2188" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2188" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2188" t="s">
+        <v>1595</v>
+      </c>
+      <c r="I2188" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2188">
+        <v>1</v>
+      </c>
+      <c r="K2188">
+        <v>12340420</v>
+      </c>
+      <c r="L2188">
+        <v>12340420</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:12">
+      <c r="A2189">
+        <v>2186</v>
+      </c>
+      <c r="B2189">
+        <v>626402</v>
+      </c>
+      <c r="C2189" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2189" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2189" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2189" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2189" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2189" t="s">
+        <v>236</v>
+      </c>
+      <c r="I2189" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2189">
+        <v>1</v>
+      </c>
+      <c r="K2189">
+        <v>12942080</v>
+      </c>
+      <c r="L2189">
+        <v>12942080</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:12">
+      <c r="A2190">
+        <v>2187</v>
+      </c>
+      <c r="B2190">
+        <v>626402</v>
+      </c>
+      <c r="C2190" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2190" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2190" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2190" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2190" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2190" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I2190" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2190">
+        <v>1</v>
+      </c>
+      <c r="K2190">
+        <v>9662120</v>
+      </c>
+      <c r="L2190">
+        <v>9662120</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:12">
+      <c r="A2191">
+        <v>2188</v>
+      </c>
+      <c r="B2191">
+        <v>626402</v>
+      </c>
+      <c r="C2191" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2191" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2191" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2191" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2191" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2191" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I2191" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2191">
+        <v>1</v>
+      </c>
+      <c r="K2191">
+        <v>50238705</v>
+      </c>
+      <c r="L2191">
+        <v>50238705</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:12">
+      <c r="A2192">
+        <v>2189</v>
+      </c>
+      <c r="B2192">
+        <v>626402</v>
+      </c>
+      <c r="C2192" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2192" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2192" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2192" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2192" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2192" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2192" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2192">
+        <v>1</v>
+      </c>
+      <c r="K2192">
+        <v>310000</v>
+      </c>
+      <c r="L2192">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:12">
+      <c r="A2193">
+        <v>2190</v>
+      </c>
+      <c r="B2193">
+        <v>626402</v>
+      </c>
+      <c r="C2193" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2193" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2193" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2193" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2193" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2193" t="s">
+        <v>719</v>
+      </c>
+      <c r="I2193" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2193">
+        <v>1</v>
+      </c>
+      <c r="K2193">
+        <v>2588500</v>
+      </c>
+      <c r="L2193">
+        <v>2588500</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:12">
+      <c r="A2194">
+        <v>2191</v>
+      </c>
+      <c r="B2194">
+        <v>626402</v>
+      </c>
+      <c r="C2194" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2194" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2194" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2194" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2194" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2194" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2194" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2194">
+        <v>1</v>
+      </c>
+      <c r="K2194">
+        <v>1350000</v>
+      </c>
+      <c r="L2194">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:12">
+      <c r="A2195">
+        <v>2192</v>
+      </c>
+      <c r="B2195">
+        <v>626402</v>
+      </c>
+      <c r="C2195" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2195" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2195" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2195" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2195" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2195" t="s">
+        <v>491</v>
+      </c>
+      <c r="I2195" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2195">
+        <v>1</v>
+      </c>
+      <c r="K2195">
+        <v>900000</v>
+      </c>
+      <c r="L2195">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:12">
+      <c r="A2196">
+        <v>2193</v>
+      </c>
+      <c r="B2196">
+        <v>626402</v>
+      </c>
+      <c r="C2196" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2196" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2196" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F2196" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G2196" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2196" t="s">
+        <v>2268</v>
+      </c>
+      <c r="I2196" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2196">
+        <v>1</v>
+      </c>
+      <c r="K2196">
+        <v>150000</v>
+      </c>
+      <c r="L2196">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:12">
+      <c r="A2197">
+        <v>2194</v>
+      </c>
+      <c r="B2197">
+        <v>626402</v>
+      </c>
+      <c r="C2197" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2197" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2197" t="s">
+        <v>2269</v>
+      </c>
+      <c r="F2197" t="s">
+        <v>2270</v>
+      </c>
+      <c r="G2197" t="s">
+        <v>2271</v>
+      </c>
+      <c r="H2197" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2197" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2197">
+        <v>1</v>
+      </c>
+      <c r="K2197">
+        <v>4326700</v>
+      </c>
+      <c r="L2197">
+        <v>4326700</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:12">
+      <c r="A2198">
+        <v>2195</v>
+      </c>
+      <c r="B2198">
+        <v>626402</v>
+      </c>
+      <c r="C2198" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2198" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2198" t="s">
+        <v>2269</v>
+      </c>
+      <c r="F2198" t="s">
+        <v>2270</v>
+      </c>
+      <c r="G2198" t="s">
+        <v>2271</v>
+      </c>
+      <c r="H2198" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2198" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2198">
+        <v>1</v>
+      </c>
+      <c r="K2198">
+        <v>77</v>
+      </c>
+      <c r="L2198">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:12">
+      <c r="A2199">
+        <v>2196</v>
+      </c>
+      <c r="B2199">
+        <v>626402</v>
+      </c>
+      <c r="C2199" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2199" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2199" t="s">
+        <v>2269</v>
+      </c>
+      <c r="F2199" t="s">
+        <v>2270</v>
+      </c>
+      <c r="G2199" t="s">
+        <v>2271</v>
+      </c>
+      <c r="H2199" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2199" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2199">
+        <v>1</v>
+      </c>
+      <c r="K2199">
+        <v>432670</v>
+      </c>
+      <c r="L2199">
+        <v>432670</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:12">
+      <c r="A2200">
+        <v>2197</v>
+      </c>
+      <c r="B2200">
+        <v>626402</v>
+      </c>
+      <c r="C2200" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2200" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2200" t="s">
+        <v>2269</v>
+      </c>
+      <c r="F2200" t="s">
+        <v>2270</v>
+      </c>
+      <c r="G2200" t="s">
+        <v>2271</v>
+      </c>
+      <c r="H2200" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2200" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2200">
+        <v>1</v>
+      </c>
+      <c r="K2200">
+        <v>173068</v>
+      </c>
+      <c r="L2200">
+        <v>173068</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:12">
+      <c r="A2201">
+        <v>2198</v>
+      </c>
+      <c r="B2201">
+        <v>626402</v>
+      </c>
+      <c r="C2201" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2201" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2201" t="s">
+        <v>2269</v>
+      </c>
+      <c r="F2201" t="s">
+        <v>2270</v>
+      </c>
+      <c r="G2201" t="s">
+        <v>2271</v>
+      </c>
+      <c r="H2201" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2201" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2201">
+        <v>1</v>
+      </c>
+      <c r="K2201">
+        <v>3250000</v>
+      </c>
+      <c r="L2201">
+        <v>3250000</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:12">
+      <c r="A2202">
+        <v>2199</v>
+      </c>
+      <c r="B2202">
+        <v>626402</v>
+      </c>
+      <c r="C2202" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2202" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2202" t="s">
+        <v>2269</v>
+      </c>
+      <c r="F2202" t="s">
+        <v>2270</v>
+      </c>
+      <c r="G2202" t="s">
+        <v>2271</v>
+      </c>
+      <c r="H2202" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2202" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2202">
+        <v>1</v>
+      </c>
+      <c r="K2202">
+        <v>90712</v>
+      </c>
+      <c r="L2202">
+        <v>90712</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:12">
+      <c r="A2203">
+        <v>2200</v>
+      </c>
+      <c r="B2203">
+        <v>626402</v>
+      </c>
+      <c r="C2203" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2203" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2203" t="s">
+        <v>2269</v>
+      </c>
+      <c r="F2203" t="s">
+        <v>2270</v>
+      </c>
+      <c r="G2203" t="s">
+        <v>2271</v>
+      </c>
+      <c r="H2203" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2203" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2203">
+        <v>1</v>
+      </c>
+      <c r="K2203">
+        <v>289680</v>
+      </c>
+      <c r="L2203">
+        <v>289680</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:12">
+      <c r="A2204">
+        <v>2201</v>
+      </c>
+      <c r="B2204">
+        <v>626402</v>
+      </c>
+      <c r="C2204" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2204" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2204" t="s">
+        <v>2272</v>
+      </c>
+      <c r="F2204" t="s">
+        <v>2273</v>
+      </c>
+      <c r="G2204" t="s">
+        <v>2274</v>
+      </c>
+      <c r="H2204" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2204" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2204">
+        <v>1</v>
+      </c>
+      <c r="K2204">
+        <v>7182400</v>
+      </c>
+      <c r="L2204">
+        <v>7182400</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:12">
+      <c r="A2205">
+        <v>2202</v>
+      </c>
+      <c r="B2205">
+        <v>626402</v>
+      </c>
+      <c r="C2205" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2205" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2205" t="s">
+        <v>2272</v>
+      </c>
+      <c r="F2205" t="s">
+        <v>2273</v>
+      </c>
+      <c r="G2205" t="s">
+        <v>2274</v>
+      </c>
+      <c r="H2205" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2205" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2205">
+        <v>1</v>
+      </c>
+      <c r="K2205">
+        <v>36</v>
+      </c>
+      <c r="L2205">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:12">
+      <c r="A2206">
+        <v>2203</v>
+      </c>
+      <c r="B2206">
+        <v>626402</v>
+      </c>
+      <c r="C2206" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2206" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2206" t="s">
+        <v>2272</v>
+      </c>
+      <c r="F2206" t="s">
+        <v>2273</v>
+      </c>
+      <c r="G2206" t="s">
+        <v>2274</v>
+      </c>
+      <c r="H2206" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2206" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2206">
+        <v>1</v>
+      </c>
+      <c r="K2206">
+        <v>718240</v>
+      </c>
+      <c r="L2206">
+        <v>718240</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:12">
+      <c r="A2207">
+        <v>2204</v>
+      </c>
+      <c r="B2207">
+        <v>626402</v>
+      </c>
+      <c r="C2207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2207" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2207" t="s">
+        <v>2272</v>
+      </c>
+      <c r="F2207" t="s">
+        <v>2273</v>
+      </c>
+      <c r="G2207" t="s">
+        <v>2274</v>
+      </c>
+      <c r="H2207" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2207" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2207">
+        <v>1</v>
+      </c>
+      <c r="K2207">
+        <v>287296</v>
+      </c>
+      <c r="L2207">
+        <v>287296</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:12">
+      <c r="A2208">
+        <v>2205</v>
+      </c>
+      <c r="B2208">
+        <v>626402</v>
+      </c>
+      <c r="C2208" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2208" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2208" t="s">
+        <v>2272</v>
+      </c>
+      <c r="F2208" t="s">
+        <v>2273</v>
+      </c>
+      <c r="G2208" t="s">
+        <v>2274</v>
+      </c>
+      <c r="H2208" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2208" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2208">
+        <v>1</v>
+      </c>
+      <c r="K2208">
+        <v>579360</v>
+      </c>
+      <c r="L2208">
+        <v>579360</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:12">
+      <c r="A2209">
         <v>2206</v>
       </c>
-      <c r="E2106" t="s">
-        <v>2241</v>
-      </c>
-      <c r="F2106" t="s">
-        <v>2242</v>
-      </c>
-      <c r="G2106" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H2106" t="s">
-        <v>757</v>
-      </c>
-      <c r="I2106" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2106">
-        <v>1</v>
-      </c>
-      <c r="K2106">
-        <v>400000</v>
-      </c>
-      <c r="L2106">
-        <v>400000</v>
+      <c r="B2209">
+        <v>626402</v>
+      </c>
+      <c r="C2209" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2209" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2209" t="s">
+        <v>2272</v>
+      </c>
+      <c r="F2209" t="s">
+        <v>2273</v>
+      </c>
+      <c r="G2209" t="s">
+        <v>2274</v>
+      </c>
+      <c r="H2209" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2209" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2209">
+        <v>1</v>
+      </c>
+      <c r="K2209">
+        <v>370000</v>
+      </c>
+      <c r="L2209">
+        <v>370000</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:12">
+      <c r="A2210">
+        <v>2207</v>
+      </c>
+      <c r="B2210">
+        <v>626402</v>
+      </c>
+      <c r="C2210" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2210" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2210" t="s">
+        <v>2275</v>
+      </c>
+      <c r="F2210" t="s">
+        <v>2276</v>
+      </c>
+      <c r="G2210" t="s">
+        <v>2277</v>
+      </c>
+      <c r="H2210" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2210" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2210">
+        <v>1</v>
+      </c>
+      <c r="K2210">
+        <v>5104000</v>
+      </c>
+      <c r="L2210">
+        <v>5104000</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:12">
+      <c r="A2211">
+        <v>2208</v>
+      </c>
+      <c r="B2211">
+        <v>626402</v>
+      </c>
+      <c r="C2211" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2211" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2211" t="s">
+        <v>2278</v>
+      </c>
+      <c r="F2211" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G2211" t="s">
+        <v>2280</v>
+      </c>
+      <c r="H2211" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2211" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2211">
+        <v>1</v>
+      </c>
+      <c r="K2211">
+        <v>375600</v>
+      </c>
+      <c r="L2211">
+        <v>375600</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:12">
+      <c r="A2212">
+        <v>2209</v>
+      </c>
+      <c r="B2212">
+        <v>626402</v>
+      </c>
+      <c r="C2212" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2212" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E2212" t="s">
+        <v>2278</v>
+      </c>
+      <c r="F2212" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G2212" t="s">
+        <v>2280</v>
+      </c>
+      <c r="H2212" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2212" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2212">
+        <v>1</v>
+      </c>
+      <c r="K2212">
+        <v>1080000</v>
+      </c>
+      <c r="L2212">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:12">
+      <c r="A2213">
+        <v>2210</v>
+      </c>
+      <c r="B2213">
+        <v>626402</v>
+      </c>
+      <c r="C2213" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2213" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2213" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F2213" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G2213" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H2213" t="s">
+        <v>495</v>
+      </c>
+      <c r="I2213" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2213">
+        <v>1</v>
+      </c>
+      <c r="K2213">
+        <v>816000</v>
+      </c>
+      <c r="L2213">
+        <v>816000</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:12">
+      <c r="A2214">
+        <v>2211</v>
+      </c>
+      <c r="B2214">
+        <v>626402</v>
+      </c>
+      <c r="C2214" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2214" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2214" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F2214" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G2214" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H2214" t="s">
+        <v>496</v>
+      </c>
+      <c r="I2214" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2214">
+        <v>1</v>
+      </c>
+      <c r="K2214">
+        <v>4250000</v>
+      </c>
+      <c r="L2214">
+        <v>4250000</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:12">
+      <c r="A2215">
+        <v>2212</v>
+      </c>
+      <c r="B2215">
+        <v>626402</v>
+      </c>
+      <c r="C2215" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2215" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2215" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F2215" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G2215" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H2215" t="s">
+        <v>497</v>
+      </c>
+      <c r="I2215" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2215">
+        <v>1</v>
+      </c>
+      <c r="K2215">
+        <v>712000</v>
+      </c>
+      <c r="L2215">
+        <v>712000</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:12">
+      <c r="A2216">
+        <v>2213</v>
+      </c>
+      <c r="B2216">
+        <v>626402</v>
+      </c>
+      <c r="C2216" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2216" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2216" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F2216" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G2216" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H2216" t="s">
+        <v>498</v>
+      </c>
+      <c r="I2216" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2216">
+        <v>1</v>
+      </c>
+      <c r="K2216">
+        <v>3720000</v>
+      </c>
+      <c r="L2216">
+        <v>3720000</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:12">
+      <c r="A2217">
+        <v>2214</v>
+      </c>
+      <c r="B2217">
+        <v>626402</v>
+      </c>
+      <c r="C2217" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2217" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2217" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F2217" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G2217" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H2217" t="s">
+        <v>499</v>
+      </c>
+      <c r="I2217" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2217">
+        <v>1</v>
+      </c>
+      <c r="K2217">
+        <v>1862000</v>
+      </c>
+      <c r="L2217">
+        <v>1862000</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:12">
+      <c r="A2218">
+        <v>2215</v>
+      </c>
+      <c r="B2218">
+        <v>626402</v>
+      </c>
+      <c r="C2218" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2218" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2218" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F2218" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G2218" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H2218" t="s">
+        <v>500</v>
+      </c>
+      <c r="I2218" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2218">
+        <v>1</v>
+      </c>
+      <c r="K2218">
+        <v>2310000</v>
+      </c>
+      <c r="L2218">
+        <v>2310000</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:12">
+      <c r="A2219">
+        <v>2216</v>
+      </c>
+      <c r="B2219">
+        <v>626402</v>
+      </c>
+      <c r="C2219" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2219" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2219" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F2219" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G2219" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H2219" t="s">
+        <v>501</v>
+      </c>
+      <c r="I2219" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2219">
+        <v>1</v>
+      </c>
+      <c r="K2219">
+        <v>100000</v>
+      </c>
+      <c r="L2219">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:12">
+      <c r="A2220">
+        <v>2217</v>
+      </c>
+      <c r="B2220">
+        <v>626402</v>
+      </c>
+      <c r="C2220" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2220" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2220" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F2220" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G2220" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H2220" t="s">
+        <v>502</v>
+      </c>
+      <c r="I2220" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2220">
+        <v>1</v>
+      </c>
+      <c r="K2220">
+        <v>80000</v>
+      </c>
+      <c r="L2220">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:12">
+      <c r="A2221">
+        <v>2218</v>
+      </c>
+      <c r="B2221">
+        <v>626402</v>
+      </c>
+      <c r="C2221" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2221" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2221" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F2221" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G2221" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H2221" t="s">
+        <v>503</v>
+      </c>
+      <c r="I2221" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2221">
+        <v>1</v>
+      </c>
+      <c r="K2221">
+        <v>980000</v>
+      </c>
+      <c r="L2221">
+        <v>980000</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:12">
+      <c r="A2222">
+        <v>2219</v>
+      </c>
+      <c r="B2222">
+        <v>626402</v>
+      </c>
+      <c r="C2222" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2222" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2222" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F2222" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G2222" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H2222" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I2222" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2222">
+        <v>1</v>
+      </c>
+      <c r="K2222">
+        <v>300000</v>
+      </c>
+      <c r="L2222">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:12">
+      <c r="A2223">
+        <v>2220</v>
+      </c>
+      <c r="B2223">
+        <v>626402</v>
+      </c>
+      <c r="C2223" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2223" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2223" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F2223" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G2223" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H2223" t="s">
+        <v>504</v>
+      </c>
+      <c r="I2223" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2223">
+        <v>1</v>
+      </c>
+      <c r="K2223">
+        <v>160000</v>
+      </c>
+      <c r="L2223">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:12">
+      <c r="A2224">
+        <v>2221</v>
+      </c>
+      <c r="B2224">
+        <v>626402</v>
+      </c>
+      <c r="C2224" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2224" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2224" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F2224" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G2224" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H2224" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2224" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2224">
+        <v>1</v>
+      </c>
+      <c r="K2224">
+        <v>140000</v>
+      </c>
+      <c r="L2224">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:12">
+      <c r="A2225">
+        <v>2222</v>
+      </c>
+      <c r="B2225">
+        <v>626402</v>
+      </c>
+      <c r="C2225" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2225" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2225" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F2225" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G2225" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H2225" t="s">
+        <v>506</v>
+      </c>
+      <c r="I2225" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2225">
+        <v>1</v>
+      </c>
+      <c r="K2225">
+        <v>540000</v>
+      </c>
+      <c r="L2225">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:12">
+      <c r="A2226">
+        <v>2223</v>
+      </c>
+      <c r="B2226">
+        <v>626402</v>
+      </c>
+      <c r="C2226" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2226" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2226" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F2226" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G2226" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H2226" t="s">
+        <v>507</v>
+      </c>
+      <c r="I2226" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2226">
+        <v>1</v>
+      </c>
+      <c r="K2226">
+        <v>810000</v>
+      </c>
+      <c r="L2226">
+        <v>810000</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:12">
+      <c r="A2227">
+        <v>2224</v>
+      </c>
+      <c r="B2227">
+        <v>626402</v>
+      </c>
+      <c r="C2227" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2227" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2227" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F2227" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G2227" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H2227" t="s">
+        <v>508</v>
+      </c>
+      <c r="I2227" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2227">
+        <v>1</v>
+      </c>
+      <c r="K2227">
+        <v>300000</v>
+      </c>
+      <c r="L2227">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:12">
+      <c r="A2228">
+        <v>2225</v>
+      </c>
+      <c r="B2228">
+        <v>626402</v>
+      </c>
+      <c r="C2228" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2228" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2228" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F2228" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G2228" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H2228" t="s">
+        <v>509</v>
+      </c>
+      <c r="I2228" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2228">
+        <v>1</v>
+      </c>
+      <c r="K2228">
+        <v>680000</v>
+      </c>
+      <c r="L2228">
+        <v>680000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2351">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -6725,6 +6725,21 @@
     <t>Pembayaran belanja pegawai Pusdik uang lembur dan uang makan lembur bulan Maret 2023 untuk 8 pegawai sesuai SPKL no :B.668, 685/BRSDM.4/KP.440/III/2023 tanggal 16 dan 20 Maret 2023</t>
   </si>
   <si>
+    <t>2023-06-08</t>
+  </si>
+  <si>
+    <t>'00495T</t>
+  </si>
+  <si>
+    <t>'231751301021924</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang.Pelaksanaan Fullboard Meeting Koordinasi Teknis Pendidikan KP Sesuai SPK No:413/PPK.PUSDIK/PL.430/V/2023 Tgl.10-5-2023,BAST No: 421/PPK.PUSDIK/PL.430/V/2023 Tgl.12-05-2023,BAP No:424/PPK.PUSDIK/PL.430/V/2023 Tgl.15-05-2023</t>
+  </si>
+  <si>
+    <t>'626402.175.524119.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.301.0F.000987</t>
+  </si>
+  <si>
     <t>'00496T</t>
   </si>
   <si>
@@ -6749,6 +6764,18 @@
     <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.301.0F.000986</t>
   </si>
   <si>
+    <t>2023-06-09</t>
+  </si>
+  <si>
+    <t>'00498T</t>
+  </si>
+  <si>
+    <t>'231751301022224</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:09146 Tanggal 29 Mei 2023</t>
+  </si>
+  <si>
     <t>'00499T</t>
   </si>
   <si>
@@ -6785,6 +6812,15 @@
     <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.101.0A.000266</t>
   </si>
   <si>
+    <t>'00502T</t>
+  </si>
+  <si>
+    <t>'231751301021860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang Sesuai Kwitansi Nomor:KW-LCR/23/05/004 Tanggal 12 Mei 2023 Pengadaan Alat Pengolah Data Sekretariat BRSDM </t>
+  </si>
+  <si>
     <t>'00503T</t>
   </si>
   <si>
@@ -6851,6 +6887,15 @@
     <t>Pembayaran Belanja Barang Berupa Honor PPNPN Bulan Mei Tahun 2023 untuk 1 Pegawai.</t>
   </si>
   <si>
+    <t>'00509T</t>
+  </si>
+  <si>
+    <t>'231751303012937</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:1851/UMUM/2/0523 Tanggal 6 Mei 2023 Tagihan Bea pengiriman surat bulan April 2023</t>
+  </si>
+  <si>
     <t>'00510T</t>
   </si>
   <si>
@@ -6860,6 +6905,78 @@
     <t>Pembayaran belanja pegawai(Pembayaran kekurangan gaji pegawai Pusdik bulan Mei untuk 2 pegawai)</t>
   </si>
   <si>
+    <t>'00511T</t>
+  </si>
+  <si>
+    <t>'231751303012949</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai 1380/KW-TE/V/2023 Tanggal 2 Mei 2023 Pembelian Akrilik Stanlist BRSDM pada Satker Sekretariat BRSDMKP</t>
+  </si>
+  <si>
+    <t>'00512T</t>
+  </si>
+  <si>
+    <t>'231751302016954</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:08/PT-HAM/V/2023 Tanggal 8 Mei 2023 Pemeliharaan pengharum ruangan Merk Calmic BRSDMKP Bulan April 2023,</t>
+  </si>
+  <si>
+    <t>'00513T</t>
+  </si>
+  <si>
+    <t>'231751302016955</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:08.a/KW/PT-HAM/V/2023 Tanggal 8 Mei 2023 Pemeliharaan pengharum ruangan merk Calmic pada Gd.I dan II BRSDMKP di Ancol bulan Mei 2023</t>
+  </si>
+  <si>
+    <t>'00514T</t>
+  </si>
+  <si>
+    <t>'231751303013181</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.707/BRSDM.5/KP.440/V/2023 Tanggal 15 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00515T</t>
+  </si>
+  <si>
+    <t>'231751301021899</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:1220/SPK/PPBJ/BRSDM.5/XII/2022 Tgl.30-12-2022,BAST No:BAST.1225/PPBJ.PL/BRSDM.5/V/2023 Tgl.31-5-2023,BAP No:BAP.1225/PPBJ.PL/BRSDM.5/VI/2023 Tgl.05-6-2023.</t>
+  </si>
+  <si>
+    <t>'00516T</t>
+  </si>
+  <si>
+    <t>'231751302016981</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:1210/SPK/BRSDM.5/XII/2022 Tgl.30-12-2022,BAST No BAST.1215/PPBJ.PL/BRSDM.5/V/2023 Tgl.31-5-2023,BAP No BAP.1215/PPBJ.PL/BRSDM.5/VI/2023 Tgl.05-06-2023</t>
+  </si>
+  <si>
+    <t>'00517T</t>
+  </si>
+  <si>
+    <t>'231751701003251</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.201.0D.000945</t>
+  </si>
+  <si>
+    <t>'00518T</t>
+  </si>
+  <si>
+    <t>'231751303013182</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.807/BRSDM/KP.440/V/2023 Tanggal 16 Mei 2023 dan ST.B.718/BRSDM.5/KP.440/V/2023 Tanggal 16 Mei 2023</t>
+  </si>
+  <si>
     <t>'00519T</t>
   </si>
   <si>
@@ -6867,6 +6984,90 @@
   </si>
   <si>
     <t>Pembayaran Belanja Barang Sesuai SK No:KEP.19/MEN-KP/KU.611/2022 Tgl.4-3-2022,SK No:1,9 Tahun 2023 Tgl.2,5-1-2023,SK No:6,8,10,11,12/KPA/BRSDM/I/2023 Tgl.3,4-1-2023,SK No:KEP.316,372/KPA/BRSDM/IV/2023 Tgl.3,26-4-2023 Honor PA Bulan Mei 2023</t>
+  </si>
+  <si>
+    <t>'00520T</t>
+  </si>
+  <si>
+    <t>'231751303013164</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.809/BRSDM.5/KP.440/VI/2023 Tanggal 05 Juni 2023</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0D.000110</t>
+  </si>
+  <si>
+    <t>'00521T</t>
+  </si>
+  <si>
+    <t>'231751303013165</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.812/BRSDM.5/KP.440/VI/2023 Tanggal 05 Juni 2023</t>
+  </si>
+  <si>
+    <t>'00522T</t>
+  </si>
+  <si>
+    <t>'231751303013166</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.811/BRSDM.5/KP.440/VI/2023 Tanggal 05 Juni 2023</t>
+  </si>
+  <si>
+    <t>'00525T</t>
+  </si>
+  <si>
+    <t>'231751303012947</t>
+  </si>
+  <si>
+    <t>Pembayaran Tukin ke-13 Tahun 2023 Untuk 76 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00526T</t>
+  </si>
+  <si>
+    <t>'231751303012946</t>
+  </si>
+  <si>
+    <t>Pembayaran Tukin ke-13 Tahun 2023 Untuk 42 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00527T</t>
+  </si>
+  <si>
+    <t>'231751303012948</t>
+  </si>
+  <si>
+    <t>Pembayaran Tukin ke-13 Tahun 2023 Untuk 34 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00528T</t>
+  </si>
+  <si>
+    <t>'231751301022268</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:3632/KWT/SWISS-BEL/ACCT/V/2023 Tanggal 26 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00529T</t>
+  </si>
+  <si>
+    <t>'231751303013246</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan bulan Mei tahun 2023 untuk 76 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00531T</t>
+  </si>
+  <si>
+    <t>'231751303013251</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan bulan Mei tahun 2023 untuk 34 Pegawai/Anggota Polri/Prajurit TNI.</t>
   </si>
 </sst>
 </file>
@@ -7208,7 +7409,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L2228"/>
+  <dimension ref="A1:L2258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -86921,19 +87122,19 @@
         <v>13</v>
       </c>
       <c r="D2100" t="s">
-        <v>2156</v>
+        <v>2236</v>
       </c>
       <c r="E2100" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="F2100" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="G2100" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="H2100" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="I2100" t="s">
         <v>19</v>
@@ -86942,10 +87143,10 @@
         <v>1</v>
       </c>
       <c r="K2100">
-        <v>98711000</v>
+        <v>148140000</v>
       </c>
       <c r="L2100">
-        <v>98711000</v>
+        <v>148140000</v>
       </c>
     </row>
     <row r="2101" spans="1:12">
@@ -86962,16 +87163,16 @@
         <v>2156</v>
       </c>
       <c r="E2101" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="F2101" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="G2101" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="H2101" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="I2101" t="s">
         <v>19</v>
@@ -86980,10 +87181,10 @@
         <v>1</v>
       </c>
       <c r="K2101">
-        <v>64517746</v>
+        <v>98711000</v>
       </c>
       <c r="L2101">
-        <v>64517746</v>
+        <v>98711000</v>
       </c>
     </row>
     <row r="2102" spans="1:12">
@@ -86997,19 +87198,19 @@
         <v>13</v>
       </c>
       <c r="D2102" t="s">
-        <v>2169</v>
+        <v>2156</v>
       </c>
       <c r="E2102" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="F2102" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="G2102" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="H2102" t="s">
-        <v>420</v>
+        <v>2248</v>
       </c>
       <c r="I2102" t="s">
         <v>19</v>
@@ -87018,10 +87219,10 @@
         <v>1</v>
       </c>
       <c r="K2102">
-        <v>15000000</v>
+        <v>64517746</v>
       </c>
       <c r="L2102">
-        <v>15000000</v>
+        <v>64517746</v>
       </c>
     </row>
     <row r="2103" spans="1:12">
@@ -87035,19 +87236,19 @@
         <v>13</v>
       </c>
       <c r="D2103" t="s">
-        <v>2169</v>
+        <v>2249</v>
       </c>
       <c r="E2103" t="s">
-        <v>2247</v>
+        <v>2250</v>
       </c>
       <c r="F2103" t="s">
-        <v>2248</v>
+        <v>2251</v>
       </c>
       <c r="G2103" t="s">
-        <v>2249</v>
+        <v>2252</v>
       </c>
       <c r="H2103" t="s">
-        <v>420</v>
+        <v>608</v>
       </c>
       <c r="I2103" t="s">
         <v>19</v>
@@ -87056,10 +87257,10 @@
         <v>1</v>
       </c>
       <c r="K2103">
-        <v>6000000</v>
+        <v>23796000</v>
       </c>
       <c r="L2103">
-        <v>6000000</v>
+        <v>23796000</v>
       </c>
     </row>
     <row r="2104" spans="1:12">
@@ -87076,16 +87277,16 @@
         <v>2169</v>
       </c>
       <c r="E2104" t="s">
-        <v>2250</v>
+        <v>2253</v>
       </c>
       <c r="F2104" t="s">
-        <v>2251</v>
+        <v>2254</v>
       </c>
       <c r="G2104" t="s">
-        <v>2252</v>
+        <v>2255</v>
       </c>
       <c r="H2104" t="s">
-        <v>2253</v>
+        <v>420</v>
       </c>
       <c r="I2104" t="s">
         <v>19</v>
@@ -87094,10 +87295,10 @@
         <v>1</v>
       </c>
       <c r="K2104">
-        <v>1600000</v>
+        <v>15000000</v>
       </c>
       <c r="L2104">
-        <v>1600000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="2105" spans="1:12">
@@ -87114,16 +87315,16 @@
         <v>2169</v>
       </c>
       <c r="E2105" t="s">
-        <v>2250</v>
+        <v>2256</v>
       </c>
       <c r="F2105" t="s">
-        <v>2251</v>
+        <v>2257</v>
       </c>
       <c r="G2105" t="s">
-        <v>2252</v>
+        <v>2258</v>
       </c>
       <c r="H2105" t="s">
-        <v>2254</v>
+        <v>420</v>
       </c>
       <c r="I2105" t="s">
         <v>19</v>
@@ -87132,10 +87333,10 @@
         <v>1</v>
       </c>
       <c r="K2105">
-        <v>1200000</v>
+        <v>6000000</v>
       </c>
       <c r="L2105">
-        <v>1200000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="2106" spans="1:12">
@@ -87152,16 +87353,16 @@
         <v>2169</v>
       </c>
       <c r="E2106" t="s">
-        <v>2250</v>
+        <v>2259</v>
       </c>
       <c r="F2106" t="s">
-        <v>2251</v>
+        <v>2260</v>
       </c>
       <c r="G2106" t="s">
-        <v>2252</v>
+        <v>2261</v>
       </c>
       <c r="H2106" t="s">
-        <v>2255</v>
+        <v>2262</v>
       </c>
       <c r="I2106" t="s">
         <v>19</v>
@@ -87170,10 +87371,10 @@
         <v>1</v>
       </c>
       <c r="K2106">
-        <v>8400000</v>
+        <v>1600000</v>
       </c>
       <c r="L2106">
-        <v>8400000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="2107" spans="1:12">
@@ -87187,19 +87388,19 @@
         <v>13</v>
       </c>
       <c r="D2107" t="s">
-        <v>2213</v>
+        <v>2169</v>
       </c>
       <c r="E2107" t="s">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="F2107" t="s">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="G2107" t="s">
-        <v>1536</v>
+        <v>2261</v>
       </c>
       <c r="H2107" t="s">
-        <v>581</v>
+        <v>2263</v>
       </c>
       <c r="I2107" t="s">
         <v>19</v>
@@ -87208,10 +87409,10 @@
         <v>1</v>
       </c>
       <c r="K2107">
-        <v>27850000</v>
+        <v>1200000</v>
       </c>
       <c r="L2107">
-        <v>27850000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="2108" spans="1:12">
@@ -87225,19 +87426,19 @@
         <v>13</v>
       </c>
       <c r="D2108" t="s">
-        <v>2213</v>
+        <v>2169</v>
       </c>
       <c r="E2108" t="s">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="F2108" t="s">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="G2108" t="s">
-        <v>1536</v>
+        <v>2261</v>
       </c>
       <c r="H2108" t="s">
-        <v>2258</v>
+        <v>2264</v>
       </c>
       <c r="I2108" t="s">
         <v>19</v>
@@ -87246,10 +87447,10 @@
         <v>1</v>
       </c>
       <c r="K2108">
-        <v>2880000</v>
+        <v>8400000</v>
       </c>
       <c r="L2108">
-        <v>2880000</v>
+        <v>8400000</v>
       </c>
     </row>
     <row r="2109" spans="1:12">
@@ -87263,19 +87464,19 @@
         <v>13</v>
       </c>
       <c r="D2109" t="s">
-        <v>2213</v>
+        <v>2236</v>
       </c>
       <c r="E2109" t="s">
-        <v>2256</v>
+        <v>2265</v>
       </c>
       <c r="F2109" t="s">
-        <v>2257</v>
+        <v>2266</v>
       </c>
       <c r="G2109" t="s">
-        <v>1536</v>
+        <v>2267</v>
       </c>
       <c r="H2109" t="s">
-        <v>2259</v>
+        <v>370</v>
       </c>
       <c r="I2109" t="s">
         <v>19</v>
@@ -87284,10 +87485,10 @@
         <v>1</v>
       </c>
       <c r="K2109">
-        <v>1800000</v>
+        <v>28300000</v>
       </c>
       <c r="L2109">
-        <v>1800000</v>
+        <v>28300000</v>
       </c>
     </row>
     <row r="2110" spans="1:12">
@@ -87304,16 +87505,16 @@
         <v>2213</v>
       </c>
       <c r="E2110" t="s">
-        <v>2256</v>
+        <v>2268</v>
       </c>
       <c r="F2110" t="s">
-        <v>2257</v>
+        <v>2269</v>
       </c>
       <c r="G2110" t="s">
         <v>1536</v>
       </c>
       <c r="H2110" t="s">
-        <v>757</v>
+        <v>581</v>
       </c>
       <c r="I2110" t="s">
         <v>19</v>
@@ -87322,10 +87523,10 @@
         <v>1</v>
       </c>
       <c r="K2110">
-        <v>400000</v>
+        <v>27850000</v>
       </c>
       <c r="L2110">
-        <v>400000</v>
+        <v>27850000</v>
       </c>
     </row>
     <row r="2111" spans="1:12">
@@ -87339,19 +87540,19 @@
         <v>13</v>
       </c>
       <c r="D2111" t="s">
-        <v>2156</v>
+        <v>2213</v>
       </c>
       <c r="E2111" t="s">
-        <v>2260</v>
+        <v>2268</v>
       </c>
       <c r="F2111" t="s">
-        <v>2261</v>
+        <v>2269</v>
       </c>
       <c r="G2111" t="s">
-        <v>2262</v>
+        <v>1536</v>
       </c>
       <c r="H2111" t="s">
-        <v>2173</v>
+        <v>2270</v>
       </c>
       <c r="I2111" t="s">
         <v>19</v>
@@ -87360,10 +87561,10 @@
         <v>1</v>
       </c>
       <c r="K2111">
-        <v>168000</v>
+        <v>2880000</v>
       </c>
       <c r="L2111">
-        <v>168000</v>
+        <v>2880000</v>
       </c>
     </row>
     <row r="2112" spans="1:12">
@@ -87377,19 +87578,19 @@
         <v>13</v>
       </c>
       <c r="D2112" t="s">
-        <v>2169</v>
+        <v>2213</v>
       </c>
       <c r="E2112" t="s">
-        <v>2263</v>
+        <v>2268</v>
       </c>
       <c r="F2112" t="s">
-        <v>2264</v>
+        <v>2269</v>
       </c>
       <c r="G2112" t="s">
-        <v>156</v>
+        <v>1536</v>
       </c>
       <c r="H2112" t="s">
-        <v>209</v>
+        <v>2271</v>
       </c>
       <c r="I2112" t="s">
         <v>19</v>
@@ -87398,10 +87599,10 @@
         <v>1</v>
       </c>
       <c r="K2112">
-        <v>1497950</v>
+        <v>1800000</v>
       </c>
       <c r="L2112">
-        <v>1497950</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="2113" spans="1:12">
@@ -87415,19 +87616,19 @@
         <v>13</v>
       </c>
       <c r="D2113" t="s">
-        <v>2169</v>
+        <v>2213</v>
       </c>
       <c r="E2113" t="s">
-        <v>2263</v>
+        <v>2268</v>
       </c>
       <c r="F2113" t="s">
-        <v>2264</v>
+        <v>2269</v>
       </c>
       <c r="G2113" t="s">
-        <v>156</v>
+        <v>1536</v>
       </c>
       <c r="H2113" t="s">
-        <v>210</v>
+        <v>757</v>
       </c>
       <c r="I2113" t="s">
         <v>19</v>
@@ -87436,10 +87637,10 @@
         <v>1</v>
       </c>
       <c r="K2113">
-        <v>1480000</v>
+        <v>400000</v>
       </c>
       <c r="L2113">
-        <v>1480000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="2114" spans="1:12">
@@ -87453,19 +87654,19 @@
         <v>13</v>
       </c>
       <c r="D2114" t="s">
-        <v>2169</v>
+        <v>2156</v>
       </c>
       <c r="E2114" t="s">
-        <v>2263</v>
+        <v>2272</v>
       </c>
       <c r="F2114" t="s">
-        <v>2264</v>
+        <v>2273</v>
       </c>
       <c r="G2114" t="s">
-        <v>156</v>
+        <v>2274</v>
       </c>
       <c r="H2114" t="s">
-        <v>211</v>
+        <v>2173</v>
       </c>
       <c r="I2114" t="s">
         <v>19</v>
@@ -87474,10 +87675,10 @@
         <v>1</v>
       </c>
       <c r="K2114">
-        <v>990000</v>
+        <v>168000</v>
       </c>
       <c r="L2114">
-        <v>990000</v>
+        <v>168000</v>
       </c>
     </row>
     <row r="2115" spans="1:12">
@@ -87494,16 +87695,16 @@
         <v>2169</v>
       </c>
       <c r="E2115" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2115" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2115" t="s">
         <v>156</v>
       </c>
       <c r="H2115" t="s">
-        <v>1367</v>
+        <v>209</v>
       </c>
       <c r="I2115" t="s">
         <v>19</v>
@@ -87512,10 +87713,10 @@
         <v>1</v>
       </c>
       <c r="K2115">
-        <v>1499900</v>
+        <v>1497950</v>
       </c>
       <c r="L2115">
-        <v>1499900</v>
+        <v>1497950</v>
       </c>
     </row>
     <row r="2116" spans="1:12">
@@ -87532,16 +87733,16 @@
         <v>2169</v>
       </c>
       <c r="E2116" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2116" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2116" t="s">
         <v>156</v>
       </c>
       <c r="H2116" t="s">
-        <v>1037</v>
+        <v>210</v>
       </c>
       <c r="I2116" t="s">
         <v>19</v>
@@ -87550,10 +87751,10 @@
         <v>1</v>
       </c>
       <c r="K2116">
-        <v>1500000</v>
+        <v>1480000</v>
       </c>
       <c r="L2116">
-        <v>1500000</v>
+        <v>1480000</v>
       </c>
     </row>
     <row r="2117" spans="1:12">
@@ -87570,16 +87771,16 @@
         <v>2169</v>
       </c>
       <c r="E2117" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2117" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2117" t="s">
         <v>156</v>
       </c>
       <c r="H2117" t="s">
-        <v>1038</v>
+        <v>211</v>
       </c>
       <c r="I2117" t="s">
         <v>19</v>
@@ -87588,10 +87789,10 @@
         <v>1</v>
       </c>
       <c r="K2117">
-        <v>1000000</v>
+        <v>990000</v>
       </c>
       <c r="L2117">
-        <v>1000000</v>
+        <v>990000</v>
       </c>
     </row>
     <row r="2118" spans="1:12">
@@ -87608,16 +87809,16 @@
         <v>2169</v>
       </c>
       <c r="E2118" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2118" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2118" t="s">
         <v>156</v>
       </c>
       <c r="H2118" t="s">
-        <v>670</v>
+        <v>1367</v>
       </c>
       <c r="I2118" t="s">
         <v>19</v>
@@ -87626,10 +87827,10 @@
         <v>1</v>
       </c>
       <c r="K2118">
-        <v>1475000</v>
+        <v>1499900</v>
       </c>
       <c r="L2118">
-        <v>1475000</v>
+        <v>1499900</v>
       </c>
     </row>
     <row r="2119" spans="1:12">
@@ -87646,16 +87847,16 @@
         <v>2169</v>
       </c>
       <c r="E2119" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2119" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2119" t="s">
         <v>156</v>
       </c>
       <c r="H2119" t="s">
-        <v>671</v>
+        <v>1037</v>
       </c>
       <c r="I2119" t="s">
         <v>19</v>
@@ -87664,10 +87865,10 @@
         <v>1</v>
       </c>
       <c r="K2119">
-        <v>993000</v>
+        <v>1500000</v>
       </c>
       <c r="L2119">
-        <v>993000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="2120" spans="1:12">
@@ -87684,16 +87885,16 @@
         <v>2169</v>
       </c>
       <c r="E2120" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2120" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2120" t="s">
         <v>156</v>
       </c>
       <c r="H2120" t="s">
-        <v>672</v>
+        <v>1038</v>
       </c>
       <c r="I2120" t="s">
         <v>19</v>
@@ -87702,10 +87903,10 @@
         <v>1</v>
       </c>
       <c r="K2120">
-        <v>1498000</v>
+        <v>1000000</v>
       </c>
       <c r="L2120">
-        <v>1498000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="2121" spans="1:12">
@@ -87722,16 +87923,16 @@
         <v>2169</v>
       </c>
       <c r="E2121" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2121" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2121" t="s">
         <v>156</v>
       </c>
       <c r="H2121" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="I2121" t="s">
         <v>19</v>
@@ -87740,10 +87941,10 @@
         <v>1</v>
       </c>
       <c r="K2121">
-        <v>1500000</v>
+        <v>1475000</v>
       </c>
       <c r="L2121">
-        <v>1500000</v>
+        <v>1475000</v>
       </c>
     </row>
     <row r="2122" spans="1:12">
@@ -87760,16 +87961,16 @@
         <v>2169</v>
       </c>
       <c r="E2122" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2122" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2122" t="s">
         <v>156</v>
       </c>
       <c r="H2122" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="I2122" t="s">
         <v>19</v>
@@ -87778,10 +87979,10 @@
         <v>1</v>
       </c>
       <c r="K2122">
-        <v>1000000</v>
+        <v>993000</v>
       </c>
       <c r="L2122">
-        <v>1000000</v>
+        <v>993000</v>
       </c>
     </row>
     <row r="2123" spans="1:12">
@@ -87798,16 +87999,16 @@
         <v>2169</v>
       </c>
       <c r="E2123" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2123" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2123" t="s">
         <v>156</v>
       </c>
       <c r="H2123" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="I2123" t="s">
         <v>19</v>
@@ -87816,10 +88017,10 @@
         <v>1</v>
       </c>
       <c r="K2123">
-        <v>999000</v>
+        <v>1498000</v>
       </c>
       <c r="L2123">
-        <v>999000</v>
+        <v>1498000</v>
       </c>
     </row>
     <row r="2124" spans="1:12">
@@ -87836,16 +88037,16 @@
         <v>2169</v>
       </c>
       <c r="E2124" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2124" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2124" t="s">
         <v>156</v>
       </c>
       <c r="H2124" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="I2124" t="s">
         <v>19</v>
@@ -87854,10 +88055,10 @@
         <v>1</v>
       </c>
       <c r="K2124">
-        <v>1495000</v>
+        <v>1500000</v>
       </c>
       <c r="L2124">
-        <v>1495000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="2125" spans="1:12">
@@ -87874,16 +88075,16 @@
         <v>2169</v>
       </c>
       <c r="E2125" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2125" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2125" t="s">
         <v>156</v>
       </c>
       <c r="H2125" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="I2125" t="s">
         <v>19</v>
@@ -87892,10 +88093,10 @@
         <v>1</v>
       </c>
       <c r="K2125">
-        <v>1490000</v>
+        <v>1000000</v>
       </c>
       <c r="L2125">
-        <v>1490000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="2126" spans="1:12">
@@ -87912,16 +88113,16 @@
         <v>2169</v>
       </c>
       <c r="E2126" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2126" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2126" t="s">
         <v>156</v>
       </c>
       <c r="H2126" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I2126" t="s">
         <v>19</v>
@@ -87930,10 +88131,10 @@
         <v>1</v>
       </c>
       <c r="K2126">
-        <v>1000000</v>
+        <v>999000</v>
       </c>
       <c r="L2126">
-        <v>1000000</v>
+        <v>999000</v>
       </c>
     </row>
     <row r="2127" spans="1:12">
@@ -87950,16 +88151,16 @@
         <v>2169</v>
       </c>
       <c r="E2127" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2127" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2127" t="s">
         <v>156</v>
       </c>
       <c r="H2127" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="I2127" t="s">
         <v>19</v>
@@ -87968,10 +88169,10 @@
         <v>1</v>
       </c>
       <c r="K2127">
-        <v>944400</v>
+        <v>1495000</v>
       </c>
       <c r="L2127">
-        <v>944400</v>
+        <v>1495000</v>
       </c>
     </row>
     <row r="2128" spans="1:12">
@@ -87988,16 +88189,16 @@
         <v>2169</v>
       </c>
       <c r="E2128" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2128" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2128" t="s">
         <v>156</v>
       </c>
       <c r="H2128" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I2128" t="s">
         <v>19</v>
@@ -88006,10 +88207,10 @@
         <v>1</v>
       </c>
       <c r="K2128">
-        <v>1500000</v>
+        <v>1490000</v>
       </c>
       <c r="L2128">
-        <v>1500000</v>
+        <v>1490000</v>
       </c>
     </row>
     <row r="2129" spans="1:12">
@@ -88026,16 +88227,16 @@
         <v>2169</v>
       </c>
       <c r="E2129" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2129" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2129" t="s">
         <v>156</v>
       </c>
       <c r="H2129" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I2129" t="s">
         <v>19</v>
@@ -88044,10 +88245,10 @@
         <v>1</v>
       </c>
       <c r="K2129">
-        <v>1490000</v>
+        <v>1000000</v>
       </c>
       <c r="L2129">
-        <v>1490000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="2130" spans="1:12">
@@ -88064,16 +88265,16 @@
         <v>2169</v>
       </c>
       <c r="E2130" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2130" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2130" t="s">
         <v>156</v>
       </c>
       <c r="H2130" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="I2130" t="s">
         <v>19</v>
@@ -88082,10 +88283,10 @@
         <v>1</v>
       </c>
       <c r="K2130">
-        <v>1000000</v>
+        <v>944400</v>
       </c>
       <c r="L2130">
-        <v>1000000</v>
+        <v>944400</v>
       </c>
     </row>
     <row r="2131" spans="1:12">
@@ -88102,16 +88303,16 @@
         <v>2169</v>
       </c>
       <c r="E2131" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2131" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2131" t="s">
         <v>156</v>
       </c>
       <c r="H2131" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="I2131" t="s">
         <v>19</v>
@@ -88120,10 +88321,10 @@
         <v>1</v>
       </c>
       <c r="K2131">
-        <v>999800</v>
+        <v>1500000</v>
       </c>
       <c r="L2131">
-        <v>999800</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="2132" spans="1:12">
@@ -88140,16 +88341,16 @@
         <v>2169</v>
       </c>
       <c r="E2132" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2132" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2132" t="s">
         <v>156</v>
       </c>
       <c r="H2132" t="s">
-        <v>1581</v>
+        <v>681</v>
       </c>
       <c r="I2132" t="s">
         <v>19</v>
@@ -88158,10 +88359,10 @@
         <v>1</v>
       </c>
       <c r="K2132">
-        <v>10896500</v>
+        <v>1490000</v>
       </c>
       <c r="L2132">
-        <v>10896500</v>
+        <v>1490000</v>
       </c>
     </row>
     <row r="2133" spans="1:12">
@@ -88178,16 +88379,16 @@
         <v>2169</v>
       </c>
       <c r="E2133" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2133" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2133" t="s">
         <v>156</v>
       </c>
       <c r="H2133" t="s">
-        <v>1896</v>
+        <v>682</v>
       </c>
       <c r="I2133" t="s">
         <v>19</v>
@@ -88196,10 +88397,10 @@
         <v>1</v>
       </c>
       <c r="K2133">
-        <v>1493000</v>
+        <v>1000000</v>
       </c>
       <c r="L2133">
-        <v>1493000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="2134" spans="1:12">
@@ -88216,16 +88417,16 @@
         <v>2169</v>
       </c>
       <c r="E2134" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2134" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2134" t="s">
         <v>156</v>
       </c>
       <c r="H2134" t="s">
-        <v>1897</v>
+        <v>683</v>
       </c>
       <c r="I2134" t="s">
         <v>19</v>
@@ -88234,10 +88435,10 @@
         <v>1</v>
       </c>
       <c r="K2134">
-        <v>1445000</v>
+        <v>999800</v>
       </c>
       <c r="L2134">
-        <v>1445000</v>
+        <v>999800</v>
       </c>
     </row>
     <row r="2135" spans="1:12">
@@ -88254,16 +88455,16 @@
         <v>2169</v>
       </c>
       <c r="E2135" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2135" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2135" t="s">
         <v>156</v>
       </c>
       <c r="H2135" t="s">
-        <v>1898</v>
+        <v>1581</v>
       </c>
       <c r="I2135" t="s">
         <v>19</v>
@@ -88272,10 +88473,10 @@
         <v>1</v>
       </c>
       <c r="K2135">
-        <v>998000</v>
+        <v>10896500</v>
       </c>
       <c r="L2135">
-        <v>998000</v>
+        <v>10896500</v>
       </c>
     </row>
     <row r="2136" spans="1:12">
@@ -88292,16 +88493,16 @@
         <v>2169</v>
       </c>
       <c r="E2136" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2136" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2136" t="s">
         <v>156</v>
       </c>
       <c r="H2136" t="s">
-        <v>688</v>
+        <v>1896</v>
       </c>
       <c r="I2136" t="s">
         <v>19</v>
@@ -88310,10 +88511,10 @@
         <v>1</v>
       </c>
       <c r="K2136">
-        <v>1489750</v>
+        <v>1493000</v>
       </c>
       <c r="L2136">
-        <v>1489750</v>
+        <v>1493000</v>
       </c>
     </row>
     <row r="2137" spans="1:12">
@@ -88330,16 +88531,16 @@
         <v>2169</v>
       </c>
       <c r="E2137" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2137" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2137" t="s">
         <v>156</v>
       </c>
       <c r="H2137" t="s">
-        <v>475</v>
+        <v>1897</v>
       </c>
       <c r="I2137" t="s">
         <v>19</v>
@@ -88348,10 +88549,10 @@
         <v>1</v>
       </c>
       <c r="K2137">
-        <v>1465000</v>
+        <v>1445000</v>
       </c>
       <c r="L2137">
-        <v>1465000</v>
+        <v>1445000</v>
       </c>
     </row>
     <row r="2138" spans="1:12">
@@ -88368,16 +88569,16 @@
         <v>2169</v>
       </c>
       <c r="E2138" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2138" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2138" t="s">
         <v>156</v>
       </c>
       <c r="H2138" t="s">
-        <v>476</v>
+        <v>1898</v>
       </c>
       <c r="I2138" t="s">
         <v>19</v>
@@ -88386,10 +88587,10 @@
         <v>1</v>
       </c>
       <c r="K2138">
-        <v>959000</v>
+        <v>998000</v>
       </c>
       <c r="L2138">
-        <v>959000</v>
+        <v>998000</v>
       </c>
     </row>
     <row r="2139" spans="1:12">
@@ -88406,16 +88607,16 @@
         <v>2169</v>
       </c>
       <c r="E2139" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2139" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2139" t="s">
         <v>156</v>
       </c>
       <c r="H2139" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I2139" t="s">
         <v>19</v>
@@ -88424,10 +88625,10 @@
         <v>1</v>
       </c>
       <c r="K2139">
-        <v>1475250</v>
+        <v>1489750</v>
       </c>
       <c r="L2139">
-        <v>1475250</v>
+        <v>1489750</v>
       </c>
     </row>
     <row r="2140" spans="1:12">
@@ -88444,16 +88645,16 @@
         <v>2169</v>
       </c>
       <c r="E2140" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2140" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2140" t="s">
         <v>156</v>
       </c>
       <c r="H2140" t="s">
-        <v>690</v>
+        <v>475</v>
       </c>
       <c r="I2140" t="s">
         <v>19</v>
@@ -88462,10 +88663,10 @@
         <v>1</v>
       </c>
       <c r="K2140">
-        <v>1455000</v>
+        <v>1465000</v>
       </c>
       <c r="L2140">
-        <v>1455000</v>
+        <v>1465000</v>
       </c>
     </row>
     <row r="2141" spans="1:12">
@@ -88482,16 +88683,16 @@
         <v>2169</v>
       </c>
       <c r="E2141" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2141" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2141" t="s">
         <v>156</v>
       </c>
       <c r="H2141" t="s">
-        <v>691</v>
+        <v>476</v>
       </c>
       <c r="I2141" t="s">
         <v>19</v>
@@ -88500,10 +88701,10 @@
         <v>1</v>
       </c>
       <c r="K2141">
-        <v>972000</v>
+        <v>959000</v>
       </c>
       <c r="L2141">
-        <v>972000</v>
+        <v>959000</v>
       </c>
     </row>
     <row r="2142" spans="1:12">
@@ -88520,16 +88721,16 @@
         <v>2169</v>
       </c>
       <c r="E2142" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2142" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2142" t="s">
         <v>156</v>
       </c>
       <c r="H2142" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="I2142" t="s">
         <v>19</v>
@@ -88538,10 +88739,10 @@
         <v>1</v>
       </c>
       <c r="K2142">
-        <v>1499000</v>
+        <v>1475250</v>
       </c>
       <c r="L2142">
-        <v>1499000</v>
+        <v>1475250</v>
       </c>
     </row>
     <row r="2143" spans="1:12">
@@ -88558,16 +88759,16 @@
         <v>2169</v>
       </c>
       <c r="E2143" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2143" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2143" t="s">
         <v>156</v>
       </c>
       <c r="H2143" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="I2143" t="s">
         <v>19</v>
@@ -88576,10 +88777,10 @@
         <v>1</v>
       </c>
       <c r="K2143">
-        <v>1410000</v>
+        <v>1455000</v>
       </c>
       <c r="L2143">
-        <v>1410000</v>
+        <v>1455000</v>
       </c>
     </row>
     <row r="2144" spans="1:12">
@@ -88596,16 +88797,16 @@
         <v>2169</v>
       </c>
       <c r="E2144" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2144" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2144" t="s">
         <v>156</v>
       </c>
       <c r="H2144" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I2144" t="s">
         <v>19</v>
@@ -88614,10 +88815,10 @@
         <v>1</v>
       </c>
       <c r="K2144">
-        <v>970000</v>
+        <v>972000</v>
       </c>
       <c r="L2144">
-        <v>970000</v>
+        <v>972000</v>
       </c>
     </row>
     <row r="2145" spans="1:12">
@@ -88634,16 +88835,16 @@
         <v>2169</v>
       </c>
       <c r="E2145" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2145" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2145" t="s">
         <v>156</v>
       </c>
       <c r="H2145" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="I2145" t="s">
         <v>19</v>
@@ -88652,10 +88853,10 @@
         <v>1</v>
       </c>
       <c r="K2145">
-        <v>1495000</v>
+        <v>1499000</v>
       </c>
       <c r="L2145">
-        <v>1495000</v>
+        <v>1499000</v>
       </c>
     </row>
     <row r="2146" spans="1:12">
@@ -88672,16 +88873,16 @@
         <v>2169</v>
       </c>
       <c r="E2146" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2146" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2146" t="s">
         <v>156</v>
       </c>
       <c r="H2146" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I2146" t="s">
         <v>19</v>
@@ -88690,10 +88891,10 @@
         <v>1</v>
       </c>
       <c r="K2146">
-        <v>1400000</v>
+        <v>1410000</v>
       </c>
       <c r="L2146">
-        <v>1400000</v>
+        <v>1410000</v>
       </c>
     </row>
     <row r="2147" spans="1:12">
@@ -88710,16 +88911,16 @@
         <v>2169</v>
       </c>
       <c r="E2147" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2147" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2147" t="s">
         <v>156</v>
       </c>
       <c r="H2147" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I2147" t="s">
         <v>19</v>
@@ -88728,10 +88929,10 @@
         <v>1</v>
       </c>
       <c r="K2147">
-        <v>965000</v>
+        <v>970000</v>
       </c>
       <c r="L2147">
-        <v>965000</v>
+        <v>970000</v>
       </c>
     </row>
     <row r="2148" spans="1:12">
@@ -88748,16 +88949,16 @@
         <v>2169</v>
       </c>
       <c r="E2148" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2148" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2148" t="s">
         <v>156</v>
       </c>
       <c r="H2148" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I2148" t="s">
         <v>19</v>
@@ -88766,10 +88967,10 @@
         <v>1</v>
       </c>
       <c r="K2148">
-        <v>1497600</v>
+        <v>1495000</v>
       </c>
       <c r="L2148">
-        <v>1497600</v>
+        <v>1495000</v>
       </c>
     </row>
     <row r="2149" spans="1:12">
@@ -88786,16 +88987,16 @@
         <v>2169</v>
       </c>
       <c r="E2149" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2149" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2149" t="s">
         <v>156</v>
       </c>
       <c r="H2149" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I2149" t="s">
         <v>19</v>
@@ -88804,10 +89005,10 @@
         <v>1</v>
       </c>
       <c r="K2149">
-        <v>1370000</v>
+        <v>1400000</v>
       </c>
       <c r="L2149">
-        <v>1370000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="2150" spans="1:12">
@@ -88824,16 +89025,16 @@
         <v>2169</v>
       </c>
       <c r="E2150" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2150" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2150" t="s">
         <v>156</v>
       </c>
       <c r="H2150" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="I2150" t="s">
         <v>19</v>
@@ -88842,10 +89043,10 @@
         <v>1</v>
       </c>
       <c r="K2150">
-        <v>987000</v>
+        <v>965000</v>
       </c>
       <c r="L2150">
-        <v>987000</v>
+        <v>965000</v>
       </c>
     </row>
     <row r="2151" spans="1:12">
@@ -88862,16 +89063,16 @@
         <v>2169</v>
       </c>
       <c r="E2151" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2151" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2151" t="s">
         <v>156</v>
       </c>
       <c r="H2151" t="s">
-        <v>1586</v>
+        <v>698</v>
       </c>
       <c r="I2151" t="s">
         <v>19</v>
@@ -88880,10 +89081,10 @@
         <v>1</v>
       </c>
       <c r="K2151">
-        <v>1495500</v>
+        <v>1497600</v>
       </c>
       <c r="L2151">
-        <v>1495500</v>
+        <v>1497600</v>
       </c>
     </row>
     <row r="2152" spans="1:12">
@@ -88900,16 +89101,16 @@
         <v>2169</v>
       </c>
       <c r="E2152" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2152" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2152" t="s">
         <v>156</v>
       </c>
       <c r="H2152" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I2152" t="s">
         <v>19</v>
@@ -88918,10 +89119,10 @@
         <v>1</v>
       </c>
       <c r="K2152">
-        <v>1500000</v>
+        <v>1370000</v>
       </c>
       <c r="L2152">
-        <v>1500000</v>
+        <v>1370000</v>
       </c>
     </row>
     <row r="2153" spans="1:12">
@@ -88938,16 +89139,16 @@
         <v>2169</v>
       </c>
       <c r="E2153" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2153" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2153" t="s">
         <v>156</v>
       </c>
       <c r="H2153" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I2153" t="s">
         <v>19</v>
@@ -88956,10 +89157,10 @@
         <v>1</v>
       </c>
       <c r="K2153">
-        <v>970000</v>
+        <v>987000</v>
       </c>
       <c r="L2153">
-        <v>970000</v>
+        <v>987000</v>
       </c>
     </row>
     <row r="2154" spans="1:12">
@@ -88976,16 +89177,16 @@
         <v>2169</v>
       </c>
       <c r="E2154" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2154" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2154" t="s">
         <v>156</v>
       </c>
       <c r="H2154" t="s">
-        <v>703</v>
+        <v>1586</v>
       </c>
       <c r="I2154" t="s">
         <v>19</v>
@@ -88994,10 +89195,10 @@
         <v>1</v>
       </c>
       <c r="K2154">
-        <v>1499500</v>
+        <v>1495500</v>
       </c>
       <c r="L2154">
-        <v>1499500</v>
+        <v>1495500</v>
       </c>
     </row>
     <row r="2155" spans="1:12">
@@ -89014,16 +89215,16 @@
         <v>2169</v>
       </c>
       <c r="E2155" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2155" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2155" t="s">
         <v>156</v>
       </c>
       <c r="H2155" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I2155" t="s">
         <v>19</v>
@@ -89032,10 +89233,10 @@
         <v>1</v>
       </c>
       <c r="K2155">
-        <v>1450000</v>
+        <v>1500000</v>
       </c>
       <c r="L2155">
-        <v>1450000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="2156" spans="1:12">
@@ -89052,16 +89253,16 @@
         <v>2169</v>
       </c>
       <c r="E2156" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2156" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2156" t="s">
         <v>156</v>
       </c>
       <c r="H2156" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="I2156" t="s">
         <v>19</v>
@@ -89070,10 +89271,10 @@
         <v>1</v>
       </c>
       <c r="K2156">
-        <v>960000</v>
+        <v>970000</v>
       </c>
       <c r="L2156">
-        <v>960000</v>
+        <v>970000</v>
       </c>
     </row>
     <row r="2157" spans="1:12">
@@ -89090,16 +89291,16 @@
         <v>2169</v>
       </c>
       <c r="E2157" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2157" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2157" t="s">
         <v>156</v>
       </c>
       <c r="H2157" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="I2157" t="s">
         <v>19</v>
@@ -89108,10 +89309,10 @@
         <v>1</v>
       </c>
       <c r="K2157">
-        <v>1000000</v>
+        <v>1499500</v>
       </c>
       <c r="L2157">
-        <v>1000000</v>
+        <v>1499500</v>
       </c>
     </row>
     <row r="2158" spans="1:12">
@@ -89128,16 +89329,16 @@
         <v>2169</v>
       </c>
       <c r="E2158" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2158" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2158" t="s">
         <v>156</v>
       </c>
       <c r="H2158" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="I2158" t="s">
         <v>19</v>
@@ -89146,10 +89347,10 @@
         <v>1</v>
       </c>
       <c r="K2158">
-        <v>1490000</v>
+        <v>1450000</v>
       </c>
       <c r="L2158">
-        <v>1490000</v>
+        <v>1450000</v>
       </c>
     </row>
     <row r="2159" spans="1:12">
@@ -89166,16 +89367,16 @@
         <v>2169</v>
       </c>
       <c r="E2159" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2159" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2159" t="s">
         <v>156</v>
       </c>
       <c r="H2159" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="I2159" t="s">
         <v>19</v>
@@ -89184,10 +89385,10 @@
         <v>1</v>
       </c>
       <c r="K2159">
-        <v>1450000</v>
+        <v>960000</v>
       </c>
       <c r="L2159">
-        <v>1450000</v>
+        <v>960000</v>
       </c>
     </row>
     <row r="2160" spans="1:12">
@@ -89204,16 +89405,16 @@
         <v>2169</v>
       </c>
       <c r="E2160" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2160" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2160" t="s">
         <v>156</v>
       </c>
       <c r="H2160" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="I2160" t="s">
         <v>19</v>
@@ -89242,16 +89443,16 @@
         <v>2169</v>
       </c>
       <c r="E2161" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2161" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2161" t="s">
         <v>156</v>
       </c>
       <c r="H2161" t="s">
-        <v>222</v>
+        <v>707</v>
       </c>
       <c r="I2161" t="s">
         <v>19</v>
@@ -89260,10 +89461,10 @@
         <v>1</v>
       </c>
       <c r="K2161">
-        <v>855000</v>
+        <v>1490000</v>
       </c>
       <c r="L2161">
-        <v>855000</v>
+        <v>1490000</v>
       </c>
     </row>
     <row r="2162" spans="1:12">
@@ -89280,16 +89481,16 @@
         <v>2169</v>
       </c>
       <c r="E2162" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2162" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2162" t="s">
         <v>156</v>
       </c>
       <c r="H2162" t="s">
-        <v>223</v>
+        <v>708</v>
       </c>
       <c r="I2162" t="s">
         <v>19</v>
@@ -89298,10 +89499,10 @@
         <v>1</v>
       </c>
       <c r="K2162">
-        <v>1495000</v>
+        <v>1450000</v>
       </c>
       <c r="L2162">
-        <v>1495000</v>
+        <v>1450000</v>
       </c>
     </row>
     <row r="2163" spans="1:12">
@@ -89318,16 +89519,16 @@
         <v>2169</v>
       </c>
       <c r="E2163" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2163" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2163" t="s">
         <v>156</v>
       </c>
       <c r="H2163" t="s">
-        <v>224</v>
+        <v>709</v>
       </c>
       <c r="I2163" t="s">
         <v>19</v>
@@ -89336,10 +89537,10 @@
         <v>1</v>
       </c>
       <c r="K2163">
-        <v>1450000</v>
+        <v>1000000</v>
       </c>
       <c r="L2163">
-        <v>1450000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="2164" spans="1:12">
@@ -89356,16 +89557,16 @@
         <v>2169</v>
       </c>
       <c r="E2164" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2164" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2164" t="s">
         <v>156</v>
       </c>
       <c r="H2164" t="s">
-        <v>1590</v>
+        <v>222</v>
       </c>
       <c r="I2164" t="s">
         <v>19</v>
@@ -89374,10 +89575,10 @@
         <v>1</v>
       </c>
       <c r="K2164">
-        <v>1496900</v>
+        <v>855000</v>
       </c>
       <c r="L2164">
-        <v>1496900</v>
+        <v>855000</v>
       </c>
     </row>
     <row r="2165" spans="1:12">
@@ -89394,16 +89595,16 @@
         <v>2169</v>
       </c>
       <c r="E2165" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2165" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2165" t="s">
         <v>156</v>
       </c>
       <c r="H2165" t="s">
-        <v>1591</v>
+        <v>223</v>
       </c>
       <c r="I2165" t="s">
         <v>19</v>
@@ -89412,10 +89613,10 @@
         <v>1</v>
       </c>
       <c r="K2165">
-        <v>1455000</v>
+        <v>1495000</v>
       </c>
       <c r="L2165">
-        <v>1455000</v>
+        <v>1495000</v>
       </c>
     </row>
     <row r="2166" spans="1:12">
@@ -89432,16 +89633,16 @@
         <v>2169</v>
       </c>
       <c r="E2166" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2166" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2166" t="s">
         <v>156</v>
       </c>
       <c r="H2166" t="s">
-        <v>1592</v>
+        <v>224</v>
       </c>
       <c r="I2166" t="s">
         <v>19</v>
@@ -89450,10 +89651,10 @@
         <v>1</v>
       </c>
       <c r="K2166">
-        <v>981000</v>
+        <v>1450000</v>
       </c>
       <c r="L2166">
-        <v>981000</v>
+        <v>1450000</v>
       </c>
     </row>
     <row r="2167" spans="1:12">
@@ -89470,16 +89671,16 @@
         <v>2169</v>
       </c>
       <c r="E2167" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2167" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2167" t="s">
         <v>156</v>
       </c>
       <c r="H2167" t="s">
-        <v>1041</v>
+        <v>1590</v>
       </c>
       <c r="I2167" t="s">
         <v>19</v>
@@ -89488,10 +89689,10 @@
         <v>1</v>
       </c>
       <c r="K2167">
-        <v>1494450</v>
+        <v>1496900</v>
       </c>
       <c r="L2167">
-        <v>1494450</v>
+        <v>1496900</v>
       </c>
     </row>
     <row r="2168" spans="1:12">
@@ -89508,16 +89709,16 @@
         <v>2169</v>
       </c>
       <c r="E2168" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2168" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2168" t="s">
         <v>156</v>
       </c>
       <c r="H2168" t="s">
-        <v>1042</v>
+        <v>1591</v>
       </c>
       <c r="I2168" t="s">
         <v>19</v>
@@ -89526,10 +89727,10 @@
         <v>1</v>
       </c>
       <c r="K2168">
-        <v>1340000</v>
+        <v>1455000</v>
       </c>
       <c r="L2168">
-        <v>1340000</v>
+        <v>1455000</v>
       </c>
     </row>
     <row r="2169" spans="1:12">
@@ -89546,16 +89747,16 @@
         <v>2169</v>
       </c>
       <c r="E2169" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2169" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2169" t="s">
         <v>156</v>
       </c>
       <c r="H2169" t="s">
-        <v>1043</v>
+        <v>1592</v>
       </c>
       <c r="I2169" t="s">
         <v>19</v>
@@ -89584,16 +89785,16 @@
         <v>2169</v>
       </c>
       <c r="E2170" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2170" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2170" t="s">
         <v>156</v>
       </c>
       <c r="H2170" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="I2170" t="s">
         <v>19</v>
@@ -89602,10 +89803,10 @@
         <v>1</v>
       </c>
       <c r="K2170">
-        <v>1485500</v>
+        <v>1494450</v>
       </c>
       <c r="L2170">
-        <v>1485500</v>
+        <v>1494450</v>
       </c>
     </row>
     <row r="2171" spans="1:12">
@@ -89622,16 +89823,16 @@
         <v>2169</v>
       </c>
       <c r="E2171" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2171" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2171" t="s">
         <v>156</v>
       </c>
       <c r="H2171" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="I2171" t="s">
         <v>19</v>
@@ -89640,10 +89841,10 @@
         <v>1</v>
       </c>
       <c r="K2171">
-        <v>1435000</v>
+        <v>1340000</v>
       </c>
       <c r="L2171">
-        <v>1435000</v>
+        <v>1340000</v>
       </c>
     </row>
     <row r="2172" spans="1:12">
@@ -89660,16 +89861,16 @@
         <v>2169</v>
       </c>
       <c r="E2172" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2172" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2172" t="s">
         <v>156</v>
       </c>
       <c r="H2172" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="I2172" t="s">
         <v>19</v>
@@ -89678,10 +89879,10 @@
         <v>1</v>
       </c>
       <c r="K2172">
-        <v>993000</v>
+        <v>981000</v>
       </c>
       <c r="L2172">
-        <v>993000</v>
+        <v>981000</v>
       </c>
     </row>
     <row r="2173" spans="1:12">
@@ -89698,16 +89899,16 @@
         <v>2169</v>
       </c>
       <c r="E2173" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2173" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2173" t="s">
         <v>156</v>
       </c>
       <c r="H2173" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="I2173" t="s">
         <v>19</v>
@@ -89716,10 +89917,10 @@
         <v>1</v>
       </c>
       <c r="K2173">
-        <v>1493050</v>
+        <v>1485500</v>
       </c>
       <c r="L2173">
-        <v>1493050</v>
+        <v>1485500</v>
       </c>
     </row>
     <row r="2174" spans="1:12">
@@ -89736,16 +89937,16 @@
         <v>2169</v>
       </c>
       <c r="E2174" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2174" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2174" t="s">
         <v>156</v>
       </c>
       <c r="H2174" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="I2174" t="s">
         <v>19</v>
@@ -89754,10 +89955,10 @@
         <v>1</v>
       </c>
       <c r="K2174">
-        <v>1495000</v>
+        <v>1435000</v>
       </c>
       <c r="L2174">
-        <v>1495000</v>
+        <v>1435000</v>
       </c>
     </row>
     <row r="2175" spans="1:12">
@@ -89774,16 +89975,16 @@
         <v>2169</v>
       </c>
       <c r="E2175" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2175" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2175" t="s">
         <v>156</v>
       </c>
       <c r="H2175" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="I2175" t="s">
         <v>19</v>
@@ -89792,10 +89993,10 @@
         <v>1</v>
       </c>
       <c r="K2175">
-        <v>970000</v>
+        <v>993000</v>
       </c>
       <c r="L2175">
-        <v>970000</v>
+        <v>993000</v>
       </c>
     </row>
     <row r="2176" spans="1:12">
@@ -89812,16 +90013,16 @@
         <v>2169</v>
       </c>
       <c r="E2176" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2176" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2176" t="s">
         <v>156</v>
       </c>
       <c r="H2176" t="s">
-        <v>2265</v>
+        <v>1047</v>
       </c>
       <c r="I2176" t="s">
         <v>19</v>
@@ -89830,10 +90031,10 @@
         <v>1</v>
       </c>
       <c r="K2176">
-        <v>4147500</v>
+        <v>1493050</v>
       </c>
       <c r="L2176">
-        <v>4147500</v>
+        <v>1493050</v>
       </c>
     </row>
     <row r="2177" spans="1:12">
@@ -89850,16 +90051,16 @@
         <v>2169</v>
       </c>
       <c r="E2177" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2177" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2177" t="s">
         <v>156</v>
       </c>
       <c r="H2177" t="s">
-        <v>479</v>
+        <v>1048</v>
       </c>
       <c r="I2177" t="s">
         <v>19</v>
@@ -89868,10 +90069,10 @@
         <v>1</v>
       </c>
       <c r="K2177">
-        <v>571802</v>
+        <v>1495000</v>
       </c>
       <c r="L2177">
-        <v>571802</v>
+        <v>1495000</v>
       </c>
     </row>
     <row r="2178" spans="1:12">
@@ -89888,16 +90089,16 @@
         <v>2169</v>
       </c>
       <c r="E2178" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2178" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2178" t="s">
         <v>156</v>
       </c>
       <c r="H2178" t="s">
-        <v>2266</v>
+        <v>1049</v>
       </c>
       <c r="I2178" t="s">
         <v>19</v>
@@ -89906,10 +90107,10 @@
         <v>1</v>
       </c>
       <c r="K2178">
-        <v>181084</v>
+        <v>970000</v>
       </c>
       <c r="L2178">
-        <v>181084</v>
+        <v>970000</v>
       </c>
     </row>
     <row r="2179" spans="1:12">
@@ -89926,16 +90127,16 @@
         <v>2169</v>
       </c>
       <c r="E2179" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2179" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2179" t="s">
         <v>156</v>
       </c>
       <c r="H2179" t="s">
-        <v>226</v>
+        <v>2277</v>
       </c>
       <c r="I2179" t="s">
         <v>19</v>
@@ -89944,10 +90145,10 @@
         <v>1</v>
       </c>
       <c r="K2179">
-        <v>47730</v>
+        <v>4147500</v>
       </c>
       <c r="L2179">
-        <v>47730</v>
+        <v>4147500</v>
       </c>
     </row>
     <row r="2180" spans="1:12">
@@ -89964,16 +90165,16 @@
         <v>2169</v>
       </c>
       <c r="E2180" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2180" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2180" t="s">
         <v>156</v>
       </c>
       <c r="H2180" t="s">
-        <v>2267</v>
+        <v>479</v>
       </c>
       <c r="I2180" t="s">
         <v>19</v>
@@ -89982,10 +90183,10 @@
         <v>1</v>
       </c>
       <c r="K2180">
-        <v>6300000</v>
+        <v>571802</v>
       </c>
       <c r="L2180">
-        <v>6300000</v>
+        <v>571802</v>
       </c>
     </row>
     <row r="2181" spans="1:12">
@@ -90002,16 +90203,16 @@
         <v>2169</v>
       </c>
       <c r="E2181" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2181" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2181" t="s">
         <v>156</v>
       </c>
       <c r="H2181" t="s">
-        <v>231</v>
+        <v>2278</v>
       </c>
       <c r="I2181" t="s">
         <v>19</v>
@@ -90020,10 +90221,10 @@
         <v>1</v>
       </c>
       <c r="K2181">
-        <v>9354560</v>
+        <v>181084</v>
       </c>
       <c r="L2181">
-        <v>9354560</v>
+        <v>181084</v>
       </c>
     </row>
     <row r="2182" spans="1:12">
@@ -90040,16 +90241,16 @@
         <v>2169</v>
       </c>
       <c r="E2182" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2182" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2182" t="s">
         <v>156</v>
       </c>
       <c r="H2182" t="s">
-        <v>716</v>
+        <v>226</v>
       </c>
       <c r="I2182" t="s">
         <v>19</v>
@@ -90058,10 +90259,10 @@
         <v>1</v>
       </c>
       <c r="K2182">
-        <v>1537500</v>
+        <v>47730</v>
       </c>
       <c r="L2182">
-        <v>1537500</v>
+        <v>47730</v>
       </c>
     </row>
     <row r="2183" spans="1:12">
@@ -90078,16 +90279,16 @@
         <v>2169</v>
       </c>
       <c r="E2183" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2183" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2183" t="s">
         <v>156</v>
       </c>
       <c r="H2183" t="s">
-        <v>232</v>
+        <v>2279</v>
       </c>
       <c r="I2183" t="s">
         <v>19</v>
@@ -90096,10 +90297,10 @@
         <v>1</v>
       </c>
       <c r="K2183">
-        <v>900000</v>
+        <v>6300000</v>
       </c>
       <c r="L2183">
-        <v>900000</v>
+        <v>6300000</v>
       </c>
     </row>
     <row r="2184" spans="1:12">
@@ -90116,16 +90317,16 @@
         <v>2169</v>
       </c>
       <c r="E2184" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2184" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2184" t="s">
         <v>156</v>
       </c>
       <c r="H2184" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I2184" t="s">
         <v>19</v>
@@ -90134,10 +90335,10 @@
         <v>1</v>
       </c>
       <c r="K2184">
-        <v>43540576</v>
+        <v>9354560</v>
       </c>
       <c r="L2184">
-        <v>43540576</v>
+        <v>9354560</v>
       </c>
     </row>
     <row r="2185" spans="1:12">
@@ -90154,16 +90355,16 @@
         <v>2169</v>
       </c>
       <c r="E2185" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2185" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2185" t="s">
         <v>156</v>
       </c>
       <c r="H2185" t="s">
-        <v>234</v>
+        <v>716</v>
       </c>
       <c r="I2185" t="s">
         <v>19</v>
@@ -90172,10 +90373,10 @@
         <v>1</v>
       </c>
       <c r="K2185">
-        <v>2345500</v>
+        <v>1537500</v>
       </c>
       <c r="L2185">
-        <v>2345500</v>
+        <v>1537500</v>
       </c>
     </row>
     <row r="2186" spans="1:12">
@@ -90192,16 +90393,16 @@
         <v>2169</v>
       </c>
       <c r="E2186" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2186" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2186" t="s">
         <v>156</v>
       </c>
       <c r="H2186" t="s">
-        <v>1180</v>
+        <v>232</v>
       </c>
       <c r="I2186" t="s">
         <v>19</v>
@@ -90210,10 +90411,10 @@
         <v>1</v>
       </c>
       <c r="K2186">
-        <v>365500</v>
+        <v>900000</v>
       </c>
       <c r="L2186">
-        <v>365500</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="2187" spans="1:12">
@@ -90230,16 +90431,16 @@
         <v>2169</v>
       </c>
       <c r="E2187" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2187" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2187" t="s">
         <v>156</v>
       </c>
       <c r="H2187" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I2187" t="s">
         <v>19</v>
@@ -90248,10 +90449,10 @@
         <v>1</v>
       </c>
       <c r="K2187">
-        <v>1220000</v>
+        <v>43540576</v>
       </c>
       <c r="L2187">
-        <v>1220000</v>
+        <v>43540576</v>
       </c>
     </row>
     <row r="2188" spans="1:12">
@@ -90268,16 +90469,16 @@
         <v>2169</v>
       </c>
       <c r="E2188" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2188" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2188" t="s">
         <v>156</v>
       </c>
       <c r="H2188" t="s">
-        <v>1595</v>
+        <v>234</v>
       </c>
       <c r="I2188" t="s">
         <v>19</v>
@@ -90286,10 +90487,10 @@
         <v>1</v>
       </c>
       <c r="K2188">
-        <v>12340420</v>
+        <v>2345500</v>
       </c>
       <c r="L2188">
-        <v>12340420</v>
+        <v>2345500</v>
       </c>
     </row>
     <row r="2189" spans="1:12">
@@ -90306,16 +90507,16 @@
         <v>2169</v>
       </c>
       <c r="E2189" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2189" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2189" t="s">
         <v>156</v>
       </c>
       <c r="H2189" t="s">
-        <v>236</v>
+        <v>1180</v>
       </c>
       <c r="I2189" t="s">
         <v>19</v>
@@ -90324,10 +90525,10 @@
         <v>1</v>
       </c>
       <c r="K2189">
-        <v>12942080</v>
+        <v>365500</v>
       </c>
       <c r="L2189">
-        <v>12942080</v>
+        <v>365500</v>
       </c>
     </row>
     <row r="2190" spans="1:12">
@@ -90344,16 +90545,16 @@
         <v>2169</v>
       </c>
       <c r="E2190" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2190" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2190" t="s">
         <v>156</v>
       </c>
       <c r="H2190" t="s">
-        <v>1596</v>
+        <v>235</v>
       </c>
       <c r="I2190" t="s">
         <v>19</v>
@@ -90362,10 +90563,10 @@
         <v>1</v>
       </c>
       <c r="K2190">
-        <v>9662120</v>
+        <v>1220000</v>
       </c>
       <c r="L2190">
-        <v>9662120</v>
+        <v>1220000</v>
       </c>
     </row>
     <row r="2191" spans="1:12">
@@ -90382,16 +90583,16 @@
         <v>2169</v>
       </c>
       <c r="E2191" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2191" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2191" t="s">
         <v>156</v>
       </c>
       <c r="H2191" t="s">
-        <v>1900</v>
+        <v>1595</v>
       </c>
       <c r="I2191" t="s">
         <v>19</v>
@@ -90400,10 +90601,10 @@
         <v>1</v>
       </c>
       <c r="K2191">
-        <v>50238705</v>
+        <v>12340420</v>
       </c>
       <c r="L2191">
-        <v>50238705</v>
+        <v>12340420</v>
       </c>
     </row>
     <row r="2192" spans="1:12">
@@ -90420,16 +90621,16 @@
         <v>2169</v>
       </c>
       <c r="E2192" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2192" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2192" t="s">
         <v>156</v>
       </c>
       <c r="H2192" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I2192" t="s">
         <v>19</v>
@@ -90438,10 +90639,10 @@
         <v>1</v>
       </c>
       <c r="K2192">
-        <v>310000</v>
+        <v>12942080</v>
       </c>
       <c r="L2192">
-        <v>310000</v>
+        <v>12942080</v>
       </c>
     </row>
     <row r="2193" spans="1:12">
@@ -90458,16 +90659,16 @@
         <v>2169</v>
       </c>
       <c r="E2193" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2193" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2193" t="s">
         <v>156</v>
       </c>
       <c r="H2193" t="s">
-        <v>719</v>
+        <v>1596</v>
       </c>
       <c r="I2193" t="s">
         <v>19</v>
@@ -90476,10 +90677,10 @@
         <v>1</v>
       </c>
       <c r="K2193">
-        <v>2588500</v>
+        <v>9662120</v>
       </c>
       <c r="L2193">
-        <v>2588500</v>
+        <v>9662120</v>
       </c>
     </row>
     <row r="2194" spans="1:12">
@@ -90496,16 +90697,16 @@
         <v>2169</v>
       </c>
       <c r="E2194" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2194" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2194" t="s">
         <v>156</v>
       </c>
       <c r="H2194" t="s">
-        <v>240</v>
+        <v>1900</v>
       </c>
       <c r="I2194" t="s">
         <v>19</v>
@@ -90514,10 +90715,10 @@
         <v>1</v>
       </c>
       <c r="K2194">
-        <v>1350000</v>
+        <v>50238705</v>
       </c>
       <c r="L2194">
-        <v>1350000</v>
+        <v>50238705</v>
       </c>
     </row>
     <row r="2195" spans="1:12">
@@ -90534,16 +90735,16 @@
         <v>2169</v>
       </c>
       <c r="E2195" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2195" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2195" t="s">
         <v>156</v>
       </c>
       <c r="H2195" t="s">
-        <v>491</v>
+        <v>238</v>
       </c>
       <c r="I2195" t="s">
         <v>19</v>
@@ -90552,10 +90753,10 @@
         <v>1</v>
       </c>
       <c r="K2195">
-        <v>900000</v>
+        <v>310000</v>
       </c>
       <c r="L2195">
-        <v>900000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="2196" spans="1:12">
@@ -90572,16 +90773,16 @@
         <v>2169</v>
       </c>
       <c r="E2196" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="F2196" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="G2196" t="s">
         <v>156</v>
       </c>
       <c r="H2196" t="s">
-        <v>2268</v>
+        <v>719</v>
       </c>
       <c r="I2196" t="s">
         <v>19</v>
@@ -90590,10 +90791,10 @@
         <v>1</v>
       </c>
       <c r="K2196">
-        <v>150000</v>
+        <v>2588500</v>
       </c>
       <c r="L2196">
-        <v>150000</v>
+        <v>2588500</v>
       </c>
     </row>
     <row r="2197" spans="1:12">
@@ -90610,16 +90811,16 @@
         <v>2169</v>
       </c>
       <c r="E2197" t="s">
-        <v>2269</v>
+        <v>2275</v>
       </c>
       <c r="F2197" t="s">
-        <v>2270</v>
+        <v>2276</v>
       </c>
       <c r="G2197" t="s">
-        <v>2271</v>
+        <v>156</v>
       </c>
       <c r="H2197" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="I2197" t="s">
         <v>19</v>
@@ -90628,10 +90829,10 @@
         <v>1</v>
       </c>
       <c r="K2197">
-        <v>4326700</v>
+        <v>1350000</v>
       </c>
       <c r="L2197">
-        <v>4326700</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="2198" spans="1:12">
@@ -90648,16 +90849,16 @@
         <v>2169</v>
       </c>
       <c r="E2198" t="s">
-        <v>2269</v>
+        <v>2275</v>
       </c>
       <c r="F2198" t="s">
-        <v>2270</v>
+        <v>2276</v>
       </c>
       <c r="G2198" t="s">
-        <v>2271</v>
+        <v>156</v>
       </c>
       <c r="H2198" t="s">
-        <v>20</v>
+        <v>491</v>
       </c>
       <c r="I2198" t="s">
         <v>19</v>
@@ -90666,10 +90867,10 @@
         <v>1</v>
       </c>
       <c r="K2198">
-        <v>77</v>
+        <v>900000</v>
       </c>
       <c r="L2198">
-        <v>77</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="2199" spans="1:12">
@@ -90686,16 +90887,16 @@
         <v>2169</v>
       </c>
       <c r="E2199" t="s">
-        <v>2269</v>
+        <v>2275</v>
       </c>
       <c r="F2199" t="s">
-        <v>2270</v>
+        <v>2276</v>
       </c>
       <c r="G2199" t="s">
-        <v>2271</v>
+        <v>156</v>
       </c>
       <c r="H2199" t="s">
-        <v>21</v>
+        <v>2280</v>
       </c>
       <c r="I2199" t="s">
         <v>19</v>
@@ -90704,10 +90905,10 @@
         <v>1</v>
       </c>
       <c r="K2199">
-        <v>432670</v>
+        <v>150000</v>
       </c>
       <c r="L2199">
-        <v>432670</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="2200" spans="1:12">
@@ -90724,16 +90925,16 @@
         <v>2169</v>
       </c>
       <c r="E2200" t="s">
-        <v>2269</v>
+        <v>2281</v>
       </c>
       <c r="F2200" t="s">
-        <v>2270</v>
+        <v>2282</v>
       </c>
       <c r="G2200" t="s">
-        <v>2271</v>
+        <v>2283</v>
       </c>
       <c r="H2200" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I2200" t="s">
         <v>19</v>
@@ -90742,10 +90943,10 @@
         <v>1</v>
       </c>
       <c r="K2200">
-        <v>173068</v>
+        <v>4326700</v>
       </c>
       <c r="L2200">
-        <v>173068</v>
+        <v>4326700</v>
       </c>
     </row>
     <row r="2201" spans="1:12">
@@ -90762,16 +90963,16 @@
         <v>2169</v>
       </c>
       <c r="E2201" t="s">
-        <v>2269</v>
+        <v>2281</v>
       </c>
       <c r="F2201" t="s">
-        <v>2270</v>
+        <v>2282</v>
       </c>
       <c r="G2201" t="s">
-        <v>2271</v>
+        <v>2283</v>
       </c>
       <c r="H2201" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I2201" t="s">
         <v>19</v>
@@ -90780,10 +90981,10 @@
         <v>1</v>
       </c>
       <c r="K2201">
-        <v>3250000</v>
+        <v>77</v>
       </c>
       <c r="L2201">
-        <v>3250000</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2202" spans="1:12">
@@ -90800,16 +91001,16 @@
         <v>2169</v>
       </c>
       <c r="E2202" t="s">
-        <v>2269</v>
+        <v>2281</v>
       </c>
       <c r="F2202" t="s">
-        <v>2270</v>
+        <v>2282</v>
       </c>
       <c r="G2202" t="s">
-        <v>2271</v>
+        <v>2283</v>
       </c>
       <c r="H2202" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I2202" t="s">
         <v>19</v>
@@ -90818,10 +91019,10 @@
         <v>1</v>
       </c>
       <c r="K2202">
-        <v>90712</v>
+        <v>432670</v>
       </c>
       <c r="L2202">
-        <v>90712</v>
+        <v>432670</v>
       </c>
     </row>
     <row r="2203" spans="1:12">
@@ -90838,16 +91039,16 @@
         <v>2169</v>
       </c>
       <c r="E2203" t="s">
-        <v>2269</v>
+        <v>2281</v>
       </c>
       <c r="F2203" t="s">
-        <v>2270</v>
+        <v>2282</v>
       </c>
       <c r="G2203" t="s">
-        <v>2271</v>
+        <v>2283</v>
       </c>
       <c r="H2203" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I2203" t="s">
         <v>19</v>
@@ -90856,10 +91057,10 @@
         <v>1</v>
       </c>
       <c r="K2203">
-        <v>289680</v>
+        <v>173068</v>
       </c>
       <c r="L2203">
-        <v>289680</v>
+        <v>173068</v>
       </c>
     </row>
     <row r="2204" spans="1:12">
@@ -90876,16 +91077,16 @@
         <v>2169</v>
       </c>
       <c r="E2204" t="s">
-        <v>2272</v>
+        <v>2281</v>
       </c>
       <c r="F2204" t="s">
-        <v>2273</v>
+        <v>2282</v>
       </c>
       <c r="G2204" t="s">
-        <v>2274</v>
+        <v>2283</v>
       </c>
       <c r="H2204" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I2204" t="s">
         <v>19</v>
@@ -90894,10 +91095,10 @@
         <v>1</v>
       </c>
       <c r="K2204">
-        <v>7182400</v>
+        <v>3250000</v>
       </c>
       <c r="L2204">
-        <v>7182400</v>
+        <v>3250000</v>
       </c>
     </row>
     <row r="2205" spans="1:12">
@@ -90914,16 +91115,16 @@
         <v>2169</v>
       </c>
       <c r="E2205" t="s">
-        <v>2272</v>
+        <v>2281</v>
       </c>
       <c r="F2205" t="s">
-        <v>2273</v>
+        <v>2282</v>
       </c>
       <c r="G2205" t="s">
-        <v>2274</v>
+        <v>2283</v>
       </c>
       <c r="H2205" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I2205" t="s">
         <v>19</v>
@@ -90932,10 +91133,10 @@
         <v>1</v>
       </c>
       <c r="K2205">
-        <v>36</v>
+        <v>90712</v>
       </c>
       <c r="L2205">
-        <v>36</v>
+        <v>90712</v>
       </c>
     </row>
     <row r="2206" spans="1:12">
@@ -90952,16 +91153,16 @@
         <v>2169</v>
       </c>
       <c r="E2206" t="s">
-        <v>2272</v>
+        <v>2281</v>
       </c>
       <c r="F2206" t="s">
-        <v>2273</v>
+        <v>2282</v>
       </c>
       <c r="G2206" t="s">
-        <v>2274</v>
+        <v>2283</v>
       </c>
       <c r="H2206" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I2206" t="s">
         <v>19</v>
@@ -90970,10 +91171,10 @@
         <v>1</v>
       </c>
       <c r="K2206">
-        <v>718240</v>
+        <v>289680</v>
       </c>
       <c r="L2206">
-        <v>718240</v>
+        <v>289680</v>
       </c>
     </row>
     <row r="2207" spans="1:12">
@@ -90990,16 +91191,16 @@
         <v>2169</v>
       </c>
       <c r="E2207" t="s">
-        <v>2272</v>
+        <v>2284</v>
       </c>
       <c r="F2207" t="s">
-        <v>2273</v>
+        <v>2285</v>
       </c>
       <c r="G2207" t="s">
-        <v>2274</v>
+        <v>2286</v>
       </c>
       <c r="H2207" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2207" t="s">
         <v>19</v>
@@ -91008,10 +91209,10 @@
         <v>1</v>
       </c>
       <c r="K2207">
-        <v>287296</v>
+        <v>7182400</v>
       </c>
       <c r="L2207">
-        <v>287296</v>
+        <v>7182400</v>
       </c>
     </row>
     <row r="2208" spans="1:12">
@@ -91028,16 +91229,16 @@
         <v>2169</v>
       </c>
       <c r="E2208" t="s">
-        <v>2272</v>
+        <v>2284</v>
       </c>
       <c r="F2208" t="s">
-        <v>2273</v>
+        <v>2285</v>
       </c>
       <c r="G2208" t="s">
-        <v>2274</v>
+        <v>2286</v>
       </c>
       <c r="H2208" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I2208" t="s">
         <v>19</v>
@@ -91046,10 +91247,10 @@
         <v>1</v>
       </c>
       <c r="K2208">
-        <v>579360</v>
+        <v>36</v>
       </c>
       <c r="L2208">
-        <v>579360</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2209" spans="1:12">
@@ -91066,16 +91267,16 @@
         <v>2169</v>
       </c>
       <c r="E2209" t="s">
-        <v>2272</v>
+        <v>2284</v>
       </c>
       <c r="F2209" t="s">
-        <v>2273</v>
+        <v>2285</v>
       </c>
       <c r="G2209" t="s">
-        <v>2274</v>
+        <v>2286</v>
       </c>
       <c r="H2209" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I2209" t="s">
         <v>19</v>
@@ -91084,10 +91285,10 @@
         <v>1</v>
       </c>
       <c r="K2209">
-        <v>370000</v>
+        <v>718240</v>
       </c>
       <c r="L2209">
-        <v>370000</v>
+        <v>718240</v>
       </c>
     </row>
     <row r="2210" spans="1:12">
@@ -91104,16 +91305,16 @@
         <v>2169</v>
       </c>
       <c r="E2210" t="s">
-        <v>2275</v>
+        <v>2284</v>
       </c>
       <c r="F2210" t="s">
-        <v>2276</v>
+        <v>2285</v>
       </c>
       <c r="G2210" t="s">
-        <v>2277</v>
+        <v>2286</v>
       </c>
       <c r="H2210" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="I2210" t="s">
         <v>19</v>
@@ -91122,10 +91323,10 @@
         <v>1</v>
       </c>
       <c r="K2210">
-        <v>5104000</v>
+        <v>287296</v>
       </c>
       <c r="L2210">
-        <v>5104000</v>
+        <v>287296</v>
       </c>
     </row>
     <row r="2211" spans="1:12">
@@ -91142,16 +91343,16 @@
         <v>2169</v>
       </c>
       <c r="E2211" t="s">
-        <v>2278</v>
+        <v>2284</v>
       </c>
       <c r="F2211" t="s">
-        <v>2279</v>
+        <v>2285</v>
       </c>
       <c r="G2211" t="s">
-        <v>2280</v>
+        <v>2286</v>
       </c>
       <c r="H2211" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I2211" t="s">
         <v>19</v>
@@ -91160,10 +91361,10 @@
         <v>1</v>
       </c>
       <c r="K2211">
-        <v>375600</v>
+        <v>579360</v>
       </c>
       <c r="L2211">
-        <v>375600</v>
+        <v>579360</v>
       </c>
     </row>
     <row r="2212" spans="1:12">
@@ -91180,16 +91381,16 @@
         <v>2169</v>
       </c>
       <c r="E2212" t="s">
-        <v>2278</v>
+        <v>2284</v>
       </c>
       <c r="F2212" t="s">
-        <v>2279</v>
+        <v>2285</v>
       </c>
       <c r="G2212" t="s">
-        <v>2280</v>
+        <v>2286</v>
       </c>
       <c r="H2212" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I2212" t="s">
         <v>19</v>
@@ -91198,10 +91399,10 @@
         <v>1</v>
       </c>
       <c r="K2212">
-        <v>1080000</v>
+        <v>370000</v>
       </c>
       <c r="L2212">
-        <v>1080000</v>
+        <v>370000</v>
       </c>
     </row>
     <row r="2213" spans="1:12">
@@ -91215,19 +91416,19 @@
         <v>13</v>
       </c>
       <c r="D2213" t="s">
-        <v>2156</v>
+        <v>2169</v>
       </c>
       <c r="E2213" t="s">
-        <v>2281</v>
+        <v>2287</v>
       </c>
       <c r="F2213" t="s">
-        <v>2282</v>
+        <v>2288</v>
       </c>
       <c r="G2213" t="s">
-        <v>2283</v>
+        <v>2289</v>
       </c>
       <c r="H2213" t="s">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="I2213" t="s">
         <v>19</v>
@@ -91236,10 +91437,10 @@
         <v>1</v>
       </c>
       <c r="K2213">
-        <v>816000</v>
+        <v>5104000</v>
       </c>
       <c r="L2213">
-        <v>816000</v>
+        <v>5104000</v>
       </c>
     </row>
     <row r="2214" spans="1:12">
@@ -91256,16 +91457,16 @@
         <v>2156</v>
       </c>
       <c r="E2214" t="s">
-        <v>2281</v>
+        <v>2290</v>
       </c>
       <c r="F2214" t="s">
-        <v>2282</v>
+        <v>2291</v>
       </c>
       <c r="G2214" t="s">
-        <v>2283</v>
+        <v>2292</v>
       </c>
       <c r="H2214" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
       <c r="I2214" t="s">
         <v>19</v>
@@ -91274,10 +91475,10 @@
         <v>1</v>
       </c>
       <c r="K2214">
-        <v>4250000</v>
+        <v>6107500</v>
       </c>
       <c r="L2214">
-        <v>4250000</v>
+        <v>6107500</v>
       </c>
     </row>
     <row r="2215" spans="1:12">
@@ -91291,19 +91492,19 @@
         <v>13</v>
       </c>
       <c r="D2215" t="s">
-        <v>2156</v>
+        <v>2169</v>
       </c>
       <c r="E2215" t="s">
-        <v>2281</v>
+        <v>2293</v>
       </c>
       <c r="F2215" t="s">
-        <v>2282</v>
+        <v>2294</v>
       </c>
       <c r="G2215" t="s">
-        <v>2283</v>
+        <v>2295</v>
       </c>
       <c r="H2215" t="s">
-        <v>497</v>
+        <v>43</v>
       </c>
       <c r="I2215" t="s">
         <v>19</v>
@@ -91312,10 +91513,10 @@
         <v>1</v>
       </c>
       <c r="K2215">
-        <v>712000</v>
+        <v>375600</v>
       </c>
       <c r="L2215">
-        <v>712000</v>
+        <v>375600</v>
       </c>
     </row>
     <row r="2216" spans="1:12">
@@ -91329,19 +91530,19 @@
         <v>13</v>
       </c>
       <c r="D2216" t="s">
-        <v>2156</v>
+        <v>2169</v>
       </c>
       <c r="E2216" t="s">
-        <v>2281</v>
+        <v>2293</v>
       </c>
       <c r="F2216" t="s">
-        <v>2282</v>
+        <v>2294</v>
       </c>
       <c r="G2216" t="s">
-        <v>2283</v>
+        <v>2295</v>
       </c>
       <c r="H2216" t="s">
-        <v>498</v>
+        <v>48</v>
       </c>
       <c r="I2216" t="s">
         <v>19</v>
@@ -91350,10 +91551,10 @@
         <v>1</v>
       </c>
       <c r="K2216">
-        <v>3720000</v>
+        <v>1080000</v>
       </c>
       <c r="L2216">
-        <v>3720000</v>
+        <v>1080000</v>
       </c>
     </row>
     <row r="2217" spans="1:12">
@@ -91370,16 +91571,16 @@
         <v>2156</v>
       </c>
       <c r="E2217" t="s">
-        <v>2281</v>
+        <v>2296</v>
       </c>
       <c r="F2217" t="s">
-        <v>2282</v>
+        <v>2297</v>
       </c>
       <c r="G2217" t="s">
-        <v>2283</v>
+        <v>2298</v>
       </c>
       <c r="H2217" t="s">
-        <v>499</v>
+        <v>1453</v>
       </c>
       <c r="I2217" t="s">
         <v>19</v>
@@ -91388,10 +91589,10 @@
         <v>1</v>
       </c>
       <c r="K2217">
-        <v>1862000</v>
+        <v>22950000</v>
       </c>
       <c r="L2217">
-        <v>1862000</v>
+        <v>22950000</v>
       </c>
     </row>
     <row r="2218" spans="1:12">
@@ -91408,16 +91609,16 @@
         <v>2156</v>
       </c>
       <c r="E2218" t="s">
-        <v>2281</v>
+        <v>2299</v>
       </c>
       <c r="F2218" t="s">
-        <v>2282</v>
+        <v>2300</v>
       </c>
       <c r="G2218" t="s">
-        <v>2283</v>
+        <v>2301</v>
       </c>
       <c r="H2218" t="s">
-        <v>500</v>
+        <v>1114</v>
       </c>
       <c r="I2218" t="s">
         <v>19</v>
@@ -91426,10 +91627,10 @@
         <v>1</v>
       </c>
       <c r="K2218">
-        <v>2310000</v>
+        <v>8300000</v>
       </c>
       <c r="L2218">
-        <v>2310000</v>
+        <v>8300000</v>
       </c>
     </row>
     <row r="2219" spans="1:12">
@@ -91446,16 +91647,16 @@
         <v>2156</v>
       </c>
       <c r="E2219" t="s">
-        <v>2281</v>
+        <v>2302</v>
       </c>
       <c r="F2219" t="s">
-        <v>2282</v>
+        <v>2303</v>
       </c>
       <c r="G2219" t="s">
-        <v>2283</v>
+        <v>2304</v>
       </c>
       <c r="H2219" t="s">
-        <v>501</v>
+        <v>1114</v>
       </c>
       <c r="I2219" t="s">
         <v>19</v>
@@ -91464,10 +91665,10 @@
         <v>1</v>
       </c>
       <c r="K2219">
-        <v>100000</v>
+        <v>6474000</v>
       </c>
       <c r="L2219">
-        <v>100000</v>
+        <v>6474000</v>
       </c>
     </row>
     <row r="2220" spans="1:12">
@@ -91481,19 +91682,19 @@
         <v>13</v>
       </c>
       <c r="D2220" t="s">
-        <v>2156</v>
+        <v>2249</v>
       </c>
       <c r="E2220" t="s">
-        <v>2281</v>
+        <v>2305</v>
       </c>
       <c r="F2220" t="s">
-        <v>2282</v>
+        <v>2306</v>
       </c>
       <c r="G2220" t="s">
-        <v>2283</v>
+        <v>2307</v>
       </c>
       <c r="H2220" t="s">
-        <v>502</v>
+        <v>140</v>
       </c>
       <c r="I2220" t="s">
         <v>19</v>
@@ -91502,10 +91703,10 @@
         <v>1</v>
       </c>
       <c r="K2220">
-        <v>80000</v>
+        <v>12732265</v>
       </c>
       <c r="L2220">
-        <v>80000</v>
+        <v>12732265</v>
       </c>
     </row>
     <row r="2221" spans="1:12">
@@ -91519,19 +91720,19 @@
         <v>13</v>
       </c>
       <c r="D2221" t="s">
-        <v>2156</v>
+        <v>2236</v>
       </c>
       <c r="E2221" t="s">
-        <v>2281</v>
+        <v>2308</v>
       </c>
       <c r="F2221" t="s">
-        <v>2282</v>
+        <v>2309</v>
       </c>
       <c r="G2221" t="s">
-        <v>2283</v>
+        <v>2310</v>
       </c>
       <c r="H2221" t="s">
-        <v>503</v>
+        <v>254</v>
       </c>
       <c r="I2221" t="s">
         <v>19</v>
@@ -91540,10 +91741,10 @@
         <v>1</v>
       </c>
       <c r="K2221">
-        <v>980000</v>
+        <v>32040333</v>
       </c>
       <c r="L2221">
-        <v>980000</v>
+        <v>32040333</v>
       </c>
     </row>
     <row r="2222" spans="1:12">
@@ -91557,19 +91758,19 @@
         <v>13</v>
       </c>
       <c r="D2222" t="s">
-        <v>2156</v>
+        <v>2236</v>
       </c>
       <c r="E2222" t="s">
-        <v>2281</v>
+        <v>2311</v>
       </c>
       <c r="F2222" t="s">
-        <v>2282</v>
+        <v>2312</v>
       </c>
       <c r="G2222" t="s">
-        <v>2283</v>
+        <v>2313</v>
       </c>
       <c r="H2222" t="s">
-        <v>1349</v>
+        <v>250</v>
       </c>
       <c r="I2222" t="s">
         <v>19</v>
@@ -91578,10 +91779,10 @@
         <v>1</v>
       </c>
       <c r="K2222">
-        <v>300000</v>
+        <v>31921667</v>
       </c>
       <c r="L2222">
-        <v>300000</v>
+        <v>31921667</v>
       </c>
     </row>
     <row r="2223" spans="1:12">
@@ -91598,16 +91799,16 @@
         <v>2156</v>
       </c>
       <c r="E2223" t="s">
-        <v>2281</v>
+        <v>2314</v>
       </c>
       <c r="F2223" t="s">
-        <v>2282</v>
+        <v>2315</v>
       </c>
       <c r="G2223" t="s">
-        <v>2283</v>
+        <v>1475</v>
       </c>
       <c r="H2223" t="s">
-        <v>504</v>
+        <v>1509</v>
       </c>
       <c r="I2223" t="s">
         <v>19</v>
@@ -91616,10 +91817,10 @@
         <v>1</v>
       </c>
       <c r="K2223">
-        <v>160000</v>
+        <v>1195000</v>
       </c>
       <c r="L2223">
-        <v>160000</v>
+        <v>1195000</v>
       </c>
     </row>
     <row r="2224" spans="1:12">
@@ -91636,16 +91837,16 @@
         <v>2156</v>
       </c>
       <c r="E2224" t="s">
-        <v>2281</v>
+        <v>2314</v>
       </c>
       <c r="F2224" t="s">
-        <v>2282</v>
+        <v>2315</v>
       </c>
       <c r="G2224" t="s">
-        <v>2283</v>
+        <v>1475</v>
       </c>
       <c r="H2224" t="s">
-        <v>505</v>
+        <v>321</v>
       </c>
       <c r="I2224" t="s">
         <v>19</v>
@@ -91654,10 +91855,10 @@
         <v>1</v>
       </c>
       <c r="K2224">
-        <v>140000</v>
+        <v>5748000</v>
       </c>
       <c r="L2224">
-        <v>140000</v>
+        <v>5748000</v>
       </c>
     </row>
     <row r="2225" spans="1:12">
@@ -91674,16 +91875,16 @@
         <v>2156</v>
       </c>
       <c r="E2225" t="s">
-        <v>2281</v>
+        <v>2314</v>
       </c>
       <c r="F2225" t="s">
-        <v>2282</v>
+        <v>2315</v>
       </c>
       <c r="G2225" t="s">
-        <v>2283</v>
+        <v>1475</v>
       </c>
       <c r="H2225" t="s">
-        <v>506</v>
+        <v>333</v>
       </c>
       <c r="I2225" t="s">
         <v>19</v>
@@ -91692,10 +91893,10 @@
         <v>1</v>
       </c>
       <c r="K2225">
-        <v>540000</v>
+        <v>2300000</v>
       </c>
       <c r="L2225">
-        <v>540000</v>
+        <v>2300000</v>
       </c>
     </row>
     <row r="2226" spans="1:12">
@@ -91712,16 +91913,16 @@
         <v>2156</v>
       </c>
       <c r="E2226" t="s">
-        <v>2281</v>
+        <v>2314</v>
       </c>
       <c r="F2226" t="s">
-        <v>2282</v>
+        <v>2315</v>
       </c>
       <c r="G2226" t="s">
-        <v>2283</v>
+        <v>1475</v>
       </c>
       <c r="H2226" t="s">
-        <v>507</v>
+        <v>2198</v>
       </c>
       <c r="I2226" t="s">
         <v>19</v>
@@ -91730,10 +91931,10 @@
         <v>1</v>
       </c>
       <c r="K2226">
-        <v>810000</v>
+        <v>150000</v>
       </c>
       <c r="L2226">
-        <v>810000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="2227" spans="1:12">
@@ -91750,16 +91951,16 @@
         <v>2156</v>
       </c>
       <c r="E2227" t="s">
-        <v>2281</v>
+        <v>2314</v>
       </c>
       <c r="F2227" t="s">
-        <v>2282</v>
+        <v>2315</v>
       </c>
       <c r="G2227" t="s">
-        <v>2283</v>
+        <v>1475</v>
       </c>
       <c r="H2227" t="s">
-        <v>508</v>
+        <v>2199</v>
       </c>
       <c r="I2227" t="s">
         <v>19</v>
@@ -91768,10 +91969,10 @@
         <v>1</v>
       </c>
       <c r="K2227">
-        <v>300000</v>
+        <v>10321000</v>
       </c>
       <c r="L2227">
-        <v>300000</v>
+        <v>10321000</v>
       </c>
     </row>
     <row r="2228" spans="1:12">
@@ -91788,28 +91989,1168 @@
         <v>2156</v>
       </c>
       <c r="E2228" t="s">
-        <v>2281</v>
+        <v>2314</v>
       </c>
       <c r="F2228" t="s">
-        <v>2282</v>
+        <v>2315</v>
       </c>
       <c r="G2228" t="s">
-        <v>2283</v>
+        <v>1475</v>
       </c>
       <c r="H2228" t="s">
+        <v>603</v>
+      </c>
+      <c r="I2228" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2228">
+        <v>1</v>
+      </c>
+      <c r="K2228">
+        <v>2527500</v>
+      </c>
+      <c r="L2228">
+        <v>2527500</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:12">
+      <c r="A2229">
+        <v>2226</v>
+      </c>
+      <c r="B2229">
+        <v>626402</v>
+      </c>
+      <c r="C2229" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2229" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2229" t="s">
+        <v>2314</v>
+      </c>
+      <c r="F2229" t="s">
+        <v>2315</v>
+      </c>
+      <c r="G2229" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2229" t="s">
+        <v>345</v>
+      </c>
+      <c r="I2229" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2229">
+        <v>1</v>
+      </c>
+      <c r="K2229">
+        <v>7183380</v>
+      </c>
+      <c r="L2229">
+        <v>7183380</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:12">
+      <c r="A2230">
+        <v>2227</v>
+      </c>
+      <c r="B2230">
+        <v>626402</v>
+      </c>
+      <c r="C2230" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2230" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2230" t="s">
+        <v>2314</v>
+      </c>
+      <c r="F2230" t="s">
+        <v>2315</v>
+      </c>
+      <c r="G2230" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2230" t="s">
+        <v>604</v>
+      </c>
+      <c r="I2230" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2230">
+        <v>1</v>
+      </c>
+      <c r="K2230">
+        <v>3440000</v>
+      </c>
+      <c r="L2230">
+        <v>3440000</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:12">
+      <c r="A2231">
+        <v>2228</v>
+      </c>
+      <c r="B2231">
+        <v>626402</v>
+      </c>
+      <c r="C2231" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2231" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2231" t="s">
+        <v>2314</v>
+      </c>
+      <c r="F2231" t="s">
+        <v>2315</v>
+      </c>
+      <c r="G2231" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2231" t="s">
+        <v>1479</v>
+      </c>
+      <c r="I2231" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2231">
+        <v>1</v>
+      </c>
+      <c r="K2231">
+        <v>11315500</v>
+      </c>
+      <c r="L2231">
+        <v>11315500</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:12">
+      <c r="A2232">
+        <v>2229</v>
+      </c>
+      <c r="B2232">
+        <v>626402</v>
+      </c>
+      <c r="C2232" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2232" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2232" t="s">
+        <v>2314</v>
+      </c>
+      <c r="F2232" t="s">
+        <v>2315</v>
+      </c>
+      <c r="G2232" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2232" t="s">
+        <v>2316</v>
+      </c>
+      <c r="I2232" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2232">
+        <v>1</v>
+      </c>
+      <c r="K2232">
+        <v>600000</v>
+      </c>
+      <c r="L2232">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:12">
+      <c r="A2233">
+        <v>2230</v>
+      </c>
+      <c r="B2233">
+        <v>626402</v>
+      </c>
+      <c r="C2233" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2233" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2233" t="s">
+        <v>2317</v>
+      </c>
+      <c r="F2233" t="s">
+        <v>2318</v>
+      </c>
+      <c r="G2233" t="s">
+        <v>2319</v>
+      </c>
+      <c r="H2233" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2233" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2233">
+        <v>1</v>
+      </c>
+      <c r="K2233">
+        <v>13130700</v>
+      </c>
+      <c r="L2233">
+        <v>13130700</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:12">
+      <c r="A2234">
+        <v>2231</v>
+      </c>
+      <c r="B2234">
+        <v>626402</v>
+      </c>
+      <c r="C2234" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2234" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2234" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F2234" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G2234" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H2234" t="s">
+        <v>495</v>
+      </c>
+      <c r="I2234" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2234">
+        <v>1</v>
+      </c>
+      <c r="K2234">
+        <v>816000</v>
+      </c>
+      <c r="L2234">
+        <v>816000</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:12">
+      <c r="A2235">
+        <v>2232</v>
+      </c>
+      <c r="B2235">
+        <v>626402</v>
+      </c>
+      <c r="C2235" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2235" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2235" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F2235" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G2235" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H2235" t="s">
+        <v>496</v>
+      </c>
+      <c r="I2235" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2235">
+        <v>1</v>
+      </c>
+      <c r="K2235">
+        <v>4250000</v>
+      </c>
+      <c r="L2235">
+        <v>4250000</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:12">
+      <c r="A2236">
+        <v>2233</v>
+      </c>
+      <c r="B2236">
+        <v>626402</v>
+      </c>
+      <c r="C2236" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2236" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2236" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F2236" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G2236" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H2236" t="s">
+        <v>497</v>
+      </c>
+      <c r="I2236" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2236">
+        <v>1</v>
+      </c>
+      <c r="K2236">
+        <v>712000</v>
+      </c>
+      <c r="L2236">
+        <v>712000</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:12">
+      <c r="A2237">
+        <v>2234</v>
+      </c>
+      <c r="B2237">
+        <v>626402</v>
+      </c>
+      <c r="C2237" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2237" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2237" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F2237" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G2237" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H2237" t="s">
+        <v>498</v>
+      </c>
+      <c r="I2237" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2237">
+        <v>1</v>
+      </c>
+      <c r="K2237">
+        <v>3720000</v>
+      </c>
+      <c r="L2237">
+        <v>3720000</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:12">
+      <c r="A2238">
+        <v>2235</v>
+      </c>
+      <c r="B2238">
+        <v>626402</v>
+      </c>
+      <c r="C2238" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2238" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2238" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F2238" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G2238" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H2238" t="s">
+        <v>499</v>
+      </c>
+      <c r="I2238" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2238">
+        <v>1</v>
+      </c>
+      <c r="K2238">
+        <v>1862000</v>
+      </c>
+      <c r="L2238">
+        <v>1862000</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:12">
+      <c r="A2239">
+        <v>2236</v>
+      </c>
+      <c r="B2239">
+        <v>626402</v>
+      </c>
+      <c r="C2239" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2239" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2239" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F2239" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G2239" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H2239" t="s">
+        <v>500</v>
+      </c>
+      <c r="I2239" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2239">
+        <v>1</v>
+      </c>
+      <c r="K2239">
+        <v>2310000</v>
+      </c>
+      <c r="L2239">
+        <v>2310000</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:12">
+      <c r="A2240">
+        <v>2237</v>
+      </c>
+      <c r="B2240">
+        <v>626402</v>
+      </c>
+      <c r="C2240" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2240" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2240" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F2240" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G2240" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H2240" t="s">
+        <v>501</v>
+      </c>
+      <c r="I2240" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2240">
+        <v>1</v>
+      </c>
+      <c r="K2240">
+        <v>100000</v>
+      </c>
+      <c r="L2240">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:12">
+      <c r="A2241">
+        <v>2238</v>
+      </c>
+      <c r="B2241">
+        <v>626402</v>
+      </c>
+      <c r="C2241" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2241" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2241" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F2241" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G2241" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H2241" t="s">
+        <v>502</v>
+      </c>
+      <c r="I2241" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2241">
+        <v>1</v>
+      </c>
+      <c r="K2241">
+        <v>80000</v>
+      </c>
+      <c r="L2241">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:12">
+      <c r="A2242">
+        <v>2239</v>
+      </c>
+      <c r="B2242">
+        <v>626402</v>
+      </c>
+      <c r="C2242" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2242" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2242" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F2242" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G2242" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H2242" t="s">
+        <v>503</v>
+      </c>
+      <c r="I2242" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2242">
+        <v>1</v>
+      </c>
+      <c r="K2242">
+        <v>980000</v>
+      </c>
+      <c r="L2242">
+        <v>980000</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:12">
+      <c r="A2243">
+        <v>2240</v>
+      </c>
+      <c r="B2243">
+        <v>626402</v>
+      </c>
+      <c r="C2243" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2243" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2243" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F2243" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G2243" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H2243" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I2243" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2243">
+        <v>1</v>
+      </c>
+      <c r="K2243">
+        <v>300000</v>
+      </c>
+      <c r="L2243">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:12">
+      <c r="A2244">
+        <v>2241</v>
+      </c>
+      <c r="B2244">
+        <v>626402</v>
+      </c>
+      <c r="C2244" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2244" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2244" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F2244" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G2244" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H2244" t="s">
+        <v>504</v>
+      </c>
+      <c r="I2244" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2244">
+        <v>1</v>
+      </c>
+      <c r="K2244">
+        <v>160000</v>
+      </c>
+      <c r="L2244">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:12">
+      <c r="A2245">
+        <v>2242</v>
+      </c>
+      <c r="B2245">
+        <v>626402</v>
+      </c>
+      <c r="C2245" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2245" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2245" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F2245" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G2245" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H2245" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2245" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2245">
+        <v>1</v>
+      </c>
+      <c r="K2245">
+        <v>140000</v>
+      </c>
+      <c r="L2245">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:12">
+      <c r="A2246">
+        <v>2243</v>
+      </c>
+      <c r="B2246">
+        <v>626402</v>
+      </c>
+      <c r="C2246" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2246" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2246" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F2246" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G2246" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H2246" t="s">
+        <v>506</v>
+      </c>
+      <c r="I2246" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2246">
+        <v>1</v>
+      </c>
+      <c r="K2246">
+        <v>540000</v>
+      </c>
+      <c r="L2246">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:12">
+      <c r="A2247">
+        <v>2244</v>
+      </c>
+      <c r="B2247">
+        <v>626402</v>
+      </c>
+      <c r="C2247" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2247" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2247" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F2247" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G2247" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H2247" t="s">
+        <v>507</v>
+      </c>
+      <c r="I2247" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2247">
+        <v>1</v>
+      </c>
+      <c r="K2247">
+        <v>810000</v>
+      </c>
+      <c r="L2247">
+        <v>810000</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:12">
+      <c r="A2248">
+        <v>2245</v>
+      </c>
+      <c r="B2248">
+        <v>626402</v>
+      </c>
+      <c r="C2248" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2248" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2248" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F2248" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G2248" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H2248" t="s">
+        <v>508</v>
+      </c>
+      <c r="I2248" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2248">
+        <v>1</v>
+      </c>
+      <c r="K2248">
+        <v>300000</v>
+      </c>
+      <c r="L2248">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:12">
+      <c r="A2249">
+        <v>2246</v>
+      </c>
+      <c r="B2249">
+        <v>626402</v>
+      </c>
+      <c r="C2249" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2249" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2249" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F2249" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G2249" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H2249" t="s">
         <v>509</v>
       </c>
-      <c r="I2228" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2228">
-        <v>1</v>
-      </c>
-      <c r="K2228">
+      <c r="I2249" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2249">
+        <v>1</v>
+      </c>
+      <c r="K2249">
         <v>680000</v>
       </c>
-      <c r="L2228">
+      <c r="L2249">
         <v>680000</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:12">
+      <c r="A2250">
+        <v>2247</v>
+      </c>
+      <c r="B2250">
+        <v>626402</v>
+      </c>
+      <c r="C2250" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2250" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2250" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F2250" t="s">
+        <v>2324</v>
+      </c>
+      <c r="G2250" t="s">
+        <v>2325</v>
+      </c>
+      <c r="H2250" t="s">
+        <v>2326</v>
+      </c>
+      <c r="I2250" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2250">
+        <v>1</v>
+      </c>
+      <c r="K2250">
+        <v>50000000</v>
+      </c>
+      <c r="L2250">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:12">
+      <c r="A2251">
+        <v>2248</v>
+      </c>
+      <c r="B2251">
+        <v>626402</v>
+      </c>
+      <c r="C2251" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2251" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2251" t="s">
+        <v>2327</v>
+      </c>
+      <c r="F2251" t="s">
+        <v>2328</v>
+      </c>
+      <c r="G2251" t="s">
+        <v>2329</v>
+      </c>
+      <c r="H2251" t="s">
+        <v>604</v>
+      </c>
+      <c r="I2251" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2251">
+        <v>1</v>
+      </c>
+      <c r="K2251">
+        <v>15588000</v>
+      </c>
+      <c r="L2251">
+        <v>15588000</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:12">
+      <c r="A2252">
+        <v>2249</v>
+      </c>
+      <c r="B2252">
+        <v>626402</v>
+      </c>
+      <c r="C2252" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2252" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2252" t="s">
+        <v>2330</v>
+      </c>
+      <c r="F2252" t="s">
+        <v>2331</v>
+      </c>
+      <c r="G2252" t="s">
+        <v>2332</v>
+      </c>
+      <c r="H2252" t="s">
+        <v>604</v>
+      </c>
+      <c r="I2252" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2252">
+        <v>1</v>
+      </c>
+      <c r="K2252">
+        <v>40000000</v>
+      </c>
+      <c r="L2252">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:12">
+      <c r="A2253">
+        <v>2250</v>
+      </c>
+      <c r="B2253">
+        <v>626402</v>
+      </c>
+      <c r="C2253" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2253" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2253" t="s">
+        <v>2333</v>
+      </c>
+      <c r="F2253" t="s">
+        <v>2334</v>
+      </c>
+      <c r="G2253" t="s">
+        <v>2335</v>
+      </c>
+      <c r="H2253" t="s">
+        <v>295</v>
+      </c>
+      <c r="I2253" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2253">
+        <v>1</v>
+      </c>
+      <c r="K2253">
+        <v>208250109</v>
+      </c>
+      <c r="L2253">
+        <v>208250109</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:12">
+      <c r="A2254">
+        <v>2251</v>
+      </c>
+      <c r="B2254">
+        <v>626402</v>
+      </c>
+      <c r="C2254" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2254" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2254" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F2254" t="s">
+        <v>2337</v>
+      </c>
+      <c r="G2254" t="s">
+        <v>2338</v>
+      </c>
+      <c r="H2254" t="s">
+        <v>307</v>
+      </c>
+      <c r="I2254" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2254">
+        <v>1</v>
+      </c>
+      <c r="K2254">
+        <v>114472696</v>
+      </c>
+      <c r="L2254">
+        <v>114472696</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:12">
+      <c r="A2255">
+        <v>2252</v>
+      </c>
+      <c r="B2255">
+        <v>626402</v>
+      </c>
+      <c r="C2255" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2255" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2255" t="s">
+        <v>2339</v>
+      </c>
+      <c r="F2255" t="s">
+        <v>2340</v>
+      </c>
+      <c r="G2255" t="s">
+        <v>2341</v>
+      </c>
+      <c r="H2255" t="s">
+        <v>299</v>
+      </c>
+      <c r="I2255" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2255">
+        <v>1</v>
+      </c>
+      <c r="K2255">
+        <v>102373669</v>
+      </c>
+      <c r="L2255">
+        <v>102373669</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:12">
+      <c r="A2256">
+        <v>2253</v>
+      </c>
+      <c r="B2256">
+        <v>626402</v>
+      </c>
+      <c r="C2256" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2256" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2256" t="s">
+        <v>2342</v>
+      </c>
+      <c r="F2256" t="s">
+        <v>2343</v>
+      </c>
+      <c r="G2256" t="s">
+        <v>2344</v>
+      </c>
+      <c r="H2256" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I2256" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2256">
+        <v>1</v>
+      </c>
+      <c r="K2256">
+        <v>28200000</v>
+      </c>
+      <c r="L2256">
+        <v>28200000</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:12">
+      <c r="A2257">
+        <v>2254</v>
+      </c>
+      <c r="B2257">
+        <v>626402</v>
+      </c>
+      <c r="C2257" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2257" t="s">
+        <v>2236</v>
+      </c>
+      <c r="E2257" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F2257" t="s">
+        <v>2346</v>
+      </c>
+      <c r="G2257" t="s">
+        <v>2347</v>
+      </c>
+      <c r="H2257" t="s">
+        <v>295</v>
+      </c>
+      <c r="I2257" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2257">
+        <v>1</v>
+      </c>
+      <c r="K2257">
+        <v>415002632</v>
+      </c>
+      <c r="L2257">
+        <v>415002632</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:12">
+      <c r="A2258">
+        <v>2255</v>
+      </c>
+      <c r="B2258">
+        <v>626402</v>
+      </c>
+      <c r="C2258" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2258" t="s">
+        <v>2236</v>
+      </c>
+      <c r="E2258" t="s">
+        <v>2348</v>
+      </c>
+      <c r="F2258" t="s">
+        <v>2349</v>
+      </c>
+      <c r="G2258" t="s">
+        <v>2350</v>
+      </c>
+      <c r="H2258" t="s">
+        <v>299</v>
+      </c>
+      <c r="I2258" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2258">
+        <v>1</v>
+      </c>
+      <c r="K2258">
+        <v>204638726</v>
+      </c>
+      <c r="L2258">
+        <v>204638726</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2458">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -7061,6 +7061,18 @@
     <t>Pembayaran tunjangan kinerja susulan bulan Mei tahun 2023 untuk 76 Pegawai/Anggota Polri/Prajurit TNI.</t>
   </si>
   <si>
+    <t>2023-06-12</t>
+  </si>
+  <si>
+    <t>'00530T</t>
+  </si>
+  <si>
+    <t>'231751303013325</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.3007/BRSDM.1/KP.440/VI/2023 Tanggal 5 Juni 2023</t>
+  </si>
+  <si>
     <t>'00531T</t>
   </si>
   <si>
@@ -7068,6 +7080,315 @@
   </si>
   <si>
     <t>Pembayaran tunjangan kinerja susulan bulan Mei tahun 2023 untuk 34 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00532T</t>
+  </si>
+  <si>
+    <t>'231751303013321</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2988/BRSDM.1/KP.440/V/2023 Tanggal 24 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00533T</t>
+  </si>
+  <si>
+    <t>'231751303013322</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2971/BRSDM.1/KP.440/IV/2023 Tanggal 28 April 2023</t>
+  </si>
+  <si>
+    <t>'00534T</t>
+  </si>
+  <si>
+    <t>'231751303013487</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2459/BRSDM.1/KP.440/V/2023 Tanggal 11 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00535T</t>
+  </si>
+  <si>
+    <t>'231751303013323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2362/BRSDM.1/KP.440/V/2023 Tanggal 9 Mei 2023 </t>
+  </si>
+  <si>
+    <t>'00536T</t>
+  </si>
+  <si>
+    <t>'231751303013324</t>
+  </si>
+  <si>
+    <t>'00537T</t>
+  </si>
+  <si>
+    <t>'231751701003355</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0A.000002</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.052.0B.000043</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.052.0B.001464</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.052.0D.000055</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.052.0D.000056</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.052.0D.001465</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0C.000095</t>
+  </si>
+  <si>
+    <t>'626402.175.522151.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0C.000098</t>
+  </si>
+  <si>
+    <t>'626402.175.524119.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0B.000091</t>
+  </si>
+  <si>
+    <t>'626402.175.524119.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0C.000102</t>
+  </si>
+  <si>
+    <t>'00538T</t>
+  </si>
+  <si>
+    <t>'231751303013316</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2869/BRSDM.1/KP.440/V/2023 Tanggal 29 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00539T</t>
+  </si>
+  <si>
+    <t>'231751303013317</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat TUgas Nomor:B.2757/BRSDM.1/KP.440/V/2023 Tanggal 24 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00540T</t>
+  </si>
+  <si>
+    <t>'231751303013318</t>
+  </si>
+  <si>
+    <t>'00541T</t>
+  </si>
+  <si>
+    <t>'231751303013319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2459/BRSDM.1/KP.440/V/2023 Tanggal 11 Mei 2023 </t>
+  </si>
+  <si>
+    <t>'00542T</t>
+  </si>
+  <si>
+    <t>'231751303013320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2971/BRSDM.1/KP.440/IV/2023 Tanggal 28 April 2023 </t>
+  </si>
+  <si>
+    <t>'00543T</t>
+  </si>
+  <si>
+    <t>'231751303013309</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2850/BRSDM.1/KP.440/VI/2023 Tanggal 29 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00544T</t>
+  </si>
+  <si>
+    <t>'231751303013310</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.730,B.2290/BRSDM.1/KP.440/V/2023 Tanggal 4 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00545T</t>
+  </si>
+  <si>
+    <t>'231751303013311</t>
+  </si>
+  <si>
+    <t>'00546T</t>
+  </si>
+  <si>
+    <t>'231751303013312</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.739,B.2290/BRSDM.1/KP.440/V/2023 Tanggal 4,5 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00547T</t>
+  </si>
+  <si>
+    <t>'231751303013313</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.731,B.2289/BRSDM.1/KP.440/V/2023 Tanggal 4,5 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00548T</t>
+  </si>
+  <si>
+    <t>'231751303013314</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2269/BRSDM.1/KP.440/V/2023 Tanggal 5 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00549T</t>
+  </si>
+  <si>
+    <t>'231751303013315</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2286/BRSDM.1/KP.440/V/2023 Tanggal 4 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00550T</t>
+  </si>
+  <si>
+    <t>'231751303013488</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.851/BRSDM/KP.440/V/2023 Tanggal 26 Mei 2023 dan ST.No.B.782/BRSDM.5/KP.440/VI/2023.Tanggal 26 Mei 2023.</t>
+  </si>
+  <si>
+    <t>'00551T</t>
+  </si>
+  <si>
+    <t>'231751303013483</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:B.2290/BRSDM.1/KP.440/V/2023 Tanggal 4 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00553T</t>
+  </si>
+  <si>
+    <t>'231751303013411</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan bulan Mei tahun 2023 untuk 43 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00554T</t>
+  </si>
+  <si>
+    <t>'231751303013484</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.802/BRSDM.5/KP.440/V/2023 Tanggal 31 Mei 2023 dan Nomor:B.810/BRSDM.5/KP.440/VI/2023 Tanggal 05 Juni 2023</t>
+  </si>
+  <si>
+    <t>'00555T</t>
+  </si>
+  <si>
+    <t>'231751302017708</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:025681201062023 Tanggal 5 Juni 2023 Tagihan Layanan Pay TV Transvision periode Juni 2023 s.d Mei 2024 (1 Tahun)</t>
+  </si>
+  <si>
+    <t>'00556T</t>
+  </si>
+  <si>
+    <t>'231751301022673</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitasni Nomor:SK/5719/VI/2023 Tanggal 5 Juni 2023 Biaya Sewa Mesin Foto Copy Bulan Mei 2023</t>
+  </si>
+  <si>
+    <t>'00557T</t>
+  </si>
+  <si>
+    <t>'231751302017729</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:104/KWT/STSK/PT/VI/2023 Tanggl 5 Juni 2023 Biaya Pembuatan Plakat Akrilik Stanlist BRSDM</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.106.0A.000298</t>
+  </si>
+  <si>
+    <t>'00558T</t>
+  </si>
+  <si>
+    <t>'231751303013485</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Keputusan Nomor:1,2/PPK/BRSDM.1/I/2023 Tanggal 3 Januari 2023 Honor Tenaga Profesi Social Media Specialist dan Tenaga Content Creator Bulan Mei 2023</t>
+  </si>
+  <si>
+    <t>'00559T</t>
+  </si>
+  <si>
+    <t>'231751303013486</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2989/BRSDM.1/KP.440/VI/2023 Tanggal 31 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00560T</t>
+  </si>
+  <si>
+    <t>'231751303013481</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2221/BRSDM.1/KP.440/V/2023 Tanggal 2 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00561T</t>
+  </si>
+  <si>
+    <t>'231751303013482</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2213/BRSDM.1/KP.440/V/2023 Tanggal 2 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00562T</t>
+  </si>
+  <si>
+    <t>'231751701003353</t>
+  </si>
+  <si>
+    <t>'626402.175.521241.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.102.0A.000809</t>
+  </si>
+  <si>
+    <t>'626402.175.522151.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.101.0D.001197</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.101.0A.000797</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.0A.001028</t>
+  </si>
+  <si>
+    <t>'00563T</t>
+  </si>
+  <si>
+    <t>'231751701003354</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.956.101.0B.000204</t>
   </si>
 </sst>
 </file>
@@ -7409,7 +7730,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L2258"/>
+  <dimension ref="A1:L2359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -93126,31 +93447,3869 @@
         <v>13</v>
       </c>
       <c r="D2258" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2258" t="s">
+        <v>2349</v>
+      </c>
+      <c r="F2258" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G2258" t="s">
+        <v>2351</v>
+      </c>
+      <c r="H2258" t="s">
+        <v>582</v>
+      </c>
+      <c r="I2258" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2258">
+        <v>1</v>
+      </c>
+      <c r="K2258">
+        <v>34352000</v>
+      </c>
+      <c r="L2258">
+        <v>34352000</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:12">
+      <c r="A2259">
+        <v>2256</v>
+      </c>
+      <c r="B2259">
+        <v>626402</v>
+      </c>
+      <c r="C2259" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2259" t="s">
         <v>2236</v>
       </c>
-      <c r="E2258" t="s">
+      <c r="E2259" t="s">
+        <v>2352</v>
+      </c>
+      <c r="F2259" t="s">
+        <v>2353</v>
+      </c>
+      <c r="G2259" t="s">
+        <v>2354</v>
+      </c>
+      <c r="H2259" t="s">
+        <v>299</v>
+      </c>
+      <c r="I2259" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2259">
+        <v>1</v>
+      </c>
+      <c r="K2259">
+        <v>204638726</v>
+      </c>
+      <c r="L2259">
+        <v>204638726</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:12">
+      <c r="A2260">
+        <v>2257</v>
+      </c>
+      <c r="B2260">
+        <v>626402</v>
+      </c>
+      <c r="C2260" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2260" t="s">
         <v>2348</v>
       </c>
-      <c r="F2258" t="s">
+      <c r="E2260" t="s">
+        <v>2355</v>
+      </c>
+      <c r="F2260" t="s">
+        <v>2356</v>
+      </c>
+      <c r="G2260" t="s">
+        <v>2357</v>
+      </c>
+      <c r="H2260" t="s">
+        <v>583</v>
+      </c>
+      <c r="I2260" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2260">
+        <v>1</v>
+      </c>
+      <c r="K2260">
+        <v>8070000</v>
+      </c>
+      <c r="L2260">
+        <v>8070000</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:12">
+      <c r="A2261">
+        <v>2258</v>
+      </c>
+      <c r="B2261">
+        <v>626402</v>
+      </c>
+      <c r="C2261" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2261" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2261" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F2261" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G2261" t="s">
+        <v>2360</v>
+      </c>
+      <c r="H2261" t="s">
+        <v>730</v>
+      </c>
+      <c r="I2261" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2261">
+        <v>1</v>
+      </c>
+      <c r="K2261">
+        <v>30947680</v>
+      </c>
+      <c r="L2261">
+        <v>30947680</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:12">
+      <c r="A2262">
+        <v>2259</v>
+      </c>
+      <c r="B2262">
+        <v>626402</v>
+      </c>
+      <c r="C2262" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2262" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2262" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F2262" t="s">
+        <v>2362</v>
+      </c>
+      <c r="G2262" t="s">
+        <v>2363</v>
+      </c>
+      <c r="H2262" t="s">
+        <v>765</v>
+      </c>
+      <c r="I2262" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2262">
+        <v>1</v>
+      </c>
+      <c r="K2262">
+        <v>16089800</v>
+      </c>
+      <c r="L2262">
+        <v>16089800</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:12">
+      <c r="A2263">
+        <v>2260</v>
+      </c>
+      <c r="B2263">
+        <v>626402</v>
+      </c>
+      <c r="C2263" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2263" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2263" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F2263" t="s">
+        <v>2365</v>
+      </c>
+      <c r="G2263" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H2263" t="s">
+        <v>765</v>
+      </c>
+      <c r="I2263" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2263">
+        <v>1</v>
+      </c>
+      <c r="K2263">
+        <v>767500</v>
+      </c>
+      <c r="L2263">
+        <v>767500</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:12">
+      <c r="A2264">
+        <v>2261</v>
+      </c>
+      <c r="B2264">
+        <v>626402</v>
+      </c>
+      <c r="C2264" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2264" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2264" t="s">
+        <v>2367</v>
+      </c>
+      <c r="F2264" t="s">
+        <v>2368</v>
+      </c>
+      <c r="G2264" t="s">
+        <v>2360</v>
+      </c>
+      <c r="H2264" t="s">
+        <v>730</v>
+      </c>
+      <c r="I2264" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2264">
+        <v>1</v>
+      </c>
+      <c r="K2264">
+        <v>16702083</v>
+      </c>
+      <c r="L2264">
+        <v>16702083</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:12">
+      <c r="A2265">
+        <v>2262</v>
+      </c>
+      <c r="B2265">
+        <v>626402</v>
+      </c>
+      <c r="C2265" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2265" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2265" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2265" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2265" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2265" t="s">
+        <v>2371</v>
+      </c>
+      <c r="I2265" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2265">
+        <v>1</v>
+      </c>
+      <c r="K2265">
+        <v>150400</v>
+      </c>
+      <c r="L2265">
+        <v>150400</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:12">
+      <c r="A2266">
+        <v>2263</v>
+      </c>
+      <c r="B2266">
+        <v>626402</v>
+      </c>
+      <c r="C2266" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2266" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2266" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2266" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2266" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2266" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2266" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2266">
+        <v>1</v>
+      </c>
+      <c r="K2266">
+        <v>382400</v>
+      </c>
+      <c r="L2266">
+        <v>382400</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:12">
+      <c r="A2267">
+        <v>2264</v>
+      </c>
+      <c r="B2267">
+        <v>626402</v>
+      </c>
+      <c r="C2267" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2267" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2267" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2267" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2267" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2267" t="s">
+        <v>2372</v>
+      </c>
+      <c r="I2267" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2267">
+        <v>1</v>
+      </c>
+      <c r="K2267">
+        <v>995000</v>
+      </c>
+      <c r="L2267">
+        <v>995000</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:12">
+      <c r="A2268">
+        <v>2265</v>
+      </c>
+      <c r="B2268">
+        <v>626402</v>
+      </c>
+      <c r="C2268" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2268" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2268" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2268" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2268" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2268" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I2268" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2268">
+        <v>1</v>
+      </c>
+      <c r="K2268">
+        <v>3969200</v>
+      </c>
+      <c r="L2268">
+        <v>3969200</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:12">
+      <c r="A2269">
+        <v>2266</v>
+      </c>
+      <c r="B2269">
+        <v>626402</v>
+      </c>
+      <c r="C2269" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2269" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2269" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2269" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2269" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2269" t="s">
+        <v>2374</v>
+      </c>
+      <c r="I2269" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2269">
+        <v>1</v>
+      </c>
+      <c r="K2269">
+        <v>990000</v>
+      </c>
+      <c r="L2269">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:12">
+      <c r="A2270">
+        <v>2267</v>
+      </c>
+      <c r="B2270">
+        <v>626402</v>
+      </c>
+      <c r="C2270" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2270" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2270" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2270" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2270" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2270" t="s">
+        <v>2375</v>
+      </c>
+      <c r="I2270" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2270">
+        <v>1</v>
+      </c>
+      <c r="K2270">
+        <v>1000000</v>
+      </c>
+      <c r="L2270">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:12">
+      <c r="A2271">
+        <v>2268</v>
+      </c>
+      <c r="B2271">
+        <v>626402</v>
+      </c>
+      <c r="C2271" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2271" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2271" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2271" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2271" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2271" t="s">
+        <v>2376</v>
+      </c>
+      <c r="I2271" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2271">
+        <v>1</v>
+      </c>
+      <c r="K2271">
+        <v>3514000</v>
+      </c>
+      <c r="L2271">
+        <v>3514000</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:12">
+      <c r="A2272">
+        <v>2269</v>
+      </c>
+      <c r="B2272">
+        <v>626402</v>
+      </c>
+      <c r="C2272" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2272" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2272" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2272" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2272" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2272" t="s">
+        <v>597</v>
+      </c>
+      <c r="I2272" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2272">
+        <v>1</v>
+      </c>
+      <c r="K2272">
+        <v>800000</v>
+      </c>
+      <c r="L2272">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:12">
+      <c r="A2273">
+        <v>2270</v>
+      </c>
+      <c r="B2273">
+        <v>626402</v>
+      </c>
+      <c r="C2273" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2273" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2273" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2273" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2273" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2273" t="s">
+        <v>2377</v>
+      </c>
+      <c r="I2273" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2273">
+        <v>1</v>
+      </c>
+      <c r="K2273">
+        <v>1200000</v>
+      </c>
+      <c r="L2273">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:12">
+      <c r="A2274">
+        <v>2271</v>
+      </c>
+      <c r="B2274">
+        <v>626402</v>
+      </c>
+      <c r="C2274" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2274" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2274" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2274" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2274" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2274" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2274" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2274">
+        <v>1</v>
+      </c>
+      <c r="K2274">
+        <v>1350000</v>
+      </c>
+      <c r="L2274">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:12">
+      <c r="A2275">
+        <v>2272</v>
+      </c>
+      <c r="B2275">
+        <v>626402</v>
+      </c>
+      <c r="C2275" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2275" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2275" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2275" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2275" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2275" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I2275" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2275">
+        <v>1</v>
+      </c>
+      <c r="K2275">
+        <v>686500</v>
+      </c>
+      <c r="L2275">
+        <v>686500</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:12">
+      <c r="A2276">
+        <v>2273</v>
+      </c>
+      <c r="B2276">
+        <v>626402</v>
+      </c>
+      <c r="C2276" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2276" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2276" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2276" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2276" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2276" t="s">
+        <v>2378</v>
+      </c>
+      <c r="I2276" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2276">
+        <v>1</v>
+      </c>
+      <c r="K2276">
+        <v>1400000</v>
+      </c>
+      <c r="L2276">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:12">
+      <c r="A2277">
+        <v>2274</v>
+      </c>
+      <c r="B2277">
+        <v>626402</v>
+      </c>
+      <c r="C2277" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2277" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2277" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2277" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2277" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2277" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I2277" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2277">
+        <v>1</v>
+      </c>
+      <c r="K2277">
+        <v>150000</v>
+      </c>
+      <c r="L2277">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:12">
+      <c r="A2278">
+        <v>2275</v>
+      </c>
+      <c r="B2278">
+        <v>626402</v>
+      </c>
+      <c r="C2278" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2278" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2278" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2278" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2278" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2278" t="s">
+        <v>598</v>
+      </c>
+      <c r="I2278" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2278">
+        <v>1</v>
+      </c>
+      <c r="K2278">
+        <v>3545500</v>
+      </c>
+      <c r="L2278">
+        <v>3545500</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:12">
+      <c r="A2279">
+        <v>2276</v>
+      </c>
+      <c r="B2279">
+        <v>626402</v>
+      </c>
+      <c r="C2279" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2279" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2279" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2279" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2279" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2279" t="s">
+        <v>336</v>
+      </c>
+      <c r="I2279" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2279">
+        <v>1</v>
+      </c>
+      <c r="K2279">
+        <v>450000</v>
+      </c>
+      <c r="L2279">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:12">
+      <c r="A2280">
+        <v>2277</v>
+      </c>
+      <c r="B2280">
+        <v>626402</v>
+      </c>
+      <c r="C2280" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2280" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2280" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2280" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2280" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2280" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2280" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2280">
+        <v>1</v>
+      </c>
+      <c r="K2280">
+        <v>13737426</v>
+      </c>
+      <c r="L2280">
+        <v>13737426</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:12">
+      <c r="A2281">
+        <v>2278</v>
+      </c>
+      <c r="B2281">
+        <v>626402</v>
+      </c>
+      <c r="C2281" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2281" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2281" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2281" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2281" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2281" t="s">
+        <v>338</v>
+      </c>
+      <c r="I2281" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2281">
+        <v>1</v>
+      </c>
+      <c r="K2281">
+        <v>292500</v>
+      </c>
+      <c r="L2281">
+        <v>292500</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:12">
+      <c r="A2282">
+        <v>2279</v>
+      </c>
+      <c r="B2282">
+        <v>626402</v>
+      </c>
+      <c r="C2282" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2282" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2282" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2282" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2282" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2282" t="s">
+        <v>522</v>
+      </c>
+      <c r="I2282" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2282">
+        <v>1</v>
+      </c>
+      <c r="K2282">
+        <v>280000</v>
+      </c>
+      <c r="L2282">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:12">
+      <c r="A2283">
+        <v>2280</v>
+      </c>
+      <c r="B2283">
+        <v>626402</v>
+      </c>
+      <c r="C2283" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2283" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2283" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2283" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2283" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2283" t="s">
+        <v>599</v>
+      </c>
+      <c r="I2283" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2283">
+        <v>1</v>
+      </c>
+      <c r="K2283">
+        <v>433000</v>
+      </c>
+      <c r="L2283">
+        <v>433000</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:12">
+      <c r="A2284">
+        <v>2281</v>
+      </c>
+      <c r="B2284">
+        <v>626402</v>
+      </c>
+      <c r="C2284" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2284" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2284" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2284" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2284" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2284" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I2284" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2284">
+        <v>1</v>
+      </c>
+      <c r="K2284">
+        <v>4593900</v>
+      </c>
+      <c r="L2284">
+        <v>4593900</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:12">
+      <c r="A2285">
+        <v>2282</v>
+      </c>
+      <c r="B2285">
+        <v>626402</v>
+      </c>
+      <c r="C2285" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2285" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2285" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2285" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2285" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2285" t="s">
+        <v>600</v>
+      </c>
+      <c r="I2285" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2285">
+        <v>1</v>
+      </c>
+      <c r="K2285">
+        <v>12606100</v>
+      </c>
+      <c r="L2285">
+        <v>12606100</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:12">
+      <c r="A2286">
+        <v>2283</v>
+      </c>
+      <c r="B2286">
+        <v>626402</v>
+      </c>
+      <c r="C2286" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2286" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2286" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2286" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2286" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2286" t="s">
+        <v>601</v>
+      </c>
+      <c r="I2286" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2286">
+        <v>1</v>
+      </c>
+      <c r="K2286">
+        <v>12600100</v>
+      </c>
+      <c r="L2286">
+        <v>12600100</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:12">
+      <c r="A2287">
+        <v>2284</v>
+      </c>
+      <c r="B2287">
+        <v>626402</v>
+      </c>
+      <c r="C2287" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2287" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2287" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2287" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2287" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2287" t="s">
+        <v>2199</v>
+      </c>
+      <c r="I2287" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2287">
+        <v>1</v>
+      </c>
+      <c r="K2287">
+        <v>4939500</v>
+      </c>
+      <c r="L2287">
+        <v>4939500</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:12">
+      <c r="A2288">
+        <v>2285</v>
+      </c>
+      <c r="B2288">
+        <v>626402</v>
+      </c>
+      <c r="C2288" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2288" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2288" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2288" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2288" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2288" t="s">
+        <v>604</v>
+      </c>
+      <c r="I2288" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2288">
+        <v>1</v>
+      </c>
+      <c r="K2288">
+        <v>1101000</v>
+      </c>
+      <c r="L2288">
+        <v>1101000</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:12">
+      <c r="A2289">
+        <v>2286</v>
+      </c>
+      <c r="B2289">
+        <v>626402</v>
+      </c>
+      <c r="C2289" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2289" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2289" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2289" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2289" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2289" t="s">
+        <v>2316</v>
+      </c>
+      <c r="I2289" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2289">
+        <v>1</v>
+      </c>
+      <c r="K2289">
+        <v>300000</v>
+      </c>
+      <c r="L2289">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:12">
+      <c r="A2290">
+        <v>2287</v>
+      </c>
+      <c r="B2290">
+        <v>626402</v>
+      </c>
+      <c r="C2290" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2290" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2290" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2290" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2290" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2290" t="s">
+        <v>606</v>
+      </c>
+      <c r="I2290" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2290">
+        <v>1</v>
+      </c>
+      <c r="K2290">
+        <v>360000</v>
+      </c>
+      <c r="L2290">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:12">
+      <c r="A2291">
+        <v>2288</v>
+      </c>
+      <c r="B2291">
+        <v>626402</v>
+      </c>
+      <c r="C2291" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2291" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2291" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2291" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2291" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2291" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I2291" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2291">
+        <v>1</v>
+      </c>
+      <c r="K2291">
+        <v>1200000</v>
+      </c>
+      <c r="L2291">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:12">
+      <c r="A2292">
+        <v>2289</v>
+      </c>
+      <c r="B2292">
+        <v>626402</v>
+      </c>
+      <c r="C2292" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2292" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2292" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2292" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2292" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2292" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I2292" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2292">
+        <v>1</v>
+      </c>
+      <c r="K2292">
+        <v>8641244</v>
+      </c>
+      <c r="L2292">
+        <v>8641244</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:12">
+      <c r="A2293">
+        <v>2290</v>
+      </c>
+      <c r="B2293">
+        <v>626402</v>
+      </c>
+      <c r="C2293" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2293" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2293" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2293" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2293" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2293" t="s">
+        <v>607</v>
+      </c>
+      <c r="I2293" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2293">
+        <v>1</v>
+      </c>
+      <c r="K2293">
+        <v>8683700</v>
+      </c>
+      <c r="L2293">
+        <v>8683700</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:12">
+      <c r="A2294">
+        <v>2291</v>
+      </c>
+      <c r="B2294">
+        <v>626402</v>
+      </c>
+      <c r="C2294" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2294" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2294" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2294" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2294" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2294" t="s">
+        <v>2379</v>
+      </c>
+      <c r="I2294" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2294">
+        <v>1</v>
+      </c>
+      <c r="K2294">
+        <v>2000000</v>
+      </c>
+      <c r="L2294">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:12">
+      <c r="A2295">
+        <v>2292</v>
+      </c>
+      <c r="B2295">
+        <v>626402</v>
+      </c>
+      <c r="C2295" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2295" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2295" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F2295" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2295" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2295" t="s">
+        <v>2380</v>
+      </c>
+      <c r="I2295" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2295">
+        <v>1</v>
+      </c>
+      <c r="K2295">
+        <v>3150000</v>
+      </c>
+      <c r="L2295">
+        <v>3150000</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:12">
+      <c r="A2296">
+        <v>2293</v>
+      </c>
+      <c r="B2296">
+        <v>626402</v>
+      </c>
+      <c r="C2296" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2296" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2296" t="s">
+        <v>2381</v>
+      </c>
+      <c r="F2296" t="s">
+        <v>2382</v>
+      </c>
+      <c r="G2296" t="s">
+        <v>2383</v>
+      </c>
+      <c r="H2296" t="s">
+        <v>582</v>
+      </c>
+      <c r="I2296" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2296">
+        <v>1</v>
+      </c>
+      <c r="K2296">
+        <v>411700</v>
+      </c>
+      <c r="L2296">
+        <v>411700</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:12">
+      <c r="A2297">
+        <v>2294</v>
+      </c>
+      <c r="B2297">
+        <v>626402</v>
+      </c>
+      <c r="C2297" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2297" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2297" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F2297" t="s">
+        <v>2385</v>
+      </c>
+      <c r="G2297" t="s">
+        <v>2386</v>
+      </c>
+      <c r="H2297" t="s">
+        <v>582</v>
+      </c>
+      <c r="I2297" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2297">
+        <v>1</v>
+      </c>
+      <c r="K2297">
+        <v>12135840</v>
+      </c>
+      <c r="L2297">
+        <v>12135840</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:12">
+      <c r="A2298">
+        <v>2295</v>
+      </c>
+      <c r="B2298">
+        <v>626402</v>
+      </c>
+      <c r="C2298" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2298" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2298" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F2298" t="s">
+        <v>2388</v>
+      </c>
+      <c r="G2298" t="s">
+        <v>2360</v>
+      </c>
+      <c r="H2298" t="s">
+        <v>730</v>
+      </c>
+      <c r="I2298" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2298">
+        <v>1</v>
+      </c>
+      <c r="K2298">
+        <v>29381900</v>
+      </c>
+      <c r="L2298">
+        <v>29381900</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:12">
+      <c r="A2299">
+        <v>2296</v>
+      </c>
+      <c r="B2299">
+        <v>626402</v>
+      </c>
+      <c r="C2299" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2299" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2299" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F2299" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G2299" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H2299" t="s">
+        <v>765</v>
+      </c>
+      <c r="I2299" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2299">
+        <v>1</v>
+      </c>
+      <c r="K2299">
+        <v>19037070</v>
+      </c>
+      <c r="L2299">
+        <v>19037070</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:12">
+      <c r="A2300">
+        <v>2297</v>
+      </c>
+      <c r="B2300">
+        <v>626402</v>
+      </c>
+      <c r="C2300" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2300" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2300" t="s">
+        <v>2392</v>
+      </c>
+      <c r="F2300" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G2300" t="s">
+        <v>2394</v>
+      </c>
+      <c r="H2300" t="s">
+        <v>730</v>
+      </c>
+      <c r="I2300" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2300">
+        <v>1</v>
+      </c>
+      <c r="K2300">
+        <v>33523689</v>
+      </c>
+      <c r="L2300">
+        <v>33523689</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:12">
+      <c r="A2301">
+        <v>2298</v>
+      </c>
+      <c r="B2301">
+        <v>626402</v>
+      </c>
+      <c r="C2301" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2301" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2301" t="s">
+        <v>2395</v>
+      </c>
+      <c r="F2301" t="s">
+        <v>2396</v>
+      </c>
+      <c r="G2301" t="s">
+        <v>2397</v>
+      </c>
+      <c r="H2301" t="s">
+        <v>2046</v>
+      </c>
+      <c r="I2301" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2301">
+        <v>1</v>
+      </c>
+      <c r="K2301">
+        <v>68484100</v>
+      </c>
+      <c r="L2301">
+        <v>68484100</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:12">
+      <c r="A2302">
+        <v>2299</v>
+      </c>
+      <c r="B2302">
+        <v>626402</v>
+      </c>
+      <c r="C2302" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2302" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2302" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F2302" t="s">
+        <v>2399</v>
+      </c>
+      <c r="G2302" t="s">
+        <v>2400</v>
+      </c>
+      <c r="H2302" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2302" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2302">
+        <v>1</v>
+      </c>
+      <c r="K2302">
+        <v>4720178</v>
+      </c>
+      <c r="L2302">
+        <v>4720178</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:12">
+      <c r="A2303">
+        <v>2300</v>
+      </c>
+      <c r="B2303">
+        <v>626402</v>
+      </c>
+      <c r="C2303" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2303" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2303" t="s">
+        <v>2401</v>
+      </c>
+      <c r="F2303" t="s">
+        <v>2402</v>
+      </c>
+      <c r="G2303" t="s">
+        <v>2360</v>
+      </c>
+      <c r="H2303" t="s">
+        <v>730</v>
+      </c>
+      <c r="I2303" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2303">
+        <v>1</v>
+      </c>
+      <c r="K2303">
+        <v>31729000</v>
+      </c>
+      <c r="L2303">
+        <v>31729000</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:12">
+      <c r="A2304">
+        <v>2301</v>
+      </c>
+      <c r="B2304">
+        <v>626402</v>
+      </c>
+      <c r="C2304" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2304" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2304" t="s">
+        <v>2403</v>
+      </c>
+      <c r="F2304" t="s">
+        <v>2404</v>
+      </c>
+      <c r="G2304" t="s">
+        <v>2405</v>
+      </c>
+      <c r="H2304" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2304" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2304">
+        <v>1</v>
+      </c>
+      <c r="K2304">
+        <v>5449686</v>
+      </c>
+      <c r="L2304">
+        <v>5449686</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:12">
+      <c r="A2305">
+        <v>2302</v>
+      </c>
+      <c r="B2305">
+        <v>626402</v>
+      </c>
+      <c r="C2305" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2305" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2305" t="s">
+        <v>2406</v>
+      </c>
+      <c r="F2305" t="s">
+        <v>2407</v>
+      </c>
+      <c r="G2305" t="s">
+        <v>2408</v>
+      </c>
+      <c r="H2305" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2305" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2305">
+        <v>1</v>
+      </c>
+      <c r="K2305">
+        <v>3357000</v>
+      </c>
+      <c r="L2305">
+        <v>3357000</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:12">
+      <c r="A2306">
+        <v>2303</v>
+      </c>
+      <c r="B2306">
+        <v>626402</v>
+      </c>
+      <c r="C2306" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2306" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2306" t="s">
+        <v>2409</v>
+      </c>
+      <c r="F2306" t="s">
+        <v>2410</v>
+      </c>
+      <c r="G2306" t="s">
+        <v>2411</v>
+      </c>
+      <c r="H2306" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I2306" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2306">
+        <v>1</v>
+      </c>
+      <c r="K2306">
+        <v>973000</v>
+      </c>
+      <c r="L2306">
+        <v>973000</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:12">
+      <c r="A2307">
+        <v>2304</v>
+      </c>
+      <c r="B2307">
+        <v>626402</v>
+      </c>
+      <c r="C2307" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2307" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2307" t="s">
+        <v>2412</v>
+      </c>
+      <c r="F2307" t="s">
+        <v>2413</v>
+      </c>
+      <c r="G2307" t="s">
+        <v>2414</v>
+      </c>
+      <c r="H2307" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2307" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2307">
+        <v>1</v>
+      </c>
+      <c r="K2307">
+        <v>1440000</v>
+      </c>
+      <c r="L2307">
+        <v>1440000</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:12">
+      <c r="A2308">
+        <v>2305</v>
+      </c>
+      <c r="B2308">
+        <v>626402</v>
+      </c>
+      <c r="C2308" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2308" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2308" t="s">
+        <v>2415</v>
+      </c>
+      <c r="F2308" t="s">
+        <v>2416</v>
+      </c>
+      <c r="G2308" t="s">
+        <v>2417</v>
+      </c>
+      <c r="H2308" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2308" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2308">
+        <v>1</v>
+      </c>
+      <c r="K2308">
+        <v>11702552</v>
+      </c>
+      <c r="L2308">
+        <v>11702552</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:12">
+      <c r="A2309">
+        <v>2306</v>
+      </c>
+      <c r="B2309">
+        <v>626402</v>
+      </c>
+      <c r="C2309" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2309" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2309" t="s">
+        <v>2418</v>
+      </c>
+      <c r="F2309" t="s">
+        <v>2419</v>
+      </c>
+      <c r="G2309" t="s">
+        <v>2420</v>
+      </c>
+      <c r="H2309" t="s">
+        <v>765</v>
+      </c>
+      <c r="I2309" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2309">
+        <v>1</v>
+      </c>
+      <c r="K2309">
+        <v>3173000</v>
+      </c>
+      <c r="L2309">
+        <v>3173000</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:12">
+      <c r="A2310">
+        <v>2307</v>
+      </c>
+      <c r="B2310">
+        <v>626402</v>
+      </c>
+      <c r="C2310" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2310" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2310" t="s">
+        <v>2421</v>
+      </c>
+      <c r="F2310" t="s">
+        <v>2422</v>
+      </c>
+      <c r="G2310" t="s">
+        <v>2423</v>
+      </c>
+      <c r="H2310" t="s">
+        <v>307</v>
+      </c>
+      <c r="I2310" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2310">
+        <v>1</v>
+      </c>
+      <c r="K2310">
+        <v>232687713</v>
+      </c>
+      <c r="L2310">
+        <v>232687713</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:12">
+      <c r="A2311">
+        <v>2308</v>
+      </c>
+      <c r="B2311">
+        <v>626402</v>
+      </c>
+      <c r="C2311" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2311" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2311" t="s">
+        <v>2424</v>
+      </c>
+      <c r="F2311" t="s">
+        <v>2425</v>
+      </c>
+      <c r="G2311" t="s">
+        <v>2426</v>
+      </c>
+      <c r="H2311" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2311" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2311">
+        <v>1</v>
+      </c>
+      <c r="K2311">
+        <v>13297440</v>
+      </c>
+      <c r="L2311">
+        <v>13297440</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:12">
+      <c r="A2312">
+        <v>2309</v>
+      </c>
+      <c r="B2312">
+        <v>626402</v>
+      </c>
+      <c r="C2312" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2312" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2312" t="s">
+        <v>2427</v>
+      </c>
+      <c r="F2312" t="s">
+        <v>2428</v>
+      </c>
+      <c r="G2312" t="s">
+        <v>2429</v>
+      </c>
+      <c r="H2312" t="s">
+        <v>891</v>
+      </c>
+      <c r="I2312" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2312">
+        <v>1</v>
+      </c>
+      <c r="K2312">
+        <v>5751818</v>
+      </c>
+      <c r="L2312">
+        <v>5751818</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:12">
+      <c r="A2313">
+        <v>2310</v>
+      </c>
+      <c r="B2313">
+        <v>626402</v>
+      </c>
+      <c r="C2313" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2313" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2313" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F2313" t="s">
+        <v>2431</v>
+      </c>
+      <c r="G2313" t="s">
+        <v>2432</v>
+      </c>
+      <c r="H2313" t="s">
+        <v>821</v>
+      </c>
+      <c r="I2313" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2313">
+        <v>1</v>
+      </c>
+      <c r="K2313">
+        <v>10700000</v>
+      </c>
+      <c r="L2313">
+        <v>10700000</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:12">
+      <c r="A2314">
+        <v>2311</v>
+      </c>
+      <c r="B2314">
+        <v>626402</v>
+      </c>
+      <c r="C2314" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2314" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2314" t="s">
+        <v>2433</v>
+      </c>
+      <c r="F2314" t="s">
+        <v>2434</v>
+      </c>
+      <c r="G2314" t="s">
+        <v>2435</v>
+      </c>
+      <c r="H2314" t="s">
+        <v>2436</v>
+      </c>
+      <c r="I2314" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2314">
+        <v>1</v>
+      </c>
+      <c r="K2314">
+        <v>30138750</v>
+      </c>
+      <c r="L2314">
+        <v>30138750</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:12">
+      <c r="A2315">
+        <v>2312</v>
+      </c>
+      <c r="B2315">
+        <v>626402</v>
+      </c>
+      <c r="C2315" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2315" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2315" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F2315" t="s">
+        <v>2438</v>
+      </c>
+      <c r="G2315" t="s">
+        <v>2439</v>
+      </c>
+      <c r="H2315" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2315" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2315">
+        <v>1</v>
+      </c>
+      <c r="K2315">
+        <v>10000000</v>
+      </c>
+      <c r="L2315">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:12">
+      <c r="A2316">
+        <v>2313</v>
+      </c>
+      <c r="B2316">
+        <v>626402</v>
+      </c>
+      <c r="C2316" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2316" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2316" t="s">
+        <v>2440</v>
+      </c>
+      <c r="F2316" t="s">
+        <v>2441</v>
+      </c>
+      <c r="G2316" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H2316" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2316" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2316">
+        <v>1</v>
+      </c>
+      <c r="K2316">
+        <v>17476860</v>
+      </c>
+      <c r="L2316">
+        <v>17476860</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:12">
+      <c r="A2317">
+        <v>2314</v>
+      </c>
+      <c r="B2317">
+        <v>626402</v>
+      </c>
+      <c r="C2317" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2317" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2317" t="s">
+        <v>2443</v>
+      </c>
+      <c r="F2317" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G2317" t="s">
+        <v>2445</v>
+      </c>
+      <c r="H2317" t="s">
+        <v>773</v>
+      </c>
+      <c r="I2317" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2317">
+        <v>1</v>
+      </c>
+      <c r="K2317">
+        <v>4200000</v>
+      </c>
+      <c r="L2317">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:12">
+      <c r="A2318">
+        <v>2315</v>
+      </c>
+      <c r="B2318">
+        <v>626402</v>
+      </c>
+      <c r="C2318" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2318" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2318" t="s">
+        <v>2446</v>
+      </c>
+      <c r="F2318" t="s">
+        <v>2447</v>
+      </c>
+      <c r="G2318" t="s">
+        <v>2448</v>
+      </c>
+      <c r="H2318" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2318" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2318">
+        <v>1</v>
+      </c>
+      <c r="K2318">
+        <v>3604739</v>
+      </c>
+      <c r="L2318">
+        <v>3604739</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:12">
+      <c r="A2319">
+        <v>2316</v>
+      </c>
+      <c r="B2319">
+        <v>626402</v>
+      </c>
+      <c r="C2319" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2319" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2319" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2319" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2319" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2319" t="s">
+        <v>2451</v>
+      </c>
+      <c r="I2319" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2319">
+        <v>1</v>
+      </c>
+      <c r="K2319">
+        <v>255000</v>
+      </c>
+      <c r="L2319">
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:12">
+      <c r="A2320">
+        <v>2317</v>
+      </c>
+      <c r="B2320">
+        <v>626402</v>
+      </c>
+      <c r="C2320" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2320" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2320" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2320" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2320" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2320" t="s">
+        <v>2452</v>
+      </c>
+      <c r="I2320" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2320">
+        <v>1</v>
+      </c>
+      <c r="K2320">
+        <v>10800000</v>
+      </c>
+      <c r="L2320">
+        <v>10800000</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:12">
+      <c r="A2321">
+        <v>2318</v>
+      </c>
+      <c r="B2321">
+        <v>626402</v>
+      </c>
+      <c r="C2321" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2321" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2321" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2321" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2321" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2321" t="s">
+        <v>2453</v>
+      </c>
+      <c r="I2321" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2321">
+        <v>1</v>
+      </c>
+      <c r="K2321">
+        <v>1180000</v>
+      </c>
+      <c r="L2321">
+        <v>1180000</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:12">
+      <c r="A2322">
+        <v>2319</v>
+      </c>
+      <c r="B2322">
+        <v>626402</v>
+      </c>
+      <c r="C2322" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2322" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2322" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2322" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2322" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2322" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2322" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2322">
+        <v>1</v>
+      </c>
+      <c r="K2322">
+        <v>1320500</v>
+      </c>
+      <c r="L2322">
+        <v>1320500</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:12">
+      <c r="A2323">
+        <v>2320</v>
+      </c>
+      <c r="B2323">
+        <v>626402</v>
+      </c>
+      <c r="C2323" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2323" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2323" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2323" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2323" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2323" t="s">
+        <v>768</v>
+      </c>
+      <c r="I2323" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2323">
+        <v>1</v>
+      </c>
+      <c r="K2323">
+        <v>36058480</v>
+      </c>
+      <c r="L2323">
+        <v>36058480</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:12">
+      <c r="A2324">
+        <v>2321</v>
+      </c>
+      <c r="B2324">
+        <v>626402</v>
+      </c>
+      <c r="C2324" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2324" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2324" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2324" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2324" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2324" t="s">
+        <v>731</v>
+      </c>
+      <c r="I2324" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2324">
+        <v>1</v>
+      </c>
+      <c r="K2324">
+        <v>33674620</v>
+      </c>
+      <c r="L2324">
+        <v>33674620</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:12">
+      <c r="A2325">
+        <v>2322</v>
+      </c>
+      <c r="B2325">
+        <v>626402</v>
+      </c>
+      <c r="C2325" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2325" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2325" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2325" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2325" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2325" t="s">
+        <v>1546</v>
+      </c>
+      <c r="I2325" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2325">
+        <v>1</v>
+      </c>
+      <c r="K2325">
+        <v>17716440</v>
+      </c>
+      <c r="L2325">
+        <v>17716440</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:12">
+      <c r="A2326">
+        <v>2323</v>
+      </c>
+      <c r="B2326">
+        <v>626402</v>
+      </c>
+      <c r="C2326" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2326" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2326" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2326" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2326" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2326" t="s">
+        <v>909</v>
+      </c>
+      <c r="I2326" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2326">
+        <v>1</v>
+      </c>
+      <c r="K2326">
+        <v>6885000</v>
+      </c>
+      <c r="L2326">
+        <v>6885000</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:12">
+      <c r="A2327">
+        <v>2324</v>
+      </c>
+      <c r="B2327">
+        <v>626402</v>
+      </c>
+      <c r="C2327" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2327" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2327" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2327" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2327" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2327" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2327" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2327">
+        <v>1</v>
+      </c>
+      <c r="K2327">
+        <v>5656000</v>
+      </c>
+      <c r="L2327">
+        <v>5656000</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:12">
+      <c r="A2328">
+        <v>2325</v>
+      </c>
+      <c r="B2328">
+        <v>626402</v>
+      </c>
+      <c r="C2328" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2328" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2328" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2328" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2328" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2328" t="s">
+        <v>2454</v>
+      </c>
+      <c r="I2328" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2328">
+        <v>1</v>
+      </c>
+      <c r="K2328">
+        <v>16279457</v>
+      </c>
+      <c r="L2328">
+        <v>16279457</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:12">
+      <c r="A2329">
+        <v>2326</v>
+      </c>
+      <c r="B2329">
+        <v>626402</v>
+      </c>
+      <c r="C2329" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2329" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2329" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2329" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2329" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2329" t="s">
+        <v>586</v>
+      </c>
+      <c r="I2329" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2329">
+        <v>1</v>
+      </c>
+      <c r="K2329">
+        <v>300000</v>
+      </c>
+      <c r="L2329">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:12">
+      <c r="A2330">
+        <v>2327</v>
+      </c>
+      <c r="B2330">
+        <v>626402</v>
+      </c>
+      <c r="C2330" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2330" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2330" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2330" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2330" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2330" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2330" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2330">
+        <v>1</v>
+      </c>
+      <c r="K2330">
+        <v>2932200</v>
+      </c>
+      <c r="L2330">
+        <v>2932200</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:12">
+      <c r="A2331">
+        <v>2328</v>
+      </c>
+      <c r="B2331">
+        <v>626402</v>
+      </c>
+      <c r="C2331" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2331" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2331" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2331" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2331" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2331" t="s">
+        <v>910</v>
+      </c>
+      <c r="I2331" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2331">
+        <v>1</v>
+      </c>
+      <c r="K2331">
+        <v>12652560</v>
+      </c>
+      <c r="L2331">
+        <v>12652560</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:12">
+      <c r="A2332">
+        <v>2329</v>
+      </c>
+      <c r="B2332">
+        <v>626402</v>
+      </c>
+      <c r="C2332" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2332" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2332" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2332" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2332" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2332" t="s">
+        <v>2148</v>
+      </c>
+      <c r="I2332" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2332">
+        <v>1</v>
+      </c>
+      <c r="K2332">
+        <v>12052500</v>
+      </c>
+      <c r="L2332">
+        <v>12052500</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:12">
+      <c r="A2333">
+        <v>2330</v>
+      </c>
+      <c r="B2333">
+        <v>626402</v>
+      </c>
+      <c r="C2333" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2333" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2333" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2333" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2333" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2333" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2333" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2333">
+        <v>1</v>
+      </c>
+      <c r="K2333">
+        <v>9697035</v>
+      </c>
+      <c r="L2333">
+        <v>9697035</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:12">
+      <c r="A2334">
+        <v>2331</v>
+      </c>
+      <c r="B2334">
+        <v>626402</v>
+      </c>
+      <c r="C2334" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2334" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2334" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2334" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2334" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2334" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2334" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2334">
+        <v>1</v>
+      </c>
+      <c r="K2334">
+        <v>130000</v>
+      </c>
+      <c r="L2334">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:12">
+      <c r="A2335">
+        <v>2332</v>
+      </c>
+      <c r="B2335">
+        <v>626402</v>
+      </c>
+      <c r="C2335" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2335" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2335" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2335" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2335" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2335" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2335" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2335">
+        <v>1</v>
+      </c>
+      <c r="K2335">
+        <v>300000</v>
+      </c>
+      <c r="L2335">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:12">
+      <c r="A2336">
+        <v>2333</v>
+      </c>
+      <c r="B2336">
+        <v>626402</v>
+      </c>
+      <c r="C2336" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2336" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2336" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2336" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2336" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2336" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2336" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2336">
+        <v>1</v>
+      </c>
+      <c r="K2336">
+        <v>750000</v>
+      </c>
+      <c r="L2336">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:12">
+      <c r="A2337">
+        <v>2334</v>
+      </c>
+      <c r="B2337">
+        <v>626402</v>
+      </c>
+      <c r="C2337" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2337" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2337" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2337" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2337" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2337" t="s">
+        <v>911</v>
+      </c>
+      <c r="I2337" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2337">
+        <v>1</v>
+      </c>
+      <c r="K2337">
+        <v>1350000</v>
+      </c>
+      <c r="L2337">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:12">
+      <c r="A2338">
+        <v>2335</v>
+      </c>
+      <c r="B2338">
+        <v>626402</v>
+      </c>
+      <c r="C2338" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2338" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2338" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2338" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2338" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2338" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2338" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2338">
+        <v>1</v>
+      </c>
+      <c r="K2338">
+        <v>840000</v>
+      </c>
+      <c r="L2338">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:12">
+      <c r="A2339">
+        <v>2336</v>
+      </c>
+      <c r="B2339">
+        <v>626402</v>
+      </c>
+      <c r="C2339" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2339" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2339" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F2339" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G2339" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2339" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2339" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2339">
+        <v>1</v>
+      </c>
+      <c r="K2339">
+        <v>1200000</v>
+      </c>
+      <c r="L2339">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:12">
+      <c r="A2340">
+        <v>2337</v>
+      </c>
+      <c r="B2340">
+        <v>626402</v>
+      </c>
+      <c r="C2340" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2340" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2340" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2340" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2340" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2340" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2340" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2340">
+        <v>1</v>
+      </c>
+      <c r="K2340">
+        <v>9022500</v>
+      </c>
+      <c r="L2340">
+        <v>9022500</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:12">
+      <c r="A2341">
+        <v>2338</v>
+      </c>
+      <c r="B2341">
+        <v>626402</v>
+      </c>
+      <c r="C2341" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2341" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2341" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2341" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2341" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2341" t="s">
+        <v>2457</v>
+      </c>
+      <c r="I2341" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2341">
+        <v>1</v>
+      </c>
+      <c r="K2341">
+        <v>20620280</v>
+      </c>
+      <c r="L2341">
+        <v>20620280</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:12">
+      <c r="A2342">
+        <v>2339</v>
+      </c>
+      <c r="B2342">
+        <v>626402</v>
+      </c>
+      <c r="C2342" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2342" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2342" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2342" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2342" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2342" t="s">
+        <v>582</v>
+      </c>
+      <c r="I2342" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2342">
+        <v>1</v>
+      </c>
+      <c r="K2342">
+        <v>19639260</v>
+      </c>
+      <c r="L2342">
+        <v>19639260</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:12">
+      <c r="A2343">
+        <v>2340</v>
+      </c>
+      <c r="B2343">
+        <v>626402</v>
+      </c>
+      <c r="C2343" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2343" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2343" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2343" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2343" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2343" t="s">
+        <v>584</v>
+      </c>
+      <c r="I2343" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2343">
+        <v>1</v>
+      </c>
+      <c r="K2343">
+        <v>3226000</v>
+      </c>
+      <c r="L2343">
+        <v>3226000</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:12">
+      <c r="A2344">
+        <v>2341</v>
+      </c>
+      <c r="B2344">
+        <v>626402</v>
+      </c>
+      <c r="C2344" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2344" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2344" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2344" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2344" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2344" t="s">
+        <v>729</v>
+      </c>
+      <c r="I2344" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2344">
+        <v>1</v>
+      </c>
+      <c r="K2344">
+        <v>785000</v>
+      </c>
+      <c r="L2344">
+        <v>785000</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:12">
+      <c r="A2345">
+        <v>2342</v>
+      </c>
+      <c r="B2345">
+        <v>626402</v>
+      </c>
+      <c r="C2345" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2345" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2345" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2345" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2345" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2345" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I2345" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2345">
+        <v>1</v>
+      </c>
+      <c r="K2345">
+        <v>8544680</v>
+      </c>
+      <c r="L2345">
+        <v>8544680</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:12">
+      <c r="A2346">
+        <v>2343</v>
+      </c>
+      <c r="B2346">
+        <v>626402</v>
+      </c>
+      <c r="C2346" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2346" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2346" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2346" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2346" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2346" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2346" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2346">
+        <v>1</v>
+      </c>
+      <c r="K2346">
+        <v>42630220</v>
+      </c>
+      <c r="L2346">
+        <v>42630220</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:12">
+      <c r="A2347">
+        <v>2344</v>
+      </c>
+      <c r="B2347">
+        <v>626402</v>
+      </c>
+      <c r="C2347" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2347" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2347" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2347" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2347" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2347" t="s">
+        <v>763</v>
+      </c>
+      <c r="I2347" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2347">
+        <v>1</v>
+      </c>
+      <c r="K2347">
+        <v>4224000</v>
+      </c>
+      <c r="L2347">
+        <v>4224000</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:12">
+      <c r="A2348">
+        <v>2345</v>
+      </c>
+      <c r="B2348">
+        <v>626402</v>
+      </c>
+      <c r="C2348" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2348" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2348" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2348" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2348" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2348" t="s">
+        <v>816</v>
+      </c>
+      <c r="I2348" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2348">
+        <v>1</v>
+      </c>
+      <c r="K2348">
+        <v>8472080</v>
+      </c>
+      <c r="L2348">
+        <v>8472080</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:12">
+      <c r="A2349">
+        <v>2346</v>
+      </c>
+      <c r="B2349">
+        <v>626402</v>
+      </c>
+      <c r="C2349" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2349" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2349" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2349" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2349" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2349" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I2349" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2349">
+        <v>1</v>
+      </c>
+      <c r="K2349">
+        <v>6474200</v>
+      </c>
+      <c r="L2349">
+        <v>6474200</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:12">
+      <c r="A2350">
+        <v>2347</v>
+      </c>
+      <c r="B2350">
+        <v>626402</v>
+      </c>
+      <c r="C2350" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2350" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2350" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2350" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2350" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2350" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I2350" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2350">
+        <v>1</v>
+      </c>
+      <c r="K2350">
+        <v>11063599</v>
+      </c>
+      <c r="L2350">
+        <v>11063599</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:12">
+      <c r="A2351">
+        <v>2348</v>
+      </c>
+      <c r="B2351">
+        <v>626402</v>
+      </c>
+      <c r="C2351" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2351" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2351" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2351" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2351" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2351" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I2351" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2351">
+        <v>1</v>
+      </c>
+      <c r="K2351">
+        <v>1656920</v>
+      </c>
+      <c r="L2351">
+        <v>1656920</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:12">
+      <c r="A2352">
         <v>2349</v>
       </c>
-      <c r="G2258" t="s">
+      <c r="B2352">
+        <v>626402</v>
+      </c>
+      <c r="C2352" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2352" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2352" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2352" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2352" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2352" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2352" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2352">
+        <v>1</v>
+      </c>
+      <c r="K2352">
+        <v>2411600</v>
+      </c>
+      <c r="L2352">
+        <v>2411600</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:12">
+      <c r="A2353">
         <v>2350</v>
       </c>
-      <c r="H2258" t="s">
-        <v>299</v>
-      </c>
-      <c r="I2258" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2258">
-        <v>1</v>
-      </c>
-      <c r="K2258">
-        <v>204638726</v>
-      </c>
-      <c r="L2258">
-        <v>204638726</v>
+      <c r="B2353">
+        <v>626402</v>
+      </c>
+      <c r="C2353" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2353" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2353" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2353" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2353" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2353" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2353" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2353">
+        <v>1</v>
+      </c>
+      <c r="K2353">
+        <v>27447287</v>
+      </c>
+      <c r="L2353">
+        <v>27447287</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:12">
+      <c r="A2354">
+        <v>2351</v>
+      </c>
+      <c r="B2354">
+        <v>626402</v>
+      </c>
+      <c r="C2354" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2354" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2354" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2354" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2354" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2354" t="s">
+        <v>765</v>
+      </c>
+      <c r="I2354" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2354">
+        <v>1</v>
+      </c>
+      <c r="K2354">
+        <v>24556740</v>
+      </c>
+      <c r="L2354">
+        <v>24556740</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:12">
+      <c r="A2355">
+        <v>2352</v>
+      </c>
+      <c r="B2355">
+        <v>626402</v>
+      </c>
+      <c r="C2355" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2355" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2355" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2355" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2355" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2355" t="s">
+        <v>769</v>
+      </c>
+      <c r="I2355" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2355">
+        <v>1</v>
+      </c>
+      <c r="K2355">
+        <v>650000</v>
+      </c>
+      <c r="L2355">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:12">
+      <c r="A2356">
+        <v>2353</v>
+      </c>
+      <c r="B2356">
+        <v>626402</v>
+      </c>
+      <c r="C2356" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2356" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2356" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2356" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2356" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2356" t="s">
+        <v>770</v>
+      </c>
+      <c r="I2356" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2356">
+        <v>1</v>
+      </c>
+      <c r="K2356">
+        <v>600000</v>
+      </c>
+      <c r="L2356">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:12">
+      <c r="A2357">
+        <v>2354</v>
+      </c>
+      <c r="B2357">
+        <v>626402</v>
+      </c>
+      <c r="C2357" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2357" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2357" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2357" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2357" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2357" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2357" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2357">
+        <v>1</v>
+      </c>
+      <c r="K2357">
+        <v>2700000</v>
+      </c>
+      <c r="L2357">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:12">
+      <c r="A2358">
+        <v>2355</v>
+      </c>
+      <c r="B2358">
+        <v>626402</v>
+      </c>
+      <c r="C2358" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2358" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2358" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2358" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2358" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2358" t="s">
+        <v>401</v>
+      </c>
+      <c r="I2358" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2358">
+        <v>1</v>
+      </c>
+      <c r="K2358">
+        <v>1430000</v>
+      </c>
+      <c r="L2358">
+        <v>1430000</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:12">
+      <c r="A2359">
+        <v>2356</v>
+      </c>
+      <c r="B2359">
+        <v>626402</v>
+      </c>
+      <c r="C2359" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2359" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2359" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2359" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G2359" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2359" t="s">
+        <v>773</v>
+      </c>
+      <c r="I2359" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2359">
+        <v>1</v>
+      </c>
+      <c r="K2359">
+        <v>150000</v>
+      </c>
+      <c r="L2359">
+        <v>150000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2490">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -7280,6 +7280,18 @@
     <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:B.2290/BRSDM.1/KP.440/V/2023 Tanggal 4 Mei 2023</t>
   </si>
   <si>
+    <t>2023-06-13</t>
+  </si>
+  <si>
+    <t>'00552T</t>
+  </si>
+  <si>
+    <t>'231751303013631</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.823/BRSDM.5/KP.440/V/2023.Tanggal 15 Mei 2023.</t>
+  </si>
+  <si>
     <t>'00553T</t>
   </si>
   <si>
@@ -7389,6 +7401,90 @@
   </si>
   <si>
     <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.956.101.0B.000204</t>
+  </si>
+  <si>
+    <t>'00564T</t>
+  </si>
+  <si>
+    <t>'231751701003393</t>
+  </si>
+  <si>
+    <t>Pertanggungjawaban Tambahan Uang Persediaan untuk Keperluan Belanja Barang.</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0D.000890</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.102.0C.001215</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.102.0C.001216</t>
+  </si>
+  <si>
+    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001403</t>
+  </si>
+  <si>
+    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001404</t>
+  </si>
+  <si>
+    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001405</t>
+  </si>
+  <si>
+    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001407</t>
+  </si>
+  <si>
+    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001409</t>
+  </si>
+  <si>
+    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001410</t>
+  </si>
+  <si>
+    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001411</t>
+  </si>
+  <si>
+    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001412</t>
+  </si>
+  <si>
+    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001413</t>
+  </si>
+  <si>
+    <t>'626402.175.521241.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0D.000896</t>
+  </si>
+  <si>
+    <t>'626402.175.522191.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.102.0C.001222</t>
+  </si>
+  <si>
+    <t>'626402.175.522191.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.102.0C.001223</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.102.0A.000814</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0C.000878</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0A.000852</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.103.0B.000838</t>
+  </si>
+  <si>
+    <t>'00568T</t>
+  </si>
+  <si>
+    <t>'231751701003394</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0A.000844</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0B.000859</t>
+  </si>
+  <si>
+    <t>'626402.175.521241.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0D.000897</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0B.000865</t>
   </si>
 </sst>
 </file>
@@ -7730,7 +7826,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L2359"/>
+  <dimension ref="A1:L2428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -95423,19 +95519,19 @@
         <v>13</v>
       </c>
       <c r="D2310" t="s">
-        <v>2249</v>
+        <v>2421</v>
       </c>
       <c r="E2310" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="F2310" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="G2310" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="H2310" t="s">
-        <v>307</v>
+        <v>140</v>
       </c>
       <c r="I2310" t="s">
         <v>19</v>
@@ -95444,10 +95540,10 @@
         <v>1</v>
       </c>
       <c r="K2310">
-        <v>232687713</v>
+        <v>8203880</v>
       </c>
       <c r="L2310">
-        <v>232687713</v>
+        <v>8203880</v>
       </c>
     </row>
     <row r="2311" spans="1:12">
@@ -95461,19 +95557,19 @@
         <v>13</v>
       </c>
       <c r="D2311" t="s">
-        <v>2348</v>
+        <v>2249</v>
       </c>
       <c r="E2311" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="F2311" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="G2311" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="H2311" t="s">
-        <v>140</v>
+        <v>307</v>
       </c>
       <c r="I2311" t="s">
         <v>19</v>
@@ -95482,10 +95578,10 @@
         <v>1</v>
       </c>
       <c r="K2311">
-        <v>13297440</v>
+        <v>232687713</v>
       </c>
       <c r="L2311">
-        <v>13297440</v>
+        <v>232687713</v>
       </c>
     </row>
     <row r="2312" spans="1:12">
@@ -95502,16 +95598,16 @@
         <v>2348</v>
       </c>
       <c r="E2312" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="F2312" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="G2312" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="H2312" t="s">
-        <v>891</v>
+        <v>140</v>
       </c>
       <c r="I2312" t="s">
         <v>19</v>
@@ -95520,10 +95616,10 @@
         <v>1</v>
       </c>
       <c r="K2312">
-        <v>5751818</v>
+        <v>13297440</v>
       </c>
       <c r="L2312">
-        <v>5751818</v>
+        <v>13297440</v>
       </c>
     </row>
     <row r="2313" spans="1:12">
@@ -95540,16 +95636,16 @@
         <v>2348</v>
       </c>
       <c r="E2313" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="F2313" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="G2313" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="H2313" t="s">
-        <v>821</v>
+        <v>891</v>
       </c>
       <c r="I2313" t="s">
         <v>19</v>
@@ -95558,10 +95654,10 @@
         <v>1</v>
       </c>
       <c r="K2313">
-        <v>10700000</v>
+        <v>5751818</v>
       </c>
       <c r="L2313">
-        <v>10700000</v>
+        <v>5751818</v>
       </c>
     </row>
     <row r="2314" spans="1:12">
@@ -95578,16 +95674,16 @@
         <v>2348</v>
       </c>
       <c r="E2314" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="F2314" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="G2314" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="H2314" t="s">
-        <v>2436</v>
+        <v>821</v>
       </c>
       <c r="I2314" t="s">
         <v>19</v>
@@ -95596,10 +95692,10 @@
         <v>1</v>
       </c>
       <c r="K2314">
-        <v>30138750</v>
+        <v>10700000</v>
       </c>
       <c r="L2314">
-        <v>30138750</v>
+        <v>10700000</v>
       </c>
     </row>
     <row r="2315" spans="1:12">
@@ -95625,7 +95721,7 @@
         <v>2439</v>
       </c>
       <c r="H2315" t="s">
-        <v>157</v>
+        <v>2440</v>
       </c>
       <c r="I2315" t="s">
         <v>19</v>
@@ -95634,10 +95730,10 @@
         <v>1</v>
       </c>
       <c r="K2315">
-        <v>10000000</v>
+        <v>30138750</v>
       </c>
       <c r="L2315">
-        <v>10000000</v>
+        <v>30138750</v>
       </c>
     </row>
     <row r="2316" spans="1:12">
@@ -95654,16 +95750,16 @@
         <v>2348</v>
       </c>
       <c r="E2316" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="F2316" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="G2316" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="H2316" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="I2316" t="s">
         <v>19</v>
@@ -95672,10 +95768,10 @@
         <v>1</v>
       </c>
       <c r="K2316">
-        <v>17476860</v>
+        <v>10000000</v>
       </c>
       <c r="L2316">
-        <v>17476860</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="2317" spans="1:12">
@@ -95692,16 +95788,16 @@
         <v>2348</v>
       </c>
       <c r="E2317" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="F2317" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="G2317" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="H2317" t="s">
-        <v>773</v>
+        <v>112</v>
       </c>
       <c r="I2317" t="s">
         <v>19</v>
@@ -95710,10 +95806,10 @@
         <v>1</v>
       </c>
       <c r="K2317">
-        <v>4200000</v>
+        <v>17476860</v>
       </c>
       <c r="L2317">
-        <v>4200000</v>
+        <v>17476860</v>
       </c>
     </row>
     <row r="2318" spans="1:12">
@@ -95730,16 +95826,16 @@
         <v>2348</v>
       </c>
       <c r="E2318" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="F2318" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="G2318" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="H2318" t="s">
-        <v>102</v>
+        <v>773</v>
       </c>
       <c r="I2318" t="s">
         <v>19</v>
@@ -95748,10 +95844,10 @@
         <v>1</v>
       </c>
       <c r="K2318">
-        <v>3604739</v>
+        <v>4200000</v>
       </c>
       <c r="L2318">
-        <v>3604739</v>
+        <v>4200000</v>
       </c>
     </row>
     <row r="2319" spans="1:12">
@@ -95765,19 +95861,19 @@
         <v>13</v>
       </c>
       <c r="D2319" t="s">
-        <v>2249</v>
+        <v>2348</v>
       </c>
       <c r="E2319" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="F2319" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="G2319" t="s">
-        <v>1536</v>
+        <v>2452</v>
       </c>
       <c r="H2319" t="s">
-        <v>2451</v>
+        <v>102</v>
       </c>
       <c r="I2319" t="s">
         <v>19</v>
@@ -95786,10 +95882,10 @@
         <v>1</v>
       </c>
       <c r="K2319">
-        <v>255000</v>
+        <v>3604739</v>
       </c>
       <c r="L2319">
-        <v>255000</v>
+        <v>3604739</v>
       </c>
     </row>
     <row r="2320" spans="1:12">
@@ -95806,16 +95902,16 @@
         <v>2249</v>
       </c>
       <c r="E2320" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2320" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2320" t="s">
         <v>1536</v>
       </c>
       <c r="H2320" t="s">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="I2320" t="s">
         <v>19</v>
@@ -95824,10 +95920,10 @@
         <v>1</v>
       </c>
       <c r="K2320">
-        <v>10800000</v>
+        <v>255000</v>
       </c>
       <c r="L2320">
-        <v>10800000</v>
+        <v>255000</v>
       </c>
     </row>
     <row r="2321" spans="1:12">
@@ -95844,16 +95940,16 @@
         <v>2249</v>
       </c>
       <c r="E2321" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2321" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2321" t="s">
         <v>1536</v>
       </c>
       <c r="H2321" t="s">
-        <v>2453</v>
+        <v>2456</v>
       </c>
       <c r="I2321" t="s">
         <v>19</v>
@@ -95862,10 +95958,10 @@
         <v>1</v>
       </c>
       <c r="K2321">
-        <v>1180000</v>
+        <v>10800000</v>
       </c>
       <c r="L2321">
-        <v>1180000</v>
+        <v>10800000</v>
       </c>
     </row>
     <row r="2322" spans="1:12">
@@ -95882,16 +95978,16 @@
         <v>2249</v>
       </c>
       <c r="E2322" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2322" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2322" t="s">
         <v>1536</v>
       </c>
       <c r="H2322" t="s">
-        <v>102</v>
+        <v>2457</v>
       </c>
       <c r="I2322" t="s">
         <v>19</v>
@@ -95900,10 +95996,10 @@
         <v>1</v>
       </c>
       <c r="K2322">
-        <v>1320500</v>
+        <v>1180000</v>
       </c>
       <c r="L2322">
-        <v>1320500</v>
+        <v>1180000</v>
       </c>
     </row>
     <row r="2323" spans="1:12">
@@ -95920,16 +96016,16 @@
         <v>2249</v>
       </c>
       <c r="E2323" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2323" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2323" t="s">
         <v>1536</v>
       </c>
       <c r="H2323" t="s">
-        <v>768</v>
+        <v>102</v>
       </c>
       <c r="I2323" t="s">
         <v>19</v>
@@ -95938,10 +96034,10 @@
         <v>1</v>
       </c>
       <c r="K2323">
-        <v>36058480</v>
+        <v>1320500</v>
       </c>
       <c r="L2323">
-        <v>36058480</v>
+        <v>1320500</v>
       </c>
     </row>
     <row r="2324" spans="1:12">
@@ -95958,16 +96054,16 @@
         <v>2249</v>
       </c>
       <c r="E2324" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2324" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2324" t="s">
         <v>1536</v>
       </c>
       <c r="H2324" t="s">
-        <v>731</v>
+        <v>768</v>
       </c>
       <c r="I2324" t="s">
         <v>19</v>
@@ -95976,10 +96072,10 @@
         <v>1</v>
       </c>
       <c r="K2324">
-        <v>33674620</v>
+        <v>36058480</v>
       </c>
       <c r="L2324">
-        <v>33674620</v>
+        <v>36058480</v>
       </c>
     </row>
     <row r="2325" spans="1:12">
@@ -95996,16 +96092,16 @@
         <v>2249</v>
       </c>
       <c r="E2325" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2325" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2325" t="s">
         <v>1536</v>
       </c>
       <c r="H2325" t="s">
-        <v>1546</v>
+        <v>731</v>
       </c>
       <c r="I2325" t="s">
         <v>19</v>
@@ -96014,10 +96110,10 @@
         <v>1</v>
       </c>
       <c r="K2325">
-        <v>17716440</v>
+        <v>33674620</v>
       </c>
       <c r="L2325">
-        <v>17716440</v>
+        <v>33674620</v>
       </c>
     </row>
     <row r="2326" spans="1:12">
@@ -96034,16 +96130,16 @@
         <v>2249</v>
       </c>
       <c r="E2326" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2326" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2326" t="s">
         <v>1536</v>
       </c>
       <c r="H2326" t="s">
-        <v>909</v>
+        <v>1546</v>
       </c>
       <c r="I2326" t="s">
         <v>19</v>
@@ -96052,10 +96148,10 @@
         <v>1</v>
       </c>
       <c r="K2326">
-        <v>6885000</v>
+        <v>17716440</v>
       </c>
       <c r="L2326">
-        <v>6885000</v>
+        <v>17716440</v>
       </c>
     </row>
     <row r="2327" spans="1:12">
@@ -96072,16 +96168,16 @@
         <v>2249</v>
       </c>
       <c r="E2327" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2327" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2327" t="s">
         <v>1536</v>
       </c>
       <c r="H2327" t="s">
-        <v>149</v>
+        <v>909</v>
       </c>
       <c r="I2327" t="s">
         <v>19</v>
@@ -96090,10 +96186,10 @@
         <v>1</v>
       </c>
       <c r="K2327">
-        <v>5656000</v>
+        <v>6885000</v>
       </c>
       <c r="L2327">
-        <v>5656000</v>
+        <v>6885000</v>
       </c>
     </row>
     <row r="2328" spans="1:12">
@@ -96110,16 +96206,16 @@
         <v>2249</v>
       </c>
       <c r="E2328" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2328" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2328" t="s">
         <v>1536</v>
       </c>
       <c r="H2328" t="s">
-        <v>2454</v>
+        <v>149</v>
       </c>
       <c r="I2328" t="s">
         <v>19</v>
@@ -96128,10 +96224,10 @@
         <v>1</v>
       </c>
       <c r="K2328">
-        <v>16279457</v>
+        <v>5656000</v>
       </c>
       <c r="L2328">
-        <v>16279457</v>
+        <v>5656000</v>
       </c>
     </row>
     <row r="2329" spans="1:12">
@@ -96148,16 +96244,16 @@
         <v>2249</v>
       </c>
       <c r="E2329" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2329" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2329" t="s">
         <v>1536</v>
       </c>
       <c r="H2329" t="s">
-        <v>586</v>
+        <v>2458</v>
       </c>
       <c r="I2329" t="s">
         <v>19</v>
@@ -96166,10 +96262,10 @@
         <v>1</v>
       </c>
       <c r="K2329">
-        <v>300000</v>
+        <v>16279457</v>
       </c>
       <c r="L2329">
-        <v>300000</v>
+        <v>16279457</v>
       </c>
     </row>
     <row r="2330" spans="1:12">
@@ -96186,16 +96282,16 @@
         <v>2249</v>
       </c>
       <c r="E2330" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2330" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2330" t="s">
         <v>1536</v>
       </c>
       <c r="H2330" t="s">
-        <v>95</v>
+        <v>586</v>
       </c>
       <c r="I2330" t="s">
         <v>19</v>
@@ -96204,10 +96300,10 @@
         <v>1</v>
       </c>
       <c r="K2330">
-        <v>2932200</v>
+        <v>300000</v>
       </c>
       <c r="L2330">
-        <v>2932200</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="2331" spans="1:12">
@@ -96224,16 +96320,16 @@
         <v>2249</v>
       </c>
       <c r="E2331" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2331" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2331" t="s">
         <v>1536</v>
       </c>
       <c r="H2331" t="s">
-        <v>910</v>
+        <v>95</v>
       </c>
       <c r="I2331" t="s">
         <v>19</v>
@@ -96242,10 +96338,10 @@
         <v>1</v>
       </c>
       <c r="K2331">
-        <v>12652560</v>
+        <v>2932200</v>
       </c>
       <c r="L2331">
-        <v>12652560</v>
+        <v>2932200</v>
       </c>
     </row>
     <row r="2332" spans="1:12">
@@ -96262,16 +96358,16 @@
         <v>2249</v>
       </c>
       <c r="E2332" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2332" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2332" t="s">
         <v>1536</v>
       </c>
       <c r="H2332" t="s">
-        <v>2148</v>
+        <v>910</v>
       </c>
       <c r="I2332" t="s">
         <v>19</v>
@@ -96280,10 +96376,10 @@
         <v>1</v>
       </c>
       <c r="K2332">
-        <v>12052500</v>
+        <v>12652560</v>
       </c>
       <c r="L2332">
-        <v>12052500</v>
+        <v>12652560</v>
       </c>
     </row>
     <row r="2333" spans="1:12">
@@ -96300,16 +96396,16 @@
         <v>2249</v>
       </c>
       <c r="E2333" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2333" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2333" t="s">
         <v>1536</v>
       </c>
       <c r="H2333" t="s">
-        <v>197</v>
+        <v>2148</v>
       </c>
       <c r="I2333" t="s">
         <v>19</v>
@@ -96318,10 +96414,10 @@
         <v>1</v>
       </c>
       <c r="K2333">
-        <v>9697035</v>
+        <v>12052500</v>
       </c>
       <c r="L2333">
-        <v>9697035</v>
+        <v>12052500</v>
       </c>
     </row>
     <row r="2334" spans="1:12">
@@ -96338,16 +96434,16 @@
         <v>2249</v>
       </c>
       <c r="E2334" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2334" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2334" t="s">
         <v>1536</v>
       </c>
       <c r="H2334" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I2334" t="s">
         <v>19</v>
@@ -96356,10 +96452,10 @@
         <v>1</v>
       </c>
       <c r="K2334">
-        <v>130000</v>
+        <v>9697035</v>
       </c>
       <c r="L2334">
-        <v>130000</v>
+        <v>9697035</v>
       </c>
     </row>
     <row r="2335" spans="1:12">
@@ -96376,16 +96472,16 @@
         <v>2249</v>
       </c>
       <c r="E2335" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2335" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2335" t="s">
         <v>1536</v>
       </c>
       <c r="H2335" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I2335" t="s">
         <v>19</v>
@@ -96394,10 +96490,10 @@
         <v>1</v>
       </c>
       <c r="K2335">
-        <v>300000</v>
+        <v>130000</v>
       </c>
       <c r="L2335">
-        <v>300000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="2336" spans="1:12">
@@ -96414,16 +96510,16 @@
         <v>2249</v>
       </c>
       <c r="E2336" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2336" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2336" t="s">
         <v>1536</v>
       </c>
       <c r="H2336" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I2336" t="s">
         <v>19</v>
@@ -96432,10 +96528,10 @@
         <v>1</v>
       </c>
       <c r="K2336">
-        <v>750000</v>
+        <v>300000</v>
       </c>
       <c r="L2336">
-        <v>750000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="2337" spans="1:12">
@@ -96452,16 +96548,16 @@
         <v>2249</v>
       </c>
       <c r="E2337" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2337" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2337" t="s">
         <v>1536</v>
       </c>
       <c r="H2337" t="s">
-        <v>911</v>
+        <v>190</v>
       </c>
       <c r="I2337" t="s">
         <v>19</v>
@@ -96470,10 +96566,10 @@
         <v>1</v>
       </c>
       <c r="K2337">
-        <v>1350000</v>
+        <v>750000</v>
       </c>
       <c r="L2337">
-        <v>1350000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="2338" spans="1:12">
@@ -96490,16 +96586,16 @@
         <v>2249</v>
       </c>
       <c r="E2338" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2338" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2338" t="s">
         <v>1536</v>
       </c>
       <c r="H2338" t="s">
-        <v>193</v>
+        <v>911</v>
       </c>
       <c r="I2338" t="s">
         <v>19</v>
@@ -96508,10 +96604,10 @@
         <v>1</v>
       </c>
       <c r="K2338">
-        <v>840000</v>
+        <v>1350000</v>
       </c>
       <c r="L2338">
-        <v>840000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="2339" spans="1:12">
@@ -96528,16 +96624,16 @@
         <v>2249</v>
       </c>
       <c r="E2339" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F2339" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="G2339" t="s">
         <v>1536</v>
       </c>
       <c r="H2339" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="I2339" t="s">
         <v>19</v>
@@ -96546,10 +96642,10 @@
         <v>1</v>
       </c>
       <c r="K2339">
-        <v>1200000</v>
+        <v>840000</v>
       </c>
       <c r="L2339">
-        <v>1200000</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="2340" spans="1:12">
@@ -96566,16 +96662,16 @@
         <v>2249</v>
       </c>
       <c r="E2340" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="F2340" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="G2340" t="s">
         <v>1536</v>
       </c>
       <c r="H2340" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I2340" t="s">
         <v>19</v>
@@ -96584,10 +96680,10 @@
         <v>1</v>
       </c>
       <c r="K2340">
-        <v>9022500</v>
+        <v>1200000</v>
       </c>
       <c r="L2340">
-        <v>9022500</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="2341" spans="1:12">
@@ -96604,16 +96700,16 @@
         <v>2249</v>
       </c>
       <c r="E2341" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2341" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2341" t="s">
         <v>1536</v>
       </c>
       <c r="H2341" t="s">
-        <v>2457</v>
+        <v>119</v>
       </c>
       <c r="I2341" t="s">
         <v>19</v>
@@ -96622,10 +96718,10 @@
         <v>1</v>
       </c>
       <c r="K2341">
-        <v>20620280</v>
+        <v>9022500</v>
       </c>
       <c r="L2341">
-        <v>20620280</v>
+        <v>9022500</v>
       </c>
     </row>
     <row r="2342" spans="1:12">
@@ -96642,16 +96738,16 @@
         <v>2249</v>
       </c>
       <c r="E2342" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2342" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2342" t="s">
         <v>1536</v>
       </c>
       <c r="H2342" t="s">
-        <v>582</v>
+        <v>2461</v>
       </c>
       <c r="I2342" t="s">
         <v>19</v>
@@ -96660,10 +96756,10 @@
         <v>1</v>
       </c>
       <c r="K2342">
-        <v>19639260</v>
+        <v>20620280</v>
       </c>
       <c r="L2342">
-        <v>19639260</v>
+        <v>20620280</v>
       </c>
     </row>
     <row r="2343" spans="1:12">
@@ -96680,16 +96776,16 @@
         <v>2249</v>
       </c>
       <c r="E2343" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2343" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2343" t="s">
         <v>1536</v>
       </c>
       <c r="H2343" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I2343" t="s">
         <v>19</v>
@@ -96698,10 +96794,10 @@
         <v>1</v>
       </c>
       <c r="K2343">
-        <v>3226000</v>
+        <v>19639260</v>
       </c>
       <c r="L2343">
-        <v>3226000</v>
+        <v>19639260</v>
       </c>
     </row>
     <row r="2344" spans="1:12">
@@ -96718,16 +96814,16 @@
         <v>2249</v>
       </c>
       <c r="E2344" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2344" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2344" t="s">
         <v>1536</v>
       </c>
       <c r="H2344" t="s">
-        <v>729</v>
+        <v>584</v>
       </c>
       <c r="I2344" t="s">
         <v>19</v>
@@ -96736,10 +96832,10 @@
         <v>1</v>
       </c>
       <c r="K2344">
-        <v>785000</v>
+        <v>3226000</v>
       </c>
       <c r="L2344">
-        <v>785000</v>
+        <v>3226000</v>
       </c>
     </row>
     <row r="2345" spans="1:12">
@@ -96756,16 +96852,16 @@
         <v>2249</v>
       </c>
       <c r="E2345" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2345" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2345" t="s">
         <v>1536</v>
       </c>
       <c r="H2345" t="s">
-        <v>1217</v>
+        <v>729</v>
       </c>
       <c r="I2345" t="s">
         <v>19</v>
@@ -96774,10 +96870,10 @@
         <v>1</v>
       </c>
       <c r="K2345">
-        <v>8544680</v>
+        <v>785000</v>
       </c>
       <c r="L2345">
-        <v>8544680</v>
+        <v>785000</v>
       </c>
     </row>
     <row r="2346" spans="1:12">
@@ -96794,16 +96890,16 @@
         <v>2249</v>
       </c>
       <c r="E2346" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2346" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2346" t="s">
         <v>1536</v>
       </c>
       <c r="H2346" t="s">
-        <v>112</v>
+        <v>1217</v>
       </c>
       <c r="I2346" t="s">
         <v>19</v>
@@ -96812,10 +96908,10 @@
         <v>1</v>
       </c>
       <c r="K2346">
-        <v>42630220</v>
+        <v>8544680</v>
       </c>
       <c r="L2346">
-        <v>42630220</v>
+        <v>8544680</v>
       </c>
     </row>
     <row r="2347" spans="1:12">
@@ -96832,16 +96928,16 @@
         <v>2249</v>
       </c>
       <c r="E2347" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2347" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2347" t="s">
         <v>1536</v>
       </c>
       <c r="H2347" t="s">
-        <v>763</v>
+        <v>112</v>
       </c>
       <c r="I2347" t="s">
         <v>19</v>
@@ -96850,10 +96946,10 @@
         <v>1</v>
       </c>
       <c r="K2347">
-        <v>4224000</v>
+        <v>42630220</v>
       </c>
       <c r="L2347">
-        <v>4224000</v>
+        <v>42630220</v>
       </c>
     </row>
     <row r="2348" spans="1:12">
@@ -96870,16 +96966,16 @@
         <v>2249</v>
       </c>
       <c r="E2348" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2348" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2348" t="s">
         <v>1536</v>
       </c>
       <c r="H2348" t="s">
-        <v>816</v>
+        <v>763</v>
       </c>
       <c r="I2348" t="s">
         <v>19</v>
@@ -96888,10 +96984,10 @@
         <v>1</v>
       </c>
       <c r="K2348">
-        <v>8472080</v>
+        <v>4224000</v>
       </c>
       <c r="L2348">
-        <v>8472080</v>
+        <v>4224000</v>
       </c>
     </row>
     <row r="2349" spans="1:12">
@@ -96908,16 +97004,16 @@
         <v>2249</v>
       </c>
       <c r="E2349" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2349" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2349" t="s">
         <v>1536</v>
       </c>
       <c r="H2349" t="s">
-        <v>1356</v>
+        <v>816</v>
       </c>
       <c r="I2349" t="s">
         <v>19</v>
@@ -96926,10 +97022,10 @@
         <v>1</v>
       </c>
       <c r="K2349">
-        <v>6474200</v>
+        <v>8472080</v>
       </c>
       <c r="L2349">
-        <v>6474200</v>
+        <v>8472080</v>
       </c>
     </row>
     <row r="2350" spans="1:12">
@@ -96946,16 +97042,16 @@
         <v>2249</v>
       </c>
       <c r="E2350" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2350" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2350" t="s">
         <v>1536</v>
       </c>
       <c r="H2350" t="s">
-        <v>1564</v>
+        <v>1356</v>
       </c>
       <c r="I2350" t="s">
         <v>19</v>
@@ -96964,10 +97060,10 @@
         <v>1</v>
       </c>
       <c r="K2350">
-        <v>11063599</v>
+        <v>6474200</v>
       </c>
       <c r="L2350">
-        <v>11063599</v>
+        <v>6474200</v>
       </c>
     </row>
     <row r="2351" spans="1:12">
@@ -96984,16 +97080,16 @@
         <v>2249</v>
       </c>
       <c r="E2351" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2351" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2351" t="s">
         <v>1536</v>
       </c>
       <c r="H2351" t="s">
-        <v>1345</v>
+        <v>1564</v>
       </c>
       <c r="I2351" t="s">
         <v>19</v>
@@ -97002,10 +97098,10 @@
         <v>1</v>
       </c>
       <c r="K2351">
-        <v>1656920</v>
+        <v>11063599</v>
       </c>
       <c r="L2351">
-        <v>1656920</v>
+        <v>11063599</v>
       </c>
     </row>
     <row r="2352" spans="1:12">
@@ -97022,16 +97118,16 @@
         <v>2249</v>
       </c>
       <c r="E2352" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2352" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2352" t="s">
         <v>1536</v>
       </c>
       <c r="H2352" t="s">
-        <v>261</v>
+        <v>1345</v>
       </c>
       <c r="I2352" t="s">
         <v>19</v>
@@ -97040,10 +97136,10 @@
         <v>1</v>
       </c>
       <c r="K2352">
-        <v>2411600</v>
+        <v>1656920</v>
       </c>
       <c r="L2352">
-        <v>2411600</v>
+        <v>1656920</v>
       </c>
     </row>
     <row r="2353" spans="1:12">
@@ -97060,16 +97156,16 @@
         <v>2249</v>
       </c>
       <c r="E2353" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2353" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2353" t="s">
         <v>1536</v>
       </c>
       <c r="H2353" t="s">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="I2353" t="s">
         <v>19</v>
@@ -97078,10 +97174,10 @@
         <v>1</v>
       </c>
       <c r="K2353">
-        <v>27447287</v>
+        <v>2411600</v>
       </c>
       <c r="L2353">
-        <v>27447287</v>
+        <v>2411600</v>
       </c>
     </row>
     <row r="2354" spans="1:12">
@@ -97098,16 +97194,16 @@
         <v>2249</v>
       </c>
       <c r="E2354" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2354" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2354" t="s">
         <v>1536</v>
       </c>
       <c r="H2354" t="s">
-        <v>765</v>
+        <v>132</v>
       </c>
       <c r="I2354" t="s">
         <v>19</v>
@@ -97116,10 +97212,10 @@
         <v>1</v>
       </c>
       <c r="K2354">
-        <v>24556740</v>
+        <v>27447287</v>
       </c>
       <c r="L2354">
-        <v>24556740</v>
+        <v>27447287</v>
       </c>
     </row>
     <row r="2355" spans="1:12">
@@ -97136,16 +97232,16 @@
         <v>2249</v>
       </c>
       <c r="E2355" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2355" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2355" t="s">
         <v>1536</v>
       </c>
       <c r="H2355" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="I2355" t="s">
         <v>19</v>
@@ -97154,10 +97250,10 @@
         <v>1</v>
       </c>
       <c r="K2355">
-        <v>650000</v>
+        <v>24556740</v>
       </c>
       <c r="L2355">
-        <v>650000</v>
+        <v>24556740</v>
       </c>
     </row>
     <row r="2356" spans="1:12">
@@ -97174,16 +97270,16 @@
         <v>2249</v>
       </c>
       <c r="E2356" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2356" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2356" t="s">
         <v>1536</v>
       </c>
       <c r="H2356" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I2356" t="s">
         <v>19</v>
@@ -97192,10 +97288,10 @@
         <v>1</v>
       </c>
       <c r="K2356">
-        <v>600000</v>
+        <v>650000</v>
       </c>
       <c r="L2356">
-        <v>600000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="2357" spans="1:12">
@@ -97212,16 +97308,16 @@
         <v>2249</v>
       </c>
       <c r="E2357" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2357" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2357" t="s">
         <v>1536</v>
       </c>
       <c r="H2357" t="s">
-        <v>400</v>
+        <v>770</v>
       </c>
       <c r="I2357" t="s">
         <v>19</v>
@@ -97230,10 +97326,10 @@
         <v>1</v>
       </c>
       <c r="K2357">
-        <v>2700000</v>
+        <v>600000</v>
       </c>
       <c r="L2357">
-        <v>2700000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="2358" spans="1:12">
@@ -97250,16 +97346,16 @@
         <v>2249</v>
       </c>
       <c r="E2358" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2358" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2358" t="s">
         <v>1536</v>
       </c>
       <c r="H2358" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I2358" t="s">
         <v>19</v>
@@ -97268,10 +97364,10 @@
         <v>1</v>
       </c>
       <c r="K2358">
-        <v>1430000</v>
+        <v>2700000</v>
       </c>
       <c r="L2358">
-        <v>1430000</v>
+        <v>2700000</v>
       </c>
     </row>
     <row r="2359" spans="1:12">
@@ -97288,28 +97384,2650 @@
         <v>2249</v>
       </c>
       <c r="E2359" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F2359" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G2359" t="s">
         <v>1536</v>
       </c>
       <c r="H2359" t="s">
+        <v>401</v>
+      </c>
+      <c r="I2359" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2359">
+        <v>1</v>
+      </c>
+      <c r="K2359">
+        <v>1430000</v>
+      </c>
+      <c r="L2359">
+        <v>1430000</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:12">
+      <c r="A2360">
+        <v>2357</v>
+      </c>
+      <c r="B2360">
+        <v>626402</v>
+      </c>
+      <c r="C2360" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2360" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E2360" t="s">
+        <v>2459</v>
+      </c>
+      <c r="F2360" t="s">
+        <v>2460</v>
+      </c>
+      <c r="G2360" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2360" t="s">
         <v>773</v>
       </c>
-      <c r="I2359" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2359">
-        <v>1</v>
-      </c>
-      <c r="K2359">
+      <c r="I2360" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2360">
+        <v>1</v>
+      </c>
+      <c r="K2360">
         <v>150000</v>
       </c>
-      <c r="L2359">
+      <c r="L2360">
         <v>150000</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:12">
+      <c r="A2361">
+        <v>2358</v>
+      </c>
+      <c r="B2361">
+        <v>626402</v>
+      </c>
+      <c r="C2361" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2361" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2361" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2361" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2361" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2361" t="s">
+        <v>933</v>
+      </c>
+      <c r="I2361" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2361">
+        <v>1</v>
+      </c>
+      <c r="K2361">
+        <v>7800000</v>
+      </c>
+      <c r="L2361">
+        <v>7800000</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:12">
+      <c r="A2362">
+        <v>2359</v>
+      </c>
+      <c r="B2362">
+        <v>626402</v>
+      </c>
+      <c r="C2362" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2362" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2362" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2362" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2362" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2362" t="s">
+        <v>737</v>
+      </c>
+      <c r="I2362" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2362">
+        <v>1</v>
+      </c>
+      <c r="K2362">
+        <v>1000000</v>
+      </c>
+      <c r="L2362">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:12">
+      <c r="A2363">
+        <v>2360</v>
+      </c>
+      <c r="B2363">
+        <v>626402</v>
+      </c>
+      <c r="C2363" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2363" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2363" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2363" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2363" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2363" t="s">
+        <v>738</v>
+      </c>
+      <c r="I2363" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2363">
+        <v>1</v>
+      </c>
+      <c r="K2363">
+        <v>995400</v>
+      </c>
+      <c r="L2363">
+        <v>995400</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:12">
+      <c r="A2364">
+        <v>2361</v>
+      </c>
+      <c r="B2364">
+        <v>626402</v>
+      </c>
+      <c r="C2364" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2364" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2364" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2364" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2364" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2364" t="s">
+        <v>739</v>
+      </c>
+      <c r="I2364" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2364">
+        <v>1</v>
+      </c>
+      <c r="K2364">
+        <v>998250</v>
+      </c>
+      <c r="L2364">
+        <v>998250</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:12">
+      <c r="A2365">
+        <v>2362</v>
+      </c>
+      <c r="B2365">
+        <v>626402</v>
+      </c>
+      <c r="C2365" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2365" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2365" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2365" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2365" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2365" t="s">
+        <v>740</v>
+      </c>
+      <c r="I2365" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2365">
+        <v>1</v>
+      </c>
+      <c r="K2365">
+        <v>1000000</v>
+      </c>
+      <c r="L2365">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:12">
+      <c r="A2366">
+        <v>2363</v>
+      </c>
+      <c r="B2366">
+        <v>626402</v>
+      </c>
+      <c r="C2366" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2366" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2366" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2366" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2366" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2366" t="s">
+        <v>741</v>
+      </c>
+      <c r="I2366" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2366">
+        <v>1</v>
+      </c>
+      <c r="K2366">
+        <v>992750</v>
+      </c>
+      <c r="L2366">
+        <v>992750</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:12">
+      <c r="A2367">
+        <v>2364</v>
+      </c>
+      <c r="B2367">
+        <v>626402</v>
+      </c>
+      <c r="C2367" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2367" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2367" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2367" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2367" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2367" t="s">
+        <v>742</v>
+      </c>
+      <c r="I2367" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2367">
+        <v>1</v>
+      </c>
+      <c r="K2367">
+        <v>995500</v>
+      </c>
+      <c r="L2367">
+        <v>995500</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:12">
+      <c r="A2368">
+        <v>2365</v>
+      </c>
+      <c r="B2368">
+        <v>626402</v>
+      </c>
+      <c r="C2368" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2368" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2368" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2368" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2368" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2368" t="s">
+        <v>723</v>
+      </c>
+      <c r="I2368" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2368">
+        <v>1</v>
+      </c>
+      <c r="K2368">
+        <v>1999900</v>
+      </c>
+      <c r="L2368">
+        <v>1999900</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:12">
+      <c r="A2369">
+        <v>2366</v>
+      </c>
+      <c r="B2369">
+        <v>626402</v>
+      </c>
+      <c r="C2369" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2369" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2369" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2369" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2369" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2369" t="s">
+        <v>724</v>
+      </c>
+      <c r="I2369" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2369">
+        <v>1</v>
+      </c>
+      <c r="K2369">
+        <v>1999200</v>
+      </c>
+      <c r="L2369">
+        <v>1999200</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:12">
+      <c r="A2370">
+        <v>2367</v>
+      </c>
+      <c r="B2370">
+        <v>626402</v>
+      </c>
+      <c r="C2370" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2370" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2370" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2370" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2370" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2370" t="s">
+        <v>1560</v>
+      </c>
+      <c r="I2370" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2370">
+        <v>1</v>
+      </c>
+      <c r="K2370">
+        <v>4000000</v>
+      </c>
+      <c r="L2370">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:12">
+      <c r="A2371">
+        <v>2368</v>
+      </c>
+      <c r="B2371">
+        <v>626402</v>
+      </c>
+      <c r="C2371" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2371" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2371" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2371" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2371" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2371" t="s">
+        <v>2465</v>
+      </c>
+      <c r="I2371" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2371">
+        <v>1</v>
+      </c>
+      <c r="K2371">
+        <v>2550000</v>
+      </c>
+      <c r="L2371">
+        <v>2550000</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:12">
+      <c r="A2372">
+        <v>2369</v>
+      </c>
+      <c r="B2372">
+        <v>626402</v>
+      </c>
+      <c r="C2372" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2372" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2372" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2372" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2372" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2372" t="s">
+        <v>780</v>
+      </c>
+      <c r="I2372" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2372">
+        <v>1</v>
+      </c>
+      <c r="K2372">
+        <v>5550000</v>
+      </c>
+      <c r="L2372">
+        <v>5550000</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:12">
+      <c r="A2373">
+        <v>2370</v>
+      </c>
+      <c r="B2373">
+        <v>626402</v>
+      </c>
+      <c r="C2373" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2373" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2373" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2373" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2373" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2373" t="s">
+        <v>1850</v>
+      </c>
+      <c r="I2373" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2373">
+        <v>1</v>
+      </c>
+      <c r="K2373">
+        <v>22276000</v>
+      </c>
+      <c r="L2373">
+        <v>22276000</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:12">
+      <c r="A2374">
+        <v>2371</v>
+      </c>
+      <c r="B2374">
+        <v>626402</v>
+      </c>
+      <c r="C2374" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2374" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2374" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2374" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2374" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2374" t="s">
+        <v>2466</v>
+      </c>
+      <c r="I2374" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2374">
+        <v>1</v>
+      </c>
+      <c r="K2374">
+        <v>4950000</v>
+      </c>
+      <c r="L2374">
+        <v>4950000</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:12">
+      <c r="A2375">
+        <v>2372</v>
+      </c>
+      <c r="B2375">
+        <v>626402</v>
+      </c>
+      <c r="C2375" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2375" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2375" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2375" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2375" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2375" t="s">
+        <v>2467</v>
+      </c>
+      <c r="I2375" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2375">
+        <v>1</v>
+      </c>
+      <c r="K2375">
+        <v>2810000</v>
+      </c>
+      <c r="L2375">
+        <v>2810000</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:12">
+      <c r="A2376">
+        <v>2373</v>
+      </c>
+      <c r="B2376">
+        <v>626402</v>
+      </c>
+      <c r="C2376" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2376" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2376" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2376" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2376" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2376" t="s">
+        <v>2468</v>
+      </c>
+      <c r="I2376" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2376">
+        <v>1</v>
+      </c>
+      <c r="K2376">
+        <v>500000</v>
+      </c>
+      <c r="L2376">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:12">
+      <c r="A2377">
+        <v>2374</v>
+      </c>
+      <c r="B2377">
+        <v>626402</v>
+      </c>
+      <c r="C2377" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2377" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2377" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2377" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2377" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2377" t="s">
+        <v>2469</v>
+      </c>
+      <c r="I2377" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2377">
+        <v>1</v>
+      </c>
+      <c r="K2377">
+        <v>800000</v>
+      </c>
+      <c r="L2377">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:12">
+      <c r="A2378">
+        <v>2375</v>
+      </c>
+      <c r="B2378">
+        <v>626402</v>
+      </c>
+      <c r="C2378" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2378" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2378" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2378" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2378" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2378" t="s">
+        <v>2470</v>
+      </c>
+      <c r="I2378" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2378">
+        <v>1</v>
+      </c>
+      <c r="K2378">
+        <v>3000000</v>
+      </c>
+      <c r="L2378">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:12">
+      <c r="A2379">
+        <v>2376</v>
+      </c>
+      <c r="B2379">
+        <v>626402</v>
+      </c>
+      <c r="C2379" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2379" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2379" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2379" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2379" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2379" t="s">
+        <v>2471</v>
+      </c>
+      <c r="I2379" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2379">
+        <v>1</v>
+      </c>
+      <c r="K2379">
+        <v>300000</v>
+      </c>
+      <c r="L2379">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:12">
+      <c r="A2380">
+        <v>2377</v>
+      </c>
+      <c r="B2380">
+        <v>626402</v>
+      </c>
+      <c r="C2380" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2380" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2380" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2380" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2380" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2380" t="s">
+        <v>2472</v>
+      </c>
+      <c r="I2380" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2380">
+        <v>1</v>
+      </c>
+      <c r="K2380">
+        <v>300000</v>
+      </c>
+      <c r="L2380">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:12">
+      <c r="A2381">
+        <v>2378</v>
+      </c>
+      <c r="B2381">
+        <v>626402</v>
+      </c>
+      <c r="C2381" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2381" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2381" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2381" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2381" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2381" t="s">
+        <v>2473</v>
+      </c>
+      <c r="I2381" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2381">
+        <v>1</v>
+      </c>
+      <c r="K2381">
+        <v>360000</v>
+      </c>
+      <c r="L2381">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:12">
+      <c r="A2382">
+        <v>2379</v>
+      </c>
+      <c r="B2382">
+        <v>626402</v>
+      </c>
+      <c r="C2382" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2382" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2382" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2382" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2382" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2382" t="s">
+        <v>2474</v>
+      </c>
+      <c r="I2382" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2382">
+        <v>1</v>
+      </c>
+      <c r="K2382">
+        <v>500000</v>
+      </c>
+      <c r="L2382">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:12">
+      <c r="A2383">
+        <v>2380</v>
+      </c>
+      <c r="B2383">
+        <v>626402</v>
+      </c>
+      <c r="C2383" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2383" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2383" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2383" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2383" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2383" t="s">
+        <v>2475</v>
+      </c>
+      <c r="I2383" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2383">
+        <v>1</v>
+      </c>
+      <c r="K2383">
+        <v>400000</v>
+      </c>
+      <c r="L2383">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:12">
+      <c r="A2384">
+        <v>2381</v>
+      </c>
+      <c r="B2384">
+        <v>626402</v>
+      </c>
+      <c r="C2384" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2384" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2384" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2384" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2384" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2384" t="s">
+        <v>2476</v>
+      </c>
+      <c r="I2384" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2384">
+        <v>1</v>
+      </c>
+      <c r="K2384">
+        <v>3300000</v>
+      </c>
+      <c r="L2384">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:12">
+      <c r="A2385">
+        <v>2382</v>
+      </c>
+      <c r="B2385">
+        <v>626402</v>
+      </c>
+      <c r="C2385" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2385" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2385" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2385" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2385" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2385" t="s">
+        <v>2477</v>
+      </c>
+      <c r="I2385" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2385">
+        <v>1</v>
+      </c>
+      <c r="K2385">
+        <v>3600000</v>
+      </c>
+      <c r="L2385">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:12">
+      <c r="A2386">
+        <v>2383</v>
+      </c>
+      <c r="B2386">
+        <v>626402</v>
+      </c>
+      <c r="C2386" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2386" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2386" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2386" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2386" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2386" t="s">
+        <v>758</v>
+      </c>
+      <c r="I2386" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2386">
+        <v>1</v>
+      </c>
+      <c r="K2386">
+        <v>35000000</v>
+      </c>
+      <c r="L2386">
+        <v>35000000</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:12">
+      <c r="A2387">
+        <v>2384</v>
+      </c>
+      <c r="B2387">
+        <v>626402</v>
+      </c>
+      <c r="C2387" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2387" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2387" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2387" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2387" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2387" t="s">
+        <v>2478</v>
+      </c>
+      <c r="I2387" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2387">
+        <v>1</v>
+      </c>
+      <c r="K2387">
+        <v>2475000</v>
+      </c>
+      <c r="L2387">
+        <v>2475000</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:12">
+      <c r="A2388">
+        <v>2385</v>
+      </c>
+      <c r="B2388">
+        <v>626402</v>
+      </c>
+      <c r="C2388" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2388" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2388" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2388" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2388" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2388" t="s">
+        <v>2479</v>
+      </c>
+      <c r="I2388" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2388">
+        <v>1</v>
+      </c>
+      <c r="K2388">
+        <v>2055000</v>
+      </c>
+      <c r="L2388">
+        <v>2055000</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:12">
+      <c r="A2389">
+        <v>2386</v>
+      </c>
+      <c r="B2389">
+        <v>626402</v>
+      </c>
+      <c r="C2389" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2389" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2389" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2389" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2389" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2389" t="s">
+        <v>729</v>
+      </c>
+      <c r="I2389" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2389">
+        <v>1</v>
+      </c>
+      <c r="K2389">
+        <v>658400</v>
+      </c>
+      <c r="L2389">
+        <v>658400</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:12">
+      <c r="A2390">
+        <v>2387</v>
+      </c>
+      <c r="B2390">
+        <v>626402</v>
+      </c>
+      <c r="C2390" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2390" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2390" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2390" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2390" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2390" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2390" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2390">
+        <v>1</v>
+      </c>
+      <c r="K2390">
+        <v>32976940</v>
+      </c>
+      <c r="L2390">
+        <v>32976940</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:12">
+      <c r="A2391">
+        <v>2388</v>
+      </c>
+      <c r="B2391">
+        <v>626402</v>
+      </c>
+      <c r="C2391" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2391" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2391" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2391" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2391" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2391" t="s">
+        <v>816</v>
+      </c>
+      <c r="I2391" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2391">
+        <v>1</v>
+      </c>
+      <c r="K2391">
+        <v>4856020</v>
+      </c>
+      <c r="L2391">
+        <v>4856020</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:12">
+      <c r="A2392">
+        <v>2389</v>
+      </c>
+      <c r="B2392">
+        <v>626402</v>
+      </c>
+      <c r="C2392" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2392" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2392" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2392" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2392" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2392" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I2392" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2392">
+        <v>1</v>
+      </c>
+      <c r="K2392">
+        <v>1050000</v>
+      </c>
+      <c r="L2392">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:12">
+      <c r="A2393">
+        <v>2390</v>
+      </c>
+      <c r="B2393">
+        <v>626402</v>
+      </c>
+      <c r="C2393" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2393" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2393" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2393" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2393" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2393" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I2393" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2393">
+        <v>1</v>
+      </c>
+      <c r="K2393">
+        <v>12952500</v>
+      </c>
+      <c r="L2393">
+        <v>12952500</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:12">
+      <c r="A2394">
+        <v>2391</v>
+      </c>
+      <c r="B2394">
+        <v>626402</v>
+      </c>
+      <c r="C2394" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2394" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2394" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2394" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2394" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2394" t="s">
+        <v>2457</v>
+      </c>
+      <c r="I2394" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2394">
+        <v>1</v>
+      </c>
+      <c r="K2394">
+        <v>15081400</v>
+      </c>
+      <c r="L2394">
+        <v>15081400</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:12">
+      <c r="A2395">
+        <v>2392</v>
+      </c>
+      <c r="B2395">
+        <v>626402</v>
+      </c>
+      <c r="C2395" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2395" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2395" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2395" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2395" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2395" t="s">
+        <v>766</v>
+      </c>
+      <c r="I2395" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2395">
+        <v>1</v>
+      </c>
+      <c r="K2395">
+        <v>20940565</v>
+      </c>
+      <c r="L2395">
+        <v>20940565</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:12">
+      <c r="A2396">
+        <v>2393</v>
+      </c>
+      <c r="B2396">
+        <v>626402</v>
+      </c>
+      <c r="C2396" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2396" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2396" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2396" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2396" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2396" t="s">
+        <v>2480</v>
+      </c>
+      <c r="I2396" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2396">
+        <v>1</v>
+      </c>
+      <c r="K2396">
+        <v>543500</v>
+      </c>
+      <c r="L2396">
+        <v>543500</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:12">
+      <c r="A2397">
+        <v>2394</v>
+      </c>
+      <c r="B2397">
+        <v>626402</v>
+      </c>
+      <c r="C2397" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2397" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2397" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2397" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2397" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2397" t="s">
+        <v>730</v>
+      </c>
+      <c r="I2397" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2397">
+        <v>1</v>
+      </c>
+      <c r="K2397">
+        <v>159821533</v>
+      </c>
+      <c r="L2397">
+        <v>159821533</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:12">
+      <c r="A2398">
+        <v>2395</v>
+      </c>
+      <c r="B2398">
+        <v>626402</v>
+      </c>
+      <c r="C2398" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2398" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2398" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2398" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2398" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2398" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2398" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2398">
+        <v>1</v>
+      </c>
+      <c r="K2398">
+        <v>4290500</v>
+      </c>
+      <c r="L2398">
+        <v>4290500</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:12">
+      <c r="A2399">
+        <v>2396</v>
+      </c>
+      <c r="B2399">
+        <v>626402</v>
+      </c>
+      <c r="C2399" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2399" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2399" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2399" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2399" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2399" t="s">
+        <v>2481</v>
+      </c>
+      <c r="I2399" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2399">
+        <v>1</v>
+      </c>
+      <c r="K2399">
+        <v>17605160</v>
+      </c>
+      <c r="L2399">
+        <v>17605160</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:12">
+      <c r="A2400">
+        <v>2397</v>
+      </c>
+      <c r="B2400">
+        <v>626402</v>
+      </c>
+      <c r="C2400" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2400" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2400" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2400" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2400" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2400" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2400" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2400">
+        <v>1</v>
+      </c>
+      <c r="K2400">
+        <v>5308700</v>
+      </c>
+      <c r="L2400">
+        <v>5308700</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:12">
+      <c r="A2401">
+        <v>2398</v>
+      </c>
+      <c r="B2401">
+        <v>626402</v>
+      </c>
+      <c r="C2401" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2401" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2401" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2401" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2401" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2401" t="s">
+        <v>768</v>
+      </c>
+      <c r="I2401" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2401">
+        <v>1</v>
+      </c>
+      <c r="K2401">
+        <v>11499500</v>
+      </c>
+      <c r="L2401">
+        <v>11499500</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:12">
+      <c r="A2402">
+        <v>2399</v>
+      </c>
+      <c r="B2402">
+        <v>626402</v>
+      </c>
+      <c r="C2402" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2402" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2402" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2402" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2402" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2402" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2402" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2402">
+        <v>1</v>
+      </c>
+      <c r="K2402">
+        <v>32982320</v>
+      </c>
+      <c r="L2402">
+        <v>32982320</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:12">
+      <c r="A2403">
+        <v>2400</v>
+      </c>
+      <c r="B2403">
+        <v>626402</v>
+      </c>
+      <c r="C2403" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2403" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2403" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2403" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2403" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2403" t="s">
+        <v>586</v>
+      </c>
+      <c r="I2403" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2403">
+        <v>1</v>
+      </c>
+      <c r="K2403">
+        <v>6302000</v>
+      </c>
+      <c r="L2403">
+        <v>6302000</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:12">
+      <c r="A2404">
+        <v>2401</v>
+      </c>
+      <c r="B2404">
+        <v>626402</v>
+      </c>
+      <c r="C2404" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2404" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2404" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2404" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2404" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2404" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2404" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2404">
+        <v>1</v>
+      </c>
+      <c r="K2404">
+        <v>7831951</v>
+      </c>
+      <c r="L2404">
+        <v>7831951</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:12">
+      <c r="A2405">
+        <v>2402</v>
+      </c>
+      <c r="B2405">
+        <v>626402</v>
+      </c>
+      <c r="C2405" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2405" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2405" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2405" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2405" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2405" t="s">
+        <v>910</v>
+      </c>
+      <c r="I2405" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2405">
+        <v>1</v>
+      </c>
+      <c r="K2405">
+        <v>8808000</v>
+      </c>
+      <c r="L2405">
+        <v>8808000</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:12">
+      <c r="A2406">
+        <v>2403</v>
+      </c>
+      <c r="B2406">
+        <v>626402</v>
+      </c>
+      <c r="C2406" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2406" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2406" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2406" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2406" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2406" t="s">
+        <v>2148</v>
+      </c>
+      <c r="I2406" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2406">
+        <v>1</v>
+      </c>
+      <c r="K2406">
+        <v>16452112</v>
+      </c>
+      <c r="L2406">
+        <v>16452112</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:12">
+      <c r="A2407">
+        <v>2404</v>
+      </c>
+      <c r="B2407">
+        <v>626402</v>
+      </c>
+      <c r="C2407" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2407" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2407" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2407" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2407" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2407" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2407" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2407">
+        <v>1</v>
+      </c>
+      <c r="K2407">
+        <v>19329730</v>
+      </c>
+      <c r="L2407">
+        <v>19329730</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:12">
+      <c r="A2408">
+        <v>2405</v>
+      </c>
+      <c r="B2408">
+        <v>626402</v>
+      </c>
+      <c r="C2408" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2408" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2408" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2408" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2408" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2408" t="s">
+        <v>2482</v>
+      </c>
+      <c r="I2408" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2408">
+        <v>1</v>
+      </c>
+      <c r="K2408">
+        <v>450000</v>
+      </c>
+      <c r="L2408">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:12">
+      <c r="A2409">
+        <v>2406</v>
+      </c>
+      <c r="B2409">
+        <v>626402</v>
+      </c>
+      <c r="C2409" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2409" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2409" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2409" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2409" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2409" t="s">
+        <v>773</v>
+      </c>
+      <c r="I2409" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2409">
+        <v>1</v>
+      </c>
+      <c r="K2409">
+        <v>750000</v>
+      </c>
+      <c r="L2409">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:12">
+      <c r="A2410">
+        <v>2407</v>
+      </c>
+      <c r="B2410">
+        <v>626402</v>
+      </c>
+      <c r="C2410" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2410" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2410" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2410" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2410" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2410" t="s">
+        <v>402</v>
+      </c>
+      <c r="I2410" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2410">
+        <v>1</v>
+      </c>
+      <c r="K2410">
+        <v>420000</v>
+      </c>
+      <c r="L2410">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:12">
+      <c r="A2411">
+        <v>2408</v>
+      </c>
+      <c r="B2411">
+        <v>626402</v>
+      </c>
+      <c r="C2411" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2411" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2411" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2411" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2411" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2411" t="s">
+        <v>403</v>
+      </c>
+      <c r="I2411" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2411">
+        <v>1</v>
+      </c>
+      <c r="K2411">
+        <v>300000</v>
+      </c>
+      <c r="L2411">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:12">
+      <c r="A2412">
+        <v>2409</v>
+      </c>
+      <c r="B2412">
+        <v>626402</v>
+      </c>
+      <c r="C2412" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2412" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2412" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2412" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2412" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2412" t="s">
+        <v>2483</v>
+      </c>
+      <c r="I2412" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2412">
+        <v>1</v>
+      </c>
+      <c r="K2412">
+        <v>4050000</v>
+      </c>
+      <c r="L2412">
+        <v>4050000</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:12">
+      <c r="A2413">
+        <v>2410</v>
+      </c>
+      <c r="B2413">
+        <v>626402</v>
+      </c>
+      <c r="C2413" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2413" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2413" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2413" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2413" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2413" t="s">
+        <v>404</v>
+      </c>
+      <c r="I2413" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2413">
+        <v>1</v>
+      </c>
+      <c r="K2413">
+        <v>150000</v>
+      </c>
+      <c r="L2413">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:12">
+      <c r="A2414">
+        <v>2411</v>
+      </c>
+      <c r="B2414">
+        <v>626402</v>
+      </c>
+      <c r="C2414" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2414" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2414" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2414" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2414" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2414" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2414" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2414">
+        <v>1</v>
+      </c>
+      <c r="K2414">
+        <v>130000</v>
+      </c>
+      <c r="L2414">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:12">
+      <c r="A2415">
+        <v>2412</v>
+      </c>
+      <c r="B2415">
+        <v>626402</v>
+      </c>
+      <c r="C2415" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2415" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2415" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F2415" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G2415" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H2415" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2415" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2415">
+        <v>1</v>
+      </c>
+      <c r="K2415">
+        <v>600000</v>
+      </c>
+      <c r="L2415">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:12">
+      <c r="A2416">
+        <v>2413</v>
+      </c>
+      <c r="B2416">
+        <v>626402</v>
+      </c>
+      <c r="C2416" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2416" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2416" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F2416" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G2416" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2416" t="s">
+        <v>2486</v>
+      </c>
+      <c r="I2416" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2416">
+        <v>1</v>
+      </c>
+      <c r="K2416">
+        <v>1750000</v>
+      </c>
+      <c r="L2416">
+        <v>1750000</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:12">
+      <c r="A2417">
+        <v>2414</v>
+      </c>
+      <c r="B2417">
+        <v>626402</v>
+      </c>
+      <c r="C2417" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2417" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2417" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F2417" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G2417" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2417" t="s">
+        <v>2487</v>
+      </c>
+      <c r="I2417" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2417">
+        <v>1</v>
+      </c>
+      <c r="K2417">
+        <v>1800000</v>
+      </c>
+      <c r="L2417">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:12">
+      <c r="A2418">
+        <v>2415</v>
+      </c>
+      <c r="B2418">
+        <v>626402</v>
+      </c>
+      <c r="C2418" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2418" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2418" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F2418" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G2418" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2418" t="s">
+        <v>780</v>
+      </c>
+      <c r="I2418" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2418">
+        <v>1</v>
+      </c>
+      <c r="K2418">
+        <v>4850000</v>
+      </c>
+      <c r="L2418">
+        <v>4850000</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:12">
+      <c r="A2419">
+        <v>2416</v>
+      </c>
+      <c r="B2419">
+        <v>626402</v>
+      </c>
+      <c r="C2419" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2419" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2419" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F2419" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G2419" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2419" t="s">
+        <v>749</v>
+      </c>
+      <c r="I2419" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2419">
+        <v>1</v>
+      </c>
+      <c r="K2419">
+        <v>1000000</v>
+      </c>
+      <c r="L2419">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:12">
+      <c r="A2420">
+        <v>2417</v>
+      </c>
+      <c r="B2420">
+        <v>626402</v>
+      </c>
+      <c r="C2420" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2420" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2420" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F2420" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G2420" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2420" t="s">
+        <v>750</v>
+      </c>
+      <c r="I2420" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2420">
+        <v>1</v>
+      </c>
+      <c r="K2420">
+        <v>1000000</v>
+      </c>
+      <c r="L2420">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:12">
+      <c r="A2421">
+        <v>2418</v>
+      </c>
+      <c r="B2421">
+        <v>626402</v>
+      </c>
+      <c r="C2421" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2421" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2421" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F2421" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G2421" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2421" t="s">
+        <v>2488</v>
+      </c>
+      <c r="I2421" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2421">
+        <v>1</v>
+      </c>
+      <c r="K2421">
+        <v>1900000</v>
+      </c>
+      <c r="L2421">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:12">
+      <c r="A2422">
+        <v>2419</v>
+      </c>
+      <c r="B2422">
+        <v>626402</v>
+      </c>
+      <c r="C2422" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2422" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2422" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F2422" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G2422" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2422" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I2422" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2422">
+        <v>1</v>
+      </c>
+      <c r="K2422">
+        <v>1616500</v>
+      </c>
+      <c r="L2422">
+        <v>1616500</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:12">
+      <c r="A2423">
+        <v>2420</v>
+      </c>
+      <c r="B2423">
+        <v>626402</v>
+      </c>
+      <c r="C2423" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2423" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2423" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F2423" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G2423" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2423" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2423" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2423">
+        <v>1</v>
+      </c>
+      <c r="K2423">
+        <v>5374000</v>
+      </c>
+      <c r="L2423">
+        <v>5374000</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:12">
+      <c r="A2424">
+        <v>2421</v>
+      </c>
+      <c r="B2424">
+        <v>626402</v>
+      </c>
+      <c r="C2424" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2424" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2424" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F2424" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G2424" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2424" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2424" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2424">
+        <v>1</v>
+      </c>
+      <c r="K2424">
+        <v>856500</v>
+      </c>
+      <c r="L2424">
+        <v>856500</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:12">
+      <c r="A2425">
+        <v>2422</v>
+      </c>
+      <c r="B2425">
+        <v>626402</v>
+      </c>
+      <c r="C2425" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2425" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2425" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F2425" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G2425" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2425" t="s">
+        <v>766</v>
+      </c>
+      <c r="I2425" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2425">
+        <v>1</v>
+      </c>
+      <c r="K2425">
+        <v>450000</v>
+      </c>
+      <c r="L2425">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:12">
+      <c r="A2426">
+        <v>2423</v>
+      </c>
+      <c r="B2426">
+        <v>626402</v>
+      </c>
+      <c r="C2426" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2426" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2426" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F2426" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G2426" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2426" t="s">
+        <v>2489</v>
+      </c>
+      <c r="I2426" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2426">
+        <v>1</v>
+      </c>
+      <c r="K2426">
+        <v>9372220</v>
+      </c>
+      <c r="L2426">
+        <v>9372220</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:12">
+      <c r="A2427">
+        <v>2424</v>
+      </c>
+      <c r="B2427">
+        <v>626402</v>
+      </c>
+      <c r="C2427" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2427" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2427" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F2427" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G2427" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2427" t="s">
+        <v>585</v>
+      </c>
+      <c r="I2427" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2427">
+        <v>1</v>
+      </c>
+      <c r="K2427">
+        <v>2924540</v>
+      </c>
+      <c r="L2427">
+        <v>2924540</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:12">
+      <c r="A2428">
+        <v>2425</v>
+      </c>
+      <c r="B2428">
+        <v>626402</v>
+      </c>
+      <c r="C2428" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2428" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E2428" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F2428" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G2428" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2428" t="s">
+        <v>773</v>
+      </c>
+      <c r="I2428" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2428">
+        <v>1</v>
+      </c>
+      <c r="K2428">
+        <v>600000</v>
+      </c>
+      <c r="L2428">
+        <v>600000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2566">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -7485,6 +7485,234 @@
   </si>
   <si>
     <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0B.000865</t>
+  </si>
+  <si>
+    <t>2023-06-16</t>
+  </si>
+  <si>
+    <t>'00569T</t>
+  </si>
+  <si>
+    <t>'231751303014417</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan KKP untuk keperluan belanja barang (BPP 001 Set BRSDM)</t>
+  </si>
+  <si>
+    <t>'00570T</t>
+  </si>
+  <si>
+    <t>'231751303014418</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.301.0H.001458</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.301.0H.001459</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.301.0H.001460</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GA.000527</t>
+  </si>
+  <si>
+    <t>'626402.175.522141.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GB.000531</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
+    <t>'00571T</t>
+  </si>
+  <si>
+    <t>'231751301024305</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:1/PPK/BRSDM.1/I/2023 Tgl.2-1-2023,BAST No:BAST.1945/PPK/BRSDM.1/V/2023 Tgl.31-5-2023,BAP No:1946/PPK/BRSDM.1/V/2023 Tgl.31-5-2023 Pengadaan Jasa Internet Provider Sekretariat BRSDM TA.2023 TERMIN 5</t>
+  </si>
+  <si>
+    <t>'00572T</t>
+  </si>
+  <si>
+    <t>'231751302018874</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:2/PPK/BRSDM.1/I/2023 Tgl.2-1-2023,BAST No:BAST.1943/PPK/BRSDM.1/V/2023 Tgl.31-5-2023,BAP No:1944/PPK/BRSDM.1/V/2023 Tgl.31-5-22025 Pengadaan Jasa Tenaga Kebersihan Sekretariat BRSDM TA.2023 TERMIN 5</t>
+  </si>
+  <si>
+    <t>'00573T</t>
+  </si>
+  <si>
+    <t>'231751301024303</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:3/PPK/BRSDM.1/I/2023 Tgl.2-1-2023,BAST No:BAST.1941/PPK/BRSDM.1/V/2023 Tgl.31-5-2023,BAP No:1942/PPK/BRSDM.1/V/2023 Tgl.31-5-2023 Pengadaan Jasa Satuan Pengamanan Sekretariat BRSDM TA.2023 TERMIN 5</t>
+  </si>
+  <si>
+    <t>'00574T</t>
+  </si>
+  <si>
+    <t>'231751301024311</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:025/PE/KWT/V/2023 Tanggal 15 Mei 2023 Pekerjaan perbaikan Plafon+Pasang Talang Plat Lobby Depan Auditorium Lt.IV Gd.Sekretariat BRSDM KP I Ancol</t>
+  </si>
+  <si>
+    <t>'00575T</t>
+  </si>
+  <si>
+    <t>'231751301024302</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:042/SM/KW/V/2023 Tanggal 9 Mei 2023 Biaya pekerjaan Pemeliharaab Kendaraan Dinas Operasional Angkutan Roda 6 Set.BRSDM</t>
+  </si>
+  <si>
+    <t>'00576T</t>
+  </si>
+  <si>
+    <t>'231751303014391</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:0456/KW-KRM/V/2023 Tanggal 25 Mei 2023 Biaya Pemeliharaan dan perawatan Infrastruktur Integrasi Gd. BRSDM Ancol Bulan Mei 2023</t>
+  </si>
+  <si>
+    <t>'00577T</t>
+  </si>
+  <si>
+    <t>'231751301024312</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:1074/AGA.04.02/F06010000/2023 Tanggal 5 Juni 2023 Pembayaran Rekening Listrik Bulan Juni 2023 untuk pemakaian Energi Listrik Bulan Mei 2023</t>
+  </si>
+  <si>
+    <t>'00578T</t>
+  </si>
+  <si>
+    <t>'231751303014410</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2290/BRSDM.1/KP.440/V/2023 Tanggal 4 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00579T</t>
+  </si>
+  <si>
+    <t>'231751303014411</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2289/BRSDM.1/KP.440/V/2023 Tanggal 4 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00580T</t>
+  </si>
+  <si>
+    <t>'231751303014399</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2424/BRSDM.1/KP.440/V/2023 Tanggal 9 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00581T</t>
+  </si>
+  <si>
+    <t>'231751303014416</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai Pusdik bulan Mei 2023 untuk 1 pegawai )</t>
+  </si>
+  <si>
+    <t>'00582T</t>
+  </si>
+  <si>
+    <t>'231751303014419</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai sekretariat BRSDM bulan Mei 2023 untuk 1 pegawai)</t>
+  </si>
+  <si>
+    <t>'00583T</t>
+  </si>
+  <si>
+    <t>'231751303014425</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan untuk keperluan belanja barang (BPP 001 Set.BRSDM)</t>
+  </si>
+  <si>
+    <t>'00584T</t>
+  </si>
+  <si>
+    <t>'231751301024295</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Modal Sesuai Kwitansi Nomor:02/KWT/PFI/V/2023 Tanggal 3 Mei 2023 Biaya Pekerjaan Pembuatan Rak Sepatu untuk Mushola BRSDM</t>
+  </si>
+  <si>
+    <t>'626402.175.532111.03212WA.2378EBB.A000000001.00000.1.0151.2.000000.000000.971.102.0A.001416</t>
+  </si>
+  <si>
+    <t>'00585T</t>
+  </si>
+  <si>
+    <t>'231751301024301</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:1300032025 Tanggal 30 Mei 2023 Biaya Pemeliharaan Kendaraan Dinas Opersional Roda 4 Sekretariat BRSDMKP</t>
+  </si>
+  <si>
+    <t>'00586T</t>
+  </si>
+  <si>
+    <t>'231751301024429</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:043/SM/KW/V/2023 Tanggal 12 Mei 2023 Biaya Penayangan News Kilat BRSDM Bulan Mei 2023</t>
+  </si>
+  <si>
+    <t>'00587T</t>
+  </si>
+  <si>
+    <t>'231751303014501</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.815/BRSDM.5/KP.440/VI/2023.Tanggal 05 Juni 2023.</t>
+  </si>
+  <si>
+    <t>'00588T</t>
+  </si>
+  <si>
+    <t>'231751303014513</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai (pembayaran uang lembur dan uang makan lembur pegawai Pusdik bulan April 2023 untuk 6 pegawai sesuai SPKL no 780,843,855/BRSDM.4/KP.440/IV/2023 tanggal 3,11,12 April 2023)</t>
+  </si>
+  <si>
+    <t>'00589T</t>
+  </si>
+  <si>
+    <t>'231751303014511</t>
+  </si>
+  <si>
+    <t>pembayaran belanja pegawai(Pembayaran uang makan pegawai Sekretariat BRSDM bulan Mei 2023 untuk 74 pegawai)</t>
+  </si>
+  <si>
+    <t>'00590T</t>
+  </si>
+  <si>
+    <t>'231751303014514</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai ( pembayaran uang makan pegawai Pusdik bulan Mei 2023 untuk 41 pegawai)</t>
+  </si>
+  <si>
+    <t>'00591T</t>
+  </si>
+  <si>
+    <t>'231751303014512</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai Puslatluh bulan Mei 2023 untuk 34 pegawai)</t>
   </si>
 </sst>
 </file>
@@ -7826,7 +8054,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L2428"/>
+  <dimension ref="A1:L2484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -100028,6 +100256,2134 @@
       </c>
       <c r="L2428">
         <v>600000</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:12">
+      <c r="A2429">
+        <v>2426</v>
+      </c>
+      <c r="B2429">
+        <v>626402</v>
+      </c>
+      <c r="C2429" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2429" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2429" t="s">
+        <v>2491</v>
+      </c>
+      <c r="F2429" t="s">
+        <v>2492</v>
+      </c>
+      <c r="G2429" t="s">
+        <v>2493</v>
+      </c>
+      <c r="H2429" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2429" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2429">
+        <v>1</v>
+      </c>
+      <c r="K2429">
+        <v>44555023</v>
+      </c>
+      <c r="L2429">
+        <v>44555023</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:12">
+      <c r="A2430">
+        <v>2427</v>
+      </c>
+      <c r="B2430">
+        <v>626402</v>
+      </c>
+      <c r="C2430" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2430" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2430" t="s">
+        <v>2491</v>
+      </c>
+      <c r="F2430" t="s">
+        <v>2492</v>
+      </c>
+      <c r="G2430" t="s">
+        <v>2493</v>
+      </c>
+      <c r="H2430" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2430" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2430">
+        <v>1</v>
+      </c>
+      <c r="K2430">
+        <v>2386000</v>
+      </c>
+      <c r="L2430">
+        <v>2386000</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:12">
+      <c r="A2431">
+        <v>2428</v>
+      </c>
+      <c r="B2431">
+        <v>626402</v>
+      </c>
+      <c r="C2431" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2431" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2431" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2431" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2431" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2431" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2431" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2431">
+        <v>1</v>
+      </c>
+      <c r="K2431">
+        <v>1437400</v>
+      </c>
+      <c r="L2431">
+        <v>1437400</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:12">
+      <c r="A2432">
+        <v>2429</v>
+      </c>
+      <c r="B2432">
+        <v>626402</v>
+      </c>
+      <c r="C2432" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2432" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2432" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2432" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2432" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2432" t="s">
+        <v>471</v>
+      </c>
+      <c r="I2432" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2432">
+        <v>1</v>
+      </c>
+      <c r="K2432">
+        <v>7905000</v>
+      </c>
+      <c r="L2432">
+        <v>7905000</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:12">
+      <c r="A2433">
+        <v>2430</v>
+      </c>
+      <c r="B2433">
+        <v>626402</v>
+      </c>
+      <c r="C2433" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2433" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2433" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2433" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2433" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2433" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2433" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2433">
+        <v>1</v>
+      </c>
+      <c r="K2433">
+        <v>248400</v>
+      </c>
+      <c r="L2433">
+        <v>248400</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:12">
+      <c r="A2434">
+        <v>2431</v>
+      </c>
+      <c r="B2434">
+        <v>626402</v>
+      </c>
+      <c r="C2434" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2434" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2434" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2434" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2434" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2434" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2434" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2434">
+        <v>1</v>
+      </c>
+      <c r="K2434">
+        <v>1750000</v>
+      </c>
+      <c r="L2434">
+        <v>1750000</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:12">
+      <c r="A2435">
+        <v>2432</v>
+      </c>
+      <c r="B2435">
+        <v>626402</v>
+      </c>
+      <c r="C2435" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2435" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2435" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2435" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2435" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2435" t="s">
+        <v>2496</v>
+      </c>
+      <c r="I2435" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2435">
+        <v>1</v>
+      </c>
+      <c r="K2435">
+        <v>1497500</v>
+      </c>
+      <c r="L2435">
+        <v>1497500</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:12">
+      <c r="A2436">
+        <v>2433</v>
+      </c>
+      <c r="B2436">
+        <v>626402</v>
+      </c>
+      <c r="C2436" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2436" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2436" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2436" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2436" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2436" t="s">
+        <v>2497</v>
+      </c>
+      <c r="I2436" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2436">
+        <v>1</v>
+      </c>
+      <c r="K2436">
+        <v>1500000</v>
+      </c>
+      <c r="L2436">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:12">
+      <c r="A2437">
+        <v>2434</v>
+      </c>
+      <c r="B2437">
+        <v>626402</v>
+      </c>
+      <c r="C2437" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2437" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2437" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2437" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2437" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2437" t="s">
+        <v>2498</v>
+      </c>
+      <c r="I2437" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2437">
+        <v>1</v>
+      </c>
+      <c r="K2437">
+        <v>1000000</v>
+      </c>
+      <c r="L2437">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:12">
+      <c r="A2438">
+        <v>2435</v>
+      </c>
+      <c r="B2438">
+        <v>626402</v>
+      </c>
+      <c r="C2438" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2438" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2438" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2438" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2438" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2438" t="s">
+        <v>481</v>
+      </c>
+      <c r="I2438" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2438">
+        <v>1</v>
+      </c>
+      <c r="K2438">
+        <v>999000</v>
+      </c>
+      <c r="L2438">
+        <v>999000</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:12">
+      <c r="A2439">
+        <v>2436</v>
+      </c>
+      <c r="B2439">
+        <v>626402</v>
+      </c>
+      <c r="C2439" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2439" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2439" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2439" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2439" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2439" t="s">
+        <v>483</v>
+      </c>
+      <c r="I2439" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2439">
+        <v>1</v>
+      </c>
+      <c r="K2439">
+        <v>800000</v>
+      </c>
+      <c r="L2439">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:12">
+      <c r="A2440">
+        <v>2437</v>
+      </c>
+      <c r="B2440">
+        <v>626402</v>
+      </c>
+      <c r="C2440" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2440" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2440" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2440" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2440" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2440" t="s">
+        <v>484</v>
+      </c>
+      <c r="I2440" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2440">
+        <v>1</v>
+      </c>
+      <c r="K2440">
+        <v>880000</v>
+      </c>
+      <c r="L2440">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:12">
+      <c r="A2441">
+        <v>2438</v>
+      </c>
+      <c r="B2441">
+        <v>626402</v>
+      </c>
+      <c r="C2441" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2441" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2441" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2441" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2441" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2441" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2441" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2441">
+        <v>1</v>
+      </c>
+      <c r="K2441">
+        <v>5450000</v>
+      </c>
+      <c r="L2441">
+        <v>5450000</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:12">
+      <c r="A2442">
+        <v>2439</v>
+      </c>
+      <c r="B2442">
+        <v>626402</v>
+      </c>
+      <c r="C2442" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2442" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2442" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2442" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2442" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2442" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2442" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2442">
+        <v>1</v>
+      </c>
+      <c r="K2442">
+        <v>6000000</v>
+      </c>
+      <c r="L2442">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:12">
+      <c r="A2443">
+        <v>2440</v>
+      </c>
+      <c r="B2443">
+        <v>626402</v>
+      </c>
+      <c r="C2443" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2443" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2443" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2443" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2443" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2443" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I2443" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2443">
+        <v>1</v>
+      </c>
+      <c r="K2443">
+        <v>5450000</v>
+      </c>
+      <c r="L2443">
+        <v>5450000</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:12">
+      <c r="A2444">
+        <v>2441</v>
+      </c>
+      <c r="B2444">
+        <v>626402</v>
+      </c>
+      <c r="C2444" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2444" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2444" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2444" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2444" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2444" t="s">
+        <v>485</v>
+      </c>
+      <c r="I2444" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2444">
+        <v>1</v>
+      </c>
+      <c r="K2444">
+        <v>4950000</v>
+      </c>
+      <c r="L2444">
+        <v>4950000</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:12">
+      <c r="A2445">
+        <v>2442</v>
+      </c>
+      <c r="B2445">
+        <v>626402</v>
+      </c>
+      <c r="C2445" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2445" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2445" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2445" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2445" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2445" t="s">
+        <v>2500</v>
+      </c>
+      <c r="I2445" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2445">
+        <v>1</v>
+      </c>
+      <c r="K2445">
+        <v>50000000</v>
+      </c>
+      <c r="L2445">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:12">
+      <c r="A2446">
+        <v>2443</v>
+      </c>
+      <c r="B2446">
+        <v>626402</v>
+      </c>
+      <c r="C2446" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2446" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2446" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2446" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2446" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2446" t="s">
+        <v>233</v>
+      </c>
+      <c r="I2446" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2446">
+        <v>1</v>
+      </c>
+      <c r="K2446">
+        <v>9193900</v>
+      </c>
+      <c r="L2446">
+        <v>9193900</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:12">
+      <c r="A2447">
+        <v>2444</v>
+      </c>
+      <c r="B2447">
+        <v>626402</v>
+      </c>
+      <c r="C2447" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2447" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2447" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2447" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2447" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2447" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I2447" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2447">
+        <v>1</v>
+      </c>
+      <c r="K2447">
+        <v>310500</v>
+      </c>
+      <c r="L2447">
+        <v>310500</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:12">
+      <c r="A2448">
+        <v>2445</v>
+      </c>
+      <c r="B2448">
+        <v>626402</v>
+      </c>
+      <c r="C2448" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2448" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2448" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F2448" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G2448" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2448" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I2448" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2448">
+        <v>1</v>
+      </c>
+      <c r="K2448">
+        <v>600000</v>
+      </c>
+      <c r="L2448">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:12">
+      <c r="A2449">
+        <v>2446</v>
+      </c>
+      <c r="B2449">
+        <v>626402</v>
+      </c>
+      <c r="C2449" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2449" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E2449" t="s">
+        <v>2502</v>
+      </c>
+      <c r="F2449" t="s">
+        <v>2503</v>
+      </c>
+      <c r="G2449" t="s">
+        <v>2504</v>
+      </c>
+      <c r="H2449" t="s">
+        <v>465</v>
+      </c>
+      <c r="I2449" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2449">
+        <v>1</v>
+      </c>
+      <c r="K2449">
+        <v>47250000</v>
+      </c>
+      <c r="L2449">
+        <v>47250000</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:12">
+      <c r="A2450">
+        <v>2447</v>
+      </c>
+      <c r="B2450">
+        <v>626402</v>
+      </c>
+      <c r="C2450" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2450" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E2450" t="s">
+        <v>2505</v>
+      </c>
+      <c r="F2450" t="s">
+        <v>2506</v>
+      </c>
+      <c r="G2450" t="s">
+        <v>2507</v>
+      </c>
+      <c r="H2450" t="s">
+        <v>526</v>
+      </c>
+      <c r="I2450" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2450">
+        <v>1</v>
+      </c>
+      <c r="K2450">
+        <v>189315969</v>
+      </c>
+      <c r="L2450">
+        <v>189315969</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:12">
+      <c r="A2451">
+        <v>2448</v>
+      </c>
+      <c r="B2451">
+        <v>626402</v>
+      </c>
+      <c r="C2451" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2451" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E2451" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F2451" t="s">
+        <v>2509</v>
+      </c>
+      <c r="G2451" t="s">
+        <v>2510</v>
+      </c>
+      <c r="H2451" t="s">
+        <v>530</v>
+      </c>
+      <c r="I2451" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2451">
+        <v>1</v>
+      </c>
+      <c r="K2451">
+        <v>159570082</v>
+      </c>
+      <c r="L2451">
+        <v>159570082</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:12">
+      <c r="A2452">
+        <v>2449</v>
+      </c>
+      <c r="B2452">
+        <v>626402</v>
+      </c>
+      <c r="C2452" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2452" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E2452" t="s">
+        <v>2511</v>
+      </c>
+      <c r="F2452" t="s">
+        <v>2512</v>
+      </c>
+      <c r="G2452" t="s">
+        <v>2513</v>
+      </c>
+      <c r="H2452" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I2452" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2452">
+        <v>1</v>
+      </c>
+      <c r="K2452">
+        <v>36546750</v>
+      </c>
+      <c r="L2452">
+        <v>36546750</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:12">
+      <c r="A2453">
+        <v>2450</v>
+      </c>
+      <c r="B2453">
+        <v>626402</v>
+      </c>
+      <c r="C2453" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2453" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E2453" t="s">
+        <v>2514</v>
+      </c>
+      <c r="F2453" t="s">
+        <v>2515</v>
+      </c>
+      <c r="G2453" t="s">
+        <v>2516</v>
+      </c>
+      <c r="H2453" t="s">
+        <v>835</v>
+      </c>
+      <c r="I2453" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2453">
+        <v>1</v>
+      </c>
+      <c r="K2453">
+        <v>27564075</v>
+      </c>
+      <c r="L2453">
+        <v>27564075</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:12">
+      <c r="A2454">
+        <v>2451</v>
+      </c>
+      <c r="B2454">
+        <v>626402</v>
+      </c>
+      <c r="C2454" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2454" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E2454" t="s">
+        <v>2517</v>
+      </c>
+      <c r="F2454" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G2454" t="s">
+        <v>2519</v>
+      </c>
+      <c r="H2454" t="s">
+        <v>630</v>
+      </c>
+      <c r="I2454" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2454">
+        <v>1</v>
+      </c>
+      <c r="K2454">
+        <v>16600000</v>
+      </c>
+      <c r="L2454">
+        <v>16600000</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:12">
+      <c r="A2455">
+        <v>2452</v>
+      </c>
+      <c r="B2455">
+        <v>626402</v>
+      </c>
+      <c r="C2455" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2455" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E2455" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F2455" t="s">
+        <v>2521</v>
+      </c>
+      <c r="G2455" t="s">
+        <v>2522</v>
+      </c>
+      <c r="H2455" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2455" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2455">
+        <v>1</v>
+      </c>
+      <c r="K2455">
+        <v>178497122</v>
+      </c>
+      <c r="L2455">
+        <v>178497122</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:12">
+      <c r="A2456">
+        <v>2453</v>
+      </c>
+      <c r="B2456">
+        <v>626402</v>
+      </c>
+      <c r="C2456" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2456" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E2456" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F2456" t="s">
+        <v>2524</v>
+      </c>
+      <c r="G2456" t="s">
+        <v>2525</v>
+      </c>
+      <c r="H2456" t="s">
+        <v>1546</v>
+      </c>
+      <c r="I2456" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2456">
+        <v>1</v>
+      </c>
+      <c r="K2456">
+        <v>4041500</v>
+      </c>
+      <c r="L2456">
+        <v>4041500</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:12">
+      <c r="A2457">
+        <v>2454</v>
+      </c>
+      <c r="B2457">
+        <v>626402</v>
+      </c>
+      <c r="C2457" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2457" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E2457" t="s">
+        <v>2526</v>
+      </c>
+      <c r="F2457" t="s">
+        <v>2527</v>
+      </c>
+      <c r="G2457" t="s">
+        <v>2528</v>
+      </c>
+      <c r="H2457" t="s">
+        <v>1546</v>
+      </c>
+      <c r="I2457" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2457">
+        <v>1</v>
+      </c>
+      <c r="K2457">
+        <v>1951000</v>
+      </c>
+      <c r="L2457">
+        <v>1951000</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:12">
+      <c r="A2458">
+        <v>2455</v>
+      </c>
+      <c r="B2458">
+        <v>626402</v>
+      </c>
+      <c r="C2458" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2458" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E2458" t="s">
+        <v>2529</v>
+      </c>
+      <c r="F2458" t="s">
+        <v>2530</v>
+      </c>
+      <c r="G2458" t="s">
+        <v>2531</v>
+      </c>
+      <c r="H2458" t="s">
+        <v>582</v>
+      </c>
+      <c r="I2458" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2458">
+        <v>1</v>
+      </c>
+      <c r="K2458">
+        <v>1340000</v>
+      </c>
+      <c r="L2458">
+        <v>1340000</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:12">
+      <c r="A2459">
+        <v>2456</v>
+      </c>
+      <c r="B2459">
+        <v>626402</v>
+      </c>
+      <c r="C2459" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2459" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2459" t="s">
+        <v>2532</v>
+      </c>
+      <c r="F2459" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G2459" t="s">
+        <v>2534</v>
+      </c>
+      <c r="H2459" t="s">
+        <v>438</v>
+      </c>
+      <c r="I2459" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2459">
+        <v>1</v>
+      </c>
+      <c r="K2459">
+        <v>328000</v>
+      </c>
+      <c r="L2459">
+        <v>328000</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:12">
+      <c r="A2460">
+        <v>2457</v>
+      </c>
+      <c r="B2460">
+        <v>626402</v>
+      </c>
+      <c r="C2460" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2460" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2460" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F2460" t="s">
+        <v>2536</v>
+      </c>
+      <c r="G2460" t="s">
+        <v>2537</v>
+      </c>
+      <c r="H2460" t="s">
+        <v>442</v>
+      </c>
+      <c r="I2460" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2460">
+        <v>1</v>
+      </c>
+      <c r="K2460">
+        <v>481000</v>
+      </c>
+      <c r="L2460">
+        <v>481000</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:12">
+      <c r="A2461">
+        <v>2458</v>
+      </c>
+      <c r="B2461">
+        <v>626402</v>
+      </c>
+      <c r="C2461" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2461" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2461" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F2461" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G2461" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H2461" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2461" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2461">
+        <v>1</v>
+      </c>
+      <c r="K2461">
+        <v>56694000</v>
+      </c>
+      <c r="L2461">
+        <v>56694000</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:12">
+      <c r="A2462">
+        <v>2459</v>
+      </c>
+      <c r="B2462">
+        <v>626402</v>
+      </c>
+      <c r="C2462" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2462" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2462" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F2462" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G2462" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H2462" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2462" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2462">
+        <v>1</v>
+      </c>
+      <c r="K2462">
+        <v>8545000</v>
+      </c>
+      <c r="L2462">
+        <v>8545000</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:12">
+      <c r="A2463">
+        <v>2460</v>
+      </c>
+      <c r="B2463">
+        <v>626402</v>
+      </c>
+      <c r="C2463" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2463" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2463" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F2463" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G2463" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H2463" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I2463" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2463">
+        <v>1</v>
+      </c>
+      <c r="K2463">
+        <v>4400000</v>
+      </c>
+      <c r="L2463">
+        <v>4400000</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:12">
+      <c r="A2464">
+        <v>2461</v>
+      </c>
+      <c r="B2464">
+        <v>626402</v>
+      </c>
+      <c r="C2464" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2464" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2464" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F2464" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G2464" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H2464" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I2464" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2464">
+        <v>1</v>
+      </c>
+      <c r="K2464">
+        <v>2558200</v>
+      </c>
+      <c r="L2464">
+        <v>2558200</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:12">
+      <c r="A2465">
+        <v>2462</v>
+      </c>
+      <c r="B2465">
+        <v>626402</v>
+      </c>
+      <c r="C2465" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2465" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2465" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F2465" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G2465" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H2465" t="s">
+        <v>375</v>
+      </c>
+      <c r="I2465" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2465">
+        <v>1</v>
+      </c>
+      <c r="K2465">
+        <v>259123</v>
+      </c>
+      <c r="L2465">
+        <v>259123</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:12">
+      <c r="A2466">
+        <v>2463</v>
+      </c>
+      <c r="B2466">
+        <v>626402</v>
+      </c>
+      <c r="C2466" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2466" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2466" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F2466" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G2466" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H2466" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2466" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2466">
+        <v>1</v>
+      </c>
+      <c r="K2466">
+        <v>1394057</v>
+      </c>
+      <c r="L2466">
+        <v>1394057</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:12">
+      <c r="A2467">
+        <v>2464</v>
+      </c>
+      <c r="B2467">
+        <v>626402</v>
+      </c>
+      <c r="C2467" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2467" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2467" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F2467" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G2467" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H2467" t="s">
+        <v>612</v>
+      </c>
+      <c r="I2467" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2467">
+        <v>1</v>
+      </c>
+      <c r="K2467">
+        <v>550000</v>
+      </c>
+      <c r="L2467">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:12">
+      <c r="A2468">
+        <v>2465</v>
+      </c>
+      <c r="B2468">
+        <v>626402</v>
+      </c>
+      <c r="C2468" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2468" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2468" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F2468" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G2468" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H2468" t="s">
+        <v>907</v>
+      </c>
+      <c r="I2468" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2468">
+        <v>1</v>
+      </c>
+      <c r="K2468">
+        <v>1858950</v>
+      </c>
+      <c r="L2468">
+        <v>1858950</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:12">
+      <c r="A2469">
+        <v>2466</v>
+      </c>
+      <c r="B2469">
+        <v>626402</v>
+      </c>
+      <c r="C2469" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2469" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2469" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F2469" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G2469" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H2469" t="s">
+        <v>812</v>
+      </c>
+      <c r="I2469" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2469">
+        <v>1</v>
+      </c>
+      <c r="K2469">
+        <v>6329949</v>
+      </c>
+      <c r="L2469">
+        <v>6329949</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:12">
+      <c r="A2470">
+        <v>2467</v>
+      </c>
+      <c r="B2470">
+        <v>626402</v>
+      </c>
+      <c r="C2470" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2470" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2470" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F2470" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G2470" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H2470" t="s">
+        <v>813</v>
+      </c>
+      <c r="I2470" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2470">
+        <v>1</v>
+      </c>
+      <c r="K2470">
+        <v>3918000</v>
+      </c>
+      <c r="L2470">
+        <v>3918000</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:12">
+      <c r="A2471">
+        <v>2468</v>
+      </c>
+      <c r="B2471">
+        <v>626402</v>
+      </c>
+      <c r="C2471" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2471" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2471" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F2471" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G2471" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H2471" t="s">
+        <v>815</v>
+      </c>
+      <c r="I2471" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2471">
+        <v>1</v>
+      </c>
+      <c r="K2471">
+        <v>9000000</v>
+      </c>
+      <c r="L2471">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:12">
+      <c r="A2472">
+        <v>2469</v>
+      </c>
+      <c r="B2472">
+        <v>626402</v>
+      </c>
+      <c r="C2472" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2472" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2472" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F2472" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G2472" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H2472" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2472" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2472">
+        <v>1</v>
+      </c>
+      <c r="K2472">
+        <v>2074886</v>
+      </c>
+      <c r="L2472">
+        <v>2074886</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:12">
+      <c r="A2473">
+        <v>2470</v>
+      </c>
+      <c r="B2473">
+        <v>626402</v>
+      </c>
+      <c r="C2473" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2473" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2473" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F2473" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G2473" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H2473" t="s">
+        <v>769</v>
+      </c>
+      <c r="I2473" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2473">
+        <v>1</v>
+      </c>
+      <c r="K2473">
+        <v>525000</v>
+      </c>
+      <c r="L2473">
+        <v>525000</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:12">
+      <c r="A2474">
+        <v>2471</v>
+      </c>
+      <c r="B2474">
+        <v>626402</v>
+      </c>
+      <c r="C2474" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2474" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2474" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F2474" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G2474" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H2474" t="s">
+        <v>770</v>
+      </c>
+      <c r="I2474" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2474">
+        <v>1</v>
+      </c>
+      <c r="K2474">
+        <v>750000</v>
+      </c>
+      <c r="L2474">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:12">
+      <c r="A2475">
+        <v>2472</v>
+      </c>
+      <c r="B2475">
+        <v>626402</v>
+      </c>
+      <c r="C2475" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2475" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2475" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F2475" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G2475" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H2475" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2475" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2475">
+        <v>1</v>
+      </c>
+      <c r="K2475">
+        <v>600000</v>
+      </c>
+      <c r="L2475">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:12">
+      <c r="A2476">
+        <v>2473</v>
+      </c>
+      <c r="B2476">
+        <v>626402</v>
+      </c>
+      <c r="C2476" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2476" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2476" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F2476" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G2476" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H2476" t="s">
+        <v>401</v>
+      </c>
+      <c r="I2476" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2476">
+        <v>1</v>
+      </c>
+      <c r="K2476">
+        <v>520000</v>
+      </c>
+      <c r="L2476">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:12">
+      <c r="A2477">
+        <v>2474</v>
+      </c>
+      <c r="B2477">
+        <v>626402</v>
+      </c>
+      <c r="C2477" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2477" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E2477" t="s">
+        <v>2541</v>
+      </c>
+      <c r="F2477" t="s">
+        <v>2542</v>
+      </c>
+      <c r="G2477" t="s">
+        <v>2543</v>
+      </c>
+      <c r="H2477" t="s">
+        <v>2544</v>
+      </c>
+      <c r="I2477" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2477">
+        <v>1</v>
+      </c>
+      <c r="K2477">
+        <v>4440000</v>
+      </c>
+      <c r="L2477">
+        <v>4440000</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:12">
+      <c r="A2478">
+        <v>2475</v>
+      </c>
+      <c r="B2478">
+        <v>626402</v>
+      </c>
+      <c r="C2478" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2478" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E2478" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F2478" t="s">
+        <v>2546</v>
+      </c>
+      <c r="G2478" t="s">
+        <v>2547</v>
+      </c>
+      <c r="H2478" t="s">
+        <v>812</v>
+      </c>
+      <c r="I2478" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2478">
+        <v>1</v>
+      </c>
+      <c r="K2478">
+        <v>19469400</v>
+      </c>
+      <c r="L2478">
+        <v>19469400</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:12">
+      <c r="A2479">
+        <v>2476</v>
+      </c>
+      <c r="B2479">
+        <v>626402</v>
+      </c>
+      <c r="C2479" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2479" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E2479" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F2479" t="s">
+        <v>2549</v>
+      </c>
+      <c r="G2479" t="s">
+        <v>2550</v>
+      </c>
+      <c r="H2479" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2479" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2479">
+        <v>1</v>
+      </c>
+      <c r="K2479">
+        <v>21756000</v>
+      </c>
+      <c r="L2479">
+        <v>21756000</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:12">
+      <c r="A2480">
+        <v>2477</v>
+      </c>
+      <c r="B2480">
+        <v>626402</v>
+      </c>
+      <c r="C2480" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2480" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E2480" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F2480" t="s">
+        <v>2552</v>
+      </c>
+      <c r="G2480" t="s">
+        <v>2553</v>
+      </c>
+      <c r="H2480" t="s">
+        <v>604</v>
+      </c>
+      <c r="I2480" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2480">
+        <v>1</v>
+      </c>
+      <c r="K2480">
+        <v>20993240</v>
+      </c>
+      <c r="L2480">
+        <v>20993240</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:12">
+      <c r="A2481">
+        <v>2478</v>
+      </c>
+      <c r="B2481">
+        <v>626402</v>
+      </c>
+      <c r="C2481" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2481" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2481" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F2481" t="s">
+        <v>2555</v>
+      </c>
+      <c r="G2481" t="s">
+        <v>2556</v>
+      </c>
+      <c r="H2481" t="s">
+        <v>2229</v>
+      </c>
+      <c r="I2481" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2481">
+        <v>1</v>
+      </c>
+      <c r="K2481">
+        <v>901000</v>
+      </c>
+      <c r="L2481">
+        <v>901000</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:12">
+      <c r="A2482">
+        <v>2479</v>
+      </c>
+      <c r="B2482">
+        <v>626402</v>
+      </c>
+      <c r="C2482" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2482" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2482" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F2482" t="s">
+        <v>2558</v>
+      </c>
+      <c r="G2482" t="s">
+        <v>2559</v>
+      </c>
+      <c r="H2482" t="s">
+        <v>442</v>
+      </c>
+      <c r="I2482" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2482">
+        <v>1</v>
+      </c>
+      <c r="K2482">
+        <v>34503000</v>
+      </c>
+      <c r="L2482">
+        <v>34503000</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:12">
+      <c r="A2483">
+        <v>2480</v>
+      </c>
+      <c r="B2483">
+        <v>626402</v>
+      </c>
+      <c r="C2483" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2483" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2483" t="s">
+        <v>2560</v>
+      </c>
+      <c r="F2483" t="s">
+        <v>2561</v>
+      </c>
+      <c r="G2483" t="s">
+        <v>2562</v>
+      </c>
+      <c r="H2483" t="s">
+        <v>438</v>
+      </c>
+      <c r="I2483" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2483">
+        <v>1</v>
+      </c>
+      <c r="K2483">
+        <v>22238000</v>
+      </c>
+      <c r="L2483">
+        <v>22238000</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:12">
+      <c r="A2484">
+        <v>2481</v>
+      </c>
+      <c r="B2484">
+        <v>626402</v>
+      </c>
+      <c r="C2484" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2484" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E2484" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F2484" t="s">
+        <v>2564</v>
+      </c>
+      <c r="G2484" t="s">
+        <v>2565</v>
+      </c>
+      <c r="H2484" t="s">
+        <v>434</v>
+      </c>
+      <c r="I2484" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2484">
+        <v>1</v>
+      </c>
+      <c r="K2484">
+        <v>19497000</v>
+      </c>
+      <c r="L2484">
+        <v>19497000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2603">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -7403,316 +7403,427 @@
     <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.956.101.0B.000204</t>
   </si>
   <si>
-    <t>'00564T</t>
-  </si>
-  <si>
-    <t>'231751701003393</t>
-  </si>
-  <si>
-    <t>Pertanggungjawaban Tambahan Uang Persediaan untuk Keperluan Belanja Barang.</t>
-  </si>
-  <si>
-    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0D.000890</t>
-  </si>
-  <si>
-    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.102.0C.001215</t>
-  </si>
-  <si>
-    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.102.0C.001216</t>
-  </si>
-  <si>
-    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001403</t>
-  </si>
-  <si>
-    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001404</t>
-  </si>
-  <si>
-    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001405</t>
-  </si>
-  <si>
-    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001407</t>
-  </si>
-  <si>
-    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001409</t>
-  </si>
-  <si>
-    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001410</t>
-  </si>
-  <si>
-    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001411</t>
-  </si>
-  <si>
-    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001412</t>
-  </si>
-  <si>
-    <t>'626402.175.521213.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.001413</t>
-  </si>
-  <si>
-    <t>'626402.175.521241.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0D.000896</t>
-  </si>
-  <si>
-    <t>'626402.175.522191.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.102.0C.001222</t>
-  </si>
-  <si>
-    <t>'626402.175.522191.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.102.0C.001223</t>
-  </si>
-  <si>
-    <t>'626402.175.524111.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.102.0A.000814</t>
+    <t>'00568T</t>
+  </si>
+  <si>
+    <t>'231751701003394</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0A.000844</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0B.000859</t>
+  </si>
+  <si>
+    <t>'626402.175.521241.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0D.000897</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0B.000865</t>
+  </si>
+  <si>
+    <t>2023-06-16</t>
+  </si>
+  <si>
+    <t>'00569T</t>
+  </si>
+  <si>
+    <t>'231751303014417</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan KKP untuk keperluan belanja barang (BPP 001 Set BRSDM)</t>
+  </si>
+  <si>
+    <t>'00570T</t>
+  </si>
+  <si>
+    <t>'231751303014418</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.301.0H.001458</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.301.0H.001459</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.301.0H.001460</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GA.000527</t>
+  </si>
+  <si>
+    <t>'626402.175.522141.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GB.000531</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
+    <t>'00571T</t>
+  </si>
+  <si>
+    <t>'231751301024305</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:1/PPK/BRSDM.1/I/2023 Tgl.2-1-2023,BAST No:BAST.1945/PPK/BRSDM.1/V/2023 Tgl.31-5-2023,BAP No:1946/PPK/BRSDM.1/V/2023 Tgl.31-5-2023 Pengadaan Jasa Internet Provider Sekretariat BRSDM TA.2023 TERMIN 5</t>
+  </si>
+  <si>
+    <t>'00572T</t>
+  </si>
+  <si>
+    <t>'231751302018874</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:2/PPK/BRSDM.1/I/2023 Tgl.2-1-2023,BAST No:BAST.1943/PPK/BRSDM.1/V/2023 Tgl.31-5-2023,BAP No:1944/PPK/BRSDM.1/V/2023 Tgl.31-5-22025 Pengadaan Jasa Tenaga Kebersihan Sekretariat BRSDM TA.2023 TERMIN 5</t>
+  </si>
+  <si>
+    <t>'00573T</t>
+  </si>
+  <si>
+    <t>'231751301024303</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:3/PPK/BRSDM.1/I/2023 Tgl.2-1-2023,BAST No:BAST.1941/PPK/BRSDM.1/V/2023 Tgl.31-5-2023,BAP No:1942/PPK/BRSDM.1/V/2023 Tgl.31-5-2023 Pengadaan Jasa Satuan Pengamanan Sekretariat BRSDM TA.2023 TERMIN 5</t>
+  </si>
+  <si>
+    <t>'00574T</t>
+  </si>
+  <si>
+    <t>'231751301024311</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:025/PE/KWT/V/2023 Tanggal 15 Mei 2023 Pekerjaan perbaikan Plafon+Pasang Talang Plat Lobby Depan Auditorium Lt.IV Gd.Sekretariat BRSDM KP I Ancol</t>
+  </si>
+  <si>
+    <t>'00575T</t>
+  </si>
+  <si>
+    <t>'231751301024302</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:042/SM/KW/V/2023 Tanggal 9 Mei 2023 Biaya pekerjaan Pemeliharaab Kendaraan Dinas Operasional Angkutan Roda 6 Set.BRSDM</t>
+  </si>
+  <si>
+    <t>'00576T</t>
+  </si>
+  <si>
+    <t>'231751303014391</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:0456/KW-KRM/V/2023 Tanggal 25 Mei 2023 Biaya Pemeliharaan dan perawatan Infrastruktur Integrasi Gd. BRSDM Ancol Bulan Mei 2023</t>
+  </si>
+  <si>
+    <t>'00577T</t>
+  </si>
+  <si>
+    <t>'231751301024312</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:1074/AGA.04.02/F06010000/2023 Tanggal 5 Juni 2023 Pembayaran Rekening Listrik Bulan Juni 2023 untuk pemakaian Energi Listrik Bulan Mei 2023</t>
+  </si>
+  <si>
+    <t>'00578T</t>
+  </si>
+  <si>
+    <t>'231751303014410</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2290/BRSDM.1/KP.440/V/2023 Tanggal 4 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00579T</t>
+  </si>
+  <si>
+    <t>'231751303014411</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2289/BRSDM.1/KP.440/V/2023 Tanggal 4 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00580T</t>
+  </si>
+  <si>
+    <t>'231751303014399</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2424/BRSDM.1/KP.440/V/2023 Tanggal 9 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00581T</t>
+  </si>
+  <si>
+    <t>'231751303014416</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai Pusdik bulan Mei 2023 untuk 1 pegawai )</t>
+  </si>
+  <si>
+    <t>'00582T</t>
+  </si>
+  <si>
+    <t>'231751303014419</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai sekretariat BRSDM bulan Mei 2023 untuk 1 pegawai)</t>
+  </si>
+  <si>
+    <t>'00583T</t>
+  </si>
+  <si>
+    <t>'231751303014425</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan untuk keperluan belanja barang (BPP 001 Set.BRSDM)</t>
+  </si>
+  <si>
+    <t>'00584T</t>
+  </si>
+  <si>
+    <t>'231751301024295</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Modal Sesuai Kwitansi Nomor:02/KWT/PFI/V/2023 Tanggal 3 Mei 2023 Biaya Pekerjaan Pembuatan Rak Sepatu untuk Mushola BRSDM</t>
+  </si>
+  <si>
+    <t>'626402.175.532111.03212WA.2378EBB.A000000001.00000.1.0151.2.000000.000000.971.102.0A.001416</t>
+  </si>
+  <si>
+    <t>'00585T</t>
+  </si>
+  <si>
+    <t>'231751301024301</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:1300032025 Tanggal 30 Mei 2023 Biaya Pemeliharaan Kendaraan Dinas Opersional Roda 4 Sekretariat BRSDMKP</t>
+  </si>
+  <si>
+    <t>'00586T</t>
+  </si>
+  <si>
+    <t>'231751301024429</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:043/SM/KW/V/2023 Tanggal 12 Mei 2023 Biaya Penayangan News Kilat BRSDM Bulan Mei 2023</t>
+  </si>
+  <si>
+    <t>'00587T</t>
+  </si>
+  <si>
+    <t>'231751303014501</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.815/BRSDM.5/KP.440/VI/2023.Tanggal 05 Juni 2023.</t>
+  </si>
+  <si>
+    <t>'00588T</t>
+  </si>
+  <si>
+    <t>'231751303014513</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai (pembayaran uang lembur dan uang makan lembur pegawai Pusdik bulan April 2023 untuk 6 pegawai sesuai SPKL no 780,843,855/BRSDM.4/KP.440/IV/2023 tanggal 3,11,12 April 2023)</t>
+  </si>
+  <si>
+    <t>'00589T</t>
+  </si>
+  <si>
+    <t>'231751303014511</t>
+  </si>
+  <si>
+    <t>pembayaran belanja pegawai(Pembayaran uang makan pegawai Sekretariat BRSDM bulan Mei 2023 untuk 74 pegawai)</t>
+  </si>
+  <si>
+    <t>'00590T</t>
+  </si>
+  <si>
+    <t>'231751303014514</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai ( pembayaran uang makan pegawai Pusdik bulan Mei 2023 untuk 41 pegawai)</t>
+  </si>
+  <si>
+    <t>'00591T</t>
+  </si>
+  <si>
+    <t>'231751303014512</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai Puslatluh bulan Mei 2023 untuk 34 pegawai)</t>
+  </si>
+  <si>
+    <t>2023-06-20</t>
+  </si>
+  <si>
+    <t>'00592T</t>
+  </si>
+  <si>
+    <t>'231751303014614</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.3303/BRSDM.1/KP.440/VI/2023 Tanggal 16 Juni 2023</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.0D.001425</t>
+  </si>
+  <si>
+    <t>2023-06-21</t>
+  </si>
+  <si>
+    <t>'00593T</t>
+  </si>
+  <si>
+    <t>'231751303014949</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan KKP untuk keperluan belanja barang (BPP 001 Set.BRSDM)</t>
+  </si>
+  <si>
+    <t>2023-06-22</t>
+  </si>
+  <si>
+    <t>'00594T</t>
+  </si>
+  <si>
+    <t>'231751303014898</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.1348/SJ/KP.440/V/2023 Tanggal 16 Mei 2023, Surat Tugas Nomor:B.3040/BRSDM.1/TU.440/VI/2023 Tanggal 6 Juni 2023</t>
+  </si>
+  <si>
+    <t>'00595T</t>
+  </si>
+  <si>
+    <t>'231751303014950</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan untuk keperluan belanja barang (BPP 001 PUSLATLUH KP)</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0A.000003</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0A.000005</t>
+  </si>
+  <si>
+    <t>'626402.175.522151.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0A.000006</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.201.0B.000582</t>
+  </si>
+  <si>
+    <t>'626402.175.524119.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0A.000009</t>
+  </si>
+  <si>
+    <t>'00596T</t>
+  </si>
+  <si>
+    <t>'231751303014899</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2992/BRSDM.1/KP.440/V/2023 Tanggal 21 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00597T</t>
+  </si>
+  <si>
+    <t>'231751301025156</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:C.TEL.06/KU.370/DGS-B30002000/2023 Tanggal 9 juni 2023 Pembayaran Jasa Telekomunikasi Tagihan Bulan Juni 2023</t>
+  </si>
+  <si>
+    <t>'00598T</t>
+  </si>
+  <si>
+    <t>'231751302019530</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:34302031,34302488,34302686 Tanggal 31 Mei 2023 Pembayaran tagihan AIR PAM Kantor BRSDM Ancol Bulan Mei 2023</t>
+  </si>
+  <si>
+    <t>'00599T</t>
+  </si>
+  <si>
+    <t>'231751303014923</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:2236/UMUM/2/0623 Tanggal 6 Juni 2023 Biaya pengiriman surat dan dokumen bulan Mei 2023</t>
+  </si>
+  <si>
+    <t>'00600T</t>
+  </si>
+  <si>
+    <t>'231751302019499</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai kwitansi Nomor:06/KW/PT-HAM/VI/2023 Tanggal 6 Juni 2023 Biaya pemeliharaan pengharum ruangan Merk Calmic BRSDM Bulan Mei 2023</t>
+  </si>
+  <si>
+    <t>'00601T</t>
+  </si>
+  <si>
+    <t>'231751302019500</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:06.a/KW/PT-HAM/VI/2023 Tanggal 6 Juni 2023 Biaya pemeliharaan pengharum ruangan merk calmic gd.I dan II BRSDM Ancol bulan Mei 2023</t>
+  </si>
+  <si>
+    <t>'00603T</t>
+  </si>
+  <si>
+    <t>'231751303014900</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.3184/SJ/KP.440/VI/2023 Tanggal 14 Juni 2023</t>
+  </si>
+  <si>
+    <t>'00604T</t>
+  </si>
+  <si>
+    <t>'231751303014901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang Sesuai Sesuai Surat Tugas Nomor:B.3070/BRSDM.1/KP.440/VI/2023 Tanggal 7 Juni 2023 </t>
+  </si>
+  <si>
+    <t>'00605T</t>
+  </si>
+  <si>
+    <t>'231751303014902</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.3072/BRSDM.1/KP.440/VI/2023 Tanggal 7 Juni 2023</t>
+  </si>
+  <si>
+    <t>'00606T</t>
+  </si>
+  <si>
+    <t>'231751303014903</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2441/BRSDM.1/KP.440/V/2023 Tanggal 31 Mei 2023</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.101.0A.001159</t>
+  </si>
+  <si>
+    <t>'00607T</t>
+  </si>
+  <si>
+    <t>'231751303014951</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.102.0C.001227</t>
+  </si>
+  <si>
+    <t>'00608T</t>
+  </si>
+  <si>
+    <t>'231751303014904</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.3061/BRSDM.1/KP.440/VI/2023 Tanggal 7 Juni 2023</t>
   </si>
   <si>
     <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0C.000878</t>
-  </si>
-  <si>
-    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0A.000852</t>
-  </si>
-  <si>
-    <t>'626402.175.524114.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.103.0B.000838</t>
-  </si>
-  <si>
-    <t>'00568T</t>
-  </si>
-  <si>
-    <t>'231751701003394</t>
-  </si>
-  <si>
-    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0A.000844</t>
-  </si>
-  <si>
-    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0B.000859</t>
-  </si>
-  <si>
-    <t>'626402.175.521241.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0D.000897</t>
-  </si>
-  <si>
-    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0B.000865</t>
-  </si>
-  <si>
-    <t>2023-06-16</t>
-  </si>
-  <si>
-    <t>'00569T</t>
-  </si>
-  <si>
-    <t>'231751303014417</t>
-  </si>
-  <si>
-    <t>Penggantian uang persediaan KKP untuk keperluan belanja barang (BPP 001 Set BRSDM)</t>
-  </si>
-  <si>
-    <t>'00570T</t>
-  </si>
-  <si>
-    <t>'231751303014418</t>
-  </si>
-  <si>
-    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.301.0H.001458</t>
-  </si>
-  <si>
-    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.301.0H.001459</t>
-  </si>
-  <si>
-    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.301.0H.001460</t>
-  </si>
-  <si>
-    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GA.000527</t>
-  </si>
-  <si>
-    <t>'626402.175.522141.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GB.000531</t>
-  </si>
-  <si>
-    <t>2023-06-19</t>
-  </si>
-  <si>
-    <t>'00571T</t>
-  </si>
-  <si>
-    <t>'231751301024305</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai SPK No:1/PPK/BRSDM.1/I/2023 Tgl.2-1-2023,BAST No:BAST.1945/PPK/BRSDM.1/V/2023 Tgl.31-5-2023,BAP No:1946/PPK/BRSDM.1/V/2023 Tgl.31-5-2023 Pengadaan Jasa Internet Provider Sekretariat BRSDM TA.2023 TERMIN 5</t>
-  </si>
-  <si>
-    <t>'00572T</t>
-  </si>
-  <si>
-    <t>'231751302018874</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai SPK No:2/PPK/BRSDM.1/I/2023 Tgl.2-1-2023,BAST No:BAST.1943/PPK/BRSDM.1/V/2023 Tgl.31-5-2023,BAP No:1944/PPK/BRSDM.1/V/2023 Tgl.31-5-22025 Pengadaan Jasa Tenaga Kebersihan Sekretariat BRSDM TA.2023 TERMIN 5</t>
-  </si>
-  <si>
-    <t>'00573T</t>
-  </si>
-  <si>
-    <t>'231751301024303</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai SPK No:3/PPK/BRSDM.1/I/2023 Tgl.2-1-2023,BAST No:BAST.1941/PPK/BRSDM.1/V/2023 Tgl.31-5-2023,BAP No:1942/PPK/BRSDM.1/V/2023 Tgl.31-5-2023 Pengadaan Jasa Satuan Pengamanan Sekretariat BRSDM TA.2023 TERMIN 5</t>
-  </si>
-  <si>
-    <t>'00574T</t>
-  </si>
-  <si>
-    <t>'231751301024311</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:025/PE/KWT/V/2023 Tanggal 15 Mei 2023 Pekerjaan perbaikan Plafon+Pasang Talang Plat Lobby Depan Auditorium Lt.IV Gd.Sekretariat BRSDM KP I Ancol</t>
-  </si>
-  <si>
-    <t>'00575T</t>
-  </si>
-  <si>
-    <t>'231751301024302</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:042/SM/KW/V/2023 Tanggal 9 Mei 2023 Biaya pekerjaan Pemeliharaab Kendaraan Dinas Operasional Angkutan Roda 6 Set.BRSDM</t>
-  </si>
-  <si>
-    <t>'00576T</t>
-  </si>
-  <si>
-    <t>'231751303014391</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:0456/KW-KRM/V/2023 Tanggal 25 Mei 2023 Biaya Pemeliharaan dan perawatan Infrastruktur Integrasi Gd. BRSDM Ancol Bulan Mei 2023</t>
-  </si>
-  <si>
-    <t>'00577T</t>
-  </si>
-  <si>
-    <t>'231751301024312</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:1074/AGA.04.02/F06010000/2023 Tanggal 5 Juni 2023 Pembayaran Rekening Listrik Bulan Juni 2023 untuk pemakaian Energi Listrik Bulan Mei 2023</t>
-  </si>
-  <si>
-    <t>'00578T</t>
-  </si>
-  <si>
-    <t>'231751303014410</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2290/BRSDM.1/KP.440/V/2023 Tanggal 4 Mei 2023</t>
-  </si>
-  <si>
-    <t>'00579T</t>
-  </si>
-  <si>
-    <t>'231751303014411</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2289/BRSDM.1/KP.440/V/2023 Tanggal 4 Mei 2023</t>
-  </si>
-  <si>
-    <t>'00580T</t>
-  </si>
-  <si>
-    <t>'231751303014399</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2424/BRSDM.1/KP.440/V/2023 Tanggal 9 Mei 2023</t>
-  </si>
-  <si>
-    <t>'00581T</t>
-  </si>
-  <si>
-    <t>'231751303014416</t>
-  </si>
-  <si>
-    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai Pusdik bulan Mei 2023 untuk 1 pegawai )</t>
-  </si>
-  <si>
-    <t>'00582T</t>
-  </si>
-  <si>
-    <t>'231751303014419</t>
-  </si>
-  <si>
-    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai sekretariat BRSDM bulan Mei 2023 untuk 1 pegawai)</t>
-  </si>
-  <si>
-    <t>'00583T</t>
-  </si>
-  <si>
-    <t>'231751303014425</t>
-  </si>
-  <si>
-    <t>Penggantian uang persediaan untuk keperluan belanja barang (BPP 001 Set.BRSDM)</t>
-  </si>
-  <si>
-    <t>'00584T</t>
-  </si>
-  <si>
-    <t>'231751301024295</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Modal Sesuai Kwitansi Nomor:02/KWT/PFI/V/2023 Tanggal 3 Mei 2023 Biaya Pekerjaan Pembuatan Rak Sepatu untuk Mushola BRSDM</t>
-  </si>
-  <si>
-    <t>'626402.175.532111.03212WA.2378EBB.A000000001.00000.1.0151.2.000000.000000.971.102.0A.001416</t>
-  </si>
-  <si>
-    <t>'00585T</t>
-  </si>
-  <si>
-    <t>'231751301024301</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:1300032025 Tanggal 30 Mei 2023 Biaya Pemeliharaan Kendaraan Dinas Opersional Roda 4 Sekretariat BRSDMKP</t>
-  </si>
-  <si>
-    <t>'00586T</t>
-  </si>
-  <si>
-    <t>'231751301024429</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:043/SM/KW/V/2023 Tanggal 12 Mei 2023 Biaya Penayangan News Kilat BRSDM Bulan Mei 2023</t>
-  </si>
-  <si>
-    <t>'00587T</t>
-  </si>
-  <si>
-    <t>'231751303014501</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.815/BRSDM.5/KP.440/VI/2023.Tanggal 05 Juni 2023.</t>
-  </si>
-  <si>
-    <t>'00588T</t>
-  </si>
-  <si>
-    <t>'231751303014513</t>
-  </si>
-  <si>
-    <t>Pembayaran belanja pegawai (pembayaran uang lembur dan uang makan lembur pegawai Pusdik bulan April 2023 untuk 6 pegawai sesuai SPKL no 780,843,855/BRSDM.4/KP.440/IV/2023 tanggal 3,11,12 April 2023)</t>
-  </si>
-  <si>
-    <t>'00589T</t>
-  </si>
-  <si>
-    <t>'231751303014511</t>
-  </si>
-  <si>
-    <t>pembayaran belanja pegawai(Pembayaran uang makan pegawai Sekretariat BRSDM bulan Mei 2023 untuk 74 pegawai)</t>
-  </si>
-  <si>
-    <t>'00590T</t>
-  </si>
-  <si>
-    <t>'231751303014514</t>
-  </si>
-  <si>
-    <t>Pembayaran belanja pegawai ( pembayaran uang makan pegawai Pusdik bulan Mei 2023 untuk 41 pegawai)</t>
-  </si>
-  <si>
-    <t>'00591T</t>
-  </si>
-  <si>
-    <t>'231751303014512</t>
-  </si>
-  <si>
-    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai Puslatluh bulan Mei 2023 untuk 34 pegawai)</t>
   </si>
 </sst>
 </file>
@@ -8054,7 +8165,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L2484"/>
+  <dimension ref="A1:L2507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -97694,11 +97805,11 @@
         <v>2463</v>
       </c>
       <c r="G2361" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2361" t="s">
         <v>2464</v>
       </c>
-      <c r="H2361" t="s">
-        <v>933</v>
-      </c>
       <c r="I2361" t="s">
         <v>19</v>
       </c>
@@ -97706,10 +97817,10 @@
         <v>1</v>
       </c>
       <c r="K2361">
-        <v>7800000</v>
+        <v>1750000</v>
       </c>
       <c r="L2361">
-        <v>7800000</v>
+        <v>1750000</v>
       </c>
     </row>
     <row r="2362" spans="1:12">
@@ -97732,10 +97843,10 @@
         <v>2463</v>
       </c>
       <c r="G2362" t="s">
-        <v>2464</v>
+        <v>1536</v>
       </c>
       <c r="H2362" t="s">
-        <v>737</v>
+        <v>2465</v>
       </c>
       <c r="I2362" t="s">
         <v>19</v>
@@ -97744,10 +97855,10 @@
         <v>1</v>
       </c>
       <c r="K2362">
-        <v>1000000</v>
+        <v>1800000</v>
       </c>
       <c r="L2362">
-        <v>1000000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="2363" spans="1:12">
@@ -97770,10 +97881,10 @@
         <v>2463</v>
       </c>
       <c r="G2363" t="s">
-        <v>2464</v>
+        <v>1536</v>
       </c>
       <c r="H2363" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="I2363" t="s">
         <v>19</v>
@@ -97782,10 +97893,10 @@
         <v>1</v>
       </c>
       <c r="K2363">
-        <v>995400</v>
+        <v>4850000</v>
       </c>
       <c r="L2363">
-        <v>995400</v>
+        <v>4850000</v>
       </c>
     </row>
     <row r="2364" spans="1:12">
@@ -97808,10 +97919,10 @@
         <v>2463</v>
       </c>
       <c r="G2364" t="s">
-        <v>2464</v>
+        <v>1536</v>
       </c>
       <c r="H2364" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="I2364" t="s">
         <v>19</v>
@@ -97820,10 +97931,10 @@
         <v>1</v>
       </c>
       <c r="K2364">
-        <v>998250</v>
+        <v>1000000</v>
       </c>
       <c r="L2364">
-        <v>998250</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="2365" spans="1:12">
@@ -97846,10 +97957,10 @@
         <v>2463</v>
       </c>
       <c r="G2365" t="s">
-        <v>2464</v>
+        <v>1536</v>
       </c>
       <c r="H2365" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="I2365" t="s">
         <v>19</v>
@@ -97884,10 +97995,10 @@
         <v>2463</v>
       </c>
       <c r="G2366" t="s">
-        <v>2464</v>
+        <v>1536</v>
       </c>
       <c r="H2366" t="s">
-        <v>741</v>
+        <v>2466</v>
       </c>
       <c r="I2366" t="s">
         <v>19</v>
@@ -97896,10 +98007,10 @@
         <v>1</v>
       </c>
       <c r="K2366">
-        <v>992750</v>
+        <v>1900000</v>
       </c>
       <c r="L2366">
-        <v>992750</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="2367" spans="1:12">
@@ -97922,10 +98033,10 @@
         <v>2463</v>
       </c>
       <c r="G2367" t="s">
-        <v>2464</v>
+        <v>1536</v>
       </c>
       <c r="H2367" t="s">
-        <v>742</v>
+        <v>1345</v>
       </c>
       <c r="I2367" t="s">
         <v>19</v>
@@ -97934,10 +98045,10 @@
         <v>1</v>
       </c>
       <c r="K2367">
-        <v>995500</v>
+        <v>1616500</v>
       </c>
       <c r="L2367">
-        <v>995500</v>
+        <v>1616500</v>
       </c>
     </row>
     <row r="2368" spans="1:12">
@@ -97960,10 +98071,10 @@
         <v>2463</v>
       </c>
       <c r="G2368" t="s">
-        <v>2464</v>
+        <v>1536</v>
       </c>
       <c r="H2368" t="s">
-        <v>723</v>
+        <v>261</v>
       </c>
       <c r="I2368" t="s">
         <v>19</v>
@@ -97972,10 +98083,10 @@
         <v>1</v>
       </c>
       <c r="K2368">
-        <v>1999900</v>
+        <v>5374000</v>
       </c>
       <c r="L2368">
-        <v>1999900</v>
+        <v>5374000</v>
       </c>
     </row>
     <row r="2369" spans="1:12">
@@ -97998,10 +98109,10 @@
         <v>2463</v>
       </c>
       <c r="G2369" t="s">
-        <v>2464</v>
+        <v>1536</v>
       </c>
       <c r="H2369" t="s">
-        <v>724</v>
+        <v>132</v>
       </c>
       <c r="I2369" t="s">
         <v>19</v>
@@ -98010,10 +98121,10 @@
         <v>1</v>
       </c>
       <c r="K2369">
-        <v>1999200</v>
+        <v>856500</v>
       </c>
       <c r="L2369">
-        <v>1999200</v>
+        <v>856500</v>
       </c>
     </row>
     <row r="2370" spans="1:12">
@@ -98036,10 +98147,10 @@
         <v>2463</v>
       </c>
       <c r="G2370" t="s">
-        <v>2464</v>
+        <v>1536</v>
       </c>
       <c r="H2370" t="s">
-        <v>1560</v>
+        <v>766</v>
       </c>
       <c r="I2370" t="s">
         <v>19</v>
@@ -98048,10 +98159,10 @@
         <v>1</v>
       </c>
       <c r="K2370">
-        <v>4000000</v>
+        <v>450000</v>
       </c>
       <c r="L2370">
-        <v>4000000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="2371" spans="1:12">
@@ -98074,10 +98185,10 @@
         <v>2463</v>
       </c>
       <c r="G2371" t="s">
-        <v>2464</v>
+        <v>1536</v>
       </c>
       <c r="H2371" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="I2371" t="s">
         <v>19</v>
@@ -98086,10 +98197,10 @@
         <v>1</v>
       </c>
       <c r="K2371">
-        <v>2550000</v>
+        <v>9372220</v>
       </c>
       <c r="L2371">
-        <v>2550000</v>
+        <v>9372220</v>
       </c>
     </row>
     <row r="2372" spans="1:12">
@@ -98112,10 +98223,10 @@
         <v>2463</v>
       </c>
       <c r="G2372" t="s">
-        <v>2464</v>
+        <v>1536</v>
       </c>
       <c r="H2372" t="s">
-        <v>780</v>
+        <v>585</v>
       </c>
       <c r="I2372" t="s">
         <v>19</v>
@@ -98124,10 +98235,10 @@
         <v>1</v>
       </c>
       <c r="K2372">
-        <v>5550000</v>
+        <v>2924540</v>
       </c>
       <c r="L2372">
-        <v>5550000</v>
+        <v>2924540</v>
       </c>
     </row>
     <row r="2373" spans="1:12">
@@ -98150,10 +98261,10 @@
         <v>2463</v>
       </c>
       <c r="G2373" t="s">
-        <v>2464</v>
+        <v>1536</v>
       </c>
       <c r="H2373" t="s">
-        <v>1850</v>
+        <v>773</v>
       </c>
       <c r="I2373" t="s">
         <v>19</v>
@@ -98162,10 +98273,10 @@
         <v>1</v>
       </c>
       <c r="K2373">
-        <v>22276000</v>
+        <v>600000</v>
       </c>
       <c r="L2373">
-        <v>22276000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="2374" spans="1:12">
@@ -98179,19 +98290,19 @@
         <v>13</v>
       </c>
       <c r="D2374" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2374" t="s">
-        <v>2462</v>
+        <v>2469</v>
       </c>
       <c r="F2374" t="s">
-        <v>2463</v>
+        <v>2470</v>
       </c>
       <c r="G2374" t="s">
-        <v>2464</v>
+        <v>2471</v>
       </c>
       <c r="H2374" t="s">
-        <v>2466</v>
+        <v>261</v>
       </c>
       <c r="I2374" t="s">
         <v>19</v>
@@ -98200,10 +98311,10 @@
         <v>1</v>
       </c>
       <c r="K2374">
-        <v>4950000</v>
+        <v>44555023</v>
       </c>
       <c r="L2374">
-        <v>4950000</v>
+        <v>44555023</v>
       </c>
     </row>
     <row r="2375" spans="1:12">
@@ -98217,19 +98328,19 @@
         <v>13</v>
       </c>
       <c r="D2375" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2375" t="s">
-        <v>2462</v>
+        <v>2469</v>
       </c>
       <c r="F2375" t="s">
-        <v>2463</v>
+        <v>2470</v>
       </c>
       <c r="G2375" t="s">
-        <v>2464</v>
+        <v>2471</v>
       </c>
       <c r="H2375" t="s">
-        <v>2467</v>
+        <v>132</v>
       </c>
       <c r="I2375" t="s">
         <v>19</v>
@@ -98238,10 +98349,10 @@
         <v>1</v>
       </c>
       <c r="K2375">
-        <v>2810000</v>
+        <v>2386000</v>
       </c>
       <c r="L2375">
-        <v>2810000</v>
+        <v>2386000</v>
       </c>
     </row>
     <row r="2376" spans="1:12">
@@ -98255,19 +98366,19 @@
         <v>13</v>
       </c>
       <c r="D2376" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2376" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2376" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2376" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2376" t="s">
-        <v>2468</v>
+        <v>201</v>
       </c>
       <c r="I2376" t="s">
         <v>19</v>
@@ -98276,10 +98387,10 @@
         <v>1</v>
       </c>
       <c r="K2376">
-        <v>500000</v>
+        <v>1437400</v>
       </c>
       <c r="L2376">
-        <v>500000</v>
+        <v>1437400</v>
       </c>
     </row>
     <row r="2377" spans="1:12">
@@ -98293,19 +98404,19 @@
         <v>13</v>
       </c>
       <c r="D2377" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2377" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2377" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2377" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2377" t="s">
-        <v>2469</v>
+        <v>471</v>
       </c>
       <c r="I2377" t="s">
         <v>19</v>
@@ -98314,10 +98425,10 @@
         <v>1</v>
       </c>
       <c r="K2377">
-        <v>800000</v>
+        <v>7905000</v>
       </c>
       <c r="L2377">
-        <v>800000</v>
+        <v>7905000</v>
       </c>
     </row>
     <row r="2378" spans="1:12">
@@ -98331,19 +98442,19 @@
         <v>13</v>
       </c>
       <c r="D2378" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2378" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2378" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2378" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2378" t="s">
-        <v>2470</v>
+        <v>203</v>
       </c>
       <c r="I2378" t="s">
         <v>19</v>
@@ -98352,10 +98463,10 @@
         <v>1</v>
       </c>
       <c r="K2378">
-        <v>3000000</v>
+        <v>248400</v>
       </c>
       <c r="L2378">
-        <v>3000000</v>
+        <v>248400</v>
       </c>
     </row>
     <row r="2379" spans="1:12">
@@ -98369,19 +98480,19 @@
         <v>13</v>
       </c>
       <c r="D2379" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2379" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2379" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2379" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2379" t="s">
-        <v>2471</v>
+        <v>204</v>
       </c>
       <c r="I2379" t="s">
         <v>19</v>
@@ -98390,10 +98501,10 @@
         <v>1</v>
       </c>
       <c r="K2379">
-        <v>300000</v>
+        <v>1750000</v>
       </c>
       <c r="L2379">
-        <v>300000</v>
+        <v>1750000</v>
       </c>
     </row>
     <row r="2380" spans="1:12">
@@ -98407,19 +98518,19 @@
         <v>13</v>
       </c>
       <c r="D2380" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2380" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2380" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2380" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2380" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="I2380" t="s">
         <v>19</v>
@@ -98428,10 +98539,10 @@
         <v>1</v>
       </c>
       <c r="K2380">
-        <v>300000</v>
+        <v>1497500</v>
       </c>
       <c r="L2380">
-        <v>300000</v>
+        <v>1497500</v>
       </c>
     </row>
     <row r="2381" spans="1:12">
@@ -98445,19 +98556,19 @@
         <v>13</v>
       </c>
       <c r="D2381" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2381" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2381" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2381" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2381" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="I2381" t="s">
         <v>19</v>
@@ -98466,10 +98577,10 @@
         <v>1</v>
       </c>
       <c r="K2381">
-        <v>360000</v>
+        <v>1500000</v>
       </c>
       <c r="L2381">
-        <v>360000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="2382" spans="1:12">
@@ -98483,19 +98594,19 @@
         <v>13</v>
       </c>
       <c r="D2382" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2382" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2382" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2382" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2382" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="I2382" t="s">
         <v>19</v>
@@ -98504,10 +98615,10 @@
         <v>1</v>
       </c>
       <c r="K2382">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="L2382">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="2383" spans="1:12">
@@ -98521,19 +98632,19 @@
         <v>13</v>
       </c>
       <c r="D2383" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2383" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2383" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2383" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2383" t="s">
-        <v>2475</v>
+        <v>481</v>
       </c>
       <c r="I2383" t="s">
         <v>19</v>
@@ -98542,10 +98653,10 @@
         <v>1</v>
       </c>
       <c r="K2383">
-        <v>400000</v>
+        <v>999000</v>
       </c>
       <c r="L2383">
-        <v>400000</v>
+        <v>999000</v>
       </c>
     </row>
     <row r="2384" spans="1:12">
@@ -98559,19 +98670,19 @@
         <v>13</v>
       </c>
       <c r="D2384" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2384" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2384" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2384" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2384" t="s">
-        <v>2476</v>
+        <v>483</v>
       </c>
       <c r="I2384" t="s">
         <v>19</v>
@@ -98580,10 +98691,10 @@
         <v>1</v>
       </c>
       <c r="K2384">
-        <v>3300000</v>
+        <v>800000</v>
       </c>
       <c r="L2384">
-        <v>3300000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="2385" spans="1:12">
@@ -98597,19 +98708,19 @@
         <v>13</v>
       </c>
       <c r="D2385" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2385" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2385" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2385" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2385" t="s">
-        <v>2477</v>
+        <v>484</v>
       </c>
       <c r="I2385" t="s">
         <v>19</v>
@@ -98618,10 +98729,10 @@
         <v>1</v>
       </c>
       <c r="K2385">
-        <v>3600000</v>
+        <v>880000</v>
       </c>
       <c r="L2385">
-        <v>3600000</v>
+        <v>880000</v>
       </c>
     </row>
     <row r="2386" spans="1:12">
@@ -98635,19 +98746,19 @@
         <v>13</v>
       </c>
       <c r="D2386" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2386" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2386" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2386" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2386" t="s">
-        <v>758</v>
+        <v>227</v>
       </c>
       <c r="I2386" t="s">
         <v>19</v>
@@ -98656,10 +98767,10 @@
         <v>1</v>
       </c>
       <c r="K2386">
-        <v>35000000</v>
+        <v>5450000</v>
       </c>
       <c r="L2386">
-        <v>35000000</v>
+        <v>5450000</v>
       </c>
     </row>
     <row r="2387" spans="1:12">
@@ -98673,19 +98784,19 @@
         <v>13</v>
       </c>
       <c r="D2387" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2387" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2387" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2387" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2387" t="s">
-        <v>2478</v>
+        <v>228</v>
       </c>
       <c r="I2387" t="s">
         <v>19</v>
@@ -98694,10 +98805,10 @@
         <v>1</v>
       </c>
       <c r="K2387">
-        <v>2475000</v>
+        <v>6000000</v>
       </c>
       <c r="L2387">
-        <v>2475000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="2388" spans="1:12">
@@ -98711,19 +98822,19 @@
         <v>13</v>
       </c>
       <c r="D2388" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2388" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2388" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2388" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2388" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="I2388" t="s">
         <v>19</v>
@@ -98732,10 +98843,10 @@
         <v>1</v>
       </c>
       <c r="K2388">
-        <v>2055000</v>
+        <v>5450000</v>
       </c>
       <c r="L2388">
-        <v>2055000</v>
+        <v>5450000</v>
       </c>
     </row>
     <row r="2389" spans="1:12">
@@ -98749,19 +98860,19 @@
         <v>13</v>
       </c>
       <c r="D2389" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2389" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2389" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2389" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2389" t="s">
-        <v>729</v>
+        <v>485</v>
       </c>
       <c r="I2389" t="s">
         <v>19</v>
@@ -98770,10 +98881,10 @@
         <v>1</v>
       </c>
       <c r="K2389">
-        <v>658400</v>
+        <v>4950000</v>
       </c>
       <c r="L2389">
-        <v>658400</v>
+        <v>4950000</v>
       </c>
     </row>
     <row r="2390" spans="1:12">
@@ -98787,19 +98898,19 @@
         <v>13</v>
       </c>
       <c r="D2390" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2390" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2390" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2390" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2390" t="s">
-        <v>112</v>
+        <v>2478</v>
       </c>
       <c r="I2390" t="s">
         <v>19</v>
@@ -98808,10 +98919,10 @@
         <v>1</v>
       </c>
       <c r="K2390">
-        <v>32976940</v>
+        <v>50000000</v>
       </c>
       <c r="L2390">
-        <v>32976940</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="2391" spans="1:12">
@@ -98825,19 +98936,19 @@
         <v>13</v>
       </c>
       <c r="D2391" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2391" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2391" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2391" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2391" t="s">
-        <v>816</v>
+        <v>233</v>
       </c>
       <c r="I2391" t="s">
         <v>19</v>
@@ -98846,10 +98957,10 @@
         <v>1</v>
       </c>
       <c r="K2391">
-        <v>4856020</v>
+        <v>9193900</v>
       </c>
       <c r="L2391">
-        <v>4856020</v>
+        <v>9193900</v>
       </c>
     </row>
     <row r="2392" spans="1:12">
@@ -98863,19 +98974,19 @@
         <v>13</v>
       </c>
       <c r="D2392" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2392" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2392" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2392" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2392" t="s">
-        <v>1564</v>
+        <v>1180</v>
       </c>
       <c r="I2392" t="s">
         <v>19</v>
@@ -98884,10 +98995,10 @@
         <v>1</v>
       </c>
       <c r="K2392">
-        <v>1050000</v>
+        <v>310500</v>
       </c>
       <c r="L2392">
-        <v>1050000</v>
+        <v>310500</v>
       </c>
     </row>
     <row r="2393" spans="1:12">
@@ -98901,19 +99012,19 @@
         <v>13</v>
       </c>
       <c r="D2393" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2393" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="F2393" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="G2393" t="s">
-        <v>2464</v>
+        <v>200</v>
       </c>
       <c r="H2393" t="s">
-        <v>1345</v>
+        <v>1052</v>
       </c>
       <c r="I2393" t="s">
         <v>19</v>
@@ -98922,10 +99033,10 @@
         <v>1</v>
       </c>
       <c r="K2393">
-        <v>12952500</v>
+        <v>600000</v>
       </c>
       <c r="L2393">
-        <v>12952500</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="2394" spans="1:12">
@@ -98939,19 +99050,19 @@
         <v>13</v>
       </c>
       <c r="D2394" t="s">
-        <v>2348</v>
+        <v>2479</v>
       </c>
       <c r="E2394" t="s">
-        <v>2462</v>
+        <v>2480</v>
       </c>
       <c r="F2394" t="s">
-        <v>2463</v>
+        <v>2481</v>
       </c>
       <c r="G2394" t="s">
-        <v>2464</v>
+        <v>2482</v>
       </c>
       <c r="H2394" t="s">
-        <v>2457</v>
+        <v>465</v>
       </c>
       <c r="I2394" t="s">
         <v>19</v>
@@ -98960,10 +99071,10 @@
         <v>1</v>
       </c>
       <c r="K2394">
-        <v>15081400</v>
+        <v>47250000</v>
       </c>
       <c r="L2394">
-        <v>15081400</v>
+        <v>47250000</v>
       </c>
     </row>
     <row r="2395" spans="1:12">
@@ -98977,19 +99088,19 @@
         <v>13</v>
       </c>
       <c r="D2395" t="s">
-        <v>2348</v>
+        <v>2479</v>
       </c>
       <c r="E2395" t="s">
-        <v>2462</v>
+        <v>2483</v>
       </c>
       <c r="F2395" t="s">
-        <v>2463</v>
+        <v>2484</v>
       </c>
       <c r="G2395" t="s">
-        <v>2464</v>
+        <v>2485</v>
       </c>
       <c r="H2395" t="s">
-        <v>766</v>
+        <v>526</v>
       </c>
       <c r="I2395" t="s">
         <v>19</v>
@@ -98998,10 +99109,10 @@
         <v>1</v>
       </c>
       <c r="K2395">
-        <v>20940565</v>
+        <v>189315969</v>
       </c>
       <c r="L2395">
-        <v>20940565</v>
+        <v>189315969</v>
       </c>
     </row>
     <row r="2396" spans="1:12">
@@ -99015,19 +99126,19 @@
         <v>13</v>
       </c>
       <c r="D2396" t="s">
-        <v>2348</v>
+        <v>2479</v>
       </c>
       <c r="E2396" t="s">
-        <v>2462</v>
+        <v>2486</v>
       </c>
       <c r="F2396" t="s">
-        <v>2463</v>
+        <v>2487</v>
       </c>
       <c r="G2396" t="s">
-        <v>2464</v>
+        <v>2488</v>
       </c>
       <c r="H2396" t="s">
-        <v>2480</v>
+        <v>530</v>
       </c>
       <c r="I2396" t="s">
         <v>19</v>
@@ -99036,10 +99147,10 @@
         <v>1</v>
       </c>
       <c r="K2396">
-        <v>543500</v>
+        <v>159570082</v>
       </c>
       <c r="L2396">
-        <v>543500</v>
+        <v>159570082</v>
       </c>
     </row>
     <row r="2397" spans="1:12">
@@ -99053,19 +99164,19 @@
         <v>13</v>
       </c>
       <c r="D2397" t="s">
-        <v>2348</v>
+        <v>2479</v>
       </c>
       <c r="E2397" t="s">
-        <v>2462</v>
+        <v>2489</v>
       </c>
       <c r="F2397" t="s">
-        <v>2463</v>
+        <v>2490</v>
       </c>
       <c r="G2397" t="s">
-        <v>2464</v>
+        <v>2491</v>
       </c>
       <c r="H2397" t="s">
-        <v>730</v>
+        <v>1091</v>
       </c>
       <c r="I2397" t="s">
         <v>19</v>
@@ -99074,10 +99185,10 @@
         <v>1</v>
       </c>
       <c r="K2397">
-        <v>159821533</v>
+        <v>36546750</v>
       </c>
       <c r="L2397">
-        <v>159821533</v>
+        <v>36546750</v>
       </c>
     </row>
     <row r="2398" spans="1:12">
@@ -99091,19 +99202,19 @@
         <v>13</v>
       </c>
       <c r="D2398" t="s">
-        <v>2348</v>
+        <v>2479</v>
       </c>
       <c r="E2398" t="s">
-        <v>2462</v>
+        <v>2492</v>
       </c>
       <c r="F2398" t="s">
-        <v>2463</v>
+        <v>2493</v>
       </c>
       <c r="G2398" t="s">
-        <v>2464</v>
+        <v>2494</v>
       </c>
       <c r="H2398" t="s">
-        <v>102</v>
+        <v>835</v>
       </c>
       <c r="I2398" t="s">
         <v>19</v>
@@ -99112,10 +99223,10 @@
         <v>1</v>
       </c>
       <c r="K2398">
-        <v>4290500</v>
+        <v>27564075</v>
       </c>
       <c r="L2398">
-        <v>4290500</v>
+        <v>27564075</v>
       </c>
     </row>
     <row r="2399" spans="1:12">
@@ -99129,19 +99240,19 @@
         <v>13</v>
       </c>
       <c r="D2399" t="s">
-        <v>2348</v>
+        <v>2479</v>
       </c>
       <c r="E2399" t="s">
-        <v>2462</v>
+        <v>2495</v>
       </c>
       <c r="F2399" t="s">
-        <v>2463</v>
+        <v>2496</v>
       </c>
       <c r="G2399" t="s">
-        <v>2464</v>
+        <v>2497</v>
       </c>
       <c r="H2399" t="s">
-        <v>2481</v>
+        <v>630</v>
       </c>
       <c r="I2399" t="s">
         <v>19</v>
@@ -99150,10 +99261,10 @@
         <v>1</v>
       </c>
       <c r="K2399">
-        <v>17605160</v>
+        <v>16600000</v>
       </c>
       <c r="L2399">
-        <v>17605160</v>
+        <v>16600000</v>
       </c>
     </row>
     <row r="2400" spans="1:12">
@@ -99167,19 +99278,19 @@
         <v>13</v>
       </c>
       <c r="D2400" t="s">
-        <v>2348</v>
+        <v>2479</v>
       </c>
       <c r="E2400" t="s">
-        <v>2462</v>
+        <v>2498</v>
       </c>
       <c r="F2400" t="s">
-        <v>2463</v>
+        <v>2499</v>
       </c>
       <c r="G2400" t="s">
-        <v>2464</v>
+        <v>2500</v>
       </c>
       <c r="H2400" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="I2400" t="s">
         <v>19</v>
@@ -99188,10 +99299,10 @@
         <v>1</v>
       </c>
       <c r="K2400">
-        <v>5308700</v>
+        <v>178497122</v>
       </c>
       <c r="L2400">
-        <v>5308700</v>
+        <v>178497122</v>
       </c>
     </row>
     <row r="2401" spans="1:12">
@@ -99205,19 +99316,19 @@
         <v>13</v>
       </c>
       <c r="D2401" t="s">
-        <v>2348</v>
+        <v>2479</v>
       </c>
       <c r="E2401" t="s">
-        <v>2462</v>
+        <v>2501</v>
       </c>
       <c r="F2401" t="s">
-        <v>2463</v>
+        <v>2502</v>
       </c>
       <c r="G2401" t="s">
-        <v>2464</v>
+        <v>2503</v>
       </c>
       <c r="H2401" t="s">
-        <v>768</v>
+        <v>1546</v>
       </c>
       <c r="I2401" t="s">
         <v>19</v>
@@ -99226,10 +99337,10 @@
         <v>1</v>
       </c>
       <c r="K2401">
-        <v>11499500</v>
+        <v>4041500</v>
       </c>
       <c r="L2401">
-        <v>11499500</v>
+        <v>4041500</v>
       </c>
     </row>
     <row r="2402" spans="1:12">
@@ -99243,19 +99354,19 @@
         <v>13</v>
       </c>
       <c r="D2402" t="s">
-        <v>2348</v>
+        <v>2479</v>
       </c>
       <c r="E2402" t="s">
-        <v>2462</v>
+        <v>2504</v>
       </c>
       <c r="F2402" t="s">
-        <v>2463</v>
+        <v>2505</v>
       </c>
       <c r="G2402" t="s">
-        <v>2464</v>
+        <v>2506</v>
       </c>
       <c r="H2402" t="s">
-        <v>187</v>
+        <v>1546</v>
       </c>
       <c r="I2402" t="s">
         <v>19</v>
@@ -99264,10 +99375,10 @@
         <v>1</v>
       </c>
       <c r="K2402">
-        <v>32982320</v>
+        <v>1951000</v>
       </c>
       <c r="L2402">
-        <v>32982320</v>
+        <v>1951000</v>
       </c>
     </row>
     <row r="2403" spans="1:12">
@@ -99281,19 +99392,19 @@
         <v>13</v>
       </c>
       <c r="D2403" t="s">
-        <v>2348</v>
+        <v>2479</v>
       </c>
       <c r="E2403" t="s">
-        <v>2462</v>
+        <v>2507</v>
       </c>
       <c r="F2403" t="s">
-        <v>2463</v>
+        <v>2508</v>
       </c>
       <c r="G2403" t="s">
-        <v>2464</v>
+        <v>2509</v>
       </c>
       <c r="H2403" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="I2403" t="s">
         <v>19</v>
@@ -99302,10 +99413,10 @@
         <v>1</v>
       </c>
       <c r="K2403">
-        <v>6302000</v>
+        <v>1340000</v>
       </c>
       <c r="L2403">
-        <v>6302000</v>
+        <v>1340000</v>
       </c>
     </row>
     <row r="2404" spans="1:12">
@@ -99319,19 +99430,19 @@
         <v>13</v>
       </c>
       <c r="D2404" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2404" t="s">
-        <v>2462</v>
+        <v>2510</v>
       </c>
       <c r="F2404" t="s">
-        <v>2463</v>
+        <v>2511</v>
       </c>
       <c r="G2404" t="s">
-        <v>2464</v>
+        <v>2512</v>
       </c>
       <c r="H2404" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
       <c r="I2404" t="s">
         <v>19</v>
@@ -99340,10 +99451,10 @@
         <v>1</v>
       </c>
       <c r="K2404">
-        <v>7831951</v>
+        <v>328000</v>
       </c>
       <c r="L2404">
-        <v>7831951</v>
+        <v>328000</v>
       </c>
     </row>
     <row r="2405" spans="1:12">
@@ -99357,19 +99468,19 @@
         <v>13</v>
       </c>
       <c r="D2405" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2405" t="s">
-        <v>2462</v>
+        <v>2513</v>
       </c>
       <c r="F2405" t="s">
-        <v>2463</v>
+        <v>2514</v>
       </c>
       <c r="G2405" t="s">
-        <v>2464</v>
+        <v>2515</v>
       </c>
       <c r="H2405" t="s">
-        <v>910</v>
+        <v>442</v>
       </c>
       <c r="I2405" t="s">
         <v>19</v>
@@ -99378,10 +99489,10 @@
         <v>1</v>
       </c>
       <c r="K2405">
-        <v>8808000</v>
+        <v>481000</v>
       </c>
       <c r="L2405">
-        <v>8808000</v>
+        <v>481000</v>
       </c>
     </row>
     <row r="2406" spans="1:12">
@@ -99395,19 +99506,19 @@
         <v>13</v>
       </c>
       <c r="D2406" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2406" t="s">
-        <v>2462</v>
+        <v>2516</v>
       </c>
       <c r="F2406" t="s">
-        <v>2463</v>
+        <v>2517</v>
       </c>
       <c r="G2406" t="s">
-        <v>2464</v>
+        <v>2518</v>
       </c>
       <c r="H2406" t="s">
-        <v>2148</v>
+        <v>170</v>
       </c>
       <c r="I2406" t="s">
         <v>19</v>
@@ -99416,10 +99527,10 @@
         <v>1</v>
       </c>
       <c r="K2406">
-        <v>16452112</v>
+        <v>56694000</v>
       </c>
       <c r="L2406">
-        <v>16452112</v>
+        <v>56694000</v>
       </c>
     </row>
     <row r="2407" spans="1:12">
@@ -99433,19 +99544,19 @@
         <v>13</v>
       </c>
       <c r="D2407" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2407" t="s">
-        <v>2462</v>
+        <v>2516</v>
       </c>
       <c r="F2407" t="s">
-        <v>2463</v>
+        <v>2517</v>
       </c>
       <c r="G2407" t="s">
-        <v>2464</v>
+        <v>2518</v>
       </c>
       <c r="H2407" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="I2407" t="s">
         <v>19</v>
@@ -99454,10 +99565,10 @@
         <v>1</v>
       </c>
       <c r="K2407">
-        <v>19329730</v>
+        <v>8545000</v>
       </c>
       <c r="L2407">
-        <v>19329730</v>
+        <v>8545000</v>
       </c>
     </row>
     <row r="2408" spans="1:12">
@@ -99471,19 +99582,19 @@
         <v>13</v>
       </c>
       <c r="D2408" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2408" t="s">
-        <v>2462</v>
+        <v>2516</v>
       </c>
       <c r="F2408" t="s">
-        <v>2463</v>
+        <v>2517</v>
       </c>
       <c r="G2408" t="s">
-        <v>2464</v>
+        <v>2518</v>
       </c>
       <c r="H2408" t="s">
-        <v>2482</v>
+        <v>1212</v>
       </c>
       <c r="I2408" t="s">
         <v>19</v>
@@ -99492,10 +99603,10 @@
         <v>1</v>
       </c>
       <c r="K2408">
-        <v>450000</v>
+        <v>4400000</v>
       </c>
       <c r="L2408">
-        <v>450000</v>
+        <v>4400000</v>
       </c>
     </row>
     <row r="2409" spans="1:12">
@@ -99509,19 +99620,19 @@
         <v>13</v>
       </c>
       <c r="D2409" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2409" t="s">
-        <v>2462</v>
+        <v>2516</v>
       </c>
       <c r="F2409" t="s">
-        <v>2463</v>
+        <v>2517</v>
       </c>
       <c r="G2409" t="s">
-        <v>2464</v>
+        <v>2518</v>
       </c>
       <c r="H2409" t="s">
-        <v>773</v>
+        <v>1352</v>
       </c>
       <c r="I2409" t="s">
         <v>19</v>
@@ -99530,10 +99641,10 @@
         <v>1</v>
       </c>
       <c r="K2409">
-        <v>750000</v>
+        <v>2558200</v>
       </c>
       <c r="L2409">
-        <v>750000</v>
+        <v>2558200</v>
       </c>
     </row>
     <row r="2410" spans="1:12">
@@ -99547,19 +99658,19 @@
         <v>13</v>
       </c>
       <c r="D2410" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2410" t="s">
-        <v>2462</v>
+        <v>2516</v>
       </c>
       <c r="F2410" t="s">
-        <v>2463</v>
+        <v>2517</v>
       </c>
       <c r="G2410" t="s">
-        <v>2464</v>
+        <v>2518</v>
       </c>
       <c r="H2410" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="I2410" t="s">
         <v>19</v>
@@ -99568,10 +99679,10 @@
         <v>1</v>
       </c>
       <c r="K2410">
-        <v>420000</v>
+        <v>259123</v>
       </c>
       <c r="L2410">
-        <v>420000</v>
+        <v>259123</v>
       </c>
     </row>
     <row r="2411" spans="1:12">
@@ -99585,19 +99696,19 @@
         <v>13</v>
       </c>
       <c r="D2411" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2411" t="s">
-        <v>2462</v>
+        <v>2516</v>
       </c>
       <c r="F2411" t="s">
-        <v>2463</v>
+        <v>2517</v>
       </c>
       <c r="G2411" t="s">
-        <v>2464</v>
+        <v>2518</v>
       </c>
       <c r="H2411" t="s">
-        <v>403</v>
+        <v>75</v>
       </c>
       <c r="I2411" t="s">
         <v>19</v>
@@ -99606,10 +99717,10 @@
         <v>1</v>
       </c>
       <c r="K2411">
-        <v>300000</v>
+        <v>1394057</v>
       </c>
       <c r="L2411">
-        <v>300000</v>
+        <v>1394057</v>
       </c>
     </row>
     <row r="2412" spans="1:12">
@@ -99623,19 +99734,19 @@
         <v>13</v>
       </c>
       <c r="D2412" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2412" t="s">
-        <v>2462</v>
+        <v>2516</v>
       </c>
       <c r="F2412" t="s">
-        <v>2463</v>
+        <v>2517</v>
       </c>
       <c r="G2412" t="s">
-        <v>2464</v>
+        <v>2518</v>
       </c>
       <c r="H2412" t="s">
-        <v>2483</v>
+        <v>612</v>
       </c>
       <c r="I2412" t="s">
         <v>19</v>
@@ -99644,10 +99755,10 @@
         <v>1</v>
       </c>
       <c r="K2412">
-        <v>4050000</v>
+        <v>550000</v>
       </c>
       <c r="L2412">
-        <v>4050000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="2413" spans="1:12">
@@ -99661,19 +99772,19 @@
         <v>13</v>
       </c>
       <c r="D2413" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2413" t="s">
-        <v>2462</v>
+        <v>2516</v>
       </c>
       <c r="F2413" t="s">
-        <v>2463</v>
+        <v>2517</v>
       </c>
       <c r="G2413" t="s">
-        <v>2464</v>
+        <v>2518</v>
       </c>
       <c r="H2413" t="s">
-        <v>404</v>
+        <v>907</v>
       </c>
       <c r="I2413" t="s">
         <v>19</v>
@@ -99682,10 +99793,10 @@
         <v>1</v>
       </c>
       <c r="K2413">
-        <v>150000</v>
+        <v>1858950</v>
       </c>
       <c r="L2413">
-        <v>150000</v>
+        <v>1858950</v>
       </c>
     </row>
     <row r="2414" spans="1:12">
@@ -99699,19 +99810,19 @@
         <v>13</v>
       </c>
       <c r="D2414" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2414" t="s">
-        <v>2462</v>
+        <v>2516</v>
       </c>
       <c r="F2414" t="s">
-        <v>2463</v>
+        <v>2517</v>
       </c>
       <c r="G2414" t="s">
-        <v>2464</v>
+        <v>2518</v>
       </c>
       <c r="H2414" t="s">
-        <v>405</v>
+        <v>812</v>
       </c>
       <c r="I2414" t="s">
         <v>19</v>
@@ -99720,10 +99831,10 @@
         <v>1</v>
       </c>
       <c r="K2414">
-        <v>130000</v>
+        <v>6329949</v>
       </c>
       <c r="L2414">
-        <v>130000</v>
+        <v>6329949</v>
       </c>
     </row>
     <row r="2415" spans="1:12">
@@ -99737,19 +99848,19 @@
         <v>13</v>
       </c>
       <c r="D2415" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2415" t="s">
-        <v>2462</v>
+        <v>2516</v>
       </c>
       <c r="F2415" t="s">
-        <v>2463</v>
+        <v>2517</v>
       </c>
       <c r="G2415" t="s">
-        <v>2464</v>
+        <v>2518</v>
       </c>
       <c r="H2415" t="s">
-        <v>128</v>
+        <v>813</v>
       </c>
       <c r="I2415" t="s">
         <v>19</v>
@@ -99758,10 +99869,10 @@
         <v>1</v>
       </c>
       <c r="K2415">
-        <v>600000</v>
+        <v>3918000</v>
       </c>
       <c r="L2415">
-        <v>600000</v>
+        <v>3918000</v>
       </c>
     </row>
     <row r="2416" spans="1:12">
@@ -99775,19 +99886,19 @@
         <v>13</v>
       </c>
       <c r="D2416" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2416" t="s">
-        <v>2484</v>
+        <v>2516</v>
       </c>
       <c r="F2416" t="s">
-        <v>2485</v>
+        <v>2517</v>
       </c>
       <c r="G2416" t="s">
-        <v>1536</v>
+        <v>2518</v>
       </c>
       <c r="H2416" t="s">
-        <v>2486</v>
+        <v>815</v>
       </c>
       <c r="I2416" t="s">
         <v>19</v>
@@ -99796,10 +99907,10 @@
         <v>1</v>
       </c>
       <c r="K2416">
-        <v>1750000</v>
+        <v>9000000</v>
       </c>
       <c r="L2416">
-        <v>1750000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="2417" spans="1:12">
@@ -99813,19 +99924,19 @@
         <v>13</v>
       </c>
       <c r="D2417" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2417" t="s">
-        <v>2484</v>
+        <v>2516</v>
       </c>
       <c r="F2417" t="s">
-        <v>2485</v>
+        <v>2517</v>
       </c>
       <c r="G2417" t="s">
-        <v>1536</v>
+        <v>2518</v>
       </c>
       <c r="H2417" t="s">
-        <v>2487</v>
+        <v>112</v>
       </c>
       <c r="I2417" t="s">
         <v>19</v>
@@ -99834,10 +99945,10 @@
         <v>1</v>
       </c>
       <c r="K2417">
-        <v>1800000</v>
+        <v>2074886</v>
       </c>
       <c r="L2417">
-        <v>1800000</v>
+        <v>2074886</v>
       </c>
     </row>
     <row r="2418" spans="1:12">
@@ -99851,19 +99962,19 @@
         <v>13</v>
       </c>
       <c r="D2418" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2418" t="s">
-        <v>2484</v>
+        <v>2516</v>
       </c>
       <c r="F2418" t="s">
-        <v>2485</v>
+        <v>2517</v>
       </c>
       <c r="G2418" t="s">
-        <v>1536</v>
+        <v>2518</v>
       </c>
       <c r="H2418" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="I2418" t="s">
         <v>19</v>
@@ -99872,10 +99983,10 @@
         <v>1</v>
       </c>
       <c r="K2418">
-        <v>4850000</v>
+        <v>525000</v>
       </c>
       <c r="L2418">
-        <v>4850000</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="2419" spans="1:12">
@@ -99889,19 +100000,19 @@
         <v>13</v>
       </c>
       <c r="D2419" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2419" t="s">
-        <v>2484</v>
+        <v>2516</v>
       </c>
       <c r="F2419" t="s">
-        <v>2485</v>
+        <v>2517</v>
       </c>
       <c r="G2419" t="s">
-        <v>1536</v>
+        <v>2518</v>
       </c>
       <c r="H2419" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
       <c r="I2419" t="s">
         <v>19</v>
@@ -99910,10 +100021,10 @@
         <v>1</v>
       </c>
       <c r="K2419">
-        <v>1000000</v>
+        <v>750000</v>
       </c>
       <c r="L2419">
-        <v>1000000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="2420" spans="1:12">
@@ -99927,19 +100038,19 @@
         <v>13</v>
       </c>
       <c r="D2420" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2420" t="s">
-        <v>2484</v>
+        <v>2516</v>
       </c>
       <c r="F2420" t="s">
-        <v>2485</v>
+        <v>2517</v>
       </c>
       <c r="G2420" t="s">
-        <v>1536</v>
+        <v>2518</v>
       </c>
       <c r="H2420" t="s">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="I2420" t="s">
         <v>19</v>
@@ -99948,10 +100059,10 @@
         <v>1</v>
       </c>
       <c r="K2420">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="L2420">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="2421" spans="1:12">
@@ -99965,19 +100076,19 @@
         <v>13</v>
       </c>
       <c r="D2421" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2421" t="s">
-        <v>2484</v>
+        <v>2516</v>
       </c>
       <c r="F2421" t="s">
-        <v>2485</v>
+        <v>2517</v>
       </c>
       <c r="G2421" t="s">
-        <v>1536</v>
+        <v>2518</v>
       </c>
       <c r="H2421" t="s">
-        <v>2488</v>
+        <v>401</v>
       </c>
       <c r="I2421" t="s">
         <v>19</v>
@@ -99986,10 +100097,10 @@
         <v>1</v>
       </c>
       <c r="K2421">
-        <v>1900000</v>
+        <v>520000</v>
       </c>
       <c r="L2421">
-        <v>1900000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="2422" spans="1:12">
@@ -100003,19 +100114,19 @@
         <v>13</v>
       </c>
       <c r="D2422" t="s">
-        <v>2348</v>
+        <v>2479</v>
       </c>
       <c r="E2422" t="s">
-        <v>2484</v>
+        <v>2519</v>
       </c>
       <c r="F2422" t="s">
-        <v>2485</v>
+        <v>2520</v>
       </c>
       <c r="G2422" t="s">
-        <v>1536</v>
+        <v>2521</v>
       </c>
       <c r="H2422" t="s">
-        <v>1345</v>
+        <v>2522</v>
       </c>
       <c r="I2422" t="s">
         <v>19</v>
@@ -100024,10 +100135,10 @@
         <v>1</v>
       </c>
       <c r="K2422">
-        <v>1616500</v>
+        <v>4440000</v>
       </c>
       <c r="L2422">
-        <v>1616500</v>
+        <v>4440000</v>
       </c>
     </row>
     <row r="2423" spans="1:12">
@@ -100041,19 +100152,19 @@
         <v>13</v>
       </c>
       <c r="D2423" t="s">
-        <v>2348</v>
+        <v>2479</v>
       </c>
       <c r="E2423" t="s">
-        <v>2484</v>
+        <v>2523</v>
       </c>
       <c r="F2423" t="s">
-        <v>2485</v>
+        <v>2524</v>
       </c>
       <c r="G2423" t="s">
-        <v>1536</v>
+        <v>2525</v>
       </c>
       <c r="H2423" t="s">
-        <v>261</v>
+        <v>812</v>
       </c>
       <c r="I2423" t="s">
         <v>19</v>
@@ -100062,10 +100173,10 @@
         <v>1</v>
       </c>
       <c r="K2423">
-        <v>5374000</v>
+        <v>19469400</v>
       </c>
       <c r="L2423">
-        <v>5374000</v>
+        <v>19469400</v>
       </c>
     </row>
     <row r="2424" spans="1:12">
@@ -100079,19 +100190,19 @@
         <v>13</v>
       </c>
       <c r="D2424" t="s">
-        <v>2348</v>
+        <v>2479</v>
       </c>
       <c r="E2424" t="s">
-        <v>2484</v>
+        <v>2526</v>
       </c>
       <c r="F2424" t="s">
-        <v>2485</v>
+        <v>2527</v>
       </c>
       <c r="G2424" t="s">
-        <v>1536</v>
+        <v>2528</v>
       </c>
       <c r="H2424" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="I2424" t="s">
         <v>19</v>
@@ -100100,10 +100211,10 @@
         <v>1</v>
       </c>
       <c r="K2424">
-        <v>856500</v>
+        <v>21756000</v>
       </c>
       <c r="L2424">
-        <v>856500</v>
+        <v>21756000</v>
       </c>
     </row>
     <row r="2425" spans="1:12">
@@ -100117,19 +100228,19 @@
         <v>13</v>
       </c>
       <c r="D2425" t="s">
-        <v>2348</v>
+        <v>2479</v>
       </c>
       <c r="E2425" t="s">
-        <v>2484</v>
+        <v>2529</v>
       </c>
       <c r="F2425" t="s">
-        <v>2485</v>
+        <v>2530</v>
       </c>
       <c r="G2425" t="s">
-        <v>1536</v>
+        <v>2531</v>
       </c>
       <c r="H2425" t="s">
-        <v>766</v>
+        <v>604</v>
       </c>
       <c r="I2425" t="s">
         <v>19</v>
@@ -100138,10 +100249,10 @@
         <v>1</v>
       </c>
       <c r="K2425">
-        <v>450000</v>
+        <v>20993240</v>
       </c>
       <c r="L2425">
-        <v>450000</v>
+        <v>20993240</v>
       </c>
     </row>
     <row r="2426" spans="1:12">
@@ -100155,19 +100266,19 @@
         <v>13</v>
       </c>
       <c r="D2426" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2426" t="s">
-        <v>2484</v>
+        <v>2532</v>
       </c>
       <c r="F2426" t="s">
-        <v>2485</v>
+        <v>2533</v>
       </c>
       <c r="G2426" t="s">
-        <v>1536</v>
+        <v>2534</v>
       </c>
       <c r="H2426" t="s">
-        <v>2489</v>
+        <v>2229</v>
       </c>
       <c r="I2426" t="s">
         <v>19</v>
@@ -100176,10 +100287,10 @@
         <v>1</v>
       </c>
       <c r="K2426">
-        <v>9372220</v>
+        <v>901000</v>
       </c>
       <c r="L2426">
-        <v>9372220</v>
+        <v>901000</v>
       </c>
     </row>
     <row r="2427" spans="1:12">
@@ -100193,19 +100304,19 @@
         <v>13</v>
       </c>
       <c r="D2427" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2427" t="s">
-        <v>2484</v>
+        <v>2535</v>
       </c>
       <c r="F2427" t="s">
-        <v>2485</v>
+        <v>2536</v>
       </c>
       <c r="G2427" t="s">
-        <v>1536</v>
+        <v>2537</v>
       </c>
       <c r="H2427" t="s">
-        <v>585</v>
+        <v>442</v>
       </c>
       <c r="I2427" t="s">
         <v>19</v>
@@ -100214,10 +100325,10 @@
         <v>1</v>
       </c>
       <c r="K2427">
-        <v>2924540</v>
+        <v>34503000</v>
       </c>
       <c r="L2427">
-        <v>2924540</v>
+        <v>34503000</v>
       </c>
     </row>
     <row r="2428" spans="1:12">
@@ -100231,19 +100342,19 @@
         <v>13</v>
       </c>
       <c r="D2428" t="s">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="E2428" t="s">
-        <v>2484</v>
+        <v>2538</v>
       </c>
       <c r="F2428" t="s">
-        <v>2485</v>
+        <v>2539</v>
       </c>
       <c r="G2428" t="s">
-        <v>1536</v>
+        <v>2540</v>
       </c>
       <c r="H2428" t="s">
-        <v>773</v>
+        <v>438</v>
       </c>
       <c r="I2428" t="s">
         <v>19</v>
@@ -100252,10 +100363,10 @@
         <v>1</v>
       </c>
       <c r="K2428">
-        <v>600000</v>
+        <v>22238000</v>
       </c>
       <c r="L2428">
-        <v>600000</v>
+        <v>22238000</v>
       </c>
     </row>
     <row r="2429" spans="1:12">
@@ -100269,19 +100380,19 @@
         <v>13</v>
       </c>
       <c r="D2429" t="s">
-        <v>2490</v>
+        <v>2468</v>
       </c>
       <c r="E2429" t="s">
-        <v>2491</v>
+        <v>2541</v>
       </c>
       <c r="F2429" t="s">
-        <v>2492</v>
+        <v>2542</v>
       </c>
       <c r="G2429" t="s">
-        <v>2493</v>
+        <v>2543</v>
       </c>
       <c r="H2429" t="s">
-        <v>261</v>
+        <v>434</v>
       </c>
       <c r="I2429" t="s">
         <v>19</v>
@@ -100290,10 +100401,10 @@
         <v>1</v>
       </c>
       <c r="K2429">
-        <v>44555023</v>
+        <v>19497000</v>
       </c>
       <c r="L2429">
-        <v>44555023</v>
+        <v>19497000</v>
       </c>
     </row>
     <row r="2430" spans="1:12">
@@ -100307,19 +100418,19 @@
         <v>13</v>
       </c>
       <c r="D2430" t="s">
-        <v>2490</v>
+        <v>2544</v>
       </c>
       <c r="E2430" t="s">
-        <v>2491</v>
+        <v>2545</v>
       </c>
       <c r="F2430" t="s">
-        <v>2492</v>
+        <v>2546</v>
       </c>
       <c r="G2430" t="s">
-        <v>2493</v>
+        <v>2547</v>
       </c>
       <c r="H2430" t="s">
-        <v>132</v>
+        <v>2548</v>
       </c>
       <c r="I2430" t="s">
         <v>19</v>
@@ -100328,10 +100439,10 @@
         <v>1</v>
       </c>
       <c r="K2430">
-        <v>2386000</v>
+        <v>67411000</v>
       </c>
       <c r="L2430">
-        <v>2386000</v>
+        <v>67411000</v>
       </c>
     </row>
     <row r="2431" spans="1:12">
@@ -100345,19 +100456,19 @@
         <v>13</v>
       </c>
       <c r="D2431" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2431" t="s">
-        <v>2494</v>
+        <v>2550</v>
       </c>
       <c r="F2431" t="s">
-        <v>2495</v>
+        <v>2551</v>
       </c>
       <c r="G2431" t="s">
-        <v>200</v>
+        <v>2552</v>
       </c>
       <c r="H2431" t="s">
-        <v>201</v>
+        <v>764</v>
       </c>
       <c r="I2431" t="s">
         <v>19</v>
@@ -100366,10 +100477,10 @@
         <v>1</v>
       </c>
       <c r="K2431">
-        <v>1437400</v>
+        <v>6684268</v>
       </c>
       <c r="L2431">
-        <v>1437400</v>
+        <v>6684268</v>
       </c>
     </row>
     <row r="2432" spans="1:12">
@@ -100383,19 +100494,19 @@
         <v>13</v>
       </c>
       <c r="D2432" t="s">
-        <v>2490</v>
+        <v>2553</v>
       </c>
       <c r="E2432" t="s">
-        <v>2494</v>
+        <v>2554</v>
       </c>
       <c r="F2432" t="s">
-        <v>2495</v>
+        <v>2555</v>
       </c>
       <c r="G2432" t="s">
-        <v>200</v>
+        <v>2556</v>
       </c>
       <c r="H2432" t="s">
-        <v>471</v>
+        <v>766</v>
       </c>
       <c r="I2432" t="s">
         <v>19</v>
@@ -100404,10 +100515,10 @@
         <v>1</v>
       </c>
       <c r="K2432">
-        <v>7905000</v>
+        <v>9342494</v>
       </c>
       <c r="L2432">
-        <v>7905000</v>
+        <v>9342494</v>
       </c>
     </row>
     <row r="2433" spans="1:12">
@@ -100421,19 +100532,19 @@
         <v>13</v>
       </c>
       <c r="D2433" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2433" t="s">
-        <v>2494</v>
+        <v>2557</v>
       </c>
       <c r="F2433" t="s">
-        <v>2495</v>
+        <v>2558</v>
       </c>
       <c r="G2433" t="s">
-        <v>200</v>
+        <v>2559</v>
       </c>
       <c r="H2433" t="s">
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="I2433" t="s">
         <v>19</v>
@@ -100442,10 +100553,10 @@
         <v>1</v>
       </c>
       <c r="K2433">
-        <v>248400</v>
+        <v>3120000</v>
       </c>
       <c r="L2433">
-        <v>248400</v>
+        <v>3120000</v>
       </c>
     </row>
     <row r="2434" spans="1:12">
@@ -100459,19 +100570,19 @@
         <v>13</v>
       </c>
       <c r="D2434" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2434" t="s">
-        <v>2494</v>
+        <v>2557</v>
       </c>
       <c r="F2434" t="s">
-        <v>2495</v>
+        <v>2558</v>
       </c>
       <c r="G2434" t="s">
-        <v>200</v>
+        <v>2559</v>
       </c>
       <c r="H2434" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c r="I2434" t="s">
         <v>19</v>
@@ -100480,10 +100591,10 @@
         <v>1</v>
       </c>
       <c r="K2434">
-        <v>1750000</v>
+        <v>413100</v>
       </c>
       <c r="L2434">
-        <v>1750000</v>
+        <v>413100</v>
       </c>
     </row>
     <row r="2435" spans="1:12">
@@ -100497,19 +100608,19 @@
         <v>13</v>
       </c>
       <c r="D2435" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2435" t="s">
-        <v>2494</v>
+        <v>2557</v>
       </c>
       <c r="F2435" t="s">
-        <v>2495</v>
+        <v>2558</v>
       </c>
       <c r="G2435" t="s">
-        <v>200</v>
+        <v>2559</v>
       </c>
       <c r="H2435" t="s">
-        <v>2496</v>
+        <v>314</v>
       </c>
       <c r="I2435" t="s">
         <v>19</v>
@@ -100518,10 +100629,10 @@
         <v>1</v>
       </c>
       <c r="K2435">
-        <v>1497500</v>
+        <v>30240</v>
       </c>
       <c r="L2435">
-        <v>1497500</v>
+        <v>30240</v>
       </c>
     </row>
     <row r="2436" spans="1:12">
@@ -100535,19 +100646,19 @@
         <v>13</v>
       </c>
       <c r="D2436" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2436" t="s">
-        <v>2494</v>
+        <v>2557</v>
       </c>
       <c r="F2436" t="s">
-        <v>2495</v>
+        <v>2558</v>
       </c>
       <c r="G2436" t="s">
-        <v>200</v>
+        <v>2559</v>
       </c>
       <c r="H2436" t="s">
-        <v>2497</v>
+        <v>315</v>
       </c>
       <c r="I2436" t="s">
         <v>19</v>
@@ -100556,10 +100667,10 @@
         <v>1</v>
       </c>
       <c r="K2436">
-        <v>1500000</v>
+        <v>1590000</v>
       </c>
       <c r="L2436">
-        <v>1500000</v>
+        <v>1590000</v>
       </c>
     </row>
     <row r="2437" spans="1:12">
@@ -100573,19 +100684,19 @@
         <v>13</v>
       </c>
       <c r="D2437" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2437" t="s">
-        <v>2494</v>
+        <v>2557</v>
       </c>
       <c r="F2437" t="s">
-        <v>2495</v>
+        <v>2558</v>
       </c>
       <c r="G2437" t="s">
-        <v>200</v>
+        <v>2559</v>
       </c>
       <c r="H2437" t="s">
-        <v>2498</v>
+        <v>1408</v>
       </c>
       <c r="I2437" t="s">
         <v>19</v>
@@ -100594,10 +100705,10 @@
         <v>1</v>
       </c>
       <c r="K2437">
-        <v>1000000</v>
+        <v>654700</v>
       </c>
       <c r="L2437">
-        <v>1000000</v>
+        <v>654700</v>
       </c>
     </row>
     <row r="2438" spans="1:12">
@@ -100611,19 +100722,19 @@
         <v>13</v>
       </c>
       <c r="D2438" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2438" t="s">
-        <v>2494</v>
+        <v>2557</v>
       </c>
       <c r="F2438" t="s">
-        <v>2495</v>
+        <v>2558</v>
       </c>
       <c r="G2438" t="s">
-        <v>200</v>
+        <v>2559</v>
       </c>
       <c r="H2438" t="s">
-        <v>481</v>
+        <v>986</v>
       </c>
       <c r="I2438" t="s">
         <v>19</v>
@@ -100632,10 +100743,10 @@
         <v>1</v>
       </c>
       <c r="K2438">
-        <v>999000</v>
+        <v>2920000</v>
       </c>
       <c r="L2438">
-        <v>999000</v>
+        <v>2920000</v>
       </c>
     </row>
     <row r="2439" spans="1:12">
@@ -100649,19 +100760,19 @@
         <v>13</v>
       </c>
       <c r="D2439" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2439" t="s">
-        <v>2494</v>
+        <v>2557</v>
       </c>
       <c r="F2439" t="s">
-        <v>2495</v>
+        <v>2558</v>
       </c>
       <c r="G2439" t="s">
-        <v>200</v>
+        <v>2559</v>
       </c>
       <c r="H2439" t="s">
-        <v>483</v>
+        <v>987</v>
       </c>
       <c r="I2439" t="s">
         <v>19</v>
@@ -100670,10 +100781,10 @@
         <v>1</v>
       </c>
       <c r="K2439">
-        <v>800000</v>
+        <v>648000</v>
       </c>
       <c r="L2439">
-        <v>800000</v>
+        <v>648000</v>
       </c>
     </row>
     <row r="2440" spans="1:12">
@@ -100687,19 +100798,19 @@
         <v>13</v>
       </c>
       <c r="D2440" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2440" t="s">
-        <v>2494</v>
+        <v>2557</v>
       </c>
       <c r="F2440" t="s">
-        <v>2495</v>
+        <v>2558</v>
       </c>
       <c r="G2440" t="s">
-        <v>200</v>
+        <v>2559</v>
       </c>
       <c r="H2440" t="s">
-        <v>484</v>
+        <v>988</v>
       </c>
       <c r="I2440" t="s">
         <v>19</v>
@@ -100708,10 +100819,10 @@
         <v>1</v>
       </c>
       <c r="K2440">
-        <v>880000</v>
+        <v>810000</v>
       </c>
       <c r="L2440">
-        <v>880000</v>
+        <v>810000</v>
       </c>
     </row>
     <row r="2441" spans="1:12">
@@ -100725,19 +100836,19 @@
         <v>13</v>
       </c>
       <c r="D2441" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2441" t="s">
-        <v>2494</v>
+        <v>2557</v>
       </c>
       <c r="F2441" t="s">
-        <v>2495</v>
+        <v>2558</v>
       </c>
       <c r="G2441" t="s">
-        <v>200</v>
+        <v>2559</v>
       </c>
       <c r="H2441" t="s">
-        <v>227</v>
+        <v>989</v>
       </c>
       <c r="I2441" t="s">
         <v>19</v>
@@ -100746,10 +100857,10 @@
         <v>1</v>
       </c>
       <c r="K2441">
-        <v>5450000</v>
+        <v>680000</v>
       </c>
       <c r="L2441">
-        <v>5450000</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="2442" spans="1:12">
@@ -100763,19 +100874,19 @@
         <v>13</v>
       </c>
       <c r="D2442" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2442" t="s">
-        <v>2494</v>
+        <v>2557</v>
       </c>
       <c r="F2442" t="s">
-        <v>2495</v>
+        <v>2558</v>
       </c>
       <c r="G2442" t="s">
-        <v>200</v>
+        <v>2559</v>
       </c>
       <c r="H2442" t="s">
-        <v>228</v>
+        <v>516</v>
       </c>
       <c r="I2442" t="s">
         <v>19</v>
@@ -100784,10 +100895,10 @@
         <v>1</v>
       </c>
       <c r="K2442">
-        <v>6000000</v>
+        <v>897500</v>
       </c>
       <c r="L2442">
-        <v>6000000</v>
+        <v>897500</v>
       </c>
     </row>
     <row r="2443" spans="1:12">
@@ -100801,19 +100912,19 @@
         <v>13</v>
       </c>
       <c r="D2443" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2443" t="s">
-        <v>2494</v>
+        <v>2557</v>
       </c>
       <c r="F2443" t="s">
-        <v>2495</v>
+        <v>2558</v>
       </c>
       <c r="G2443" t="s">
-        <v>200</v>
+        <v>2559</v>
       </c>
       <c r="H2443" t="s">
-        <v>2499</v>
+        <v>1409</v>
       </c>
       <c r="I2443" t="s">
         <v>19</v>
@@ -100822,10 +100933,10 @@
         <v>1</v>
       </c>
       <c r="K2443">
-        <v>5450000</v>
+        <v>4048640</v>
       </c>
       <c r="L2443">
-        <v>5450000</v>
+        <v>4048640</v>
       </c>
     </row>
     <row r="2444" spans="1:12">
@@ -100839,19 +100950,19 @@
         <v>13</v>
       </c>
       <c r="D2444" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2444" t="s">
-        <v>2494</v>
+        <v>2557</v>
       </c>
       <c r="F2444" t="s">
-        <v>2495</v>
+        <v>2558</v>
       </c>
       <c r="G2444" t="s">
-        <v>200</v>
+        <v>2559</v>
       </c>
       <c r="H2444" t="s">
-        <v>485</v>
+        <v>2560</v>
       </c>
       <c r="I2444" t="s">
         <v>19</v>
@@ -100860,10 +100971,10 @@
         <v>1</v>
       </c>
       <c r="K2444">
-        <v>4950000</v>
+        <v>391000</v>
       </c>
       <c r="L2444">
-        <v>4950000</v>
+        <v>391000</v>
       </c>
     </row>
     <row r="2445" spans="1:12">
@@ -100877,19 +100988,19 @@
         <v>13</v>
       </c>
       <c r="D2445" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2445" t="s">
-        <v>2494</v>
+        <v>2557</v>
       </c>
       <c r="F2445" t="s">
-        <v>2495</v>
+        <v>2558</v>
       </c>
       <c r="G2445" t="s">
-        <v>200</v>
+        <v>2559</v>
       </c>
       <c r="H2445" t="s">
-        <v>2500</v>
+        <v>2561</v>
       </c>
       <c r="I2445" t="s">
         <v>19</v>
@@ -100898,10 +101009,10 @@
         <v>1</v>
       </c>
       <c r="K2445">
-        <v>50000000</v>
+        <v>2484000</v>
       </c>
       <c r="L2445">
-        <v>50000000</v>
+        <v>2484000</v>
       </c>
     </row>
     <row r="2446" spans="1:12">
@@ -100915,19 +101026,19 @@
         <v>13</v>
       </c>
       <c r="D2446" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2446" t="s">
-        <v>2494</v>
+        <v>2557</v>
       </c>
       <c r="F2446" t="s">
-        <v>2495</v>
+        <v>2558</v>
       </c>
       <c r="G2446" t="s">
-        <v>200</v>
+        <v>2559</v>
       </c>
       <c r="H2446" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="I2446" t="s">
         <v>19</v>
@@ -100936,10 +101047,10 @@
         <v>1</v>
       </c>
       <c r="K2446">
-        <v>9193900</v>
+        <v>190800</v>
       </c>
       <c r="L2446">
-        <v>9193900</v>
+        <v>190800</v>
       </c>
     </row>
     <row r="2447" spans="1:12">
@@ -100953,19 +101064,19 @@
         <v>13</v>
       </c>
       <c r="D2447" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2447" t="s">
-        <v>2494</v>
+        <v>2557</v>
       </c>
       <c r="F2447" t="s">
-        <v>2495</v>
+        <v>2558</v>
       </c>
       <c r="G2447" t="s">
-        <v>200</v>
+        <v>2559</v>
       </c>
       <c r="H2447" t="s">
-        <v>1180</v>
+        <v>595</v>
       </c>
       <c r="I2447" t="s">
         <v>19</v>
@@ -100974,10 +101085,10 @@
         <v>1</v>
       </c>
       <c r="K2447">
-        <v>310500</v>
+        <v>427000</v>
       </c>
       <c r="L2447">
-        <v>310500</v>
+        <v>427000</v>
       </c>
     </row>
     <row r="2448" spans="1:12">
@@ -100991,19 +101102,19 @@
         <v>13</v>
       </c>
       <c r="D2448" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2448" t="s">
-        <v>2494</v>
+        <v>2557</v>
       </c>
       <c r="F2448" t="s">
-        <v>2495</v>
+        <v>2558</v>
       </c>
       <c r="G2448" t="s">
-        <v>200</v>
+        <v>2559</v>
       </c>
       <c r="H2448" t="s">
-        <v>1052</v>
+        <v>1234</v>
       </c>
       <c r="I2448" t="s">
         <v>19</v>
@@ -101012,10 +101123,10 @@
         <v>1</v>
       </c>
       <c r="K2448">
-        <v>600000</v>
+        <v>2000000</v>
       </c>
       <c r="L2448">
-        <v>600000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="2449" spans="1:12">
@@ -101029,19 +101140,19 @@
         <v>13</v>
       </c>
       <c r="D2449" t="s">
-        <v>2501</v>
+        <v>2549</v>
       </c>
       <c r="E2449" t="s">
-        <v>2502</v>
+        <v>2557</v>
       </c>
       <c r="F2449" t="s">
-        <v>2503</v>
+        <v>2558</v>
       </c>
       <c r="G2449" t="s">
-        <v>2504</v>
+        <v>2559</v>
       </c>
       <c r="H2449" t="s">
-        <v>465</v>
+        <v>1235</v>
       </c>
       <c r="I2449" t="s">
         <v>19</v>
@@ -101050,10 +101161,10 @@
         <v>1</v>
       </c>
       <c r="K2449">
-        <v>47250000</v>
+        <v>2000000</v>
       </c>
       <c r="L2449">
-        <v>47250000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="2450" spans="1:12">
@@ -101067,19 +101178,19 @@
         <v>13</v>
       </c>
       <c r="D2450" t="s">
-        <v>2501</v>
+        <v>2549</v>
       </c>
       <c r="E2450" t="s">
-        <v>2505</v>
+        <v>2557</v>
       </c>
       <c r="F2450" t="s">
-        <v>2506</v>
+        <v>2558</v>
       </c>
       <c r="G2450" t="s">
-        <v>2507</v>
+        <v>2559</v>
       </c>
       <c r="H2450" t="s">
-        <v>526</v>
+        <v>332</v>
       </c>
       <c r="I2450" t="s">
         <v>19</v>
@@ -101088,10 +101199,10 @@
         <v>1</v>
       </c>
       <c r="K2450">
-        <v>189315969</v>
+        <v>3000000</v>
       </c>
       <c r="L2450">
-        <v>189315969</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="2451" spans="1:12">
@@ -101105,19 +101216,19 @@
         <v>13</v>
       </c>
       <c r="D2451" t="s">
-        <v>2501</v>
+        <v>2549</v>
       </c>
       <c r="E2451" t="s">
-        <v>2508</v>
+        <v>2557</v>
       </c>
       <c r="F2451" t="s">
-        <v>2509</v>
+        <v>2558</v>
       </c>
       <c r="G2451" t="s">
-        <v>2510</v>
+        <v>2559</v>
       </c>
       <c r="H2451" t="s">
-        <v>530</v>
+        <v>2562</v>
       </c>
       <c r="I2451" t="s">
         <v>19</v>
@@ -101126,10 +101237,10 @@
         <v>1</v>
       </c>
       <c r="K2451">
-        <v>159570082</v>
+        <v>1800000</v>
       </c>
       <c r="L2451">
-        <v>159570082</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="2452" spans="1:12">
@@ -101143,19 +101254,19 @@
         <v>13</v>
       </c>
       <c r="D2452" t="s">
-        <v>2501</v>
+        <v>2549</v>
       </c>
       <c r="E2452" t="s">
-        <v>2511</v>
+        <v>2557</v>
       </c>
       <c r="F2452" t="s">
-        <v>2512</v>
+        <v>2558</v>
       </c>
       <c r="G2452" t="s">
-        <v>2513</v>
+        <v>2559</v>
       </c>
       <c r="H2452" t="s">
-        <v>1091</v>
+        <v>520</v>
       </c>
       <c r="I2452" t="s">
         <v>19</v>
@@ -101164,10 +101275,10 @@
         <v>1</v>
       </c>
       <c r="K2452">
-        <v>36546750</v>
+        <v>2000000</v>
       </c>
       <c r="L2452">
-        <v>36546750</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="2453" spans="1:12">
@@ -101181,19 +101292,19 @@
         <v>13</v>
       </c>
       <c r="D2453" t="s">
-        <v>2501</v>
+        <v>2549</v>
       </c>
       <c r="E2453" t="s">
-        <v>2514</v>
+        <v>2557</v>
       </c>
       <c r="F2453" t="s">
-        <v>2515</v>
+        <v>2558</v>
       </c>
       <c r="G2453" t="s">
-        <v>2516</v>
+        <v>2559</v>
       </c>
       <c r="H2453" t="s">
-        <v>835</v>
+        <v>1417</v>
       </c>
       <c r="I2453" t="s">
         <v>19</v>
@@ -101202,10 +101313,10 @@
         <v>1</v>
       </c>
       <c r="K2453">
-        <v>27564075</v>
+        <v>7050000</v>
       </c>
       <c r="L2453">
-        <v>27564075</v>
+        <v>7050000</v>
       </c>
     </row>
     <row r="2454" spans="1:12">
@@ -101219,19 +101330,19 @@
         <v>13</v>
       </c>
       <c r="D2454" t="s">
-        <v>2501</v>
+        <v>2549</v>
       </c>
       <c r="E2454" t="s">
-        <v>2517</v>
+        <v>2557</v>
       </c>
       <c r="F2454" t="s">
-        <v>2518</v>
+        <v>2558</v>
       </c>
       <c r="G2454" t="s">
-        <v>2519</v>
+        <v>2559</v>
       </c>
       <c r="H2454" t="s">
-        <v>630</v>
+        <v>1418</v>
       </c>
       <c r="I2454" t="s">
         <v>19</v>
@@ -101240,10 +101351,10 @@
         <v>1</v>
       </c>
       <c r="K2454">
-        <v>16600000</v>
+        <v>2625000</v>
       </c>
       <c r="L2454">
-        <v>16600000</v>
+        <v>2625000</v>
       </c>
     </row>
     <row r="2455" spans="1:12">
@@ -101257,19 +101368,19 @@
         <v>13</v>
       </c>
       <c r="D2455" t="s">
-        <v>2501</v>
+        <v>2549</v>
       </c>
       <c r="E2455" t="s">
-        <v>2520</v>
+        <v>2557</v>
       </c>
       <c r="F2455" t="s">
-        <v>2521</v>
+        <v>2558</v>
       </c>
       <c r="G2455" t="s">
-        <v>2522</v>
+        <v>2559</v>
       </c>
       <c r="H2455" t="s">
-        <v>75</v>
+        <v>334</v>
       </c>
       <c r="I2455" t="s">
         <v>19</v>
@@ -101278,10 +101389,10 @@
         <v>1</v>
       </c>
       <c r="K2455">
-        <v>178497122</v>
+        <v>44156100</v>
       </c>
       <c r="L2455">
-        <v>178497122</v>
+        <v>44156100</v>
       </c>
     </row>
     <row r="2456" spans="1:12">
@@ -101295,19 +101406,19 @@
         <v>13</v>
       </c>
       <c r="D2456" t="s">
-        <v>2501</v>
+        <v>2549</v>
       </c>
       <c r="E2456" t="s">
-        <v>2523</v>
+        <v>2557</v>
       </c>
       <c r="F2456" t="s">
-        <v>2524</v>
+        <v>2558</v>
       </c>
       <c r="G2456" t="s">
-        <v>2525</v>
+        <v>2559</v>
       </c>
       <c r="H2456" t="s">
-        <v>1546</v>
+        <v>335</v>
       </c>
       <c r="I2456" t="s">
         <v>19</v>
@@ -101316,10 +101427,10 @@
         <v>1</v>
       </c>
       <c r="K2456">
-        <v>4041500</v>
+        <v>4472800</v>
       </c>
       <c r="L2456">
-        <v>4041500</v>
+        <v>4472800</v>
       </c>
     </row>
     <row r="2457" spans="1:12">
@@ -101333,19 +101444,19 @@
         <v>13</v>
       </c>
       <c r="D2457" t="s">
-        <v>2501</v>
+        <v>2549</v>
       </c>
       <c r="E2457" t="s">
-        <v>2526</v>
+        <v>2557</v>
       </c>
       <c r="F2457" t="s">
-        <v>2527</v>
+        <v>2558</v>
       </c>
       <c r="G2457" t="s">
-        <v>2528</v>
+        <v>2559</v>
       </c>
       <c r="H2457" t="s">
-        <v>1546</v>
+        <v>1478</v>
       </c>
       <c r="I2457" t="s">
         <v>19</v>
@@ -101354,10 +101465,10 @@
         <v>1</v>
       </c>
       <c r="K2457">
-        <v>1951000</v>
+        <v>4795406</v>
       </c>
       <c r="L2457">
-        <v>1951000</v>
+        <v>4795406</v>
       </c>
     </row>
     <row r="2458" spans="1:12">
@@ -101371,19 +101482,19 @@
         <v>13</v>
       </c>
       <c r="D2458" t="s">
-        <v>2501</v>
+        <v>2549</v>
       </c>
       <c r="E2458" t="s">
-        <v>2529</v>
+        <v>2557</v>
       </c>
       <c r="F2458" t="s">
-        <v>2530</v>
+        <v>2558</v>
       </c>
       <c r="G2458" t="s">
-        <v>2531</v>
+        <v>2559</v>
       </c>
       <c r="H2458" t="s">
-        <v>582</v>
+        <v>522</v>
       </c>
       <c r="I2458" t="s">
         <v>19</v>
@@ -101392,10 +101503,10 @@
         <v>1</v>
       </c>
       <c r="K2458">
-        <v>1340000</v>
+        <v>842000</v>
       </c>
       <c r="L2458">
-        <v>1340000</v>
+        <v>842000</v>
       </c>
     </row>
     <row r="2459" spans="1:12">
@@ -101409,19 +101520,19 @@
         <v>13</v>
       </c>
       <c r="D2459" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2459" t="s">
-        <v>2532</v>
+        <v>2557</v>
       </c>
       <c r="F2459" t="s">
-        <v>2533</v>
+        <v>2558</v>
       </c>
       <c r="G2459" t="s">
-        <v>2534</v>
+        <v>2559</v>
       </c>
       <c r="H2459" t="s">
-        <v>438</v>
+        <v>136</v>
       </c>
       <c r="I2459" t="s">
         <v>19</v>
@@ -101430,10 +101541,10 @@
         <v>1</v>
       </c>
       <c r="K2459">
-        <v>328000</v>
+        <v>750000</v>
       </c>
       <c r="L2459">
-        <v>328000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="2460" spans="1:12">
@@ -101447,19 +101558,19 @@
         <v>13</v>
       </c>
       <c r="D2460" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2460" t="s">
-        <v>2535</v>
+        <v>2557</v>
       </c>
       <c r="F2460" t="s">
-        <v>2536</v>
+        <v>2558</v>
       </c>
       <c r="G2460" t="s">
-        <v>2537</v>
+        <v>2559</v>
       </c>
       <c r="H2460" t="s">
-        <v>442</v>
+        <v>1423</v>
       </c>
       <c r="I2460" t="s">
         <v>19</v>
@@ -101468,10 +101579,10 @@
         <v>1</v>
       </c>
       <c r="K2460">
-        <v>481000</v>
+        <v>300000</v>
       </c>
       <c r="L2460">
-        <v>481000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="2461" spans="1:12">
@@ -101485,19 +101596,19 @@
         <v>13</v>
       </c>
       <c r="D2461" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2461" t="s">
-        <v>2538</v>
+        <v>2557</v>
       </c>
       <c r="F2461" t="s">
-        <v>2539</v>
+        <v>2558</v>
       </c>
       <c r="G2461" t="s">
-        <v>2540</v>
+        <v>2559</v>
       </c>
       <c r="H2461" t="s">
-        <v>170</v>
+        <v>2563</v>
       </c>
       <c r="I2461" t="s">
         <v>19</v>
@@ -101506,10 +101617,10 @@
         <v>1</v>
       </c>
       <c r="K2461">
-        <v>56694000</v>
+        <v>150000</v>
       </c>
       <c r="L2461">
-        <v>56694000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="2462" spans="1:12">
@@ -101523,19 +101634,19 @@
         <v>13</v>
       </c>
       <c r="D2462" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2462" t="s">
-        <v>2538</v>
+        <v>2557</v>
       </c>
       <c r="F2462" t="s">
-        <v>2539</v>
+        <v>2558</v>
       </c>
       <c r="G2462" t="s">
-        <v>2540</v>
+        <v>2559</v>
       </c>
       <c r="H2462" t="s">
-        <v>171</v>
+        <v>2564</v>
       </c>
       <c r="I2462" t="s">
         <v>19</v>
@@ -101544,10 +101655,10 @@
         <v>1</v>
       </c>
       <c r="K2462">
-        <v>8545000</v>
+        <v>4297012</v>
       </c>
       <c r="L2462">
-        <v>8545000</v>
+        <v>4297012</v>
       </c>
     </row>
     <row r="2463" spans="1:12">
@@ -101561,19 +101672,19 @@
         <v>13</v>
       </c>
       <c r="D2463" t="s">
-        <v>2490</v>
+        <v>2553</v>
       </c>
       <c r="E2463" t="s">
-        <v>2538</v>
+        <v>2565</v>
       </c>
       <c r="F2463" t="s">
-        <v>2539</v>
+        <v>2566</v>
       </c>
       <c r="G2463" t="s">
-        <v>2540</v>
+        <v>2567</v>
       </c>
       <c r="H2463" t="s">
-        <v>1212</v>
+        <v>909</v>
       </c>
       <c r="I2463" t="s">
         <v>19</v>
@@ -101582,10 +101693,10 @@
         <v>1</v>
       </c>
       <c r="K2463">
-        <v>4400000</v>
+        <v>9801220</v>
       </c>
       <c r="L2463">
-        <v>4400000</v>
+        <v>9801220</v>
       </c>
     </row>
     <row r="2464" spans="1:12">
@@ -101599,19 +101710,19 @@
         <v>13</v>
       </c>
       <c r="D2464" t="s">
-        <v>2490</v>
+        <v>2553</v>
       </c>
       <c r="E2464" t="s">
-        <v>2538</v>
+        <v>2568</v>
       </c>
       <c r="F2464" t="s">
-        <v>2539</v>
+        <v>2569</v>
       </c>
       <c r="G2464" t="s">
-        <v>2540</v>
+        <v>2570</v>
       </c>
       <c r="H2464" t="s">
-        <v>1352</v>
+        <v>184</v>
       </c>
       <c r="I2464" t="s">
         <v>19</v>
@@ -101620,10 +101731,10 @@
         <v>1</v>
       </c>
       <c r="K2464">
-        <v>2558200</v>
+        <v>4408826</v>
       </c>
       <c r="L2464">
-        <v>2558200</v>
+        <v>4408826</v>
       </c>
     </row>
     <row r="2465" spans="1:12">
@@ -101637,19 +101748,19 @@
         <v>13</v>
       </c>
       <c r="D2465" t="s">
-        <v>2490</v>
+        <v>2553</v>
       </c>
       <c r="E2465" t="s">
-        <v>2538</v>
+        <v>2571</v>
       </c>
       <c r="F2465" t="s">
-        <v>2539</v>
+        <v>2572</v>
       </c>
       <c r="G2465" t="s">
-        <v>2540</v>
+        <v>2573</v>
       </c>
       <c r="H2465" t="s">
-        <v>375</v>
+        <v>70</v>
       </c>
       <c r="I2465" t="s">
         <v>19</v>
@@ -101658,10 +101769,10 @@
         <v>1</v>
       </c>
       <c r="K2465">
-        <v>259123</v>
+        <v>10140004</v>
       </c>
       <c r="L2465">
-        <v>259123</v>
+        <v>10140004</v>
       </c>
     </row>
     <row r="2466" spans="1:12">
@@ -101675,19 +101786,19 @@
         <v>13</v>
       </c>
       <c r="D2466" t="s">
-        <v>2490</v>
+        <v>2553</v>
       </c>
       <c r="E2466" t="s">
-        <v>2538</v>
+        <v>2574</v>
       </c>
       <c r="F2466" t="s">
-        <v>2539</v>
+        <v>2575</v>
       </c>
       <c r="G2466" t="s">
-        <v>2540</v>
+        <v>2576</v>
       </c>
       <c r="H2466" t="s">
-        <v>75</v>
+        <v>560</v>
       </c>
       <c r="I2466" t="s">
         <v>19</v>
@@ -101696,10 +101807,10 @@
         <v>1</v>
       </c>
       <c r="K2466">
-        <v>1394057</v>
+        <v>4752500</v>
       </c>
       <c r="L2466">
-        <v>1394057</v>
+        <v>4752500</v>
       </c>
     </row>
     <row r="2467" spans="1:12">
@@ -101713,19 +101824,19 @@
         <v>13</v>
       </c>
       <c r="D2467" t="s">
-        <v>2490</v>
+        <v>2553</v>
       </c>
       <c r="E2467" t="s">
-        <v>2538</v>
+        <v>2577</v>
       </c>
       <c r="F2467" t="s">
-        <v>2539</v>
+        <v>2578</v>
       </c>
       <c r="G2467" t="s">
-        <v>2540</v>
+        <v>2579</v>
       </c>
       <c r="H2467" t="s">
-        <v>612</v>
+        <v>1114</v>
       </c>
       <c r="I2467" t="s">
         <v>19</v>
@@ -101734,10 +101845,10 @@
         <v>1</v>
       </c>
       <c r="K2467">
-        <v>550000</v>
+        <v>8300000</v>
       </c>
       <c r="L2467">
-        <v>550000</v>
+        <v>8300000</v>
       </c>
     </row>
     <row r="2468" spans="1:12">
@@ -101751,19 +101862,19 @@
         <v>13</v>
       </c>
       <c r="D2468" t="s">
-        <v>2490</v>
+        <v>2553</v>
       </c>
       <c r="E2468" t="s">
-        <v>2538</v>
+        <v>2580</v>
       </c>
       <c r="F2468" t="s">
-        <v>2539</v>
+        <v>2581</v>
       </c>
       <c r="G2468" t="s">
-        <v>2540</v>
+        <v>2582</v>
       </c>
       <c r="H2468" t="s">
-        <v>907</v>
+        <v>1114</v>
       </c>
       <c r="I2468" t="s">
         <v>19</v>
@@ -101772,10 +101883,10 @@
         <v>1</v>
       </c>
       <c r="K2468">
-        <v>1858950</v>
+        <v>6474000</v>
       </c>
       <c r="L2468">
-        <v>1858950</v>
+        <v>6474000</v>
       </c>
     </row>
     <row r="2469" spans="1:12">
@@ -101789,19 +101900,19 @@
         <v>13</v>
       </c>
       <c r="D2469" t="s">
-        <v>2490</v>
+        <v>2553</v>
       </c>
       <c r="E2469" t="s">
-        <v>2538</v>
+        <v>2583</v>
       </c>
       <c r="F2469" t="s">
-        <v>2539</v>
+        <v>2584</v>
       </c>
       <c r="G2469" t="s">
-        <v>2540</v>
+        <v>2585</v>
       </c>
       <c r="H2469" t="s">
-        <v>812</v>
+        <v>764</v>
       </c>
       <c r="I2469" t="s">
         <v>19</v>
@@ -101810,10 +101921,10 @@
         <v>1</v>
       </c>
       <c r="K2469">
-        <v>6329949</v>
+        <v>9953640</v>
       </c>
       <c r="L2469">
-        <v>6329949</v>
+        <v>9953640</v>
       </c>
     </row>
     <row r="2470" spans="1:12">
@@ -101827,19 +101938,19 @@
         <v>13</v>
       </c>
       <c r="D2470" t="s">
-        <v>2490</v>
+        <v>2553</v>
       </c>
       <c r="E2470" t="s">
-        <v>2538</v>
+        <v>2586</v>
       </c>
       <c r="F2470" t="s">
-        <v>2539</v>
+        <v>2587</v>
       </c>
       <c r="G2470" t="s">
-        <v>2540</v>
+        <v>2588</v>
       </c>
       <c r="H2470" t="s">
-        <v>813</v>
+        <v>1356</v>
       </c>
       <c r="I2470" t="s">
         <v>19</v>
@@ -101848,10 +101959,10 @@
         <v>1</v>
       </c>
       <c r="K2470">
-        <v>3918000</v>
+        <v>8415757</v>
       </c>
       <c r="L2470">
-        <v>3918000</v>
+        <v>8415757</v>
       </c>
     </row>
     <row r="2471" spans="1:12">
@@ -101865,19 +101976,19 @@
         <v>13</v>
       </c>
       <c r="D2471" t="s">
-        <v>2490</v>
+        <v>2553</v>
       </c>
       <c r="E2471" t="s">
-        <v>2538</v>
+        <v>2589</v>
       </c>
       <c r="F2471" t="s">
-        <v>2539</v>
+        <v>2590</v>
       </c>
       <c r="G2471" t="s">
-        <v>2540</v>
+        <v>2591</v>
       </c>
       <c r="H2471" t="s">
-        <v>815</v>
+        <v>2467</v>
       </c>
       <c r="I2471" t="s">
         <v>19</v>
@@ -101886,10 +101997,10 @@
         <v>1</v>
       </c>
       <c r="K2471">
-        <v>9000000</v>
+        <v>6228560</v>
       </c>
       <c r="L2471">
-        <v>9000000</v>
+        <v>6228560</v>
       </c>
     </row>
     <row r="2472" spans="1:12">
@@ -101903,19 +102014,19 @@
         <v>13</v>
       </c>
       <c r="D2472" t="s">
-        <v>2490</v>
+        <v>2553</v>
       </c>
       <c r="E2472" t="s">
-        <v>2538</v>
+        <v>2592</v>
       </c>
       <c r="F2472" t="s">
-        <v>2539</v>
+        <v>2593</v>
       </c>
       <c r="G2472" t="s">
-        <v>2540</v>
+        <v>2594</v>
       </c>
       <c r="H2472" t="s">
-        <v>112</v>
+        <v>2595</v>
       </c>
       <c r="I2472" t="s">
         <v>19</v>
@@ -101924,10 +102035,10 @@
         <v>1</v>
       </c>
       <c r="K2472">
-        <v>2074886</v>
+        <v>18411060</v>
       </c>
       <c r="L2472">
-        <v>2074886</v>
+        <v>18411060</v>
       </c>
     </row>
     <row r="2473" spans="1:12">
@@ -101941,19 +102052,19 @@
         <v>13</v>
       </c>
       <c r="D2473" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2473" t="s">
-        <v>2538</v>
+        <v>2596</v>
       </c>
       <c r="F2473" t="s">
-        <v>2539</v>
+        <v>2597</v>
       </c>
       <c r="G2473" t="s">
-        <v>2540</v>
+        <v>795</v>
       </c>
       <c r="H2473" t="s">
-        <v>769</v>
+        <v>170</v>
       </c>
       <c r="I2473" t="s">
         <v>19</v>
@@ -101962,10 +102073,10 @@
         <v>1</v>
       </c>
       <c r="K2473">
-        <v>525000</v>
+        <v>16820150</v>
       </c>
       <c r="L2473">
-        <v>525000</v>
+        <v>16820150</v>
       </c>
     </row>
     <row r="2474" spans="1:12">
@@ -101979,19 +102090,19 @@
         <v>13</v>
       </c>
       <c r="D2474" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2474" t="s">
-        <v>2538</v>
+        <v>2596</v>
       </c>
       <c r="F2474" t="s">
-        <v>2539</v>
+        <v>2597</v>
       </c>
       <c r="G2474" t="s">
-        <v>2540</v>
+        <v>795</v>
       </c>
       <c r="H2474" t="s">
-        <v>770</v>
+        <v>171</v>
       </c>
       <c r="I2474" t="s">
         <v>19</v>
@@ -102000,10 +102111,10 @@
         <v>1</v>
       </c>
       <c r="K2474">
-        <v>750000</v>
+        <v>2536500</v>
       </c>
       <c r="L2474">
-        <v>750000</v>
+        <v>2536500</v>
       </c>
     </row>
     <row r="2475" spans="1:12">
@@ -102017,19 +102128,19 @@
         <v>13</v>
       </c>
       <c r="D2475" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2475" t="s">
-        <v>2538</v>
+        <v>2596</v>
       </c>
       <c r="F2475" t="s">
-        <v>2539</v>
+        <v>2597</v>
       </c>
       <c r="G2475" t="s">
-        <v>2540</v>
+        <v>795</v>
       </c>
       <c r="H2475" t="s">
-        <v>400</v>
+        <v>796</v>
       </c>
       <c r="I2475" t="s">
         <v>19</v>
@@ -102038,10 +102149,10 @@
         <v>1</v>
       </c>
       <c r="K2475">
-        <v>600000</v>
+        <v>3057000</v>
       </c>
       <c r="L2475">
-        <v>600000</v>
+        <v>3057000</v>
       </c>
     </row>
     <row r="2476" spans="1:12">
@@ -102055,19 +102166,19 @@
         <v>13</v>
       </c>
       <c r="D2476" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2476" t="s">
-        <v>2538</v>
+        <v>2596</v>
       </c>
       <c r="F2476" t="s">
-        <v>2539</v>
+        <v>2597</v>
       </c>
       <c r="G2476" t="s">
-        <v>2540</v>
+        <v>795</v>
       </c>
       <c r="H2476" t="s">
-        <v>401</v>
+        <v>172</v>
       </c>
       <c r="I2476" t="s">
         <v>19</v>
@@ -102076,10 +102187,10 @@
         <v>1</v>
       </c>
       <c r="K2476">
-        <v>520000</v>
+        <v>1074902</v>
       </c>
       <c r="L2476">
-        <v>520000</v>
+        <v>1074902</v>
       </c>
     </row>
     <row r="2477" spans="1:12">
@@ -102093,19 +102204,19 @@
         <v>13</v>
       </c>
       <c r="D2477" t="s">
-        <v>2501</v>
+        <v>2549</v>
       </c>
       <c r="E2477" t="s">
-        <v>2541</v>
+        <v>2596</v>
       </c>
       <c r="F2477" t="s">
-        <v>2542</v>
+        <v>2597</v>
       </c>
       <c r="G2477" t="s">
-        <v>2543</v>
+        <v>795</v>
       </c>
       <c r="H2477" t="s">
-        <v>2544</v>
+        <v>173</v>
       </c>
       <c r="I2477" t="s">
         <v>19</v>
@@ -102114,10 +102225,10 @@
         <v>1</v>
       </c>
       <c r="K2477">
-        <v>4440000</v>
+        <v>121284</v>
       </c>
       <c r="L2477">
-        <v>4440000</v>
+        <v>121284</v>
       </c>
     </row>
     <row r="2478" spans="1:12">
@@ -102131,19 +102242,19 @@
         <v>13</v>
       </c>
       <c r="D2478" t="s">
-        <v>2501</v>
+        <v>2549</v>
       </c>
       <c r="E2478" t="s">
-        <v>2545</v>
+        <v>2596</v>
       </c>
       <c r="F2478" t="s">
-        <v>2546</v>
+        <v>2597</v>
       </c>
       <c r="G2478" t="s">
-        <v>2547</v>
+        <v>795</v>
       </c>
       <c r="H2478" t="s">
-        <v>812</v>
+        <v>1636</v>
       </c>
       <c r="I2478" t="s">
         <v>19</v>
@@ -102152,10 +102263,10 @@
         <v>1</v>
       </c>
       <c r="K2478">
-        <v>19469400</v>
+        <v>4500000</v>
       </c>
       <c r="L2478">
-        <v>19469400</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="2479" spans="1:12">
@@ -102169,19 +102280,19 @@
         <v>13</v>
       </c>
       <c r="D2479" t="s">
-        <v>2501</v>
+        <v>2549</v>
       </c>
       <c r="E2479" t="s">
-        <v>2548</v>
+        <v>2596</v>
       </c>
       <c r="F2479" t="s">
-        <v>2549</v>
+        <v>2597</v>
       </c>
       <c r="G2479" t="s">
-        <v>2550</v>
+        <v>795</v>
       </c>
       <c r="H2479" t="s">
-        <v>157</v>
+        <v>797</v>
       </c>
       <c r="I2479" t="s">
         <v>19</v>
@@ -102190,10 +102301,10 @@
         <v>1</v>
       </c>
       <c r="K2479">
-        <v>21756000</v>
+        <v>284580</v>
       </c>
       <c r="L2479">
-        <v>21756000</v>
+        <v>284580</v>
       </c>
     </row>
     <row r="2480" spans="1:12">
@@ -102207,19 +102318,19 @@
         <v>13</v>
       </c>
       <c r="D2480" t="s">
-        <v>2501</v>
+        <v>2549</v>
       </c>
       <c r="E2480" t="s">
-        <v>2551</v>
+        <v>2596</v>
       </c>
       <c r="F2480" t="s">
-        <v>2552</v>
+        <v>2597</v>
       </c>
       <c r="G2480" t="s">
-        <v>2553</v>
+        <v>795</v>
       </c>
       <c r="H2480" t="s">
-        <v>604</v>
+        <v>893</v>
       </c>
       <c r="I2480" t="s">
         <v>19</v>
@@ -102228,10 +102339,10 @@
         <v>1</v>
       </c>
       <c r="K2480">
-        <v>20993240</v>
+        <v>2904050</v>
       </c>
       <c r="L2480">
-        <v>20993240</v>
+        <v>2904050</v>
       </c>
     </row>
     <row r="2481" spans="1:12">
@@ -102245,19 +102356,19 @@
         <v>13</v>
       </c>
       <c r="D2481" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2481" t="s">
-        <v>2554</v>
+        <v>2596</v>
       </c>
       <c r="F2481" t="s">
-        <v>2555</v>
+        <v>2597</v>
       </c>
       <c r="G2481" t="s">
-        <v>2556</v>
+        <v>795</v>
       </c>
       <c r="H2481" t="s">
-        <v>2229</v>
+        <v>798</v>
       </c>
       <c r="I2481" t="s">
         <v>19</v>
@@ -102266,10 +102377,10 @@
         <v>1</v>
       </c>
       <c r="K2481">
-        <v>901000</v>
+        <v>2997000</v>
       </c>
       <c r="L2481">
-        <v>901000</v>
+        <v>2997000</v>
       </c>
     </row>
     <row r="2482" spans="1:12">
@@ -102283,19 +102394,19 @@
         <v>13</v>
       </c>
       <c r="D2482" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2482" t="s">
-        <v>2557</v>
+        <v>2596</v>
       </c>
       <c r="F2482" t="s">
-        <v>2558</v>
+        <v>2597</v>
       </c>
       <c r="G2482" t="s">
-        <v>2559</v>
+        <v>795</v>
       </c>
       <c r="H2482" t="s">
-        <v>442</v>
+        <v>894</v>
       </c>
       <c r="I2482" t="s">
         <v>19</v>
@@ -102304,10 +102415,10 @@
         <v>1</v>
       </c>
       <c r="K2482">
-        <v>34503000</v>
+        <v>2986000</v>
       </c>
       <c r="L2482">
-        <v>34503000</v>
+        <v>2986000</v>
       </c>
     </row>
     <row r="2483" spans="1:12">
@@ -102321,19 +102432,19 @@
         <v>13</v>
       </c>
       <c r="D2483" t="s">
-        <v>2490</v>
+        <v>2549</v>
       </c>
       <c r="E2483" t="s">
-        <v>2560</v>
+        <v>2596</v>
       </c>
       <c r="F2483" t="s">
-        <v>2561</v>
+        <v>2597</v>
       </c>
       <c r="G2483" t="s">
-        <v>2562</v>
+        <v>795</v>
       </c>
       <c r="H2483" t="s">
-        <v>438</v>
+        <v>896</v>
       </c>
       <c r="I2483" t="s">
         <v>19</v>
@@ -102342,10 +102453,10 @@
         <v>1</v>
       </c>
       <c r="K2483">
-        <v>22238000</v>
+        <v>2771900</v>
       </c>
       <c r="L2483">
-        <v>22238000</v>
+        <v>2771900</v>
       </c>
     </row>
     <row r="2484" spans="1:12">
@@ -102359,31 +102470,905 @@
         <v>13</v>
       </c>
       <c r="D2484" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2484" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2484" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2484" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2484" t="s">
+        <v>799</v>
+      </c>
+      <c r="I2484" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2484">
+        <v>1</v>
+      </c>
+      <c r="K2484">
+        <v>3013000</v>
+      </c>
+      <c r="L2484">
+        <v>3013000</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:12">
+      <c r="A2485">
+        <v>2482</v>
+      </c>
+      <c r="B2485">
+        <v>626402</v>
+      </c>
+      <c r="C2485" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2485" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2485" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2485" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2485" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2485" t="s">
+        <v>802</v>
+      </c>
+      <c r="I2485" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2485">
+        <v>1</v>
+      </c>
+      <c r="K2485">
+        <v>2789500</v>
+      </c>
+      <c r="L2485">
+        <v>2789500</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:12">
+      <c r="A2486">
+        <v>2483</v>
+      </c>
+      <c r="B2486">
+        <v>626402</v>
+      </c>
+      <c r="C2486" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2486" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2486" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2486" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2486" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2486" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2486" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2486">
+        <v>1</v>
+      </c>
+      <c r="K2486">
+        <v>4997000</v>
+      </c>
+      <c r="L2486">
+        <v>4997000</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:12">
+      <c r="A2487">
+        <v>2484</v>
+      </c>
+      <c r="B2487">
+        <v>626402</v>
+      </c>
+      <c r="C2487" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2487" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2487" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2487" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2487" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2487" t="s">
+        <v>951</v>
+      </c>
+      <c r="I2487" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2487">
+        <v>1</v>
+      </c>
+      <c r="K2487">
+        <v>1983750</v>
+      </c>
+      <c r="L2487">
+        <v>1983750</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:12">
+      <c r="A2488">
+        <v>2485</v>
+      </c>
+      <c r="B2488">
+        <v>626402</v>
+      </c>
+      <c r="C2488" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2488" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2488" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2488" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2488" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2488" t="s">
+        <v>952</v>
+      </c>
+      <c r="I2488" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2488">
+        <v>1</v>
+      </c>
+      <c r="K2488">
+        <v>1990000</v>
+      </c>
+      <c r="L2488">
+        <v>1990000</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:12">
+      <c r="A2489">
+        <v>2486</v>
+      </c>
+      <c r="B2489">
+        <v>626402</v>
+      </c>
+      <c r="C2489" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2489" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2489" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2489" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2489" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2489" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2489" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2489">
+        <v>1</v>
+      </c>
+      <c r="K2489">
+        <v>2000000</v>
+      </c>
+      <c r="L2489">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:12">
+      <c r="A2490">
+        <v>2487</v>
+      </c>
+      <c r="B2490">
+        <v>626402</v>
+      </c>
+      <c r="C2490" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2490" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2490" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2490" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2490" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2490" t="s">
+        <v>810</v>
+      </c>
+      <c r="I2490" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2490">
+        <v>1</v>
+      </c>
+      <c r="K2490">
+        <v>2495000</v>
+      </c>
+      <c r="L2490">
+        <v>2495000</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:12">
+      <c r="A2491">
+        <v>2488</v>
+      </c>
+      <c r="B2491">
+        <v>626402</v>
+      </c>
+      <c r="C2491" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2491" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2491" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2491" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2491" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2491" t="s">
+        <v>538</v>
+      </c>
+      <c r="I2491" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2491">
+        <v>1</v>
+      </c>
+      <c r="K2491">
+        <v>2000000</v>
+      </c>
+      <c r="L2491">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:12">
+      <c r="A2492">
+        <v>2489</v>
+      </c>
+      <c r="B2492">
+        <v>626402</v>
+      </c>
+      <c r="C2492" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2492" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2492" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2492" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2492" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2492" t="s">
+        <v>758</v>
+      </c>
+      <c r="I2492" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2492">
+        <v>1</v>
+      </c>
+      <c r="K2492">
+        <v>13320000</v>
+      </c>
+      <c r="L2492">
+        <v>13320000</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:12">
+      <c r="A2493">
         <v>2490</v>
       </c>
-      <c r="E2484" t="s">
-        <v>2563</v>
-      </c>
-      <c r="F2484" t="s">
-        <v>2564</v>
-      </c>
-      <c r="G2484" t="s">
-        <v>2565</v>
-      </c>
-      <c r="H2484" t="s">
-        <v>434</v>
-      </c>
-      <c r="I2484" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2484">
-        <v>1</v>
-      </c>
-      <c r="K2484">
-        <v>19497000</v>
-      </c>
-      <c r="L2484">
-        <v>19497000</v>
+      <c r="B2493">
+        <v>626402</v>
+      </c>
+      <c r="C2493" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2493" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2493" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2493" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2493" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2493" t="s">
+        <v>574</v>
+      </c>
+      <c r="I2493" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2493">
+        <v>1</v>
+      </c>
+      <c r="K2493">
+        <v>450000</v>
+      </c>
+      <c r="L2493">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:12">
+      <c r="A2494">
+        <v>2491</v>
+      </c>
+      <c r="B2494">
+        <v>626402</v>
+      </c>
+      <c r="C2494" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2494" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2494" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2494" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2494" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2494" t="s">
+        <v>825</v>
+      </c>
+      <c r="I2494" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2494">
+        <v>1</v>
+      </c>
+      <c r="K2494">
+        <v>8665051</v>
+      </c>
+      <c r="L2494">
+        <v>8665051</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:12">
+      <c r="A2495">
+        <v>2492</v>
+      </c>
+      <c r="B2495">
+        <v>626402</v>
+      </c>
+      <c r="C2495" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2495" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2495" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2495" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2495" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2495" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I2495" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2495">
+        <v>1</v>
+      </c>
+      <c r="K2495">
+        <v>8221758</v>
+      </c>
+      <c r="L2495">
+        <v>8221758</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:12">
+      <c r="A2496">
+        <v>2493</v>
+      </c>
+      <c r="B2496">
+        <v>626402</v>
+      </c>
+      <c r="C2496" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2496" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2496" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2496" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2496" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2496" t="s">
+        <v>813</v>
+      </c>
+      <c r="I2496" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2496">
+        <v>1</v>
+      </c>
+      <c r="K2496">
+        <v>1055900</v>
+      </c>
+      <c r="L2496">
+        <v>1055900</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:12">
+      <c r="A2497">
+        <v>2494</v>
+      </c>
+      <c r="B2497">
+        <v>626402</v>
+      </c>
+      <c r="C2497" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2497" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2497" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2497" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2497" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2497" t="s">
+        <v>814</v>
+      </c>
+      <c r="I2497" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2497">
+        <v>1</v>
+      </c>
+      <c r="K2497">
+        <v>3000000</v>
+      </c>
+      <c r="L2497">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:12">
+      <c r="A2498">
+        <v>2495</v>
+      </c>
+      <c r="B2498">
+        <v>626402</v>
+      </c>
+      <c r="C2498" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2498" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2498" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2498" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2498" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2498" t="s">
+        <v>582</v>
+      </c>
+      <c r="I2498" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2498">
+        <v>1</v>
+      </c>
+      <c r="K2498">
+        <v>720000</v>
+      </c>
+      <c r="L2498">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:12">
+      <c r="A2499">
+        <v>2496</v>
+      </c>
+      <c r="B2499">
+        <v>626402</v>
+      </c>
+      <c r="C2499" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2499" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2499" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2499" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2499" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2499" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I2499" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2499">
+        <v>1</v>
+      </c>
+      <c r="K2499">
+        <v>220000</v>
+      </c>
+      <c r="L2499">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:12">
+      <c r="A2500">
+        <v>2497</v>
+      </c>
+      <c r="B2500">
+        <v>626402</v>
+      </c>
+      <c r="C2500" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2500" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2500" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2500" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2500" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2500" t="s">
+        <v>817</v>
+      </c>
+      <c r="I2500" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2500">
+        <v>1</v>
+      </c>
+      <c r="K2500">
+        <v>450000</v>
+      </c>
+      <c r="L2500">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:12">
+      <c r="A2501">
+        <v>2498</v>
+      </c>
+      <c r="B2501">
+        <v>626402</v>
+      </c>
+      <c r="C2501" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2501" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2501" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2501" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2501" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2501" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2501" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2501">
+        <v>1</v>
+      </c>
+      <c r="K2501">
+        <v>900000</v>
+      </c>
+      <c r="L2501">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:12">
+      <c r="A2502">
+        <v>2499</v>
+      </c>
+      <c r="B2502">
+        <v>626402</v>
+      </c>
+      <c r="C2502" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2502" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2502" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2502" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2502" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2502" t="s">
+        <v>396</v>
+      </c>
+      <c r="I2502" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2502">
+        <v>1</v>
+      </c>
+      <c r="K2502">
+        <v>210000</v>
+      </c>
+      <c r="L2502">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:12">
+      <c r="A2503">
+        <v>2500</v>
+      </c>
+      <c r="B2503">
+        <v>626402</v>
+      </c>
+      <c r="C2503" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2503" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2503" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2503" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2503" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2503" t="s">
+        <v>397</v>
+      </c>
+      <c r="I2503" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2503">
+        <v>1</v>
+      </c>
+      <c r="K2503">
+        <v>150000</v>
+      </c>
+      <c r="L2503">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:12">
+      <c r="A2504">
+        <v>2501</v>
+      </c>
+      <c r="B2504">
+        <v>626402</v>
+      </c>
+      <c r="C2504" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2504" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2504" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2504" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2504" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2504" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2504" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2504">
+        <v>1</v>
+      </c>
+      <c r="K2504">
+        <v>750000</v>
+      </c>
+      <c r="L2504">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:12">
+      <c r="A2505">
+        <v>2502</v>
+      </c>
+      <c r="B2505">
+        <v>626402</v>
+      </c>
+      <c r="C2505" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2505" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2505" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2505" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2505" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2505" t="s">
+        <v>2598</v>
+      </c>
+      <c r="I2505" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2505">
+        <v>1</v>
+      </c>
+      <c r="K2505">
+        <v>130000</v>
+      </c>
+      <c r="L2505">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:12">
+      <c r="A2506">
+        <v>2503</v>
+      </c>
+      <c r="B2506">
+        <v>626402</v>
+      </c>
+      <c r="C2506" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2506" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2506" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F2506" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2506" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2506" t="s">
+        <v>732</v>
+      </c>
+      <c r="I2506" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2506">
+        <v>1</v>
+      </c>
+      <c r="K2506">
+        <v>300000</v>
+      </c>
+      <c r="L2506">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:12">
+      <c r="A2507">
+        <v>2504</v>
+      </c>
+      <c r="B2507">
+        <v>626402</v>
+      </c>
+      <c r="C2507" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2507" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E2507" t="s">
+        <v>2599</v>
+      </c>
+      <c r="F2507" t="s">
+        <v>2600</v>
+      </c>
+      <c r="G2507" t="s">
+        <v>2601</v>
+      </c>
+      <c r="H2507" t="s">
+        <v>2602</v>
+      </c>
+      <c r="I2507" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2507">
+        <v>1</v>
+      </c>
+      <c r="K2507">
+        <v>1539452</v>
+      </c>
+      <c r="L2507">
+        <v>1539452</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2619">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -7824,6 +7824,54 @@
   </si>
   <si>
     <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0C.000878</t>
+  </si>
+  <si>
+    <t>'00609T</t>
+  </si>
+  <si>
+    <t>'231751303015200</t>
+  </si>
+  <si>
+    <t>'626402.175.521219.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.301.0G.001448</t>
+  </si>
+  <si>
+    <t>2023-06-26</t>
+  </si>
+  <si>
+    <t>'00611T</t>
+  </si>
+  <si>
+    <t>'231751303015198</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2760/BRSDM.1/KP.440/V/2023 Tanggal 24 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00612T</t>
+  </si>
+  <si>
+    <t>'231751303015199</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.3062/BRSDM.1/KP.440/VI/2023 Tanggal 7 Juni 2023,Surat Tugas Nomor:B.3149/BRSDM.1/KP.440/VI/2023 Tanggal 13 Juni 2023</t>
+  </si>
+  <si>
+    <t>'00613T</t>
+  </si>
+  <si>
+    <t>'231751303015194</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2250,B.2250,B.2265,B.2283,B.2313/BRSDM.1/KP.440/V/2023 Tanggal 3,4,5 Mei 2023</t>
+  </si>
+  <si>
+    <t>'00615T</t>
+  </si>
+  <si>
+    <t>'231751303015201</t>
+  </si>
+  <si>
+    <t>Penggantian Uang Persediaan KKP untuk keperluan belanja barang (BPP 001 Set.BRSDM)</t>
   </si>
 </sst>
 </file>
@@ -8165,7 +8213,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L2507"/>
+  <dimension ref="A1:L2515"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -103369,6 +103417,310 @@
       </c>
       <c r="L2507">
         <v>1539452</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:12">
+      <c r="A2508">
+        <v>2505</v>
+      </c>
+      <c r="B2508">
+        <v>626402</v>
+      </c>
+      <c r="C2508" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2508" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E2508" t="s">
+        <v>2603</v>
+      </c>
+      <c r="F2508" t="s">
+        <v>2604</v>
+      </c>
+      <c r="G2508" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H2508" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2508" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2508">
+        <v>1</v>
+      </c>
+      <c r="K2508">
+        <v>10000</v>
+      </c>
+      <c r="L2508">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:12">
+      <c r="A2509">
+        <v>2506</v>
+      </c>
+      <c r="B2509">
+        <v>626402</v>
+      </c>
+      <c r="C2509" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2509" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E2509" t="s">
+        <v>2603</v>
+      </c>
+      <c r="F2509" t="s">
+        <v>2604</v>
+      </c>
+      <c r="G2509" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H2509" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2509" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2509">
+        <v>1</v>
+      </c>
+      <c r="K2509">
+        <v>728371</v>
+      </c>
+      <c r="L2509">
+        <v>728371</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:12">
+      <c r="A2510">
+        <v>2507</v>
+      </c>
+      <c r="B2510">
+        <v>626402</v>
+      </c>
+      <c r="C2510" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2510" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E2510" t="s">
+        <v>2603</v>
+      </c>
+      <c r="F2510" t="s">
+        <v>2604</v>
+      </c>
+      <c r="G2510" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H2510" t="s">
+        <v>2605</v>
+      </c>
+      <c r="I2510" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2510">
+        <v>1</v>
+      </c>
+      <c r="K2510">
+        <v>161547</v>
+      </c>
+      <c r="L2510">
+        <v>161547</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:12">
+      <c r="A2511">
+        <v>2508</v>
+      </c>
+      <c r="B2511">
+        <v>626402</v>
+      </c>
+      <c r="C2511" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2511" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E2511" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F2511" t="s">
+        <v>2608</v>
+      </c>
+      <c r="G2511" t="s">
+        <v>2609</v>
+      </c>
+      <c r="H2511" t="s">
+        <v>768</v>
+      </c>
+      <c r="I2511" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2511">
+        <v>1</v>
+      </c>
+      <c r="K2511">
+        <v>12094302</v>
+      </c>
+      <c r="L2511">
+        <v>12094302</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:12">
+      <c r="A2512">
+        <v>2509</v>
+      </c>
+      <c r="B2512">
+        <v>626402</v>
+      </c>
+      <c r="C2512" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2512" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E2512" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F2512" t="s">
+        <v>2611</v>
+      </c>
+      <c r="G2512" t="s">
+        <v>2612</v>
+      </c>
+      <c r="H2512" t="s">
+        <v>729</v>
+      </c>
+      <c r="I2512" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2512">
+        <v>1</v>
+      </c>
+      <c r="K2512">
+        <v>2397500</v>
+      </c>
+      <c r="L2512">
+        <v>2397500</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:12">
+      <c r="A2513">
+        <v>2510</v>
+      </c>
+      <c r="B2513">
+        <v>626402</v>
+      </c>
+      <c r="C2513" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2513" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E2513" t="s">
+        <v>2613</v>
+      </c>
+      <c r="F2513" t="s">
+        <v>2614</v>
+      </c>
+      <c r="G2513" t="s">
+        <v>2615</v>
+      </c>
+      <c r="H2513" t="s">
+        <v>1540</v>
+      </c>
+      <c r="I2513" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2513">
+        <v>1</v>
+      </c>
+      <c r="K2513">
+        <v>780000</v>
+      </c>
+      <c r="L2513">
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:12">
+      <c r="A2514">
+        <v>2511</v>
+      </c>
+      <c r="B2514">
+        <v>626402</v>
+      </c>
+      <c r="C2514" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2514" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E2514" t="s">
+        <v>2613</v>
+      </c>
+      <c r="F2514" t="s">
+        <v>2614</v>
+      </c>
+      <c r="G2514" t="s">
+        <v>2615</v>
+      </c>
+      <c r="H2514" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I2514" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2514">
+        <v>1</v>
+      </c>
+      <c r="K2514">
+        <v>750000</v>
+      </c>
+      <c r="L2514">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:12">
+      <c r="A2515">
+        <v>2512</v>
+      </c>
+      <c r="B2515">
+        <v>626402</v>
+      </c>
+      <c r="C2515" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2515" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E2515" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F2515" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G2515" t="s">
+        <v>2618</v>
+      </c>
+      <c r="H2515" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2515" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2515">
+        <v>1</v>
+      </c>
+      <c r="K2515">
+        <v>17367840</v>
+      </c>
+      <c r="L2515">
+        <v>17367840</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2638">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -7403,6 +7403,36 @@
     <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.956.101.0B.000204</t>
   </si>
   <si>
+    <t>2023-07-01</t>
+  </si>
+  <si>
+    <t>'00565T</t>
+  </si>
+  <si>
+    <t>'231751503000751</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran Gaji induk pegawai Puslatluh bulan Juli 2023 untuk 39 pegawai/109 Jiwa)</t>
+  </si>
+  <si>
+    <t>'00566T</t>
+  </si>
+  <si>
+    <t>'231751503000752</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran gaji induk pegawai Sekretariat BRSDM bulan Juli 2023 untuk 76 pegawai/201 Jiwa)</t>
+  </si>
+  <si>
+    <t>'00567T</t>
+  </si>
+  <si>
+    <t>'231751503000750</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran gaji induk pegawai Pusdik bulan Juli 2023 untuk 43 pegawai/116 Jiwa)</t>
+  </si>
+  <si>
     <t>'00568T</t>
   </si>
   <si>
@@ -7766,6 +7796,15 @@
     <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:06.a/KW/PT-HAM/VI/2023 Tanggal 6 Juni 2023 Biaya pemeliharaan pengharum ruangan merk calmic gd.I dan II BRSDM Ancol bulan Mei 2023</t>
   </si>
   <si>
+    <t>'00602T</t>
+  </si>
+  <si>
+    <t>'231751503000796</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang sesuai surat keputusan No.KEP.3/KPA/BRSDM/I/2023.Tgl.02 Januari 2023,gaji PPNPN Bulan Juni Tahun 2023 untuk 16 Pegawai.</t>
+  </si>
+  <si>
     <t>'00603T</t>
   </si>
   <si>
@@ -7865,6 +7904,15 @@
     <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.2250,B.2250,B.2265,B.2283,B.2313/BRSDM.1/KP.440/V/2023 Tanggal 3,4,5 Mei 2023</t>
   </si>
   <si>
+    <t>'00614T</t>
+  </si>
+  <si>
+    <t>'231751503000797</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Berupa Honor PPNPN Bulan Juni Tahun 2023 untuk 43 Pegawai.</t>
+  </si>
+  <si>
     <t>'00615T</t>
   </si>
   <si>
@@ -7872,6 +7920,15 @@
   </si>
   <si>
     <t>Penggantian Uang Persediaan KKP untuk keperluan belanja barang (BPP 001 Set.BRSDM)</t>
+  </si>
+  <si>
+    <t>'00616T</t>
+  </si>
+  <si>
+    <t>'231751503000842</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Berupa Honor PPNPN Pusat Pendidikan KP Bulan Juni Tahun 2023 untuk 13 Pegawai sesuai Surat Keputusan Nomor KEP2/KPA/BRSDM/2023 tgl 2 Januari 2023</t>
   </si>
 </sst>
 </file>
@@ -8213,7 +8270,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L2515"/>
+  <dimension ref="A1:L2548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -97844,19 +97901,19 @@
         <v>13</v>
       </c>
       <c r="D2361" t="s">
-        <v>2348</v>
+        <v>2462</v>
       </c>
       <c r="E2361" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="F2361" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="G2361" t="s">
-        <v>1536</v>
+        <v>2465</v>
       </c>
       <c r="H2361" t="s">
-        <v>2464</v>
+        <v>31</v>
       </c>
       <c r="I2361" t="s">
         <v>19</v>
@@ -97865,10 +97922,10 @@
         <v>1</v>
       </c>
       <c r="K2361">
-        <v>1750000</v>
+        <v>154265300</v>
       </c>
       <c r="L2361">
-        <v>1750000</v>
+        <v>154265300</v>
       </c>
     </row>
     <row r="2362" spans="1:12">
@@ -97882,19 +97939,19 @@
         <v>13</v>
       </c>
       <c r="D2362" t="s">
-        <v>2348</v>
+        <v>2462</v>
       </c>
       <c r="E2362" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="F2362" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="G2362" t="s">
-        <v>1536</v>
+        <v>2465</v>
       </c>
       <c r="H2362" t="s">
-        <v>2465</v>
+        <v>32</v>
       </c>
       <c r="I2362" t="s">
         <v>19</v>
@@ -97903,10 +97960,10 @@
         <v>1</v>
       </c>
       <c r="K2362">
-        <v>1800000</v>
+        <v>1727</v>
       </c>
       <c r="L2362">
-        <v>1800000</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="2363" spans="1:12">
@@ -97920,19 +97977,19 @@
         <v>13</v>
       </c>
       <c r="D2363" t="s">
-        <v>2348</v>
+        <v>2462</v>
       </c>
       <c r="E2363" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="F2363" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="G2363" t="s">
-        <v>1536</v>
+        <v>2465</v>
       </c>
       <c r="H2363" t="s">
-        <v>780</v>
+        <v>33</v>
       </c>
       <c r="I2363" t="s">
         <v>19</v>
@@ -97941,10 +97998,10 @@
         <v>1</v>
       </c>
       <c r="K2363">
-        <v>4850000</v>
+        <v>11101590</v>
       </c>
       <c r="L2363">
-        <v>4850000</v>
+        <v>11101590</v>
       </c>
     </row>
     <row r="2364" spans="1:12">
@@ -97958,19 +98015,19 @@
         <v>13</v>
       </c>
       <c r="D2364" t="s">
-        <v>2348</v>
+        <v>2462</v>
       </c>
       <c r="E2364" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="F2364" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="G2364" t="s">
-        <v>1536</v>
+        <v>2465</v>
       </c>
       <c r="H2364" t="s">
-        <v>749</v>
+        <v>34</v>
       </c>
       <c r="I2364" t="s">
         <v>19</v>
@@ -97979,10 +98036,10 @@
         <v>1</v>
       </c>
       <c r="K2364">
-        <v>1000000</v>
+        <v>3283002</v>
       </c>
       <c r="L2364">
-        <v>1000000</v>
+        <v>3283002</v>
       </c>
     </row>
     <row r="2365" spans="1:12">
@@ -97996,19 +98053,19 @@
         <v>13</v>
       </c>
       <c r="D2365" t="s">
-        <v>2348</v>
+        <v>2462</v>
       </c>
       <c r="E2365" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="F2365" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="G2365" t="s">
-        <v>1536</v>
+        <v>2465</v>
       </c>
       <c r="H2365" t="s">
-        <v>750</v>
+        <v>35</v>
       </c>
       <c r="I2365" t="s">
         <v>19</v>
@@ -98017,10 +98074,10 @@
         <v>1</v>
       </c>
       <c r="K2365">
-        <v>1000000</v>
+        <v>3250000</v>
       </c>
       <c r="L2365">
-        <v>1000000</v>
+        <v>3250000</v>
       </c>
     </row>
     <row r="2366" spans="1:12">
@@ -98034,19 +98091,19 @@
         <v>13</v>
       </c>
       <c r="D2366" t="s">
-        <v>2348</v>
+        <v>2462</v>
       </c>
       <c r="E2366" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="F2366" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="G2366" t="s">
-        <v>1536</v>
+        <v>2465</v>
       </c>
       <c r="H2366" t="s">
-        <v>2466</v>
+        <v>36</v>
       </c>
       <c r="I2366" t="s">
         <v>19</v>
@@ -98055,10 +98112,10 @@
         <v>1</v>
       </c>
       <c r="K2366">
-        <v>1900000</v>
+        <v>16200000</v>
       </c>
       <c r="L2366">
-        <v>1900000</v>
+        <v>16200000</v>
       </c>
     </row>
     <row r="2367" spans="1:12">
@@ -98072,19 +98129,19 @@
         <v>13</v>
       </c>
       <c r="D2367" t="s">
-        <v>2348</v>
+        <v>2462</v>
       </c>
       <c r="E2367" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="F2367" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="G2367" t="s">
-        <v>1536</v>
+        <v>2465</v>
       </c>
       <c r="H2367" t="s">
-        <v>1345</v>
+        <v>37</v>
       </c>
       <c r="I2367" t="s">
         <v>19</v>
@@ -98093,10 +98150,10 @@
         <v>1</v>
       </c>
       <c r="K2367">
-        <v>1616500</v>
+        <v>456367</v>
       </c>
       <c r="L2367">
-        <v>1616500</v>
+        <v>456367</v>
       </c>
     </row>
     <row r="2368" spans="1:12">
@@ -98110,19 +98167,19 @@
         <v>13</v>
       </c>
       <c r="D2368" t="s">
-        <v>2348</v>
+        <v>2462</v>
       </c>
       <c r="E2368" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="F2368" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="G2368" t="s">
-        <v>1536</v>
+        <v>2465</v>
       </c>
       <c r="H2368" t="s">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="I2368" t="s">
         <v>19</v>
@@ -98131,10 +98188,10 @@
         <v>1</v>
       </c>
       <c r="K2368">
-        <v>5374000</v>
+        <v>7893780</v>
       </c>
       <c r="L2368">
-        <v>5374000</v>
+        <v>7893780</v>
       </c>
     </row>
     <row r="2369" spans="1:12">
@@ -98148,19 +98205,19 @@
         <v>13</v>
       </c>
       <c r="D2369" t="s">
-        <v>2348</v>
+        <v>2462</v>
       </c>
       <c r="E2369" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="F2369" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="G2369" t="s">
-        <v>1536</v>
+        <v>2465</v>
       </c>
       <c r="H2369" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="I2369" t="s">
         <v>19</v>
@@ -98169,10 +98226,10 @@
         <v>1</v>
       </c>
       <c r="K2369">
-        <v>856500</v>
+        <v>3150000</v>
       </c>
       <c r="L2369">
-        <v>856500</v>
+        <v>3150000</v>
       </c>
     </row>
     <row r="2370" spans="1:12">
@@ -98186,19 +98243,19 @@
         <v>13</v>
       </c>
       <c r="D2370" t="s">
-        <v>2348</v>
+        <v>2462</v>
       </c>
       <c r="E2370" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="F2370" t="s">
-        <v>2463</v>
+        <v>2467</v>
       </c>
       <c r="G2370" t="s">
-        <v>1536</v>
+        <v>2468</v>
       </c>
       <c r="H2370" t="s">
-        <v>766</v>
+        <v>18</v>
       </c>
       <c r="I2370" t="s">
         <v>19</v>
@@ -98207,10 +98264,10 @@
         <v>1</v>
       </c>
       <c r="K2370">
-        <v>450000</v>
+        <v>272294540</v>
       </c>
       <c r="L2370">
-        <v>450000</v>
+        <v>272294540</v>
       </c>
     </row>
     <row r="2371" spans="1:12">
@@ -98224,19 +98281,19 @@
         <v>13</v>
       </c>
       <c r="D2371" t="s">
-        <v>2348</v>
+        <v>2462</v>
       </c>
       <c r="E2371" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="F2371" t="s">
-        <v>2463</v>
+        <v>2467</v>
       </c>
       <c r="G2371" t="s">
-        <v>1536</v>
+        <v>2468</v>
       </c>
       <c r="H2371" t="s">
-        <v>2467</v>
+        <v>20</v>
       </c>
       <c r="I2371" t="s">
         <v>19</v>
@@ -98245,10 +98302,10 @@
         <v>1</v>
       </c>
       <c r="K2371">
-        <v>9372220</v>
+        <v>4014</v>
       </c>
       <c r="L2371">
-        <v>9372220</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="2372" spans="1:12">
@@ -98262,19 +98319,19 @@
         <v>13</v>
       </c>
       <c r="D2372" t="s">
-        <v>2348</v>
+        <v>2462</v>
       </c>
       <c r="E2372" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="F2372" t="s">
-        <v>2463</v>
+        <v>2467</v>
       </c>
       <c r="G2372" t="s">
-        <v>1536</v>
+        <v>2468</v>
       </c>
       <c r="H2372" t="s">
-        <v>585</v>
+        <v>21</v>
       </c>
       <c r="I2372" t="s">
         <v>19</v>
@@ -98283,10 +98340,10 @@
         <v>1</v>
       </c>
       <c r="K2372">
-        <v>2924540</v>
+        <v>16441260</v>
       </c>
       <c r="L2372">
-        <v>2924540</v>
+        <v>16441260</v>
       </c>
     </row>
     <row r="2373" spans="1:12">
@@ -98300,19 +98357,19 @@
         <v>13</v>
       </c>
       <c r="D2373" t="s">
-        <v>2348</v>
+        <v>2462</v>
       </c>
       <c r="E2373" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="F2373" t="s">
-        <v>2463</v>
+        <v>2467</v>
       </c>
       <c r="G2373" t="s">
-        <v>1536</v>
+        <v>2468</v>
       </c>
       <c r="H2373" t="s">
-        <v>773</v>
+        <v>22</v>
       </c>
       <c r="I2373" t="s">
         <v>19</v>
@@ -98321,10 +98378,10 @@
         <v>1</v>
       </c>
       <c r="K2373">
-        <v>600000</v>
+        <v>5773134</v>
       </c>
       <c r="L2373">
-        <v>600000</v>
+        <v>5773134</v>
       </c>
     </row>
     <row r="2374" spans="1:12">
@@ -98338,19 +98395,19 @@
         <v>13</v>
       </c>
       <c r="D2374" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E2374" t="s">
+        <v>2466</v>
+      </c>
+      <c r="F2374" t="s">
+        <v>2467</v>
+      </c>
+      <c r="G2374" t="s">
         <v>2468</v>
       </c>
-      <c r="E2374" t="s">
-        <v>2469</v>
-      </c>
-      <c r="F2374" t="s">
-        <v>2470</v>
-      </c>
-      <c r="G2374" t="s">
-        <v>2471</v>
-      </c>
       <c r="H2374" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="I2374" t="s">
         <v>19</v>
@@ -98359,10 +98416,10 @@
         <v>1</v>
       </c>
       <c r="K2374">
-        <v>44555023</v>
+        <v>8750000</v>
       </c>
       <c r="L2374">
-        <v>44555023</v>
+        <v>8750000</v>
       </c>
     </row>
     <row r="2375" spans="1:12">
@@ -98376,19 +98433,19 @@
         <v>13</v>
       </c>
       <c r="D2375" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E2375" t="s">
+        <v>2466</v>
+      </c>
+      <c r="F2375" t="s">
+        <v>2467</v>
+      </c>
+      <c r="G2375" t="s">
         <v>2468</v>
       </c>
-      <c r="E2375" t="s">
-        <v>2469</v>
-      </c>
-      <c r="F2375" t="s">
-        <v>2470</v>
-      </c>
-      <c r="G2375" t="s">
-        <v>2471</v>
-      </c>
       <c r="H2375" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="I2375" t="s">
         <v>19</v>
@@ -98397,10 +98454,10 @@
         <v>1</v>
       </c>
       <c r="K2375">
-        <v>2386000</v>
+        <v>25773000</v>
       </c>
       <c r="L2375">
-        <v>2386000</v>
+        <v>25773000</v>
       </c>
     </row>
     <row r="2376" spans="1:12">
@@ -98414,19 +98471,19 @@
         <v>13</v>
       </c>
       <c r="D2376" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E2376" t="s">
+        <v>2466</v>
+      </c>
+      <c r="F2376" t="s">
+        <v>2467</v>
+      </c>
+      <c r="G2376" t="s">
         <v>2468</v>
       </c>
-      <c r="E2376" t="s">
-        <v>2472</v>
-      </c>
-      <c r="F2376" t="s">
-        <v>2473</v>
-      </c>
-      <c r="G2376" t="s">
-        <v>200</v>
-      </c>
       <c r="H2376" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="I2376" t="s">
         <v>19</v>
@@ -98435,10 +98492,10 @@
         <v>1</v>
       </c>
       <c r="K2376">
-        <v>1437400</v>
+        <v>526668</v>
       </c>
       <c r="L2376">
-        <v>1437400</v>
+        <v>526668</v>
       </c>
     </row>
     <row r="2377" spans="1:12">
@@ -98452,19 +98509,19 @@
         <v>13</v>
       </c>
       <c r="D2377" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E2377" t="s">
+        <v>2466</v>
+      </c>
+      <c r="F2377" t="s">
+        <v>2467</v>
+      </c>
+      <c r="G2377" t="s">
         <v>2468</v>
       </c>
-      <c r="E2377" t="s">
-        <v>2472</v>
-      </c>
-      <c r="F2377" t="s">
-        <v>2473</v>
-      </c>
-      <c r="G2377" t="s">
-        <v>200</v>
-      </c>
       <c r="H2377" t="s">
-        <v>471</v>
+        <v>26</v>
       </c>
       <c r="I2377" t="s">
         <v>19</v>
@@ -98473,10 +98530,10 @@
         <v>1</v>
       </c>
       <c r="K2377">
-        <v>7905000</v>
+        <v>14556420</v>
       </c>
       <c r="L2377">
-        <v>7905000</v>
+        <v>14556420</v>
       </c>
     </row>
     <row r="2378" spans="1:12">
@@ -98490,19 +98547,19 @@
         <v>13</v>
       </c>
       <c r="D2378" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E2378" t="s">
+        <v>2466</v>
+      </c>
+      <c r="F2378" t="s">
+        <v>2467</v>
+      </c>
+      <c r="G2378" t="s">
         <v>2468</v>
       </c>
-      <c r="E2378" t="s">
-        <v>2472</v>
-      </c>
-      <c r="F2378" t="s">
-        <v>2473</v>
-      </c>
-      <c r="G2378" t="s">
-        <v>200</v>
-      </c>
       <c r="H2378" t="s">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="I2378" t="s">
         <v>19</v>
@@ -98511,10 +98568,10 @@
         <v>1</v>
       </c>
       <c r="K2378">
-        <v>248400</v>
+        <v>7400000</v>
       </c>
       <c r="L2378">
-        <v>248400</v>
+        <v>7400000</v>
       </c>
     </row>
     <row r="2379" spans="1:12">
@@ -98528,19 +98585,19 @@
         <v>13</v>
       </c>
       <c r="D2379" t="s">
-        <v>2468</v>
+        <v>2462</v>
       </c>
       <c r="E2379" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="F2379" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="G2379" t="s">
-        <v>200</v>
+        <v>2471</v>
       </c>
       <c r="H2379" t="s">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="I2379" t="s">
         <v>19</v>
@@ -98549,10 +98606,10 @@
         <v>1</v>
       </c>
       <c r="K2379">
-        <v>1750000</v>
+        <v>157500900</v>
       </c>
       <c r="L2379">
-        <v>1750000</v>
+        <v>157500900</v>
       </c>
     </row>
     <row r="2380" spans="1:12">
@@ -98566,19 +98623,19 @@
         <v>13</v>
       </c>
       <c r="D2380" t="s">
-        <v>2468</v>
+        <v>2462</v>
       </c>
       <c r="E2380" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="F2380" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="G2380" t="s">
-        <v>200</v>
+        <v>2471</v>
       </c>
       <c r="H2380" t="s">
-        <v>2474</v>
+        <v>44</v>
       </c>
       <c r="I2380" t="s">
         <v>19</v>
@@ -98587,10 +98644,10 @@
         <v>1</v>
       </c>
       <c r="K2380">
-        <v>1497500</v>
+        <v>2431</v>
       </c>
       <c r="L2380">
-        <v>1497500</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="2381" spans="1:12">
@@ -98604,19 +98661,19 @@
         <v>13</v>
       </c>
       <c r="D2381" t="s">
-        <v>2468</v>
+        <v>2462</v>
       </c>
       <c r="E2381" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="F2381" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="G2381" t="s">
-        <v>200</v>
+        <v>2471</v>
       </c>
       <c r="H2381" t="s">
-        <v>2475</v>
+        <v>45</v>
       </c>
       <c r="I2381" t="s">
         <v>19</v>
@@ -98625,10 +98682,10 @@
         <v>1</v>
       </c>
       <c r="K2381">
-        <v>1500000</v>
+        <v>10053860</v>
       </c>
       <c r="L2381">
-        <v>1500000</v>
+        <v>10053860</v>
       </c>
     </row>
     <row r="2382" spans="1:12">
@@ -98642,19 +98699,19 @@
         <v>13</v>
       </c>
       <c r="D2382" t="s">
-        <v>2468</v>
+        <v>2462</v>
       </c>
       <c r="E2382" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="F2382" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="G2382" t="s">
-        <v>200</v>
+        <v>2471</v>
       </c>
       <c r="H2382" t="s">
-        <v>2476</v>
+        <v>46</v>
       </c>
       <c r="I2382" t="s">
         <v>19</v>
@@ -98663,10 +98720,10 @@
         <v>1</v>
       </c>
       <c r="K2382">
-        <v>1000000</v>
+        <v>3271896</v>
       </c>
       <c r="L2382">
-        <v>1000000</v>
+        <v>3271896</v>
       </c>
     </row>
     <row r="2383" spans="1:12">
@@ -98680,19 +98737,19 @@
         <v>13</v>
       </c>
       <c r="D2383" t="s">
-        <v>2468</v>
+        <v>2462</v>
       </c>
       <c r="E2383" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="F2383" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="G2383" t="s">
-        <v>200</v>
+        <v>2471</v>
       </c>
       <c r="H2383" t="s">
-        <v>481</v>
+        <v>47</v>
       </c>
       <c r="I2383" t="s">
         <v>19</v>
@@ -98701,10 +98758,10 @@
         <v>1</v>
       </c>
       <c r="K2383">
-        <v>999000</v>
+        <v>2520000</v>
       </c>
       <c r="L2383">
-        <v>999000</v>
+        <v>2520000</v>
       </c>
     </row>
     <row r="2384" spans="1:12">
@@ -98718,19 +98775,19 @@
         <v>13</v>
       </c>
       <c r="D2384" t="s">
-        <v>2468</v>
+        <v>2462</v>
       </c>
       <c r="E2384" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="F2384" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="G2384" t="s">
-        <v>200</v>
+        <v>2471</v>
       </c>
       <c r="H2384" t="s">
-        <v>483</v>
+        <v>48</v>
       </c>
       <c r="I2384" t="s">
         <v>19</v>
@@ -98739,10 +98796,10 @@
         <v>1</v>
       </c>
       <c r="K2384">
-        <v>800000</v>
+        <v>11070000</v>
       </c>
       <c r="L2384">
-        <v>800000</v>
+        <v>11070000</v>
       </c>
     </row>
     <row r="2385" spans="1:12">
@@ -98756,19 +98813,19 @@
         <v>13</v>
       </c>
       <c r="D2385" t="s">
-        <v>2468</v>
+        <v>2462</v>
       </c>
       <c r="E2385" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="F2385" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="G2385" t="s">
-        <v>200</v>
+        <v>2471</v>
       </c>
       <c r="H2385" t="s">
-        <v>484</v>
+        <v>49</v>
       </c>
       <c r="I2385" t="s">
         <v>19</v>
@@ -98777,10 +98834,10 @@
         <v>1</v>
       </c>
       <c r="K2385">
-        <v>880000</v>
+        <v>142692</v>
       </c>
       <c r="L2385">
-        <v>880000</v>
+        <v>142692</v>
       </c>
     </row>
     <row r="2386" spans="1:12">
@@ -98794,19 +98851,19 @@
         <v>13</v>
       </c>
       <c r="D2386" t="s">
-        <v>2468</v>
+        <v>2462</v>
       </c>
       <c r="E2386" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="F2386" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="G2386" t="s">
-        <v>200</v>
+        <v>2471</v>
       </c>
       <c r="H2386" t="s">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="I2386" t="s">
         <v>19</v>
@@ -98815,10 +98872,10 @@
         <v>1</v>
       </c>
       <c r="K2386">
-        <v>5450000</v>
+        <v>8400720</v>
       </c>
       <c r="L2386">
-        <v>5450000</v>
+        <v>8400720</v>
       </c>
     </row>
     <row r="2387" spans="1:12">
@@ -98832,19 +98889,19 @@
         <v>13</v>
       </c>
       <c r="D2387" t="s">
-        <v>2468</v>
+        <v>2462</v>
       </c>
       <c r="E2387" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="F2387" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="G2387" t="s">
-        <v>200</v>
+        <v>2471</v>
       </c>
       <c r="H2387" t="s">
-        <v>228</v>
+        <v>51</v>
       </c>
       <c r="I2387" t="s">
         <v>19</v>
@@ -98853,10 +98910,10 @@
         <v>1</v>
       </c>
       <c r="K2387">
-        <v>6000000</v>
+        <v>4995000</v>
       </c>
       <c r="L2387">
-        <v>6000000</v>
+        <v>4995000</v>
       </c>
     </row>
     <row r="2388" spans="1:12">
@@ -98870,7 +98927,7 @@
         <v>13</v>
       </c>
       <c r="D2388" t="s">
-        <v>2468</v>
+        <v>2348</v>
       </c>
       <c r="E2388" t="s">
         <v>2472</v>
@@ -98879,10 +98936,10 @@
         <v>2473</v>
       </c>
       <c r="G2388" t="s">
-        <v>200</v>
+        <v>1536</v>
       </c>
       <c r="H2388" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="I2388" t="s">
         <v>19</v>
@@ -98891,10 +98948,10 @@
         <v>1</v>
       </c>
       <c r="K2388">
-        <v>5450000</v>
+        <v>1750000</v>
       </c>
       <c r="L2388">
-        <v>5450000</v>
+        <v>1750000</v>
       </c>
     </row>
     <row r="2389" spans="1:12">
@@ -98908,7 +98965,7 @@
         <v>13</v>
       </c>
       <c r="D2389" t="s">
-        <v>2468</v>
+        <v>2348</v>
       </c>
       <c r="E2389" t="s">
         <v>2472</v>
@@ -98917,10 +98974,10 @@
         <v>2473</v>
       </c>
       <c r="G2389" t="s">
-        <v>200</v>
+        <v>1536</v>
       </c>
       <c r="H2389" t="s">
-        <v>485</v>
+        <v>2475</v>
       </c>
       <c r="I2389" t="s">
         <v>19</v>
@@ -98929,10 +98986,10 @@
         <v>1</v>
       </c>
       <c r="K2389">
-        <v>4950000</v>
+        <v>1800000</v>
       </c>
       <c r="L2389">
-        <v>4950000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="2390" spans="1:12">
@@ -98946,7 +99003,7 @@
         <v>13</v>
       </c>
       <c r="D2390" t="s">
-        <v>2468</v>
+        <v>2348</v>
       </c>
       <c r="E2390" t="s">
         <v>2472</v>
@@ -98955,10 +99012,10 @@
         <v>2473</v>
       </c>
       <c r="G2390" t="s">
-        <v>200</v>
+        <v>1536</v>
       </c>
       <c r="H2390" t="s">
-        <v>2478</v>
+        <v>780</v>
       </c>
       <c r="I2390" t="s">
         <v>19</v>
@@ -98967,10 +99024,10 @@
         <v>1</v>
       </c>
       <c r="K2390">
-        <v>50000000</v>
+        <v>4850000</v>
       </c>
       <c r="L2390">
-        <v>50000000</v>
+        <v>4850000</v>
       </c>
     </row>
     <row r="2391" spans="1:12">
@@ -98984,7 +99041,7 @@
         <v>13</v>
       </c>
       <c r="D2391" t="s">
-        <v>2468</v>
+        <v>2348</v>
       </c>
       <c r="E2391" t="s">
         <v>2472</v>
@@ -98993,10 +99050,10 @@
         <v>2473</v>
       </c>
       <c r="G2391" t="s">
-        <v>200</v>
+        <v>1536</v>
       </c>
       <c r="H2391" t="s">
-        <v>233</v>
+        <v>749</v>
       </c>
       <c r="I2391" t="s">
         <v>19</v>
@@ -99005,10 +99062,10 @@
         <v>1</v>
       </c>
       <c r="K2391">
-        <v>9193900</v>
+        <v>1000000</v>
       </c>
       <c r="L2391">
-        <v>9193900</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="2392" spans="1:12">
@@ -99022,7 +99079,7 @@
         <v>13</v>
       </c>
       <c r="D2392" t="s">
-        <v>2468</v>
+        <v>2348</v>
       </c>
       <c r="E2392" t="s">
         <v>2472</v>
@@ -99031,10 +99088,10 @@
         <v>2473</v>
       </c>
       <c r="G2392" t="s">
-        <v>200</v>
+        <v>1536</v>
       </c>
       <c r="H2392" t="s">
-        <v>1180</v>
+        <v>750</v>
       </c>
       <c r="I2392" t="s">
         <v>19</v>
@@ -99043,10 +99100,10 @@
         <v>1</v>
       </c>
       <c r="K2392">
-        <v>310500</v>
+        <v>1000000</v>
       </c>
       <c r="L2392">
-        <v>310500</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="2393" spans="1:12">
@@ -99060,7 +99117,7 @@
         <v>13</v>
       </c>
       <c r="D2393" t="s">
-        <v>2468</v>
+        <v>2348</v>
       </c>
       <c r="E2393" t="s">
         <v>2472</v>
@@ -99069,10 +99126,10 @@
         <v>2473</v>
       </c>
       <c r="G2393" t="s">
-        <v>200</v>
+        <v>1536</v>
       </c>
       <c r="H2393" t="s">
-        <v>1052</v>
+        <v>2476</v>
       </c>
       <c r="I2393" t="s">
         <v>19</v>
@@ -99081,10 +99138,10 @@
         <v>1</v>
       </c>
       <c r="K2393">
-        <v>600000</v>
+        <v>1900000</v>
       </c>
       <c r="L2393">
-        <v>600000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="2394" spans="1:12">
@@ -99098,19 +99155,19 @@
         <v>13</v>
       </c>
       <c r="D2394" t="s">
-        <v>2479</v>
+        <v>2348</v>
       </c>
       <c r="E2394" t="s">
-        <v>2480</v>
+        <v>2472</v>
       </c>
       <c r="F2394" t="s">
-        <v>2481</v>
+        <v>2473</v>
       </c>
       <c r="G2394" t="s">
-        <v>2482</v>
+        <v>1536</v>
       </c>
       <c r="H2394" t="s">
-        <v>465</v>
+        <v>1345</v>
       </c>
       <c r="I2394" t="s">
         <v>19</v>
@@ -99119,10 +99176,10 @@
         <v>1</v>
       </c>
       <c r="K2394">
-        <v>47250000</v>
+        <v>1616500</v>
       </c>
       <c r="L2394">
-        <v>47250000</v>
+        <v>1616500</v>
       </c>
     </row>
     <row r="2395" spans="1:12">
@@ -99136,19 +99193,19 @@
         <v>13</v>
       </c>
       <c r="D2395" t="s">
-        <v>2479</v>
+        <v>2348</v>
       </c>
       <c r="E2395" t="s">
-        <v>2483</v>
+        <v>2472</v>
       </c>
       <c r="F2395" t="s">
-        <v>2484</v>
+        <v>2473</v>
       </c>
       <c r="G2395" t="s">
-        <v>2485</v>
+        <v>1536</v>
       </c>
       <c r="H2395" t="s">
-        <v>526</v>
+        <v>261</v>
       </c>
       <c r="I2395" t="s">
         <v>19</v>
@@ -99157,10 +99214,10 @@
         <v>1</v>
       </c>
       <c r="K2395">
-        <v>189315969</v>
+        <v>5374000</v>
       </c>
       <c r="L2395">
-        <v>189315969</v>
+        <v>5374000</v>
       </c>
     </row>
     <row r="2396" spans="1:12">
@@ -99174,19 +99231,19 @@
         <v>13</v>
       </c>
       <c r="D2396" t="s">
-        <v>2479</v>
+        <v>2348</v>
       </c>
       <c r="E2396" t="s">
-        <v>2486</v>
+        <v>2472</v>
       </c>
       <c r="F2396" t="s">
-        <v>2487</v>
+        <v>2473</v>
       </c>
       <c r="G2396" t="s">
-        <v>2488</v>
+        <v>1536</v>
       </c>
       <c r="H2396" t="s">
-        <v>530</v>
+        <v>132</v>
       </c>
       <c r="I2396" t="s">
         <v>19</v>
@@ -99195,10 +99252,10 @@
         <v>1</v>
       </c>
       <c r="K2396">
-        <v>159570082</v>
+        <v>856500</v>
       </c>
       <c r="L2396">
-        <v>159570082</v>
+        <v>856500</v>
       </c>
     </row>
     <row r="2397" spans="1:12">
@@ -99212,19 +99269,19 @@
         <v>13</v>
       </c>
       <c r="D2397" t="s">
-        <v>2479</v>
+        <v>2348</v>
       </c>
       <c r="E2397" t="s">
-        <v>2489</v>
+        <v>2472</v>
       </c>
       <c r="F2397" t="s">
-        <v>2490</v>
+        <v>2473</v>
       </c>
       <c r="G2397" t="s">
-        <v>2491</v>
+        <v>1536</v>
       </c>
       <c r="H2397" t="s">
-        <v>1091</v>
+        <v>766</v>
       </c>
       <c r="I2397" t="s">
         <v>19</v>
@@ -99233,10 +99290,10 @@
         <v>1</v>
       </c>
       <c r="K2397">
-        <v>36546750</v>
+        <v>450000</v>
       </c>
       <c r="L2397">
-        <v>36546750</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="2398" spans="1:12">
@@ -99250,19 +99307,19 @@
         <v>13</v>
       </c>
       <c r="D2398" t="s">
-        <v>2479</v>
+        <v>2348</v>
       </c>
       <c r="E2398" t="s">
-        <v>2492</v>
+        <v>2472</v>
       </c>
       <c r="F2398" t="s">
-        <v>2493</v>
+        <v>2473</v>
       </c>
       <c r="G2398" t="s">
-        <v>2494</v>
+        <v>1536</v>
       </c>
       <c r="H2398" t="s">
-        <v>835</v>
+        <v>2477</v>
       </c>
       <c r="I2398" t="s">
         <v>19</v>
@@ -99271,10 +99328,10 @@
         <v>1</v>
       </c>
       <c r="K2398">
-        <v>27564075</v>
+        <v>9372220</v>
       </c>
       <c r="L2398">
-        <v>27564075</v>
+        <v>9372220</v>
       </c>
     </row>
     <row r="2399" spans="1:12">
@@ -99288,19 +99345,19 @@
         <v>13</v>
       </c>
       <c r="D2399" t="s">
-        <v>2479</v>
+        <v>2348</v>
       </c>
       <c r="E2399" t="s">
-        <v>2495</v>
+        <v>2472</v>
       </c>
       <c r="F2399" t="s">
-        <v>2496</v>
+        <v>2473</v>
       </c>
       <c r="G2399" t="s">
-        <v>2497</v>
+        <v>1536</v>
       </c>
       <c r="H2399" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="I2399" t="s">
         <v>19</v>
@@ -99309,10 +99366,10 @@
         <v>1</v>
       </c>
       <c r="K2399">
-        <v>16600000</v>
+        <v>2924540</v>
       </c>
       <c r="L2399">
-        <v>16600000</v>
+        <v>2924540</v>
       </c>
     </row>
     <row r="2400" spans="1:12">
@@ -99326,19 +99383,19 @@
         <v>13</v>
       </c>
       <c r="D2400" t="s">
-        <v>2479</v>
+        <v>2348</v>
       </c>
       <c r="E2400" t="s">
-        <v>2498</v>
+        <v>2472</v>
       </c>
       <c r="F2400" t="s">
-        <v>2499</v>
+        <v>2473</v>
       </c>
       <c r="G2400" t="s">
-        <v>2500</v>
+        <v>1536</v>
       </c>
       <c r="H2400" t="s">
-        <v>75</v>
+        <v>773</v>
       </c>
       <c r="I2400" t="s">
         <v>19</v>
@@ -99347,10 +99404,10 @@
         <v>1</v>
       </c>
       <c r="K2400">
-        <v>178497122</v>
+        <v>600000</v>
       </c>
       <c r="L2400">
-        <v>178497122</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="2401" spans="1:12">
@@ -99364,19 +99421,19 @@
         <v>13</v>
       </c>
       <c r="D2401" t="s">
+        <v>2478</v>
+      </c>
+      <c r="E2401" t="s">
         <v>2479</v>
       </c>
-      <c r="E2401" t="s">
-        <v>2501</v>
-      </c>
       <c r="F2401" t="s">
-        <v>2502</v>
+        <v>2480</v>
       </c>
       <c r="G2401" t="s">
-        <v>2503</v>
+        <v>2481</v>
       </c>
       <c r="H2401" t="s">
-        <v>1546</v>
+        <v>261</v>
       </c>
       <c r="I2401" t="s">
         <v>19</v>
@@ -99385,10 +99442,10 @@
         <v>1</v>
       </c>
       <c r="K2401">
-        <v>4041500</v>
+        <v>44555023</v>
       </c>
       <c r="L2401">
-        <v>4041500</v>
+        <v>44555023</v>
       </c>
     </row>
     <row r="2402" spans="1:12">
@@ -99402,19 +99459,19 @@
         <v>13</v>
       </c>
       <c r="D2402" t="s">
+        <v>2478</v>
+      </c>
+      <c r="E2402" t="s">
         <v>2479</v>
       </c>
-      <c r="E2402" t="s">
-        <v>2504</v>
-      </c>
       <c r="F2402" t="s">
-        <v>2505</v>
+        <v>2480</v>
       </c>
       <c r="G2402" t="s">
-        <v>2506</v>
+        <v>2481</v>
       </c>
       <c r="H2402" t="s">
-        <v>1546</v>
+        <v>132</v>
       </c>
       <c r="I2402" t="s">
         <v>19</v>
@@ -99423,10 +99480,10 @@
         <v>1</v>
       </c>
       <c r="K2402">
-        <v>1951000</v>
+        <v>2386000</v>
       </c>
       <c r="L2402">
-        <v>1951000</v>
+        <v>2386000</v>
       </c>
     </row>
     <row r="2403" spans="1:12">
@@ -99440,19 +99497,19 @@
         <v>13</v>
       </c>
       <c r="D2403" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="E2403" t="s">
-        <v>2507</v>
+        <v>2482</v>
       </c>
       <c r="F2403" t="s">
-        <v>2508</v>
+        <v>2483</v>
       </c>
       <c r="G2403" t="s">
-        <v>2509</v>
+        <v>200</v>
       </c>
       <c r="H2403" t="s">
-        <v>582</v>
+        <v>201</v>
       </c>
       <c r="I2403" t="s">
         <v>19</v>
@@ -99461,10 +99518,10 @@
         <v>1</v>
       </c>
       <c r="K2403">
-        <v>1340000</v>
+        <v>1437400</v>
       </c>
       <c r="L2403">
-        <v>1340000</v>
+        <v>1437400</v>
       </c>
     </row>
     <row r="2404" spans="1:12">
@@ -99478,19 +99535,19 @@
         <v>13</v>
       </c>
       <c r="D2404" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="E2404" t="s">
-        <v>2510</v>
+        <v>2482</v>
       </c>
       <c r="F2404" t="s">
-        <v>2511</v>
+        <v>2483</v>
       </c>
       <c r="G2404" t="s">
-        <v>2512</v>
+        <v>200</v>
       </c>
       <c r="H2404" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
       <c r="I2404" t="s">
         <v>19</v>
@@ -99499,10 +99556,10 @@
         <v>1</v>
       </c>
       <c r="K2404">
-        <v>328000</v>
+        <v>7905000</v>
       </c>
       <c r="L2404">
-        <v>328000</v>
+        <v>7905000</v>
       </c>
     </row>
     <row r="2405" spans="1:12">
@@ -99516,19 +99573,19 @@
         <v>13</v>
       </c>
       <c r="D2405" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="E2405" t="s">
-        <v>2513</v>
+        <v>2482</v>
       </c>
       <c r="F2405" t="s">
-        <v>2514</v>
+        <v>2483</v>
       </c>
       <c r="G2405" t="s">
-        <v>2515</v>
+        <v>200</v>
       </c>
       <c r="H2405" t="s">
-        <v>442</v>
+        <v>203</v>
       </c>
       <c r="I2405" t="s">
         <v>19</v>
@@ -99537,10 +99594,10 @@
         <v>1</v>
       </c>
       <c r="K2405">
-        <v>481000</v>
+        <v>248400</v>
       </c>
       <c r="L2405">
-        <v>481000</v>
+        <v>248400</v>
       </c>
     </row>
     <row r="2406" spans="1:12">
@@ -99554,19 +99611,19 @@
         <v>13</v>
       </c>
       <c r="D2406" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="E2406" t="s">
-        <v>2516</v>
+        <v>2482</v>
       </c>
       <c r="F2406" t="s">
-        <v>2517</v>
+        <v>2483</v>
       </c>
       <c r="G2406" t="s">
-        <v>2518</v>
+        <v>200</v>
       </c>
       <c r="H2406" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="I2406" t="s">
         <v>19</v>
@@ -99575,10 +99632,10 @@
         <v>1</v>
       </c>
       <c r="K2406">
-        <v>56694000</v>
+        <v>1750000</v>
       </c>
       <c r="L2406">
-        <v>56694000</v>
+        <v>1750000</v>
       </c>
     </row>
     <row r="2407" spans="1:12">
@@ -99592,19 +99649,19 @@
         <v>13</v>
       </c>
       <c r="D2407" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="E2407" t="s">
-        <v>2516</v>
+        <v>2482</v>
       </c>
       <c r="F2407" t="s">
-        <v>2517</v>
+        <v>2483</v>
       </c>
       <c r="G2407" t="s">
-        <v>2518</v>
+        <v>200</v>
       </c>
       <c r="H2407" t="s">
-        <v>171</v>
+        <v>2484</v>
       </c>
       <c r="I2407" t="s">
         <v>19</v>
@@ -99613,10 +99670,10 @@
         <v>1</v>
       </c>
       <c r="K2407">
-        <v>8545000</v>
+        <v>1497500</v>
       </c>
       <c r="L2407">
-        <v>8545000</v>
+        <v>1497500</v>
       </c>
     </row>
     <row r="2408" spans="1:12">
@@ -99630,19 +99687,19 @@
         <v>13</v>
       </c>
       <c r="D2408" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="E2408" t="s">
-        <v>2516</v>
+        <v>2482</v>
       </c>
       <c r="F2408" t="s">
-        <v>2517</v>
+        <v>2483</v>
       </c>
       <c r="G2408" t="s">
-        <v>2518</v>
+        <v>200</v>
       </c>
       <c r="H2408" t="s">
-        <v>1212</v>
+        <v>2485</v>
       </c>
       <c r="I2408" t="s">
         <v>19</v>
@@ -99651,10 +99708,10 @@
         <v>1</v>
       </c>
       <c r="K2408">
-        <v>4400000</v>
+        <v>1500000</v>
       </c>
       <c r="L2408">
-        <v>4400000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="2409" spans="1:12">
@@ -99668,19 +99725,19 @@
         <v>13</v>
       </c>
       <c r="D2409" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="E2409" t="s">
-        <v>2516</v>
+        <v>2482</v>
       </c>
       <c r="F2409" t="s">
-        <v>2517</v>
+        <v>2483</v>
       </c>
       <c r="G2409" t="s">
-        <v>2518</v>
+        <v>200</v>
       </c>
       <c r="H2409" t="s">
-        <v>1352</v>
+        <v>2486</v>
       </c>
       <c r="I2409" t="s">
         <v>19</v>
@@ -99689,10 +99746,10 @@
         <v>1</v>
       </c>
       <c r="K2409">
-        <v>2558200</v>
+        <v>1000000</v>
       </c>
       <c r="L2409">
-        <v>2558200</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="2410" spans="1:12">
@@ -99706,19 +99763,19 @@
         <v>13</v>
       </c>
       <c r="D2410" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="E2410" t="s">
-        <v>2516</v>
+        <v>2482</v>
       </c>
       <c r="F2410" t="s">
-        <v>2517</v>
+        <v>2483</v>
       </c>
       <c r="G2410" t="s">
-        <v>2518</v>
+        <v>200</v>
       </c>
       <c r="H2410" t="s">
-        <v>375</v>
+        <v>481</v>
       </c>
       <c r="I2410" t="s">
         <v>19</v>
@@ -99727,10 +99784,10 @@
         <v>1</v>
       </c>
       <c r="K2410">
-        <v>259123</v>
+        <v>999000</v>
       </c>
       <c r="L2410">
-        <v>259123</v>
+        <v>999000</v>
       </c>
     </row>
     <row r="2411" spans="1:12">
@@ -99744,19 +99801,19 @@
         <v>13</v>
       </c>
       <c r="D2411" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="E2411" t="s">
-        <v>2516</v>
+        <v>2482</v>
       </c>
       <c r="F2411" t="s">
-        <v>2517</v>
+        <v>2483</v>
       </c>
       <c r="G2411" t="s">
-        <v>2518</v>
+        <v>200</v>
       </c>
       <c r="H2411" t="s">
-        <v>75</v>
+        <v>483</v>
       </c>
       <c r="I2411" t="s">
         <v>19</v>
@@ -99765,10 +99822,10 @@
         <v>1</v>
       </c>
       <c r="K2411">
-        <v>1394057</v>
+        <v>800000</v>
       </c>
       <c r="L2411">
-        <v>1394057</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="2412" spans="1:12">
@@ -99782,19 +99839,19 @@
         <v>13</v>
       </c>
       <c r="D2412" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="E2412" t="s">
-        <v>2516</v>
+        <v>2482</v>
       </c>
       <c r="F2412" t="s">
-        <v>2517</v>
+        <v>2483</v>
       </c>
       <c r="G2412" t="s">
-        <v>2518</v>
+        <v>200</v>
       </c>
       <c r="H2412" t="s">
-        <v>612</v>
+        <v>484</v>
       </c>
       <c r="I2412" t="s">
         <v>19</v>
@@ -99803,10 +99860,10 @@
         <v>1</v>
       </c>
       <c r="K2412">
-        <v>550000</v>
+        <v>880000</v>
       </c>
       <c r="L2412">
-        <v>550000</v>
+        <v>880000</v>
       </c>
     </row>
     <row r="2413" spans="1:12">
@@ -99820,19 +99877,19 @@
         <v>13</v>
       </c>
       <c r="D2413" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="E2413" t="s">
-        <v>2516</v>
+        <v>2482</v>
       </c>
       <c r="F2413" t="s">
-        <v>2517</v>
+        <v>2483</v>
       </c>
       <c r="G2413" t="s">
-        <v>2518</v>
+        <v>200</v>
       </c>
       <c r="H2413" t="s">
-        <v>907</v>
+        <v>227</v>
       </c>
       <c r="I2413" t="s">
         <v>19</v>
@@ -99841,10 +99898,10 @@
         <v>1</v>
       </c>
       <c r="K2413">
-        <v>1858950</v>
+        <v>5450000</v>
       </c>
       <c r="L2413">
-        <v>1858950</v>
+        <v>5450000</v>
       </c>
     </row>
     <row r="2414" spans="1:12">
@@ -99858,19 +99915,19 @@
         <v>13</v>
       </c>
       <c r="D2414" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="E2414" t="s">
-        <v>2516</v>
+        <v>2482</v>
       </c>
       <c r="F2414" t="s">
-        <v>2517</v>
+        <v>2483</v>
       </c>
       <c r="G2414" t="s">
-        <v>2518</v>
+        <v>200</v>
       </c>
       <c r="H2414" t="s">
-        <v>812</v>
+        <v>228</v>
       </c>
       <c r="I2414" t="s">
         <v>19</v>
@@ -99879,10 +99936,10 @@
         <v>1</v>
       </c>
       <c r="K2414">
-        <v>6329949</v>
+        <v>6000000</v>
       </c>
       <c r="L2414">
-        <v>6329949</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="2415" spans="1:12">
@@ -99896,19 +99953,19 @@
         <v>13</v>
       </c>
       <c r="D2415" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="E2415" t="s">
-        <v>2516</v>
+        <v>2482</v>
       </c>
       <c r="F2415" t="s">
-        <v>2517</v>
+        <v>2483</v>
       </c>
       <c r="G2415" t="s">
-        <v>2518</v>
+        <v>200</v>
       </c>
       <c r="H2415" t="s">
-        <v>813</v>
+        <v>2487</v>
       </c>
       <c r="I2415" t="s">
         <v>19</v>
@@ -99917,10 +99974,10 @@
         <v>1</v>
       </c>
       <c r="K2415">
-        <v>3918000</v>
+        <v>5450000</v>
       </c>
       <c r="L2415">
-        <v>3918000</v>
+        <v>5450000</v>
       </c>
     </row>
     <row r="2416" spans="1:12">
@@ -99934,19 +99991,19 @@
         <v>13</v>
       </c>
       <c r="D2416" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="E2416" t="s">
-        <v>2516</v>
+        <v>2482</v>
       </c>
       <c r="F2416" t="s">
-        <v>2517</v>
+        <v>2483</v>
       </c>
       <c r="G2416" t="s">
-        <v>2518</v>
+        <v>200</v>
       </c>
       <c r="H2416" t="s">
-        <v>815</v>
+        <v>485</v>
       </c>
       <c r="I2416" t="s">
         <v>19</v>
@@ -99955,10 +100012,10 @@
         <v>1</v>
       </c>
       <c r="K2416">
-        <v>9000000</v>
+        <v>4950000</v>
       </c>
       <c r="L2416">
-        <v>9000000</v>
+        <v>4950000</v>
       </c>
     </row>
     <row r="2417" spans="1:12">
@@ -99972,19 +100029,19 @@
         <v>13</v>
       </c>
       <c r="D2417" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="E2417" t="s">
-        <v>2516</v>
+        <v>2482</v>
       </c>
       <c r="F2417" t="s">
-        <v>2517</v>
+        <v>2483</v>
       </c>
       <c r="G2417" t="s">
-        <v>2518</v>
+        <v>200</v>
       </c>
       <c r="H2417" t="s">
-        <v>112</v>
+        <v>2488</v>
       </c>
       <c r="I2417" t="s">
         <v>19</v>
@@ -99993,10 +100050,10 @@
         <v>1</v>
       </c>
       <c r="K2417">
-        <v>2074886</v>
+        <v>50000000</v>
       </c>
       <c r="L2417">
-        <v>2074886</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="2418" spans="1:12">
@@ -100010,19 +100067,19 @@
         <v>13</v>
       </c>
       <c r="D2418" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="E2418" t="s">
-        <v>2516</v>
+        <v>2482</v>
       </c>
       <c r="F2418" t="s">
-        <v>2517</v>
+        <v>2483</v>
       </c>
       <c r="G2418" t="s">
-        <v>2518</v>
+        <v>200</v>
       </c>
       <c r="H2418" t="s">
-        <v>769</v>
+        <v>233</v>
       </c>
       <c r="I2418" t="s">
         <v>19</v>
@@ -100031,10 +100088,10 @@
         <v>1</v>
       </c>
       <c r="K2418">
-        <v>525000</v>
+        <v>9193900</v>
       </c>
       <c r="L2418">
-        <v>525000</v>
+        <v>9193900</v>
       </c>
     </row>
     <row r="2419" spans="1:12">
@@ -100048,19 +100105,19 @@
         <v>13</v>
       </c>
       <c r="D2419" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="E2419" t="s">
-        <v>2516</v>
+        <v>2482</v>
       </c>
       <c r="F2419" t="s">
-        <v>2517</v>
+        <v>2483</v>
       </c>
       <c r="G2419" t="s">
-        <v>2518</v>
+        <v>200</v>
       </c>
       <c r="H2419" t="s">
-        <v>770</v>
+        <v>1180</v>
       </c>
       <c r="I2419" t="s">
         <v>19</v>
@@ -100069,10 +100126,10 @@
         <v>1</v>
       </c>
       <c r="K2419">
-        <v>750000</v>
+        <v>310500</v>
       </c>
       <c r="L2419">
-        <v>750000</v>
+        <v>310500</v>
       </c>
     </row>
     <row r="2420" spans="1:12">
@@ -100086,19 +100143,19 @@
         <v>13</v>
       </c>
       <c r="D2420" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="E2420" t="s">
-        <v>2516</v>
+        <v>2482</v>
       </c>
       <c r="F2420" t="s">
-        <v>2517</v>
+        <v>2483</v>
       </c>
       <c r="G2420" t="s">
-        <v>2518</v>
+        <v>200</v>
       </c>
       <c r="H2420" t="s">
-        <v>400</v>
+        <v>1052</v>
       </c>
       <c r="I2420" t="s">
         <v>19</v>
@@ -100124,19 +100181,19 @@
         <v>13</v>
       </c>
       <c r="D2421" t="s">
-        <v>2468</v>
+        <v>2489</v>
       </c>
       <c r="E2421" t="s">
-        <v>2516</v>
+        <v>2490</v>
       </c>
       <c r="F2421" t="s">
-        <v>2517</v>
+        <v>2491</v>
       </c>
       <c r="G2421" t="s">
-        <v>2518</v>
+        <v>2492</v>
       </c>
       <c r="H2421" t="s">
-        <v>401</v>
+        <v>465</v>
       </c>
       <c r="I2421" t="s">
         <v>19</v>
@@ -100145,10 +100202,10 @@
         <v>1</v>
       </c>
       <c r="K2421">
-        <v>520000</v>
+        <v>47250000</v>
       </c>
       <c r="L2421">
-        <v>520000</v>
+        <v>47250000</v>
       </c>
     </row>
     <row r="2422" spans="1:12">
@@ -100162,19 +100219,19 @@
         <v>13</v>
       </c>
       <c r="D2422" t="s">
-        <v>2479</v>
+        <v>2489</v>
       </c>
       <c r="E2422" t="s">
-        <v>2519</v>
+        <v>2493</v>
       </c>
       <c r="F2422" t="s">
-        <v>2520</v>
+        <v>2494</v>
       </c>
       <c r="G2422" t="s">
-        <v>2521</v>
+        <v>2495</v>
       </c>
       <c r="H2422" t="s">
-        <v>2522</v>
+        <v>526</v>
       </c>
       <c r="I2422" t="s">
         <v>19</v>
@@ -100183,10 +100240,10 @@
         <v>1</v>
       </c>
       <c r="K2422">
-        <v>4440000</v>
+        <v>189315969</v>
       </c>
       <c r="L2422">
-        <v>4440000</v>
+        <v>189315969</v>
       </c>
     </row>
     <row r="2423" spans="1:12">
@@ -100200,19 +100257,19 @@
         <v>13</v>
       </c>
       <c r="D2423" t="s">
-        <v>2479</v>
+        <v>2489</v>
       </c>
       <c r="E2423" t="s">
-        <v>2523</v>
+        <v>2496</v>
       </c>
       <c r="F2423" t="s">
-        <v>2524</v>
+        <v>2497</v>
       </c>
       <c r="G2423" t="s">
-        <v>2525</v>
+        <v>2498</v>
       </c>
       <c r="H2423" t="s">
-        <v>812</v>
+        <v>530</v>
       </c>
       <c r="I2423" t="s">
         <v>19</v>
@@ -100221,10 +100278,10 @@
         <v>1</v>
       </c>
       <c r="K2423">
-        <v>19469400</v>
+        <v>159570082</v>
       </c>
       <c r="L2423">
-        <v>19469400</v>
+        <v>159570082</v>
       </c>
     </row>
     <row r="2424" spans="1:12">
@@ -100238,19 +100295,19 @@
         <v>13</v>
       </c>
       <c r="D2424" t="s">
-        <v>2479</v>
+        <v>2489</v>
       </c>
       <c r="E2424" t="s">
-        <v>2526</v>
+        <v>2499</v>
       </c>
       <c r="F2424" t="s">
-        <v>2527</v>
+        <v>2500</v>
       </c>
       <c r="G2424" t="s">
-        <v>2528</v>
+        <v>2501</v>
       </c>
       <c r="H2424" t="s">
-        <v>157</v>
+        <v>1091</v>
       </c>
       <c r="I2424" t="s">
         <v>19</v>
@@ -100259,10 +100316,10 @@
         <v>1</v>
       </c>
       <c r="K2424">
-        <v>21756000</v>
+        <v>36546750</v>
       </c>
       <c r="L2424">
-        <v>21756000</v>
+        <v>36546750</v>
       </c>
     </row>
     <row r="2425" spans="1:12">
@@ -100276,19 +100333,19 @@
         <v>13</v>
       </c>
       <c r="D2425" t="s">
-        <v>2479</v>
+        <v>2489</v>
       </c>
       <c r="E2425" t="s">
-        <v>2529</v>
+        <v>2502</v>
       </c>
       <c r="F2425" t="s">
-        <v>2530</v>
+        <v>2503</v>
       </c>
       <c r="G2425" t="s">
-        <v>2531</v>
+        <v>2504</v>
       </c>
       <c r="H2425" t="s">
-        <v>604</v>
+        <v>835</v>
       </c>
       <c r="I2425" t="s">
         <v>19</v>
@@ -100297,10 +100354,10 @@
         <v>1</v>
       </c>
       <c r="K2425">
-        <v>20993240</v>
+        <v>27564075</v>
       </c>
       <c r="L2425">
-        <v>20993240</v>
+        <v>27564075</v>
       </c>
     </row>
     <row r="2426" spans="1:12">
@@ -100314,19 +100371,19 @@
         <v>13</v>
       </c>
       <c r="D2426" t="s">
-        <v>2468</v>
+        <v>2489</v>
       </c>
       <c r="E2426" t="s">
-        <v>2532</v>
+        <v>2505</v>
       </c>
       <c r="F2426" t="s">
-        <v>2533</v>
+        <v>2506</v>
       </c>
       <c r="G2426" t="s">
-        <v>2534</v>
+        <v>2507</v>
       </c>
       <c r="H2426" t="s">
-        <v>2229</v>
+        <v>630</v>
       </c>
       <c r="I2426" t="s">
         <v>19</v>
@@ -100335,10 +100392,10 @@
         <v>1</v>
       </c>
       <c r="K2426">
-        <v>901000</v>
+        <v>16600000</v>
       </c>
       <c r="L2426">
-        <v>901000</v>
+        <v>16600000</v>
       </c>
     </row>
     <row r="2427" spans="1:12">
@@ -100352,19 +100409,19 @@
         <v>13</v>
       </c>
       <c r="D2427" t="s">
-        <v>2468</v>
+        <v>2489</v>
       </c>
       <c r="E2427" t="s">
-        <v>2535</v>
+        <v>2508</v>
       </c>
       <c r="F2427" t="s">
-        <v>2536</v>
+        <v>2509</v>
       </c>
       <c r="G2427" t="s">
-        <v>2537</v>
+        <v>2510</v>
       </c>
       <c r="H2427" t="s">
-        <v>442</v>
+        <v>75</v>
       </c>
       <c r="I2427" t="s">
         <v>19</v>
@@ -100373,10 +100430,10 @@
         <v>1</v>
       </c>
       <c r="K2427">
-        <v>34503000</v>
+        <v>178497122</v>
       </c>
       <c r="L2427">
-        <v>34503000</v>
+        <v>178497122</v>
       </c>
     </row>
     <row r="2428" spans="1:12">
@@ -100390,19 +100447,19 @@
         <v>13</v>
       </c>
       <c r="D2428" t="s">
-        <v>2468</v>
+        <v>2489</v>
       </c>
       <c r="E2428" t="s">
-        <v>2538</v>
+        <v>2511</v>
       </c>
       <c r="F2428" t="s">
-        <v>2539</v>
+        <v>2512</v>
       </c>
       <c r="G2428" t="s">
-        <v>2540</v>
+        <v>2513</v>
       </c>
       <c r="H2428" t="s">
-        <v>438</v>
+        <v>1546</v>
       </c>
       <c r="I2428" t="s">
         <v>19</v>
@@ -100411,10 +100468,10 @@
         <v>1</v>
       </c>
       <c r="K2428">
-        <v>22238000</v>
+        <v>4041500</v>
       </c>
       <c r="L2428">
-        <v>22238000</v>
+        <v>4041500</v>
       </c>
     </row>
     <row r="2429" spans="1:12">
@@ -100428,19 +100485,19 @@
         <v>13</v>
       </c>
       <c r="D2429" t="s">
-        <v>2468</v>
+        <v>2489</v>
       </c>
       <c r="E2429" t="s">
-        <v>2541</v>
+        <v>2514</v>
       </c>
       <c r="F2429" t="s">
-        <v>2542</v>
+        <v>2515</v>
       </c>
       <c r="G2429" t="s">
-        <v>2543</v>
+        <v>2516</v>
       </c>
       <c r="H2429" t="s">
-        <v>434</v>
+        <v>1546</v>
       </c>
       <c r="I2429" t="s">
         <v>19</v>
@@ -100449,10 +100506,10 @@
         <v>1</v>
       </c>
       <c r="K2429">
-        <v>19497000</v>
+        <v>1951000</v>
       </c>
       <c r="L2429">
-        <v>19497000</v>
+        <v>1951000</v>
       </c>
     </row>
     <row r="2430" spans="1:12">
@@ -100466,19 +100523,19 @@
         <v>13</v>
       </c>
       <c r="D2430" t="s">
-        <v>2544</v>
+        <v>2489</v>
       </c>
       <c r="E2430" t="s">
-        <v>2545</v>
+        <v>2517</v>
       </c>
       <c r="F2430" t="s">
-        <v>2546</v>
+        <v>2518</v>
       </c>
       <c r="G2430" t="s">
-        <v>2547</v>
+        <v>2519</v>
       </c>
       <c r="H2430" t="s">
-        <v>2548</v>
+        <v>582</v>
       </c>
       <c r="I2430" t="s">
         <v>19</v>
@@ -100487,10 +100544,10 @@
         <v>1</v>
       </c>
       <c r="K2430">
-        <v>67411000</v>
+        <v>1340000</v>
       </c>
       <c r="L2430">
-        <v>67411000</v>
+        <v>1340000</v>
       </c>
     </row>
     <row r="2431" spans="1:12">
@@ -100504,19 +100561,19 @@
         <v>13</v>
       </c>
       <c r="D2431" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2431" t="s">
-        <v>2550</v>
+        <v>2520</v>
       </c>
       <c r="F2431" t="s">
-        <v>2551</v>
+        <v>2521</v>
       </c>
       <c r="G2431" t="s">
-        <v>2552</v>
+        <v>2522</v>
       </c>
       <c r="H2431" t="s">
-        <v>764</v>
+        <v>438</v>
       </c>
       <c r="I2431" t="s">
         <v>19</v>
@@ -100525,10 +100582,10 @@
         <v>1</v>
       </c>
       <c r="K2431">
-        <v>6684268</v>
+        <v>328000</v>
       </c>
       <c r="L2431">
-        <v>6684268</v>
+        <v>328000</v>
       </c>
     </row>
     <row r="2432" spans="1:12">
@@ -100542,19 +100599,19 @@
         <v>13</v>
       </c>
       <c r="D2432" t="s">
-        <v>2553</v>
+        <v>2478</v>
       </c>
       <c r="E2432" t="s">
-        <v>2554</v>
+        <v>2523</v>
       </c>
       <c r="F2432" t="s">
-        <v>2555</v>
+        <v>2524</v>
       </c>
       <c r="G2432" t="s">
-        <v>2556</v>
+        <v>2525</v>
       </c>
       <c r="H2432" t="s">
-        <v>766</v>
+        <v>442</v>
       </c>
       <c r="I2432" t="s">
         <v>19</v>
@@ -100563,10 +100620,10 @@
         <v>1</v>
       </c>
       <c r="K2432">
-        <v>9342494</v>
+        <v>481000</v>
       </c>
       <c r="L2432">
-        <v>9342494</v>
+        <v>481000</v>
       </c>
     </row>
     <row r="2433" spans="1:12">
@@ -100580,19 +100637,19 @@
         <v>13</v>
       </c>
       <c r="D2433" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2433" t="s">
-        <v>2557</v>
+        <v>2526</v>
       </c>
       <c r="F2433" t="s">
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="G2433" t="s">
-        <v>2559</v>
+        <v>2528</v>
       </c>
       <c r="H2433" t="s">
-        <v>312</v>
+        <v>170</v>
       </c>
       <c r="I2433" t="s">
         <v>19</v>
@@ -100601,10 +100658,10 @@
         <v>1</v>
       </c>
       <c r="K2433">
-        <v>3120000</v>
+        <v>56694000</v>
       </c>
       <c r="L2433">
-        <v>3120000</v>
+        <v>56694000</v>
       </c>
     </row>
     <row r="2434" spans="1:12">
@@ -100618,19 +100675,19 @@
         <v>13</v>
       </c>
       <c r="D2434" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2434" t="s">
-        <v>2557</v>
+        <v>2526</v>
       </c>
       <c r="F2434" t="s">
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="G2434" t="s">
-        <v>2559</v>
+        <v>2528</v>
       </c>
       <c r="H2434" t="s">
-        <v>313</v>
+        <v>171</v>
       </c>
       <c r="I2434" t="s">
         <v>19</v>
@@ -100639,10 +100696,10 @@
         <v>1</v>
       </c>
       <c r="K2434">
-        <v>413100</v>
+        <v>8545000</v>
       </c>
       <c r="L2434">
-        <v>413100</v>
+        <v>8545000</v>
       </c>
     </row>
     <row r="2435" spans="1:12">
@@ -100656,19 +100713,19 @@
         <v>13</v>
       </c>
       <c r="D2435" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2435" t="s">
-        <v>2557</v>
+        <v>2526</v>
       </c>
       <c r="F2435" t="s">
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="G2435" t="s">
-        <v>2559</v>
+        <v>2528</v>
       </c>
       <c r="H2435" t="s">
-        <v>314</v>
+        <v>1212</v>
       </c>
       <c r="I2435" t="s">
         <v>19</v>
@@ -100677,10 +100734,10 @@
         <v>1</v>
       </c>
       <c r="K2435">
-        <v>30240</v>
+        <v>4400000</v>
       </c>
       <c r="L2435">
-        <v>30240</v>
+        <v>4400000</v>
       </c>
     </row>
     <row r="2436" spans="1:12">
@@ -100694,19 +100751,19 @@
         <v>13</v>
       </c>
       <c r="D2436" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2436" t="s">
-        <v>2557</v>
+        <v>2526</v>
       </c>
       <c r="F2436" t="s">
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="G2436" t="s">
-        <v>2559</v>
+        <v>2528</v>
       </c>
       <c r="H2436" t="s">
-        <v>315</v>
+        <v>1352</v>
       </c>
       <c r="I2436" t="s">
         <v>19</v>
@@ -100715,10 +100772,10 @@
         <v>1</v>
       </c>
       <c r="K2436">
-        <v>1590000</v>
+        <v>2558200</v>
       </c>
       <c r="L2436">
-        <v>1590000</v>
+        <v>2558200</v>
       </c>
     </row>
     <row r="2437" spans="1:12">
@@ -100732,19 +100789,19 @@
         <v>13</v>
       </c>
       <c r="D2437" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2437" t="s">
-        <v>2557</v>
+        <v>2526</v>
       </c>
       <c r="F2437" t="s">
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="G2437" t="s">
-        <v>2559</v>
+        <v>2528</v>
       </c>
       <c r="H2437" t="s">
-        <v>1408</v>
+        <v>375</v>
       </c>
       <c r="I2437" t="s">
         <v>19</v>
@@ -100753,10 +100810,10 @@
         <v>1</v>
       </c>
       <c r="K2437">
-        <v>654700</v>
+        <v>259123</v>
       </c>
       <c r="L2437">
-        <v>654700</v>
+        <v>259123</v>
       </c>
     </row>
     <row r="2438" spans="1:12">
@@ -100770,19 +100827,19 @@
         <v>13</v>
       </c>
       <c r="D2438" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2438" t="s">
-        <v>2557</v>
+        <v>2526</v>
       </c>
       <c r="F2438" t="s">
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="G2438" t="s">
-        <v>2559</v>
+        <v>2528</v>
       </c>
       <c r="H2438" t="s">
-        <v>986</v>
+        <v>75</v>
       </c>
       <c r="I2438" t="s">
         <v>19</v>
@@ -100791,10 +100848,10 @@
         <v>1</v>
       </c>
       <c r="K2438">
-        <v>2920000</v>
+        <v>1394057</v>
       </c>
       <c r="L2438">
-        <v>2920000</v>
+        <v>1394057</v>
       </c>
     </row>
     <row r="2439" spans="1:12">
@@ -100808,19 +100865,19 @@
         <v>13</v>
       </c>
       <c r="D2439" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2439" t="s">
-        <v>2557</v>
+        <v>2526</v>
       </c>
       <c r="F2439" t="s">
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="G2439" t="s">
-        <v>2559</v>
+        <v>2528</v>
       </c>
       <c r="H2439" t="s">
-        <v>987</v>
+        <v>612</v>
       </c>
       <c r="I2439" t="s">
         <v>19</v>
@@ -100829,10 +100886,10 @@
         <v>1</v>
       </c>
       <c r="K2439">
-        <v>648000</v>
+        <v>550000</v>
       </c>
       <c r="L2439">
-        <v>648000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="2440" spans="1:12">
@@ -100846,19 +100903,19 @@
         <v>13</v>
       </c>
       <c r="D2440" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2440" t="s">
-        <v>2557</v>
+        <v>2526</v>
       </c>
       <c r="F2440" t="s">
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="G2440" t="s">
-        <v>2559</v>
+        <v>2528</v>
       </c>
       <c r="H2440" t="s">
-        <v>988</v>
+        <v>907</v>
       </c>
       <c r="I2440" t="s">
         <v>19</v>
@@ -100867,10 +100924,10 @@
         <v>1</v>
       </c>
       <c r="K2440">
-        <v>810000</v>
+        <v>1858950</v>
       </c>
       <c r="L2440">
-        <v>810000</v>
+        <v>1858950</v>
       </c>
     </row>
     <row r="2441" spans="1:12">
@@ -100884,19 +100941,19 @@
         <v>13</v>
       </c>
       <c r="D2441" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2441" t="s">
-        <v>2557</v>
+        <v>2526</v>
       </c>
       <c r="F2441" t="s">
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="G2441" t="s">
-        <v>2559</v>
+        <v>2528</v>
       </c>
       <c r="H2441" t="s">
-        <v>989</v>
+        <v>812</v>
       </c>
       <c r="I2441" t="s">
         <v>19</v>
@@ -100905,10 +100962,10 @@
         <v>1</v>
       </c>
       <c r="K2441">
-        <v>680000</v>
+        <v>6329949</v>
       </c>
       <c r="L2441">
-        <v>680000</v>
+        <v>6329949</v>
       </c>
     </row>
     <row r="2442" spans="1:12">
@@ -100922,19 +100979,19 @@
         <v>13</v>
       </c>
       <c r="D2442" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2442" t="s">
-        <v>2557</v>
+        <v>2526</v>
       </c>
       <c r="F2442" t="s">
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="G2442" t="s">
-        <v>2559</v>
+        <v>2528</v>
       </c>
       <c r="H2442" t="s">
-        <v>516</v>
+        <v>813</v>
       </c>
       <c r="I2442" t="s">
         <v>19</v>
@@ -100943,10 +101000,10 @@
         <v>1</v>
       </c>
       <c r="K2442">
-        <v>897500</v>
+        <v>3918000</v>
       </c>
       <c r="L2442">
-        <v>897500</v>
+        <v>3918000</v>
       </c>
     </row>
     <row r="2443" spans="1:12">
@@ -100960,19 +101017,19 @@
         <v>13</v>
       </c>
       <c r="D2443" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2443" t="s">
-        <v>2557</v>
+        <v>2526</v>
       </c>
       <c r="F2443" t="s">
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="G2443" t="s">
-        <v>2559</v>
+        <v>2528</v>
       </c>
       <c r="H2443" t="s">
-        <v>1409</v>
+        <v>815</v>
       </c>
       <c r="I2443" t="s">
         <v>19</v>
@@ -100981,10 +101038,10 @@
         <v>1</v>
       </c>
       <c r="K2443">
-        <v>4048640</v>
+        <v>9000000</v>
       </c>
       <c r="L2443">
-        <v>4048640</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="2444" spans="1:12">
@@ -100998,19 +101055,19 @@
         <v>13</v>
       </c>
       <c r="D2444" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2444" t="s">
-        <v>2557</v>
+        <v>2526</v>
       </c>
       <c r="F2444" t="s">
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="G2444" t="s">
-        <v>2559</v>
+        <v>2528</v>
       </c>
       <c r="H2444" t="s">
-        <v>2560</v>
+        <v>112</v>
       </c>
       <c r="I2444" t="s">
         <v>19</v>
@@ -101019,10 +101076,10 @@
         <v>1</v>
       </c>
       <c r="K2444">
-        <v>391000</v>
+        <v>2074886</v>
       </c>
       <c r="L2444">
-        <v>391000</v>
+        <v>2074886</v>
       </c>
     </row>
     <row r="2445" spans="1:12">
@@ -101036,19 +101093,19 @@
         <v>13</v>
       </c>
       <c r="D2445" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2445" t="s">
-        <v>2557</v>
+        <v>2526</v>
       </c>
       <c r="F2445" t="s">
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="G2445" t="s">
-        <v>2559</v>
+        <v>2528</v>
       </c>
       <c r="H2445" t="s">
-        <v>2561</v>
+        <v>769</v>
       </c>
       <c r="I2445" t="s">
         <v>19</v>
@@ -101057,10 +101114,10 @@
         <v>1</v>
       </c>
       <c r="K2445">
-        <v>2484000</v>
+        <v>525000</v>
       </c>
       <c r="L2445">
-        <v>2484000</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="2446" spans="1:12">
@@ -101074,19 +101131,19 @@
         <v>13</v>
       </c>
       <c r="D2446" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2446" t="s">
-        <v>2557</v>
+        <v>2526</v>
       </c>
       <c r="F2446" t="s">
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="G2446" t="s">
-        <v>2559</v>
+        <v>2528</v>
       </c>
       <c r="H2446" t="s">
-        <v>317</v>
+        <v>770</v>
       </c>
       <c r="I2446" t="s">
         <v>19</v>
@@ -101095,10 +101152,10 @@
         <v>1</v>
       </c>
       <c r="K2446">
-        <v>190800</v>
+        <v>750000</v>
       </c>
       <c r="L2446">
-        <v>190800</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="2447" spans="1:12">
@@ -101112,19 +101169,19 @@
         <v>13</v>
       </c>
       <c r="D2447" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2447" t="s">
-        <v>2557</v>
+        <v>2526</v>
       </c>
       <c r="F2447" t="s">
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="G2447" t="s">
-        <v>2559</v>
+        <v>2528</v>
       </c>
       <c r="H2447" t="s">
-        <v>595</v>
+        <v>400</v>
       </c>
       <c r="I2447" t="s">
         <v>19</v>
@@ -101133,10 +101190,10 @@
         <v>1</v>
       </c>
       <c r="K2447">
-        <v>427000</v>
+        <v>600000</v>
       </c>
       <c r="L2447">
-        <v>427000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="2448" spans="1:12">
@@ -101150,19 +101207,19 @@
         <v>13</v>
       </c>
       <c r="D2448" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2448" t="s">
-        <v>2557</v>
+        <v>2526</v>
       </c>
       <c r="F2448" t="s">
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="G2448" t="s">
-        <v>2559</v>
+        <v>2528</v>
       </c>
       <c r="H2448" t="s">
-        <v>1234</v>
+        <v>401</v>
       </c>
       <c r="I2448" t="s">
         <v>19</v>
@@ -101171,10 +101228,10 @@
         <v>1</v>
       </c>
       <c r="K2448">
-        <v>2000000</v>
+        <v>520000</v>
       </c>
       <c r="L2448">
-        <v>2000000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="2449" spans="1:12">
@@ -101188,19 +101245,19 @@
         <v>13</v>
       </c>
       <c r="D2449" t="s">
-        <v>2549</v>
+        <v>2489</v>
       </c>
       <c r="E2449" t="s">
-        <v>2557</v>
+        <v>2529</v>
       </c>
       <c r="F2449" t="s">
-        <v>2558</v>
+        <v>2530</v>
       </c>
       <c r="G2449" t="s">
-        <v>2559</v>
+        <v>2531</v>
       </c>
       <c r="H2449" t="s">
-        <v>1235</v>
+        <v>2532</v>
       </c>
       <c r="I2449" t="s">
         <v>19</v>
@@ -101209,10 +101266,10 @@
         <v>1</v>
       </c>
       <c r="K2449">
-        <v>2000000</v>
+        <v>4440000</v>
       </c>
       <c r="L2449">
-        <v>2000000</v>
+        <v>4440000</v>
       </c>
     </row>
     <row r="2450" spans="1:12">
@@ -101226,19 +101283,19 @@
         <v>13</v>
       </c>
       <c r="D2450" t="s">
-        <v>2549</v>
+        <v>2489</v>
       </c>
       <c r="E2450" t="s">
-        <v>2557</v>
+        <v>2533</v>
       </c>
       <c r="F2450" t="s">
-        <v>2558</v>
+        <v>2534</v>
       </c>
       <c r="G2450" t="s">
-        <v>2559</v>
+        <v>2535</v>
       </c>
       <c r="H2450" t="s">
-        <v>332</v>
+        <v>812</v>
       </c>
       <c r="I2450" t="s">
         <v>19</v>
@@ -101247,10 +101304,10 @@
         <v>1</v>
       </c>
       <c r="K2450">
-        <v>3000000</v>
+        <v>19469400</v>
       </c>
       <c r="L2450">
-        <v>3000000</v>
+        <v>19469400</v>
       </c>
     </row>
     <row r="2451" spans="1:12">
@@ -101264,19 +101321,19 @@
         <v>13</v>
       </c>
       <c r="D2451" t="s">
-        <v>2549</v>
+        <v>2489</v>
       </c>
       <c r="E2451" t="s">
-        <v>2557</v>
+        <v>2536</v>
       </c>
       <c r="F2451" t="s">
-        <v>2558</v>
+        <v>2537</v>
       </c>
       <c r="G2451" t="s">
-        <v>2559</v>
+        <v>2538</v>
       </c>
       <c r="H2451" t="s">
-        <v>2562</v>
+        <v>157</v>
       </c>
       <c r="I2451" t="s">
         <v>19</v>
@@ -101285,10 +101342,10 @@
         <v>1</v>
       </c>
       <c r="K2451">
-        <v>1800000</v>
+        <v>21756000</v>
       </c>
       <c r="L2451">
-        <v>1800000</v>
+        <v>21756000</v>
       </c>
     </row>
     <row r="2452" spans="1:12">
@@ -101302,19 +101359,19 @@
         <v>13</v>
       </c>
       <c r="D2452" t="s">
-        <v>2549</v>
+        <v>2489</v>
       </c>
       <c r="E2452" t="s">
-        <v>2557</v>
+        <v>2539</v>
       </c>
       <c r="F2452" t="s">
-        <v>2558</v>
+        <v>2540</v>
       </c>
       <c r="G2452" t="s">
-        <v>2559</v>
+        <v>2541</v>
       </c>
       <c r="H2452" t="s">
-        <v>520</v>
+        <v>604</v>
       </c>
       <c r="I2452" t="s">
         <v>19</v>
@@ -101323,10 +101380,10 @@
         <v>1</v>
       </c>
       <c r="K2452">
-        <v>2000000</v>
+        <v>20993240</v>
       </c>
       <c r="L2452">
-        <v>2000000</v>
+        <v>20993240</v>
       </c>
     </row>
     <row r="2453" spans="1:12">
@@ -101340,19 +101397,19 @@
         <v>13</v>
       </c>
       <c r="D2453" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2453" t="s">
-        <v>2557</v>
+        <v>2542</v>
       </c>
       <c r="F2453" t="s">
-        <v>2558</v>
+        <v>2543</v>
       </c>
       <c r="G2453" t="s">
-        <v>2559</v>
+        <v>2544</v>
       </c>
       <c r="H2453" t="s">
-        <v>1417</v>
+        <v>2229</v>
       </c>
       <c r="I2453" t="s">
         <v>19</v>
@@ -101361,10 +101418,10 @@
         <v>1</v>
       </c>
       <c r="K2453">
-        <v>7050000</v>
+        <v>901000</v>
       </c>
       <c r="L2453">
-        <v>7050000</v>
+        <v>901000</v>
       </c>
     </row>
     <row r="2454" spans="1:12">
@@ -101378,19 +101435,19 @@
         <v>13</v>
       </c>
       <c r="D2454" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2454" t="s">
-        <v>2557</v>
+        <v>2545</v>
       </c>
       <c r="F2454" t="s">
-        <v>2558</v>
+        <v>2546</v>
       </c>
       <c r="G2454" t="s">
-        <v>2559</v>
+        <v>2547</v>
       </c>
       <c r="H2454" t="s">
-        <v>1418</v>
+        <v>442</v>
       </c>
       <c r="I2454" t="s">
         <v>19</v>
@@ -101399,10 +101456,10 @@
         <v>1</v>
       </c>
       <c r="K2454">
-        <v>2625000</v>
+        <v>34503000</v>
       </c>
       <c r="L2454">
-        <v>2625000</v>
+        <v>34503000</v>
       </c>
     </row>
     <row r="2455" spans="1:12">
@@ -101416,19 +101473,19 @@
         <v>13</v>
       </c>
       <c r="D2455" t="s">
+        <v>2478</v>
+      </c>
+      <c r="E2455" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F2455" t="s">
         <v>2549</v>
       </c>
-      <c r="E2455" t="s">
-        <v>2557</v>
-      </c>
-      <c r="F2455" t="s">
-        <v>2558</v>
-      </c>
       <c r="G2455" t="s">
-        <v>2559</v>
+        <v>2550</v>
       </c>
       <c r="H2455" t="s">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="I2455" t="s">
         <v>19</v>
@@ -101437,10 +101494,10 @@
         <v>1</v>
       </c>
       <c r="K2455">
-        <v>44156100</v>
+        <v>22238000</v>
       </c>
       <c r="L2455">
-        <v>44156100</v>
+        <v>22238000</v>
       </c>
     </row>
     <row r="2456" spans="1:12">
@@ -101454,19 +101511,19 @@
         <v>13</v>
       </c>
       <c r="D2456" t="s">
-        <v>2549</v>
+        <v>2478</v>
       </c>
       <c r="E2456" t="s">
-        <v>2557</v>
+        <v>2551</v>
       </c>
       <c r="F2456" t="s">
-        <v>2558</v>
+        <v>2552</v>
       </c>
       <c r="G2456" t="s">
-        <v>2559</v>
+        <v>2553</v>
       </c>
       <c r="H2456" t="s">
-        <v>335</v>
+        <v>434</v>
       </c>
       <c r="I2456" t="s">
         <v>19</v>
@@ -101475,10 +101532,10 @@
         <v>1</v>
       </c>
       <c r="K2456">
-        <v>4472800</v>
+        <v>19497000</v>
       </c>
       <c r="L2456">
-        <v>4472800</v>
+        <v>19497000</v>
       </c>
     </row>
     <row r="2457" spans="1:12">
@@ -101492,20 +101549,20 @@
         <v>13</v>
       </c>
       <c r="D2457" t="s">
-        <v>2549</v>
+        <v>2554</v>
       </c>
       <c r="E2457" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F2457" t="s">
+        <v>2556</v>
+      </c>
+      <c r="G2457" t="s">
         <v>2557</v>
       </c>
-      <c r="F2457" t="s">
+      <c r="H2457" t="s">
         <v>2558</v>
       </c>
-      <c r="G2457" t="s">
-        <v>2559</v>
-      </c>
-      <c r="H2457" t="s">
-        <v>1478</v>
-      </c>
       <c r="I2457" t="s">
         <v>19</v>
       </c>
@@ -101513,10 +101570,10 @@
         <v>1</v>
       </c>
       <c r="K2457">
-        <v>4795406</v>
+        <v>67411000</v>
       </c>
       <c r="L2457">
-        <v>4795406</v>
+        <v>67411000</v>
       </c>
     </row>
     <row r="2458" spans="1:12">
@@ -101530,19 +101587,19 @@
         <v>13</v>
       </c>
       <c r="D2458" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2458" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="F2458" t="s">
-        <v>2558</v>
+        <v>2561</v>
       </c>
       <c r="G2458" t="s">
-        <v>2559</v>
+        <v>2562</v>
       </c>
       <c r="H2458" t="s">
-        <v>522</v>
+        <v>764</v>
       </c>
       <c r="I2458" t="s">
         <v>19</v>
@@ -101551,10 +101608,10 @@
         <v>1</v>
       </c>
       <c r="K2458">
-        <v>842000</v>
+        <v>6684268</v>
       </c>
       <c r="L2458">
-        <v>842000</v>
+        <v>6684268</v>
       </c>
     </row>
     <row r="2459" spans="1:12">
@@ -101568,19 +101625,19 @@
         <v>13</v>
       </c>
       <c r="D2459" t="s">
-        <v>2549</v>
+        <v>2563</v>
       </c>
       <c r="E2459" t="s">
-        <v>2557</v>
+        <v>2564</v>
       </c>
       <c r="F2459" t="s">
-        <v>2558</v>
+        <v>2565</v>
       </c>
       <c r="G2459" t="s">
-        <v>2559</v>
+        <v>2566</v>
       </c>
       <c r="H2459" t="s">
-        <v>136</v>
+        <v>766</v>
       </c>
       <c r="I2459" t="s">
         <v>19</v>
@@ -101589,10 +101646,10 @@
         <v>1</v>
       </c>
       <c r="K2459">
-        <v>750000</v>
+        <v>9342494</v>
       </c>
       <c r="L2459">
-        <v>750000</v>
+        <v>9342494</v>
       </c>
     </row>
     <row r="2460" spans="1:12">
@@ -101606,19 +101663,19 @@
         <v>13</v>
       </c>
       <c r="D2460" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2460" t="s">
-        <v>2557</v>
+        <v>2567</v>
       </c>
       <c r="F2460" t="s">
-        <v>2558</v>
+        <v>2568</v>
       </c>
       <c r="G2460" t="s">
-        <v>2559</v>
+        <v>2569</v>
       </c>
       <c r="H2460" t="s">
-        <v>1423</v>
+        <v>312</v>
       </c>
       <c r="I2460" t="s">
         <v>19</v>
@@ -101627,10 +101684,10 @@
         <v>1</v>
       </c>
       <c r="K2460">
-        <v>300000</v>
+        <v>3120000</v>
       </c>
       <c r="L2460">
-        <v>300000</v>
+        <v>3120000</v>
       </c>
     </row>
     <row r="2461" spans="1:12">
@@ -101644,19 +101701,19 @@
         <v>13</v>
       </c>
       <c r="D2461" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2461" t="s">
-        <v>2557</v>
+        <v>2567</v>
       </c>
       <c r="F2461" t="s">
-        <v>2558</v>
+        <v>2568</v>
       </c>
       <c r="G2461" t="s">
-        <v>2559</v>
+        <v>2569</v>
       </c>
       <c r="H2461" t="s">
-        <v>2563</v>
+        <v>313</v>
       </c>
       <c r="I2461" t="s">
         <v>19</v>
@@ -101665,10 +101722,10 @@
         <v>1</v>
       </c>
       <c r="K2461">
-        <v>150000</v>
+        <v>413100</v>
       </c>
       <c r="L2461">
-        <v>150000</v>
+        <v>413100</v>
       </c>
     </row>
     <row r="2462" spans="1:12">
@@ -101682,19 +101739,19 @@
         <v>13</v>
       </c>
       <c r="D2462" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2462" t="s">
-        <v>2557</v>
+        <v>2567</v>
       </c>
       <c r="F2462" t="s">
-        <v>2558</v>
+        <v>2568</v>
       </c>
       <c r="G2462" t="s">
-        <v>2559</v>
+        <v>2569</v>
       </c>
       <c r="H2462" t="s">
-        <v>2564</v>
+        <v>314</v>
       </c>
       <c r="I2462" t="s">
         <v>19</v>
@@ -101703,10 +101760,10 @@
         <v>1</v>
       </c>
       <c r="K2462">
-        <v>4297012</v>
+        <v>30240</v>
       </c>
       <c r="L2462">
-        <v>4297012</v>
+        <v>30240</v>
       </c>
     </row>
     <row r="2463" spans="1:12">
@@ -101720,19 +101777,19 @@
         <v>13</v>
       </c>
       <c r="D2463" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="E2463" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="F2463" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="G2463" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="H2463" t="s">
-        <v>909</v>
+        <v>315</v>
       </c>
       <c r="I2463" t="s">
         <v>19</v>
@@ -101741,10 +101798,10 @@
         <v>1</v>
       </c>
       <c r="K2463">
-        <v>9801220</v>
+        <v>1590000</v>
       </c>
       <c r="L2463">
-        <v>9801220</v>
+        <v>1590000</v>
       </c>
     </row>
     <row r="2464" spans="1:12">
@@ -101758,19 +101815,19 @@
         <v>13</v>
       </c>
       <c r="D2464" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="E2464" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F2464" t="s">
         <v>2568</v>
       </c>
-      <c r="F2464" t="s">
+      <c r="G2464" t="s">
         <v>2569</v>
       </c>
-      <c r="G2464" t="s">
-        <v>2570</v>
-      </c>
       <c r="H2464" t="s">
-        <v>184</v>
+        <v>1408</v>
       </c>
       <c r="I2464" t="s">
         <v>19</v>
@@ -101779,10 +101836,10 @@
         <v>1</v>
       </c>
       <c r="K2464">
-        <v>4408826</v>
+        <v>654700</v>
       </c>
       <c r="L2464">
-        <v>4408826</v>
+        <v>654700</v>
       </c>
     </row>
     <row r="2465" spans="1:12">
@@ -101796,19 +101853,19 @@
         <v>13</v>
       </c>
       <c r="D2465" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="E2465" t="s">
-        <v>2571</v>
+        <v>2567</v>
       </c>
       <c r="F2465" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="G2465" t="s">
-        <v>2573</v>
+        <v>2569</v>
       </c>
       <c r="H2465" t="s">
-        <v>70</v>
+        <v>986</v>
       </c>
       <c r="I2465" t="s">
         <v>19</v>
@@ -101817,10 +101874,10 @@
         <v>1</v>
       </c>
       <c r="K2465">
-        <v>10140004</v>
+        <v>2920000</v>
       </c>
       <c r="L2465">
-        <v>10140004</v>
+        <v>2920000</v>
       </c>
     </row>
     <row r="2466" spans="1:12">
@@ -101834,19 +101891,19 @@
         <v>13</v>
       </c>
       <c r="D2466" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="E2466" t="s">
-        <v>2574</v>
+        <v>2567</v>
       </c>
       <c r="F2466" t="s">
-        <v>2575</v>
+        <v>2568</v>
       </c>
       <c r="G2466" t="s">
-        <v>2576</v>
+        <v>2569</v>
       </c>
       <c r="H2466" t="s">
-        <v>560</v>
+        <v>987</v>
       </c>
       <c r="I2466" t="s">
         <v>19</v>
@@ -101855,10 +101912,10 @@
         <v>1</v>
       </c>
       <c r="K2466">
-        <v>4752500</v>
+        <v>648000</v>
       </c>
       <c r="L2466">
-        <v>4752500</v>
+        <v>648000</v>
       </c>
     </row>
     <row r="2467" spans="1:12">
@@ -101872,19 +101929,19 @@
         <v>13</v>
       </c>
       <c r="D2467" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="E2467" t="s">
-        <v>2577</v>
+        <v>2567</v>
       </c>
       <c r="F2467" t="s">
-        <v>2578</v>
+        <v>2568</v>
       </c>
       <c r="G2467" t="s">
-        <v>2579</v>
+        <v>2569</v>
       </c>
       <c r="H2467" t="s">
-        <v>1114</v>
+        <v>988</v>
       </c>
       <c r="I2467" t="s">
         <v>19</v>
@@ -101893,10 +101950,10 @@
         <v>1</v>
       </c>
       <c r="K2467">
-        <v>8300000</v>
+        <v>810000</v>
       </c>
       <c r="L2467">
-        <v>8300000</v>
+        <v>810000</v>
       </c>
     </row>
     <row r="2468" spans="1:12">
@@ -101910,19 +101967,19 @@
         <v>13</v>
       </c>
       <c r="D2468" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="E2468" t="s">
-        <v>2580</v>
+        <v>2567</v>
       </c>
       <c r="F2468" t="s">
-        <v>2581</v>
+        <v>2568</v>
       </c>
       <c r="G2468" t="s">
-        <v>2582</v>
+        <v>2569</v>
       </c>
       <c r="H2468" t="s">
-        <v>1114</v>
+        <v>989</v>
       </c>
       <c r="I2468" t="s">
         <v>19</v>
@@ -101931,10 +101988,10 @@
         <v>1</v>
       </c>
       <c r="K2468">
-        <v>6474000</v>
+        <v>680000</v>
       </c>
       <c r="L2468">
-        <v>6474000</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="2469" spans="1:12">
@@ -101948,19 +102005,19 @@
         <v>13</v>
       </c>
       <c r="D2469" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="E2469" t="s">
-        <v>2583</v>
+        <v>2567</v>
       </c>
       <c r="F2469" t="s">
-        <v>2584</v>
+        <v>2568</v>
       </c>
       <c r="G2469" t="s">
-        <v>2585</v>
+        <v>2569</v>
       </c>
       <c r="H2469" t="s">
-        <v>764</v>
+        <v>516</v>
       </c>
       <c r="I2469" t="s">
         <v>19</v>
@@ -101969,10 +102026,10 @@
         <v>1</v>
       </c>
       <c r="K2469">
-        <v>9953640</v>
+        <v>897500</v>
       </c>
       <c r="L2469">
-        <v>9953640</v>
+        <v>897500</v>
       </c>
     </row>
     <row r="2470" spans="1:12">
@@ -101986,19 +102043,19 @@
         <v>13</v>
       </c>
       <c r="D2470" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="E2470" t="s">
-        <v>2586</v>
+        <v>2567</v>
       </c>
       <c r="F2470" t="s">
-        <v>2587</v>
+        <v>2568</v>
       </c>
       <c r="G2470" t="s">
-        <v>2588</v>
+        <v>2569</v>
       </c>
       <c r="H2470" t="s">
-        <v>1356</v>
+        <v>1409</v>
       </c>
       <c r="I2470" t="s">
         <v>19</v>
@@ -102007,10 +102064,10 @@
         <v>1</v>
       </c>
       <c r="K2470">
-        <v>8415757</v>
+        <v>4048640</v>
       </c>
       <c r="L2470">
-        <v>8415757</v>
+        <v>4048640</v>
       </c>
     </row>
     <row r="2471" spans="1:12">
@@ -102024,19 +102081,19 @@
         <v>13</v>
       </c>
       <c r="D2471" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="E2471" t="s">
-        <v>2589</v>
+        <v>2567</v>
       </c>
       <c r="F2471" t="s">
-        <v>2590</v>
+        <v>2568</v>
       </c>
       <c r="G2471" t="s">
-        <v>2591</v>
+        <v>2569</v>
       </c>
       <c r="H2471" t="s">
-        <v>2467</v>
+        <v>2570</v>
       </c>
       <c r="I2471" t="s">
         <v>19</v>
@@ -102045,10 +102102,10 @@
         <v>1</v>
       </c>
       <c r="K2471">
-        <v>6228560</v>
+        <v>391000</v>
       </c>
       <c r="L2471">
-        <v>6228560</v>
+        <v>391000</v>
       </c>
     </row>
     <row r="2472" spans="1:12">
@@ -102062,19 +102119,19 @@
         <v>13</v>
       </c>
       <c r="D2472" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="E2472" t="s">
-        <v>2592</v>
+        <v>2567</v>
       </c>
       <c r="F2472" t="s">
-        <v>2593</v>
+        <v>2568</v>
       </c>
       <c r="G2472" t="s">
-        <v>2594</v>
+        <v>2569</v>
       </c>
       <c r="H2472" t="s">
-        <v>2595</v>
+        <v>2571</v>
       </c>
       <c r="I2472" t="s">
         <v>19</v>
@@ -102083,10 +102140,10 @@
         <v>1</v>
       </c>
       <c r="K2472">
-        <v>18411060</v>
+        <v>2484000</v>
       </c>
       <c r="L2472">
-        <v>18411060</v>
+        <v>2484000</v>
       </c>
     </row>
     <row r="2473" spans="1:12">
@@ -102100,19 +102157,19 @@
         <v>13</v>
       </c>
       <c r="D2473" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2473" t="s">
-        <v>2596</v>
+        <v>2567</v>
       </c>
       <c r="F2473" t="s">
-        <v>2597</v>
+        <v>2568</v>
       </c>
       <c r="G2473" t="s">
-        <v>795</v>
+        <v>2569</v>
       </c>
       <c r="H2473" t="s">
-        <v>170</v>
+        <v>317</v>
       </c>
       <c r="I2473" t="s">
         <v>19</v>
@@ -102121,10 +102178,10 @@
         <v>1</v>
       </c>
       <c r="K2473">
-        <v>16820150</v>
+        <v>190800</v>
       </c>
       <c r="L2473">
-        <v>16820150</v>
+        <v>190800</v>
       </c>
     </row>
     <row r="2474" spans="1:12">
@@ -102138,19 +102195,19 @@
         <v>13</v>
       </c>
       <c r="D2474" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2474" t="s">
-        <v>2596</v>
+        <v>2567</v>
       </c>
       <c r="F2474" t="s">
-        <v>2597</v>
+        <v>2568</v>
       </c>
       <c r="G2474" t="s">
-        <v>795</v>
+        <v>2569</v>
       </c>
       <c r="H2474" t="s">
-        <v>171</v>
+        <v>595</v>
       </c>
       <c r="I2474" t="s">
         <v>19</v>
@@ -102159,10 +102216,10 @@
         <v>1</v>
       </c>
       <c r="K2474">
-        <v>2536500</v>
+        <v>427000</v>
       </c>
       <c r="L2474">
-        <v>2536500</v>
+        <v>427000</v>
       </c>
     </row>
     <row r="2475" spans="1:12">
@@ -102176,19 +102233,19 @@
         <v>13</v>
       </c>
       <c r="D2475" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2475" t="s">
-        <v>2596</v>
+        <v>2567</v>
       </c>
       <c r="F2475" t="s">
-        <v>2597</v>
+        <v>2568</v>
       </c>
       <c r="G2475" t="s">
-        <v>795</v>
+        <v>2569</v>
       </c>
       <c r="H2475" t="s">
-        <v>796</v>
+        <v>1234</v>
       </c>
       <c r="I2475" t="s">
         <v>19</v>
@@ -102197,10 +102254,10 @@
         <v>1</v>
       </c>
       <c r="K2475">
-        <v>3057000</v>
+        <v>2000000</v>
       </c>
       <c r="L2475">
-        <v>3057000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="2476" spans="1:12">
@@ -102214,19 +102271,19 @@
         <v>13</v>
       </c>
       <c r="D2476" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2476" t="s">
-        <v>2596</v>
+        <v>2567</v>
       </c>
       <c r="F2476" t="s">
-        <v>2597</v>
+        <v>2568</v>
       </c>
       <c r="G2476" t="s">
-        <v>795</v>
+        <v>2569</v>
       </c>
       <c r="H2476" t="s">
-        <v>172</v>
+        <v>1235</v>
       </c>
       <c r="I2476" t="s">
         <v>19</v>
@@ -102235,10 +102292,10 @@
         <v>1</v>
       </c>
       <c r="K2476">
-        <v>1074902</v>
+        <v>2000000</v>
       </c>
       <c r="L2476">
-        <v>1074902</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="2477" spans="1:12">
@@ -102252,19 +102309,19 @@
         <v>13</v>
       </c>
       <c r="D2477" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2477" t="s">
-        <v>2596</v>
+        <v>2567</v>
       </c>
       <c r="F2477" t="s">
-        <v>2597</v>
+        <v>2568</v>
       </c>
       <c r="G2477" t="s">
-        <v>795</v>
+        <v>2569</v>
       </c>
       <c r="H2477" t="s">
-        <v>173</v>
+        <v>332</v>
       </c>
       <c r="I2477" t="s">
         <v>19</v>
@@ -102273,10 +102330,10 @@
         <v>1</v>
       </c>
       <c r="K2477">
-        <v>121284</v>
+        <v>3000000</v>
       </c>
       <c r="L2477">
-        <v>121284</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="2478" spans="1:12">
@@ -102290,19 +102347,19 @@
         <v>13</v>
       </c>
       <c r="D2478" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2478" t="s">
-        <v>2596</v>
+        <v>2567</v>
       </c>
       <c r="F2478" t="s">
-        <v>2597</v>
+        <v>2568</v>
       </c>
       <c r="G2478" t="s">
-        <v>795</v>
+        <v>2569</v>
       </c>
       <c r="H2478" t="s">
-        <v>1636</v>
+        <v>2572</v>
       </c>
       <c r="I2478" t="s">
         <v>19</v>
@@ -102311,10 +102368,10 @@
         <v>1</v>
       </c>
       <c r="K2478">
-        <v>4500000</v>
+        <v>1800000</v>
       </c>
       <c r="L2478">
-        <v>4500000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="2479" spans="1:12">
@@ -102328,19 +102385,19 @@
         <v>13</v>
       </c>
       <c r="D2479" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2479" t="s">
-        <v>2596</v>
+        <v>2567</v>
       </c>
       <c r="F2479" t="s">
-        <v>2597</v>
+        <v>2568</v>
       </c>
       <c r="G2479" t="s">
-        <v>795</v>
+        <v>2569</v>
       </c>
       <c r="H2479" t="s">
-        <v>797</v>
+        <v>520</v>
       </c>
       <c r="I2479" t="s">
         <v>19</v>
@@ -102349,10 +102406,10 @@
         <v>1</v>
       </c>
       <c r="K2479">
-        <v>284580</v>
+        <v>2000000</v>
       </c>
       <c r="L2479">
-        <v>284580</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="2480" spans="1:12">
@@ -102366,19 +102423,19 @@
         <v>13</v>
       </c>
       <c r="D2480" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2480" t="s">
-        <v>2596</v>
+        <v>2567</v>
       </c>
       <c r="F2480" t="s">
-        <v>2597</v>
+        <v>2568</v>
       </c>
       <c r="G2480" t="s">
-        <v>795</v>
+        <v>2569</v>
       </c>
       <c r="H2480" t="s">
-        <v>893</v>
+        <v>1417</v>
       </c>
       <c r="I2480" t="s">
         <v>19</v>
@@ -102387,10 +102444,10 @@
         <v>1</v>
       </c>
       <c r="K2480">
-        <v>2904050</v>
+        <v>7050000</v>
       </c>
       <c r="L2480">
-        <v>2904050</v>
+        <v>7050000</v>
       </c>
     </row>
     <row r="2481" spans="1:12">
@@ -102404,19 +102461,19 @@
         <v>13</v>
       </c>
       <c r="D2481" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2481" t="s">
-        <v>2596</v>
+        <v>2567</v>
       </c>
       <c r="F2481" t="s">
-        <v>2597</v>
+        <v>2568</v>
       </c>
       <c r="G2481" t="s">
-        <v>795</v>
+        <v>2569</v>
       </c>
       <c r="H2481" t="s">
-        <v>798</v>
+        <v>1418</v>
       </c>
       <c r="I2481" t="s">
         <v>19</v>
@@ -102425,10 +102482,10 @@
         <v>1</v>
       </c>
       <c r="K2481">
-        <v>2997000</v>
+        <v>2625000</v>
       </c>
       <c r="L2481">
-        <v>2997000</v>
+        <v>2625000</v>
       </c>
     </row>
     <row r="2482" spans="1:12">
@@ -102442,19 +102499,19 @@
         <v>13</v>
       </c>
       <c r="D2482" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2482" t="s">
-        <v>2596</v>
+        <v>2567</v>
       </c>
       <c r="F2482" t="s">
-        <v>2597</v>
+        <v>2568</v>
       </c>
       <c r="G2482" t="s">
-        <v>795</v>
+        <v>2569</v>
       </c>
       <c r="H2482" t="s">
-        <v>894</v>
+        <v>334</v>
       </c>
       <c r="I2482" t="s">
         <v>19</v>
@@ -102463,10 +102520,10 @@
         <v>1</v>
       </c>
       <c r="K2482">
-        <v>2986000</v>
+        <v>44156100</v>
       </c>
       <c r="L2482">
-        <v>2986000</v>
+        <v>44156100</v>
       </c>
     </row>
     <row r="2483" spans="1:12">
@@ -102480,19 +102537,19 @@
         <v>13</v>
       </c>
       <c r="D2483" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2483" t="s">
-        <v>2596</v>
+        <v>2567</v>
       </c>
       <c r="F2483" t="s">
-        <v>2597</v>
+        <v>2568</v>
       </c>
       <c r="G2483" t="s">
-        <v>795</v>
+        <v>2569</v>
       </c>
       <c r="H2483" t="s">
-        <v>896</v>
+        <v>335</v>
       </c>
       <c r="I2483" t="s">
         <v>19</v>
@@ -102501,10 +102558,10 @@
         <v>1</v>
       </c>
       <c r="K2483">
-        <v>2771900</v>
+        <v>4472800</v>
       </c>
       <c r="L2483">
-        <v>2771900</v>
+        <v>4472800</v>
       </c>
     </row>
     <row r="2484" spans="1:12">
@@ -102518,19 +102575,19 @@
         <v>13</v>
       </c>
       <c r="D2484" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2484" t="s">
-        <v>2596</v>
+        <v>2567</v>
       </c>
       <c r="F2484" t="s">
-        <v>2597</v>
+        <v>2568</v>
       </c>
       <c r="G2484" t="s">
-        <v>795</v>
+        <v>2569</v>
       </c>
       <c r="H2484" t="s">
-        <v>799</v>
+        <v>1478</v>
       </c>
       <c r="I2484" t="s">
         <v>19</v>
@@ -102539,10 +102596,10 @@
         <v>1</v>
       </c>
       <c r="K2484">
-        <v>3013000</v>
+        <v>4795406</v>
       </c>
       <c r="L2484">
-        <v>3013000</v>
+        <v>4795406</v>
       </c>
     </row>
     <row r="2485" spans="1:12">
@@ -102556,19 +102613,19 @@
         <v>13</v>
       </c>
       <c r="D2485" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2485" t="s">
-        <v>2596</v>
+        <v>2567</v>
       </c>
       <c r="F2485" t="s">
-        <v>2597</v>
+        <v>2568</v>
       </c>
       <c r="G2485" t="s">
-        <v>795</v>
+        <v>2569</v>
       </c>
       <c r="H2485" t="s">
-        <v>802</v>
+        <v>522</v>
       </c>
       <c r="I2485" t="s">
         <v>19</v>
@@ -102577,10 +102634,10 @@
         <v>1</v>
       </c>
       <c r="K2485">
-        <v>2789500</v>
+        <v>842000</v>
       </c>
       <c r="L2485">
-        <v>2789500</v>
+        <v>842000</v>
       </c>
     </row>
     <row r="2486" spans="1:12">
@@ -102594,19 +102651,19 @@
         <v>13</v>
       </c>
       <c r="D2486" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2486" t="s">
-        <v>2596</v>
+        <v>2567</v>
       </c>
       <c r="F2486" t="s">
-        <v>2597</v>
+        <v>2568</v>
       </c>
       <c r="G2486" t="s">
-        <v>795</v>
+        <v>2569</v>
       </c>
       <c r="H2486" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="I2486" t="s">
         <v>19</v>
@@ -102615,10 +102672,10 @@
         <v>1</v>
       </c>
       <c r="K2486">
-        <v>4997000</v>
+        <v>750000</v>
       </c>
       <c r="L2486">
-        <v>4997000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="2487" spans="1:12">
@@ -102632,19 +102689,19 @@
         <v>13</v>
       </c>
       <c r="D2487" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2487" t="s">
-        <v>2596</v>
+        <v>2567</v>
       </c>
       <c r="F2487" t="s">
-        <v>2597</v>
+        <v>2568</v>
       </c>
       <c r="G2487" t="s">
-        <v>795</v>
+        <v>2569</v>
       </c>
       <c r="H2487" t="s">
-        <v>951</v>
+        <v>1423</v>
       </c>
       <c r="I2487" t="s">
         <v>19</v>
@@ -102653,10 +102710,10 @@
         <v>1</v>
       </c>
       <c r="K2487">
-        <v>1983750</v>
+        <v>300000</v>
       </c>
       <c r="L2487">
-        <v>1983750</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="2488" spans="1:12">
@@ -102670,19 +102727,19 @@
         <v>13</v>
       </c>
       <c r="D2488" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2488" t="s">
-        <v>2596</v>
+        <v>2567</v>
       </c>
       <c r="F2488" t="s">
-        <v>2597</v>
+        <v>2568</v>
       </c>
       <c r="G2488" t="s">
-        <v>795</v>
+        <v>2569</v>
       </c>
       <c r="H2488" t="s">
-        <v>952</v>
+        <v>2573</v>
       </c>
       <c r="I2488" t="s">
         <v>19</v>
@@ -102691,10 +102748,10 @@
         <v>1</v>
       </c>
       <c r="K2488">
-        <v>1990000</v>
+        <v>150000</v>
       </c>
       <c r="L2488">
-        <v>1990000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="2489" spans="1:12">
@@ -102708,19 +102765,19 @@
         <v>13</v>
       </c>
       <c r="D2489" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2489" t="s">
-        <v>2596</v>
+        <v>2567</v>
       </c>
       <c r="F2489" t="s">
-        <v>2597</v>
+        <v>2568</v>
       </c>
       <c r="G2489" t="s">
-        <v>795</v>
+        <v>2569</v>
       </c>
       <c r="H2489" t="s">
-        <v>183</v>
+        <v>2574</v>
       </c>
       <c r="I2489" t="s">
         <v>19</v>
@@ -102729,10 +102786,10 @@
         <v>1</v>
       </c>
       <c r="K2489">
-        <v>2000000</v>
+        <v>4297012</v>
       </c>
       <c r="L2489">
-        <v>2000000</v>
+        <v>4297012</v>
       </c>
     </row>
     <row r="2490" spans="1:12">
@@ -102746,19 +102803,19 @@
         <v>13</v>
       </c>
       <c r="D2490" t="s">
-        <v>2549</v>
+        <v>2563</v>
       </c>
       <c r="E2490" t="s">
-        <v>2596</v>
+        <v>2575</v>
       </c>
       <c r="F2490" t="s">
-        <v>2597</v>
+        <v>2576</v>
       </c>
       <c r="G2490" t="s">
-        <v>795</v>
+        <v>2577</v>
       </c>
       <c r="H2490" t="s">
-        <v>810</v>
+        <v>909</v>
       </c>
       <c r="I2490" t="s">
         <v>19</v>
@@ -102767,10 +102824,10 @@
         <v>1</v>
       </c>
       <c r="K2490">
-        <v>2495000</v>
+        <v>9801220</v>
       </c>
       <c r="L2490">
-        <v>2495000</v>
+        <v>9801220</v>
       </c>
     </row>
     <row r="2491" spans="1:12">
@@ -102784,19 +102841,19 @@
         <v>13</v>
       </c>
       <c r="D2491" t="s">
-        <v>2549</v>
+        <v>2563</v>
       </c>
       <c r="E2491" t="s">
-        <v>2596</v>
+        <v>2578</v>
       </c>
       <c r="F2491" t="s">
-        <v>2597</v>
+        <v>2579</v>
       </c>
       <c r="G2491" t="s">
-        <v>795</v>
+        <v>2580</v>
       </c>
       <c r="H2491" t="s">
-        <v>538</v>
+        <v>184</v>
       </c>
       <c r="I2491" t="s">
         <v>19</v>
@@ -102805,10 +102862,10 @@
         <v>1</v>
       </c>
       <c r="K2491">
-        <v>2000000</v>
+        <v>4408826</v>
       </c>
       <c r="L2491">
-        <v>2000000</v>
+        <v>4408826</v>
       </c>
     </row>
     <row r="2492" spans="1:12">
@@ -102822,19 +102879,19 @@
         <v>13</v>
       </c>
       <c r="D2492" t="s">
-        <v>2549</v>
+        <v>2563</v>
       </c>
       <c r="E2492" t="s">
-        <v>2596</v>
+        <v>2581</v>
       </c>
       <c r="F2492" t="s">
-        <v>2597</v>
+        <v>2582</v>
       </c>
       <c r="G2492" t="s">
-        <v>795</v>
+        <v>2583</v>
       </c>
       <c r="H2492" t="s">
-        <v>758</v>
+        <v>70</v>
       </c>
       <c r="I2492" t="s">
         <v>19</v>
@@ -102843,10 +102900,10 @@
         <v>1</v>
       </c>
       <c r="K2492">
-        <v>13320000</v>
+        <v>10140004</v>
       </c>
       <c r="L2492">
-        <v>13320000</v>
+        <v>10140004</v>
       </c>
     </row>
     <row r="2493" spans="1:12">
@@ -102860,19 +102917,19 @@
         <v>13</v>
       </c>
       <c r="D2493" t="s">
-        <v>2549</v>
+        <v>2563</v>
       </c>
       <c r="E2493" t="s">
-        <v>2596</v>
+        <v>2584</v>
       </c>
       <c r="F2493" t="s">
-        <v>2597</v>
+        <v>2585</v>
       </c>
       <c r="G2493" t="s">
-        <v>795</v>
+        <v>2586</v>
       </c>
       <c r="H2493" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="I2493" t="s">
         <v>19</v>
@@ -102881,10 +102938,10 @@
         <v>1</v>
       </c>
       <c r="K2493">
-        <v>450000</v>
+        <v>4752500</v>
       </c>
       <c r="L2493">
-        <v>450000</v>
+        <v>4752500</v>
       </c>
     </row>
     <row r="2494" spans="1:12">
@@ -102898,19 +102955,19 @@
         <v>13</v>
       </c>
       <c r="D2494" t="s">
-        <v>2549</v>
+        <v>2563</v>
       </c>
       <c r="E2494" t="s">
-        <v>2596</v>
+        <v>2587</v>
       </c>
       <c r="F2494" t="s">
-        <v>2597</v>
+        <v>2588</v>
       </c>
       <c r="G2494" t="s">
-        <v>795</v>
+        <v>2589</v>
       </c>
       <c r="H2494" t="s">
-        <v>825</v>
+        <v>1114</v>
       </c>
       <c r="I2494" t="s">
         <v>19</v>
@@ -102919,10 +102976,10 @@
         <v>1</v>
       </c>
       <c r="K2494">
-        <v>8665051</v>
+        <v>8300000</v>
       </c>
       <c r="L2494">
-        <v>8665051</v>
+        <v>8300000</v>
       </c>
     </row>
     <row r="2495" spans="1:12">
@@ -102936,19 +102993,19 @@
         <v>13</v>
       </c>
       <c r="D2495" t="s">
-        <v>2549</v>
+        <v>2563</v>
       </c>
       <c r="E2495" t="s">
-        <v>2596</v>
+        <v>2590</v>
       </c>
       <c r="F2495" t="s">
-        <v>2597</v>
+        <v>2591</v>
       </c>
       <c r="G2495" t="s">
-        <v>795</v>
+        <v>2592</v>
       </c>
       <c r="H2495" t="s">
-        <v>1216</v>
+        <v>1114</v>
       </c>
       <c r="I2495" t="s">
         <v>19</v>
@@ -102957,10 +103014,10 @@
         <v>1</v>
       </c>
       <c r="K2495">
-        <v>8221758</v>
+        <v>6474000</v>
       </c>
       <c r="L2495">
-        <v>8221758</v>
+        <v>6474000</v>
       </c>
     </row>
     <row r="2496" spans="1:12">
@@ -102974,19 +103031,19 @@
         <v>13</v>
       </c>
       <c r="D2496" t="s">
-        <v>2549</v>
+        <v>2462</v>
       </c>
       <c r="E2496" t="s">
-        <v>2596</v>
+        <v>2593</v>
       </c>
       <c r="F2496" t="s">
-        <v>2597</v>
+        <v>2594</v>
       </c>
       <c r="G2496" t="s">
-        <v>795</v>
+        <v>2595</v>
       </c>
       <c r="H2496" t="s">
-        <v>813</v>
+        <v>89</v>
       </c>
       <c r="I2496" t="s">
         <v>19</v>
@@ -102995,10 +103052,10 @@
         <v>1</v>
       </c>
       <c r="K2496">
-        <v>1055900</v>
+        <v>76500000</v>
       </c>
       <c r="L2496">
-        <v>1055900</v>
+        <v>76500000</v>
       </c>
     </row>
     <row r="2497" spans="1:12">
@@ -103012,19 +103069,19 @@
         <v>13</v>
       </c>
       <c r="D2497" t="s">
-        <v>2549</v>
+        <v>2462</v>
       </c>
       <c r="E2497" t="s">
-        <v>2596</v>
+        <v>2593</v>
       </c>
       <c r="F2497" t="s">
-        <v>2597</v>
+        <v>2594</v>
       </c>
       <c r="G2497" t="s">
-        <v>795</v>
+        <v>2595</v>
       </c>
       <c r="H2497" t="s">
-        <v>814</v>
+        <v>90</v>
       </c>
       <c r="I2497" t="s">
         <v>19</v>
@@ -103033,10 +103090,10 @@
         <v>1</v>
       </c>
       <c r="K2497">
-        <v>3000000</v>
+        <v>5600000</v>
       </c>
       <c r="L2497">
-        <v>3000000</v>
+        <v>5600000</v>
       </c>
     </row>
     <row r="2498" spans="1:12">
@@ -103050,7 +103107,7 @@
         <v>13</v>
       </c>
       <c r="D2498" t="s">
-        <v>2549</v>
+        <v>2563</v>
       </c>
       <c r="E2498" t="s">
         <v>2596</v>
@@ -103059,10 +103116,10 @@
         <v>2597</v>
       </c>
       <c r="G2498" t="s">
-        <v>795</v>
+        <v>2598</v>
       </c>
       <c r="H2498" t="s">
-        <v>582</v>
+        <v>764</v>
       </c>
       <c r="I2498" t="s">
         <v>19</v>
@@ -103071,10 +103128,10 @@
         <v>1</v>
       </c>
       <c r="K2498">
-        <v>720000</v>
+        <v>9953640</v>
       </c>
       <c r="L2498">
-        <v>720000</v>
+        <v>9953640</v>
       </c>
     </row>
     <row r="2499" spans="1:12">
@@ -103088,19 +103145,19 @@
         <v>13</v>
       </c>
       <c r="D2499" t="s">
-        <v>2549</v>
+        <v>2563</v>
       </c>
       <c r="E2499" t="s">
-        <v>2596</v>
+        <v>2599</v>
       </c>
       <c r="F2499" t="s">
-        <v>2597</v>
+        <v>2600</v>
       </c>
       <c r="G2499" t="s">
-        <v>795</v>
+        <v>2601</v>
       </c>
       <c r="H2499" t="s">
-        <v>1217</v>
+        <v>1356</v>
       </c>
       <c r="I2499" t="s">
         <v>19</v>
@@ -103109,10 +103166,10 @@
         <v>1</v>
       </c>
       <c r="K2499">
-        <v>220000</v>
+        <v>8415757</v>
       </c>
       <c r="L2499">
-        <v>220000</v>
+        <v>8415757</v>
       </c>
     </row>
     <row r="2500" spans="1:12">
@@ -103126,19 +103183,19 @@
         <v>13</v>
       </c>
       <c r="D2500" t="s">
-        <v>2549</v>
+        <v>2563</v>
       </c>
       <c r="E2500" t="s">
-        <v>2596</v>
+        <v>2602</v>
       </c>
       <c r="F2500" t="s">
-        <v>2597</v>
+        <v>2603</v>
       </c>
       <c r="G2500" t="s">
-        <v>795</v>
+        <v>2604</v>
       </c>
       <c r="H2500" t="s">
-        <v>817</v>
+        <v>2477</v>
       </c>
       <c r="I2500" t="s">
         <v>19</v>
@@ -103147,10 +103204,10 @@
         <v>1</v>
       </c>
       <c r="K2500">
-        <v>450000</v>
+        <v>6228560</v>
       </c>
       <c r="L2500">
-        <v>450000</v>
+        <v>6228560</v>
       </c>
     </row>
     <row r="2501" spans="1:12">
@@ -103164,19 +103221,19 @@
         <v>13</v>
       </c>
       <c r="D2501" t="s">
-        <v>2549</v>
+        <v>2563</v>
       </c>
       <c r="E2501" t="s">
-        <v>2596</v>
+        <v>2605</v>
       </c>
       <c r="F2501" t="s">
-        <v>2597</v>
+        <v>2606</v>
       </c>
       <c r="G2501" t="s">
-        <v>795</v>
+        <v>2607</v>
       </c>
       <c r="H2501" t="s">
-        <v>190</v>
+        <v>2608</v>
       </c>
       <c r="I2501" t="s">
         <v>19</v>
@@ -103185,10 +103242,10 @@
         <v>1</v>
       </c>
       <c r="K2501">
-        <v>900000</v>
+        <v>18411060</v>
       </c>
       <c r="L2501">
-        <v>900000</v>
+        <v>18411060</v>
       </c>
     </row>
     <row r="2502" spans="1:12">
@@ -103202,19 +103259,19 @@
         <v>13</v>
       </c>
       <c r="D2502" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2502" t="s">
-        <v>2596</v>
+        <v>2609</v>
       </c>
       <c r="F2502" t="s">
-        <v>2597</v>
+        <v>2610</v>
       </c>
       <c r="G2502" t="s">
         <v>795</v>
       </c>
       <c r="H2502" t="s">
-        <v>396</v>
+        <v>170</v>
       </c>
       <c r="I2502" t="s">
         <v>19</v>
@@ -103223,10 +103280,10 @@
         <v>1</v>
       </c>
       <c r="K2502">
-        <v>210000</v>
+        <v>16820150</v>
       </c>
       <c r="L2502">
-        <v>210000</v>
+        <v>16820150</v>
       </c>
     </row>
     <row r="2503" spans="1:12">
@@ -103240,19 +103297,19 @@
         <v>13</v>
       </c>
       <c r="D2503" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2503" t="s">
-        <v>2596</v>
+        <v>2609</v>
       </c>
       <c r="F2503" t="s">
-        <v>2597</v>
+        <v>2610</v>
       </c>
       <c r="G2503" t="s">
         <v>795</v>
       </c>
       <c r="H2503" t="s">
-        <v>397</v>
+        <v>171</v>
       </c>
       <c r="I2503" t="s">
         <v>19</v>
@@ -103261,10 +103318,10 @@
         <v>1</v>
       </c>
       <c r="K2503">
-        <v>150000</v>
+        <v>2536500</v>
       </c>
       <c r="L2503">
-        <v>150000</v>
+        <v>2536500</v>
       </c>
     </row>
     <row r="2504" spans="1:12">
@@ -103278,19 +103335,19 @@
         <v>13</v>
       </c>
       <c r="D2504" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2504" t="s">
-        <v>2596</v>
+        <v>2609</v>
       </c>
       <c r="F2504" t="s">
-        <v>2597</v>
+        <v>2610</v>
       </c>
       <c r="G2504" t="s">
         <v>795</v>
       </c>
       <c r="H2504" t="s">
-        <v>398</v>
+        <v>796</v>
       </c>
       <c r="I2504" t="s">
         <v>19</v>
@@ -103299,10 +103356,10 @@
         <v>1</v>
       </c>
       <c r="K2504">
-        <v>750000</v>
+        <v>3057000</v>
       </c>
       <c r="L2504">
-        <v>750000</v>
+        <v>3057000</v>
       </c>
     </row>
     <row r="2505" spans="1:12">
@@ -103316,19 +103373,19 @@
         <v>13</v>
       </c>
       <c r="D2505" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2505" t="s">
-        <v>2596</v>
+        <v>2609</v>
       </c>
       <c r="F2505" t="s">
-        <v>2597</v>
+        <v>2610</v>
       </c>
       <c r="G2505" t="s">
         <v>795</v>
       </c>
       <c r="H2505" t="s">
-        <v>2598</v>
+        <v>172</v>
       </c>
       <c r="I2505" t="s">
         <v>19</v>
@@ -103337,10 +103394,10 @@
         <v>1</v>
       </c>
       <c r="K2505">
-        <v>130000</v>
+        <v>1074902</v>
       </c>
       <c r="L2505">
-        <v>130000</v>
+        <v>1074902</v>
       </c>
     </row>
     <row r="2506" spans="1:12">
@@ -103354,19 +103411,19 @@
         <v>13</v>
       </c>
       <c r="D2506" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E2506" t="s">
-        <v>2596</v>
+        <v>2609</v>
       </c>
       <c r="F2506" t="s">
-        <v>2597</v>
+        <v>2610</v>
       </c>
       <c r="G2506" t="s">
         <v>795</v>
       </c>
       <c r="H2506" t="s">
-        <v>732</v>
+        <v>173</v>
       </c>
       <c r="I2506" t="s">
         <v>19</v>
@@ -103375,10 +103432,10 @@
         <v>1</v>
       </c>
       <c r="K2506">
-        <v>300000</v>
+        <v>121284</v>
       </c>
       <c r="L2506">
-        <v>300000</v>
+        <v>121284</v>
       </c>
     </row>
     <row r="2507" spans="1:12">
@@ -103392,19 +103449,19 @@
         <v>13</v>
       </c>
       <c r="D2507" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="E2507" t="s">
-        <v>2599</v>
+        <v>2609</v>
       </c>
       <c r="F2507" t="s">
-        <v>2600</v>
+        <v>2610</v>
       </c>
       <c r="G2507" t="s">
-        <v>2601</v>
+        <v>795</v>
       </c>
       <c r="H2507" t="s">
-        <v>2602</v>
+        <v>1636</v>
       </c>
       <c r="I2507" t="s">
         <v>19</v>
@@ -103413,10 +103470,10 @@
         <v>1</v>
       </c>
       <c r="K2507">
-        <v>1539452</v>
+        <v>4500000</v>
       </c>
       <c r="L2507">
-        <v>1539452</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="2508" spans="1:12">
@@ -103430,19 +103487,19 @@
         <v>13</v>
       </c>
       <c r="D2508" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="E2508" t="s">
-        <v>2603</v>
+        <v>2609</v>
       </c>
       <c r="F2508" t="s">
-        <v>2604</v>
+        <v>2610</v>
       </c>
       <c r="G2508" t="s">
-        <v>1674</v>
+        <v>795</v>
       </c>
       <c r="H2508" t="s">
-        <v>201</v>
+        <v>797</v>
       </c>
       <c r="I2508" t="s">
         <v>19</v>
@@ -103451,10 +103508,10 @@
         <v>1</v>
       </c>
       <c r="K2508">
-        <v>10000</v>
+        <v>284580</v>
       </c>
       <c r="L2508">
-        <v>10000</v>
+        <v>284580</v>
       </c>
     </row>
     <row r="2509" spans="1:12">
@@ -103468,19 +103525,19 @@
         <v>13</v>
       </c>
       <c r="D2509" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="E2509" t="s">
-        <v>2603</v>
+        <v>2609</v>
       </c>
       <c r="F2509" t="s">
-        <v>2604</v>
+        <v>2610</v>
       </c>
       <c r="G2509" t="s">
-        <v>1674</v>
+        <v>795</v>
       </c>
       <c r="H2509" t="s">
-        <v>203</v>
+        <v>893</v>
       </c>
       <c r="I2509" t="s">
         <v>19</v>
@@ -103489,10 +103546,10 @@
         <v>1</v>
       </c>
       <c r="K2509">
-        <v>728371</v>
+        <v>2904050</v>
       </c>
       <c r="L2509">
-        <v>728371</v>
+        <v>2904050</v>
       </c>
     </row>
     <row r="2510" spans="1:12">
@@ -103506,19 +103563,19 @@
         <v>13</v>
       </c>
       <c r="D2510" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="E2510" t="s">
-        <v>2603</v>
+        <v>2609</v>
       </c>
       <c r="F2510" t="s">
-        <v>2604</v>
+        <v>2610</v>
       </c>
       <c r="G2510" t="s">
-        <v>1674</v>
+        <v>795</v>
       </c>
       <c r="H2510" t="s">
-        <v>2605</v>
+        <v>798</v>
       </c>
       <c r="I2510" t="s">
         <v>19</v>
@@ -103527,10 +103584,10 @@
         <v>1</v>
       </c>
       <c r="K2510">
-        <v>161547</v>
+        <v>2997000</v>
       </c>
       <c r="L2510">
-        <v>161547</v>
+        <v>2997000</v>
       </c>
     </row>
     <row r="2511" spans="1:12">
@@ -103544,19 +103601,19 @@
         <v>13</v>
       </c>
       <c r="D2511" t="s">
-        <v>2606</v>
+        <v>2559</v>
       </c>
       <c r="E2511" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="F2511" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="G2511" t="s">
-        <v>2609</v>
+        <v>795</v>
       </c>
       <c r="H2511" t="s">
-        <v>768</v>
+        <v>894</v>
       </c>
       <c r="I2511" t="s">
         <v>19</v>
@@ -103565,10 +103622,10 @@
         <v>1</v>
       </c>
       <c r="K2511">
-        <v>12094302</v>
+        <v>2986000</v>
       </c>
       <c r="L2511">
-        <v>12094302</v>
+        <v>2986000</v>
       </c>
     </row>
     <row r="2512" spans="1:12">
@@ -103582,19 +103639,19 @@
         <v>13</v>
       </c>
       <c r="D2512" t="s">
-        <v>2606</v>
+        <v>2559</v>
       </c>
       <c r="E2512" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2512" t="s">
         <v>2610</v>
       </c>
-      <c r="F2512" t="s">
-        <v>2611</v>
-      </c>
       <c r="G2512" t="s">
-        <v>2612</v>
+        <v>795</v>
       </c>
       <c r="H2512" t="s">
-        <v>729</v>
+        <v>896</v>
       </c>
       <c r="I2512" t="s">
         <v>19</v>
@@ -103603,10 +103660,10 @@
         <v>1</v>
       </c>
       <c r="K2512">
-        <v>2397500</v>
+        <v>2771900</v>
       </c>
       <c r="L2512">
-        <v>2397500</v>
+        <v>2771900</v>
       </c>
     </row>
     <row r="2513" spans="1:12">
@@ -103620,19 +103677,19 @@
         <v>13</v>
       </c>
       <c r="D2513" t="s">
-        <v>2606</v>
+        <v>2559</v>
       </c>
       <c r="E2513" t="s">
-        <v>2613</v>
+        <v>2609</v>
       </c>
       <c r="F2513" t="s">
-        <v>2614</v>
+        <v>2610</v>
       </c>
       <c r="G2513" t="s">
-        <v>2615</v>
+        <v>795</v>
       </c>
       <c r="H2513" t="s">
-        <v>1540</v>
+        <v>799</v>
       </c>
       <c r="I2513" t="s">
         <v>19</v>
@@ -103641,10 +103698,10 @@
         <v>1</v>
       </c>
       <c r="K2513">
-        <v>780000</v>
+        <v>3013000</v>
       </c>
       <c r="L2513">
-        <v>780000</v>
+        <v>3013000</v>
       </c>
     </row>
     <row r="2514" spans="1:12">
@@ -103658,19 +103715,19 @@
         <v>13</v>
       </c>
       <c r="D2514" t="s">
-        <v>2606</v>
+        <v>2559</v>
       </c>
       <c r="E2514" t="s">
-        <v>2613</v>
+        <v>2609</v>
       </c>
       <c r="F2514" t="s">
-        <v>2614</v>
+        <v>2610</v>
       </c>
       <c r="G2514" t="s">
-        <v>2615</v>
+        <v>795</v>
       </c>
       <c r="H2514" t="s">
-        <v>1541</v>
+        <v>802</v>
       </c>
       <c r="I2514" t="s">
         <v>19</v>
@@ -103679,10 +103736,10 @@
         <v>1</v>
       </c>
       <c r="K2514">
-        <v>750000</v>
+        <v>2789500</v>
       </c>
       <c r="L2514">
-        <v>750000</v>
+        <v>2789500</v>
       </c>
     </row>
     <row r="2515" spans="1:12">
@@ -103696,31 +103753,1285 @@
         <v>13</v>
       </c>
       <c r="D2515" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="E2515" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2515" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2515" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2515" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2515" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2515">
+        <v>1</v>
+      </c>
+      <c r="K2515">
+        <v>4997000</v>
+      </c>
+      <c r="L2515">
+        <v>4997000</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:12">
+      <c r="A2516">
+        <v>2513</v>
+      </c>
+      <c r="B2516">
+        <v>626402</v>
+      </c>
+      <c r="C2516" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2516" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2516" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2516" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2516" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2516" t="s">
+        <v>951</v>
+      </c>
+      <c r="I2516" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2516">
+        <v>1</v>
+      </c>
+      <c r="K2516">
+        <v>1983750</v>
+      </c>
+      <c r="L2516">
+        <v>1983750</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:12">
+      <c r="A2517">
+        <v>2514</v>
+      </c>
+      <c r="B2517">
+        <v>626402</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2517" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2517" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2517" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2517" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2517" t="s">
+        <v>952</v>
+      </c>
+      <c r="I2517" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2517">
+        <v>1</v>
+      </c>
+      <c r="K2517">
+        <v>1990000</v>
+      </c>
+      <c r="L2517">
+        <v>1990000</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:12">
+      <c r="A2518">
+        <v>2515</v>
+      </c>
+      <c r="B2518">
+        <v>626402</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2518" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2518" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2518" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2518" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2518" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2518" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2518">
+        <v>1</v>
+      </c>
+      <c r="K2518">
+        <v>2000000</v>
+      </c>
+      <c r="L2518">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:12">
+      <c r="A2519">
+        <v>2516</v>
+      </c>
+      <c r="B2519">
+        <v>626402</v>
+      </c>
+      <c r="C2519" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2519" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2519" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2519" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2519" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2519" t="s">
+        <v>810</v>
+      </c>
+      <c r="I2519" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2519">
+        <v>1</v>
+      </c>
+      <c r="K2519">
+        <v>2495000</v>
+      </c>
+      <c r="L2519">
+        <v>2495000</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:12">
+      <c r="A2520">
+        <v>2517</v>
+      </c>
+      <c r="B2520">
+        <v>626402</v>
+      </c>
+      <c r="C2520" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2520" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2520" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2520" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2520" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2520" t="s">
+        <v>538</v>
+      </c>
+      <c r="I2520" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2520">
+        <v>1</v>
+      </c>
+      <c r="K2520">
+        <v>2000000</v>
+      </c>
+      <c r="L2520">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:12">
+      <c r="A2521">
+        <v>2518</v>
+      </c>
+      <c r="B2521">
+        <v>626402</v>
+      </c>
+      <c r="C2521" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2521" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2521" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2521" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2521" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2521" t="s">
+        <v>758</v>
+      </c>
+      <c r="I2521" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2521">
+        <v>1</v>
+      </c>
+      <c r="K2521">
+        <v>13320000</v>
+      </c>
+      <c r="L2521">
+        <v>13320000</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:12">
+      <c r="A2522">
+        <v>2519</v>
+      </c>
+      <c r="B2522">
+        <v>626402</v>
+      </c>
+      <c r="C2522" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2522" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2522" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2522" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2522" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2522" t="s">
+        <v>574</v>
+      </c>
+      <c r="I2522" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2522">
+        <v>1</v>
+      </c>
+      <c r="K2522">
+        <v>450000</v>
+      </c>
+      <c r="L2522">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:12">
+      <c r="A2523">
+        <v>2520</v>
+      </c>
+      <c r="B2523">
+        <v>626402</v>
+      </c>
+      <c r="C2523" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2523" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2523" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2523" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2523" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2523" t="s">
+        <v>825</v>
+      </c>
+      <c r="I2523" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2523">
+        <v>1</v>
+      </c>
+      <c r="K2523">
+        <v>8665051</v>
+      </c>
+      <c r="L2523">
+        <v>8665051</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:12">
+      <c r="A2524">
+        <v>2521</v>
+      </c>
+      <c r="B2524">
+        <v>626402</v>
+      </c>
+      <c r="C2524" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2524" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2524" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2524" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2524" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2524" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I2524" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2524">
+        <v>1</v>
+      </c>
+      <c r="K2524">
+        <v>8221758</v>
+      </c>
+      <c r="L2524">
+        <v>8221758</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:12">
+      <c r="A2525">
+        <v>2522</v>
+      </c>
+      <c r="B2525">
+        <v>626402</v>
+      </c>
+      <c r="C2525" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2525" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2525" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2525" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2525" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2525" t="s">
+        <v>813</v>
+      </c>
+      <c r="I2525" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2525">
+        <v>1</v>
+      </c>
+      <c r="K2525">
+        <v>1055900</v>
+      </c>
+      <c r="L2525">
+        <v>1055900</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:12">
+      <c r="A2526">
+        <v>2523</v>
+      </c>
+      <c r="B2526">
+        <v>626402</v>
+      </c>
+      <c r="C2526" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2526" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2526" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2526" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2526" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2526" t="s">
+        <v>814</v>
+      </c>
+      <c r="I2526" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2526">
+        <v>1</v>
+      </c>
+      <c r="K2526">
+        <v>3000000</v>
+      </c>
+      <c r="L2526">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:12">
+      <c r="A2527">
+        <v>2524</v>
+      </c>
+      <c r="B2527">
+        <v>626402</v>
+      </c>
+      <c r="C2527" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2527" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2527" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2527" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2527" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2527" t="s">
+        <v>582</v>
+      </c>
+      <c r="I2527" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2527">
+        <v>1</v>
+      </c>
+      <c r="K2527">
+        <v>720000</v>
+      </c>
+      <c r="L2527">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:12">
+      <c r="A2528">
+        <v>2525</v>
+      </c>
+      <c r="B2528">
+        <v>626402</v>
+      </c>
+      <c r="C2528" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2528" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2528" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2528" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2528" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2528" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I2528" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2528">
+        <v>1</v>
+      </c>
+      <c r="K2528">
+        <v>220000</v>
+      </c>
+      <c r="L2528">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:12">
+      <c r="A2529">
+        <v>2526</v>
+      </c>
+      <c r="B2529">
+        <v>626402</v>
+      </c>
+      <c r="C2529" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2529" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2529" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2529" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2529" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2529" t="s">
+        <v>817</v>
+      </c>
+      <c r="I2529" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2529">
+        <v>1</v>
+      </c>
+      <c r="K2529">
+        <v>450000</v>
+      </c>
+      <c r="L2529">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:12">
+      <c r="A2530">
+        <v>2527</v>
+      </c>
+      <c r="B2530">
+        <v>626402</v>
+      </c>
+      <c r="C2530" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2530" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2530" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2530" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2530" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2530" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2530" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2530">
+        <v>1</v>
+      </c>
+      <c r="K2530">
+        <v>900000</v>
+      </c>
+      <c r="L2530">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:12">
+      <c r="A2531">
+        <v>2528</v>
+      </c>
+      <c r="B2531">
+        <v>626402</v>
+      </c>
+      <c r="C2531" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2531" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2531" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2531" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2531" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2531" t="s">
+        <v>396</v>
+      </c>
+      <c r="I2531" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2531">
+        <v>1</v>
+      </c>
+      <c r="K2531">
+        <v>210000</v>
+      </c>
+      <c r="L2531">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:12">
+      <c r="A2532">
+        <v>2529</v>
+      </c>
+      <c r="B2532">
+        <v>626402</v>
+      </c>
+      <c r="C2532" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2532" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2532" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2532" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2532" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2532" t="s">
+        <v>397</v>
+      </c>
+      <c r="I2532" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2532">
+        <v>1</v>
+      </c>
+      <c r="K2532">
+        <v>150000</v>
+      </c>
+      <c r="L2532">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:12">
+      <c r="A2533">
+        <v>2530</v>
+      </c>
+      <c r="B2533">
+        <v>626402</v>
+      </c>
+      <c r="C2533" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2533" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2533" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2533" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2533" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2533" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2533" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2533">
+        <v>1</v>
+      </c>
+      <c r="K2533">
+        <v>750000</v>
+      </c>
+      <c r="L2533">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:12">
+      <c r="A2534">
+        <v>2531</v>
+      </c>
+      <c r="B2534">
+        <v>626402</v>
+      </c>
+      <c r="C2534" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2534" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2534" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2534" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2534" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2534" t="s">
+        <v>2611</v>
+      </c>
+      <c r="I2534" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2534">
+        <v>1</v>
+      </c>
+      <c r="K2534">
+        <v>130000</v>
+      </c>
+      <c r="L2534">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:12">
+      <c r="A2535">
+        <v>2532</v>
+      </c>
+      <c r="B2535">
+        <v>626402</v>
+      </c>
+      <c r="C2535" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2535" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2535" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F2535" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2535" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2535" t="s">
+        <v>732</v>
+      </c>
+      <c r="I2535" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2535">
+        <v>1</v>
+      </c>
+      <c r="K2535">
+        <v>300000</v>
+      </c>
+      <c r="L2535">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:12">
+      <c r="A2536">
+        <v>2533</v>
+      </c>
+      <c r="B2536">
+        <v>626402</v>
+      </c>
+      <c r="C2536" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2536" t="s">
+        <v>2563</v>
+      </c>
+      <c r="E2536" t="s">
+        <v>2612</v>
+      </c>
+      <c r="F2536" t="s">
+        <v>2613</v>
+      </c>
+      <c r="G2536" t="s">
+        <v>2614</v>
+      </c>
+      <c r="H2536" t="s">
+        <v>2615</v>
+      </c>
+      <c r="I2536" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2536">
+        <v>1</v>
+      </c>
+      <c r="K2536">
+        <v>1539452</v>
+      </c>
+      <c r="L2536">
+        <v>1539452</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:12">
+      <c r="A2537">
+        <v>2534</v>
+      </c>
+      <c r="B2537">
+        <v>626402</v>
+      </c>
+      <c r="C2537" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2537" t="s">
+        <v>2563</v>
+      </c>
+      <c r="E2537" t="s">
         <v>2616</v>
       </c>
-      <c r="F2515" t="s">
+      <c r="F2537" t="s">
         <v>2617</v>
       </c>
-      <c r="G2515" t="s">
+      <c r="G2537" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H2537" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2537" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2537">
+        <v>1</v>
+      </c>
+      <c r="K2537">
+        <v>10000</v>
+      </c>
+      <c r="L2537">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:12">
+      <c r="A2538">
+        <v>2535</v>
+      </c>
+      <c r="B2538">
+        <v>626402</v>
+      </c>
+      <c r="C2538" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2538" t="s">
+        <v>2563</v>
+      </c>
+      <c r="E2538" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F2538" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G2538" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H2538" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2538" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2538">
+        <v>1</v>
+      </c>
+      <c r="K2538">
+        <v>728371</v>
+      </c>
+      <c r="L2538">
+        <v>728371</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:12">
+      <c r="A2539">
+        <v>2536</v>
+      </c>
+      <c r="B2539">
+        <v>626402</v>
+      </c>
+      <c r="C2539" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2539" t="s">
+        <v>2563</v>
+      </c>
+      <c r="E2539" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F2539" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G2539" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H2539" t="s">
         <v>2618</v>
       </c>
-      <c r="H2515" t="s">
+      <c r="I2539" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2539">
+        <v>1</v>
+      </c>
+      <c r="K2539">
+        <v>161547</v>
+      </c>
+      <c r="L2539">
+        <v>161547</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:12">
+      <c r="A2540">
+        <v>2537</v>
+      </c>
+      <c r="B2540">
+        <v>626402</v>
+      </c>
+      <c r="C2540" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2540" t="s">
+        <v>2619</v>
+      </c>
+      <c r="E2540" t="s">
+        <v>2620</v>
+      </c>
+      <c r="F2540" t="s">
+        <v>2621</v>
+      </c>
+      <c r="G2540" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H2540" t="s">
+        <v>768</v>
+      </c>
+      <c r="I2540" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2540">
+        <v>1</v>
+      </c>
+      <c r="K2540">
+        <v>12094302</v>
+      </c>
+      <c r="L2540">
+        <v>12094302</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:12">
+      <c r="A2541">
+        <v>2538</v>
+      </c>
+      <c r="B2541">
+        <v>626402</v>
+      </c>
+      <c r="C2541" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2541" t="s">
+        <v>2619</v>
+      </c>
+      <c r="E2541" t="s">
+        <v>2623</v>
+      </c>
+      <c r="F2541" t="s">
+        <v>2624</v>
+      </c>
+      <c r="G2541" t="s">
+        <v>2625</v>
+      </c>
+      <c r="H2541" t="s">
+        <v>729</v>
+      </c>
+      <c r="I2541" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2541">
+        <v>1</v>
+      </c>
+      <c r="K2541">
+        <v>2397500</v>
+      </c>
+      <c r="L2541">
+        <v>2397500</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:12">
+      <c r="A2542">
+        <v>2539</v>
+      </c>
+      <c r="B2542">
+        <v>626402</v>
+      </c>
+      <c r="C2542" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2542" t="s">
+        <v>2619</v>
+      </c>
+      <c r="E2542" t="s">
+        <v>2626</v>
+      </c>
+      <c r="F2542" t="s">
+        <v>2627</v>
+      </c>
+      <c r="G2542" t="s">
+        <v>2628</v>
+      </c>
+      <c r="H2542" t="s">
+        <v>1540</v>
+      </c>
+      <c r="I2542" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2542">
+        <v>1</v>
+      </c>
+      <c r="K2542">
+        <v>780000</v>
+      </c>
+      <c r="L2542">
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:12">
+      <c r="A2543">
+        <v>2540</v>
+      </c>
+      <c r="B2543">
+        <v>626402</v>
+      </c>
+      <c r="C2543" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2543" t="s">
+        <v>2619</v>
+      </c>
+      <c r="E2543" t="s">
+        <v>2626</v>
+      </c>
+      <c r="F2543" t="s">
+        <v>2627</v>
+      </c>
+      <c r="G2543" t="s">
+        <v>2628</v>
+      </c>
+      <c r="H2543" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I2543" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2543">
+        <v>1</v>
+      </c>
+      <c r="K2543">
+        <v>750000</v>
+      </c>
+      <c r="L2543">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:12">
+      <c r="A2544">
+        <v>2541</v>
+      </c>
+      <c r="B2544">
+        <v>626402</v>
+      </c>
+      <c r="C2544" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2544" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E2544" t="s">
+        <v>2629</v>
+      </c>
+      <c r="F2544" t="s">
+        <v>2630</v>
+      </c>
+      <c r="G2544" t="s">
+        <v>2631</v>
+      </c>
+      <c r="H2544" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2544" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2544">
+        <v>1</v>
+      </c>
+      <c r="K2544">
+        <v>199056000</v>
+      </c>
+      <c r="L2544">
+        <v>199056000</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:12">
+      <c r="A2545">
+        <v>2542</v>
+      </c>
+      <c r="B2545">
+        <v>626402</v>
+      </c>
+      <c r="C2545" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2545" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E2545" t="s">
+        <v>2629</v>
+      </c>
+      <c r="F2545" t="s">
+        <v>2630</v>
+      </c>
+      <c r="G2545" t="s">
+        <v>2631</v>
+      </c>
+      <c r="H2545" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2545" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2545">
+        <v>1</v>
+      </c>
+      <c r="K2545">
+        <v>22460000</v>
+      </c>
+      <c r="L2545">
+        <v>22460000</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:12">
+      <c r="A2546">
+        <v>2543</v>
+      </c>
+      <c r="B2546">
+        <v>626402</v>
+      </c>
+      <c r="C2546" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2546" t="s">
+        <v>2563</v>
+      </c>
+      <c r="E2546" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F2546" t="s">
+        <v>2633</v>
+      </c>
+      <c r="G2546" t="s">
+        <v>2634</v>
+      </c>
+      <c r="H2546" t="s">
         <v>261</v>
       </c>
-      <c r="I2515" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2515">
-        <v>1</v>
-      </c>
-      <c r="K2515">
+      <c r="I2546" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2546">
+        <v>1</v>
+      </c>
+      <c r="K2546">
         <v>17367840</v>
       </c>
-      <c r="L2515">
+      <c r="L2546">
         <v>17367840</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:12">
+      <c r="A2547">
+        <v>2544</v>
+      </c>
+      <c r="B2547">
+        <v>626402</v>
+      </c>
+      <c r="C2547" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2547" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E2547" t="s">
+        <v>2635</v>
+      </c>
+      <c r="F2547" t="s">
+        <v>2636</v>
+      </c>
+      <c r="G2547" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H2547" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2547" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2547">
+        <v>1</v>
+      </c>
+      <c r="K2547">
+        <v>61200000</v>
+      </c>
+      <c r="L2547">
+        <v>61200000</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:12">
+      <c r="A2548">
+        <v>2545</v>
+      </c>
+      <c r="B2548">
+        <v>626402</v>
+      </c>
+      <c r="C2548" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2548" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E2548" t="s">
+        <v>2635</v>
+      </c>
+      <c r="F2548" t="s">
+        <v>2636</v>
+      </c>
+      <c r="G2548" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H2548" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2548" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2548">
+        <v>1</v>
+      </c>
+      <c r="K2548">
+        <v>5600000</v>
+      </c>
+      <c r="L2548">
+        <v>5600000</v>
       </c>
     </row>
   </sheetData>
